--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01099AF-82EF-D84A-BCF5-DD7025902D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5083E5E3-6C98-0542-9D09-D90E50120675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="500" windowWidth="31200" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -136,9 +136,6 @@
     <t>eggs</t>
   </si>
   <si>
-    <t>oats_yield</t>
-  </si>
-  <si>
     <t>wheat_yield</t>
   </si>
   <si>
@@ -152,6 +149,12 @@
   </si>
   <si>
     <t>wheat_imports(000cwt)</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>oat_yield</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U10" sqref="U10"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,7 +622,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -646,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -667,19 +670,19 @@
         <v>28</v>
       </c>
       <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
         <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
       </c>
       <c r="T1" t="s">
         <v>2</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -706,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="AD1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE1" t="s">
         <v>23</v>
@@ -7438,7 +7441,7 @@
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S1" t="s">
         <v>11</v>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5083E5E3-6C98-0542-9D09-D90E50120675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D0905-385A-7D46-823C-79A339FE1294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="500" windowWidth="31200" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Root-Prod</t>
-  </si>
-  <si>
-    <t>Potatoes-Prod</t>
   </si>
   <si>
     <t>Cattle-Prod</t>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>oat_yield</t>
+  </si>
+  <si>
+    <t>potato_yield</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K12" sqref="K12"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,112 +622,112 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" t="s">
-        <v>35</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
       </c>
       <c r="W1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" t="s">
         <v>3</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" t="s">
-        <v>9</v>
-      </c>
       <c r="AD1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" t="s">
-        <v>27</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -7419,7 +7419,7 @@
   <sheetData>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7441,19 +7441,19 @@
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="3:29" x14ac:dyDescent="0.2">
@@ -8960,10 +8960,10 @@
         <v>0.49</v>
       </c>
       <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="s">
         <v>30</v>
-      </c>
-      <c r="P44" t="s">
-        <v>31</v>
       </c>
       <c r="S44">
         <v>7.7290000000000001</v>
@@ -12715,10 +12715,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D0905-385A-7D46-823C-79A339FE1294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335690D4-A618-8D4D-B93F-76AC08289E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="500" windowWidth="31200" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -184,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -246,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -266,6 +272,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,9 +589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
   <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1946,6 +1953,9 @@
       <c r="S26" s="11">
         <v>76</v>
       </c>
+      <c r="T26" s="19">
+        <v>400</v>
+      </c>
       <c r="U26" s="17"/>
       <c r="AD26">
         <v>228</v>
@@ -2012,6 +2022,9 @@
       </c>
       <c r="S27" s="11">
         <v>113</v>
+      </c>
+      <c r="T27" s="19">
+        <v>129</v>
       </c>
       <c r="U27" s="17"/>
       <c r="AD27">

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335690D4-A618-8D4D-B93F-76AC08289E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C474279-F136-F840-A6AB-DB8A4452A3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="500" windowWidth="31200" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -133,12 +133,6 @@
     <t>eggs</t>
   </si>
   <si>
-    <t>wheat_yield</t>
-  </si>
-  <si>
-    <t>barley_yield</t>
-  </si>
-  <si>
     <t>potato_price_wage_odd</t>
   </si>
   <si>
@@ -151,10 +145,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>oat_yield</t>
+    <t>potato_yield</t>
   </si>
   <si>
-    <t>potato_yield</t>
+    <t>wheat_acre</t>
+  </si>
+  <si>
+    <t>oat_acre</t>
+  </si>
+  <si>
+    <t>barley_acre</t>
   </si>
 </sst>
 </file>
@@ -589,9 +589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
   <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,7 +629,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -677,19 +677,19 @@
         <v>27</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" t="s">
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
         <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>34</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="AD1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE1" t="s">
         <v>22</v>
@@ -7454,7 +7454,7 @@
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S1" t="s">
         <v>10</v>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C474279-F136-F840-A6AB-DB8A4452A3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B3547D-C095-6A45-B700-299734DE0ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="500" windowWidth="31200" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="11500" yWindow="500" windowWidth="22100" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,9 +589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
   <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1886,6 +1886,9 @@
       <c r="S25" s="11">
         <v>65</v>
       </c>
+      <c r="T25" s="11">
+        <v>331</v>
+      </c>
       <c r="U25" s="17"/>
       <c r="AD25">
         <v>435</v>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B3547D-C095-6A45-B700-299734DE0ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69F2072-B932-A049-AB79-C0B071DF2E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11500" yWindow="500" windowWidth="22100" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -133,6 +133,12 @@
     <t>eggs</t>
   </si>
   <si>
+    <t>wheat_yield</t>
+  </si>
+  <si>
+    <t>barley_yield</t>
+  </si>
+  <si>
     <t>potato_price_wage_odd</t>
   </si>
   <si>
@@ -145,22 +151,22 @@
     <t>year</t>
   </si>
   <si>
+    <t>oat_yield</t>
+  </si>
+  <si>
     <t>potato_yield</t>
   </si>
   <si>
-    <t>wheat_acre</t>
-  </si>
-  <si>
-    <t>oat_acre</t>
-  </si>
-  <si>
-    <t>barley_acre</t>
+    <t>nominal_share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -252,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -273,6 +279,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,11 +598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AJ81"/>
+  <dimension ref="A1:AK81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T21" sqref="T21"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,23 +624,25 @@
     <col min="16" max="16" width="9.83203125" customWidth="1"/>
     <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="18" width="10.1640625" customWidth="1"/>
-    <col min="19" max="22" width="11.5" customWidth="1"/>
-    <col min="23" max="23" width="11.1640625" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" customWidth="1"/>
-    <col min="25" max="25" width="11.1640625" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" customWidth="1"/>
-    <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="13.83203125" customWidth="1"/>
-    <col min="31" max="31" width="13.6640625" customWidth="1"/>
-    <col min="32" max="32" width="12.83203125" customWidth="1"/>
-    <col min="33" max="33" width="12.5" customWidth="1"/>
+    <col min="19" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="20" customWidth="1"/>
+    <col min="22" max="23" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="11.1640625" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" customWidth="1"/>
+    <col min="28" max="28" width="9" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="11" customWidth="1"/>
+    <col min="31" max="31" width="13.83203125" customWidth="1"/>
+    <col min="32" max="32" width="13.6640625" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" customWidth="1"/>
+    <col min="34" max="34" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -656,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -677,67 +690,70 @@
         <v>27</v>
       </c>
       <c r="Q1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R1" t="s">
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -783,12 +799,12 @@
       <c r="S2" s="11">
         <v>60</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="AJ2">
+      <c r="V2" s="17"/>
+      <c r="AK2">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -826,12 +842,18 @@
       <c r="S3" s="11">
         <v>63</v>
       </c>
-      <c r="U3" s="17"/>
-      <c r="AJ3">
+      <c r="T3" s="8">
+        <v>178.44</v>
+      </c>
+      <c r="U3" s="20">
+        <v>0.2351</v>
+      </c>
+      <c r="V3" s="17"/>
+      <c r="AK3">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -869,12 +891,18 @@
       <c r="S4" s="11">
         <v>68</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="AJ4">
+      <c r="T4" s="8">
+        <v>187.25</v>
+      </c>
+      <c r="U4" s="20">
+        <v>0.2467</v>
+      </c>
+      <c r="V4" s="17"/>
+      <c r="AK4">
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -912,12 +940,18 @@
       <c r="S5" s="11">
         <v>61</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="AJ5">
+      <c r="T5" s="8">
+        <v>193.01</v>
+      </c>
+      <c r="U5" s="20">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="V5" s="17"/>
+      <c r="AK5">
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -958,12 +992,18 @@
       <c r="S6" s="11">
         <v>59</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="AJ6">
+      <c r="T6" s="8">
+        <v>239.09</v>
+      </c>
+      <c r="U6" s="20">
+        <v>0.315</v>
+      </c>
+      <c r="V6" s="17"/>
+      <c r="AK6">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -1001,12 +1041,18 @@
       <c r="S7" s="11">
         <v>66</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="AJ7">
+      <c r="T7" s="8">
+        <v>300.26</v>
+      </c>
+      <c r="U7" s="20">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="V7" s="17"/>
+      <c r="AK7">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -1044,12 +1090,18 @@
       <c r="S8" s="11">
         <v>69</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="AJ8">
+      <c r="T8" s="8">
+        <v>295.70999999999998</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0.3896</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="AK8">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1087,12 +1139,18 @@
       <c r="S9" s="11">
         <v>65</v>
       </c>
-      <c r="U9" s="17"/>
-      <c r="AJ9">
+      <c r="T9" s="8">
+        <v>221.25</v>
+      </c>
+      <c r="U9" s="20">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="AK9">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1130,12 +1188,18 @@
       <c r="S10" s="11">
         <v>64</v>
       </c>
-      <c r="U10" s="17"/>
-      <c r="AJ10">
+      <c r="T10" s="8">
+        <v>222.92</v>
+      </c>
+      <c r="U10" s="20">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="AK10">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1176,12 +1240,18 @@
       <c r="S11" s="11">
         <v>65</v>
       </c>
-      <c r="U11" s="17"/>
-      <c r="AJ11">
+      <c r="T11" s="8">
+        <v>227.7</v>
+      </c>
+      <c r="U11" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="AK11">
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1219,12 +1289,18 @@
       <c r="S12" s="11">
         <v>78</v>
       </c>
-      <c r="U12" s="17"/>
-      <c r="AJ12">
+      <c r="T12" s="8">
+        <v>224.44</v>
+      </c>
+      <c r="U12" s="20">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="AK12">
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1262,12 +1338,18 @@
       <c r="S13" s="11">
         <v>63</v>
       </c>
-      <c r="U13" s="17"/>
-      <c r="AJ13">
+      <c r="T13" s="8">
+        <v>212.52</v>
+      </c>
+      <c r="U13" s="20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="AK13">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1305,12 +1387,18 @@
       <c r="S14" s="11">
         <v>55</v>
       </c>
-      <c r="U14" s="17"/>
-      <c r="AJ14">
+      <c r="T14" s="8">
+        <v>280.07</v>
+      </c>
+      <c r="U14" s="20">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="V14" s="17"/>
+      <c r="AK14">
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1348,12 +1436,18 @@
       <c r="S15" s="11">
         <v>57</v>
       </c>
-      <c r="U15" s="17"/>
-      <c r="AJ15">
+      <c r="T15" s="8">
+        <v>280.83</v>
+      </c>
+      <c r="U15" s="20">
+        <v>0.37</v>
+      </c>
+      <c r="V15" s="17"/>
+      <c r="AK15">
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1394,12 +1488,18 @@
       <c r="S16" s="11">
         <v>59</v>
       </c>
-      <c r="U16" s="17"/>
-      <c r="AJ16">
+      <c r="T16" s="8">
+        <v>235.29</v>
+      </c>
+      <c r="U16" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="V16" s="17"/>
+      <c r="AK16">
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1437,12 +1537,18 @@
       <c r="S17" s="11">
         <v>65</v>
       </c>
-      <c r="U17" s="17"/>
-      <c r="AJ17">
+      <c r="T17" s="8">
+        <v>243.26</v>
+      </c>
+      <c r="U17" s="20">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="V17" s="17"/>
+      <c r="AK17">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1480,12 +1586,18 @@
       <c r="S18" s="11">
         <v>63</v>
       </c>
-      <c r="U18" s="17"/>
-      <c r="AJ18">
+      <c r="T18" s="8">
+        <v>243.49</v>
+      </c>
+      <c r="U18" s="20">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="V18" s="17"/>
+      <c r="AK18">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -1523,12 +1635,18 @@
       <c r="S19" s="11">
         <v>62</v>
       </c>
-      <c r="U19" s="17"/>
-      <c r="AJ19">
+      <c r="T19" s="8">
+        <v>244.02</v>
+      </c>
+      <c r="U19" s="20">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="V19" s="17"/>
+      <c r="AK19">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -1566,30 +1684,36 @@
       <c r="S20" s="11">
         <v>79</v>
       </c>
-      <c r="U20" s="17"/>
-      <c r="AD20">
+      <c r="T20" s="8">
+        <v>239.46</v>
+      </c>
+      <c r="U20" s="21">
+        <v>0.3155</v>
+      </c>
+      <c r="V20" s="17"/>
+      <c r="AE20">
         <v>516</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>197</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>55</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>471</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>95</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>38</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -1636,30 +1760,36 @@
       <c r="S21" s="11">
         <v>71</v>
       </c>
-      <c r="U21" s="17"/>
-      <c r="AD21">
+      <c r="T21" s="8">
+        <v>212.52</v>
+      </c>
+      <c r="U21" s="20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V21" s="17"/>
+      <c r="AE21">
         <v>722</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>80</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>38</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>318</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>51</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>21</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -1697,36 +1827,42 @@
       <c r="S22" s="11">
         <v>63</v>
       </c>
-      <c r="U22" s="17"/>
-      <c r="W22">
+      <c r="T22" s="8">
+        <v>204.93</v>
+      </c>
+      <c r="U22" s="20">
+        <v>0.27</v>
+      </c>
+      <c r="V22" s="17"/>
+      <c r="X22">
         <v>2250</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>2106</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>651</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>88</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>8</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>399</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>74</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>6</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -1764,30 +1900,36 @@
       <c r="S23" s="11">
         <v>55</v>
       </c>
-      <c r="U23" s="17"/>
-      <c r="AD23">
+      <c r="T23" s="8">
+        <v>227.7</v>
+      </c>
+      <c r="U23" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="V23" s="17"/>
+      <c r="AE23">
         <v>799</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>131</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>54</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>368</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>112</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>46</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -1825,30 +1967,36 @@
       <c r="S24" s="11">
         <v>58</v>
       </c>
-      <c r="U24" s="17"/>
-      <c r="AD24">
+      <c r="T24" s="8">
+        <v>227.7</v>
+      </c>
+      <c r="U24" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="V24" s="17"/>
+      <c r="AE24">
         <v>268</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>9</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>10</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>754</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>9</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>6</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -1889,30 +2037,31 @@
       <c r="T25" s="11">
         <v>331</v>
       </c>
-      <c r="U25" s="17"/>
-      <c r="AD25">
+      <c r="U25" s="21"/>
+      <c r="V25" s="17"/>
+      <c r="AE25">
         <v>435</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>102</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>20</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>802</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>39</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>13</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -1959,30 +2108,31 @@
       <c r="T26" s="19">
         <v>400</v>
       </c>
-      <c r="U26" s="17"/>
-      <c r="AD26">
+      <c r="U26" s="22"/>
+      <c r="V26" s="17"/>
+      <c r="AE26">
         <v>228</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>141</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>28</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1420</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>47</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>18</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -2029,30 +2179,31 @@
       <c r="T27" s="19">
         <v>129</v>
       </c>
-      <c r="U27" s="17"/>
-      <c r="AD27">
+      <c r="U27" s="22"/>
+      <c r="V27" s="17"/>
+      <c r="AE27">
         <v>1175</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>143</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>74</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>717</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>85</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>43</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
@@ -2102,54 +2253,55 @@
       <c r="T28" s="12">
         <v>89</v>
       </c>
-      <c r="U28" s="17"/>
-      <c r="V28" s="12">
+      <c r="U28" s="23"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="12">
         <v>231</v>
       </c>
-      <c r="W28" s="12">
+      <c r="X28" s="12">
         <v>2591</v>
       </c>
-      <c r="X28" s="12">
+      <c r="Y28" s="12">
         <v>0</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Z28" s="12">
         <v>2186</v>
       </c>
-      <c r="Z28" s="12">
+      <c r="AA28" s="12">
         <v>0</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AB28" s="12">
         <v>622</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AC28" s="12">
         <v>5691</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AD28" s="12">
         <v>164</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AE28" s="12">
         <v>3701</v>
       </c>
-      <c r="AE28" s="12">
+      <c r="AF28" s="12">
         <v>497</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AG28" s="12">
         <v>240</v>
       </c>
-      <c r="AG28" s="12">
+      <c r="AH28" s="12">
         <v>355</v>
       </c>
-      <c r="AH28" s="12">
+      <c r="AI28" s="12">
         <v>234</v>
       </c>
-      <c r="AI28" s="12">
+      <c r="AJ28" s="12">
         <v>125</v>
       </c>
-      <c r="AJ28" s="12">
+      <c r="AK28" s="12">
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2199,54 +2351,57 @@
       <c r="T29">
         <v>258</v>
       </c>
-      <c r="U29" s="17"/>
-      <c r="V29">
+      <c r="U29" s="20">
+        <v>0.34</v>
+      </c>
+      <c r="V29" s="17"/>
+      <c r="W29">
         <v>365</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>2736</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1971</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>639</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>6510</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>175</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>2207</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>148</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>12</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>556</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>49</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>9</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2296,54 +2451,57 @@
       <c r="T30">
         <v>219</v>
       </c>
-      <c r="U30" s="17"/>
-      <c r="V30">
+      <c r="U30" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="V30" s="17"/>
+      <c r="W30">
         <v>362</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>2771</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1777</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>795</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>6328</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>183</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>2845</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>311</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>70</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>428</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>65</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>42</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -2405,54 +2563,57 @@
       <c r="T31">
         <v>275</v>
       </c>
-      <c r="U31" s="17"/>
-      <c r="V31">
+      <c r="U31" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="V31" s="17"/>
+      <c r="W31">
         <v>414</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>2918</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1876</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>928</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>6945</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>201</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>3942</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>351</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>72</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>322</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>150</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>31</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -2505,54 +2666,54 @@
       <c r="T32">
         <v>270</v>
       </c>
-      <c r="U32" s="17"/>
-      <c r="V32">
+      <c r="V32" s="17"/>
+      <c r="W32">
         <v>434</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>2967</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2122</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>1085</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>7471</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>235</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>5385</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>292</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>13</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>173</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>145</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>12</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -2605,54 +2766,54 @@
       <c r="T33">
         <v>275</v>
       </c>
-      <c r="U33" s="17"/>
-      <c r="V33">
+      <c r="V33" s="17"/>
+      <c r="W33">
         <v>429</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>3095</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>2614</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>1073</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>8176</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>278</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>4833</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>146</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>21</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>102</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>62</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>14</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -2705,54 +2866,54 @@
       <c r="T34">
         <v>279</v>
       </c>
-      <c r="U34" s="17"/>
-      <c r="V34">
+      <c r="V34" s="17"/>
+      <c r="W34">
         <v>447</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>3383</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>3143</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>1145</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>8661</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>296</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>4728</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>184</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>29</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>135</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>50</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>29</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -2805,54 +2966,54 @@
       <c r="T35">
         <v>308</v>
       </c>
-      <c r="U35" s="17"/>
-      <c r="V35">
+      <c r="V35" s="17"/>
+      <c r="W35">
         <v>449</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>3498</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>1518</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>3722</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>1777</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>1343</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>8630</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>311</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>2939</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>171</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>26</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>252</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>75</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>26</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>541</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -2905,54 +3066,54 @@
       <c r="T36">
         <v>309</v>
       </c>
-      <c r="U36" s="17"/>
-      <c r="V36">
+      <c r="V36" s="17"/>
+      <c r="W36">
         <v>459</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>3564</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>1561</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>3602</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>1734</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>1178</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>8367</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>284</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>2990</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>401</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>15</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>312</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>289</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>15</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -3014,54 +3175,54 @@
       <c r="T37">
         <v>345</v>
       </c>
-      <c r="U37" s="17"/>
-      <c r="V37">
+      <c r="V37" s="17"/>
+      <c r="W37">
         <v>496</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>3588</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>1580</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>3694</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>1655</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>919</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>8908</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>270</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>3491</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>359</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>9</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>359</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>246</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>9</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -3114,54 +3275,54 @@
       <c r="T38">
         <v>359</v>
       </c>
-      <c r="U38" s="17"/>
-      <c r="V38">
+      <c r="V38" s="17"/>
+      <c r="W38">
         <v>511</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>3621</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>1605</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>3452</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>1538</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>1255</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>9491</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>243</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>2843</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>518</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>27</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>334</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>178</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>14</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -3214,54 +3375,54 @@
       <c r="T39">
         <v>360</v>
       </c>
-      <c r="U39" s="17"/>
-      <c r="V39">
+      <c r="V39" s="17"/>
+      <c r="W39">
         <v>512</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>3667</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>1635</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>3495</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>1522</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>1410</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>9563</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>228</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>4159</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>339</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>17</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>298</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>110</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>19</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3314,54 +3475,54 @@
       <c r="T40">
         <v>374</v>
       </c>
-      <c r="U40" s="17"/>
-      <c r="V40">
+      <c r="V40" s="17"/>
+      <c r="W40">
         <v>520</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>3816</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>1690</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>3593</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>1564</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>1266</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>10252</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>219</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>4775</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>238</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>25</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>320</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>42</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>25</v>
       </c>
-      <c r="AJ40">
+      <c r="AK40">
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3414,54 +3575,54 @@
       <c r="T41">
         <v>361</v>
       </c>
-      <c r="U41" s="17"/>
-      <c r="V41">
+      <c r="V41" s="17"/>
+      <c r="W41">
         <v>507</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>3606</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>1626</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>3542</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>1567</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>1271</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>10061</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>194</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>5072</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>362</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>25</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>161</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>61</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>8</v>
       </c>
-      <c r="AJ41">
+      <c r="AK41">
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -3514,54 +3675,54 @@
       <c r="T42">
         <v>349</v>
       </c>
-      <c r="U42" s="17"/>
-      <c r="V42">
+      <c r="V42" s="17"/>
+      <c r="W42">
         <v>496</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>3472</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>1545</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>3556</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>1528</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>1102</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>10371</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>190</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>5365</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>252</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>10</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>236</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>128</v>
       </c>
-      <c r="AI42">
+      <c r="AJ42">
         <v>6</v>
       </c>
-      <c r="AJ42">
+      <c r="AK42">
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -3614,54 +3775,54 @@
       <c r="T43">
         <v>311</v>
       </c>
-      <c r="U43" s="17"/>
-      <c r="V43">
+      <c r="V43" s="17"/>
+      <c r="W43">
         <v>469</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>3255</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>1487</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>3456</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>1495</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>1154</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>9917</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>175</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>8340</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>230</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>232</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>150</v>
       </c>
-      <c r="AH43">
+      <c r="AI43">
         <v>181</v>
       </c>
-      <c r="AI43">
+      <c r="AJ43">
         <v>232</v>
       </c>
-      <c r="AJ43">
+      <c r="AK43">
         <v>626</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -3714,53 +3875,53 @@
       <c r="T44">
         <v>315</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>466</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>3144</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>1397</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>3308</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>1420</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>1067</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>9649</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>166</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>6490</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>136</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>71</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>161</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>62</v>
       </c>
-      <c r="AI44">
+      <c r="AJ44">
         <v>39</v>
       </c>
-      <c r="AJ44">
+      <c r="AK44">
         <v>716</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -3813,53 +3974,53 @@
       <c r="T45">
         <v>322</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>466</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>3262</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>1349</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>3367</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>1435</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>1058</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>10424</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>171</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>6044</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>214</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>12</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>63</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>66</v>
       </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>12</v>
       </c>
-      <c r="AJ45">
+      <c r="AK45">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -3912,53 +4073,53 @@
       <c r="T46">
         <v>330</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>474</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>3498</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>1387</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>3694</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>1579</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>1306</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>10682</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>171</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>6002</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>269</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>50</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>62</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>76</v>
       </c>
-      <c r="AI46">
+      <c r="AJ46">
         <v>25</v>
       </c>
-      <c r="AJ46">
+      <c r="AK46">
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -4020,53 +4181,53 @@
       <c r="T47">
         <v>323</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>466</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>3746</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>1483</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>4274</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>1799</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>1497</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>10890</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>187</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>6575</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>329</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>38</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>59</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>31</v>
       </c>
-      <c r="AI47">
+      <c r="AJ47">
         <v>36</v>
       </c>
-      <c r="AJ47">
+      <c r="AK47">
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -4119,53 +4280,53 @@
       <c r="T48">
         <v>308</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>449</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>3708</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>1521</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>4836</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>2034</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>1235</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>10334</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>190</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>7022</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>360</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>71</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>52</v>
       </c>
-      <c r="AH48">
+      <c r="AI48">
         <v>57</v>
       </c>
-      <c r="AI48">
+      <c r="AJ48">
         <v>30</v>
       </c>
-      <c r="AJ48">
+      <c r="AK48">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -4218,53 +4379,53 @@
       <c r="T49">
         <v>320</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>459</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>3647</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>1476</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>4901</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>2052</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>870</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>10603</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>199</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>7103</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>159</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>36</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>52</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>75</v>
       </c>
-      <c r="AI49">
+      <c r="AJ49">
         <v>35</v>
       </c>
-      <c r="AJ49">
+      <c r="AK49">
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -4317,53 +4478,53 @@
       <c r="T50">
         <v>320</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>463</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>3734</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>1506</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>4651</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>1938</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>1082</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>10802</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>206</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>8003</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>213</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>41</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>51</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>93</v>
       </c>
-      <c r="AI50">
+      <c r="AJ50">
         <v>40</v>
       </c>
-      <c r="AJ50">
+      <c r="AK50">
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -4416,53 +4577,53 @@
       <c r="T51">
         <v>319</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>470</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>3800</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>1529</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>4337</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>1807</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>1461</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>11159</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>212</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>7704</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>259</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>55</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>50</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>110</v>
       </c>
-      <c r="AI51">
+      <c r="AJ51">
         <v>45</v>
       </c>
-      <c r="AJ51">
+      <c r="AK51">
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -4515,53 +4676,53 @@
       <c r="T52">
         <v>322</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>473</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>3976</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>1546</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>4233</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>1752</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>1621</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>11717</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>231</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>8848</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>401</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>75</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>49</v>
       </c>
-      <c r="AH52">
+      <c r="AI52">
         <v>128</v>
       </c>
-      <c r="AI52">
+      <c r="AJ52">
         <v>50</v>
       </c>
-      <c r="AJ52">
+      <c r="AK52">
         <v>725</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -4614,53 +4775,53 @@
       <c r="T53">
         <v>301</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>458</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>4059</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>1552</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>4263</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>1742</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>1389</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>11738</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>239</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>9584</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>784</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>95</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>48</v>
       </c>
-      <c r="AH53">
+      <c r="AI53">
         <v>145</v>
       </c>
-      <c r="AI53">
+      <c r="AJ53">
         <v>55</v>
       </c>
-      <c r="AJ53">
+      <c r="AK53">
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -4713,53 +4874,53 @@
       <c r="T54">
         <v>272</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>424</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>4147</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>1528</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>4485</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>1822</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>1044</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>11863</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>243</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>8746</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>603</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>139</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>47</v>
       </c>
-      <c r="AH54">
+      <c r="AI54">
         <v>163</v>
       </c>
-      <c r="AI54">
+      <c r="AJ54">
         <v>60</v>
       </c>
-      <c r="AJ54">
+      <c r="AK54">
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -4812,53 +4973,53 @@
       <c r="T55">
         <v>270</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>418</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>4125</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>1491</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>4442</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>1818</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>1099</v>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>12068</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>257</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>9113</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>350</v>
       </c>
-      <c r="AF55">
+      <c r="AG55">
         <v>114</v>
       </c>
-      <c r="AG55">
+      <c r="AH55">
         <v>46</v>
       </c>
-      <c r="AH55">
+      <c r="AI55">
         <v>181</v>
       </c>
-      <c r="AI55">
+      <c r="AJ55">
         <v>65</v>
       </c>
-      <c r="AJ55">
+      <c r="AK55">
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -4911,53 +5072,53 @@
       <c r="T56">
         <v>272</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>423</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>4115</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>1530</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>4254</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>1750</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>1252</v>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>12139</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>271</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>11251</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>543</v>
       </c>
-      <c r="AF56">
+      <c r="AG56">
         <v>122</v>
       </c>
-      <c r="AG56">
+      <c r="AH56">
         <v>45</v>
       </c>
-      <c r="AH56">
+      <c r="AI56">
         <v>198</v>
       </c>
-      <c r="AI56">
+      <c r="AJ56">
         <v>70</v>
       </c>
-      <c r="AJ56">
+      <c r="AK56">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -5019,53 +5180,53 @@
       <c r="T57">
         <v>266</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>420</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>4117</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>1533</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>4009</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>1639</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>1425</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>13619</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>264</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>10575</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>670</v>
       </c>
-      <c r="AF57">
+      <c r="AG57">
         <v>81</v>
       </c>
-      <c r="AG57">
+      <c r="AH57">
         <v>45</v>
       </c>
-      <c r="AH57">
+      <c r="AI57">
         <v>216</v>
       </c>
-      <c r="AI57">
+      <c r="AJ57">
         <v>75</v>
       </c>
-      <c r="AJ57">
+      <c r="AK57">
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
@@ -5118,53 +5279,54 @@
       <c r="T58" s="14">
         <v>262</v>
       </c>
-      <c r="V58" s="14">
+      <c r="U58" s="24"/>
+      <c r="W58" s="14">
         <v>415</v>
       </c>
-      <c r="W58" s="14">
+      <c r="X58" s="14">
         <v>3998</v>
       </c>
-      <c r="X58" s="14">
+      <c r="Y58" s="14">
         <v>1523</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="Z58" s="14">
         <v>3988</v>
       </c>
-      <c r="Z58" s="14">
+      <c r="AA58" s="14">
         <v>1629</v>
       </c>
-      <c r="AA58" s="14">
+      <c r="AB58" s="14">
         <v>1469</v>
       </c>
-      <c r="AB58" s="14">
+      <c r="AC58" s="14">
         <v>13566</v>
       </c>
-      <c r="AC58" s="14">
+      <c r="AD58" s="14">
         <v>267</v>
       </c>
-      <c r="AD58" s="14">
+      <c r="AE58" s="14">
         <v>9836</v>
       </c>
-      <c r="AE58" s="14">
+      <c r="AF58" s="14">
         <v>778</v>
       </c>
-      <c r="AF58" s="14">
+      <c r="AG58" s="14">
         <v>208</v>
       </c>
-      <c r="AG58" s="14">
+      <c r="AH58" s="14">
         <v>44</v>
       </c>
-      <c r="AH58" s="14">
+      <c r="AI58" s="14">
         <v>233</v>
       </c>
-      <c r="AI58" s="14">
+      <c r="AJ58" s="14">
         <v>80</v>
       </c>
-      <c r="AJ58" s="14">
+      <c r="AK58" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
@@ -5217,53 +5379,54 @@
       <c r="T59" s="14">
         <v>254</v>
       </c>
-      <c r="V59" s="14">
+      <c r="U59" s="24"/>
+      <c r="W59" s="14">
         <v>404</v>
       </c>
-      <c r="W59" s="14">
+      <c r="X59" s="14">
         <v>3985</v>
       </c>
-      <c r="X59" s="14">
+      <c r="Y59" s="14">
         <v>1484</v>
       </c>
-      <c r="Y59" s="14">
+      <c r="Z59" s="14">
         <v>4095</v>
       </c>
-      <c r="Z59" s="14">
+      <c r="AA59" s="14">
         <v>1654</v>
       </c>
-      <c r="AA59" s="14">
+      <c r="AB59" s="14">
         <v>1269</v>
       </c>
-      <c r="AB59" s="14">
+      <c r="AC59" s="14">
         <v>13711</v>
       </c>
-      <c r="AC59" s="14">
+      <c r="AD59" s="14">
         <v>279</v>
       </c>
-      <c r="AD59" s="14">
+      <c r="AE59" s="14">
         <v>10545</v>
       </c>
-      <c r="AE59" s="14">
+      <c r="AF59" s="14">
         <v>858</v>
       </c>
-      <c r="AF59" s="14">
+      <c r="AG59" s="14">
         <v>179</v>
       </c>
-      <c r="AG59" s="14">
+      <c r="AH59" s="14">
         <v>43</v>
       </c>
-      <c r="AH59" s="14">
+      <c r="AI59" s="14">
         <v>251</v>
       </c>
-      <c r="AI59" s="14">
+      <c r="AJ59" s="14">
         <v>85</v>
       </c>
-      <c r="AJ59" s="14">
+      <c r="AK59" s="14">
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
@@ -5316,53 +5479,54 @@
       <c r="T60" s="14">
         <v>252</v>
       </c>
-      <c r="V60" s="14">
+      <c r="U60" s="24"/>
+      <c r="W60" s="14">
         <v>396</v>
       </c>
-      <c r="W60" s="14">
+      <c r="X60" s="14">
         <v>4068</v>
       </c>
-      <c r="X60" s="14">
+      <c r="Y60" s="14">
         <v>1465</v>
       </c>
-      <c r="Y60" s="14">
+      <c r="Z60" s="14">
         <v>4018</v>
       </c>
-      <c r="Z60" s="14">
+      <c r="AA60" s="14">
         <v>1625</v>
       </c>
-      <c r="AA60" s="14">
+      <c r="AB60" s="14">
         <v>1072</v>
       </c>
-      <c r="AB60" s="14">
+      <c r="AC60" s="14">
         <v>13783</v>
       </c>
-      <c r="AC60" s="14">
+      <c r="AD60" s="14">
         <v>279</v>
       </c>
-      <c r="AD60" s="14">
+      <c r="AE60" s="14">
         <v>10008</v>
       </c>
-      <c r="AE60" s="14">
+      <c r="AF60" s="14">
         <v>650</v>
       </c>
-      <c r="AF60" s="14">
+      <c r="AG60" s="14">
         <v>166</v>
       </c>
-      <c r="AG60" s="14">
+      <c r="AH60" s="14">
         <v>42</v>
       </c>
-      <c r="AH60" s="14">
+      <c r="AI60" s="14">
         <v>269</v>
       </c>
-      <c r="AI60" s="14">
+      <c r="AJ60" s="14">
         <v>91</v>
       </c>
-      <c r="AJ60" s="14">
+      <c r="AK60" s="14">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -5415,53 +5579,53 @@
       <c r="T61">
         <v>247</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>385</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>3922</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>1398</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>3562</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>1440</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>850</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>13430</v>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>266</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>9242</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>632</v>
       </c>
-      <c r="AF61">
+      <c r="AG61">
         <v>140</v>
       </c>
-      <c r="AG61">
+      <c r="AH61">
         <v>41</v>
       </c>
-      <c r="AH61">
+      <c r="AI61">
         <v>286</v>
       </c>
-      <c r="AI61">
+      <c r="AJ61">
         <v>96</v>
       </c>
-      <c r="AJ61">
+      <c r="AK61">
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -5514,53 +5678,53 @@
       <c r="T62">
         <v>257</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>391</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>3957</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>1392</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>3256</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>1338</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>1096</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>13972</v>
       </c>
-      <c r="AC62">
+      <c r="AD62">
         <v>266</v>
       </c>
-      <c r="AD62">
+      <c r="AE62">
         <v>7715</v>
       </c>
-      <c r="AE62">
+      <c r="AF62">
         <v>637</v>
       </c>
-      <c r="AF62">
+      <c r="AG62">
         <v>101</v>
       </c>
-      <c r="AG62">
+      <c r="AH62">
         <v>40</v>
       </c>
-      <c r="AH62">
+      <c r="AI62">
         <v>304</v>
       </c>
-      <c r="AI62">
+      <c r="AJ62">
         <v>101</v>
       </c>
-      <c r="AJ62">
+      <c r="AK62">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -5613,53 +5777,53 @@
       <c r="T63">
         <v>252</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>385</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>3987</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>1399</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>3072</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>1261</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>1430</v>
       </c>
-      <c r="AB63">
+      <c r="AC63">
         <v>13999</v>
       </c>
-      <c r="AC63">
+      <c r="AD63">
         <v>263</v>
       </c>
-      <c r="AD63">
+      <c r="AE63">
         <v>9899</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <v>926</v>
       </c>
-      <c r="AF63">
+      <c r="AG63">
         <v>106</v>
       </c>
-      <c r="AG63">
+      <c r="AH63">
         <v>39</v>
       </c>
-      <c r="AH63">
+      <c r="AI63">
         <v>322</v>
       </c>
-      <c r="AI63">
+      <c r="AJ63">
         <v>106</v>
       </c>
-      <c r="AJ63">
+      <c r="AK63">
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -5712,53 +5876,53 @@
       <c r="T64">
         <v>242</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>379</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>4097</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>1402</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>3219</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>1330</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>1348</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>13382</v>
       </c>
-      <c r="AC64">
+      <c r="AD64">
         <v>263</v>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <v>8985</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <v>819</v>
       </c>
-      <c r="AF64">
+      <c r="AG64">
         <v>299</v>
       </c>
-      <c r="AG64">
+      <c r="AH64">
         <v>38</v>
       </c>
-      <c r="AH64">
+      <c r="AI64">
         <v>339</v>
       </c>
-      <c r="AI64">
+      <c r="AJ64">
         <v>111</v>
       </c>
-      <c r="AJ64">
+      <c r="AK64">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -5811,53 +5975,53 @@
       <c r="T65">
         <v>240</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>375</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>4113</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>1357</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>3245</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>1333</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>1307</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>12747</v>
       </c>
-      <c r="AC65">
+      <c r="AD65">
         <v>254</v>
       </c>
-      <c r="AD65">
+      <c r="AE65">
         <v>7689</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <v>737</v>
       </c>
-      <c r="AF65">
+      <c r="AG65">
         <v>145</v>
       </c>
-      <c r="AG65">
+      <c r="AH65">
         <v>38</v>
       </c>
-      <c r="AH65">
+      <c r="AI65">
         <v>357</v>
       </c>
-      <c r="AI65">
+      <c r="AJ65">
         <v>116</v>
       </c>
-      <c r="AJ65">
+      <c r="AK65">
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -5910,53 +6074,53 @@
       <c r="T66">
         <v>239</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>374</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>4229</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>1417</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>3478</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>1421</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>1269</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <v>13851</v>
       </c>
-      <c r="AC66">
+      <c r="AD66">
         <v>264</v>
       </c>
-      <c r="AD66">
+      <c r="AE66">
         <v>9771</v>
       </c>
-      <c r="AE66">
+      <c r="AF66">
         <v>901</v>
       </c>
-      <c r="AF66">
+      <c r="AG66">
         <v>121</v>
       </c>
-      <c r="AG66">
+      <c r="AH66">
         <v>37</v>
       </c>
-      <c r="AH66">
+      <c r="AI66">
         <v>374</v>
       </c>
-      <c r="AI66">
+      <c r="AJ66">
         <v>121</v>
       </c>
-      <c r="AJ66">
+      <c r="AK66">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -6015,53 +6179,53 @@
       <c r="T67">
         <v>239</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>375</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>4184</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>1419</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>3366</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>1386</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <v>1263</v>
       </c>
-      <c r="AB67">
+      <c r="AC67">
         <v>13910</v>
       </c>
-      <c r="AC67">
+      <c r="AD67">
         <v>266</v>
       </c>
-      <c r="AD67">
+      <c r="AE67">
         <v>6580</v>
       </c>
-      <c r="AE67">
+      <c r="AF67">
         <v>871</v>
       </c>
-      <c r="AF67">
+      <c r="AG67">
         <v>126</v>
       </c>
-      <c r="AG67">
+      <c r="AH67">
         <v>36</v>
       </c>
-      <c r="AH67">
+      <c r="AI67">
         <v>392</v>
       </c>
-      <c r="AI67">
+      <c r="AJ67">
         <v>126</v>
       </c>
-      <c r="AJ67">
+      <c r="AK67">
         <v>616</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -6111,53 +6275,53 @@
       <c r="T68">
         <v>238</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>377</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>4157</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>1394</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>3378</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <v>1382</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <v>1408</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <v>14461</v>
       </c>
-      <c r="AC68">
+      <c r="AD68">
         <v>272</v>
       </c>
-      <c r="AD68">
+      <c r="AE68">
         <v>7611</v>
       </c>
-      <c r="AE68">
+      <c r="AF68">
         <v>952</v>
       </c>
-      <c r="AF68">
+      <c r="AG68">
         <v>281</v>
       </c>
-      <c r="AG68">
+      <c r="AH68">
         <v>35</v>
       </c>
-      <c r="AH68">
+      <c r="AI68">
         <v>410</v>
       </c>
-      <c r="AI68">
+      <c r="AJ68">
         <v>131</v>
       </c>
-      <c r="AJ68">
+      <c r="AK68">
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -6207,53 +6371,53 @@
       <c r="T69">
         <v>239</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>378</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>4099</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>1385</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>3627</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>1485</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>1398</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <v>14486</v>
       </c>
-      <c r="AC69">
+      <c r="AD69">
         <v>296</v>
       </c>
-      <c r="AD69">
+      <c r="AE69">
         <v>6898</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <v>1049</v>
       </c>
-      <c r="AF69">
+      <c r="AG69">
         <v>401</v>
       </c>
-      <c r="AG69">
+      <c r="AH69">
         <v>34</v>
       </c>
-      <c r="AH69">
+      <c r="AI69">
         <v>427</v>
       </c>
-      <c r="AI69">
+      <c r="AJ69">
         <v>136</v>
       </c>
-      <c r="AJ69">
+      <c r="AK69">
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -6303,53 +6467,53 @@
       <c r="T70">
         <v>235</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>373</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>4094</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>1364</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>3789</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <v>1542</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <v>1381</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <v>14857</v>
       </c>
-      <c r="AC70">
+      <c r="AD70">
         <v>304</v>
       </c>
-      <c r="AD70">
+      <c r="AE70">
         <v>7990</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <v>1011</v>
       </c>
-      <c r="AF70">
+      <c r="AG70">
         <v>302</v>
       </c>
-      <c r="AG70">
+      <c r="AH70">
         <v>33</v>
       </c>
-      <c r="AH70">
+      <c r="AI70">
         <v>445</v>
       </c>
-      <c r="AI70">
+      <c r="AJ70">
         <v>141</v>
       </c>
-      <c r="AJ70">
+      <c r="AK70">
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -6399,53 +6563,53 @@
       <c r="T71">
         <v>232</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>372</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>4240</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>1401</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>4323</v>
       </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>1752</v>
       </c>
-      <c r="AA71">
+      <c r="AB71">
         <v>1570</v>
       </c>
-      <c r="AB71">
+      <c r="AC71">
         <v>15408</v>
       </c>
-      <c r="AC71">
+      <c r="AD71">
         <v>327</v>
       </c>
-      <c r="AD71">
+      <c r="AE71">
         <v>7812</v>
       </c>
-      <c r="AE71">
+      <c r="AF71">
         <v>776</v>
       </c>
-      <c r="AF71">
+      <c r="AG71">
         <v>188</v>
       </c>
-      <c r="AG71">
+      <c r="AH71">
         <v>32</v>
       </c>
-      <c r="AH71">
+      <c r="AI71">
         <v>462</v>
       </c>
-      <c r="AI71">
+      <c r="AJ71">
         <v>146</v>
       </c>
-      <c r="AJ71">
+      <c r="AK71">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -6495,53 +6659,53 @@
       <c r="T72">
         <v>222</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>364</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>4449</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>1442</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>4723</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <v>1922</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <v>1368</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <v>15276</v>
       </c>
-      <c r="AC72">
+      <c r="AD72">
         <v>336</v>
       </c>
-      <c r="AD72">
+      <c r="AE72">
         <v>7450</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <v>860</v>
       </c>
-      <c r="AF72">
+      <c r="AG72">
         <v>176</v>
       </c>
-      <c r="AG72">
+      <c r="AH72">
         <v>31</v>
       </c>
-      <c r="AH72">
+      <c r="AI72">
         <v>480</v>
       </c>
-      <c r="AI72">
+      <c r="AJ72">
         <v>152</v>
       </c>
-      <c r="AJ72">
+      <c r="AK72">
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -6591,53 +6755,53 @@
       <c r="T73">
         <v>218</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>357</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>4531</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>1451</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>4828</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>1970</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>1113</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <v>15336</v>
       </c>
-      <c r="AC73">
+      <c r="AD73">
         <v>333</v>
       </c>
-      <c r="AD73">
+      <c r="AE73">
         <v>6704</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <v>1292</v>
       </c>
-      <c r="AF73">
+      <c r="AG73">
         <v>172</v>
       </c>
-      <c r="AG73">
+      <c r="AH73">
         <v>31</v>
       </c>
-      <c r="AH73">
+      <c r="AI73">
         <v>498</v>
       </c>
-      <c r="AI73">
+      <c r="AJ73">
         <v>157</v>
       </c>
-      <c r="AJ73">
+      <c r="AK73">
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -6687,53 +6851,53 @@
       <c r="T74">
         <v>212</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>350</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>4464</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>1441</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>4421</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>1822</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <v>1152</v>
       </c>
-      <c r="AB74">
+      <c r="AC74">
         <v>16097</v>
       </c>
-      <c r="AC74">
+      <c r="AD74">
         <v>323</v>
       </c>
-      <c r="AD74">
+      <c r="AE74">
         <v>6350</v>
       </c>
-      <c r="AE74">
+      <c r="AF74">
         <v>1210</v>
       </c>
-      <c r="AF74">
+      <c r="AG74">
         <v>169</v>
       </c>
-      <c r="AG74">
+      <c r="AH74">
         <v>30</v>
       </c>
-      <c r="AH74">
+      <c r="AI74">
         <v>515</v>
       </c>
-      <c r="AI74">
+      <c r="AJ74">
         <v>162</v>
       </c>
-      <c r="AJ74">
+      <c r="AK74">
         <v>628</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -6783,53 +6947,53 @@
       <c r="T75">
         <v>211</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>355</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>4392</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>1447</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>4105</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>1686</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>1389</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>16181</v>
       </c>
-      <c r="AC75">
+      <c r="AD75">
         <v>319</v>
       </c>
-      <c r="AD75">
+      <c r="AE75">
         <v>5988</v>
       </c>
-      <c r="AE75">
+      <c r="AF75">
         <v>1867</v>
       </c>
-      <c r="AF75">
+      <c r="AG75">
         <v>190</v>
       </c>
-      <c r="AG75">
+      <c r="AH75">
         <v>29</v>
       </c>
-      <c r="AH75">
+      <c r="AI75">
         <v>533</v>
       </c>
-      <c r="AI75">
+      <c r="AJ75">
         <v>167</v>
       </c>
-      <c r="AJ75">
+      <c r="AK75">
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -6879,53 +7043,53 @@
       <c r="T76">
         <v>208</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>351</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>4358</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>1434</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>3913</v>
       </c>
-      <c r="Z76">
+      <c r="AA76">
         <v>1603</v>
       </c>
-      <c r="AA76">
+      <c r="AB76">
         <v>1338</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <v>16370</v>
       </c>
-      <c r="AC76">
+      <c r="AD76">
         <v>305</v>
       </c>
-      <c r="AD76">
+      <c r="AE76">
         <v>6899</v>
       </c>
-      <c r="AE76">
+      <c r="AF76">
         <v>1345</v>
       </c>
-      <c r="AF76">
+      <c r="AG76">
         <v>247</v>
       </c>
-      <c r="AG76">
+      <c r="AH76">
         <v>28</v>
       </c>
-      <c r="AH76">
+      <c r="AI76">
         <v>550</v>
       </c>
-      <c r="AI76">
+      <c r="AJ76">
         <v>172</v>
       </c>
-      <c r="AJ76">
+      <c r="AK76">
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -6984,53 +7148,53 @@
       <c r="T77">
         <v>206</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>349</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>4408</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>1430</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>4081</v>
       </c>
-      <c r="Z77">
+      <c r="AA77">
         <v>1656</v>
       </c>
-      <c r="AA77">
+      <c r="AB77">
         <v>1405</v>
       </c>
-      <c r="AB77">
+      <c r="AC77">
         <v>17538</v>
       </c>
-      <c r="AC77">
+      <c r="AD77">
         <v>306</v>
       </c>
-      <c r="AD77">
+      <c r="AE77">
         <v>5530</v>
       </c>
-      <c r="AE77">
+      <c r="AF77">
         <v>1128</v>
       </c>
-      <c r="AF77">
+      <c r="AG77">
         <v>246</v>
       </c>
-      <c r="AG77">
+      <c r="AH77">
         <v>27</v>
       </c>
-      <c r="AH77">
+      <c r="AI77">
         <v>568</v>
       </c>
-      <c r="AI77">
+      <c r="AJ77">
         <v>177</v>
       </c>
-      <c r="AJ77">
+      <c r="AK77">
         <v>638</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -7080,53 +7244,53 @@
       <c r="T78">
         <v>199</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>340</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>4465</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>1435</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>4158</v>
       </c>
-      <c r="Z78">
+      <c r="AA78">
         <v>1703</v>
       </c>
-      <c r="AA78">
+      <c r="AB78">
         <v>1327</v>
       </c>
-      <c r="AB78">
+      <c r="AC78">
         <v>17777</v>
       </c>
-      <c r="AC78">
+      <c r="AD78">
         <v>299</v>
       </c>
-      <c r="AD78">
+      <c r="AE78">
         <v>5274</v>
       </c>
-      <c r="AE78">
+      <c r="AF78">
         <v>1209</v>
       </c>
-      <c r="AF78">
+      <c r="AG78">
         <v>233</v>
       </c>
-      <c r="AG78">
+      <c r="AH78">
         <v>26</v>
       </c>
-      <c r="AH78">
+      <c r="AI78">
         <v>586</v>
       </c>
-      <c r="AI78">
+      <c r="AJ78">
         <v>182</v>
       </c>
-      <c r="AJ78">
+      <c r="AK78">
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -7176,53 +7340,53 @@
       <c r="T79">
         <v>195</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>337</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>4487</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>1431</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>4288</v>
       </c>
-      <c r="Z79">
+      <c r="AA79">
         <v>1746</v>
       </c>
-      <c r="AA79">
+      <c r="AB79">
         <v>1254</v>
       </c>
-      <c r="AB79">
+      <c r="AC79">
         <v>17687</v>
       </c>
-      <c r="AC79">
+      <c r="AD79">
         <v>296</v>
       </c>
-      <c r="AD79">
+      <c r="AE79">
         <v>4968</v>
       </c>
-      <c r="AE79">
+      <c r="AF79">
         <v>1180</v>
       </c>
-      <c r="AF79">
+      <c r="AG79">
         <v>275</v>
       </c>
-      <c r="AG79">
+      <c r="AH79">
         <v>25</v>
       </c>
-      <c r="AH79">
+      <c r="AI79">
         <v>603</v>
       </c>
-      <c r="AI79">
+      <c r="AJ79">
         <v>187</v>
       </c>
-      <c r="AJ79">
+      <c r="AK79">
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -7272,53 +7436,53 @@
       <c r="T80">
         <v>194</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>335</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>4507</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>1444</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>4365</v>
       </c>
-      <c r="Z80">
+      <c r="AA80">
         <v>1785</v>
       </c>
-      <c r="AA80">
+      <c r="AB80">
         <v>1363</v>
       </c>
-      <c r="AB80">
+      <c r="AC80">
         <v>18234</v>
       </c>
-      <c r="AC80">
+      <c r="AD80">
         <v>304</v>
       </c>
-      <c r="AD80">
+      <c r="AE80">
         <v>5516</v>
       </c>
-      <c r="AE80">
+      <c r="AF80">
         <v>999</v>
       </c>
-      <c r="AF80">
+      <c r="AG80">
         <v>197</v>
       </c>
-      <c r="AG80">
+      <c r="AH80">
         <v>24</v>
       </c>
-      <c r="AH80">
+      <c r="AI80">
         <v>621</v>
       </c>
-      <c r="AI80">
+      <c r="AJ80">
         <v>192</v>
       </c>
-      <c r="AJ80">
+      <c r="AK80">
         <v>645</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -7368,49 +7532,49 @@
       <c r="T81">
         <v>191</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>334</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>4609</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>1458</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>4387</v>
       </c>
-      <c r="Z81">
+      <c r="AA81">
         <v>1798</v>
       </c>
-      <c r="AA81">
+      <c r="AB81">
         <v>1269</v>
       </c>
-      <c r="AB81">
+      <c r="AC81">
         <v>18547</v>
       </c>
-      <c r="AC81">
+      <c r="AD81">
         <v>306</v>
       </c>
-      <c r="AD81">
+      <c r="AE81">
         <v>5325</v>
       </c>
-      <c r="AE81">
+      <c r="AF81">
         <v>1327</v>
       </c>
-      <c r="AF81">
+      <c r="AG81">
         <v>284</v>
       </c>
-      <c r="AG81">
+      <c r="AH81">
         <v>24</v>
       </c>
-      <c r="AH81">
+      <c r="AI81">
         <v>639</v>
       </c>
-      <c r="AI81">
+      <c r="AJ81">
         <v>197</v>
       </c>
-      <c r="AJ81">
+      <c r="AK81">
         <v>683</v>
       </c>
     </row>
@@ -7457,7 +7621,7 @@
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S1" t="s">
         <v>10</v>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69F2072-B932-A049-AB79-C0B071DF2E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CB145A-2A8B-7243-81C3-EF428EC3A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11500" yWindow="500" windowWidth="22100" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O15" sqref="O15"/>
+      <selection pane="topRight" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +843,7 @@
         <v>63</v>
       </c>
       <c r="T3" s="8">
-        <v>178.44</v>
+        <v>184.7886</v>
       </c>
       <c r="U3" s="20">
         <v>0.2351</v>
@@ -892,7 +892,7 @@
         <v>68</v>
       </c>
       <c r="T4" s="8">
-        <v>187.25</v>
+        <v>193.90620000000001</v>
       </c>
       <c r="U4" s="20">
         <v>0.2467</v>
@@ -941,7 +941,7 @@
         <v>61</v>
       </c>
       <c r="T5" s="8">
-        <v>193.01</v>
+        <v>199.87980000000002</v>
       </c>
       <c r="U5" s="20">
         <v>0.25430000000000003</v>
@@ -993,7 +993,7 @@
         <v>59</v>
       </c>
       <c r="T6" s="8">
-        <v>239.09</v>
+        <v>247.59</v>
       </c>
       <c r="U6" s="20">
         <v>0.315</v>
@@ -1042,7 +1042,7 @@
         <v>66</v>
       </c>
       <c r="T7" s="8">
-        <v>300.26</v>
+        <v>310.94159999999999</v>
       </c>
       <c r="U7" s="20">
         <v>0.39560000000000001</v>
@@ -1091,7 +1091,7 @@
         <v>69</v>
       </c>
       <c r="T8" s="8">
-        <v>295.70999999999998</v>
+        <v>306.22559999999999</v>
       </c>
       <c r="U8" s="20">
         <v>0.3896</v>
@@ -1140,7 +1140,7 @@
         <v>65</v>
       </c>
       <c r="T9" s="8">
-        <v>221.25</v>
+        <v>229.11899999999997</v>
       </c>
       <c r="U9" s="20">
         <v>0.29149999999999998</v>
@@ -1189,7 +1189,7 @@
         <v>64</v>
       </c>
       <c r="T10" s="8">
-        <v>222.92</v>
+        <v>230.84820000000002</v>
       </c>
       <c r="U10" s="20">
         <v>0.29370000000000002</v>
@@ -1241,7 +1241,7 @@
         <v>65</v>
       </c>
       <c r="T11" s="8">
-        <v>227.7</v>
+        <v>235.79999999999998</v>
       </c>
       <c r="U11" s="20">
         <v>0.3</v>
@@ -1290,7 +1290,7 @@
         <v>78</v>
       </c>
       <c r="T12" s="8">
-        <v>224.44</v>
+        <v>232.42020000000002</v>
       </c>
       <c r="U12" s="20">
         <v>0.29570000000000002</v>
@@ -1339,7 +1339,7 @@
         <v>63</v>
       </c>
       <c r="T13" s="8">
-        <v>212.52</v>
+        <v>220.08</v>
       </c>
       <c r="U13" s="20">
         <v>0.28000000000000003</v>
@@ -1388,7 +1388,7 @@
         <v>55</v>
       </c>
       <c r="T14" s="8">
-        <v>280.07</v>
+        <v>290.03399999999999</v>
       </c>
       <c r="U14" s="20">
         <v>0.36899999999999999</v>
@@ -1437,7 +1437,7 @@
         <v>57</v>
       </c>
       <c r="T15" s="8">
-        <v>280.83</v>
+        <v>290.82</v>
       </c>
       <c r="U15" s="20">
         <v>0.37</v>
@@ -1489,7 +1489,7 @@
         <v>59</v>
       </c>
       <c r="T16" s="8">
-        <v>235.29</v>
+        <v>243.66</v>
       </c>
       <c r="U16" s="20">
         <v>0.31</v>
@@ -1538,7 +1538,7 @@
         <v>65</v>
       </c>
       <c r="T17" s="8">
-        <v>243.26</v>
+        <v>251.91300000000001</v>
       </c>
       <c r="U17" s="20">
         <v>0.32050000000000001</v>
@@ -1587,7 +1587,7 @@
         <v>63</v>
       </c>
       <c r="T18" s="8">
-        <v>243.49</v>
+        <v>252.14879999999997</v>
       </c>
       <c r="U18" s="20">
         <v>0.32079999999999997</v>
@@ -1636,7 +1636,7 @@
         <v>62</v>
       </c>
       <c r="T19" s="8">
-        <v>244.02</v>
+        <v>252.69900000000001</v>
       </c>
       <c r="U19" s="20">
         <v>0.32150000000000001</v>
@@ -1685,7 +1685,7 @@
         <v>79</v>
       </c>
       <c r="T20" s="8">
-        <v>239.46</v>
+        <v>247.983</v>
       </c>
       <c r="U20" s="21">
         <v>0.3155</v>
@@ -1761,7 +1761,7 @@
         <v>71</v>
       </c>
       <c r="T21" s="8">
-        <v>212.52</v>
+        <v>220.08</v>
       </c>
       <c r="U21" s="20">
         <v>0.28000000000000003</v>
@@ -1828,7 +1828,7 @@
         <v>63</v>
       </c>
       <c r="T22" s="8">
-        <v>204.93</v>
+        <v>212.22000000000003</v>
       </c>
       <c r="U22" s="20">
         <v>0.27</v>
@@ -1901,7 +1901,7 @@
         <v>55</v>
       </c>
       <c r="T23" s="8">
-        <v>227.7</v>
+        <v>235.79999999999998</v>
       </c>
       <c r="U23" s="20">
         <v>0.3</v>
@@ -1968,7 +1968,7 @@
         <v>58</v>
       </c>
       <c r="T24" s="8">
-        <v>227.7</v>
+        <v>235.79999999999998</v>
       </c>
       <c r="U24" s="21">
         <v>0.3</v>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CB145A-2A8B-7243-81C3-EF428EC3A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C151D13B-3609-2149-AC8A-5ADE7B9509E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11500" yWindow="500" windowWidth="22100" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -601,8 +601,8 @@
   <dimension ref="A1:AK81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U19" sqref="U19"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,6 +799,12 @@
       <c r="S2" s="11">
         <v>60</v>
       </c>
+      <c r="T2" s="11">
+        <v>297</v>
+      </c>
+      <c r="U2" s="20">
+        <v>0.37769999999999998</v>
+      </c>
       <c r="V2" s="17"/>
       <c r="AK2">
         <v>473</v>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C151D13B-3609-2149-AC8A-5ADE7B9509E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0242E4-BED9-9248-B218-944C035221F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="500" windowWidth="22100" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="12460" yWindow="500" windowWidth="21140" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
@@ -71,21 +71,6 @@
   </si>
   <si>
     <t>oat_price</t>
-  </si>
-  <si>
-    <t>cattle_price</t>
-  </si>
-  <si>
-    <t>pigs_price</t>
-  </si>
-  <si>
-    <t>sheep_price</t>
-  </si>
-  <si>
-    <t>eggs_price</t>
-  </si>
-  <si>
-    <t>butter_price</t>
   </si>
   <si>
     <t>potato_price</t>
@@ -121,9 +106,6 @@
     <t>oats_exports</t>
   </si>
   <si>
-    <t>crop_prod</t>
-  </si>
-  <si>
     <t>butter_exports</t>
   </si>
   <si>
@@ -131,12 +113,6 @@
   </si>
   <si>
     <t>eggs</t>
-  </si>
-  <si>
-    <t>wheat_yield</t>
-  </si>
-  <si>
-    <t>barley_yield</t>
   </si>
   <si>
     <t>potato_price_wage_odd</t>
@@ -151,20 +127,33 @@
     <t>year</t>
   </si>
   <si>
-    <t>oat_yield</t>
+    <t>wheat_acre</t>
   </si>
   <si>
-    <t>potato_yield</t>
+    <t>oat_acre</t>
+  </si>
+  <si>
+    <t>barley_acre</t>
   </si>
   <si>
     <t>nominal_share</t>
+  </si>
+  <si>
+    <t>potato_prod</t>
+  </si>
+  <si>
+    <t>potato_acre</t>
+  </si>
+  <si>
+    <t>agri_price_index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -258,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -279,6 +268,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -598,11 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AK81"/>
+  <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T2" sqref="T2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,147 +607,130 @@
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="2" customWidth="1"/>
     <col min="9" max="10" width="12.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" customWidth="1"/>
-    <col min="19" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="11.5" style="20" customWidth="1"/>
-    <col min="22" max="23" width="11.5" customWidth="1"/>
-    <col min="24" max="24" width="11.1640625" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" customWidth="1"/>
-    <col min="26" max="26" width="11.1640625" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" customWidth="1"/>
-    <col min="28" max="28" width="9" customWidth="1"/>
-    <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="13.83203125" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.83203125" customWidth="1"/>
-    <col min="34" max="34" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="20" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="25" customWidth="1"/>
+    <col min="18" max="19" width="11.5" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="26" max="26" width="11" customWidth="1"/>
+    <col min="27" max="27" width="13.83203125" customWidth="1"/>
+    <col min="28" max="28" width="13.6640625" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" customWidth="1"/>
+    <col min="30" max="30" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="P1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>5</v>
-      </c>
       <c r="AB1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AC1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AD1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -786,31 +763,29 @@
         <f>G2/D2</f>
         <v>0.27113402061855674</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="Q2" s="11">
+      <c r="K2" s="11">
         <v>156</v>
       </c>
-      <c r="R2" s="11">
+      <c r="L2" s="11">
         <v>402</v>
       </c>
-      <c r="S2" s="11">
+      <c r="M2" s="11">
         <v>60</v>
       </c>
-      <c r="T2" s="11">
-        <v>297</v>
-      </c>
-      <c r="U2" s="20">
+      <c r="N2" s="11">
+        <v>296.87219999999996</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="25">
         <v>0.37769999999999998</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="AK2">
+      <c r="R2" s="17"/>
+      <c r="AG2">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -839,27 +814,29 @@
         <f t="shared" ref="J3:J66" si="0">G3/D3</f>
         <v>0.33999999999999997</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="K3" s="11">
         <v>165</v>
       </c>
-      <c r="R3" s="11">
+      <c r="L3" s="11">
         <v>376</v>
       </c>
-      <c r="S3" s="11">
+      <c r="M3" s="11">
         <v>63</v>
       </c>
-      <c r="T3" s="8">
-        <v>184.7886</v>
-      </c>
-      <c r="U3" s="20">
-        <v>0.2351</v>
-      </c>
-      <c r="V3" s="17"/>
-      <c r="AK3">
+      <c r="N3" s="11">
+        <v>255.52860000000001</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="25">
+        <v>0.3251</v>
+      </c>
+      <c r="R3" s="17"/>
+      <c r="AG3">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -888,27 +865,29 @@
         <f t="shared" si="0"/>
         <v>0.21388888888888891</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="K4" s="11">
         <v>149</v>
       </c>
-      <c r="R4" s="11">
+      <c r="L4" s="11">
         <v>416</v>
       </c>
-      <c r="S4" s="11">
+      <c r="M4" s="11">
         <v>68</v>
       </c>
-      <c r="T4" s="8">
-        <v>193.90620000000001</v>
-      </c>
-      <c r="U4" s="20">
-        <v>0.2467</v>
-      </c>
-      <c r="V4" s="17"/>
-      <c r="AK4">
+      <c r="N4" s="11">
+        <v>272.50619999999998</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="25">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="AG4">
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -937,27 +916,29 @@
         <f t="shared" si="0"/>
         <v>0.48125000000000001</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="K5" s="11">
         <v>171</v>
       </c>
-      <c r="R5" s="11">
+      <c r="L5" s="11">
         <v>504</v>
       </c>
-      <c r="S5" s="11">
+      <c r="M5" s="11">
         <v>61</v>
       </c>
-      <c r="T5" s="8">
-        <v>199.87980000000002</v>
-      </c>
-      <c r="U5" s="20">
-        <v>0.25430000000000003</v>
-      </c>
-      <c r="V5" s="17"/>
-      <c r="AK5">
+      <c r="N5" s="11">
+        <v>275.09999999999997</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="AG5">
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -989,27 +970,29 @@
         <f t="shared" si="0"/>
         <v>0.33124999999999999</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="K6" s="11">
         <v>154</v>
       </c>
-      <c r="R6" s="11">
+      <c r="L6" s="11">
         <v>500</v>
       </c>
-      <c r="S6" s="11">
+      <c r="M6" s="11">
         <v>59</v>
       </c>
-      <c r="T6" s="8">
+      <c r="N6" s="11">
         <v>247.59</v>
       </c>
-      <c r="U6" s="20">
+      <c r="O6" s="11"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="25">
         <v>0.315</v>
       </c>
-      <c r="V6" s="17"/>
-      <c r="AK6">
+      <c r="R6" s="17"/>
+      <c r="AG6">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -1038,27 +1021,28 @@
         <f t="shared" si="0"/>
         <v>0.48125000000000001</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="K7" s="11">
         <v>160</v>
       </c>
-      <c r="R7" s="11">
+      <c r="L7" s="11">
         <v>512</v>
       </c>
-      <c r="S7" s="11">
+      <c r="M7" s="11">
         <v>66</v>
       </c>
-      <c r="T7" s="8">
+      <c r="N7" s="8">
         <v>310.94159999999999</v>
       </c>
-      <c r="U7" s="20">
+      <c r="O7" s="8"/>
+      <c r="Q7" s="25">
         <v>0.39560000000000001</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="AK7">
+      <c r="R7" s="17"/>
+      <c r="AG7">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -1087,27 +1071,28 @@
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="K8" s="11">
         <v>153</v>
       </c>
-      <c r="R8" s="11">
+      <c r="L8" s="11">
         <v>514</v>
       </c>
-      <c r="S8" s="11">
+      <c r="M8" s="11">
         <v>69</v>
       </c>
-      <c r="T8" s="8">
+      <c r="N8" s="8">
         <v>306.22559999999999</v>
       </c>
-      <c r="U8" s="20">
+      <c r="O8" s="8"/>
+      <c r="Q8" s="25">
         <v>0.3896</v>
       </c>
-      <c r="V8" s="17"/>
-      <c r="AK8">
+      <c r="R8" s="17"/>
+      <c r="AG8">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1136,27 +1121,28 @@
         <f t="shared" si="0"/>
         <v>0.25374999999999998</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="K9" s="11">
         <v>152</v>
       </c>
-      <c r="R9" s="11">
+      <c r="L9" s="11">
         <v>416</v>
       </c>
-      <c r="S9" s="11">
+      <c r="M9" s="11">
         <v>65</v>
       </c>
-      <c r="T9" s="8">
+      <c r="N9" s="8">
         <v>229.11899999999997</v>
       </c>
-      <c r="U9" s="20">
+      <c r="O9" s="8"/>
+      <c r="Q9" s="25">
         <v>0.29149999999999998</v>
       </c>
-      <c r="V9" s="17"/>
-      <c r="AK9">
+      <c r="R9" s="17"/>
+      <c r="AG9">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1185,27 +1171,28 @@
         <f t="shared" si="0"/>
         <v>0.3075</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="K10" s="11">
         <v>182</v>
       </c>
-      <c r="R10" s="11">
+      <c r="L10" s="11">
         <v>433</v>
       </c>
-      <c r="S10" s="11">
+      <c r="M10" s="11">
         <v>64</v>
       </c>
-      <c r="T10" s="8">
+      <c r="N10" s="8">
         <v>230.84820000000002</v>
       </c>
-      <c r="U10" s="20">
+      <c r="O10" s="8"/>
+      <c r="Q10" s="25">
         <v>0.29370000000000002</v>
       </c>
-      <c r="V10" s="17"/>
-      <c r="AK10">
+      <c r="R10" s="17"/>
+      <c r="AG10">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1237,27 +1224,28 @@
         <f t="shared" si="0"/>
         <v>0.43312499999999998</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="K11" s="11">
         <v>181</v>
       </c>
-      <c r="R11" s="11">
+      <c r="L11" s="11">
         <v>495</v>
       </c>
-      <c r="S11" s="11">
+      <c r="M11" s="11">
         <v>65</v>
       </c>
-      <c r="T11" s="8">
+      <c r="N11" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="U11" s="20">
+      <c r="O11" s="8"/>
+      <c r="Q11" s="25">
         <v>0.3</v>
       </c>
-      <c r="V11" s="17"/>
-      <c r="AK11">
+      <c r="R11" s="17"/>
+      <c r="AG11">
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1286,27 +1274,28 @@
         <f t="shared" si="0"/>
         <v>0.4425</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="K12" s="11">
         <v>187</v>
       </c>
-      <c r="R12" s="11">
+      <c r="L12" s="11">
         <v>470</v>
       </c>
-      <c r="S12" s="11">
+      <c r="M12" s="11">
         <v>78</v>
       </c>
-      <c r="T12" s="8">
+      <c r="N12" s="8">
         <v>232.42020000000002</v>
       </c>
-      <c r="U12" s="20">
+      <c r="O12" s="8"/>
+      <c r="Q12" s="25">
         <v>0.29570000000000002</v>
       </c>
-      <c r="V12" s="17"/>
-      <c r="AK12">
+      <c r="R12" s="17"/>
+      <c r="AG12">
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1335,27 +1324,28 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="K13" s="11">
         <v>167</v>
       </c>
-      <c r="R13" s="11">
+      <c r="L13" s="11">
         <v>348</v>
       </c>
-      <c r="S13" s="11">
+      <c r="M13" s="11">
         <v>63</v>
       </c>
-      <c r="T13" s="8">
+      <c r="N13" s="8">
         <v>220.08</v>
       </c>
-      <c r="U13" s="20">
+      <c r="O13" s="8"/>
+      <c r="Q13" s="25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="V13" s="17"/>
-      <c r="AK13">
+      <c r="R13" s="17"/>
+      <c r="AG13">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1384,27 +1374,28 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="K14" s="11">
         <v>148</v>
       </c>
-      <c r="R14" s="11">
+      <c r="L14" s="11">
         <v>329</v>
       </c>
-      <c r="S14" s="11">
+      <c r="M14" s="11">
         <v>55</v>
       </c>
-      <c r="T14" s="8">
+      <c r="N14" s="8">
         <v>290.03399999999999</v>
       </c>
-      <c r="U14" s="20">
+      <c r="O14" s="8"/>
+      <c r="Q14" s="25">
         <v>0.36899999999999999</v>
       </c>
-      <c r="V14" s="17"/>
-      <c r="AK14">
+      <c r="R14" s="17"/>
+      <c r="AG14">
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1433,27 +1424,28 @@
         <f t="shared" si="0"/>
         <v>0.40250000000000002</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="K15" s="11">
         <v>128</v>
       </c>
-      <c r="R15" s="11">
+      <c r="L15" s="11">
         <v>370</v>
       </c>
-      <c r="S15" s="11">
+      <c r="M15" s="11">
         <v>57</v>
       </c>
-      <c r="T15" s="8">
+      <c r="N15" s="8">
         <v>290.82</v>
       </c>
-      <c r="U15" s="20">
+      <c r="O15" s="8"/>
+      <c r="Q15" s="25">
         <v>0.37</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="AK15">
+      <c r="R15" s="17"/>
+      <c r="AG15">
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1485,27 +1477,28 @@
         <f t="shared" si="0"/>
         <v>0.22375</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="K16" s="11">
         <v>112</v>
       </c>
-      <c r="R16" s="11">
+      <c r="L16" s="11">
         <v>414</v>
       </c>
-      <c r="S16" s="11">
+      <c r="M16" s="11">
         <v>59</v>
       </c>
-      <c r="T16" s="8">
+      <c r="N16" s="8">
         <v>243.66</v>
       </c>
-      <c r="U16" s="20">
+      <c r="O16" s="8"/>
+      <c r="Q16" s="25">
         <v>0.31</v>
       </c>
-      <c r="V16" s="17"/>
-      <c r="AK16">
+      <c r="R16" s="17"/>
+      <c r="AG16">
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1534,27 +1527,28 @@
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="K17" s="11">
         <v>137</v>
       </c>
-      <c r="R17" s="11">
+      <c r="L17" s="11">
         <v>461</v>
       </c>
-      <c r="S17" s="11">
+      <c r="M17" s="11">
         <v>65</v>
       </c>
-      <c r="T17" s="8">
+      <c r="N17" s="8">
         <v>251.91300000000001</v>
       </c>
-      <c r="U17" s="20">
+      <c r="O17" s="8"/>
+      <c r="Q17" s="25">
         <v>0.32050000000000001</v>
       </c>
-      <c r="V17" s="17"/>
-      <c r="AK17">
+      <c r="R17" s="17"/>
+      <c r="AG17">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1583,27 +1577,28 @@
         <f t="shared" si="0"/>
         <v>0.49375000000000002</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="K18" s="11">
         <v>156</v>
       </c>
-      <c r="R18" s="11">
+      <c r="L18" s="11">
         <v>437</v>
       </c>
-      <c r="S18" s="11">
+      <c r="M18" s="11">
         <v>63</v>
       </c>
-      <c r="T18" s="8">
+      <c r="N18" s="8">
         <v>252.14879999999997</v>
       </c>
-      <c r="U18" s="20">
+      <c r="O18" s="8"/>
+      <c r="Q18" s="25">
         <v>0.32079999999999997</v>
       </c>
-      <c r="V18" s="17"/>
-      <c r="AK18">
+      <c r="R18" s="17"/>
+      <c r="AG18">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -1632,27 +1627,28 @@
         <f t="shared" si="0"/>
         <v>0.36812499999999998</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="K19" s="11">
         <v>184</v>
       </c>
-      <c r="R19" s="11">
+      <c r="L19" s="11">
         <v>434</v>
       </c>
-      <c r="S19" s="11">
+      <c r="M19" s="11">
         <v>62</v>
       </c>
-      <c r="T19" s="8">
+      <c r="N19" s="8">
         <v>252.69900000000001</v>
       </c>
-      <c r="U19" s="20">
+      <c r="O19" s="8"/>
+      <c r="Q19" s="25">
         <v>0.32150000000000001</v>
       </c>
-      <c r="V19" s="17"/>
-      <c r="AK19">
+      <c r="R19" s="17"/>
+      <c r="AG19">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -1681,45 +1677,46 @@
         <f t="shared" si="0"/>
         <v>0.45624999999999999</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="K20" s="11">
         <v>200</v>
       </c>
-      <c r="R20" s="11">
+      <c r="L20" s="11">
         <v>542</v>
       </c>
-      <c r="S20" s="11">
+      <c r="M20" s="11">
         <v>79</v>
       </c>
-      <c r="T20" s="8">
+      <c r="N20" s="8">
         <v>247.983</v>
       </c>
-      <c r="U20" s="21">
+      <c r="O20" s="8"/>
+      <c r="Q20" s="26">
         <v>0.3155</v>
       </c>
-      <c r="V20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="AA20">
+        <v>516</v>
+      </c>
+      <c r="AB20">
+        <v>197</v>
+      </c>
+      <c r="AC20">
+        <v>55</v>
+      </c>
+      <c r="AD20">
+        <v>471</v>
+      </c>
       <c r="AE20">
-        <v>516</v>
+        <v>95</v>
       </c>
       <c r="AF20">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="AG20">
-        <v>55</v>
-      </c>
-      <c r="AH20">
-        <v>471</v>
-      </c>
-      <c r="AI20">
-        <v>95</v>
-      </c>
-      <c r="AJ20">
-        <v>38</v>
-      </c>
-      <c r="AK20">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -1751,51 +1748,46 @@
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="N21">
-        <v>3.93</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Q21" s="11">
+      <c r="K21" s="11">
         <v>189</v>
       </c>
-      <c r="R21" s="11">
+      <c r="L21" s="11">
         <v>497</v>
       </c>
-      <c r="S21" s="11">
+      <c r="M21" s="11">
         <v>71</v>
       </c>
-      <c r="T21" s="8">
+      <c r="N21" s="8">
         <v>220.08</v>
       </c>
-      <c r="U21" s="20">
+      <c r="O21" s="8"/>
+      <c r="Q21" s="25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="V21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="AA21">
+        <v>722</v>
+      </c>
+      <c r="AB21">
+        <v>80</v>
+      </c>
+      <c r="AC21">
+        <v>38</v>
+      </c>
+      <c r="AD21">
+        <v>318</v>
+      </c>
       <c r="AE21">
-        <v>722</v>
+        <v>51</v>
       </c>
       <c r="AF21">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AG21">
-        <v>38</v>
-      </c>
-      <c r="AH21">
-        <v>318</v>
-      </c>
-      <c r="AI21">
-        <v>51</v>
-      </c>
-      <c r="AJ21">
-        <v>21</v>
-      </c>
-      <c r="AK21">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -1824,51 +1816,52 @@
         <f t="shared" si="0"/>
         <v>0.395625</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="K22" s="11">
         <v>184</v>
       </c>
-      <c r="R22" s="11">
+      <c r="L22" s="11">
         <v>430</v>
       </c>
-      <c r="S22" s="11">
+      <c r="M22" s="11">
         <v>63</v>
       </c>
-      <c r="T22" s="8">
+      <c r="N22" s="8">
         <v>212.22000000000003</v>
       </c>
-      <c r="U22" s="20">
+      <c r="O22" s="8"/>
+      <c r="Q22" s="25">
         <v>0.27</v>
       </c>
-      <c r="V22" s="17"/>
-      <c r="X22">
+      <c r="R22" s="17"/>
+      <c r="T22">
         <v>2250</v>
       </c>
-      <c r="Z22">
+      <c r="V22">
         <v>2106</v>
       </c>
+      <c r="AA22">
+        <v>651</v>
+      </c>
+      <c r="AB22">
+        <v>88</v>
+      </c>
+      <c r="AC22">
+        <v>8</v>
+      </c>
+      <c r="AD22">
+        <v>399</v>
+      </c>
       <c r="AE22">
-        <v>651</v>
+        <v>74</v>
       </c>
       <c r="AF22">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="AG22">
-        <v>8</v>
-      </c>
-      <c r="AH22">
-        <v>399</v>
-      </c>
-      <c r="AI22">
-        <v>74</v>
-      </c>
-      <c r="AJ22">
-        <v>6</v>
-      </c>
-      <c r="AK22">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -1897,45 +1890,46 @@
         <f t="shared" si="0"/>
         <v>0.49812499999999998</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="K23" s="11">
         <v>161</v>
       </c>
-      <c r="R23" s="11">
+      <c r="L23" s="11">
         <v>387</v>
       </c>
-      <c r="S23" s="11">
+      <c r="M23" s="11">
         <v>55</v>
       </c>
-      <c r="T23" s="8">
+      <c r="N23" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="U23" s="20">
+      <c r="O23" s="8"/>
+      <c r="Q23" s="25">
         <v>0.3</v>
       </c>
-      <c r="V23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="AA23">
+        <v>799</v>
+      </c>
+      <c r="AB23">
+        <v>131</v>
+      </c>
+      <c r="AC23">
+        <v>54</v>
+      </c>
+      <c r="AD23">
+        <v>368</v>
+      </c>
       <c r="AE23">
-        <v>799</v>
+        <v>112</v>
       </c>
       <c r="AF23">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="AG23">
-        <v>54</v>
-      </c>
-      <c r="AH23">
-        <v>368</v>
-      </c>
-      <c r="AI23">
-        <v>112</v>
-      </c>
-      <c r="AJ23">
-        <v>46</v>
-      </c>
-      <c r="AK23">
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -1964,45 +1958,46 @@
         <f t="shared" si="0"/>
         <v>0.28187499999999999</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="K24" s="11">
         <v>143</v>
       </c>
-      <c r="R24" s="11">
+      <c r="L24" s="11">
         <v>335</v>
       </c>
-      <c r="S24" s="11">
+      <c r="M24" s="11">
         <v>58</v>
       </c>
-      <c r="T24" s="8">
+      <c r="N24" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="U24" s="21">
+      <c r="O24" s="8"/>
+      <c r="Q24" s="26">
         <v>0.3</v>
       </c>
-      <c r="V24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="AA24">
+        <v>268</v>
+      </c>
+      <c r="AB24">
+        <v>9</v>
+      </c>
+      <c r="AC24">
+        <v>10</v>
+      </c>
+      <c r="AD24">
+        <v>754</v>
+      </c>
       <c r="AE24">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="AF24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG24">
-        <v>10</v>
-      </c>
-      <c r="AH24">
-        <v>754</v>
-      </c>
-      <c r="AI24">
-        <v>9</v>
-      </c>
-      <c r="AJ24">
-        <v>6</v>
-      </c>
-      <c r="AK24">
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -2031,43 +2026,45 @@
         <f t="shared" si="0"/>
         <v>0.34625</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="K25" s="11">
         <v>142</v>
       </c>
-      <c r="R25" s="11">
+      <c r="L25" s="11">
         <v>405</v>
       </c>
-      <c r="S25" s="11">
+      <c r="M25" s="11">
         <v>65</v>
       </c>
-      <c r="T25" s="11">
+      <c r="N25" s="11">
         <v>331</v>
       </c>
-      <c r="U25" s="21"/>
-      <c r="V25" s="17"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="17"/>
+      <c r="AA25">
+        <v>435</v>
+      </c>
+      <c r="AB25">
+        <v>102</v>
+      </c>
+      <c r="AC25">
+        <v>20</v>
+      </c>
+      <c r="AD25">
+        <v>802</v>
+      </c>
       <c r="AE25">
-        <v>435</v>
+        <v>39</v>
       </c>
       <c r="AF25">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="AG25">
-        <v>20</v>
-      </c>
-      <c r="AH25">
-        <v>802</v>
-      </c>
-      <c r="AI25">
-        <v>39</v>
-      </c>
-      <c r="AJ25">
-        <v>13</v>
-      </c>
-      <c r="AK25">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -2096,49 +2093,45 @@
         <f t="shared" si="0"/>
         <v>0.38500000000000001</v>
       </c>
-      <c r="N26">
-        <v>3.62</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0.55679999999999996</v>
-      </c>
-      <c r="Q26" s="11">
+      <c r="K26" s="11">
         <v>142</v>
       </c>
-      <c r="R26" s="11">
+      <c r="L26" s="11">
         <v>459</v>
       </c>
-      <c r="S26" s="11">
+      <c r="M26" s="11">
         <v>76</v>
       </c>
-      <c r="T26" s="19">
+      <c r="N26" s="19">
         <v>400</v>
       </c>
-      <c r="U26" s="22"/>
-      <c r="V26" s="17"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="17"/>
+      <c r="AA26">
+        <v>228</v>
+      </c>
+      <c r="AB26">
+        <v>141</v>
+      </c>
+      <c r="AC26">
+        <v>28</v>
+      </c>
+      <c r="AD26">
+        <v>1420</v>
+      </c>
       <c r="AE26">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="AF26">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="AG26">
-        <v>28</v>
-      </c>
-      <c r="AH26">
-        <v>1420</v>
-      </c>
-      <c r="AI26">
-        <v>47</v>
-      </c>
-      <c r="AJ26">
-        <v>18</v>
-      </c>
-      <c r="AK26">
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -2167,49 +2160,45 @@
         <f t="shared" si="0"/>
         <v>1.413125</v>
       </c>
-      <c r="N27">
-        <v>4.13</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Q27" s="11">
+      <c r="K27" s="11">
         <v>190</v>
       </c>
-      <c r="R27" s="11">
+      <c r="L27" s="11">
         <v>554</v>
       </c>
-      <c r="S27" s="11">
+      <c r="M27" s="11">
         <v>113</v>
       </c>
-      <c r="T27" s="19">
+      <c r="N27" s="19">
         <v>129</v>
       </c>
-      <c r="U27" s="22"/>
-      <c r="V27" s="17"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="17"/>
+      <c r="AA27">
+        <v>1175</v>
+      </c>
+      <c r="AB27">
+        <v>143</v>
+      </c>
+      <c r="AC27">
+        <v>74</v>
+      </c>
+      <c r="AD27">
+        <v>717</v>
+      </c>
       <c r="AE27">
-        <v>1175</v>
+        <v>85</v>
       </c>
       <c r="AF27">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="AG27">
-        <v>74</v>
-      </c>
-      <c r="AH27">
-        <v>717</v>
-      </c>
-      <c r="AI27">
-        <v>85</v>
-      </c>
-      <c r="AJ27">
-        <v>43</v>
-      </c>
-      <c r="AK27">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
@@ -2238,76 +2227,68 @@
         <f t="shared" si="0"/>
         <v>1.1112500000000001</v>
       </c>
+      <c r="K28" s="12">
+        <v>272</v>
+      </c>
+      <c r="L28" s="12">
+        <v>625</v>
+      </c>
+      <c r="M28" s="12">
+        <v>120</v>
+      </c>
       <c r="N28" s="12">
-        <v>3.89</v>
-      </c>
-      <c r="O28" s="13">
-        <v>0.71920000000000006</v>
-      </c>
-      <c r="P28" s="12">
-        <v>1026</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>272</v>
-      </c>
-      <c r="R28" s="12">
-        <v>625</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="17"/>
       <c r="S28" s="12">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="T28" s="12">
-        <v>89</v>
-      </c>
-      <c r="U28" s="23"/>
-      <c r="V28" s="17"/>
+        <v>2591</v>
+      </c>
+      <c r="U28" s="12">
+        <v>0</v>
+      </c>
+      <c r="V28" s="12">
+        <v>2186</v>
+      </c>
       <c r="W28" s="12">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="X28" s="12">
-        <v>2591</v>
+        <v>622</v>
       </c>
       <c r="Y28" s="12">
-        <v>0</v>
+        <v>5691</v>
       </c>
       <c r="Z28" s="12">
-        <v>2186</v>
+        <v>164</v>
       </c>
       <c r="AA28" s="12">
-        <v>0</v>
+        <v>3701</v>
       </c>
       <c r="AB28" s="12">
-        <v>622</v>
+        <v>497</v>
       </c>
       <c r="AC28" s="12">
-        <v>5691</v>
+        <v>240</v>
       </c>
       <c r="AD28" s="12">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="AE28" s="12">
-        <v>3701</v>
+        <v>234</v>
       </c>
       <c r="AF28" s="12">
-        <v>497</v>
+        <v>125</v>
       </c>
       <c r="AG28" s="12">
-        <v>240</v>
-      </c>
-      <c r="AH28" s="12">
-        <v>355</v>
-      </c>
-      <c r="AI28" s="12">
-        <v>234</v>
-      </c>
-      <c r="AJ28" s="12">
-        <v>125</v>
-      </c>
-      <c r="AK28" s="12">
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2336,78 +2317,69 @@
         <f t="shared" si="0"/>
         <v>1.2775000000000001</v>
       </c>
+      <c r="K29">
+        <v>245</v>
+      </c>
+      <c r="L29">
+        <v>566</v>
+      </c>
+      <c r="M29">
+        <v>117</v>
+      </c>
       <c r="N29">
-        <v>3.42</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0.61480000000000001</v>
-      </c>
-      <c r="P29">
-        <v>953</v>
-      </c>
-      <c r="Q29">
-        <v>245</v>
-      </c>
-      <c r="R29">
-        <v>566</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="R29" s="17"/>
       <c r="S29">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="T29">
-        <v>258</v>
-      </c>
-      <c r="U29" s="20">
-        <v>0.34</v>
-      </c>
-      <c r="V29" s="17"/>
+        <v>2736</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>1971</v>
+      </c>
       <c r="W29">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>2736</v>
+        <v>639</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>6510</v>
       </c>
       <c r="Z29">
-        <v>1971</v>
+        <v>175</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>2207</v>
       </c>
       <c r="AB29">
-        <v>639</v>
+        <v>148</v>
       </c>
       <c r="AC29">
-        <v>6510</v>
+        <v>12</v>
       </c>
       <c r="AD29">
-        <v>175</v>
+        <v>556</v>
       </c>
       <c r="AE29">
-        <v>2207</v>
+        <v>49</v>
       </c>
       <c r="AF29">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="AG29">
-        <v>12</v>
-      </c>
-      <c r="AH29">
-        <v>556</v>
-      </c>
-      <c r="AI29">
-        <v>49</v>
-      </c>
-      <c r="AJ29">
-        <v>9</v>
-      </c>
-      <c r="AK29">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2436,78 +2408,69 @@
         <f t="shared" si="0"/>
         <v>0.94062500000000004</v>
       </c>
+      <c r="K30">
+        <v>243</v>
+      </c>
+      <c r="L30">
+        <v>584</v>
+      </c>
+      <c r="M30">
+        <v>127</v>
+      </c>
       <c r="N30">
-        <v>2.91</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P30">
-        <v>976</v>
-      </c>
-      <c r="Q30">
-        <v>243</v>
-      </c>
-      <c r="R30">
-        <v>584</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="R30" s="17"/>
       <c r="S30">
-        <v>127</v>
+        <v>362</v>
       </c>
       <c r="T30">
-        <v>219</v>
-      </c>
-      <c r="U30" s="20">
-        <v>0.33</v>
-      </c>
-      <c r="V30" s="17"/>
+        <v>2771</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1777</v>
+      </c>
       <c r="W30">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>2771</v>
+        <v>795</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>6328</v>
       </c>
       <c r="Z30">
-        <v>1777</v>
+        <v>183</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>2845</v>
       </c>
       <c r="AB30">
-        <v>795</v>
+        <v>311</v>
       </c>
       <c r="AC30">
-        <v>6328</v>
+        <v>70</v>
       </c>
       <c r="AD30">
-        <v>183</v>
+        <v>428</v>
       </c>
       <c r="AE30">
-        <v>2845</v>
+        <v>65</v>
       </c>
       <c r="AF30">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="AG30">
-        <v>70</v>
-      </c>
-      <c r="AH30">
-        <v>428</v>
-      </c>
-      <c r="AI30">
-        <v>65</v>
-      </c>
-      <c r="AJ30">
-        <v>42</v>
-      </c>
-      <c r="AK30">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -2539,87 +2502,72 @@
         <f t="shared" si="0"/>
         <v>0.958125</v>
       </c>
-      <c r="K31" s="3">
-        <v>3.61</v>
-      </c>
-      <c r="L31" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="N31" s="3">
-        <v>2.91</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0.59160000000000001</v>
-      </c>
-      <c r="P31">
-        <v>974</v>
-      </c>
-      <c r="Q31">
+      <c r="K31">
         <v>213</v>
       </c>
-      <c r="R31">
+      <c r="L31">
         <v>619</v>
       </c>
+      <c r="M31">
+        <v>118</v>
+      </c>
+      <c r="N31">
+        <v>275</v>
+      </c>
+      <c r="P31" s="20">
+        <v>57.3</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="R31" s="17"/>
       <c r="S31">
-        <v>118</v>
+        <v>414</v>
       </c>
       <c r="T31">
-        <v>275</v>
-      </c>
-      <c r="U31" s="20">
-        <v>0.35</v>
-      </c>
-      <c r="V31" s="17"/>
+        <v>2918</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>1876</v>
+      </c>
       <c r="W31">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>2918</v>
+        <v>928</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>6945</v>
       </c>
       <c r="Z31">
-        <v>1876</v>
+        <v>201</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>3942</v>
       </c>
       <c r="AB31">
-        <v>928</v>
+        <v>351</v>
       </c>
       <c r="AC31">
-        <v>6945</v>
+        <v>72</v>
       </c>
       <c r="AD31">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="AE31">
-        <v>3942</v>
+        <v>150</v>
       </c>
       <c r="AF31">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="AG31">
-        <v>72</v>
-      </c>
-      <c r="AH31">
-        <v>322</v>
-      </c>
-      <c r="AI31">
-        <v>150</v>
-      </c>
-      <c r="AJ31">
-        <v>31</v>
-      </c>
-      <c r="AK31">
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -2651,75 +2599,69 @@
         <f t="shared" si="0"/>
         <v>0.765625</v>
       </c>
+      <c r="K32">
+        <v>173</v>
+      </c>
+      <c r="L32">
+        <v>641</v>
+      </c>
+      <c r="M32">
+        <v>126</v>
+      </c>
       <c r="N32">
-        <v>3.26</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0.54519999999999991</v>
-      </c>
-      <c r="P32">
-        <v>962</v>
-      </c>
-      <c r="Q32">
+        <v>270</v>
+      </c>
+      <c r="P32" s="20">
+        <v>56</v>
+      </c>
+      <c r="R32" s="17"/>
+      <c r="S32">
+        <v>434</v>
+      </c>
+      <c r="T32">
+        <v>2967</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>2122</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>1085</v>
+      </c>
+      <c r="Y32">
+        <v>7471</v>
+      </c>
+      <c r="Z32">
+        <v>235</v>
+      </c>
+      <c r="AA32">
+        <v>5385</v>
+      </c>
+      <c r="AB32">
+        <v>292</v>
+      </c>
+      <c r="AC32">
+        <v>13</v>
+      </c>
+      <c r="AD32">
         <v>173</v>
       </c>
-      <c r="R32">
-        <v>641</v>
-      </c>
-      <c r="S32">
-        <v>126</v>
-      </c>
-      <c r="T32">
-        <v>270</v>
-      </c>
-      <c r="V32" s="17"/>
-      <c r="W32">
-        <v>434</v>
-      </c>
-      <c r="X32">
-        <v>2967</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>2122</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>1085</v>
-      </c>
-      <c r="AC32">
-        <v>7471</v>
-      </c>
-      <c r="AD32">
-        <v>235</v>
-      </c>
       <c r="AE32">
-        <v>5385</v>
+        <v>145</v>
       </c>
       <c r="AF32">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="AG32">
-        <v>13</v>
-      </c>
-      <c r="AH32">
-        <v>173</v>
-      </c>
-      <c r="AI32">
-        <v>145</v>
-      </c>
-      <c r="AJ32">
-        <v>12</v>
-      </c>
-      <c r="AK32">
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -2751,75 +2693,69 @@
         <f t="shared" si="0"/>
         <v>0.87062499999999998</v>
       </c>
+      <c r="K33">
+        <v>125</v>
+      </c>
+      <c r="L33">
+        <v>672</v>
+      </c>
+      <c r="M33">
+        <v>109</v>
+      </c>
       <c r="N33">
-        <v>3.26</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0.54519999999999991</v>
-      </c>
-      <c r="P33">
-        <v>921</v>
-      </c>
-      <c r="Q33">
-        <v>125</v>
-      </c>
-      <c r="R33">
-        <v>672</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="P33" s="20">
+        <v>55</v>
+      </c>
+      <c r="R33" s="17"/>
       <c r="S33">
-        <v>109</v>
+        <v>429</v>
       </c>
       <c r="T33">
-        <v>275</v>
-      </c>
-      <c r="V33" s="17"/>
+        <v>3095</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>2614</v>
+      </c>
       <c r="W33">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>3095</v>
+        <v>1073</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>8176</v>
       </c>
       <c r="Z33">
-        <v>2614</v>
+        <v>278</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>4833</v>
       </c>
       <c r="AB33">
-        <v>1073</v>
+        <v>146</v>
       </c>
       <c r="AC33">
-        <v>8176</v>
+        <v>21</v>
       </c>
       <c r="AD33">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="AE33">
-        <v>4833</v>
+        <v>62</v>
       </c>
       <c r="AF33">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="AG33">
-        <v>21</v>
-      </c>
-      <c r="AH33">
-        <v>102</v>
-      </c>
-      <c r="AI33">
-        <v>62</v>
-      </c>
-      <c r="AJ33">
-        <v>14</v>
-      </c>
-      <c r="AK33">
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -2851,75 +2787,69 @@
         <f t="shared" si="0"/>
         <v>0.86722222222222223</v>
       </c>
+      <c r="K34">
+        <v>113</v>
+      </c>
+      <c r="L34">
+        <v>639</v>
+      </c>
+      <c r="M34">
+        <v>113</v>
+      </c>
       <c r="N34">
-        <v>3.85</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0.64379999999999993</v>
-      </c>
-      <c r="P34">
-        <v>879</v>
-      </c>
-      <c r="Q34">
-        <v>113</v>
-      </c>
-      <c r="R34">
-        <v>639</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="P34" s="20">
+        <v>56.9</v>
+      </c>
+      <c r="R34" s="17"/>
       <c r="S34">
-        <v>113</v>
+        <v>447</v>
       </c>
       <c r="T34">
-        <v>279</v>
-      </c>
-      <c r="V34" s="17"/>
+        <v>3383</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>3143</v>
+      </c>
       <c r="W34">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>3383</v>
+        <v>1145</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>8661</v>
       </c>
       <c r="Z34">
-        <v>3143</v>
+        <v>296</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>4728</v>
       </c>
       <c r="AB34">
-        <v>1145</v>
+        <v>184</v>
       </c>
       <c r="AC34">
-        <v>8661</v>
+        <v>29</v>
       </c>
       <c r="AD34">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="AE34">
-        <v>4728</v>
+        <v>50</v>
       </c>
       <c r="AF34">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="AG34">
-        <v>29</v>
-      </c>
-      <c r="AH34">
-        <v>135</v>
-      </c>
-      <c r="AI34">
-        <v>50</v>
-      </c>
-      <c r="AJ34">
-        <v>29</v>
-      </c>
-      <c r="AK34">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -2951,75 +2881,69 @@
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
+      <c r="K35">
+        <v>143</v>
+      </c>
+      <c r="L35">
+        <v>596</v>
+      </c>
+      <c r="M35">
+        <v>95</v>
+      </c>
       <c r="N35">
-        <v>4.21</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0.64379999999999993</v>
-      </c>
-      <c r="P35">
-        <v>844</v>
-      </c>
-      <c r="Q35">
-        <v>143</v>
-      </c>
-      <c r="R35">
-        <v>596</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="P35" s="20">
+        <v>59.7</v>
+      </c>
+      <c r="R35" s="17"/>
       <c r="S35">
-        <v>95</v>
+        <v>449</v>
       </c>
       <c r="T35">
-        <v>308</v>
-      </c>
-      <c r="V35" s="17"/>
+        <v>3498</v>
+      </c>
+      <c r="U35">
+        <v>1518</v>
+      </c>
+      <c r="V35">
+        <v>3722</v>
+      </c>
       <c r="W35">
-        <v>449</v>
+        <v>1777</v>
       </c>
       <c r="X35">
-        <v>3498</v>
+        <v>1343</v>
       </c>
       <c r="Y35">
-        <v>1518</v>
+        <v>8630</v>
       </c>
       <c r="Z35">
-        <v>3722</v>
+        <v>311</v>
       </c>
       <c r="AA35">
-        <v>1777</v>
+        <v>2939</v>
       </c>
       <c r="AB35">
-        <v>1343</v>
+        <v>171</v>
       </c>
       <c r="AC35">
-        <v>8630</v>
+        <v>26</v>
       </c>
       <c r="AD35">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="AE35">
-        <v>2939</v>
+        <v>75</v>
       </c>
       <c r="AF35">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="AG35">
-        <v>26</v>
-      </c>
-      <c r="AH35">
-        <v>252</v>
-      </c>
-      <c r="AI35">
-        <v>75</v>
-      </c>
-      <c r="AJ35">
-        <v>26</v>
-      </c>
-      <c r="AK35">
         <v>541</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -3051,75 +2975,69 @@
         <f t="shared" si="0"/>
         <v>0.83611111111111114</v>
       </c>
+      <c r="K36">
+        <v>155</v>
+      </c>
+      <c r="L36">
+        <v>612</v>
+      </c>
+      <c r="M36">
+        <v>89</v>
+      </c>
       <c r="N36">
-        <v>4.17</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0.63219999999999998</v>
-      </c>
-      <c r="P36">
-        <v>864</v>
-      </c>
-      <c r="Q36">
-        <v>155</v>
-      </c>
-      <c r="R36">
-        <v>612</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="P36" s="20">
+        <v>61.9</v>
+      </c>
+      <c r="R36" s="17"/>
       <c r="S36">
-        <v>89</v>
+        <v>459</v>
       </c>
       <c r="T36">
-        <v>309</v>
-      </c>
-      <c r="V36" s="17"/>
+        <v>3564</v>
+      </c>
+      <c r="U36">
+        <v>1561</v>
+      </c>
+      <c r="V36">
+        <v>3602</v>
+      </c>
       <c r="W36">
-        <v>459</v>
+        <v>1734</v>
       </c>
       <c r="X36">
-        <v>3564</v>
+        <v>1178</v>
       </c>
       <c r="Y36">
-        <v>1561</v>
+        <v>8367</v>
       </c>
       <c r="Z36">
-        <v>3602</v>
+        <v>284</v>
       </c>
       <c r="AA36">
-        <v>1734</v>
+        <v>2990</v>
       </c>
       <c r="AB36">
-        <v>1178</v>
+        <v>401</v>
       </c>
       <c r="AC36">
-        <v>8367</v>
+        <v>15</v>
       </c>
       <c r="AD36">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="AE36">
-        <v>2990</v>
+        <v>289</v>
       </c>
       <c r="AF36">
-        <v>401</v>
+        <v>15</v>
       </c>
       <c r="AG36">
-        <v>15</v>
-      </c>
-      <c r="AH36">
-        <v>312</v>
-      </c>
-      <c r="AI36">
-        <v>289</v>
-      </c>
-      <c r="AJ36">
-        <v>15</v>
-      </c>
-      <c r="AK36">
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -3151,84 +3069,69 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="K37" s="3">
-        <v>5.83</v>
-      </c>
-      <c r="L37" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="N37" s="3">
-        <v>4.68</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0.7075999999999999</v>
-      </c>
-      <c r="P37">
-        <v>848</v>
-      </c>
-      <c r="Q37">
+      <c r="K37">
         <v>181</v>
       </c>
-      <c r="R37">
+      <c r="L37">
         <v>588</v>
       </c>
+      <c r="M37">
+        <v>71</v>
+      </c>
+      <c r="N37">
+        <v>345</v>
+      </c>
+      <c r="P37" s="20">
+        <v>59</v>
+      </c>
+      <c r="R37" s="17"/>
       <c r="S37">
-        <v>71</v>
+        <v>496</v>
       </c>
       <c r="T37">
-        <v>345</v>
-      </c>
-      <c r="V37" s="17"/>
+        <v>3588</v>
+      </c>
+      <c r="U37">
+        <v>1580</v>
+      </c>
+      <c r="V37">
+        <v>3694</v>
+      </c>
       <c r="W37">
-        <v>496</v>
+        <v>1655</v>
       </c>
       <c r="X37">
-        <v>3588</v>
+        <v>919</v>
       </c>
       <c r="Y37">
-        <v>1580</v>
+        <v>8908</v>
       </c>
       <c r="Z37">
-        <v>3694</v>
+        <v>270</v>
       </c>
       <c r="AA37">
-        <v>1655</v>
+        <v>3491</v>
       </c>
       <c r="AB37">
-        <v>919</v>
+        <v>359</v>
       </c>
       <c r="AC37">
-        <v>8908</v>
+        <v>9</v>
       </c>
       <c r="AD37">
-        <v>270</v>
+        <v>359</v>
       </c>
       <c r="AE37">
-        <v>3491</v>
+        <v>246</v>
       </c>
       <c r="AF37">
-        <v>359</v>
+        <v>9</v>
       </c>
       <c r="AG37">
-        <v>9</v>
-      </c>
-      <c r="AH37">
-        <v>359</v>
-      </c>
-      <c r="AI37">
-        <v>246</v>
-      </c>
-      <c r="AJ37">
-        <v>9</v>
-      </c>
-      <c r="AK37">
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -3260,75 +3163,69 @@
         <f t="shared" si="0"/>
         <v>0.98777777777777787</v>
       </c>
+      <c r="K38">
+        <v>192</v>
+      </c>
+      <c r="L38">
+        <v>565</v>
+      </c>
+      <c r="M38">
+        <v>81</v>
+      </c>
       <c r="N38">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0.74819999999999998</v>
-      </c>
-      <c r="P38">
-        <v>847</v>
-      </c>
-      <c r="Q38">
-        <v>192</v>
-      </c>
-      <c r="R38">
-        <v>565</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="P38" s="20">
+        <v>55.4</v>
+      </c>
+      <c r="R38" s="17"/>
       <c r="S38">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="T38">
-        <v>359</v>
-      </c>
-      <c r="V38" s="17"/>
+        <v>3621</v>
+      </c>
+      <c r="U38">
+        <v>1605</v>
+      </c>
+      <c r="V38">
+        <v>3452</v>
+      </c>
       <c r="W38">
-        <v>511</v>
+        <v>1538</v>
       </c>
       <c r="X38">
-        <v>3621</v>
+        <v>1255</v>
       </c>
       <c r="Y38">
-        <v>1605</v>
+        <v>9491</v>
       </c>
       <c r="Z38">
-        <v>3452</v>
+        <v>243</v>
       </c>
       <c r="AA38">
-        <v>1538</v>
+        <v>2843</v>
       </c>
       <c r="AB38">
-        <v>1255</v>
+        <v>518</v>
       </c>
       <c r="AC38">
-        <v>9491</v>
+        <v>27</v>
       </c>
       <c r="AD38">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="AE38">
-        <v>2843</v>
+        <v>178</v>
       </c>
       <c r="AF38">
-        <v>518</v>
+        <v>14</v>
       </c>
       <c r="AG38">
-        <v>27</v>
-      </c>
-      <c r="AH38">
-        <v>334</v>
-      </c>
-      <c r="AI38">
-        <v>178</v>
-      </c>
-      <c r="AJ38">
-        <v>14</v>
-      </c>
-      <c r="AK38">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -3360,75 +3257,69 @@
         <f t="shared" si="0"/>
         <v>0.56777777777777783</v>
       </c>
+      <c r="K39">
+        <v>185</v>
+      </c>
+      <c r="L39">
+        <v>561</v>
+      </c>
+      <c r="M39">
+        <v>74</v>
+      </c>
       <c r="N39">
-        <v>4.68</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="P39">
-        <v>827</v>
-      </c>
-      <c r="Q39">
-        <v>185</v>
-      </c>
-      <c r="R39">
-        <v>561</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="P39" s="20">
+        <v>60.4</v>
+      </c>
+      <c r="R39" s="17"/>
       <c r="S39">
-        <v>74</v>
+        <v>512</v>
       </c>
       <c r="T39">
-        <v>360</v>
-      </c>
-      <c r="V39" s="17"/>
+        <v>3667</v>
+      </c>
+      <c r="U39">
+        <v>1635</v>
+      </c>
+      <c r="V39">
+        <v>3495</v>
+      </c>
       <c r="W39">
-        <v>512</v>
+        <v>1522</v>
       </c>
       <c r="X39">
-        <v>3667</v>
+        <v>1410</v>
       </c>
       <c r="Y39">
-        <v>1635</v>
+        <v>9563</v>
       </c>
       <c r="Z39">
-        <v>3495</v>
+        <v>228</v>
       </c>
       <c r="AA39">
-        <v>1522</v>
+        <v>4159</v>
       </c>
       <c r="AB39">
-        <v>1410</v>
+        <v>339</v>
       </c>
       <c r="AC39">
-        <v>9563</v>
+        <v>17</v>
       </c>
       <c r="AD39">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="AE39">
-        <v>4159</v>
+        <v>110</v>
       </c>
       <c r="AF39">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="AG39">
-        <v>17</v>
-      </c>
-      <c r="AH39">
-        <v>298</v>
-      </c>
-      <c r="AI39">
-        <v>110</v>
-      </c>
-      <c r="AJ39">
-        <v>19</v>
-      </c>
-      <c r="AK39">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3460,75 +3351,69 @@
         <f t="shared" si="0"/>
         <v>0.68833333333333335</v>
       </c>
+      <c r="K40">
+        <v>157</v>
+      </c>
+      <c r="L40">
+        <v>568</v>
+      </c>
+      <c r="M40">
+        <v>69</v>
+      </c>
       <c r="N40">
-        <v>4.99</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0.7075999999999999</v>
-      </c>
-      <c r="P40">
-        <v>800</v>
-      </c>
-      <c r="Q40">
-        <v>157</v>
-      </c>
-      <c r="R40">
-        <v>568</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="P40" s="20">
+        <v>62.6</v>
+      </c>
+      <c r="R40" s="17"/>
       <c r="S40">
-        <v>69</v>
+        <v>520</v>
       </c>
       <c r="T40">
-        <v>374</v>
-      </c>
-      <c r="V40" s="17"/>
+        <v>3816</v>
+      </c>
+      <c r="U40">
+        <v>1690</v>
+      </c>
+      <c r="V40">
+        <v>3593</v>
+      </c>
       <c r="W40">
-        <v>520</v>
+        <v>1564</v>
       </c>
       <c r="X40">
-        <v>3816</v>
+        <v>1266</v>
       </c>
       <c r="Y40">
-        <v>1690</v>
+        <v>10252</v>
       </c>
       <c r="Z40">
-        <v>3593</v>
+        <v>219</v>
       </c>
       <c r="AA40">
-        <v>1564</v>
+        <v>4775</v>
       </c>
       <c r="AB40">
-        <v>1266</v>
+        <v>238</v>
       </c>
       <c r="AC40">
-        <v>10252</v>
+        <v>25</v>
       </c>
       <c r="AD40">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="AE40">
-        <v>4775</v>
+        <v>42</v>
       </c>
       <c r="AF40">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="AG40">
-        <v>25</v>
-      </c>
-      <c r="AH40">
-        <v>320</v>
-      </c>
-      <c r="AI40">
-        <v>42</v>
-      </c>
-      <c r="AJ40">
-        <v>25</v>
-      </c>
-      <c r="AK40">
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3560,75 +3445,69 @@
         <f t="shared" si="0"/>
         <v>1.0305555555555557</v>
       </c>
+      <c r="K41">
+        <v>157</v>
+      </c>
+      <c r="L41">
+        <v>560</v>
+      </c>
+      <c r="M41">
+        <v>71</v>
+      </c>
       <c r="N41">
-        <v>4.09</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0.71920000000000006</v>
-      </c>
-      <c r="P41">
-        <v>794</v>
-      </c>
-      <c r="Q41">
-        <v>157</v>
-      </c>
-      <c r="R41">
-        <v>560</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="P41" s="20">
+        <v>63.5</v>
+      </c>
+      <c r="R41" s="17"/>
       <c r="S41">
-        <v>71</v>
+        <v>507</v>
       </c>
       <c r="T41">
-        <v>361</v>
-      </c>
-      <c r="V41" s="17"/>
+        <v>3606</v>
+      </c>
+      <c r="U41">
+        <v>1626</v>
+      </c>
+      <c r="V41">
+        <v>3542</v>
+      </c>
       <c r="W41">
-        <v>507</v>
+        <v>1567</v>
       </c>
       <c r="X41">
-        <v>3606</v>
+        <v>1271</v>
       </c>
       <c r="Y41">
-        <v>1626</v>
+        <v>10061</v>
       </c>
       <c r="Z41">
-        <v>3542</v>
+        <v>194</v>
       </c>
       <c r="AA41">
-        <v>1567</v>
+        <v>5072</v>
       </c>
       <c r="AB41">
-        <v>1271</v>
+        <v>362</v>
       </c>
       <c r="AC41">
-        <v>10061</v>
+        <v>25</v>
       </c>
       <c r="AD41">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="AE41">
-        <v>5072</v>
+        <v>61</v>
       </c>
       <c r="AF41">
-        <v>362</v>
+        <v>8</v>
       </c>
       <c r="AG41">
-        <v>25</v>
-      </c>
-      <c r="AH41">
-        <v>161</v>
-      </c>
-      <c r="AI41">
-        <v>61</v>
-      </c>
-      <c r="AJ41">
-        <v>8</v>
-      </c>
-      <c r="AK41">
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -3660,75 +3539,69 @@
         <f t="shared" si="0"/>
         <v>0.88277777777777777</v>
       </c>
+      <c r="K42">
+        <v>133</v>
+      </c>
+      <c r="L42">
+        <v>574</v>
+      </c>
+      <c r="M42">
+        <v>78</v>
+      </c>
       <c r="N42">
-        <v>4.91</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0.79459999999999997</v>
-      </c>
-      <c r="P42">
-        <v>792</v>
-      </c>
-      <c r="Q42">
-        <v>133</v>
-      </c>
-      <c r="R42">
-        <v>574</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="P42" s="20">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="R42" s="17"/>
       <c r="S42">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="T42">
-        <v>349</v>
-      </c>
-      <c r="V42" s="17"/>
+        <v>3472</v>
+      </c>
+      <c r="U42">
+        <v>1545</v>
+      </c>
+      <c r="V42">
+        <v>3556</v>
+      </c>
       <c r="W42">
-        <v>496</v>
+        <v>1528</v>
       </c>
       <c r="X42">
-        <v>3472</v>
+        <v>1102</v>
       </c>
       <c r="Y42">
-        <v>1545</v>
+        <v>10371</v>
       </c>
       <c r="Z42">
-        <v>3556</v>
+        <v>190</v>
       </c>
       <c r="AA42">
-        <v>1528</v>
+        <v>5365</v>
       </c>
       <c r="AB42">
-        <v>1102</v>
+        <v>252</v>
       </c>
       <c r="AC42">
-        <v>10371</v>
+        <v>10</v>
       </c>
       <c r="AD42">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="AE42">
-        <v>5365</v>
+        <v>128</v>
       </c>
       <c r="AF42">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="AG42">
-        <v>10</v>
-      </c>
-      <c r="AH42">
-        <v>236</v>
-      </c>
-      <c r="AI42">
-        <v>128</v>
-      </c>
-      <c r="AJ42">
-        <v>6</v>
-      </c>
-      <c r="AK42">
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -3760,75 +3633,69 @@
         <f t="shared" si="0"/>
         <v>0.7038888888888889</v>
       </c>
+      <c r="K43">
+        <v>118</v>
+      </c>
+      <c r="L43">
+        <v>565</v>
+      </c>
+      <c r="M43">
+        <v>76</v>
+      </c>
       <c r="N43">
-        <v>4.09</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0.76559999999999984</v>
-      </c>
-      <c r="P43">
-        <v>766</v>
-      </c>
-      <c r="Q43">
-        <v>118</v>
-      </c>
-      <c r="R43">
-        <v>565</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="P43" s="20">
+        <v>60.3</v>
+      </c>
+      <c r="R43" s="17"/>
       <c r="S43">
-        <v>76</v>
+        <v>469</v>
       </c>
       <c r="T43">
-        <v>311</v>
-      </c>
-      <c r="V43" s="17"/>
+        <v>3255</v>
+      </c>
+      <c r="U43">
+        <v>1487</v>
+      </c>
+      <c r="V43">
+        <v>3456</v>
+      </c>
       <c r="W43">
-        <v>469</v>
+        <v>1495</v>
       </c>
       <c r="X43">
-        <v>3255</v>
+        <v>1154</v>
       </c>
       <c r="Y43">
-        <v>1487</v>
+        <v>9917</v>
       </c>
       <c r="Z43">
-        <v>3456</v>
+        <v>175</v>
       </c>
       <c r="AA43">
-        <v>1495</v>
+        <v>8340</v>
       </c>
       <c r="AB43">
-        <v>1154</v>
+        <v>230</v>
       </c>
       <c r="AC43">
-        <v>9917</v>
+        <v>232</v>
       </c>
       <c r="AD43">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AE43">
-        <v>8340</v>
+        <v>181</v>
       </c>
       <c r="AF43">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG43">
-        <v>232</v>
-      </c>
-      <c r="AH43">
-        <v>150</v>
-      </c>
-      <c r="AI43">
-        <v>181</v>
-      </c>
-      <c r="AJ43">
-        <v>232</v>
-      </c>
-      <c r="AK43">
         <v>626</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -3860,74 +3727,68 @@
         <f t="shared" si="0"/>
         <v>0.49388888888888893</v>
       </c>
+      <c r="K44">
+        <v>87</v>
+      </c>
+      <c r="L44">
+        <v>566</v>
+      </c>
+      <c r="M44">
+        <v>69</v>
+      </c>
       <c r="N44">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0.78299999999999992</v>
-      </c>
-      <c r="P44">
-        <v>728</v>
-      </c>
-      <c r="Q44">
-        <v>87</v>
-      </c>
-      <c r="R44">
-        <v>566</v>
+        <v>315</v>
+      </c>
+      <c r="P44" s="20">
+        <v>55.1</v>
       </c>
       <c r="S44">
-        <v>69</v>
+        <v>466</v>
       </c>
       <c r="T44">
-        <v>315</v>
+        <v>3144</v>
+      </c>
+      <c r="U44">
+        <v>1397</v>
+      </c>
+      <c r="V44">
+        <v>3308</v>
       </c>
       <c r="W44">
-        <v>466</v>
+        <v>1420</v>
       </c>
       <c r="X44">
-        <v>3144</v>
+        <v>1067</v>
       </c>
       <c r="Y44">
-        <v>1397</v>
+        <v>9649</v>
       </c>
       <c r="Z44">
-        <v>3308</v>
+        <v>166</v>
       </c>
       <c r="AA44">
-        <v>1420</v>
+        <v>6490</v>
       </c>
       <c r="AB44">
-        <v>1067</v>
+        <v>136</v>
       </c>
       <c r="AC44">
-        <v>9649</v>
+        <v>71</v>
       </c>
       <c r="AD44">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AE44">
-        <v>6490</v>
+        <v>62</v>
       </c>
       <c r="AF44">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="AG44">
-        <v>71</v>
-      </c>
-      <c r="AH44">
-        <v>161</v>
-      </c>
-      <c r="AI44">
-        <v>62</v>
-      </c>
-      <c r="AJ44">
-        <v>39</v>
-      </c>
-      <c r="AK44">
         <v>716</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -3959,74 +3820,68 @@
         <f t="shared" si="0"/>
         <v>0.50944444444444448</v>
       </c>
+      <c r="K45">
+        <v>96</v>
+      </c>
+      <c r="L45">
+        <v>526</v>
+      </c>
+      <c r="M45">
+        <v>70</v>
+      </c>
       <c r="N45">
-        <v>4.83</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0.80619999999999992</v>
-      </c>
-      <c r="P45">
-        <v>698</v>
-      </c>
-      <c r="Q45">
-        <v>96</v>
-      </c>
-      <c r="R45">
-        <v>526</v>
+        <v>322</v>
+      </c>
+      <c r="P45" s="20">
+        <v>56.9</v>
       </c>
       <c r="S45">
-        <v>70</v>
+        <v>466</v>
       </c>
       <c r="T45">
-        <v>322</v>
+        <v>3262</v>
+      </c>
+      <c r="U45">
+        <v>1349</v>
+      </c>
+      <c r="V45">
+        <v>3367</v>
       </c>
       <c r="W45">
-        <v>466</v>
+        <v>1435</v>
       </c>
       <c r="X45">
-        <v>3262</v>
+        <v>1058</v>
       </c>
       <c r="Y45">
-        <v>1349</v>
+        <v>10424</v>
       </c>
       <c r="Z45">
-        <v>3367</v>
+        <v>171</v>
       </c>
       <c r="AA45">
-        <v>1435</v>
+        <v>6044</v>
       </c>
       <c r="AB45">
-        <v>1058</v>
+        <v>214</v>
       </c>
       <c r="AC45">
-        <v>10424</v>
+        <v>12</v>
       </c>
       <c r="AD45">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="AE45">
-        <v>6044</v>
+        <v>66</v>
       </c>
       <c r="AF45">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="AG45">
-        <v>12</v>
-      </c>
-      <c r="AH45">
-        <v>63</v>
-      </c>
-      <c r="AI45">
-        <v>66</v>
-      </c>
-      <c r="AJ45">
-        <v>12</v>
-      </c>
-      <c r="AK45">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -4058,74 +3913,68 @@
         <f t="shared" si="0"/>
         <v>0.56777777777777783</v>
       </c>
+      <c r="K46">
+        <v>93</v>
+      </c>
+      <c r="L46">
+        <v>496</v>
+      </c>
+      <c r="M46">
+        <v>72</v>
+      </c>
       <c r="N46">
-        <v>5.5</v>
-      </c>
-      <c r="O46" s="2">
-        <v>0.83519999999999994</v>
-      </c>
-      <c r="P46">
-        <v>668</v>
-      </c>
-      <c r="Q46">
-        <v>93</v>
-      </c>
-      <c r="R46">
-        <v>496</v>
+        <v>330</v>
+      </c>
+      <c r="P46" s="20">
+        <v>67.2</v>
       </c>
       <c r="S46">
-        <v>72</v>
+        <v>474</v>
       </c>
       <c r="T46">
-        <v>330</v>
+        <v>3498</v>
+      </c>
+      <c r="U46">
+        <v>1387</v>
+      </c>
+      <c r="V46">
+        <v>3694</v>
       </c>
       <c r="W46">
-        <v>474</v>
+        <v>1579</v>
       </c>
       <c r="X46">
-        <v>3498</v>
+        <v>1306</v>
       </c>
       <c r="Y46">
-        <v>1387</v>
+        <v>10682</v>
       </c>
       <c r="Z46">
-        <v>3694</v>
+        <v>171</v>
       </c>
       <c r="AA46">
-        <v>1579</v>
+        <v>6002</v>
       </c>
       <c r="AB46">
-        <v>1306</v>
+        <v>269</v>
       </c>
       <c r="AC46">
-        <v>10682</v>
+        <v>50</v>
       </c>
       <c r="AD46">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="AE46">
-        <v>6002</v>
+        <v>76</v>
       </c>
       <c r="AF46">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="AG46">
-        <v>50</v>
-      </c>
-      <c r="AH46">
-        <v>62</v>
-      </c>
-      <c r="AI46">
-        <v>76</v>
-      </c>
-      <c r="AJ46">
-        <v>25</v>
-      </c>
-      <c r="AK46">
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -4157,83 +4006,68 @@
         <f t="shared" si="0"/>
         <v>0.57666666666666666</v>
       </c>
-      <c r="K47" s="3">
-        <v>7.85</v>
-      </c>
-      <c r="L47" s="3">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="M47" s="3">
-        <v>2.89</v>
-      </c>
-      <c r="N47" s="3">
-        <v>5.34</v>
-      </c>
-      <c r="O47" s="6">
-        <v>0.75979999999999992</v>
-      </c>
-      <c r="P47">
-        <v>658</v>
-      </c>
-      <c r="Q47">
+      <c r="K47">
         <v>102</v>
       </c>
-      <c r="R47">
+      <c r="L47">
         <v>488</v>
       </c>
+      <c r="M47">
+        <v>61</v>
+      </c>
+      <c r="N47">
+        <v>323</v>
+      </c>
+      <c r="P47" s="20">
+        <v>66.8</v>
+      </c>
       <c r="S47">
-        <v>61</v>
+        <v>466</v>
       </c>
       <c r="T47">
-        <v>323</v>
+        <v>3746</v>
+      </c>
+      <c r="U47">
+        <v>1483</v>
+      </c>
+      <c r="V47">
+        <v>4274</v>
       </c>
       <c r="W47">
-        <v>466</v>
+        <v>1799</v>
       </c>
       <c r="X47">
-        <v>3746</v>
+        <v>1497</v>
       </c>
       <c r="Y47">
-        <v>1483</v>
+        <v>10890</v>
       </c>
       <c r="Z47">
-        <v>4274</v>
+        <v>187</v>
       </c>
       <c r="AA47">
-        <v>1799</v>
+        <v>6575</v>
       </c>
       <c r="AB47">
-        <v>1497</v>
+        <v>329</v>
       </c>
       <c r="AC47">
-        <v>10890</v>
+        <v>38</v>
       </c>
       <c r="AD47">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="AE47">
-        <v>6575</v>
+        <v>31</v>
       </c>
       <c r="AF47">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="AG47">
-        <v>38</v>
-      </c>
-      <c r="AH47">
-        <v>59</v>
-      </c>
-      <c r="AI47">
-        <v>31</v>
-      </c>
-      <c r="AJ47">
-        <v>36</v>
-      </c>
-      <c r="AK47">
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -4265,74 +4099,68 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
+      <c r="K48">
+        <v>88</v>
+      </c>
+      <c r="L48">
+        <v>475</v>
+      </c>
+      <c r="M48">
+        <v>69</v>
+      </c>
       <c r="N48">
-        <v>4.28</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0.79459999999999997</v>
-      </c>
-      <c r="P48">
-        <v>638</v>
-      </c>
-      <c r="Q48">
-        <v>88</v>
-      </c>
-      <c r="R48">
-        <v>475</v>
+        <v>308</v>
+      </c>
+      <c r="P48" s="20">
+        <v>57.1</v>
       </c>
       <c r="S48">
-        <v>69</v>
+        <v>449</v>
       </c>
       <c r="T48">
-        <v>308</v>
+        <v>3708</v>
+      </c>
+      <c r="U48">
+        <v>1521</v>
+      </c>
+      <c r="V48">
+        <v>4836</v>
       </c>
       <c r="W48">
-        <v>449</v>
+        <v>2034</v>
       </c>
       <c r="X48">
-        <v>3708</v>
+        <v>1235</v>
       </c>
       <c r="Y48">
-        <v>1521</v>
+        <v>10334</v>
       </c>
       <c r="Z48">
-        <v>4836</v>
+        <v>190</v>
       </c>
       <c r="AA48">
-        <v>2034</v>
+        <v>7022</v>
       </c>
       <c r="AB48">
-        <v>1235</v>
+        <v>360</v>
       </c>
       <c r="AC48">
-        <v>10334</v>
+        <v>71</v>
       </c>
       <c r="AD48">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="AE48">
-        <v>7022</v>
+        <v>57</v>
       </c>
       <c r="AF48">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="AG48">
-        <v>71</v>
-      </c>
-      <c r="AH48">
-        <v>52</v>
-      </c>
-      <c r="AI48">
-        <v>57</v>
-      </c>
-      <c r="AJ48">
-        <v>30</v>
-      </c>
-      <c r="AK48">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -4364,74 +4192,68 @@
         <f t="shared" si="0"/>
         <v>0.51624999999999999</v>
       </c>
+      <c r="K49">
+        <v>93</v>
+      </c>
+      <c r="L49">
+        <v>486</v>
+      </c>
+      <c r="M49">
+        <v>75</v>
+      </c>
       <c r="N49">
-        <v>5.86</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0.80039999999999989</v>
-      </c>
-      <c r="P49">
-        <v>660</v>
-      </c>
-      <c r="Q49">
-        <v>93</v>
-      </c>
-      <c r="R49">
-        <v>486</v>
+        <v>320</v>
+      </c>
+      <c r="P49" s="20">
+        <v>68.3</v>
       </c>
       <c r="S49">
+        <v>459</v>
+      </c>
+      <c r="T49">
+        <v>3647</v>
+      </c>
+      <c r="U49">
+        <v>1476</v>
+      </c>
+      <c r="V49">
+        <v>4901</v>
+      </c>
+      <c r="W49">
+        <v>2052</v>
+      </c>
+      <c r="X49">
+        <v>870</v>
+      </c>
+      <c r="Y49">
+        <v>10603</v>
+      </c>
+      <c r="Z49">
+        <v>199</v>
+      </c>
+      <c r="AA49">
+        <v>7103</v>
+      </c>
+      <c r="AB49">
+        <v>159</v>
+      </c>
+      <c r="AC49">
+        <v>36</v>
+      </c>
+      <c r="AD49">
+        <v>52</v>
+      </c>
+      <c r="AE49">
         <v>75</v>
       </c>
-      <c r="T49">
-        <v>320</v>
-      </c>
-      <c r="W49">
-        <v>459</v>
-      </c>
-      <c r="X49">
-        <v>3647</v>
-      </c>
-      <c r="Y49">
-        <v>1476</v>
-      </c>
-      <c r="Z49">
-        <v>4901</v>
-      </c>
-      <c r="AA49">
-        <v>2052</v>
-      </c>
-      <c r="AB49">
-        <v>870</v>
-      </c>
-      <c r="AC49">
-        <v>10603</v>
-      </c>
-      <c r="AD49">
-        <v>199</v>
-      </c>
-      <c r="AE49">
-        <v>7103</v>
-      </c>
       <c r="AF49">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="AG49">
-        <v>36</v>
-      </c>
-      <c r="AH49">
-        <v>52</v>
-      </c>
-      <c r="AI49">
-        <v>75</v>
-      </c>
-      <c r="AJ49">
-        <v>35</v>
-      </c>
-      <c r="AK49">
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -4463,74 +4285,68 @@
         <f t="shared" si="0"/>
         <v>0.44916666666666666</v>
       </c>
+      <c r="K50">
+        <v>87</v>
+      </c>
+      <c r="L50">
+        <v>481</v>
+      </c>
+      <c r="M50">
+        <v>90</v>
+      </c>
       <c r="N50">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0.80039999999999989</v>
-      </c>
-      <c r="P50">
-        <v>663</v>
-      </c>
-      <c r="Q50">
-        <v>87</v>
-      </c>
-      <c r="R50">
-        <v>481</v>
+        <v>320</v>
+      </c>
+      <c r="P50" s="20">
+        <v>66.400000000000006</v>
       </c>
       <c r="S50">
-        <v>90</v>
+        <v>463</v>
       </c>
       <c r="T50">
-        <v>320</v>
+        <v>3734</v>
+      </c>
+      <c r="U50">
+        <v>1506</v>
+      </c>
+      <c r="V50">
+        <v>4651</v>
       </c>
       <c r="W50">
-        <v>463</v>
+        <v>1938</v>
       </c>
       <c r="X50">
-        <v>3734</v>
+        <v>1082</v>
       </c>
       <c r="Y50">
-        <v>1506</v>
+        <v>10802</v>
       </c>
       <c r="Z50">
-        <v>4651</v>
+        <v>206</v>
       </c>
       <c r="AA50">
-        <v>1938</v>
+        <v>8003</v>
       </c>
       <c r="AB50">
-        <v>1082</v>
+        <v>213</v>
       </c>
       <c r="AC50">
-        <v>10802</v>
+        <v>41</v>
       </c>
       <c r="AD50">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="AE50">
-        <v>8003</v>
+        <v>93</v>
       </c>
       <c r="AF50">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AG50">
-        <v>41</v>
-      </c>
-      <c r="AH50">
-        <v>51</v>
-      </c>
-      <c r="AI50">
-        <v>93</v>
-      </c>
-      <c r="AJ50">
-        <v>40</v>
-      </c>
-      <c r="AK50">
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -4562,74 +4378,68 @@
         <f t="shared" si="0"/>
         <v>0.5395833333333333</v>
       </c>
+      <c r="K51">
+        <v>80</v>
+      </c>
+      <c r="L51">
+        <v>461</v>
+      </c>
+      <c r="M51">
+        <v>97</v>
+      </c>
       <c r="N51">
-        <v>5.54</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="P51">
-        <v>645</v>
-      </c>
-      <c r="Q51">
-        <v>80</v>
-      </c>
-      <c r="R51">
-        <v>461</v>
+        <v>319</v>
+      </c>
+      <c r="P51" s="20">
+        <v>67.599999999999994</v>
       </c>
       <c r="S51">
-        <v>97</v>
+        <v>470</v>
       </c>
       <c r="T51">
-        <v>319</v>
+        <v>3800</v>
+      </c>
+      <c r="U51">
+        <v>1529</v>
+      </c>
+      <c r="V51">
+        <v>4337</v>
       </c>
       <c r="W51">
-        <v>470</v>
+        <v>1807</v>
       </c>
       <c r="X51">
-        <v>3800</v>
+        <v>1461</v>
       </c>
       <c r="Y51">
-        <v>1529</v>
+        <v>11159</v>
       </c>
       <c r="Z51">
-        <v>4337</v>
+        <v>212</v>
       </c>
       <c r="AA51">
-        <v>1807</v>
+        <v>7704</v>
       </c>
       <c r="AB51">
-        <v>1461</v>
+        <v>259</v>
       </c>
       <c r="AC51">
-        <v>11159</v>
+        <v>55</v>
       </c>
       <c r="AD51">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="AE51">
-        <v>7704</v>
+        <v>110</v>
       </c>
       <c r="AF51">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AG51">
-        <v>55</v>
-      </c>
-      <c r="AH51">
-        <v>50</v>
-      </c>
-      <c r="AI51">
-        <v>110</v>
-      </c>
-      <c r="AJ51">
-        <v>45</v>
-      </c>
-      <c r="AK51">
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -4661,74 +4471,68 @@
         <f t="shared" si="0"/>
         <v>0.57166666666666666</v>
       </c>
+      <c r="K52">
+        <v>74</v>
+      </c>
+      <c r="L52">
+        <v>458</v>
+      </c>
+      <c r="M52">
+        <v>89</v>
+      </c>
       <c r="N52">
-        <v>5.34</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0.83519999999999994</v>
-      </c>
-      <c r="P52">
-        <v>628</v>
-      </c>
-      <c r="Q52">
-        <v>74</v>
-      </c>
-      <c r="R52">
-        <v>458</v>
+        <v>322</v>
+      </c>
+      <c r="P52" s="20">
+        <v>68.599999999999994</v>
       </c>
       <c r="S52">
-        <v>89</v>
+        <v>473</v>
       </c>
       <c r="T52">
-        <v>322</v>
+        <v>3976</v>
+      </c>
+      <c r="U52">
+        <v>1546</v>
+      </c>
+      <c r="V52">
+        <v>4233</v>
       </c>
       <c r="W52">
-        <v>473</v>
+        <v>1752</v>
       </c>
       <c r="X52">
-        <v>3976</v>
+        <v>1621</v>
       </c>
       <c r="Y52">
-        <v>1546</v>
+        <v>11717</v>
       </c>
       <c r="Z52">
-        <v>4233</v>
+        <v>231</v>
       </c>
       <c r="AA52">
-        <v>1752</v>
+        <v>8848</v>
       </c>
       <c r="AB52">
-        <v>1621</v>
+        <v>401</v>
       </c>
       <c r="AC52">
-        <v>11717</v>
+        <v>75</v>
       </c>
       <c r="AD52">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AE52">
-        <v>8848</v>
+        <v>128</v>
       </c>
       <c r="AF52">
-        <v>401</v>
+        <v>50</v>
       </c>
       <c r="AG52">
-        <v>75</v>
-      </c>
-      <c r="AH52">
-        <v>49</v>
-      </c>
-      <c r="AI52">
-        <v>128</v>
-      </c>
-      <c r="AJ52">
-        <v>50</v>
-      </c>
-      <c r="AK52">
         <v>725</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -4760,74 +4564,68 @@
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
+      <c r="K53">
+        <v>66</v>
+      </c>
+      <c r="L53">
+        <v>451</v>
+      </c>
+      <c r="M53">
+        <v>88</v>
+      </c>
       <c r="N53">
-        <v>5.23</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="P53">
-        <v>611</v>
-      </c>
-      <c r="Q53">
-        <v>66</v>
-      </c>
-      <c r="R53">
-        <v>451</v>
+        <v>301</v>
+      </c>
+      <c r="P53" s="20">
+        <v>69.599999999999994</v>
       </c>
       <c r="S53">
-        <v>88</v>
+        <v>458</v>
       </c>
       <c r="T53">
-        <v>301</v>
+        <v>4059</v>
+      </c>
+      <c r="U53">
+        <v>1552</v>
+      </c>
+      <c r="V53">
+        <v>4263</v>
       </c>
       <c r="W53">
-        <v>458</v>
+        <v>1742</v>
       </c>
       <c r="X53">
-        <v>4059</v>
+        <v>1389</v>
       </c>
       <c r="Y53">
-        <v>1552</v>
+        <v>11738</v>
       </c>
       <c r="Z53">
-        <v>4263</v>
+        <v>239</v>
       </c>
       <c r="AA53">
-        <v>1742</v>
+        <v>9584</v>
       </c>
       <c r="AB53">
-        <v>1389</v>
+        <v>784</v>
       </c>
       <c r="AC53">
-        <v>11738</v>
+        <v>95</v>
       </c>
       <c r="AD53">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="AE53">
-        <v>9584</v>
+        <v>145</v>
       </c>
       <c r="AF53">
-        <v>784</v>
+        <v>55</v>
       </c>
       <c r="AG53">
-        <v>95</v>
-      </c>
-      <c r="AH53">
-        <v>48</v>
-      </c>
-      <c r="AI53">
-        <v>145</v>
-      </c>
-      <c r="AJ53">
-        <v>55</v>
-      </c>
-      <c r="AK53">
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -4859,74 +4657,68 @@
         <f t="shared" si="0"/>
         <v>0.60038461538461541</v>
       </c>
+      <c r="K54">
+        <v>50</v>
+      </c>
+      <c r="L54">
+        <v>415</v>
+      </c>
+      <c r="M54">
+        <v>92</v>
+      </c>
       <c r="N54">
-        <v>5.78</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0.93379999999999996</v>
-      </c>
-      <c r="P54">
-        <v>563</v>
-      </c>
-      <c r="Q54">
-        <v>50</v>
-      </c>
-      <c r="R54">
-        <v>415</v>
+        <v>272</v>
+      </c>
+      <c r="P54" s="20">
+        <v>68.900000000000006</v>
       </c>
       <c r="S54">
-        <v>92</v>
+        <v>424</v>
       </c>
       <c r="T54">
-        <v>272</v>
+        <v>4147</v>
+      </c>
+      <c r="U54">
+        <v>1528</v>
+      </c>
+      <c r="V54">
+        <v>4485</v>
       </c>
       <c r="W54">
-        <v>424</v>
+        <v>1822</v>
       </c>
       <c r="X54">
-        <v>4147</v>
+        <v>1044</v>
       </c>
       <c r="Y54">
-        <v>1528</v>
+        <v>11863</v>
       </c>
       <c r="Z54">
-        <v>4485</v>
+        <v>243</v>
       </c>
       <c r="AA54">
-        <v>1822</v>
+        <v>8746</v>
       </c>
       <c r="AB54">
-        <v>1044</v>
+        <v>603</v>
       </c>
       <c r="AC54">
-        <v>11863</v>
+        <v>139</v>
       </c>
       <c r="AD54">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="AE54">
-        <v>8746</v>
+        <v>163</v>
       </c>
       <c r="AF54">
-        <v>603</v>
+        <v>60</v>
       </c>
       <c r="AG54">
-        <v>139</v>
-      </c>
-      <c r="AH54">
-        <v>47</v>
-      </c>
-      <c r="AI54">
-        <v>163</v>
-      </c>
-      <c r="AJ54">
-        <v>60</v>
-      </c>
-      <c r="AK54">
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -4958,74 +4750,68 @@
         <f t="shared" si="0"/>
         <v>0.38230769230769229</v>
       </c>
+      <c r="K55">
+        <v>57</v>
+      </c>
+      <c r="L55">
+        <v>403</v>
+      </c>
+      <c r="M55">
+        <v>85</v>
+      </c>
       <c r="N55">
-        <v>6.01</v>
-      </c>
-      <c r="O55" s="2">
-        <v>1.0324</v>
-      </c>
-      <c r="P55">
-        <v>550</v>
-      </c>
-      <c r="Q55">
-        <v>57</v>
-      </c>
-      <c r="R55">
-        <v>403</v>
+        <v>270</v>
+      </c>
+      <c r="P55" s="20">
+        <v>75.5</v>
       </c>
       <c r="S55">
-        <v>85</v>
+        <v>418</v>
       </c>
       <c r="T55">
-        <v>270</v>
+        <v>4125</v>
+      </c>
+      <c r="U55">
+        <v>1491</v>
+      </c>
+      <c r="V55">
+        <v>4442</v>
       </c>
       <c r="W55">
-        <v>418</v>
+        <v>1818</v>
       </c>
       <c r="X55">
-        <v>4125</v>
+        <v>1099</v>
       </c>
       <c r="Y55">
-        <v>1491</v>
+        <v>12068</v>
       </c>
       <c r="Z55">
-        <v>4442</v>
+        <v>257</v>
       </c>
       <c r="AA55">
-        <v>1818</v>
+        <v>9113</v>
       </c>
       <c r="AB55">
-        <v>1099</v>
+        <v>350</v>
       </c>
       <c r="AC55">
-        <v>12068</v>
+        <v>114</v>
       </c>
       <c r="AD55">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="AE55">
-        <v>9113</v>
+        <v>181</v>
       </c>
       <c r="AF55">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="AG55">
-        <v>114</v>
-      </c>
-      <c r="AH55">
-        <v>46</v>
-      </c>
-      <c r="AI55">
-        <v>181</v>
-      </c>
-      <c r="AJ55">
-        <v>65</v>
-      </c>
-      <c r="AK55">
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -5057,74 +4843,68 @@
         <f t="shared" si="0"/>
         <v>0.43615384615384617</v>
       </c>
+      <c r="K56">
+        <v>47</v>
+      </c>
+      <c r="L56">
+        <v>408</v>
+      </c>
+      <c r="M56">
+        <v>93</v>
+      </c>
       <c r="N56">
-        <v>5.9</v>
-      </c>
-      <c r="O56" s="2">
-        <v>1.0497999999999998</v>
-      </c>
-      <c r="P56">
-        <v>554</v>
-      </c>
-      <c r="Q56">
-        <v>47</v>
-      </c>
-      <c r="R56">
-        <v>408</v>
+        <v>272</v>
+      </c>
+      <c r="P56" s="20">
+        <v>79.2</v>
       </c>
       <c r="S56">
-        <v>93</v>
+        <v>423</v>
       </c>
       <c r="T56">
-        <v>272</v>
+        <v>4115</v>
+      </c>
+      <c r="U56">
+        <v>1530</v>
+      </c>
+      <c r="V56">
+        <v>4254</v>
       </c>
       <c r="W56">
-        <v>423</v>
+        <v>1750</v>
       </c>
       <c r="X56">
-        <v>4115</v>
+        <v>1252</v>
       </c>
       <c r="Y56">
-        <v>1530</v>
+        <v>12139</v>
       </c>
       <c r="Z56">
-        <v>4254</v>
+        <v>271</v>
       </c>
       <c r="AA56">
-        <v>1750</v>
+        <v>11251</v>
       </c>
       <c r="AB56">
-        <v>1252</v>
+        <v>543</v>
       </c>
       <c r="AC56">
-        <v>12139</v>
+        <v>122</v>
       </c>
       <c r="AD56">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="AE56">
-        <v>11251</v>
+        <v>198</v>
       </c>
       <c r="AF56">
-        <v>543</v>
+        <v>70</v>
       </c>
       <c r="AG56">
-        <v>122</v>
-      </c>
-      <c r="AH56">
-        <v>45</v>
-      </c>
-      <c r="AI56">
-        <v>198</v>
-      </c>
-      <c r="AJ56">
-        <v>70</v>
-      </c>
-      <c r="AK56">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -5156,83 +4936,68 @@
         <f t="shared" si="0"/>
         <v>0.42259259259259258</v>
       </c>
-      <c r="K57" s="3">
-        <v>10.19</v>
-      </c>
-      <c r="L57" s="3">
-        <v>8.51</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2.87</v>
-      </c>
-      <c r="N57" s="3">
-        <v>6.09</v>
-      </c>
-      <c r="O57" s="6">
-        <v>1.1194</v>
-      </c>
-      <c r="P57">
-        <v>536</v>
-      </c>
-      <c r="Q57">
+      <c r="K57">
         <v>35</v>
       </c>
-      <c r="R57">
+      <c r="L57">
         <v>407</v>
       </c>
+      <c r="M57">
+        <v>88</v>
+      </c>
+      <c r="N57">
+        <v>266</v>
+      </c>
+      <c r="P57" s="20">
+        <v>81.400000000000006</v>
+      </c>
       <c r="S57">
-        <v>88</v>
+        <v>420</v>
       </c>
       <c r="T57">
-        <v>266</v>
+        <v>4117</v>
+      </c>
+      <c r="U57">
+        <v>1533</v>
+      </c>
+      <c r="V57">
+        <v>4009</v>
       </c>
       <c r="W57">
-        <v>420</v>
+        <v>1639</v>
       </c>
       <c r="X57">
-        <v>4117</v>
+        <v>1425</v>
       </c>
       <c r="Y57">
-        <v>1533</v>
+        <v>13619</v>
       </c>
       <c r="Z57">
-        <v>4009</v>
+        <v>264</v>
       </c>
       <c r="AA57">
-        <v>1639</v>
+        <v>10575</v>
       </c>
       <c r="AB57">
-        <v>1425</v>
+        <v>670</v>
       </c>
       <c r="AC57">
-        <v>13619</v>
+        <v>81</v>
       </c>
       <c r="AD57">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AE57">
-        <v>10575</v>
+        <v>216</v>
       </c>
       <c r="AF57">
-        <v>670</v>
+        <v>75</v>
       </c>
       <c r="AG57">
-        <v>81</v>
-      </c>
-      <c r="AH57">
-        <v>45</v>
-      </c>
-      <c r="AI57">
-        <v>216</v>
-      </c>
-      <c r="AJ57">
-        <v>75</v>
-      </c>
-      <c r="AK57">
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
@@ -5264,75 +5029,69 @@
         <f t="shared" si="0"/>
         <v>0.6925</v>
       </c>
+      <c r="K58" s="14">
+        <v>42</v>
+      </c>
+      <c r="L58" s="14">
+        <v>403</v>
+      </c>
+      <c r="M58" s="14">
+        <v>90</v>
+      </c>
       <c r="N58" s="14">
-        <v>4.95</v>
-      </c>
-      <c r="O58" s="15">
-        <v>0.85839999999999994</v>
-      </c>
-      <c r="P58" s="14">
-        <v>541</v>
-      </c>
-      <c r="Q58" s="14">
-        <v>42</v>
-      </c>
-      <c r="R58" s="14">
-        <v>403</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="P58" s="24">
+        <v>79.7</v>
+      </c>
+      <c r="Q58" s="29"/>
       <c r="S58" s="14">
-        <v>90</v>
+        <v>415</v>
       </c>
       <c r="T58" s="14">
-        <v>262</v>
-      </c>
-      <c r="U58" s="24"/>
+        <v>3998</v>
+      </c>
+      <c r="U58" s="14">
+        <v>1523</v>
+      </c>
+      <c r="V58" s="14">
+        <v>3988</v>
+      </c>
       <c r="W58" s="14">
-        <v>415</v>
+        <v>1629</v>
       </c>
       <c r="X58" s="14">
-        <v>3998</v>
+        <v>1469</v>
       </c>
       <c r="Y58" s="14">
-        <v>1523</v>
+        <v>13566</v>
       </c>
       <c r="Z58" s="14">
-        <v>3988</v>
+        <v>267</v>
       </c>
       <c r="AA58" s="14">
-        <v>1629</v>
+        <v>9836</v>
       </c>
       <c r="AB58" s="14">
-        <v>1469</v>
+        <v>778</v>
       </c>
       <c r="AC58" s="14">
-        <v>13566</v>
+        <v>208</v>
       </c>
       <c r="AD58" s="14">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="AE58" s="14">
-        <v>9836</v>
+        <v>233</v>
       </c>
       <c r="AF58" s="14">
-        <v>778</v>
+        <v>80</v>
       </c>
       <c r="AG58" s="14">
-        <v>208</v>
-      </c>
-      <c r="AH58" s="14">
-        <v>44</v>
-      </c>
-      <c r="AI58" s="14">
-        <v>233</v>
-      </c>
-      <c r="AJ58" s="14">
-        <v>80</v>
-      </c>
-      <c r="AK58" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
@@ -5364,75 +5123,69 @@
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
+      <c r="K59" s="14">
+        <v>48</v>
+      </c>
+      <c r="L59" s="14">
+        <v>380</v>
+      </c>
+      <c r="M59" s="14">
+        <v>97</v>
+      </c>
       <c r="N59" s="14">
-        <v>4.76</v>
-      </c>
-      <c r="O59" s="15">
-        <v>0.95119999999999993</v>
-      </c>
-      <c r="P59" s="14">
-        <v>531</v>
-      </c>
-      <c r="Q59" s="14">
-        <v>48</v>
-      </c>
-      <c r="R59" s="14">
-        <v>380</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="P59" s="24">
+        <v>85.9</v>
+      </c>
+      <c r="Q59" s="29"/>
       <c r="S59" s="14">
-        <v>97</v>
+        <v>404</v>
       </c>
       <c r="T59" s="14">
-        <v>254</v>
-      </c>
-      <c r="U59" s="24"/>
+        <v>3985</v>
+      </c>
+      <c r="U59" s="14">
+        <v>1484</v>
+      </c>
+      <c r="V59" s="14">
+        <v>4095</v>
+      </c>
       <c r="W59" s="14">
-        <v>404</v>
+        <v>1654</v>
       </c>
       <c r="X59" s="14">
-        <v>3985</v>
+        <v>1269</v>
       </c>
       <c r="Y59" s="14">
-        <v>1484</v>
+        <v>13711</v>
       </c>
       <c r="Z59" s="14">
-        <v>4095</v>
+        <v>279</v>
       </c>
       <c r="AA59" s="14">
-        <v>1654</v>
+        <v>10545</v>
       </c>
       <c r="AB59" s="14">
-        <v>1269</v>
+        <v>858</v>
       </c>
       <c r="AC59" s="14">
-        <v>13711</v>
+        <v>179</v>
       </c>
       <c r="AD59" s="14">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="AE59" s="14">
-        <v>10545</v>
+        <v>251</v>
       </c>
       <c r="AF59" s="14">
-        <v>858</v>
+        <v>85</v>
       </c>
       <c r="AG59" s="14">
-        <v>179</v>
-      </c>
-      <c r="AH59" s="14">
-        <v>43</v>
-      </c>
-      <c r="AI59" s="14">
-        <v>251</v>
-      </c>
-      <c r="AJ59" s="14">
-        <v>85</v>
-      </c>
-      <c r="AK59" s="14">
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
@@ -5464,75 +5217,69 @@
         <f t="shared" si="0"/>
         <v>0.71250000000000002</v>
       </c>
+      <c r="K60" s="14">
+        <v>48</v>
+      </c>
+      <c r="L60" s="14">
+        <v>356</v>
+      </c>
+      <c r="M60" s="14">
+        <v>101</v>
+      </c>
       <c r="N60" s="14">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="O60" s="15">
-        <v>1.0613999999999999</v>
-      </c>
-      <c r="P60" s="14">
-        <v>511</v>
-      </c>
-      <c r="Q60" s="14">
-        <v>48</v>
-      </c>
-      <c r="R60" s="14">
-        <v>356</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P60" s="24">
+        <v>88.6</v>
+      </c>
+      <c r="Q60" s="29"/>
       <c r="S60" s="14">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="T60" s="14">
-        <v>252</v>
-      </c>
-      <c r="U60" s="24"/>
+        <v>4068</v>
+      </c>
+      <c r="U60" s="14">
+        <v>1465</v>
+      </c>
+      <c r="V60" s="14">
+        <v>4018</v>
+      </c>
       <c r="W60" s="14">
-        <v>396</v>
+        <v>1625</v>
       </c>
       <c r="X60" s="14">
-        <v>4068</v>
+        <v>1072</v>
       </c>
       <c r="Y60" s="14">
-        <v>1465</v>
+        <v>13783</v>
       </c>
       <c r="Z60" s="14">
-        <v>4018</v>
+        <v>279</v>
       </c>
       <c r="AA60" s="14">
-        <v>1625</v>
+        <v>10008</v>
       </c>
       <c r="AB60" s="14">
-        <v>1072</v>
+        <v>650</v>
       </c>
       <c r="AC60" s="14">
-        <v>13783</v>
+        <v>166</v>
       </c>
       <c r="AD60" s="14">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="AE60" s="14">
-        <v>10008</v>
+        <v>269</v>
       </c>
       <c r="AF60" s="14">
-        <v>650</v>
+        <v>91</v>
       </c>
       <c r="AG60" s="14">
-        <v>166</v>
-      </c>
-      <c r="AH60" s="14">
-        <v>42</v>
-      </c>
-      <c r="AI60" s="14">
-        <v>269</v>
-      </c>
-      <c r="AJ60" s="14">
-        <v>91</v>
-      </c>
-      <c r="AK60" s="14">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -5564,74 +5311,68 @@
         <f t="shared" si="0"/>
         <v>0.35499999999999998</v>
       </c>
+      <c r="K61">
+        <v>45</v>
+      </c>
+      <c r="L61">
+        <v>378</v>
+      </c>
+      <c r="M61">
+        <v>87</v>
+      </c>
       <c r="N61">
-        <v>5.07</v>
-      </c>
-      <c r="O61" s="2">
-        <v>1.0207999999999999</v>
-      </c>
-      <c r="P61">
-        <v>516</v>
-      </c>
-      <c r="Q61">
-        <v>45</v>
-      </c>
-      <c r="R61">
-        <v>378</v>
+        <v>247</v>
+      </c>
+      <c r="P61" s="20">
+        <v>86.6</v>
       </c>
       <c r="S61">
-        <v>87</v>
+        <v>385</v>
       </c>
       <c r="T61">
-        <v>247</v>
+        <v>3922</v>
+      </c>
+      <c r="U61">
+        <v>1398</v>
+      </c>
+      <c r="V61">
+        <v>3562</v>
       </c>
       <c r="W61">
-        <v>385</v>
+        <v>1440</v>
       </c>
       <c r="X61">
-        <v>3922</v>
+        <v>850</v>
       </c>
       <c r="Y61">
-        <v>1398</v>
+        <v>13430</v>
       </c>
       <c r="Z61">
-        <v>3562</v>
+        <v>266</v>
       </c>
       <c r="AA61">
-        <v>1440</v>
+        <v>9242</v>
       </c>
       <c r="AB61">
-        <v>850</v>
+        <v>632</v>
       </c>
       <c r="AC61">
-        <v>13430</v>
+        <v>140</v>
       </c>
       <c r="AD61">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="AE61">
-        <v>9242</v>
+        <v>286</v>
       </c>
       <c r="AF61">
-        <v>632</v>
+        <v>96</v>
       </c>
       <c r="AG61">
-        <v>140</v>
-      </c>
-      <c r="AH61">
-        <v>41</v>
-      </c>
-      <c r="AI61">
-        <v>286</v>
-      </c>
-      <c r="AJ61">
-        <v>96</v>
-      </c>
-      <c r="AK61">
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -5663,74 +5404,68 @@
         <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
+      <c r="K62">
+        <v>47</v>
+      </c>
+      <c r="L62">
+        <v>383</v>
+      </c>
+      <c r="M62">
+        <v>83</v>
+      </c>
       <c r="N62">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="O62" s="2">
-        <v>1.2585999999999999</v>
-      </c>
-      <c r="P62">
-        <v>519</v>
-      </c>
-      <c r="Q62">
-        <v>47</v>
-      </c>
-      <c r="R62">
-        <v>383</v>
+        <v>257</v>
+      </c>
+      <c r="P62" s="20">
+        <v>82.9</v>
       </c>
       <c r="S62">
-        <v>83</v>
+        <v>391</v>
       </c>
       <c r="T62">
-        <v>257</v>
+        <v>3957</v>
+      </c>
+      <c r="U62">
+        <v>1392</v>
+      </c>
+      <c r="V62">
+        <v>3256</v>
       </c>
       <c r="W62">
-        <v>391</v>
+        <v>1338</v>
       </c>
       <c r="X62">
-        <v>3957</v>
+        <v>1096</v>
       </c>
       <c r="Y62">
-        <v>1392</v>
+        <v>13972</v>
       </c>
       <c r="Z62">
-        <v>3256</v>
+        <v>266</v>
       </c>
       <c r="AA62">
-        <v>1338</v>
+        <v>7715</v>
       </c>
       <c r="AB62">
-        <v>1096</v>
+        <v>637</v>
       </c>
       <c r="AC62">
-        <v>13972</v>
+        <v>101</v>
       </c>
       <c r="AD62">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="AE62">
-        <v>7715</v>
+        <v>304</v>
       </c>
       <c r="AF62">
-        <v>637</v>
+        <v>101</v>
       </c>
       <c r="AG62">
-        <v>101</v>
-      </c>
-      <c r="AH62">
-        <v>40</v>
-      </c>
-      <c r="AI62">
-        <v>304</v>
-      </c>
-      <c r="AJ62">
-        <v>101</v>
-      </c>
-      <c r="AK62">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -5762,74 +5497,68 @@
         <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
+      <c r="K63">
+        <v>46</v>
+      </c>
+      <c r="L63">
+        <v>385</v>
+      </c>
+      <c r="M63">
+        <v>74</v>
+      </c>
       <c r="N63">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="O63" s="2">
-        <v>1.2469999999999999</v>
-      </c>
-      <c r="P63">
-        <v>511</v>
-      </c>
-      <c r="Q63">
-        <v>46</v>
-      </c>
-      <c r="R63">
+        <v>252</v>
+      </c>
+      <c r="P63" s="20">
+        <v>87.8</v>
+      </c>
+      <c r="S63">
         <v>385</v>
       </c>
-      <c r="S63">
-        <v>74</v>
-      </c>
       <c r="T63">
-        <v>252</v>
+        <v>3987</v>
+      </c>
+      <c r="U63">
+        <v>1399</v>
+      </c>
+      <c r="V63">
+        <v>3072</v>
       </c>
       <c r="W63">
-        <v>385</v>
+        <v>1261</v>
       </c>
       <c r="X63">
-        <v>3987</v>
+        <v>1430</v>
       </c>
       <c r="Y63">
-        <v>1399</v>
+        <v>13999</v>
       </c>
       <c r="Z63">
-        <v>3072</v>
+        <v>263</v>
       </c>
       <c r="AA63">
-        <v>1261</v>
+        <v>9899</v>
       </c>
       <c r="AB63">
-        <v>1430</v>
+        <v>926</v>
       </c>
       <c r="AC63">
-        <v>13999</v>
+        <v>106</v>
       </c>
       <c r="AD63">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="AE63">
-        <v>9899</v>
+        <v>322</v>
       </c>
       <c r="AF63">
-        <v>926</v>
+        <v>106</v>
       </c>
       <c r="AG63">
-        <v>106</v>
-      </c>
-      <c r="AH63">
-        <v>39</v>
-      </c>
-      <c r="AI63">
-        <v>322</v>
-      </c>
-      <c r="AJ63">
-        <v>106</v>
-      </c>
-      <c r="AK63">
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -5861,74 +5590,68 @@
         <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
+      <c r="K64">
+        <v>27</v>
+      </c>
+      <c r="L64">
+        <v>381</v>
+      </c>
+      <c r="M64">
+        <v>73</v>
+      </c>
       <c r="N64">
-        <v>4.32</v>
-      </c>
-      <c r="O64" s="2">
-        <v>1.2469999999999999</v>
-      </c>
-      <c r="P64">
-        <v>486</v>
-      </c>
-      <c r="Q64">
-        <v>27</v>
-      </c>
-      <c r="R64">
-        <v>381</v>
+        <v>242</v>
+      </c>
+      <c r="P64" s="20">
+        <v>88.1</v>
       </c>
       <c r="S64">
-        <v>73</v>
+        <v>379</v>
       </c>
       <c r="T64">
-        <v>242</v>
+        <v>4097</v>
+      </c>
+      <c r="U64">
+        <v>1402</v>
+      </c>
+      <c r="V64">
+        <v>3219</v>
       </c>
       <c r="W64">
-        <v>379</v>
+        <v>1330</v>
       </c>
       <c r="X64">
-        <v>4097</v>
+        <v>1348</v>
       </c>
       <c r="Y64">
-        <v>1402</v>
+        <v>13382</v>
       </c>
       <c r="Z64">
-        <v>3219</v>
+        <v>263</v>
       </c>
       <c r="AA64">
-        <v>1330</v>
+        <v>8985</v>
       </c>
       <c r="AB64">
-        <v>1348</v>
+        <v>819</v>
       </c>
       <c r="AC64">
-        <v>13382</v>
+        <v>299</v>
       </c>
       <c r="AD64">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="AE64">
-        <v>8985</v>
+        <v>339</v>
       </c>
       <c r="AF64">
-        <v>819</v>
+        <v>111</v>
       </c>
       <c r="AG64">
-        <v>299</v>
-      </c>
-      <c r="AH64">
-        <v>38</v>
-      </c>
-      <c r="AI64">
-        <v>339</v>
-      </c>
-      <c r="AJ64">
-        <v>111</v>
-      </c>
-      <c r="AK64">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -5960,74 +5683,68 @@
         <f t="shared" si="0"/>
         <v>0.29249999999999998</v>
       </c>
+      <c r="K65">
+        <v>19</v>
+      </c>
+      <c r="L65">
+        <v>371</v>
+      </c>
+      <c r="M65">
+        <v>67</v>
+      </c>
       <c r="N65">
-        <v>4.13</v>
-      </c>
-      <c r="O65" s="2">
-        <v>1.2238</v>
-      </c>
-      <c r="P65">
-        <v>460</v>
-      </c>
-      <c r="Q65">
-        <v>19</v>
-      </c>
-      <c r="R65">
-        <v>371</v>
+        <v>240</v>
+      </c>
+      <c r="P65" s="20">
+        <v>90</v>
       </c>
       <c r="S65">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="T65">
-        <v>240</v>
+        <v>4113</v>
+      </c>
+      <c r="U65">
+        <v>1357</v>
+      </c>
+      <c r="V65">
+        <v>3245</v>
       </c>
       <c r="W65">
-        <v>375</v>
+        <v>1333</v>
       </c>
       <c r="X65">
-        <v>4113</v>
+        <v>1307</v>
       </c>
       <c r="Y65">
-        <v>1357</v>
+        <v>12747</v>
       </c>
       <c r="Z65">
-        <v>3245</v>
+        <v>254</v>
       </c>
       <c r="AA65">
-        <v>1333</v>
+        <v>7689</v>
       </c>
       <c r="AB65">
-        <v>1307</v>
+        <v>737</v>
       </c>
       <c r="AC65">
-        <v>12747</v>
+        <v>145</v>
       </c>
       <c r="AD65">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="AE65">
-        <v>7689</v>
+        <v>357</v>
       </c>
       <c r="AF65">
-        <v>737</v>
+        <v>116</v>
       </c>
       <c r="AG65">
-        <v>145</v>
-      </c>
-      <c r="AH65">
-        <v>38</v>
-      </c>
-      <c r="AI65">
-        <v>357</v>
-      </c>
-      <c r="AJ65">
-        <v>116</v>
-      </c>
-      <c r="AK65">
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -6059,74 +5776,68 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
+      <c r="K66">
+        <v>20</v>
+      </c>
+      <c r="L66">
+        <v>363</v>
+      </c>
+      <c r="M66">
+        <v>71</v>
+      </c>
       <c r="N66">
-        <v>3.58</v>
-      </c>
-      <c r="O66" s="2">
-        <v>1.1774</v>
-      </c>
-      <c r="P66">
-        <v>459</v>
-      </c>
-      <c r="Q66">
-        <v>20</v>
-      </c>
-      <c r="R66">
-        <v>363</v>
+        <v>239</v>
+      </c>
+      <c r="P66" s="20">
+        <v>84.4</v>
       </c>
       <c r="S66">
-        <v>71</v>
+        <v>374</v>
       </c>
       <c r="T66">
-        <v>239</v>
+        <v>4229</v>
+      </c>
+      <c r="U66">
+        <v>1417</v>
+      </c>
+      <c r="V66">
+        <v>3478</v>
       </c>
       <c r="W66">
+        <v>1421</v>
+      </c>
+      <c r="X66">
+        <v>1269</v>
+      </c>
+      <c r="Y66">
+        <v>13851</v>
+      </c>
+      <c r="Z66">
+        <v>264</v>
+      </c>
+      <c r="AA66">
+        <v>9771</v>
+      </c>
+      <c r="AB66">
+        <v>901</v>
+      </c>
+      <c r="AC66">
+        <v>121</v>
+      </c>
+      <c r="AD66">
+        <v>37</v>
+      </c>
+      <c r="AE66">
         <v>374</v>
       </c>
-      <c r="X66">
-        <v>4229</v>
-      </c>
-      <c r="Y66">
-        <v>1417</v>
-      </c>
-      <c r="Z66">
-        <v>3478</v>
-      </c>
-      <c r="AA66">
-        <v>1421</v>
-      </c>
-      <c r="AB66">
-        <v>1269</v>
-      </c>
-      <c r="AC66">
-        <v>13851</v>
-      </c>
-      <c r="AD66">
-        <v>264</v>
-      </c>
-      <c r="AE66">
-        <v>9771</v>
-      </c>
       <c r="AF66">
-        <v>901</v>
+        <v>121</v>
       </c>
       <c r="AG66">
-        <v>121</v>
-      </c>
-      <c r="AH66">
-        <v>37</v>
-      </c>
-      <c r="AI66">
-        <v>374</v>
-      </c>
-      <c r="AJ66">
-        <v>121</v>
-      </c>
-      <c r="AK66">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -6155,83 +5866,68 @@
         <f t="shared" ref="J67:J81" si="1">G67/D67</f>
         <v>0.20249999999999999</v>
       </c>
-      <c r="K67" s="3">
-        <v>9.83</v>
-      </c>
-      <c r="L67" s="3">
-        <v>7.77</v>
-      </c>
-      <c r="M67" s="3">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="N67" s="3">
-        <v>3.46</v>
-      </c>
-      <c r="O67" s="6">
-        <v>1.1194</v>
-      </c>
-      <c r="P67">
-        <v>461</v>
-      </c>
-      <c r="Q67">
+      <c r="K67">
         <v>19</v>
       </c>
-      <c r="R67">
+      <c r="L67">
         <v>365</v>
       </c>
+      <c r="M67">
+        <v>72</v>
+      </c>
+      <c r="N67">
+        <v>239</v>
+      </c>
+      <c r="P67" s="20">
+        <v>84.1</v>
+      </c>
       <c r="S67">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="T67">
-        <v>239</v>
+        <v>4184</v>
+      </c>
+      <c r="U67">
+        <v>1419</v>
+      </c>
+      <c r="V67">
+        <v>3366</v>
       </c>
       <c r="W67">
-        <v>375</v>
+        <v>1386</v>
       </c>
       <c r="X67">
-        <v>4184</v>
+        <v>1263</v>
       </c>
       <c r="Y67">
-        <v>1419</v>
+        <v>13910</v>
       </c>
       <c r="Z67">
-        <v>3366</v>
+        <v>266</v>
       </c>
       <c r="AA67">
-        <v>1386</v>
+        <v>6580</v>
       </c>
       <c r="AB67">
-        <v>1263</v>
+        <v>871</v>
       </c>
       <c r="AC67">
-        <v>13910</v>
+        <v>126</v>
       </c>
       <c r="AD67">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="AE67">
-        <v>6580</v>
+        <v>392</v>
       </c>
       <c r="AF67">
-        <v>871</v>
+        <v>126</v>
       </c>
       <c r="AG67">
-        <v>126</v>
-      </c>
-      <c r="AH67">
-        <v>36</v>
-      </c>
-      <c r="AI67">
-        <v>392</v>
-      </c>
-      <c r="AJ67">
-        <v>126</v>
-      </c>
-      <c r="AK67">
         <v>616</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -6260,74 +5956,68 @@
         <f t="shared" si="1"/>
         <v>0.26250000000000001</v>
       </c>
+      <c r="K68">
+        <v>18</v>
+      </c>
+      <c r="L68">
+        <v>362</v>
+      </c>
+      <c r="M68">
+        <v>65</v>
+      </c>
       <c r="N68">
-        <v>3.77</v>
-      </c>
-      <c r="O68" s="2">
-        <v>1.1194</v>
-      </c>
-      <c r="P68">
-        <v>450</v>
-      </c>
-      <c r="Q68">
-        <v>18</v>
-      </c>
-      <c r="R68">
-        <v>362</v>
+        <v>238</v>
+      </c>
+      <c r="P68" s="20">
+        <v>97.2</v>
       </c>
       <c r="S68">
-        <v>65</v>
+        <v>377</v>
       </c>
       <c r="T68">
-        <v>238</v>
+        <v>4157</v>
+      </c>
+      <c r="U68">
+        <v>1394</v>
+      </c>
+      <c r="V68">
+        <v>3378</v>
       </c>
       <c r="W68">
-        <v>377</v>
+        <v>1382</v>
       </c>
       <c r="X68">
-        <v>4157</v>
+        <v>1408</v>
       </c>
       <c r="Y68">
-        <v>1394</v>
+        <v>14461</v>
       </c>
       <c r="Z68">
-        <v>3378</v>
+        <v>272</v>
       </c>
       <c r="AA68">
-        <v>1382</v>
+        <v>7611</v>
       </c>
       <c r="AB68">
-        <v>1408</v>
+        <v>952</v>
       </c>
       <c r="AC68">
-        <v>14461</v>
+        <v>281</v>
       </c>
       <c r="AD68">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="AE68">
-        <v>7611</v>
+        <v>410</v>
       </c>
       <c r="AF68">
-        <v>952</v>
+        <v>131</v>
       </c>
       <c r="AG68">
-        <v>281</v>
-      </c>
-      <c r="AH68">
-        <v>35</v>
-      </c>
-      <c r="AI68">
-        <v>410</v>
-      </c>
-      <c r="AJ68">
-        <v>131</v>
-      </c>
-      <c r="AK68">
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -6356,74 +6046,68 @@
         <f t="shared" si="1"/>
         <v>0.21249999999999999</v>
       </c>
+      <c r="K69">
+        <v>29</v>
+      </c>
+      <c r="L69">
+        <v>348</v>
+      </c>
+      <c r="M69">
+        <v>68</v>
+      </c>
       <c r="N69">
-        <v>3.73</v>
-      </c>
-      <c r="O69" s="2">
-        <v>1.1194</v>
-      </c>
-      <c r="P69">
-        <v>451</v>
-      </c>
-      <c r="Q69">
-        <v>29</v>
-      </c>
-      <c r="R69">
-        <v>348</v>
+        <v>239</v>
+      </c>
+      <c r="P69" s="20">
+        <v>97.5</v>
       </c>
       <c r="S69">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="T69">
-        <v>239</v>
+        <v>4099</v>
+      </c>
+      <c r="U69">
+        <v>1385</v>
+      </c>
+      <c r="V69">
+        <v>3627</v>
       </c>
       <c r="W69">
-        <v>378</v>
+        <v>1485</v>
       </c>
       <c r="X69">
-        <v>4099</v>
+        <v>1398</v>
       </c>
       <c r="Y69">
-        <v>1385</v>
+        <v>14486</v>
       </c>
       <c r="Z69">
-        <v>3627</v>
+        <v>296</v>
       </c>
       <c r="AA69">
-        <v>1485</v>
+        <v>6898</v>
       </c>
       <c r="AB69">
-        <v>1398</v>
+        <v>1049</v>
       </c>
       <c r="AC69">
-        <v>14486</v>
+        <v>401</v>
       </c>
       <c r="AD69">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="AE69">
-        <v>6898</v>
+        <v>427</v>
       </c>
       <c r="AF69">
-        <v>1049</v>
+        <v>136</v>
       </c>
       <c r="AG69">
-        <v>401</v>
-      </c>
-      <c r="AH69">
-        <v>34</v>
-      </c>
-      <c r="AI69">
-        <v>427</v>
-      </c>
-      <c r="AJ69">
-        <v>136</v>
-      </c>
-      <c r="AK69">
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -6452,74 +6136,68 @@
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
+      <c r="K70">
+        <v>28</v>
+      </c>
+      <c r="L70">
+        <v>335</v>
+      </c>
+      <c r="M70">
+        <v>74</v>
+      </c>
       <c r="N70">
-        <v>3.97</v>
-      </c>
-      <c r="O70" s="2">
-        <v>1.1194</v>
-      </c>
-      <c r="P70">
-        <v>443</v>
-      </c>
-      <c r="Q70">
-        <v>28</v>
-      </c>
-      <c r="R70">
-        <v>335</v>
+        <v>235</v>
+      </c>
+      <c r="P70" s="20">
+        <v>100.8</v>
       </c>
       <c r="S70">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="T70">
-        <v>235</v>
+        <v>4094</v>
+      </c>
+      <c r="U70">
+        <v>1364</v>
+      </c>
+      <c r="V70">
+        <v>3789</v>
       </c>
       <c r="W70">
-        <v>373</v>
+        <v>1542</v>
       </c>
       <c r="X70">
-        <v>4094</v>
+        <v>1381</v>
       </c>
       <c r="Y70">
-        <v>1364</v>
+        <v>14857</v>
       </c>
       <c r="Z70">
-        <v>3789</v>
+        <v>304</v>
       </c>
       <c r="AA70">
-        <v>1542</v>
+        <v>7990</v>
       </c>
       <c r="AB70">
-        <v>1381</v>
+        <v>1011</v>
       </c>
       <c r="AC70">
-        <v>14857</v>
+        <v>302</v>
       </c>
       <c r="AD70">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="AE70">
-        <v>7990</v>
+        <v>445</v>
       </c>
       <c r="AF70">
-        <v>1011</v>
+        <v>141</v>
       </c>
       <c r="AG70">
-        <v>302</v>
-      </c>
-      <c r="AH70">
-        <v>33</v>
-      </c>
-      <c r="AI70">
-        <v>445</v>
-      </c>
-      <c r="AJ70">
-        <v>141</v>
-      </c>
-      <c r="AK70">
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -6548,74 +6226,68 @@
         <f t="shared" si="1"/>
         <v>0.20500000000000002</v>
       </c>
+      <c r="K71">
+        <v>28</v>
+      </c>
+      <c r="L71">
+        <v>329</v>
+      </c>
+      <c r="M71">
+        <v>73</v>
+      </c>
       <c r="N71">
-        <v>3.58</v>
-      </c>
-      <c r="O71" s="2">
-        <v>1.3281999999999998</v>
-      </c>
-      <c r="P71">
-        <v>436</v>
-      </c>
-      <c r="Q71">
-        <v>28</v>
-      </c>
-      <c r="R71">
-        <v>329</v>
+        <v>232</v>
+      </c>
+      <c r="P71" s="20">
+        <v>99.1</v>
       </c>
       <c r="S71">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="T71">
-        <v>232</v>
+        <v>4240</v>
+      </c>
+      <c r="U71">
+        <v>1401</v>
+      </c>
+      <c r="V71">
+        <v>4323</v>
       </c>
       <c r="W71">
-        <v>372</v>
+        <v>1752</v>
       </c>
       <c r="X71">
-        <v>4240</v>
+        <v>1570</v>
       </c>
       <c r="Y71">
-        <v>1401</v>
+        <v>15408</v>
       </c>
       <c r="Z71">
-        <v>4323</v>
+        <v>327</v>
       </c>
       <c r="AA71">
-        <v>1752</v>
+        <v>7812</v>
       </c>
       <c r="AB71">
-        <v>1570</v>
+        <v>776</v>
       </c>
       <c r="AC71">
-        <v>15408</v>
+        <v>188</v>
       </c>
       <c r="AD71">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="AE71">
-        <v>7812</v>
+        <v>462</v>
       </c>
       <c r="AF71">
-        <v>776</v>
+        <v>146</v>
       </c>
       <c r="AG71">
-        <v>188</v>
-      </c>
-      <c r="AH71">
-        <v>32</v>
-      </c>
-      <c r="AI71">
-        <v>462</v>
-      </c>
-      <c r="AJ71">
-        <v>146</v>
-      </c>
-      <c r="AK71">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -6644,74 +6316,68 @@
         <f t="shared" si="1"/>
         <v>0.30406250000000001</v>
       </c>
+      <c r="K72">
+        <v>24</v>
+      </c>
+      <c r="L72">
+        <v>328</v>
+      </c>
+      <c r="M72">
+        <v>71</v>
+      </c>
       <c r="N72">
-        <v>4.28</v>
-      </c>
-      <c r="O72" s="2">
-        <v>1.3281999999999998</v>
-      </c>
-      <c r="P72">
-        <v>429</v>
-      </c>
-      <c r="Q72">
-        <v>24</v>
-      </c>
-      <c r="R72">
-        <v>328</v>
+        <v>222</v>
+      </c>
+      <c r="P72" s="20">
+        <v>94.2</v>
       </c>
       <c r="S72">
-        <v>71</v>
+        <v>364</v>
       </c>
       <c r="T72">
-        <v>222</v>
+        <v>4449</v>
+      </c>
+      <c r="U72">
+        <v>1442</v>
+      </c>
+      <c r="V72">
+        <v>4723</v>
       </c>
       <c r="W72">
-        <v>364</v>
+        <v>1922</v>
       </c>
       <c r="X72">
-        <v>4449</v>
+        <v>1368</v>
       </c>
       <c r="Y72">
-        <v>1442</v>
+        <v>15276</v>
       </c>
       <c r="Z72">
-        <v>4723</v>
+        <v>336</v>
       </c>
       <c r="AA72">
-        <v>1922</v>
+        <v>7450</v>
       </c>
       <c r="AB72">
-        <v>1368</v>
+        <v>860</v>
       </c>
       <c r="AC72">
-        <v>15276</v>
+        <v>176</v>
       </c>
       <c r="AD72">
-        <v>336</v>
+        <v>31</v>
       </c>
       <c r="AE72">
-        <v>7450</v>
+        <v>480</v>
       </c>
       <c r="AF72">
-        <v>860</v>
+        <v>152</v>
       </c>
       <c r="AG72">
-        <v>176</v>
-      </c>
-      <c r="AH72">
-        <v>31</v>
-      </c>
-      <c r="AI72">
-        <v>480</v>
-      </c>
-      <c r="AJ72">
-        <v>152</v>
-      </c>
-      <c r="AK72">
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -6740,74 +6406,68 @@
         <f t="shared" si="1"/>
         <v>0.39666666666666667</v>
       </c>
+      <c r="K73">
+        <v>22</v>
+      </c>
+      <c r="L73">
+        <v>330</v>
+      </c>
+      <c r="M73">
+        <v>70</v>
+      </c>
       <c r="N73">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="O73" s="2">
-        <v>1.3281999999999998</v>
-      </c>
-      <c r="P73">
-        <v>428</v>
-      </c>
-      <c r="Q73">
-        <v>22</v>
-      </c>
-      <c r="R73">
-        <v>330</v>
+        <v>218</v>
+      </c>
+      <c r="P73" s="20">
+        <v>98.6</v>
       </c>
       <c r="S73">
-        <v>70</v>
+        <v>357</v>
       </c>
       <c r="T73">
-        <v>218</v>
+        <v>4531</v>
+      </c>
+      <c r="U73">
+        <v>1451</v>
+      </c>
+      <c r="V73">
+        <v>4828</v>
       </c>
       <c r="W73">
-        <v>357</v>
+        <v>1970</v>
       </c>
       <c r="X73">
-        <v>4531</v>
+        <v>1113</v>
       </c>
       <c r="Y73">
-        <v>1451</v>
+        <v>15336</v>
       </c>
       <c r="Z73">
-        <v>4828</v>
+        <v>333</v>
       </c>
       <c r="AA73">
-        <v>1970</v>
+        <v>6704</v>
       </c>
       <c r="AB73">
-        <v>1113</v>
+        <v>1292</v>
       </c>
       <c r="AC73">
-        <v>15336</v>
+        <v>172</v>
       </c>
       <c r="AD73">
-        <v>333</v>
+        <v>31</v>
       </c>
       <c r="AE73">
-        <v>6704</v>
+        <v>498</v>
       </c>
       <c r="AF73">
-        <v>1292</v>
+        <v>157</v>
       </c>
       <c r="AG73">
-        <v>172</v>
-      </c>
-      <c r="AH73">
-        <v>31</v>
-      </c>
-      <c r="AI73">
-        <v>498</v>
-      </c>
-      <c r="AJ73">
-        <v>157</v>
-      </c>
-      <c r="AK73">
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -6836,74 +6496,68 @@
         <f t="shared" si="1"/>
         <v>0.34766666666666668</v>
       </c>
+      <c r="K74">
+        <v>16</v>
+      </c>
+      <c r="L74">
+        <v>336</v>
+      </c>
+      <c r="M74">
+        <v>67</v>
+      </c>
       <c r="N74">
-        <v>4.01</v>
-      </c>
-      <c r="O74" s="2">
-        <v>1.3281999999999998</v>
-      </c>
-      <c r="P74">
-        <v>425</v>
-      </c>
-      <c r="Q74">
-        <v>16</v>
-      </c>
-      <c r="R74">
-        <v>336</v>
+        <v>212</v>
+      </c>
+      <c r="P74" s="20">
+        <v>97.5</v>
       </c>
       <c r="S74">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="T74">
-        <v>212</v>
+        <v>4464</v>
+      </c>
+      <c r="U74">
+        <v>1441</v>
+      </c>
+      <c r="V74">
+        <v>4421</v>
       </c>
       <c r="W74">
-        <v>350</v>
+        <v>1822</v>
       </c>
       <c r="X74">
-        <v>4464</v>
+        <v>1152</v>
       </c>
       <c r="Y74">
-        <v>1441</v>
+        <v>16097</v>
       </c>
       <c r="Z74">
-        <v>4421</v>
+        <v>323</v>
       </c>
       <c r="AA74">
-        <v>1822</v>
+        <v>6350</v>
       </c>
       <c r="AB74">
-        <v>1152</v>
+        <v>1210</v>
       </c>
       <c r="AC74">
-        <v>16097</v>
+        <v>169</v>
       </c>
       <c r="AD74">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c r="AE74">
-        <v>6350</v>
+        <v>515</v>
       </c>
       <c r="AF74">
-        <v>1210</v>
+        <v>162</v>
       </c>
       <c r="AG74">
-        <v>169</v>
-      </c>
-      <c r="AH74">
-        <v>30</v>
-      </c>
-      <c r="AI74">
-        <v>515</v>
-      </c>
-      <c r="AJ74">
-        <v>162</v>
-      </c>
-      <c r="AK74">
         <v>628</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -6932,74 +6586,68 @@
         <f t="shared" si="1"/>
         <v>0.25323529411764706</v>
       </c>
+      <c r="K75">
+        <v>14</v>
+      </c>
+      <c r="L75">
+        <v>340</v>
+      </c>
+      <c r="M75">
+        <v>66</v>
+      </c>
       <c r="N75">
-        <v>3.65</v>
-      </c>
-      <c r="O75" s="2">
-        <v>1.131</v>
-      </c>
-      <c r="P75">
-        <v>424</v>
-      </c>
-      <c r="Q75">
-        <v>14</v>
-      </c>
-      <c r="R75">
-        <v>340</v>
+        <v>211</v>
+      </c>
+      <c r="P75" s="20">
+        <v>102</v>
       </c>
       <c r="S75">
-        <v>66</v>
+        <v>355</v>
       </c>
       <c r="T75">
-        <v>211</v>
+        <v>4392</v>
+      </c>
+      <c r="U75">
+        <v>1447</v>
+      </c>
+      <c r="V75">
+        <v>4105</v>
       </c>
       <c r="W75">
-        <v>355</v>
+        <v>1686</v>
       </c>
       <c r="X75">
-        <v>4392</v>
+        <v>1389</v>
       </c>
       <c r="Y75">
-        <v>1447</v>
+        <v>16181</v>
       </c>
       <c r="Z75">
-        <v>4105</v>
+        <v>319</v>
       </c>
       <c r="AA75">
-        <v>1686</v>
+        <v>5988</v>
       </c>
       <c r="AB75">
-        <v>1389</v>
+        <v>1867</v>
       </c>
       <c r="AC75">
-        <v>16181</v>
+        <v>190</v>
       </c>
       <c r="AD75">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="AE75">
-        <v>5988</v>
+        <v>533</v>
       </c>
       <c r="AF75">
-        <v>1867</v>
+        <v>167</v>
       </c>
       <c r="AG75">
-        <v>190</v>
-      </c>
-      <c r="AH75">
-        <v>29</v>
-      </c>
-      <c r="AI75">
-        <v>533</v>
-      </c>
-      <c r="AJ75">
-        <v>167</v>
-      </c>
-      <c r="AK75">
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -7028,74 +6676,68 @@
         <f t="shared" si="1"/>
         <v>0.19833333333333333</v>
       </c>
+      <c r="K76">
+        <v>10</v>
+      </c>
+      <c r="L76">
+        <v>329</v>
+      </c>
+      <c r="M76">
+        <v>69</v>
+      </c>
       <c r="N76">
-        <v>3.62</v>
-      </c>
-      <c r="O76" s="2">
-        <v>1.2121999999999999</v>
-      </c>
-      <c r="P76">
-        <v>413</v>
-      </c>
-      <c r="Q76">
-        <v>10</v>
-      </c>
-      <c r="R76">
-        <v>329</v>
+        <v>208</v>
+      </c>
+      <c r="P76" s="20">
+        <v>105.7</v>
       </c>
       <c r="S76">
-        <v>69</v>
+        <v>351</v>
       </c>
       <c r="T76">
-        <v>208</v>
+        <v>4358</v>
+      </c>
+      <c r="U76">
+        <v>1434</v>
+      </c>
+      <c r="V76">
+        <v>3913</v>
       </c>
       <c r="W76">
-        <v>351</v>
+        <v>1603</v>
       </c>
       <c r="X76">
-        <v>4358</v>
+        <v>1338</v>
       </c>
       <c r="Y76">
-        <v>1434</v>
+        <v>16370</v>
       </c>
       <c r="Z76">
-        <v>3913</v>
+        <v>305</v>
       </c>
       <c r="AA76">
-        <v>1603</v>
+        <v>6899</v>
       </c>
       <c r="AB76">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="AC76">
-        <v>16370</v>
+        <v>247</v>
       </c>
       <c r="AD76">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c r="AE76">
-        <v>6899</v>
+        <v>550</v>
       </c>
       <c r="AF76">
-        <v>1345</v>
+        <v>172</v>
       </c>
       <c r="AG76">
-        <v>247</v>
-      </c>
-      <c r="AH76">
-        <v>28</v>
-      </c>
-      <c r="AI76">
-        <v>550</v>
-      </c>
-      <c r="AJ76">
-        <v>172</v>
-      </c>
-      <c r="AK76">
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -7124,83 +6766,68 @@
         <f t="shared" si="1"/>
         <v>0.22441176470588234</v>
       </c>
-      <c r="K77" s="3">
-        <v>11.49</v>
-      </c>
-      <c r="L77" s="3">
-        <v>7.73</v>
-      </c>
-      <c r="M77" s="3">
-        <v>2.37</v>
-      </c>
-      <c r="N77" s="3">
-        <v>3.73</v>
-      </c>
-      <c r="O77" s="6">
-        <v>1.1194</v>
-      </c>
-      <c r="P77">
-        <v>403</v>
-      </c>
-      <c r="Q77">
+      <c r="K77">
         <v>11</v>
       </c>
-      <c r="R77">
+      <c r="L77">
         <v>318</v>
       </c>
+      <c r="M77">
+        <v>69</v>
+      </c>
+      <c r="N77">
+        <v>206</v>
+      </c>
+      <c r="P77" s="20">
+        <v>105.2</v>
+      </c>
       <c r="S77">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="T77">
-        <v>206</v>
+        <v>4408</v>
+      </c>
+      <c r="U77">
+        <v>1430</v>
+      </c>
+      <c r="V77">
+        <v>4081</v>
       </c>
       <c r="W77">
-        <v>349</v>
+        <v>1656</v>
       </c>
       <c r="X77">
-        <v>4408</v>
+        <v>1405</v>
       </c>
       <c r="Y77">
-        <v>1430</v>
+        <v>17538</v>
       </c>
       <c r="Z77">
-        <v>4081</v>
+        <v>306</v>
       </c>
       <c r="AA77">
-        <v>1656</v>
+        <v>5530</v>
       </c>
       <c r="AB77">
-        <v>1405</v>
+        <v>1128</v>
       </c>
       <c r="AC77">
-        <v>17538</v>
+        <v>246</v>
       </c>
       <c r="AD77">
-        <v>306</v>
+        <v>27</v>
       </c>
       <c r="AE77">
-        <v>5530</v>
+        <v>568</v>
       </c>
       <c r="AF77">
-        <v>1128</v>
+        <v>177</v>
       </c>
       <c r="AG77">
-        <v>246</v>
-      </c>
-      <c r="AH77">
-        <v>27</v>
-      </c>
-      <c r="AI77">
-        <v>568</v>
-      </c>
-      <c r="AJ77">
-        <v>177</v>
-      </c>
-      <c r="AK77">
         <v>638</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -7229,74 +6856,68 @@
         <f t="shared" si="1"/>
         <v>0.19424999999999998</v>
       </c>
+      <c r="K78">
+        <v>13</v>
+      </c>
+      <c r="L78">
+        <v>313</v>
+      </c>
+      <c r="M78">
+        <v>68</v>
+      </c>
       <c r="N78">
-        <v>3.65</v>
-      </c>
-      <c r="O78" s="2">
-        <v>1.0613999999999999</v>
-      </c>
-      <c r="P78">
-        <v>400</v>
-      </c>
-      <c r="Q78">
-        <v>13</v>
-      </c>
-      <c r="R78">
-        <v>313</v>
+        <v>199</v>
+      </c>
+      <c r="P78" s="20">
+        <v>111.7</v>
       </c>
       <c r="S78">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="T78">
-        <v>199</v>
+        <v>4465</v>
+      </c>
+      <c r="U78">
+        <v>1435</v>
+      </c>
+      <c r="V78">
+        <v>4158</v>
       </c>
       <c r="W78">
-        <v>340</v>
+        <v>1703</v>
       </c>
       <c r="X78">
-        <v>4465</v>
+        <v>1327</v>
       </c>
       <c r="Y78">
-        <v>1435</v>
+        <v>17777</v>
       </c>
       <c r="Z78">
-        <v>4158</v>
+        <v>299</v>
       </c>
       <c r="AA78">
-        <v>1703</v>
+        <v>5274</v>
       </c>
       <c r="AB78">
-        <v>1327</v>
+        <v>1209</v>
       </c>
       <c r="AC78">
-        <v>17777</v>
+        <v>233</v>
       </c>
       <c r="AD78">
-        <v>299</v>
+        <v>26</v>
       </c>
       <c r="AE78">
-        <v>5274</v>
+        <v>586</v>
       </c>
       <c r="AF78">
-        <v>1209</v>
+        <v>182</v>
       </c>
       <c r="AG78">
-        <v>233</v>
-      </c>
-      <c r="AH78">
-        <v>26</v>
-      </c>
-      <c r="AI78">
-        <v>586</v>
-      </c>
-      <c r="AJ78">
-        <v>182</v>
-      </c>
-      <c r="AK78">
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -7325,74 +6946,68 @@
         <f t="shared" si="1"/>
         <v>0.15925</v>
       </c>
+      <c r="K79">
+        <v>15</v>
+      </c>
+      <c r="L79">
+        <v>313</v>
+      </c>
+      <c r="M79">
+        <v>63</v>
+      </c>
       <c r="N79">
-        <v>3.65</v>
-      </c>
-      <c r="O79" s="2">
-        <v>1.1194</v>
-      </c>
-      <c r="P79">
-        <v>395</v>
-      </c>
-      <c r="Q79">
-        <v>15</v>
-      </c>
-      <c r="R79">
-        <v>313</v>
+        <v>195</v>
+      </c>
+      <c r="P79" s="20">
+        <v>105.9</v>
       </c>
       <c r="S79">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="T79">
-        <v>195</v>
+        <v>4487</v>
+      </c>
+      <c r="U79">
+        <v>1431</v>
+      </c>
+      <c r="V79">
+        <v>4288</v>
       </c>
       <c r="W79">
-        <v>337</v>
+        <v>1746</v>
       </c>
       <c r="X79">
-        <v>4487</v>
+        <v>1254</v>
       </c>
       <c r="Y79">
-        <v>1431</v>
+        <v>17687</v>
       </c>
       <c r="Z79">
-        <v>4288</v>
+        <v>296</v>
       </c>
       <c r="AA79">
-        <v>1746</v>
+        <v>4968</v>
       </c>
       <c r="AB79">
-        <v>1254</v>
+        <v>1180</v>
       </c>
       <c r="AC79">
-        <v>17687</v>
+        <v>275</v>
       </c>
       <c r="AD79">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="AE79">
-        <v>4968</v>
+        <v>603</v>
       </c>
       <c r="AF79">
-        <v>1180</v>
+        <v>187</v>
       </c>
       <c r="AG79">
-        <v>275</v>
-      </c>
-      <c r="AH79">
-        <v>25</v>
-      </c>
-      <c r="AI79">
-        <v>603</v>
-      </c>
-      <c r="AJ79">
-        <v>187</v>
-      </c>
-      <c r="AK79">
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -7421,74 +7036,68 @@
         <f t="shared" si="1"/>
         <v>0.17150000000000001</v>
       </c>
+      <c r="K80">
+        <v>15</v>
+      </c>
+      <c r="L80">
+        <v>301</v>
+      </c>
+      <c r="M80">
+        <v>67</v>
+      </c>
       <c r="N80">
-        <v>3.97</v>
-      </c>
-      <c r="O80" s="2">
-        <v>1.1541999999999999</v>
-      </c>
-      <c r="P80">
-        <v>388</v>
-      </c>
-      <c r="Q80">
-        <v>15</v>
-      </c>
-      <c r="R80">
-        <v>301</v>
+        <v>194</v>
+      </c>
+      <c r="P80" s="20">
+        <v>102.2</v>
       </c>
       <c r="S80">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="T80">
-        <v>194</v>
+        <v>4507</v>
+      </c>
+      <c r="U80">
+        <v>1444</v>
+      </c>
+      <c r="V80">
+        <v>4365</v>
       </c>
       <c r="W80">
-        <v>335</v>
+        <v>1785</v>
       </c>
       <c r="X80">
-        <v>4507</v>
+        <v>1363</v>
       </c>
       <c r="Y80">
-        <v>1444</v>
+        <v>18234</v>
       </c>
       <c r="Z80">
-        <v>4365</v>
+        <v>304</v>
       </c>
       <c r="AA80">
-        <v>1785</v>
+        <v>5516</v>
       </c>
       <c r="AB80">
-        <v>1363</v>
+        <v>999</v>
       </c>
       <c r="AC80">
-        <v>18234</v>
+        <v>197</v>
       </c>
       <c r="AD80">
-        <v>304</v>
+        <v>24</v>
       </c>
       <c r="AE80">
-        <v>5516</v>
+        <v>621</v>
       </c>
       <c r="AF80">
-        <v>999</v>
+        <v>192</v>
       </c>
       <c r="AG80">
-        <v>197</v>
-      </c>
-      <c r="AH80">
-        <v>24</v>
-      </c>
-      <c r="AI80">
-        <v>621</v>
-      </c>
-      <c r="AJ80">
-        <v>192</v>
-      </c>
-      <c r="AK80">
         <v>645</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -7517,70 +7126,64 @@
         <f t="shared" si="1"/>
         <v>0.22574999999999998</v>
       </c>
+      <c r="K81">
+        <v>15</v>
+      </c>
+      <c r="L81">
+        <v>293</v>
+      </c>
+      <c r="M81">
+        <v>69</v>
+      </c>
       <c r="N81">
-        <v>3.97</v>
-      </c>
-      <c r="O81" s="2">
-        <v>1.1541999999999999</v>
-      </c>
-      <c r="P81">
-        <v>382</v>
-      </c>
-      <c r="Q81">
-        <v>15</v>
-      </c>
-      <c r="R81">
-        <v>293</v>
+        <v>191</v>
+      </c>
+      <c r="P81" s="20">
+        <v>100</v>
       </c>
       <c r="S81">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="T81">
-        <v>191</v>
+        <v>4609</v>
+      </c>
+      <c r="U81">
+        <v>1458</v>
+      </c>
+      <c r="V81">
+        <v>4387</v>
       </c>
       <c r="W81">
-        <v>334</v>
+        <v>1798</v>
       </c>
       <c r="X81">
-        <v>4609</v>
+        <v>1269</v>
       </c>
       <c r="Y81">
-        <v>1458</v>
+        <v>18547</v>
       </c>
       <c r="Z81">
-        <v>4387</v>
+        <v>306</v>
       </c>
       <c r="AA81">
-        <v>1798</v>
+        <v>5325</v>
       </c>
       <c r="AB81">
-        <v>1269</v>
+        <v>1327</v>
       </c>
       <c r="AC81">
-        <v>18547</v>
+        <v>284</v>
       </c>
       <c r="AD81">
-        <v>306</v>
+        <v>24</v>
       </c>
       <c r="AE81">
-        <v>5325</v>
+        <v>639</v>
       </c>
       <c r="AF81">
-        <v>1327</v>
+        <v>197</v>
       </c>
       <c r="AG81">
-        <v>284</v>
-      </c>
-      <c r="AH81">
-        <v>24</v>
-      </c>
-      <c r="AI81">
-        <v>639</v>
-      </c>
-      <c r="AJ81">
-        <v>197</v>
-      </c>
-      <c r="AK81">
         <v>683</v>
       </c>
     </row>
@@ -7605,7 +7208,7 @@
   <sheetData>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7627,16 +7230,16 @@
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="S1" t="s">
         <v>10</v>
       </c>
       <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>9</v>
@@ -9146,10 +8749,10 @@
         <v>0.49</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P44" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S44">
         <v>7.7290000000000001</v>
@@ -12901,10 +12504,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0242E4-BED9-9248-B218-944C035221F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40BABB2-B746-5E41-A373-36B7F103F921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12460" yWindow="500" windowWidth="21140" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40BABB2-B746-5E41-A373-36B7F103F921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69920809-8241-F242-8AA0-7FD0DB9EDA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="500" windowWidth="21140" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="9860" yWindow="500" windowWidth="21140" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -273,11 +273,11 @@
     <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,8 +595,8 @@
   <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69920809-8241-F242-8AA0-7FD0DB9EDA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6048D3-166A-C84E-8A1B-0E7628024FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="500" windowWidth="21140" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="16360" yWindow="500" windowWidth="18720" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -147,6 +147,9 @@
   <si>
     <t>agri_price_index</t>
   </si>
+  <si>
+    <t>wheat_price_UK</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +237,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -278,6 +293,9 @@
     <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,8 +613,8 @@
   <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y30" sqref="Y30"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,6 +799,9 @@
         <v>0.37769999999999998</v>
       </c>
       <c r="R2" s="17"/>
+      <c r="AD2">
+        <v>249</v>
+      </c>
       <c r="AG2">
         <v>473</v>
       </c>
@@ -797,6 +818,9 @@
       </c>
       <c r="D3">
         <v>20</v>
+      </c>
+      <c r="E3">
+        <v>13.28</v>
       </c>
       <c r="F3">
         <v>5.8449999999999998</v>
@@ -832,6 +856,9 @@
         <v>0.3251</v>
       </c>
       <c r="R3" s="17"/>
+      <c r="AD3">
+        <v>146</v>
+      </c>
       <c r="AG3">
         <v>441</v>
       </c>
@@ -848,6 +875,9 @@
       </c>
       <c r="D4">
         <v>18</v>
+      </c>
+      <c r="E4">
+        <v>13.63</v>
       </c>
       <c r="F4">
         <v>6.47</v>
@@ -883,6 +913,9 @@
         <v>0.34670000000000001</v>
       </c>
       <c r="R4" s="17"/>
+      <c r="AD4">
+        <v>218</v>
+      </c>
       <c r="AG4">
         <v>521</v>
       </c>
@@ -899,6 +932,9 @@
       </c>
       <c r="D5">
         <v>16</v>
+      </c>
+      <c r="E5">
+        <v>13.87</v>
       </c>
       <c r="F5">
         <v>7.8369999999999997</v>
@@ -934,6 +970,9 @@
         <v>0.35</v>
       </c>
       <c r="R5" s="17"/>
+      <c r="AD5">
+        <v>222</v>
+      </c>
       <c r="AG5">
         <v>483</v>
       </c>
@@ -988,6 +1027,9 @@
         <v>0.315</v>
       </c>
       <c r="R6" s="17"/>
+      <c r="AD6">
+        <v>301</v>
+      </c>
       <c r="AG6">
         <v>474</v>
       </c>
@@ -1005,6 +1047,9 @@
       <c r="D7">
         <v>16</v>
       </c>
+      <c r="E7">
+        <v>15.02</v>
+      </c>
       <c r="F7">
         <v>7.9740000000000002</v>
       </c>
@@ -1038,6 +1083,9 @@
         <v>0.39560000000000001</v>
       </c>
       <c r="R7" s="17"/>
+      <c r="AD7">
+        <v>230</v>
+      </c>
       <c r="AG7">
         <v>479</v>
       </c>
@@ -1055,6 +1103,9 @@
       <c r="D8">
         <v>16</v>
       </c>
+      <c r="E8">
+        <v>14.89</v>
+      </c>
       <c r="F8">
         <v>8.0009999999999994</v>
       </c>
@@ -1088,6 +1139,9 @@
         <v>0.3896</v>
       </c>
       <c r="R8" s="17"/>
+      <c r="AD8">
+        <v>251</v>
+      </c>
       <c r="AG8">
         <v>562</v>
       </c>
@@ -1105,6 +1159,9 @@
       <c r="D9">
         <v>16</v>
       </c>
+      <c r="E9">
+        <v>15.13</v>
+      </c>
       <c r="F9">
         <v>6.4669999999999996</v>
       </c>
@@ -1138,6 +1195,9 @@
         <v>0.29149999999999998</v>
       </c>
       <c r="R9" s="17"/>
+      <c r="AD9">
+        <v>355</v>
+      </c>
       <c r="AG9">
         <v>555</v>
       </c>
@@ -1155,6 +1215,9 @@
       <c r="D10">
         <v>16</v>
       </c>
+      <c r="E10">
+        <v>15.29</v>
+      </c>
       <c r="F10">
         <v>6.7380000000000004</v>
       </c>
@@ -1188,6 +1251,15 @@
         <v>0.29370000000000002</v>
       </c>
       <c r="R10" s="17"/>
+      <c r="AD10">
+        <v>314</v>
+      </c>
+      <c r="AE10">
+        <v>125</v>
+      </c>
+      <c r="AF10">
+        <v>18</v>
+      </c>
       <c r="AG10">
         <v>568</v>
       </c>
@@ -1241,6 +1313,15 @@
         <v>0.3</v>
       </c>
       <c r="R11" s="17"/>
+      <c r="AD11">
+        <v>305</v>
+      </c>
+      <c r="AE11">
+        <v>126</v>
+      </c>
+      <c r="AF11">
+        <v>19</v>
+      </c>
       <c r="AG11">
         <v>540</v>
       </c>
@@ -1291,6 +1372,15 @@
         <v>0.29570000000000002</v>
       </c>
       <c r="R12" s="17"/>
+      <c r="AD12">
+        <v>314</v>
+      </c>
+      <c r="AE12">
+        <v>146</v>
+      </c>
+      <c r="AF12">
+        <v>20</v>
+      </c>
       <c r="AG12">
         <v>520</v>
       </c>
@@ -1341,6 +1431,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="R13" s="17"/>
+      <c r="AD13">
+        <v>275</v>
+      </c>
+      <c r="AE13">
+        <v>127</v>
+      </c>
+      <c r="AF13">
+        <v>16</v>
+      </c>
       <c r="AG13">
         <v>544</v>
       </c>
@@ -1391,6 +1490,15 @@
         <v>0.36899999999999999</v>
       </c>
       <c r="R14" s="17"/>
+      <c r="AD14">
+        <v>247</v>
+      </c>
+      <c r="AE14">
+        <v>106</v>
+      </c>
+      <c r="AF14">
+        <v>14</v>
+      </c>
       <c r="AG14">
         <v>599</v>
       </c>
@@ -1441,6 +1549,15 @@
         <v>0.37</v>
       </c>
       <c r="R15" s="17"/>
+      <c r="AD15">
+        <v>219</v>
+      </c>
+      <c r="AE15">
+        <v>111</v>
+      </c>
+      <c r="AF15">
+        <v>16</v>
+      </c>
       <c r="AG15">
         <v>543</v>
       </c>
@@ -1494,6 +1611,15 @@
         <v>0.31</v>
       </c>
       <c r="R16" s="17"/>
+      <c r="AD16">
+        <v>187</v>
+      </c>
+      <c r="AE16">
+        <v>112</v>
+      </c>
+      <c r="AF16">
+        <v>17</v>
+      </c>
       <c r="AG16">
         <v>506</v>
       </c>
@@ -1544,6 +1670,15 @@
         <v>0.32050000000000001</v>
       </c>
       <c r="R17" s="17"/>
+      <c r="AD17">
+        <v>230</v>
+      </c>
+      <c r="AE17">
+        <v>123</v>
+      </c>
+      <c r="AF17">
+        <v>18</v>
+      </c>
       <c r="AG17">
         <v>468</v>
       </c>
@@ -1594,6 +1729,15 @@
         <v>0.32079999999999997</v>
       </c>
       <c r="R18" s="17"/>
+      <c r="AD18">
+        <v>261</v>
+      </c>
+      <c r="AE18">
+        <v>117</v>
+      </c>
+      <c r="AF18">
+        <v>18</v>
+      </c>
       <c r="AG18">
         <v>465</v>
       </c>
@@ -1644,6 +1788,15 @@
         <v>0.32150000000000001</v>
       </c>
       <c r="R19" s="17"/>
+      <c r="AD19">
+        <v>315</v>
+      </c>
+      <c r="AE19">
+        <v>122</v>
+      </c>
+      <c r="AF19">
+        <v>18</v>
+      </c>
       <c r="AG19">
         <v>407</v>
       </c>
@@ -7218,1584 +7371,2277 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C18A9-4F48-4D4D-9F77-EF08D571A3B2}">
-  <dimension ref="C1:AD100"/>
+  <dimension ref="C1:AH100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I17" zoomScale="125" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="28" max="28" width="12.5" style="2" customWidth="1"/>
+    <col min="6" max="11" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="23" max="23" width="9" customWidth="1"/>
+    <col min="32" max="32" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="F1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C2" s="16">
         <v>0.27</v>
       </c>
-      <c r="S2">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="W2">
         <v>6.2489999999999997</v>
       </c>
-      <c r="T2" s="8">
-        <f>S2*64.262</f>
+      <c r="X2" s="8">
+        <f>W2*64.262</f>
         <v>401.573238</v>
       </c>
-      <c r="V2" s="2">
+      <c r="Z2" s="2">
         <f>23.67/4.85</f>
         <v>4.880412371134021</v>
       </c>
-      <c r="W2" s="8"/>
-      <c r="Y2" s="9">
+      <c r="AA2" s="8"/>
+      <c r="AC2" s="9">
         <v>2.76</v>
       </c>
-      <c r="Z2" s="8">
-        <f>Y2*56.66</f>
+      <c r="AD2" s="8">
+        <f>AC2*56.66</f>
         <v>156.38159999999999</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AF2" s="10">
         <v>1.23</v>
       </c>
-      <c r="AC2" s="8">
-        <f>AB2*48.93</f>
+      <c r="AG2" s="8">
+        <f>AF2*48.93</f>
         <v>60.183900000000001</v>
       </c>
     </row>
-    <row r="3" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C3" s="16">
         <v>0.34</v>
       </c>
-      <c r="S3">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="W3">
         <v>5.8449999999999998</v>
       </c>
-      <c r="T3" s="8">
-        <f t="shared" ref="T3:T27" si="0">S3*64.262</f>
+      <c r="X3" s="8">
+        <f t="shared" ref="X3:X27" si="0">W3*64.262</f>
         <v>375.61138999999997</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <v>6.8</v>
       </c>
-      <c r="W3" s="8"/>
-      <c r="Y3" s="9">
+      <c r="AA3" s="8"/>
+      <c r="AC3" s="9">
         <v>2.92</v>
       </c>
-      <c r="Z3" s="8">
-        <f t="shared" ref="Z3:Z27" si="1">Y3*56.66</f>
+      <c r="AD3" s="8">
+        <f t="shared" ref="AD3:AD27" si="1">AC3*56.66</f>
         <v>165.44719999999998</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AF3" s="10">
         <v>1.29</v>
       </c>
-      <c r="AC3" s="8">
-        <f t="shared" ref="AC3:AC27" si="2">AB3*48.93</f>
+      <c r="AG3" s="8">
+        <f t="shared" ref="AG3:AG27" si="2">AF3*48.93</f>
         <v>63.119700000000002</v>
       </c>
     </row>
-    <row r="4" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C4" s="16">
         <v>0.21</v>
       </c>
-      <c r="S4">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="W4">
         <v>6.47</v>
       </c>
-      <c r="T4" s="8">
+      <c r="X4" s="8">
         <f t="shared" si="0"/>
         <v>415.77513999999996</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>3.85</v>
       </c>
-      <c r="W4" s="8"/>
-      <c r="Y4" s="9">
+      <c r="AA4" s="8"/>
+      <c r="AC4" s="9">
         <v>2.63</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AD4" s="8">
         <f t="shared" si="1"/>
         <v>149.01579999999998</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AF4" s="10">
         <v>1.38</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AG4" s="8">
         <f t="shared" si="2"/>
         <v>67.523399999999995</v>
       </c>
     </row>
-    <row r="5" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C5" s="16">
         <v>0.48</v>
       </c>
-      <c r="S5">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="W5">
         <v>7.8369999999999997</v>
       </c>
-      <c r="T5" s="8">
+      <c r="X5" s="8">
         <f t="shared" si="0"/>
         <v>503.62129399999998</v>
       </c>
-      <c r="V5">
+      <c r="Z5">
         <v>7.7</v>
       </c>
-      <c r="W5" s="8"/>
-      <c r="Y5" s="9">
+      <c r="AA5" s="8"/>
+      <c r="AC5" s="9">
         <v>3.01</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AD5" s="8">
         <f t="shared" si="1"/>
         <v>170.54659999999998</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AF5" s="10">
         <v>1.24</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AG5" s="8">
         <f t="shared" si="2"/>
         <v>60.673200000000001</v>
       </c>
     </row>
-    <row r="6" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C6" s="16">
         <v>0.33</v>
       </c>
-      <c r="S6">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="W6">
         <v>7.7759999999999998</v>
       </c>
-      <c r="T6" s="8">
+      <c r="X6" s="8">
         <f t="shared" si="0"/>
         <v>499.70131199999997</v>
       </c>
-      <c r="V6">
+      <c r="Z6">
         <v>5.3</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="Y6" s="9">
+      <c r="AA6" s="8"/>
+      <c r="AC6" s="9">
         <v>2.72</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AD6" s="8">
         <f t="shared" si="1"/>
         <v>154.11520000000002</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AF6" s="10">
         <v>1.21</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AG6" s="8">
         <f t="shared" si="2"/>
         <v>59.205300000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C7" s="16">
         <v>0.48</v>
       </c>
-      <c r="S7">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="W7">
         <v>7.9740000000000002</v>
       </c>
-      <c r="T7" s="8">
+      <c r="X7" s="8">
         <f t="shared" si="0"/>
         <v>512.42518800000005</v>
       </c>
-      <c r="V7">
+      <c r="Z7">
         <v>7.7</v>
       </c>
-      <c r="W7" s="8"/>
-      <c r="Y7" s="9">
+      <c r="AA7" s="8"/>
+      <c r="AC7" s="9">
         <v>2.82</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="AD7" s="8">
         <f t="shared" si="1"/>
         <v>159.78119999999998</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AF7" s="10">
         <v>1.34</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AG7" s="8">
         <f t="shared" si="2"/>
         <v>65.566200000000009</v>
       </c>
     </row>
-    <row r="8" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C8" s="16">
         <v>0.53</v>
       </c>
-      <c r="S8">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="W8">
         <v>8.0009999999999994</v>
       </c>
-      <c r="T8" s="8">
+      <c r="X8" s="8">
         <f t="shared" si="0"/>
         <v>514.16026199999999</v>
       </c>
-      <c r="V8">
+      <c r="Z8">
         <v>8.48</v>
       </c>
-      <c r="W8" s="8"/>
-      <c r="Y8" s="9">
+      <c r="AA8" s="8"/>
+      <c r="AC8" s="9">
         <v>2.7</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="AD8" s="8">
         <f t="shared" si="1"/>
         <v>152.982</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AF8" s="10">
         <v>1.42</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AG8" s="8">
         <f t="shared" si="2"/>
         <v>69.480599999999995</v>
       </c>
     </row>
-    <row r="9" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C9" s="16">
         <v>0.25</v>
       </c>
-      <c r="S9">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="W9">
         <v>6.4669999999999996</v>
       </c>
-      <c r="T9" s="8">
+      <c r="X9" s="8">
         <f t="shared" si="0"/>
         <v>415.58235399999995</v>
       </c>
-      <c r="V9">
+      <c r="Z9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="W9" s="8"/>
-      <c r="Y9" s="9">
+      <c r="AA9" s="8"/>
+      <c r="AC9" s="9">
         <v>2.69</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AD9" s="8">
         <f t="shared" si="1"/>
         <v>152.41539999999998</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AF9" s="10">
         <v>1.33</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AG9" s="8">
         <f t="shared" si="2"/>
         <v>65.076900000000009</v>
       </c>
     </row>
-    <row r="10" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C10" s="16">
         <v>0.31</v>
       </c>
-      <c r="S10">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="W10">
         <v>6.7380000000000004</v>
       </c>
-      <c r="T10" s="8">
+      <c r="X10" s="8">
         <f t="shared" si="0"/>
         <v>432.99735600000002</v>
       </c>
-      <c r="V10">
+      <c r="Z10">
         <v>4.92</v>
       </c>
-      <c r="W10" s="8"/>
-      <c r="Y10" s="2">
+      <c r="AA10" s="8"/>
+      <c r="AC10" s="2">
         <v>3.21</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AD10" s="8">
         <f t="shared" si="1"/>
         <v>181.87859999999998</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AF10" s="2">
         <v>1.31</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AG10" s="8">
         <f t="shared" si="2"/>
         <v>64.098300000000009</v>
       </c>
     </row>
-    <row r="11" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C11" s="16">
         <v>0.43</v>
       </c>
-      <c r="S11">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="W11">
         <v>7.702</v>
       </c>
-      <c r="T11" s="8">
+      <c r="X11" s="8">
         <f t="shared" si="0"/>
         <v>494.94592399999999</v>
       </c>
-      <c r="V11">
+      <c r="Z11">
         <v>6.93</v>
       </c>
-      <c r="W11" s="8"/>
-      <c r="Y11" s="2">
+      <c r="AA11" s="8"/>
+      <c r="AC11" s="2">
         <v>3.2</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="AD11" s="8">
         <f t="shared" si="1"/>
         <v>181.31200000000001</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AF11" s="2">
         <v>1.33</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AG11" s="8">
         <f t="shared" si="2"/>
         <v>65.076900000000009</v>
       </c>
     </row>
-    <row r="12" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C12" s="16">
         <v>0.44</v>
       </c>
-      <c r="S12">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="W12">
         <v>7.3120000000000003</v>
       </c>
-      <c r="T12" s="8">
+      <c r="X12" s="8">
         <f t="shared" si="0"/>
         <v>469.88374400000004</v>
       </c>
-      <c r="V12">
+      <c r="Z12">
         <v>7.08</v>
       </c>
-      <c r="W12" s="8"/>
-      <c r="Y12" s="2">
+      <c r="AA12" s="8"/>
+      <c r="AC12" s="2">
         <v>3.3</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AD12" s="8">
         <f t="shared" si="1"/>
         <v>186.97799999999998</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AF12" s="2">
         <v>1.6</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AG12" s="8">
         <f t="shared" si="2"/>
         <v>78.288000000000011</v>
       </c>
     </row>
-    <row r="13" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C13" s="16">
         <v>0.24</v>
       </c>
-      <c r="S13">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="W13">
         <v>5.4210000000000003</v>
       </c>
-      <c r="T13" s="8">
+      <c r="X13" s="8">
         <f t="shared" si="0"/>
         <v>348.36430200000001</v>
       </c>
-      <c r="V13">
+      <c r="Z13">
         <v>3.84</v>
       </c>
-      <c r="W13" s="8"/>
-      <c r="Y13" s="2">
+      <c r="AA13" s="8"/>
+      <c r="AC13" s="2">
         <v>2.94</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="AD13" s="8">
         <f t="shared" si="1"/>
         <v>166.5804</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AF13" s="2">
         <v>1.29</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AG13" s="8">
         <f t="shared" si="2"/>
         <v>63.119700000000002</v>
       </c>
     </row>
-    <row r="14" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C14" s="16">
         <v>0.2</v>
       </c>
-      <c r="S14">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="W14">
         <v>5.1130000000000004</v>
       </c>
-      <c r="T14" s="8">
+      <c r="X14" s="8">
         <f t="shared" si="0"/>
         <v>328.57160600000003</v>
       </c>
-      <c r="V14">
+      <c r="Z14">
         <v>3.2</v>
       </c>
-      <c r="W14" s="8"/>
-      <c r="Y14" s="2">
+      <c r="AA14" s="8"/>
+      <c r="AC14" s="2">
         <v>2.61</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="AD14" s="8">
         <f t="shared" si="1"/>
         <v>147.8826</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AF14" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AG14" s="8">
         <f t="shared" si="2"/>
         <v>54.801600000000008</v>
       </c>
     </row>
-    <row r="15" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C15" s="16">
         <v>0.4</v>
       </c>
-      <c r="S15">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="W15">
         <v>5.7619999999999996</v>
       </c>
-      <c r="T15" s="8">
+      <c r="X15" s="8">
         <f t="shared" si="0"/>
         <v>370.27764399999995</v>
       </c>
-      <c r="V15">
+      <c r="Z15">
         <v>6.44</v>
       </c>
-      <c r="W15" s="8"/>
-      <c r="Y15" s="2">
+      <c r="AA15" s="8"/>
+      <c r="AC15" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="AD15" s="8">
         <f t="shared" si="1"/>
         <v>128.05159999999998</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AF15" s="2">
         <v>1.17</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AG15" s="8">
         <f t="shared" si="2"/>
         <v>57.248099999999994</v>
       </c>
     </row>
-    <row r="16" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C16" s="16">
         <v>0.22</v>
       </c>
-      <c r="S16">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="W16">
         <v>6.4349999999999996</v>
       </c>
-      <c r="T16" s="8">
+      <c r="X16" s="8">
         <f t="shared" si="0"/>
         <v>413.52596999999997</v>
       </c>
-      <c r="V16">
+      <c r="Z16">
         <v>3.58</v>
       </c>
-      <c r="W16" s="8"/>
-      <c r="Y16" s="2">
+      <c r="AA16" s="8"/>
+      <c r="AC16" s="2">
         <v>1.97</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="AD16" s="8">
         <f t="shared" si="1"/>
         <v>111.6202</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AF16" s="2">
         <v>1.21</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AG16" s="8">
         <f t="shared" si="2"/>
         <v>59.205300000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C17" s="16">
         <v>0.34</v>
       </c>
-      <c r="S17">
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="W17">
         <v>7.1760000000000002</v>
       </c>
-      <c r="T17" s="8">
+      <c r="X17" s="8">
         <f t="shared" si="0"/>
         <v>461.14411200000001</v>
       </c>
-      <c r="V17">
+      <c r="Z17">
         <v>5.44</v>
       </c>
-      <c r="W17" s="8"/>
-      <c r="Y17" s="2">
+      <c r="AA17" s="8"/>
+      <c r="AC17" s="2">
         <v>2.41</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="AD17" s="8">
         <f t="shared" si="1"/>
         <v>136.5506</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AF17" s="2">
         <v>1.32</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AG17" s="8">
         <f t="shared" si="2"/>
         <v>64.587600000000009</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C18" s="16">
         <v>0.49</v>
       </c>
-      <c r="S18">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="W18">
         <v>6.8049999999999997</v>
       </c>
-      <c r="T18" s="8">
+      <c r="X18" s="8">
         <f t="shared" si="0"/>
         <v>437.30291</v>
       </c>
-      <c r="V18">
+      <c r="Z18">
         <v>7.9</v>
       </c>
-      <c r="W18" s="8"/>
-      <c r="Y18" s="2">
+      <c r="AA18" s="8"/>
+      <c r="AC18" s="2">
         <v>2.76</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="AD18" s="8">
         <f t="shared" si="1"/>
         <v>156.38159999999999</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AF18" s="2">
         <v>1.28</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AG18" s="8">
         <f t="shared" si="2"/>
         <v>62.630400000000002</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C19" s="16">
         <v>0.37</v>
       </c>
-      <c r="S19">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="W19">
         <v>6.7510000000000003</v>
       </c>
-      <c r="T19" s="8">
+      <c r="X19" s="8">
         <f t="shared" si="0"/>
         <v>433.832762</v>
       </c>
-      <c r="V19">
+      <c r="Z19">
         <v>5.89</v>
       </c>
-      <c r="W19" s="8"/>
-      <c r="Y19" s="2">
+      <c r="AA19" s="8"/>
+      <c r="AC19" s="2">
         <v>3.25</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="AD19" s="8">
         <f t="shared" si="1"/>
         <v>184.14499999999998</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AF19" s="2">
         <v>1.26</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AG19" s="8">
         <f t="shared" si="2"/>
         <v>61.651800000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C20" s="16">
         <v>0.46</v>
       </c>
-      <c r="S20">
+      <c r="F20" s="30">
+        <v>471</v>
+      </c>
+      <c r="G20" s="30">
+        <v>70.8</v>
+      </c>
+      <c r="H20" s="30">
+        <f>F20/G20</f>
+        <v>6.6525423728813564</v>
+      </c>
+      <c r="I20" s="30">
+        <v>95</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30">
+        <v>38</v>
+      </c>
+      <c r="W20">
         <v>8.4269999999999996</v>
       </c>
-      <c r="T20" s="8">
+      <c r="X20" s="8">
         <f t="shared" si="0"/>
         <v>541.53587399999992</v>
       </c>
-      <c r="V20">
+      <c r="Z20">
         <v>7.3</v>
       </c>
-      <c r="W20" s="8"/>
-      <c r="Y20" s="2">
+      <c r="AA20" s="8"/>
+      <c r="AC20" s="2">
         <v>3.53</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="AD20" s="8">
         <f t="shared" si="1"/>
         <v>200.00979999999998</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AF20" s="2">
         <v>1.61</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AG20" s="8">
         <f t="shared" si="2"/>
         <v>78.777300000000011</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C21" s="16">
         <v>0.44</v>
       </c>
-      <c r="S21">
+      <c r="F21" s="30">
+        <v>318</v>
+      </c>
+      <c r="G21" s="30">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="H21" s="30">
+        <f t="shared" ref="H21:H40" si="3">F21/G21</f>
+        <v>4.7891566265060233</v>
+      </c>
+      <c r="I21" s="30">
+        <v>51</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30">
+        <v>21</v>
+      </c>
+      <c r="W21">
         <v>7.7290000000000001</v>
       </c>
-      <c r="T21" s="8">
+      <c r="X21" s="8">
         <f t="shared" si="0"/>
         <v>496.68099799999999</v>
       </c>
-      <c r="V21">
+      <c r="Z21">
         <v>7</v>
       </c>
-      <c r="W21" s="8"/>
-      <c r="Y21" s="2">
+      <c r="AA21" s="8"/>
+      <c r="AC21" s="2">
         <v>3.34</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="AD21" s="8">
         <f t="shared" si="1"/>
         <v>189.24439999999998</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AF21" s="2">
         <v>1.45</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AG21" s="8">
         <f t="shared" si="2"/>
         <v>70.948499999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C22" s="16">
         <v>0.4</v>
       </c>
-      <c r="S22">
+      <c r="F22" s="30">
+        <v>399</v>
+      </c>
+      <c r="G22" s="30">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H22" s="30">
+        <f t="shared" si="3"/>
+        <v>6.195652173913043</v>
+      </c>
+      <c r="I22" s="30">
+        <v>74</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30">
+        <v>6</v>
+      </c>
+      <c r="W22">
         <v>6.6970000000000001</v>
       </c>
-      <c r="T22" s="8">
+      <c r="X22" s="8">
         <f t="shared" si="0"/>
         <v>430.36261400000001</v>
       </c>
-      <c r="V22">
+      <c r="Z22">
         <v>6.33</v>
       </c>
-      <c r="W22" s="8"/>
-      <c r="Y22" s="2">
+      <c r="AA22" s="8"/>
+      <c r="AC22" s="2">
         <v>3.25</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="AD22" s="8">
         <f t="shared" si="1"/>
         <v>184.14499999999998</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AF22" s="2">
         <v>1.29</v>
       </c>
-      <c r="AC22" s="8">
+      <c r="AG22" s="8">
         <f t="shared" si="2"/>
         <v>63.119700000000002</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C23" s="16">
         <v>0.5</v>
       </c>
-      <c r="S23">
+      <c r="F23" s="30">
+        <v>368</v>
+      </c>
+      <c r="G23" s="30">
+        <v>57.4</v>
+      </c>
+      <c r="H23" s="30">
+        <f t="shared" si="3"/>
+        <v>6.4111498257839719</v>
+      </c>
+      <c r="I23" s="30">
+        <v>112</v>
+      </c>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30">
+        <v>46</v>
+      </c>
+      <c r="W23">
         <v>6.0229999999999997</v>
       </c>
-      <c r="T23" s="8">
+      <c r="X23" s="8">
         <f t="shared" si="0"/>
         <v>387.050026</v>
       </c>
-      <c r="V23">
+      <c r="Z23">
         <v>7.97</v>
       </c>
-      <c r="W23" s="8"/>
-      <c r="Y23" s="2">
+      <c r="AA23" s="8"/>
+      <c r="AC23" s="2">
         <v>2.84</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="AD23" s="8">
         <f t="shared" si="1"/>
         <v>160.91439999999997</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AF23" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="AG23" s="8">
         <f t="shared" si="2"/>
         <v>54.801600000000008</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C24" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S24">
+      <c r="F24" s="30">
+        <v>754</v>
+      </c>
+      <c r="G24" s="30">
+        <v>50.2</v>
+      </c>
+      <c r="H24" s="30">
+        <f t="shared" si="3"/>
+        <v>15.019920318725099</v>
+      </c>
+      <c r="I24" s="30">
+        <v>9</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30">
+        <v>6</v>
+      </c>
+      <c r="W24">
         <v>5.2119999999999997</v>
       </c>
-      <c r="T24" s="8">
+      <c r="X24" s="8">
         <f t="shared" si="0"/>
         <v>334.93354399999998</v>
       </c>
-      <c r="V24">
+      <c r="Z24">
         <v>4.51</v>
       </c>
-      <c r="W24" s="8"/>
-      <c r="Y24" s="2">
+      <c r="AA24" s="8"/>
+      <c r="AC24" s="2">
         <v>2.52</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="AD24" s="8">
         <f t="shared" si="1"/>
         <v>142.78319999999999</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AF24" s="2">
         <v>1.18</v>
       </c>
-      <c r="AC24" s="8">
+      <c r="AG24" s="8">
         <f t="shared" si="2"/>
         <v>57.737399999999994</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C25" s="16">
         <v>0.35</v>
       </c>
-      <c r="S25">
+      <c r="F25" s="30">
+        <v>802</v>
+      </c>
+      <c r="G25" s="30">
+        <v>51.4</v>
+      </c>
+      <c r="H25" s="30">
+        <f t="shared" si="3"/>
+        <v>15.603112840466926</v>
+      </c>
+      <c r="I25" s="30">
+        <v>39</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30">
+        <v>13</v>
+      </c>
+      <c r="W25">
         <v>6.3</v>
       </c>
-      <c r="T25" s="8">
+      <c r="X25" s="8">
         <f t="shared" si="0"/>
         <v>404.85059999999999</v>
       </c>
-      <c r="V25">
+      <c r="Z25">
         <v>5.54</v>
       </c>
-      <c r="W25" s="8"/>
-      <c r="Y25" s="2">
+      <c r="AA25" s="8"/>
+      <c r="AC25" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="AD25" s="8">
         <f t="shared" si="1"/>
         <v>142.21659999999997</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AF25" s="2">
         <v>1.32</v>
       </c>
-      <c r="AC25" s="8">
+      <c r="AG25" s="8">
         <f t="shared" si="2"/>
         <v>64.587600000000009</v>
       </c>
     </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C26" s="16">
         <v>0.39</v>
       </c>
-      <c r="S26">
+      <c r="F26" s="30">
+        <v>1420</v>
+      </c>
+      <c r="G26" s="30">
+        <v>50.11</v>
+      </c>
+      <c r="H26" s="30">
+        <f t="shared" si="3"/>
+        <v>28.337657154260626</v>
+      </c>
+      <c r="I26" s="30">
+        <v>47</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30">
+        <v>18</v>
+      </c>
+      <c r="W26">
         <v>7.1369999999999996</v>
       </c>
-      <c r="T26" s="8">
+      <c r="X26" s="8">
         <f t="shared" si="0"/>
         <v>458.63789399999996</v>
       </c>
-      <c r="V26">
+      <c r="Z26">
         <v>6.16</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="AC26" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="AD26" s="8">
         <f t="shared" si="1"/>
         <v>142.21659999999997</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AF26" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AG26" s="8">
         <f t="shared" si="2"/>
         <v>76.213368000000003</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C27" s="16">
         <v>1.41</v>
       </c>
-      <c r="S27">
+      <c r="F27" s="30">
+        <v>717</v>
+      </c>
+      <c r="G27" s="30">
+        <v>54.8</v>
+      </c>
+      <c r="H27" s="30">
+        <f t="shared" si="3"/>
+        <v>13.083941605839417</v>
+      </c>
+      <c r="I27" s="30">
+        <v>85</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30">
+        <v>43</v>
+      </c>
+      <c r="W27">
         <v>8.6210000000000004</v>
       </c>
-      <c r="T27" s="8">
+      <c r="X27" s="8">
         <f t="shared" si="0"/>
         <v>554.002702</v>
       </c>
-      <c r="V27">
+      <c r="Z27">
         <v>22.61</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="AC27" s="2">
         <v>3.35</v>
       </c>
-      <c r="Z27" s="8">
+      <c r="AD27" s="8">
         <f t="shared" si="1"/>
         <v>189.81100000000001</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AF27" s="2">
         <v>2.31</v>
       </c>
-      <c r="AC27" s="8">
+      <c r="AG27" s="8">
         <f t="shared" si="2"/>
         <v>113.0283</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C28" s="16">
         <v>1.1100000000000001</v>
       </c>
-      <c r="S28" s="1">
+      <c r="F28" s="31">
+        <v>355</v>
+      </c>
+      <c r="G28" s="31">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H28" s="31">
+        <f t="shared" si="3"/>
+        <v>5.0786838340486407</v>
+      </c>
+      <c r="I28" s="31">
+        <v>234</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31">
+        <v>125</v>
+      </c>
+      <c r="W28" s="1">
         <v>9.9860000000000007</v>
       </c>
-      <c r="T28" s="1">
+      <c r="X28" s="1">
         <v>625</v>
       </c>
-      <c r="U28">
-        <f>T28/S28</f>
+      <c r="Y28">
+        <f>X28/W28</f>
         <v>62.587622671740434</v>
       </c>
-      <c r="V28" s="1">
+      <c r="Z28" s="1">
         <v>17.78</v>
       </c>
-      <c r="W28" s="1">
+      <c r="AA28" s="1">
         <v>89</v>
       </c>
-      <c r="X28">
-        <f>W28/V28</f>
+      <c r="AB28">
+        <f>AA28/Z28</f>
         <v>5.0056242969628792</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="AC28" s="5">
         <v>2.5099999999999998</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AD28" s="1">
         <v>272</v>
       </c>
-      <c r="AA28">
-        <f>Z28/Y28</f>
+      <c r="AE28">
+        <f>AD28/AC28</f>
         <v>108.36653386454184</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AF28" s="13">
         <v>1.5312000000000001</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AG28" s="12">
         <v>120</v>
       </c>
-      <c r="AD28">
-        <f>AC28/AB28</f>
+      <c r="AH28">
+        <f>AG28/AF28</f>
         <v>78.369905956112845</v>
       </c>
     </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C29" s="16">
         <v>1.28</v>
       </c>
-      <c r="S29">
+      <c r="F29" s="30">
+        <v>556</v>
+      </c>
+      <c r="G29" s="30">
+        <v>50.7</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="3"/>
+        <v>10.966469428007889</v>
+      </c>
+      <c r="I29" s="30">
+        <v>49</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30">
+        <v>9</v>
+      </c>
+      <c r="W29">
         <v>6.4370000000000003</v>
       </c>
-      <c r="T29">
+      <c r="X29">
         <v>566</v>
       </c>
-      <c r="U29">
-        <f t="shared" ref="U29:U81" si="3">T29/S29</f>
+      <c r="Y29">
+        <f t="shared" ref="Y29:Y81" si="4">X29/W29</f>
         <v>87.929159546372532</v>
       </c>
-      <c r="V29">
+      <c r="Z29">
         <v>20.440000000000001</v>
       </c>
-      <c r="W29">
+      <c r="AA29">
         <v>258</v>
       </c>
-      <c r="X29">
-        <f t="shared" ref="X29:X81" si="4">W29/V29</f>
+      <c r="AB29">
+        <f t="shared" ref="AB29:AB81" si="5">AA29/Z29</f>
         <v>12.622309197651663</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="AC29" s="2">
         <v>2.23</v>
       </c>
-      <c r="Z29">
+      <c r="AD29">
         <v>245</v>
       </c>
-      <c r="AA29">
-        <f t="shared" ref="AA29:AA81" si="5">Z29/Y29</f>
+      <c r="AE29">
+        <f t="shared" ref="AE29:AE81" si="6">AD29/AC29</f>
         <v>109.86547085201794</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AF29" s="2">
         <v>1.32</v>
       </c>
-      <c r="AC29">
+      <c r="AG29">
         <v>117</v>
       </c>
-      <c r="AD29">
-        <f t="shared" ref="AD29:AD81" si="6">AC29/AB29</f>
+      <c r="AH29">
+        <f t="shared" ref="AH29:AH81" si="7">AG29/AF29</f>
         <v>88.636363636363626</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C30" s="16">
         <v>0.94</v>
       </c>
-      <c r="S30">
+      <c r="F30" s="30">
+        <v>428</v>
+      </c>
+      <c r="G30" s="30">
+        <v>44.2</v>
+      </c>
+      <c r="H30" s="30">
+        <f t="shared" si="3"/>
+        <v>9.6832579185520355</v>
+      </c>
+      <c r="I30" s="30">
+        <v>65</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30">
+        <v>42</v>
+      </c>
+      <c r="W30">
         <v>5.8890000000000002</v>
       </c>
-      <c r="T30">
+      <c r="X30">
         <v>584</v>
       </c>
-      <c r="U30">
-        <f t="shared" si="3"/>
+      <c r="Y30">
+        <f t="shared" si="4"/>
         <v>99.167940227542871</v>
       </c>
-      <c r="V30">
+      <c r="Z30">
         <v>15.05</v>
       </c>
-      <c r="W30">
+      <c r="AA30">
         <v>219</v>
       </c>
-      <c r="X30">
-        <f t="shared" si="4"/>
+      <c r="AB30">
+        <f t="shared" si="5"/>
         <v>14.551495016611295</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="AC30" s="2">
         <v>1.69</v>
       </c>
-      <c r="Z30">
+      <c r="AD30">
         <v>243</v>
       </c>
-      <c r="AA30">
-        <f t="shared" si="5"/>
+      <c r="AE30">
+        <f t="shared" si="6"/>
         <v>143.7869822485207</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AF30" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="AC30">
+      <c r="AG30">
         <v>127</v>
       </c>
-      <c r="AD30">
-        <f t="shared" si="6"/>
+      <c r="AH30">
+        <f t="shared" si="7"/>
         <v>113.19073083778964</v>
       </c>
     </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C31" s="16">
         <v>0.96</v>
       </c>
-      <c r="S31" s="3">
+      <c r="F31" s="30">
+        <v>322</v>
+      </c>
+      <c r="G31" s="30">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="H31" s="30">
+        <f t="shared" si="3"/>
+        <v>7.9900744416873453</v>
+      </c>
+      <c r="I31" s="30">
+        <v>150</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30">
+        <v>31</v>
+      </c>
+      <c r="W31" s="3">
         <v>7.0869999999999997</v>
       </c>
-      <c r="T31">
+      <c r="X31">
         <v>619</v>
       </c>
-      <c r="U31">
-        <f t="shared" si="3"/>
+      <c r="Y31">
+        <f t="shared" si="4"/>
         <v>87.343022435445178</v>
       </c>
-      <c r="V31" s="3">
+      <c r="Z31" s="3">
         <v>15.33</v>
       </c>
-      <c r="W31">
+      <c r="AA31">
         <v>275</v>
       </c>
-      <c r="X31">
-        <f t="shared" si="4"/>
+      <c r="AB31">
+        <f t="shared" si="5"/>
         <v>17.938682322243967</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="AC31" s="6">
         <v>1.87</v>
       </c>
-      <c r="Z31">
+      <c r="AD31">
         <v>213</v>
       </c>
-      <c r="AA31">
-        <f t="shared" si="5"/>
+      <c r="AE31">
+        <f t="shared" si="6"/>
         <v>113.90374331550801</v>
       </c>
-      <c r="AB31" s="6">
+      <c r="AF31" s="6">
         <v>1.1484000000000001</v>
       </c>
-      <c r="AC31">
+      <c r="AG31">
         <v>118</v>
       </c>
-      <c r="AD31">
-        <f t="shared" si="6"/>
+      <c r="AH31">
+        <f t="shared" si="7"/>
         <v>102.75165447579239</v>
       </c>
     </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C32" s="16">
         <v>0.77</v>
       </c>
-      <c r="S32">
+      <c r="F32" s="30">
+        <v>173</v>
+      </c>
+      <c r="G32" s="30">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H32" s="30">
+        <f t="shared" si="3"/>
+        <v>4.4702842377260978</v>
+      </c>
+      <c r="I32" s="30">
+        <v>145</v>
+      </c>
+      <c r="J32" s="30">
+        <v>24.9</v>
+      </c>
+      <c r="K32" s="30">
+        <f>I32/J32</f>
+        <v>5.8232931726907635</v>
+      </c>
+      <c r="L32" s="30">
+        <v>12</v>
+      </c>
+      <c r="M32" s="30">
+        <v>18.7</v>
+      </c>
+      <c r="N32">
+        <f>L32/M32</f>
+        <v>0.64171122994652408</v>
+      </c>
+      <c r="W32">
         <v>6.8890000000000002</v>
       </c>
-      <c r="T32">
+      <c r="X32">
         <v>641</v>
       </c>
-      <c r="U32">
-        <f t="shared" si="3"/>
+      <c r="Y32">
+        <f t="shared" si="4"/>
         <v>93.046886340542898</v>
       </c>
-      <c r="V32">
+      <c r="Z32">
         <v>12.25</v>
       </c>
-      <c r="W32">
+      <c r="AA32">
         <v>270</v>
       </c>
-      <c r="X32">
-        <f t="shared" si="4"/>
+      <c r="AB32">
+        <f t="shared" si="5"/>
         <v>22.040816326530614</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="AC32" s="2">
         <v>1.69</v>
       </c>
-      <c r="Z32">
+      <c r="AD32">
         <v>173</v>
       </c>
-      <c r="AA32">
-        <f t="shared" si="5"/>
+      <c r="AE32">
+        <f t="shared" si="6"/>
         <v>102.36686390532545</v>
       </c>
-      <c r="AB32" s="2">
+      <c r="AF32" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="AC32">
+      <c r="AG32">
         <v>126</v>
       </c>
-      <c r="AD32">
-        <f t="shared" si="6"/>
+      <c r="AH32">
+        <f t="shared" si="7"/>
         <v>112.29946524064169</v>
       </c>
     </row>
-    <row r="33" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C33" s="16">
         <v>0.87</v>
       </c>
-      <c r="S33">
+      <c r="F33" s="30">
+        <v>102</v>
+      </c>
+      <c r="G33" s="30">
+        <v>40.1</v>
+      </c>
+      <c r="H33" s="30">
+        <f t="shared" si="3"/>
+        <v>2.5436408977556111</v>
+      </c>
+      <c r="I33" s="30">
+        <v>62</v>
+      </c>
+      <c r="J33" s="30">
+        <v>28.7</v>
+      </c>
+      <c r="K33" s="30">
+        <f t="shared" ref="K33:K40" si="8">I33/J33</f>
+        <v>2.1602787456445993</v>
+      </c>
+      <c r="L33" s="30">
+        <v>14</v>
+      </c>
+      <c r="M33" s="30">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:N40" si="9">L33/M33</f>
+        <v>0.73298429319371727</v>
+      </c>
+      <c r="W33">
         <v>7.4989999999999997</v>
       </c>
-      <c r="T33">
+      <c r="X33">
         <v>672</v>
       </c>
-      <c r="U33">
-        <f t="shared" si="3"/>
+      <c r="Y33">
+        <f t="shared" si="4"/>
         <v>89.611948259767971</v>
       </c>
-      <c r="V33">
+      <c r="Z33">
         <v>13.93</v>
       </c>
-      <c r="W33">
+      <c r="AA33">
         <v>275</v>
       </c>
-      <c r="X33">
-        <f t="shared" si="4"/>
+      <c r="AB33">
+        <f t="shared" si="5"/>
         <v>19.74156496769562</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="AC33" s="2">
         <v>1.95</v>
       </c>
-      <c r="Z33">
+      <c r="AD33">
         <v>125</v>
       </c>
-      <c r="AA33">
-        <f t="shared" si="5"/>
+      <c r="AE33">
+        <f t="shared" si="6"/>
         <v>64.102564102564102</v>
       </c>
-      <c r="AB33" s="2">
+      <c r="AF33" s="2">
         <v>1.2804</v>
       </c>
-      <c r="AC33">
+      <c r="AG33">
         <v>109</v>
       </c>
-      <c r="AD33">
-        <f t="shared" si="6"/>
+      <c r="AH33">
+        <f t="shared" si="7"/>
         <v>85.129646985317095</v>
       </c>
     </row>
-    <row r="34" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C34" s="16">
         <v>0.87</v>
       </c>
-      <c r="S34">
+      <c r="F34" s="30">
+        <v>135</v>
+      </c>
+      <c r="G34" s="30">
+        <v>53.3</v>
+      </c>
+      <c r="H34" s="30">
+        <f t="shared" si="3"/>
+        <v>2.5328330206378986</v>
+      </c>
+      <c r="I34" s="30">
+        <v>50</v>
+      </c>
+      <c r="J34" s="30">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="K34" s="30">
+        <f t="shared" si="8"/>
+        <v>1.5015015015015016</v>
+      </c>
+      <c r="L34" s="30">
+        <v>29</v>
+      </c>
+      <c r="M34" s="30">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="9"/>
+        <v>1.3809523809523809</v>
+      </c>
+      <c r="W34">
         <v>9.3539999999999992</v>
       </c>
-      <c r="T34">
+      <c r="X34">
         <v>639</v>
       </c>
-      <c r="U34">
-        <f t="shared" si="3"/>
+      <c r="Y34">
+        <f t="shared" si="4"/>
         <v>68.313021167415016</v>
       </c>
-      <c r="V34">
+      <c r="Z34">
         <v>15.61</v>
       </c>
-      <c r="W34">
+      <c r="AA34">
         <v>279</v>
       </c>
-      <c r="X34">
-        <f t="shared" si="4"/>
+      <c r="AB34">
+        <f t="shared" si="5"/>
         <v>17.873158231902629</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="AC34" s="2">
         <v>3.17</v>
       </c>
-      <c r="Z34">
+      <c r="AD34">
         <v>113</v>
       </c>
-      <c r="AA34">
-        <f t="shared" si="5"/>
+      <c r="AE34">
+        <f t="shared" si="6"/>
         <v>35.646687697160885</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AF34" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="AC34">
+      <c r="AG34">
         <v>113</v>
       </c>
-      <c r="AD34">
-        <f t="shared" si="6"/>
+      <c r="AH34">
+        <f t="shared" si="7"/>
         <v>63.411896745230067</v>
       </c>
     </row>
-    <row r="35" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C35" s="16">
         <v>1.17</v>
       </c>
-      <c r="S35">
+      <c r="F35" s="30">
+        <v>252</v>
+      </c>
+      <c r="G35" s="30">
+        <v>72.5</v>
+      </c>
+      <c r="H35" s="30">
+        <f t="shared" si="3"/>
+        <v>3.4758620689655171</v>
+      </c>
+      <c r="I35" s="30">
+        <v>75</v>
+      </c>
+      <c r="J35" s="30">
+        <v>36</v>
+      </c>
+      <c r="K35" s="30">
+        <f t="shared" si="8"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="L35" s="30">
+        <v>26</v>
+      </c>
+      <c r="M35" s="30">
+        <v>27.11</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
+        <v>0.95905569900405752</v>
+      </c>
+      <c r="W35">
         <v>11.162000000000001</v>
       </c>
-      <c r="T35">
+      <c r="X35">
         <v>596</v>
       </c>
-      <c r="U35">
-        <f t="shared" si="3"/>
+      <c r="Y35">
+        <f t="shared" si="4"/>
         <v>53.395448844293135</v>
       </c>
-      <c r="V35">
+      <c r="Z35">
         <v>21</v>
       </c>
-      <c r="W35">
+      <c r="AA35">
         <v>308</v>
       </c>
-      <c r="X35">
-        <f t="shared" si="4"/>
+      <c r="AB35">
+        <f t="shared" si="5"/>
         <v>14.666666666666666</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="AC35" s="2">
         <v>3.12</v>
       </c>
-      <c r="Z35">
+      <c r="AD35">
         <v>143</v>
       </c>
-      <c r="AA35">
-        <f t="shared" si="5"/>
+      <c r="AE35">
+        <f t="shared" si="6"/>
         <v>45.833333333333329</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AF35" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="AC35">
+      <c r="AG35">
         <v>95</v>
       </c>
-      <c r="AD35">
-        <f t="shared" si="6"/>
+      <c r="AH35">
+        <f t="shared" si="7"/>
         <v>55.790462767206954</v>
       </c>
     </row>
-    <row r="36" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C36" s="16">
         <v>0.84</v>
       </c>
-      <c r="S36">
+      <c r="F36" s="30">
+        <v>312</v>
+      </c>
+      <c r="G36" s="30">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="H36" s="30">
+        <f t="shared" si="3"/>
+        <v>4.1655540720961275</v>
+      </c>
+      <c r="I36" s="30">
+        <v>289</v>
+      </c>
+      <c r="J36" s="30">
+        <v>34.9</v>
+      </c>
+      <c r="K36" s="30">
+        <f t="shared" si="8"/>
+        <v>8.2808022922636102</v>
+      </c>
+      <c r="L36" s="30">
+        <v>15</v>
+      </c>
+      <c r="M36" s="30">
+        <v>27.6</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="9"/>
+        <v>0.54347826086956519</v>
+      </c>
+      <c r="W36">
         <v>12.781000000000001</v>
       </c>
-      <c r="T36">
+      <c r="X36">
         <v>612</v>
       </c>
-      <c r="U36">
-        <f t="shared" si="3"/>
+      <c r="Y36">
+        <f t="shared" si="4"/>
         <v>47.883577184883812</v>
       </c>
-      <c r="V36">
+      <c r="Z36">
         <v>15.05</v>
       </c>
-      <c r="W36">
+      <c r="AA36">
         <v>309</v>
       </c>
-      <c r="X36">
-        <f t="shared" si="4"/>
+      <c r="AB36">
+        <f t="shared" si="5"/>
         <v>20.53156146179402</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="AC36" s="2">
         <v>3.84</v>
       </c>
-      <c r="Z36">
+      <c r="AD36">
         <v>155</v>
       </c>
-      <c r="AA36">
-        <f t="shared" si="5"/>
+      <c r="AE36">
+        <f t="shared" si="6"/>
         <v>40.364583333333336</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AF36" s="2">
         <v>2.3628</v>
       </c>
-      <c r="AC36">
+      <c r="AG36">
         <v>89</v>
       </c>
-      <c r="AD36">
-        <f t="shared" si="6"/>
+      <c r="AH36">
+        <f t="shared" si="7"/>
         <v>37.667174538682922</v>
       </c>
     </row>
-    <row r="37" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C37" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="S37" s="3">
+      <c r="F37" s="30">
+        <v>359</v>
+      </c>
+      <c r="G37" s="30">
+        <v>69.2</v>
+      </c>
+      <c r="H37" s="30">
+        <f t="shared" si="3"/>
+        <v>5.1878612716763</v>
+      </c>
+      <c r="I37" s="30">
+        <v>246</v>
+      </c>
+      <c r="J37" s="30">
+        <v>41.2</v>
+      </c>
+      <c r="K37" s="30">
+        <f t="shared" si="8"/>
+        <v>5.9708737864077666</v>
+      </c>
+      <c r="L37" s="30">
+        <v>9</v>
+      </c>
+      <c r="M37" s="30">
+        <v>25.3</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="9"/>
+        <v>0.35573122529644269</v>
+      </c>
+      <c r="W37" s="3">
         <v>8.6880000000000006</v>
       </c>
-      <c r="T37">
+      <c r="X37">
         <v>588</v>
       </c>
-      <c r="U37">
-        <f t="shared" si="3"/>
+      <c r="Y37">
+        <f t="shared" si="4"/>
         <v>67.679558011049721</v>
       </c>
-      <c r="V37" s="3">
+      <c r="Z37" s="3">
         <v>10.5</v>
       </c>
-      <c r="W37">
+      <c r="AA37">
         <v>345</v>
       </c>
-      <c r="X37">
-        <f t="shared" si="4"/>
+      <c r="AB37">
+        <f t="shared" si="5"/>
         <v>32.857142857142854</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="AC37" s="6">
         <v>2.61</v>
       </c>
-      <c r="Z37">
+      <c r="AD37">
         <v>181</v>
       </c>
-      <c r="AA37">
-        <f t="shared" si="5"/>
+      <c r="AE37">
+        <f t="shared" si="6"/>
         <v>69.348659003831415</v>
       </c>
-      <c r="AB37" s="6">
+      <c r="AF37" s="6">
         <v>1.9668000000000001</v>
       </c>
-      <c r="AC37">
+      <c r="AG37">
         <v>71</v>
       </c>
-      <c r="AD37">
-        <f t="shared" si="6"/>
+      <c r="AH37">
+        <f t="shared" si="7"/>
         <v>36.099247508643479</v>
       </c>
     </row>
-    <row r="38" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C38" s="16">
         <v>0.99</v>
       </c>
-      <c r="S38">
+      <c r="F38" s="30">
+        <v>334</v>
+      </c>
+      <c r="G38" s="30">
+        <v>56.5</v>
+      </c>
+      <c r="H38" s="30">
+        <f t="shared" si="3"/>
+        <v>5.9115044247787614</v>
+      </c>
+      <c r="I38" s="30">
+        <v>178</v>
+      </c>
+      <c r="J38" s="30">
+        <v>42.2</v>
+      </c>
+      <c r="K38" s="30">
+        <f t="shared" si="8"/>
+        <v>4.2180094786729851</v>
+      </c>
+      <c r="L38" s="30">
+        <v>14</v>
+      </c>
+      <c r="M38" s="30">
+        <v>25</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="9"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="W38">
         <v>8.3629999999999995</v>
       </c>
-      <c r="T38">
+      <c r="X38">
         <v>565</v>
       </c>
-      <c r="U38">
-        <f t="shared" si="3"/>
+      <c r="Y38">
+        <f t="shared" si="4"/>
         <v>67.559488221929939</v>
       </c>
-      <c r="V38">
+      <c r="Z38">
         <v>17.78</v>
       </c>
-      <c r="W38">
+      <c r="AA38">
         <v>359</v>
       </c>
-      <c r="X38">
-        <f t="shared" si="4"/>
+      <c r="AB38">
+        <f t="shared" si="5"/>
         <v>20.191226096737907</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AC38" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z38">
+      <c r="AD38">
         <v>192</v>
       </c>
-      <c r="AA38">
-        <f t="shared" si="5"/>
+      <c r="AE38">
+        <f t="shared" si="6"/>
         <v>87.272727272727266</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AF38" s="2">
         <v>1.6764000000000001</v>
       </c>
-      <c r="AC38">
+      <c r="AG38">
         <v>81</v>
       </c>
-      <c r="AD38">
-        <f t="shared" si="6"/>
+      <c r="AH38">
+        <f t="shared" si="7"/>
         <v>48.31782390837509</v>
       </c>
     </row>
-    <row r="39" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C39" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="S39">
+      <c r="F39" s="30">
+        <v>298</v>
+      </c>
+      <c r="G39" s="30">
+        <v>44.3</v>
+      </c>
+      <c r="H39" s="30">
+        <f t="shared" si="3"/>
+        <v>6.7268623024830703</v>
+      </c>
+      <c r="I39" s="30">
+        <v>110</v>
+      </c>
+      <c r="J39" s="30">
+        <v>34.9</v>
+      </c>
+      <c r="K39" s="30">
+        <f t="shared" si="8"/>
+        <v>3.151862464183381</v>
+      </c>
+      <c r="L39" s="30">
+        <v>19</v>
+      </c>
+      <c r="M39" s="30">
+        <v>24.7</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="9"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="W39">
         <v>7.7290000000000001</v>
       </c>
-      <c r="T39">
+      <c r="X39">
         <v>561</v>
       </c>
-      <c r="U39">
-        <f t="shared" si="3"/>
+      <c r="Y39">
+        <f t="shared" si="4"/>
         <v>72.583775391383099</v>
       </c>
-      <c r="V39">
+      <c r="Z39">
         <v>10.220000000000001</v>
       </c>
-      <c r="W39">
+      <c r="AA39">
         <v>360</v>
       </c>
-      <c r="X39">
-        <f t="shared" si="4"/>
+      <c r="AB39">
+        <f t="shared" si="5"/>
         <v>35.225048923679061</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="AC39" s="2">
         <v>1.77</v>
       </c>
-      <c r="Z39">
+      <c r="AD39">
         <v>185</v>
       </c>
-      <c r="AA39">
-        <f t="shared" si="5"/>
+      <c r="AE39">
+        <f t="shared" si="6"/>
         <v>104.51977401129943</v>
       </c>
-      <c r="AB39" s="2">
+      <c r="AF39" s="2">
         <v>1.3464</v>
       </c>
-      <c r="AC39">
+      <c r="AG39">
         <v>74</v>
       </c>
-      <c r="AD39">
-        <f t="shared" si="6"/>
+      <c r="AH39">
+        <f t="shared" si="7"/>
         <v>54.961378490790253</v>
       </c>
     </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C40" s="16">
         <v>0.69</v>
       </c>
-      <c r="S40">
+      <c r="F40" s="30">
+        <v>320</v>
+      </c>
+      <c r="G40" s="30">
+        <v>43.1</v>
+      </c>
+      <c r="H40" s="30">
+        <f t="shared" si="3"/>
+        <v>7.4245939675174011</v>
+      </c>
+      <c r="I40" s="30">
+        <v>42</v>
+      </c>
+      <c r="J40" s="30">
+        <v>33.6</v>
+      </c>
+      <c r="K40" s="30">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+      <c r="L40" s="30">
+        <v>25</v>
+      </c>
+      <c r="M40" s="30">
+        <v>23.3</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="9"/>
+        <v>1.0729613733905579</v>
+      </c>
+      <c r="W40">
         <v>8.9870000000000001</v>
       </c>
-      <c r="T40">
+      <c r="X40">
         <v>568</v>
       </c>
-      <c r="U40">
-        <f t="shared" si="3"/>
+      <c r="Y40">
+        <f t="shared" si="4"/>
         <v>63.202403471681315</v>
       </c>
-      <c r="V40">
+      <c r="Z40">
         <v>12.39</v>
       </c>
-      <c r="W40">
+      <c r="AA40">
         <v>374</v>
       </c>
-      <c r="X40">
-        <f t="shared" si="4"/>
+      <c r="AB40">
+        <f t="shared" si="5"/>
         <v>30.185633575464081</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="AC40" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z40">
+      <c r="AD40">
         <v>157</v>
       </c>
-      <c r="AA40">
-        <f t="shared" si="5"/>
+      <c r="AE40">
+        <f t="shared" si="6"/>
         <v>71.36363636363636</v>
       </c>
-      <c r="AB40" s="2">
+      <c r="AF40" s="2">
         <v>1.5840000000000001</v>
       </c>
-      <c r="AC40">
+      <c r="AG40">
         <v>69</v>
       </c>
-      <c r="AD40">
-        <f t="shared" si="6"/>
+      <c r="AH40">
+        <f t="shared" si="7"/>
         <v>43.560606060606055</v>
       </c>
     </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C41" s="16">
         <v>1.03</v>
       </c>
-      <c r="S41">
+      <c r="F41" s="30">
+        <v>161</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30">
+        <f>AVERAGE(H33:H40)</f>
+        <v>4.7460890032388363</v>
+      </c>
+      <c r="I41" s="30">
+        <v>61</v>
+      </c>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30">
+        <f>AVERAGE(K32:K40)</f>
+        <v>3.8266616416331041</v>
+      </c>
+      <c r="L41" s="30">
+        <v>8</v>
+      </c>
+      <c r="N41">
+        <f>AVERAGE(N32:N40)</f>
+        <v>0.77956724798711263</v>
+      </c>
+      <c r="W41">
         <v>10.718999999999999</v>
       </c>
-      <c r="T41">
+      <c r="X41">
         <v>560</v>
       </c>
-      <c r="U41">
-        <f t="shared" si="3"/>
+      <c r="Y41">
+        <f t="shared" si="4"/>
         <v>52.243679447709674</v>
       </c>
-      <c r="V41">
+      <c r="Z41">
         <v>18.55</v>
       </c>
-      <c r="W41">
+      <c r="AA41">
         <v>361</v>
       </c>
-      <c r="X41">
-        <f t="shared" si="4"/>
+      <c r="AB41">
+        <f t="shared" si="5"/>
         <v>19.460916442048518</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="AC41" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="Z41">
+      <c r="AD41">
         <v>157</v>
       </c>
-      <c r="AA41">
-        <f t="shared" si="5"/>
+      <c r="AE41">
+        <f t="shared" si="6"/>
         <v>62.055335968379453</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AF41" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="AC41">
+      <c r="AG41">
         <v>71</v>
       </c>
-      <c r="AD41">
-        <f t="shared" si="6"/>
+      <c r="AH41">
+        <f t="shared" si="7"/>
         <v>39.842873176206503</v>
       </c>
     </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C42" s="16">
         <v>0.88</v>
       </c>
-      <c r="S42">
+      <c r="F42" s="30">
+        <v>236</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30">
+        <v>128</v>
+      </c>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30">
+        <v>6</v>
+      </c>
+      <c r="W42">
         <v>8.6880000000000006</v>
       </c>
-      <c r="T42">
+      <c r="X42">
         <v>574</v>
       </c>
-      <c r="U42">
-        <f t="shared" si="3"/>
+      <c r="Y42">
+        <f t="shared" si="4"/>
         <v>66.068139963167582</v>
       </c>
-      <c r="V42">
+      <c r="Z42">
         <v>15.89</v>
       </c>
-      <c r="W42">
+      <c r="AA42">
         <v>349</v>
       </c>
-      <c r="X42">
-        <f t="shared" si="4"/>
+      <c r="AB42">
+        <f t="shared" si="5"/>
         <v>21.963499056010068</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="AC42" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="Z42">
+      <c r="AD42">
         <v>133</v>
       </c>
-      <c r="AA42">
-        <f t="shared" si="5"/>
+      <c r="AE42">
+        <f t="shared" si="6"/>
         <v>54.732510288065839</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AF42" s="2">
         <v>1.5312000000000001</v>
       </c>
-      <c r="AC42">
+      <c r="AG42">
         <v>78</v>
       </c>
-      <c r="AD42">
-        <f t="shared" si="6"/>
+      <c r="AH42">
+        <f t="shared" si="7"/>
         <v>50.940438871473347</v>
       </c>
     </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C43" s="16">
         <v>0.7</v>
       </c>
-      <c r="S43">
+      <c r="F43" s="30">
+        <v>150</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30">
+        <v>181</v>
+      </c>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30">
+        <v>232</v>
+      </c>
+      <c r="W43">
         <v>7.7290000000000001</v>
       </c>
-      <c r="T43">
+      <c r="X43">
         <v>565</v>
       </c>
-      <c r="U43">
-        <f t="shared" si="3"/>
+      <c r="Y43">
+        <f t="shared" si="4"/>
         <v>73.101306766722729</v>
       </c>
-      <c r="V43">
+      <c r="Z43">
         <v>12.67</v>
       </c>
-      <c r="W43">
+      <c r="AA43">
         <v>311</v>
       </c>
-      <c r="X43">
-        <f t="shared" si="4"/>
+      <c r="AB43">
+        <f t="shared" si="5"/>
         <v>24.546172059984215</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="AC43" s="2">
         <v>1.87</v>
       </c>
-      <c r="Z43">
+      <c r="AD43">
         <v>118</v>
       </c>
-      <c r="AA43">
-        <f t="shared" si="5"/>
+      <c r="AE43">
+        <f t="shared" si="6"/>
         <v>63.101604278074859</v>
       </c>
-      <c r="AB43" s="2">
+      <c r="AF43" s="2">
         <v>1.4387999999999999</v>
       </c>
-      <c r="AC43">
+      <c r="AG43">
         <v>76</v>
       </c>
-      <c r="AD43">
-        <f t="shared" si="6"/>
+      <c r="AH43">
+        <f t="shared" si="7"/>
         <v>52.821795941062</v>
       </c>
     </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C44" s="16">
         <v>0.49</v>
       </c>
-      <c r="M44" t="s">
+      <c r="F44" s="30">
+        <v>161</v>
+      </c>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30">
+        <v>62</v>
+      </c>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30">
+        <v>39</v>
+      </c>
+      <c r="Q44" t="s">
         <v>23</v>
       </c>
-      <c r="P44" t="s">
+      <c r="T44" t="s">
         <v>24</v>
       </c>
-      <c r="S44">
+      <c r="W44">
         <v>7.7290000000000001</v>
       </c>
-      <c r="T44">
+      <c r="X44">
         <v>566</v>
       </c>
-      <c r="U44">
-        <f t="shared" si="3"/>
+      <c r="Y44">
+        <f t="shared" si="4"/>
         <v>73.230689610557633</v>
       </c>
-      <c r="V44">
+      <c r="Z44">
         <v>8.89</v>
       </c>
-      <c r="W44">
+      <c r="AA44">
         <v>315</v>
       </c>
-      <c r="X44">
-        <f t="shared" si="4"/>
+      <c r="AB44">
+        <f t="shared" si="5"/>
         <v>35.433070866141733</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="AC44" s="2">
         <v>1.77</v>
       </c>
-      <c r="Z44">
+      <c r="AD44">
         <v>87</v>
       </c>
-      <c r="AA44">
-        <f t="shared" si="5"/>
+      <c r="AE44">
+        <f t="shared" si="6"/>
         <v>49.152542372881356</v>
       </c>
-      <c r="AB44" s="2">
+      <c r="AF44" s="2">
         <v>1.3728</v>
       </c>
-      <c r="AC44">
+      <c r="AG44">
         <v>69</v>
       </c>
-      <c r="AD44">
-        <f t="shared" si="6"/>
+      <c r="AH44">
+        <f t="shared" si="7"/>
         <v>50.26223776223776</v>
       </c>
     </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C45" s="16">
         <v>0.51</v>
       </c>
@@ -8806,76 +9652,82 @@
         <f>7*D45/100</f>
         <v>6.16</v>
       </c>
-      <c r="G45">
-        <v>98</v>
-      </c>
-      <c r="H45" s="2">
-        <f>2.56*G45/100</f>
-        <v>2.5087999999999999</v>
-      </c>
-      <c r="J45">
+      <c r="F45" s="30">
+        <v>63</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30">
+        <v>66</v>
+      </c>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30">
+        <v>12</v>
+      </c>
+      <c r="N45">
         <v>118</v>
       </c>
-      <c r="K45" s="2">
-        <f>1.32*J45/100</f>
+      <c r="O45" s="2">
+        <f>1.32*N45/100</f>
         <v>1.5576000000000001</v>
       </c>
-      <c r="M45">
+      <c r="Q45">
         <v>92</v>
       </c>
-      <c r="N45" s="2">
-        <f>3.93*M45/100</f>
+      <c r="R45" s="2">
+        <f>3.93*Q45/100</f>
         <v>3.6156000000000001</v>
       </c>
-      <c r="P45">
+      <c r="T45">
         <v>96</v>
       </c>
-      <c r="Q45" s="2">
-        <f>0.58*P45/100</f>
+      <c r="U45" s="2">
+        <f>0.58*T45/100</f>
         <v>0.55679999999999996</v>
       </c>
-      <c r="S45">
+      <c r="W45">
         <v>7.1150000000000002</v>
       </c>
-      <c r="T45">
+      <c r="X45">
         <v>526</v>
       </c>
-      <c r="U45">
-        <f t="shared" si="3"/>
+      <c r="Y45">
+        <f t="shared" si="4"/>
         <v>73.92832044975404</v>
       </c>
-      <c r="V45">
+      <c r="Z45">
         <v>9.17</v>
       </c>
-      <c r="W45">
+      <c r="AA45">
         <v>322</v>
       </c>
-      <c r="X45">
-        <f t="shared" si="4"/>
+      <c r="AB45">
+        <f t="shared" si="5"/>
         <v>35.114503816793892</v>
       </c>
-      <c r="Y45" s="2">
+      <c r="AC45" s="2">
         <v>1.64</v>
       </c>
-      <c r="Z45">
+      <c r="AD45">
         <v>96</v>
       </c>
-      <c r="AA45">
-        <f t="shared" si="5"/>
+      <c r="AE45">
+        <f t="shared" si="6"/>
         <v>58.536585365853661</v>
       </c>
-      <c r="AB45" s="2">
+      <c r="AF45" s="2">
         <v>1.3464</v>
       </c>
-      <c r="AC45">
+      <c r="AG45">
         <v>70</v>
       </c>
-      <c r="AD45">
-        <f t="shared" si="6"/>
+      <c r="AH45">
+        <f t="shared" si="7"/>
         <v>51.990493166963752</v>
       </c>
     </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C46" s="16">
         <v>0.56999999999999995</v>
       </c>
@@ -8883,79 +9735,85 @@
         <v>323</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:E100" si="7">7*D46/100</f>
+        <f t="shared" ref="E46:E100" si="10">7*D46/100</f>
         <v>22.61</v>
       </c>
-      <c r="G46">
-        <v>131</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" ref="H46:H100" si="8">2.56*G46/100</f>
-        <v>3.3536000000000001</v>
-      </c>
-      <c r="J46">
+      <c r="F46" s="30">
+        <v>62</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30">
+        <v>76</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30">
+        <v>25</v>
+      </c>
+      <c r="N46">
         <v>175</v>
       </c>
-      <c r="K46" s="2">
-        <f t="shared" ref="K46:K100" si="9">1.32*J46/100</f>
+      <c r="O46" s="2">
+        <f t="shared" ref="O46:O100" si="11">1.32*N46/100</f>
         <v>2.31</v>
       </c>
-      <c r="M46">
+      <c r="Q46">
         <v>105</v>
       </c>
-      <c r="N46" s="2">
-        <f t="shared" ref="N46:N100" si="10">3.93*M46/100</f>
+      <c r="R46" s="2">
+        <f t="shared" ref="R46:R100" si="12">3.93*Q46/100</f>
         <v>4.1265000000000001</v>
       </c>
-      <c r="P46">
+      <c r="T46">
         <v>100</v>
       </c>
-      <c r="Q46" s="2">
-        <f t="shared" ref="Q46:Q100" si="11">0.58*P46/100</f>
+      <c r="U46" s="2">
+        <f t="shared" ref="U46:U100" si="13">0.58*T46/100</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="S46">
+      <c r="W46">
         <v>9.2829999999999995</v>
       </c>
-      <c r="T46">
+      <c r="X46">
         <v>496</v>
       </c>
-      <c r="U46">
-        <f t="shared" si="3"/>
+      <c r="Y46">
+        <f t="shared" si="4"/>
         <v>53.431002908542503</v>
       </c>
-      <c r="V46">
+      <c r="Z46">
         <v>10.220000000000001</v>
       </c>
-      <c r="W46">
+      <c r="AA46">
         <v>330</v>
       </c>
-      <c r="X46">
-        <f t="shared" si="4"/>
+      <c r="AB46">
+        <f t="shared" si="5"/>
         <v>32.289628180039138</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="AC46" s="2">
         <v>2.59</v>
       </c>
-      <c r="Z46">
+      <c r="AD46">
         <v>93</v>
       </c>
-      <c r="AA46">
-        <f t="shared" si="5"/>
+      <c r="AE46">
+        <f t="shared" si="6"/>
         <v>35.907335907335913</v>
       </c>
-      <c r="AB46" s="2">
+      <c r="AF46" s="2">
         <v>1.518</v>
       </c>
-      <c r="AC46">
+      <c r="AG46">
         <v>72</v>
       </c>
-      <c r="AD46">
-        <f t="shared" si="6"/>
+      <c r="AH46">
+        <f t="shared" si="7"/>
         <v>47.430830039525688</v>
       </c>
     </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C47" s="16">
         <v>0.57999999999999996</v>
       </c>
@@ -8963,79 +9821,85 @@
         <v>254</v>
       </c>
       <c r="E47">
+        <f t="shared" si="10"/>
+        <v>17.78</v>
+      </c>
+      <c r="F47" s="30">
+        <v>59</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30">
+        <v>31</v>
+      </c>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30">
+        <v>36</v>
+      </c>
+      <c r="N47">
+        <v>116</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5312000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>99</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="12"/>
+        <v>3.8906999999999998</v>
+      </c>
+      <c r="T47">
+        <v>124</v>
+      </c>
+      <c r="U47" s="2">
+        <f t="shared" si="13"/>
+        <v>0.71920000000000006</v>
+      </c>
+      <c r="W47" s="3">
+        <v>10.127000000000001</v>
+      </c>
+      <c r="X47">
+        <v>488</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="4"/>
+        <v>48.188012244494914</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>12.11</v>
+      </c>
+      <c r="AA47">
+        <v>323</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="5"/>
+        <v>26.672171758876964</v>
+      </c>
+      <c r="AC47" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="AD47">
+        <v>102</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="6"/>
+        <v>37.226277372262771</v>
+      </c>
+      <c r="AF47" s="6">
+        <v>2.0592000000000001</v>
+      </c>
+      <c r="AG47">
+        <v>61</v>
+      </c>
+      <c r="AH47">
         <f t="shared" si="7"/>
-        <v>17.78</v>
-      </c>
-      <c r="G47">
-        <v>98</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="8"/>
-        <v>2.5087999999999999</v>
-      </c>
-      <c r="J47">
-        <v>116</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="9"/>
-        <v>1.5312000000000001</v>
-      </c>
-      <c r="M47">
-        <v>99</v>
-      </c>
-      <c r="N47" s="2">
-        <f t="shared" si="10"/>
-        <v>3.8906999999999998</v>
-      </c>
-      <c r="P47">
-        <v>124</v>
-      </c>
-      <c r="Q47" s="2">
-        <f t="shared" si="11"/>
-        <v>0.71920000000000006</v>
-      </c>
-      <c r="S47" s="3">
-        <v>10.127000000000001</v>
-      </c>
-      <c r="T47">
-        <v>488</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="3"/>
-        <v>48.188012244494914</v>
-      </c>
-      <c r="V47" s="3">
-        <v>12.11</v>
-      </c>
-      <c r="W47">
-        <v>323</v>
-      </c>
-      <c r="X47">
-        <f t="shared" si="4"/>
-        <v>26.672171758876964</v>
-      </c>
-      <c r="Y47" s="6">
-        <v>2.74</v>
-      </c>
-      <c r="Z47">
-        <v>102</v>
-      </c>
-      <c r="AA47">
-        <f t="shared" si="5"/>
-        <v>37.226277372262771</v>
-      </c>
-      <c r="AB47" s="6">
-        <v>2.0592000000000001</v>
-      </c>
-      <c r="AC47">
-        <v>61</v>
-      </c>
-      <c r="AD47">
-        <f t="shared" si="6"/>
         <v>29.623154623154623</v>
       </c>
     </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C48" s="16">
         <v>0.57999999999999996</v>
       </c>
@@ -9043,79 +9907,85 @@
         <v>292</v>
       </c>
       <c r="E48">
+        <f t="shared" si="10"/>
+        <v>20.440000000000001</v>
+      </c>
+      <c r="F48" s="30">
+        <v>52</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30">
+        <v>57</v>
+      </c>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30">
+        <v>30</v>
+      </c>
+      <c r="N48">
+        <v>100</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="11"/>
+        <v>1.32</v>
+      </c>
+      <c r="Q48">
+        <v>87</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="12"/>
+        <v>3.4191000000000003</v>
+      </c>
+      <c r="T48">
+        <v>106</v>
+      </c>
+      <c r="U48" s="2">
+        <f t="shared" si="13"/>
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="W48">
+        <v>12.676</v>
+      </c>
+      <c r="X48">
+        <v>475</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="4"/>
+        <v>37.472388766172294</v>
+      </c>
+      <c r="Z48">
+        <v>14</v>
+      </c>
+      <c r="AA48">
+        <v>308</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AD48">
+        <v>88</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>1.9668000000000001</v>
+      </c>
+      <c r="AG48">
+        <v>69</v>
+      </c>
+      <c r="AH48">
         <f t="shared" si="7"/>
-        <v>20.440000000000001</v>
-      </c>
-      <c r="G48">
-        <v>87</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="8"/>
-        <v>2.2271999999999998</v>
-      </c>
-      <c r="J48">
-        <v>100</v>
-      </c>
-      <c r="K48" s="2">
-        <f t="shared" si="9"/>
-        <v>1.32</v>
-      </c>
-      <c r="M48">
-        <v>87</v>
-      </c>
-      <c r="N48" s="2">
-        <f t="shared" si="10"/>
-        <v>3.4191000000000003</v>
-      </c>
-      <c r="P48">
-        <v>106</v>
-      </c>
-      <c r="Q48" s="2">
-        <f t="shared" si="11"/>
-        <v>0.61480000000000001</v>
-      </c>
-      <c r="S48">
-        <v>12.676</v>
-      </c>
-      <c r="T48">
-        <v>475</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="3"/>
-        <v>37.472388766172294</v>
-      </c>
-      <c r="V48">
-        <v>14</v>
-      </c>
-      <c r="W48">
-        <v>308</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="Z48">
-        <v>88</v>
-      </c>
-      <c r="AA48">
-        <f t="shared" si="5"/>
-        <v>27.5</v>
-      </c>
-      <c r="AB48" s="2">
-        <v>1.9668000000000001</v>
-      </c>
-      <c r="AC48">
-        <v>69</v>
-      </c>
-      <c r="AD48">
-        <f t="shared" si="6"/>
         <v>35.082367297132393</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C49" s="16">
         <v>0.52</v>
       </c>
@@ -9123,79 +9993,85 @@
         <v>215</v>
       </c>
       <c r="E49">
+        <f t="shared" si="10"/>
+        <v>15.05</v>
+      </c>
+      <c r="F49" s="30">
+        <v>52</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30">
+        <v>75</v>
+      </c>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30">
+        <v>35</v>
+      </c>
+      <c r="N49">
+        <v>85</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="Q49">
+        <v>74</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="12"/>
+        <v>2.9081999999999999</v>
+      </c>
+      <c r="T49">
+        <v>100</v>
+      </c>
+      <c r="U49" s="2">
+        <f t="shared" si="13"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="W49">
+        <v>10.718999999999999</v>
+      </c>
+      <c r="X49">
+        <v>486</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="4"/>
+        <v>45.340050377833755</v>
+      </c>
+      <c r="Z49">
+        <v>12.39</v>
+      </c>
+      <c r="AA49">
+        <v>320</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="5"/>
+        <v>25.8272800645682</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD49">
+        <v>93</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>2.0460000000000003</v>
+      </c>
+      <c r="AG49">
+        <v>75</v>
+      </c>
+      <c r="AH49">
         <f t="shared" si="7"/>
-        <v>15.05</v>
-      </c>
-      <c r="G49">
-        <v>66</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="8"/>
-        <v>1.6896</v>
-      </c>
-      <c r="J49">
-        <v>85</v>
-      </c>
-      <c r="K49" s="2">
-        <f t="shared" si="9"/>
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="M49">
-        <v>74</v>
-      </c>
-      <c r="N49" s="2">
-        <f t="shared" si="10"/>
-        <v>2.9081999999999999</v>
-      </c>
-      <c r="P49">
-        <v>100</v>
-      </c>
-      <c r="Q49" s="2">
-        <f t="shared" si="11"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="S49">
-        <v>10.718999999999999</v>
-      </c>
-      <c r="T49">
-        <v>486</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="3"/>
-        <v>45.340050377833755</v>
-      </c>
-      <c r="V49">
-        <v>12.39</v>
-      </c>
-      <c r="W49">
-        <v>320</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="4"/>
-        <v>25.8272800645682</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z49">
-        <v>93</v>
-      </c>
-      <c r="AA49">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="AB49" s="2">
-        <v>2.0460000000000003</v>
-      </c>
-      <c r="AC49">
-        <v>75</v>
-      </c>
-      <c r="AD49">
-        <f t="shared" si="6"/>
         <v>36.656891495601165</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C50" s="16">
         <v>0.45</v>
       </c>
@@ -9203,79 +10079,85 @@
         <v>219</v>
       </c>
       <c r="E50">
+        <f t="shared" si="10"/>
+        <v>15.33</v>
+      </c>
+      <c r="F50" s="30">
+        <v>51</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30">
+        <v>93</v>
+      </c>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30">
+        <v>40</v>
+      </c>
+      <c r="N50">
+        <v>87</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="Q50">
+        <v>74</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="12"/>
+        <v>2.9081999999999999</v>
+      </c>
+      <c r="T50">
+        <v>102</v>
+      </c>
+      <c r="U50" s="2">
+        <f t="shared" si="13"/>
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="W50">
+        <v>10.512</v>
+      </c>
+      <c r="X50">
+        <v>481</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="4"/>
+        <v>45.7572298325723</v>
+      </c>
+      <c r="Z50">
+        <v>10.78</v>
+      </c>
+      <c r="AA50">
+        <v>320</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="5"/>
+        <v>29.684601113172544</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AD50">
+        <v>87</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="6"/>
+        <v>34.661354581673308</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>1.9536000000000002</v>
+      </c>
+      <c r="AG50">
+        <v>90</v>
+      </c>
+      <c r="AH50">
         <f t="shared" si="7"/>
-        <v>15.33</v>
-      </c>
-      <c r="G50">
-        <v>73</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="8"/>
-        <v>1.8688</v>
-      </c>
-      <c r="J50">
-        <v>87</v>
-      </c>
-      <c r="K50" s="2">
-        <f t="shared" si="9"/>
-        <v>1.1484000000000001</v>
-      </c>
-      <c r="M50">
-        <v>74</v>
-      </c>
-      <c r="N50" s="2">
-        <f t="shared" si="10"/>
-        <v>2.9081999999999999</v>
-      </c>
-      <c r="P50">
-        <v>102</v>
-      </c>
-      <c r="Q50" s="2">
-        <f t="shared" si="11"/>
-        <v>0.59160000000000001</v>
-      </c>
-      <c r="S50">
-        <v>10.512</v>
-      </c>
-      <c r="T50">
-        <v>481</v>
-      </c>
-      <c r="U50">
-        <f t="shared" si="3"/>
-        <v>45.7572298325723</v>
-      </c>
-      <c r="V50">
-        <v>10.78</v>
-      </c>
-      <c r="W50">
-        <v>320</v>
-      </c>
-      <c r="X50">
-        <f t="shared" si="4"/>
-        <v>29.684601113172544</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="Z50">
-        <v>87</v>
-      </c>
-      <c r="AA50">
-        <f t="shared" si="5"/>
-        <v>34.661354581673308</v>
-      </c>
-      <c r="AB50" s="2">
-        <v>1.9536000000000002</v>
-      </c>
-      <c r="AC50">
-        <v>90</v>
-      </c>
-      <c r="AD50">
-        <f t="shared" si="6"/>
         <v>46.068796068796061</v>
       </c>
     </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C51" s="16">
         <v>0.54</v>
       </c>
@@ -9283,79 +10165,85 @@
         <v>175</v>
       </c>
       <c r="E51">
+        <f t="shared" si="10"/>
+        <v>12.25</v>
+      </c>
+      <c r="F51" s="30">
+        <v>50</v>
+      </c>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30">
+        <v>110</v>
+      </c>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30">
+        <v>45</v>
+      </c>
+      <c r="N51">
+        <v>85</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="Q51">
+        <v>83</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="12"/>
+        <v>3.2618999999999998</v>
+      </c>
+      <c r="T51">
+        <v>94</v>
+      </c>
+      <c r="U51" s="2">
+        <f t="shared" si="13"/>
+        <v>0.54519999999999991</v>
+      </c>
+      <c r="W51">
+        <v>9.8309999999999995</v>
+      </c>
+      <c r="X51">
+        <v>461</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="4"/>
+        <v>46.892482962058793</v>
+      </c>
+      <c r="Z51">
+        <v>12.95</v>
+      </c>
+      <c r="AA51">
+        <v>319</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="5"/>
+        <v>24.633204633204635</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="AD51">
+        <v>80</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="6"/>
+        <v>37.209302325581397</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>1.5576000000000001</v>
+      </c>
+      <c r="AG51">
+        <v>97</v>
+      </c>
+      <c r="AH51">
         <f t="shared" si="7"/>
-        <v>12.25</v>
-      </c>
-      <c r="G51">
-        <v>66</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="8"/>
-        <v>1.6896</v>
-      </c>
-      <c r="J51">
-        <v>85</v>
-      </c>
-      <c r="K51" s="2">
-        <f t="shared" si="9"/>
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="M51">
-        <v>83</v>
-      </c>
-      <c r="N51" s="2">
-        <f t="shared" si="10"/>
-        <v>3.2618999999999998</v>
-      </c>
-      <c r="P51">
-        <v>94</v>
-      </c>
-      <c r="Q51" s="2">
-        <f t="shared" si="11"/>
-        <v>0.54519999999999991</v>
-      </c>
-      <c r="S51">
-        <v>9.8309999999999995</v>
-      </c>
-      <c r="T51">
-        <v>461</v>
-      </c>
-      <c r="U51">
-        <f t="shared" si="3"/>
-        <v>46.892482962058793</v>
-      </c>
-      <c r="V51">
-        <v>12.95</v>
-      </c>
-      <c r="W51">
-        <v>319</v>
-      </c>
-      <c r="X51">
-        <f t="shared" si="4"/>
-        <v>24.633204633204635</v>
-      </c>
-      <c r="Y51" s="2">
-        <v>2.15</v>
-      </c>
-      <c r="Z51">
-        <v>80</v>
-      </c>
-      <c r="AA51">
-        <f t="shared" si="5"/>
-        <v>37.209302325581397</v>
-      </c>
-      <c r="AB51" s="2">
-        <v>1.5576000000000001</v>
-      </c>
-      <c r="AC51">
-        <v>97</v>
-      </c>
-      <c r="AD51">
-        <f t="shared" si="6"/>
         <v>62.275295326142782</v>
       </c>
     </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C52" s="16">
         <v>0.56999999999999995</v>
       </c>
@@ -9363,79 +10251,85 @@
         <v>199</v>
       </c>
       <c r="E52">
+        <f t="shared" si="10"/>
+        <v>13.93</v>
+      </c>
+      <c r="F52" s="30">
+        <v>49</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30">
+        <v>128</v>
+      </c>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30">
+        <v>50</v>
+      </c>
+      <c r="N52">
+        <v>97</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2804</v>
+      </c>
+      <c r="Q52">
+        <v>83</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="12"/>
+        <v>3.2618999999999998</v>
+      </c>
+      <c r="T52">
+        <v>94</v>
+      </c>
+      <c r="U52" s="2">
+        <f t="shared" si="13"/>
+        <v>0.54519999999999991</v>
+      </c>
+      <c r="W52">
+        <v>10.007999999999999</v>
+      </c>
+      <c r="X52">
+        <v>458</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="4"/>
+        <v>45.763389288569151</v>
+      </c>
+      <c r="Z52">
+        <v>13.72</v>
+      </c>
+      <c r="AA52">
+        <v>322</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="5"/>
+        <v>23.469387755102041</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="AD52">
+        <v>74</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="6"/>
+        <v>28.35249042145594</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>1.7028000000000001</v>
+      </c>
+      <c r="AG52">
+        <v>89</v>
+      </c>
+      <c r="AH52">
         <f t="shared" si="7"/>
-        <v>13.93</v>
-      </c>
-      <c r="G52">
-        <v>76</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="8"/>
-        <v>1.9456</v>
-      </c>
-      <c r="J52">
-        <v>97</v>
-      </c>
-      <c r="K52" s="2">
-        <f t="shared" si="9"/>
-        <v>1.2804</v>
-      </c>
-      <c r="M52">
-        <v>83</v>
-      </c>
-      <c r="N52" s="2">
-        <f t="shared" si="10"/>
-        <v>3.2618999999999998</v>
-      </c>
-      <c r="P52">
-        <v>94</v>
-      </c>
-      <c r="Q52" s="2">
-        <f t="shared" si="11"/>
-        <v>0.54519999999999991</v>
-      </c>
-      <c r="S52">
-        <v>10.007999999999999</v>
-      </c>
-      <c r="T52">
-        <v>458</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="3"/>
-        <v>45.763389288569151</v>
-      </c>
-      <c r="V52">
-        <v>13.72</v>
-      </c>
-      <c r="W52">
-        <v>322</v>
-      </c>
-      <c r="X52">
-        <f t="shared" si="4"/>
-        <v>23.469387755102041</v>
-      </c>
-      <c r="Y52" s="2">
-        <v>2.61</v>
-      </c>
-      <c r="Z52">
-        <v>74</v>
-      </c>
-      <c r="AA52">
-        <f t="shared" si="5"/>
-        <v>28.35249042145594</v>
-      </c>
-      <c r="AB52" s="2">
-        <v>1.7028000000000001</v>
-      </c>
-      <c r="AC52">
-        <v>89</v>
-      </c>
-      <c r="AD52">
-        <f t="shared" si="6"/>
         <v>52.266854592435983</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C53" s="16">
         <v>0.84</v>
       </c>
@@ -9443,79 +10337,85 @@
         <v>223</v>
       </c>
       <c r="E53">
+        <f t="shared" si="10"/>
+        <v>15.61</v>
+      </c>
+      <c r="F53" s="30">
+        <v>48</v>
+      </c>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30">
+        <v>145</v>
+      </c>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30">
+        <v>55</v>
+      </c>
+      <c r="N53">
+        <v>135</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7820000000000003</v>
+      </c>
+      <c r="Q53">
+        <v>98</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="12"/>
+        <v>3.8514000000000004</v>
+      </c>
+      <c r="T53">
+        <v>111</v>
+      </c>
+      <c r="U53" s="2">
+        <f t="shared" si="13"/>
+        <v>0.64379999999999993</v>
+      </c>
+      <c r="W53">
+        <v>9.51</v>
+      </c>
+      <c r="X53">
+        <v>451</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="4"/>
+        <v>47.423764458464774</v>
+      </c>
+      <c r="Z53">
+        <v>21.84</v>
+      </c>
+      <c r="AA53">
+        <v>301</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="5"/>
+        <v>13.782051282051283</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="AD53">
+        <v>66</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>1.7556</v>
+      </c>
+      <c r="AG53">
+        <v>88</v>
+      </c>
+      <c r="AH53">
         <f t="shared" si="7"/>
-        <v>15.61</v>
-      </c>
-      <c r="G53">
-        <v>124</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="8"/>
-        <v>3.1743999999999999</v>
-      </c>
-      <c r="J53">
-        <v>135</v>
-      </c>
-      <c r="K53" s="2">
-        <f t="shared" si="9"/>
-        <v>1.7820000000000003</v>
-      </c>
-      <c r="M53">
-        <v>98</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" si="10"/>
-        <v>3.8514000000000004</v>
-      </c>
-      <c r="P53">
-        <v>111</v>
-      </c>
-      <c r="Q53" s="2">
-        <f t="shared" si="11"/>
-        <v>0.64379999999999993</v>
-      </c>
-      <c r="S53">
-        <v>9.51</v>
-      </c>
-      <c r="T53">
-        <v>451</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="3"/>
-        <v>47.423764458464774</v>
-      </c>
-      <c r="V53">
-        <v>21.84</v>
-      </c>
-      <c r="W53">
-        <v>301</v>
-      </c>
-      <c r="X53">
-        <f t="shared" si="4"/>
-        <v>13.782051282051283</v>
-      </c>
-      <c r="Y53" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="Z53">
-        <v>66</v>
-      </c>
-      <c r="AA53">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="AB53" s="2">
-        <v>1.7556</v>
-      </c>
-      <c r="AC53">
-        <v>88</v>
-      </c>
-      <c r="AD53">
-        <f t="shared" si="6"/>
         <v>50.125313283208015</v>
       </c>
     </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C54" s="16">
         <v>0.6</v>
       </c>
@@ -9523,79 +10423,85 @@
         <v>300</v>
       </c>
       <c r="E54">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="F54" s="30">
+        <v>47</v>
+      </c>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30">
+        <v>163</v>
+      </c>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30">
+        <v>60</v>
+      </c>
+      <c r="N54">
+        <v>129</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7028000000000001</v>
+      </c>
+      <c r="Q54">
+        <v>107</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="12"/>
+        <v>4.2050999999999998</v>
+      </c>
+      <c r="T54">
+        <v>111</v>
+      </c>
+      <c r="U54" s="2">
+        <f t="shared" si="13"/>
+        <v>0.64379999999999993</v>
+      </c>
+      <c r="W54">
+        <v>8.41</v>
+      </c>
+      <c r="X54">
+        <v>415</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="4"/>
+        <v>49.346016646848987</v>
+      </c>
+      <c r="Z54">
+        <v>15.61</v>
+      </c>
+      <c r="AA54">
+        <v>272</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="5"/>
+        <v>17.424727738629084</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AD54">
+        <v>50</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="6"/>
+        <v>19.920318725099602</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>1.056</v>
+      </c>
+      <c r="AG54">
+        <v>92</v>
+      </c>
+      <c r="AH54">
         <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="G54">
-        <v>122</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="8"/>
-        <v>3.1231999999999998</v>
-      </c>
-      <c r="J54">
-        <v>129</v>
-      </c>
-      <c r="K54" s="2">
-        <f t="shared" si="9"/>
-        <v>1.7028000000000001</v>
-      </c>
-      <c r="M54">
-        <v>107</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" si="10"/>
-        <v>4.2050999999999998</v>
-      </c>
-      <c r="P54">
-        <v>111</v>
-      </c>
-      <c r="Q54" s="2">
-        <f t="shared" si="11"/>
-        <v>0.64379999999999993</v>
-      </c>
-      <c r="S54">
-        <v>8.41</v>
-      </c>
-      <c r="T54">
-        <v>415</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="3"/>
-        <v>49.346016646848987</v>
-      </c>
-      <c r="V54">
-        <v>15.61</v>
-      </c>
-      <c r="W54">
-        <v>272</v>
-      </c>
-      <c r="X54">
-        <f t="shared" si="4"/>
-        <v>17.424727738629084</v>
-      </c>
-      <c r="Y54" s="2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="Z54">
-        <v>50</v>
-      </c>
-      <c r="AA54">
-        <f t="shared" si="5"/>
-        <v>19.920318725099602</v>
-      </c>
-      <c r="AB54" s="2">
-        <v>1.056</v>
-      </c>
-      <c r="AC54">
-        <v>92</v>
-      </c>
-      <c r="AD54">
-        <f t="shared" si="6"/>
         <v>87.12121212121211</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C55" s="16">
         <v>0.38</v>
       </c>
@@ -9603,79 +10509,85 @@
         <v>215</v>
       </c>
       <c r="E55">
+        <f t="shared" si="10"/>
+        <v>15.05</v>
+      </c>
+      <c r="F55" s="30">
+        <v>46</v>
+      </c>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30">
+        <v>181</v>
+      </c>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30">
+        <v>65</v>
+      </c>
+      <c r="N55">
+        <v>179</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="11"/>
+        <v>2.3628</v>
+      </c>
+      <c r="Q55">
+        <v>106</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" si="12"/>
+        <v>4.1658000000000008</v>
+      </c>
+      <c r="T55">
+        <v>109</v>
+      </c>
+      <c r="U55" s="2">
+        <f t="shared" si="13"/>
+        <v>0.63219999999999998</v>
+      </c>
+      <c r="W55">
+        <v>11.162000000000001</v>
+      </c>
+      <c r="X55">
+        <v>403</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="4"/>
+        <v>36.104640745386128</v>
+      </c>
+      <c r="Z55">
+        <v>9.94</v>
+      </c>
+      <c r="AA55">
+        <v>270</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="5"/>
+        <v>27.162977867203221</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="AD55">
+        <v>57</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="6"/>
+        <v>29.23076923076923</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>1.7424000000000002</v>
+      </c>
+      <c r="AG55">
+        <v>85</v>
+      </c>
+      <c r="AH55">
         <f t="shared" si="7"/>
-        <v>15.05</v>
-      </c>
-      <c r="G55">
-        <v>150</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="8"/>
-        <v>3.84</v>
-      </c>
-      <c r="J55">
-        <v>179</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="9"/>
-        <v>2.3628</v>
-      </c>
-      <c r="M55">
-        <v>106</v>
-      </c>
-      <c r="N55" s="2">
-        <f t="shared" si="10"/>
-        <v>4.1658000000000008</v>
-      </c>
-      <c r="P55">
-        <v>109</v>
-      </c>
-      <c r="Q55" s="2">
-        <f t="shared" si="11"/>
-        <v>0.63219999999999998</v>
-      </c>
-      <c r="S55">
-        <v>11.162000000000001</v>
-      </c>
-      <c r="T55">
-        <v>403</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="3"/>
-        <v>36.104640745386128</v>
-      </c>
-      <c r="V55">
-        <v>9.94</v>
-      </c>
-      <c r="W55">
-        <v>270</v>
-      </c>
-      <c r="X55">
-        <f t="shared" si="4"/>
-        <v>27.162977867203221</v>
-      </c>
-      <c r="Y55" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="Z55">
-        <v>57</v>
-      </c>
-      <c r="AA55">
-        <f t="shared" si="5"/>
-        <v>29.23076923076923</v>
-      </c>
-      <c r="AB55" s="2">
-        <v>1.7424000000000002</v>
-      </c>
-      <c r="AC55">
-        <v>85</v>
-      </c>
-      <c r="AD55">
-        <f t="shared" si="6"/>
         <v>48.783287419651053</v>
       </c>
     </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C56" s="16">
         <v>0.44</v>
       </c>
@@ -9683,79 +10595,85 @@
         <v>150</v>
       </c>
       <c r="E56">
+        <f t="shared" si="10"/>
+        <v>10.5</v>
+      </c>
+      <c r="F56" s="30">
+        <v>45</v>
+      </c>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30">
+        <v>198</v>
+      </c>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30">
+        <v>70</v>
+      </c>
+      <c r="N56">
+        <v>149</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="11"/>
+        <v>1.9668000000000001</v>
+      </c>
+      <c r="Q56">
+        <v>119</v>
+      </c>
+      <c r="R56" s="2">
+        <f t="shared" si="12"/>
+        <v>4.6767000000000003</v>
+      </c>
+      <c r="T56">
+        <v>122</v>
+      </c>
+      <c r="U56" s="2">
+        <f t="shared" si="13"/>
+        <v>0.7075999999999999</v>
+      </c>
+      <c r="W56">
+        <v>10.16</v>
+      </c>
+      <c r="X56">
+        <v>408</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="4"/>
+        <v>40.15748031496063</v>
+      </c>
+      <c r="Z56">
+        <v>11.34</v>
+      </c>
+      <c r="AA56">
+        <v>272</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="5"/>
+        <v>23.98589065255732</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="AD56">
+        <v>47</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="6"/>
+        <v>23.857868020304569</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>1.6632000000000002</v>
+      </c>
+      <c r="AG56">
+        <v>93</v>
+      </c>
+      <c r="AH56">
         <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="G56">
-        <v>102</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="8"/>
-        <v>2.6112000000000002</v>
-      </c>
-      <c r="J56">
-        <v>149</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="9"/>
-        <v>1.9668000000000001</v>
-      </c>
-      <c r="M56">
-        <v>119</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" si="10"/>
-        <v>4.6767000000000003</v>
-      </c>
-      <c r="P56">
-        <v>122</v>
-      </c>
-      <c r="Q56" s="2">
-        <f t="shared" si="11"/>
-        <v>0.7075999999999999</v>
-      </c>
-      <c r="S56">
-        <v>10.16</v>
-      </c>
-      <c r="T56">
-        <v>408</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="3"/>
-        <v>40.15748031496063</v>
-      </c>
-      <c r="V56">
-        <v>11.34</v>
-      </c>
-      <c r="W56">
-        <v>272</v>
-      </c>
-      <c r="X56">
-        <f t="shared" si="4"/>
-        <v>23.98589065255732</v>
-      </c>
-      <c r="Y56" s="2">
-        <v>1.97</v>
-      </c>
-      <c r="Z56">
-        <v>47</v>
-      </c>
-      <c r="AA56">
-        <f t="shared" si="5"/>
-        <v>23.857868020304569</v>
-      </c>
-      <c r="AB56" s="2">
-        <v>1.6632000000000002</v>
-      </c>
-      <c r="AC56">
-        <v>93</v>
-      </c>
-      <c r="AD56">
-        <f t="shared" si="6"/>
         <v>55.916305916305909</v>
       </c>
     </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C57" s="16">
         <v>0.42</v>
       </c>
@@ -9763,79 +10681,85 @@
         <v>254</v>
       </c>
       <c r="E57">
+        <f t="shared" si="10"/>
+        <v>17.78</v>
+      </c>
+      <c r="F57" s="30">
+        <v>45</v>
+      </c>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30">
+        <v>216</v>
+      </c>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30">
+        <v>75</v>
+      </c>
+      <c r="N57">
+        <v>127</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="11"/>
+        <v>1.6764000000000001</v>
+      </c>
+      <c r="Q57">
+        <v>117</v>
+      </c>
+      <c r="R57" s="2">
+        <f t="shared" si="12"/>
+        <v>4.5980999999999996</v>
+      </c>
+      <c r="T57">
+        <v>129</v>
+      </c>
+      <c r="U57" s="2">
+        <f t="shared" si="13"/>
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="W57" s="3">
+        <v>9.1850000000000005</v>
+      </c>
+      <c r="X57">
+        <v>407</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="4"/>
+        <v>44.311377245508979</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>11.41</v>
+      </c>
+      <c r="AA57">
+        <v>266</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="5"/>
+        <v>23.312883435582823</v>
+      </c>
+      <c r="AC57" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="AD57">
+        <v>35</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="6"/>
+        <v>17.326732673267326</v>
+      </c>
+      <c r="AF57" s="6">
+        <v>1.6104000000000003</v>
+      </c>
+      <c r="AG57">
+        <v>88</v>
+      </c>
+      <c r="AH57">
         <f t="shared" si="7"/>
-        <v>17.78</v>
-      </c>
-      <c r="G57">
-        <v>86</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="8"/>
-        <v>2.2016</v>
-      </c>
-      <c r="J57">
-        <v>127</v>
-      </c>
-      <c r="K57" s="2">
-        <f t="shared" si="9"/>
-        <v>1.6764000000000001</v>
-      </c>
-      <c r="M57">
-        <v>117</v>
-      </c>
-      <c r="N57" s="2">
-        <f t="shared" si="10"/>
-        <v>4.5980999999999996</v>
-      </c>
-      <c r="P57">
-        <v>129</v>
-      </c>
-      <c r="Q57" s="2">
-        <f t="shared" si="11"/>
-        <v>0.74819999999999998</v>
-      </c>
-      <c r="S57" s="3">
-        <v>9.1850000000000005</v>
-      </c>
-      <c r="T57">
-        <v>407</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="3"/>
-        <v>44.311377245508979</v>
-      </c>
-      <c r="V57" s="3">
-        <v>11.41</v>
-      </c>
-      <c r="W57">
-        <v>266</v>
-      </c>
-      <c r="X57">
-        <f t="shared" si="4"/>
-        <v>23.312883435582823</v>
-      </c>
-      <c r="Y57" s="6">
-        <v>2.02</v>
-      </c>
-      <c r="Z57">
-        <v>35</v>
-      </c>
-      <c r="AA57">
-        <f t="shared" si="5"/>
-        <v>17.326732673267326</v>
-      </c>
-      <c r="AB57" s="6">
-        <v>1.6104000000000003</v>
-      </c>
-      <c r="AC57">
-        <v>88</v>
-      </c>
-      <c r="AD57">
-        <f t="shared" si="6"/>
         <v>54.644808743169392</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C58" s="16">
         <v>0.69</v>
       </c>
@@ -9843,79 +10767,85 @@
         <v>146</v>
       </c>
       <c r="E58">
+        <f t="shared" si="10"/>
+        <v>10.220000000000001</v>
+      </c>
+      <c r="F58" s="32">
+        <v>44</v>
+      </c>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32">
+        <v>233</v>
+      </c>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32">
+        <v>80</v>
+      </c>
+      <c r="N58">
+        <v>102</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3464</v>
+      </c>
+      <c r="Q58">
+        <v>119</v>
+      </c>
+      <c r="R58" s="2">
+        <f t="shared" si="12"/>
+        <v>4.6767000000000003</v>
+      </c>
+      <c r="T58">
+        <v>120</v>
+      </c>
+      <c r="U58" s="2">
+        <f t="shared" si="13"/>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="W58" s="4">
+        <v>10.007999999999999</v>
+      </c>
+      <c r="X58" s="4">
+        <v>403</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="4"/>
+        <v>40.267785771382897</v>
+      </c>
+      <c r="Z58" s="4">
+        <v>19.39</v>
+      </c>
+      <c r="AA58" s="4">
+        <v>262</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="5"/>
+        <v>13.512119649303765</v>
+      </c>
+      <c r="AC58" s="7">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>42</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="6"/>
+        <v>18.421052631578949</v>
+      </c>
+      <c r="AF58" s="15">
+        <v>1.7292000000000001</v>
+      </c>
+      <c r="AG58" s="14">
+        <v>90</v>
+      </c>
+      <c r="AH58">
         <f t="shared" si="7"/>
-        <v>10.220000000000001</v>
-      </c>
-      <c r="G58">
-        <v>69</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="8"/>
-        <v>1.7664000000000002</v>
-      </c>
-      <c r="J58">
-        <v>102</v>
-      </c>
-      <c r="K58" s="2">
-        <f t="shared" si="9"/>
-        <v>1.3464</v>
-      </c>
-      <c r="M58">
-        <v>119</v>
-      </c>
-      <c r="N58" s="2">
-        <f t="shared" si="10"/>
-        <v>4.6767000000000003</v>
-      </c>
-      <c r="P58">
-        <v>120</v>
-      </c>
-      <c r="Q58" s="2">
-        <f t="shared" si="11"/>
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="S58" s="4">
-        <v>10.007999999999999</v>
-      </c>
-      <c r="T58" s="4">
-        <v>403</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="3"/>
-        <v>40.267785771382897</v>
-      </c>
-      <c r="V58" s="4">
-        <v>19.39</v>
-      </c>
-      <c r="W58" s="4">
-        <v>262</v>
-      </c>
-      <c r="X58">
-        <f t="shared" si="4"/>
-        <v>13.512119649303765</v>
-      </c>
-      <c r="Y58" s="7">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Z58" s="4">
-        <v>42</v>
-      </c>
-      <c r="AA58">
-        <f t="shared" si="5"/>
-        <v>18.421052631578949</v>
-      </c>
-      <c r="AB58" s="15">
-        <v>1.7292000000000001</v>
-      </c>
-      <c r="AC58" s="14">
-        <v>90</v>
-      </c>
-      <c r="AD58">
-        <f t="shared" si="6"/>
         <v>52.047189451769604</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C59" s="16">
         <v>0.52</v>
       </c>
@@ -9923,79 +10853,85 @@
         <v>177</v>
       </c>
       <c r="E59">
+        <f t="shared" si="10"/>
+        <v>12.39</v>
+      </c>
+      <c r="F59" s="32">
+        <v>43</v>
+      </c>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32">
+        <v>251</v>
+      </c>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32">
+        <v>85</v>
+      </c>
+      <c r="N59">
+        <v>120</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="Q59">
+        <v>127</v>
+      </c>
+      <c r="R59" s="2">
+        <f t="shared" si="12"/>
+        <v>4.9911000000000003</v>
+      </c>
+      <c r="T59">
+        <v>122</v>
+      </c>
+      <c r="U59" s="2">
+        <f t="shared" si="13"/>
+        <v>0.7075999999999999</v>
+      </c>
+      <c r="W59" s="4">
+        <v>10.512</v>
+      </c>
+      <c r="X59" s="4">
+        <v>380</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="4"/>
+        <v>36.149162861491625</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>14.56</v>
+      </c>
+      <c r="AA59" s="4">
+        <v>254</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="5"/>
+        <v>17.445054945054945</v>
+      </c>
+      <c r="AC59" s="7">
+        <v>1.84</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>48</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="6"/>
+        <v>26.086956521739129</v>
+      </c>
+      <c r="AF59" s="15">
+        <v>1.6104000000000003</v>
+      </c>
+      <c r="AG59" s="14">
+        <v>97</v>
+      </c>
+      <c r="AH59">
         <f t="shared" si="7"/>
-        <v>12.39</v>
-      </c>
-      <c r="G59">
-        <v>86</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="8"/>
-        <v>2.2016</v>
-      </c>
-      <c r="J59">
-        <v>120</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="9"/>
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="M59">
-        <v>127</v>
-      </c>
-      <c r="N59" s="2">
-        <f t="shared" si="10"/>
-        <v>4.9911000000000003</v>
-      </c>
-      <c r="P59">
-        <v>122</v>
-      </c>
-      <c r="Q59" s="2">
-        <f t="shared" si="11"/>
-        <v>0.7075999999999999</v>
-      </c>
-      <c r="S59" s="4">
-        <v>10.512</v>
-      </c>
-      <c r="T59" s="4">
-        <v>380</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="3"/>
-        <v>36.149162861491625</v>
-      </c>
-      <c r="V59" s="4">
-        <v>14.56</v>
-      </c>
-      <c r="W59" s="4">
-        <v>254</v>
-      </c>
-      <c r="X59">
-        <f t="shared" si="4"/>
-        <v>17.445054945054945</v>
-      </c>
-      <c r="Y59" s="7">
-        <v>1.84</v>
-      </c>
-      <c r="Z59" s="4">
-        <v>48</v>
-      </c>
-      <c r="AA59">
-        <f t="shared" si="5"/>
-        <v>26.086956521739129</v>
-      </c>
-      <c r="AB59" s="15">
-        <v>1.6104000000000003</v>
-      </c>
-      <c r="AC59" s="14">
-        <v>97</v>
-      </c>
-      <c r="AD59">
-        <f t="shared" si="6"/>
         <v>60.233482364629893</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C60" s="16">
         <v>0.71</v>
       </c>
@@ -10003,79 +10939,85 @@
         <v>265</v>
       </c>
       <c r="E60">
+        <f t="shared" si="10"/>
+        <v>18.55</v>
+      </c>
+      <c r="F60" s="32">
+        <v>42</v>
+      </c>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32">
+        <v>269</v>
+      </c>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32">
+        <v>91</v>
+      </c>
+      <c r="N60">
+        <v>135</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7820000000000003</v>
+      </c>
+      <c r="Q60">
+        <v>104</v>
+      </c>
+      <c r="R60" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0872000000000002</v>
+      </c>
+      <c r="T60">
+        <v>124</v>
+      </c>
+      <c r="U60" s="2">
+        <f t="shared" si="13"/>
+        <v>0.71920000000000006</v>
+      </c>
+      <c r="W60" s="4">
+        <v>10.59</v>
+      </c>
+      <c r="X60" s="4">
+        <v>356</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="4"/>
+        <v>33.6166194523135</v>
+      </c>
+      <c r="Z60" s="4">
+        <v>19.95</v>
+      </c>
+      <c r="AA60" s="4">
+        <v>252</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="5"/>
+        <v>12.631578947368421</v>
+      </c>
+      <c r="AC60" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD60" s="4">
+        <v>48</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="6"/>
+        <v>20.869565217391305</v>
+      </c>
+      <c r="AF60" s="15">
+        <v>1.5576000000000001</v>
+      </c>
+      <c r="AG60" s="14">
+        <v>101</v>
+      </c>
+      <c r="AH60">
         <f t="shared" si="7"/>
-        <v>18.55</v>
-      </c>
-      <c r="G60">
-        <v>99</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="8"/>
-        <v>2.5343999999999998</v>
-      </c>
-      <c r="J60">
-        <v>135</v>
-      </c>
-      <c r="K60" s="2">
-        <f t="shared" si="9"/>
-        <v>1.7820000000000003</v>
-      </c>
-      <c r="M60">
-        <v>104</v>
-      </c>
-      <c r="N60" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0872000000000002</v>
-      </c>
-      <c r="P60">
-        <v>124</v>
-      </c>
-      <c r="Q60" s="2">
-        <f t="shared" si="11"/>
-        <v>0.71920000000000006</v>
-      </c>
-      <c r="S60" s="4">
-        <v>10.59</v>
-      </c>
-      <c r="T60" s="4">
-        <v>356</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="3"/>
-        <v>33.6166194523135</v>
-      </c>
-      <c r="V60" s="4">
-        <v>19.95</v>
-      </c>
-      <c r="W60" s="4">
-        <v>252</v>
-      </c>
-      <c r="X60">
-        <f t="shared" si="4"/>
-        <v>12.631578947368421</v>
-      </c>
-      <c r="Y60" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Z60" s="4">
-        <v>48</v>
-      </c>
-      <c r="AA60">
-        <f t="shared" si="5"/>
-        <v>20.869565217391305</v>
-      </c>
-      <c r="AB60" s="15">
-        <v>1.5576000000000001</v>
-      </c>
-      <c r="AC60" s="14">
-        <v>101</v>
-      </c>
-      <c r="AD60">
-        <f t="shared" si="6"/>
         <v>64.843348741653827</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C61" s="16">
         <v>0.36</v>
       </c>
@@ -10083,79 +11025,85 @@
         <v>227</v>
       </c>
       <c r="E61">
+        <f t="shared" si="10"/>
+        <v>15.89</v>
+      </c>
+      <c r="F61" s="30">
+        <v>41</v>
+      </c>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30">
+        <v>286</v>
+      </c>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30">
+        <v>96</v>
+      </c>
+      <c r="N61">
+        <v>116</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5312000000000001</v>
+      </c>
+      <c r="Q61">
+        <v>125</v>
+      </c>
+      <c r="R61" s="2">
+        <f t="shared" si="12"/>
+        <v>4.9124999999999996</v>
+      </c>
+      <c r="T61">
+        <v>137</v>
+      </c>
+      <c r="U61" s="2">
+        <f t="shared" si="13"/>
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="W61">
+        <v>9.2829999999999995</v>
+      </c>
+      <c r="X61">
+        <v>378</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="4"/>
+        <v>40.719594958526343</v>
+      </c>
+      <c r="Z61">
+        <v>9.94</v>
+      </c>
+      <c r="AA61">
+        <v>247</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="5"/>
+        <v>24.849094567404428</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="AD61">
+        <v>45</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="6"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>1.5048000000000001</v>
+      </c>
+      <c r="AG61">
+        <v>87</v>
+      </c>
+      <c r="AH61">
         <f t="shared" si="7"/>
-        <v>15.89</v>
-      </c>
-      <c r="G61">
-        <v>95</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4320000000000004</v>
-      </c>
-      <c r="J61">
-        <v>116</v>
-      </c>
-      <c r="K61" s="2">
-        <f t="shared" si="9"/>
-        <v>1.5312000000000001</v>
-      </c>
-      <c r="M61">
-        <v>125</v>
-      </c>
-      <c r="N61" s="2">
-        <f t="shared" si="10"/>
-        <v>4.9124999999999996</v>
-      </c>
-      <c r="P61">
-        <v>137</v>
-      </c>
-      <c r="Q61" s="2">
-        <f t="shared" si="11"/>
-        <v>0.79459999999999997</v>
-      </c>
-      <c r="S61">
-        <v>9.2829999999999995</v>
-      </c>
-      <c r="T61">
-        <v>378</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="3"/>
-        <v>40.719594958526343</v>
-      </c>
-      <c r="V61">
-        <v>9.94</v>
-      </c>
-      <c r="W61">
-        <v>247</v>
-      </c>
-      <c r="X61">
-        <f t="shared" si="4"/>
-        <v>24.849094567404428</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="Z61">
-        <v>45</v>
-      </c>
-      <c r="AA61">
-        <f t="shared" si="5"/>
-        <v>23.076923076923077</v>
-      </c>
-      <c r="AB61" s="2">
-        <v>1.5048000000000001</v>
-      </c>
-      <c r="AC61">
-        <v>87</v>
-      </c>
-      <c r="AD61">
-        <f t="shared" si="6"/>
         <v>57.814992025518336</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C62" s="16">
         <v>0.27</v>
       </c>
@@ -10163,79 +11111,85 @@
         <v>181</v>
       </c>
       <c r="E62">
+        <f t="shared" si="10"/>
+        <v>12.67</v>
+      </c>
+      <c r="F62" s="30">
+        <v>40</v>
+      </c>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30">
+        <v>304</v>
+      </c>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30">
+        <v>101</v>
+      </c>
+      <c r="N62">
+        <v>109</v>
+      </c>
+      <c r="O62" s="2">
+        <f t="shared" si="11"/>
+        <v>1.4387999999999999</v>
+      </c>
+      <c r="Q62">
+        <v>104</v>
+      </c>
+      <c r="R62" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0872000000000002</v>
+      </c>
+      <c r="T62">
+        <v>132</v>
+      </c>
+      <c r="U62" s="2">
+        <f t="shared" si="13"/>
+        <v>0.76559999999999984</v>
+      </c>
+      <c r="W62">
+        <v>9.8309999999999995</v>
+      </c>
+      <c r="X62">
+        <v>383</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="4"/>
+        <v>38.95839690774082</v>
+      </c>
+      <c r="Z62">
+        <v>7.56</v>
+      </c>
+      <c r="AA62">
+        <v>257</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="5"/>
+        <v>33.994708994708994</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="AD62">
+        <v>47</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="6"/>
+        <v>22.169811320754715</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>1.4916</v>
+      </c>
+      <c r="AG62">
+        <v>83</v>
+      </c>
+      <c r="AH62">
         <f t="shared" si="7"/>
-        <v>12.67</v>
-      </c>
-      <c r="G62">
-        <v>73</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="8"/>
-        <v>1.8688</v>
-      </c>
-      <c r="J62">
-        <v>109</v>
-      </c>
-      <c r="K62" s="2">
-        <f t="shared" si="9"/>
-        <v>1.4387999999999999</v>
-      </c>
-      <c r="M62">
-        <v>104</v>
-      </c>
-      <c r="N62" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0872000000000002</v>
-      </c>
-      <c r="P62">
-        <v>132</v>
-      </c>
-      <c r="Q62" s="2">
-        <f t="shared" si="11"/>
-        <v>0.76559999999999984</v>
-      </c>
-      <c r="S62">
-        <v>9.8309999999999995</v>
-      </c>
-      <c r="T62">
-        <v>383</v>
-      </c>
-      <c r="U62">
-        <f t="shared" si="3"/>
-        <v>38.95839690774082</v>
-      </c>
-      <c r="V62">
-        <v>7.56</v>
-      </c>
-      <c r="W62">
-        <v>257</v>
-      </c>
-      <c r="X62">
-        <f t="shared" si="4"/>
-        <v>33.994708994708994</v>
-      </c>
-      <c r="Y62" s="2">
-        <v>2.12</v>
-      </c>
-      <c r="Z62">
-        <v>47</v>
-      </c>
-      <c r="AA62">
-        <f t="shared" si="5"/>
-        <v>22.169811320754715</v>
-      </c>
-      <c r="AB62" s="2">
-        <v>1.4916</v>
-      </c>
-      <c r="AC62">
-        <v>83</v>
-      </c>
-      <c r="AD62">
-        <f t="shared" si="6"/>
         <v>55.644945025475998</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C63" s="16">
         <v>0.27</v>
       </c>
@@ -10243,79 +11197,85 @@
         <v>127</v>
       </c>
       <c r="E63">
+        <f t="shared" si="10"/>
+        <v>8.89</v>
+      </c>
+      <c r="F63" s="30">
+        <v>39</v>
+      </c>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30">
+        <v>322</v>
+      </c>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30">
+        <v>106</v>
+      </c>
+      <c r="N63">
+        <v>104</v>
+      </c>
+      <c r="O63" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3728</v>
+      </c>
+      <c r="Q63">
+        <v>113</v>
+      </c>
+      <c r="R63" s="2">
+        <f t="shared" si="12"/>
+        <v>4.4409000000000001</v>
+      </c>
+      <c r="T63">
+        <v>135</v>
+      </c>
+      <c r="U63" s="2">
+        <f t="shared" si="13"/>
+        <v>0.78299999999999992</v>
+      </c>
+      <c r="W63">
+        <v>9.6349999999999998</v>
+      </c>
+      <c r="X63">
+        <v>385</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="4"/>
+        <v>39.958484691229891</v>
+      </c>
+      <c r="Z63">
+        <v>7.56</v>
+      </c>
+      <c r="AA63">
+        <v>252</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="5"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="AD63">
+        <v>46</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="6"/>
+        <v>23.589743589743591</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>1.518</v>
+      </c>
+      <c r="AG63">
+        <v>74</v>
+      </c>
+      <c r="AH63">
         <f t="shared" si="7"/>
-        <v>8.89</v>
-      </c>
-      <c r="G63">
-        <v>69</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" si="8"/>
-        <v>1.7664000000000002</v>
-      </c>
-      <c r="J63">
-        <v>104</v>
-      </c>
-      <c r="K63" s="2">
-        <f t="shared" si="9"/>
-        <v>1.3728</v>
-      </c>
-      <c r="M63">
-        <v>113</v>
-      </c>
-      <c r="N63" s="2">
-        <f t="shared" si="10"/>
-        <v>4.4409000000000001</v>
-      </c>
-      <c r="P63">
-        <v>135</v>
-      </c>
-      <c r="Q63" s="2">
-        <f t="shared" si="11"/>
-        <v>0.78299999999999992</v>
-      </c>
-      <c r="S63">
-        <v>9.6349999999999998</v>
-      </c>
-      <c r="T63">
-        <v>385</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="3"/>
-        <v>39.958484691229891</v>
-      </c>
-      <c r="V63">
-        <v>7.56</v>
-      </c>
-      <c r="W63">
-        <v>252</v>
-      </c>
-      <c r="X63">
-        <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="Y63" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="Z63">
-        <v>46</v>
-      </c>
-      <c r="AA63">
-        <f t="shared" si="5"/>
-        <v>23.589743589743591</v>
-      </c>
-      <c r="AB63" s="2">
-        <v>1.518</v>
-      </c>
-      <c r="AC63">
-        <v>74</v>
-      </c>
-      <c r="AD63">
-        <f t="shared" si="6"/>
         <v>48.74835309617918</v>
       </c>
     </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C64" s="16">
         <v>0.27</v>
       </c>
@@ -10323,79 +11283,85 @@
         <v>131</v>
       </c>
       <c r="E64">
+        <f t="shared" si="10"/>
+        <v>9.17</v>
+      </c>
+      <c r="F64" s="30">
+        <v>38</v>
+      </c>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30">
+        <v>339</v>
+      </c>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30">
+        <v>111</v>
+      </c>
+      <c r="N64">
+        <v>102</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3464</v>
+      </c>
+      <c r="Q64">
+        <v>123</v>
+      </c>
+      <c r="R64" s="2">
+        <f t="shared" si="12"/>
+        <v>4.8339000000000008</v>
+      </c>
+      <c r="T64">
+        <v>139</v>
+      </c>
+      <c r="U64" s="2">
+        <f t="shared" si="13"/>
+        <v>0.80619999999999992</v>
+      </c>
+      <c r="W64">
+        <v>9.7119999999999997</v>
+      </c>
+      <c r="X64">
+        <v>381</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="4"/>
+        <v>39.229818780889623</v>
+      </c>
+      <c r="Z64">
+        <v>7.56</v>
+      </c>
+      <c r="AA64">
+        <v>242</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="5"/>
+        <v>32.010582010582013</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="AD64">
+        <v>27</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="6"/>
+        <v>15.083798882681563</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>1.4652000000000001</v>
+      </c>
+      <c r="AG64">
+        <v>73</v>
+      </c>
+      <c r="AH64">
         <f t="shared" si="7"/>
-        <v>9.17</v>
-      </c>
-      <c r="G64">
-        <v>64</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="8"/>
-        <v>1.6384000000000001</v>
-      </c>
-      <c r="J64">
-        <v>102</v>
-      </c>
-      <c r="K64" s="2">
-        <f t="shared" si="9"/>
-        <v>1.3464</v>
-      </c>
-      <c r="M64">
-        <v>123</v>
-      </c>
-      <c r="N64" s="2">
-        <f t="shared" si="10"/>
-        <v>4.8339000000000008</v>
-      </c>
-      <c r="P64">
-        <v>139</v>
-      </c>
-      <c r="Q64" s="2">
-        <f t="shared" si="11"/>
-        <v>0.80619999999999992</v>
-      </c>
-      <c r="S64">
-        <v>9.7119999999999997</v>
-      </c>
-      <c r="T64">
-        <v>381</v>
-      </c>
-      <c r="U64">
-        <f t="shared" si="3"/>
-        <v>39.229818780889623</v>
-      </c>
-      <c r="V64">
-        <v>7.56</v>
-      </c>
-      <c r="W64">
-        <v>242</v>
-      </c>
-      <c r="X64">
-        <f t="shared" si="4"/>
-        <v>32.010582010582013</v>
-      </c>
-      <c r="Y64" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="Z64">
-        <v>27</v>
-      </c>
-      <c r="AA64">
-        <f t="shared" si="5"/>
-        <v>15.083798882681563</v>
-      </c>
-      <c r="AB64" s="2">
-        <v>1.4652000000000001</v>
-      </c>
-      <c r="AC64">
-        <v>73</v>
-      </c>
-      <c r="AD64">
-        <f t="shared" si="6"/>
         <v>49.822549822549817</v>
       </c>
     </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C65" s="16">
         <v>0.28999999999999998</v>
       </c>
@@ -10403,79 +11369,85 @@
         <v>146</v>
       </c>
       <c r="E65">
+        <f t="shared" si="10"/>
+        <v>10.220000000000001</v>
+      </c>
+      <c r="F65" s="30">
+        <v>38</v>
+      </c>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30">
+        <v>357</v>
+      </c>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30">
+        <v>116</v>
+      </c>
+      <c r="N65">
+        <v>115</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" si="11"/>
+        <v>1.518</v>
+      </c>
+      <c r="Q65">
+        <v>140</v>
+      </c>
+      <c r="R65" s="2">
+        <f t="shared" si="12"/>
+        <v>5.5020000000000007</v>
+      </c>
+      <c r="T65">
+        <v>144</v>
+      </c>
+      <c r="U65" s="2">
+        <f t="shared" si="13"/>
+        <v>0.83519999999999994</v>
+      </c>
+      <c r="W65">
+        <v>8.9870000000000001</v>
+      </c>
+      <c r="X65">
+        <v>371</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="4"/>
+        <v>41.281851563369308</v>
+      </c>
+      <c r="Z65">
+        <v>8.19</v>
+      </c>
+      <c r="AA65">
+        <v>240</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="5"/>
+        <v>29.304029304029307</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="AD65">
+        <v>19</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="6"/>
+        <v>11.949685534591195</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>1.3992000000000002</v>
+      </c>
+      <c r="AG65">
+        <v>67</v>
+      </c>
+      <c r="AH65">
         <f t="shared" si="7"/>
-        <v>10.220000000000001</v>
-      </c>
-      <c r="G65">
-        <v>101</v>
-      </c>
-      <c r="H65" s="2">
-        <f t="shared" si="8"/>
-        <v>2.5855999999999999</v>
-      </c>
-      <c r="J65">
-        <v>115</v>
-      </c>
-      <c r="K65" s="2">
-        <f t="shared" si="9"/>
-        <v>1.518</v>
-      </c>
-      <c r="M65">
-        <v>140</v>
-      </c>
-      <c r="N65" s="2">
-        <f t="shared" si="10"/>
-        <v>5.5020000000000007</v>
-      </c>
-      <c r="P65">
-        <v>144</v>
-      </c>
-      <c r="Q65" s="2">
-        <f t="shared" si="11"/>
-        <v>0.83519999999999994</v>
-      </c>
-      <c r="S65">
-        <v>8.9870000000000001</v>
-      </c>
-      <c r="T65">
-        <v>371</v>
-      </c>
-      <c r="U65">
-        <f t="shared" si="3"/>
-        <v>41.281851563369308</v>
-      </c>
-      <c r="V65">
-        <v>8.19</v>
-      </c>
-      <c r="W65">
-        <v>240</v>
-      </c>
-      <c r="X65">
-        <f t="shared" si="4"/>
-        <v>29.304029304029307</v>
-      </c>
-      <c r="Y65" s="2">
-        <v>1.59</v>
-      </c>
-      <c r="Z65">
-        <v>19</v>
-      </c>
-      <c r="AA65">
-        <f t="shared" si="5"/>
-        <v>11.949685534591195</v>
-      </c>
-      <c r="AB65" s="2">
-        <v>1.3992000000000002</v>
-      </c>
-      <c r="AC65">
-        <v>67</v>
-      </c>
-      <c r="AD65">
-        <f t="shared" si="6"/>
         <v>47.884505431675237</v>
       </c>
     </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C66" s="16">
         <v>0.25</v>
       </c>
@@ -10483,79 +11455,85 @@
         <v>173</v>
       </c>
       <c r="E66">
+        <f t="shared" si="10"/>
+        <v>12.11</v>
+      </c>
+      <c r="F66" s="30">
+        <v>37</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30">
+        <v>374</v>
+      </c>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30">
+        <v>121</v>
+      </c>
+      <c r="N66">
+        <v>156</v>
+      </c>
+      <c r="O66" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0592000000000001</v>
+      </c>
+      <c r="Q66">
+        <v>136</v>
+      </c>
+      <c r="R66" s="2">
+        <f t="shared" si="12"/>
+        <v>5.3448000000000002</v>
+      </c>
+      <c r="T66">
+        <v>131</v>
+      </c>
+      <c r="U66" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75979999999999992</v>
+      </c>
+      <c r="W66">
+        <v>113</v>
+      </c>
+      <c r="X66">
+        <v>363</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="4"/>
+        <v>3.2123893805309733</v>
+      </c>
+      <c r="Z66">
+        <v>7</v>
+      </c>
+      <c r="AA66">
+        <v>239</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="5"/>
+        <v>34.142857142857146</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="AD66">
+        <v>20</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="6"/>
+        <v>13.513513513513514</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="AG66">
+        <v>71</v>
+      </c>
+      <c r="AH66">
         <f t="shared" si="7"/>
-        <v>12.11</v>
-      </c>
-      <c r="G66">
-        <v>107</v>
-      </c>
-      <c r="H66" s="2">
-        <f t="shared" si="8"/>
-        <v>2.7392000000000003</v>
-      </c>
-      <c r="J66">
-        <v>156</v>
-      </c>
-      <c r="K66" s="2">
-        <f t="shared" si="9"/>
-        <v>2.0592000000000001</v>
-      </c>
-      <c r="M66">
-        <v>136</v>
-      </c>
-      <c r="N66" s="2">
-        <f t="shared" si="10"/>
-        <v>5.3448000000000002</v>
-      </c>
-      <c r="P66">
-        <v>131</v>
-      </c>
-      <c r="Q66" s="2">
-        <f t="shared" si="11"/>
-        <v>0.75979999999999992</v>
-      </c>
-      <c r="S66">
-        <v>113</v>
-      </c>
-      <c r="T66">
-        <v>363</v>
-      </c>
-      <c r="U66">
-        <f t="shared" si="3"/>
-        <v>3.2123893805309733</v>
-      </c>
-      <c r="V66">
-        <v>7</v>
-      </c>
-      <c r="W66">
-        <v>239</v>
-      </c>
-      <c r="X66">
-        <f t="shared" si="4"/>
-        <v>34.142857142857146</v>
-      </c>
-      <c r="Y66" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="Z66">
-        <v>20</v>
-      </c>
-      <c r="AA66">
-        <f t="shared" si="5"/>
-        <v>13.513513513513514</v>
-      </c>
-      <c r="AB66" s="2">
-        <v>1.32</v>
-      </c>
-      <c r="AC66">
-        <v>71</v>
-      </c>
-      <c r="AD66">
-        <f t="shared" si="6"/>
         <v>53.787878787878782</v>
       </c>
     </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C67" s="16">
         <v>0.2</v>
       </c>
@@ -10563,79 +11541,85 @@
         <v>200</v>
       </c>
       <c r="E67">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="F67" s="30">
+        <v>36</v>
+      </c>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30">
+        <v>392</v>
+      </c>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30">
+        <v>126</v>
+      </c>
+      <c r="N67">
+        <v>149</v>
+      </c>
+      <c r="O67" s="2">
+        <f t="shared" si="11"/>
+        <v>1.9668000000000001</v>
+      </c>
+      <c r="Q67">
+        <v>109</v>
+      </c>
+      <c r="R67" s="2">
+        <f t="shared" si="12"/>
+        <v>4.2836999999999996</v>
+      </c>
+      <c r="T67">
+        <v>137</v>
+      </c>
+      <c r="U67" s="2">
+        <f t="shared" si="13"/>
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="W67" s="3">
+        <v>7.6509999999999998</v>
+      </c>
+      <c r="X67">
+        <v>365</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="4"/>
+        <v>47.706182198405436</v>
+      </c>
+      <c r="Z67" s="3">
+        <v>5.67</v>
+      </c>
+      <c r="AA67">
+        <v>239</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="5"/>
+        <v>42.151675485008816</v>
+      </c>
+      <c r="AC67" s="6">
+        <v>1.36</v>
+      </c>
+      <c r="AD67">
+        <v>19</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="6"/>
+        <v>13.970588235294116</v>
+      </c>
+      <c r="AF67" s="6">
+        <v>1.0824</v>
+      </c>
+      <c r="AG67">
+        <v>72</v>
+      </c>
+      <c r="AH67">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="G67">
-        <v>125</v>
-      </c>
-      <c r="H67" s="2">
-        <f t="shared" si="8"/>
-        <v>3.2</v>
-      </c>
-      <c r="J67">
-        <v>149</v>
-      </c>
-      <c r="K67" s="2">
-        <f t="shared" si="9"/>
-        <v>1.9668000000000001</v>
-      </c>
-      <c r="M67">
-        <v>109</v>
-      </c>
-      <c r="N67" s="2">
-        <f t="shared" si="10"/>
-        <v>4.2836999999999996</v>
-      </c>
-      <c r="P67">
-        <v>137</v>
-      </c>
-      <c r="Q67" s="2">
-        <f t="shared" si="11"/>
-        <v>0.79459999999999997</v>
-      </c>
-      <c r="S67" s="3">
-        <v>7.6509999999999998</v>
-      </c>
-      <c r="T67">
-        <v>365</v>
-      </c>
-      <c r="U67">
-        <f t="shared" si="3"/>
-        <v>47.706182198405436</v>
-      </c>
-      <c r="V67" s="3">
-        <v>5.67</v>
-      </c>
-      <c r="W67">
-        <v>239</v>
-      </c>
-      <c r="X67">
-        <f t="shared" si="4"/>
-        <v>42.151675485008816</v>
-      </c>
-      <c r="Y67" s="6">
-        <v>1.36</v>
-      </c>
-      <c r="Z67">
-        <v>19</v>
-      </c>
-      <c r="AA67">
-        <f t="shared" si="5"/>
-        <v>13.970588235294116</v>
-      </c>
-      <c r="AB67" s="6">
-        <v>1.0824</v>
-      </c>
-      <c r="AC67">
-        <v>72</v>
-      </c>
-      <c r="AD67">
-        <f t="shared" si="6"/>
         <v>66.518847006651882</v>
       </c>
     </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C68" s="16">
         <v>0.26</v>
       </c>
@@ -10643,79 +11627,85 @@
         <v>177</v>
       </c>
       <c r="E68">
+        <f t="shared" si="10"/>
+        <v>12.39</v>
+      </c>
+      <c r="F68" s="30">
+        <v>35</v>
+      </c>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30">
+        <v>410</v>
+      </c>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30">
+        <v>131</v>
+      </c>
+      <c r="N68">
+        <v>155</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0460000000000003</v>
+      </c>
+      <c r="Q68">
+        <v>149</v>
+      </c>
+      <c r="R68" s="2">
+        <f t="shared" si="12"/>
+        <v>5.8557000000000006</v>
+      </c>
+      <c r="T68">
+        <v>138</v>
+      </c>
+      <c r="U68" s="2">
+        <f t="shared" si="13"/>
+        <v>0.80039999999999989</v>
+      </c>
+      <c r="W68">
+        <v>7.5730000000000004</v>
+      </c>
+      <c r="X68">
+        <v>362</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="4"/>
+        <v>47.801399709494255</v>
+      </c>
+      <c r="Z68">
+        <v>7.35</v>
+      </c>
+      <c r="AA68">
+        <v>238</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="5"/>
+        <v>32.38095238095238</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="AD68">
+        <v>18</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="6"/>
+        <v>12.765957446808512</v>
+      </c>
+      <c r="AF68" s="2">
+        <v>1.2012</v>
+      </c>
+      <c r="AG68">
+        <v>65</v>
+      </c>
+      <c r="AH68">
         <f t="shared" si="7"/>
-        <v>12.39</v>
-      </c>
-      <c r="G68">
-        <v>117</v>
-      </c>
-      <c r="H68" s="2">
-        <f t="shared" si="8"/>
-        <v>2.9951999999999996</v>
-      </c>
-      <c r="J68">
-        <v>155</v>
-      </c>
-      <c r="K68" s="2">
-        <f t="shared" si="9"/>
-        <v>2.0460000000000003</v>
-      </c>
-      <c r="M68">
-        <v>149</v>
-      </c>
-      <c r="N68" s="2">
-        <f t="shared" si="10"/>
-        <v>5.8557000000000006</v>
-      </c>
-      <c r="P68">
-        <v>138</v>
-      </c>
-      <c r="Q68" s="2">
-        <f t="shared" si="11"/>
-        <v>0.80039999999999989</v>
-      </c>
-      <c r="S68">
-        <v>7.5730000000000004</v>
-      </c>
-      <c r="T68">
-        <v>362</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="3"/>
-        <v>47.801399709494255</v>
-      </c>
-      <c r="V68">
-        <v>7.35</v>
-      </c>
-      <c r="W68">
-        <v>238</v>
-      </c>
-      <c r="X68">
-        <f t="shared" si="4"/>
-        <v>32.38095238095238</v>
-      </c>
-      <c r="Y68" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="Z68">
-        <v>18</v>
-      </c>
-      <c r="AA68">
-        <f t="shared" si="5"/>
-        <v>12.765957446808512</v>
-      </c>
-      <c r="AB68" s="2">
-        <v>1.2012</v>
-      </c>
-      <c r="AC68">
-        <v>65</v>
-      </c>
-      <c r="AD68">
-        <f t="shared" si="6"/>
         <v>54.112554112554108</v>
       </c>
     </row>
-    <row r="69" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C69" s="16">
         <v>0.21</v>
       </c>
@@ -10723,79 +11713,85 @@
         <v>154</v>
       </c>
       <c r="E69">
+        <f t="shared" si="10"/>
+        <v>10.78</v>
+      </c>
+      <c r="F69" s="30">
+        <v>34</v>
+      </c>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30">
+        <v>427</v>
+      </c>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30">
+        <v>136</v>
+      </c>
+      <c r="N69">
+        <v>148</v>
+      </c>
+      <c r="O69" s="2">
+        <f t="shared" si="11"/>
+        <v>1.9536000000000002</v>
+      </c>
+      <c r="Q69">
+        <v>130</v>
+      </c>
+      <c r="R69" s="2">
+        <f t="shared" si="12"/>
+        <v>5.109</v>
+      </c>
+      <c r="T69">
+        <v>138</v>
+      </c>
+      <c r="U69" s="2">
+        <f t="shared" si="13"/>
+        <v>0.80039999999999989</v>
+      </c>
+      <c r="W69">
+        <v>8.24</v>
+      </c>
+      <c r="X69">
+        <v>348</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="4"/>
+        <v>42.23300970873786</v>
+      </c>
+      <c r="Z69">
+        <v>5.95</v>
+      </c>
+      <c r="AA69">
+        <v>239</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="5"/>
+        <v>40.168067226890756</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="AD69">
+        <v>29</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="6"/>
+        <v>18.589743589743588</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="AG69">
+        <v>68</v>
+      </c>
+      <c r="AH69">
         <f t="shared" si="7"/>
-        <v>10.78</v>
-      </c>
-      <c r="G69">
-        <v>98</v>
-      </c>
-      <c r="H69" s="2">
-        <f t="shared" si="8"/>
-        <v>2.5087999999999999</v>
-      </c>
-      <c r="J69">
-        <v>148</v>
-      </c>
-      <c r="K69" s="2">
-        <f t="shared" si="9"/>
-        <v>1.9536000000000002</v>
-      </c>
-      <c r="M69">
-        <v>130</v>
-      </c>
-      <c r="N69" s="2">
-        <f t="shared" si="10"/>
-        <v>5.109</v>
-      </c>
-      <c r="P69">
-        <v>138</v>
-      </c>
-      <c r="Q69" s="2">
-        <f t="shared" si="11"/>
-        <v>0.80039999999999989</v>
-      </c>
-      <c r="S69">
-        <v>8.24</v>
-      </c>
-      <c r="T69">
-        <v>348</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="3"/>
-        <v>42.23300970873786</v>
-      </c>
-      <c r="V69">
-        <v>5.95</v>
-      </c>
-      <c r="W69">
-        <v>239</v>
-      </c>
-      <c r="X69">
-        <f t="shared" si="4"/>
-        <v>40.168067226890756</v>
-      </c>
-      <c r="Y69" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="Z69">
-        <v>29</v>
-      </c>
-      <c r="AA69">
-        <f t="shared" si="5"/>
-        <v>18.589743589743588</v>
-      </c>
-      <c r="AB69" s="2">
-        <v>1.32</v>
-      </c>
-      <c r="AC69">
-        <v>68</v>
-      </c>
-      <c r="AD69">
-        <f t="shared" si="6"/>
         <v>51.515151515151516</v>
       </c>
     </row>
-    <row r="70" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C70" s="16">
         <v>0.19</v>
       </c>
@@ -10803,79 +11799,85 @@
         <v>185</v>
       </c>
       <c r="E70">
+        <f t="shared" si="10"/>
+        <v>12.95</v>
+      </c>
+      <c r="F70" s="30">
+        <v>33</v>
+      </c>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30">
+        <v>445</v>
+      </c>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30">
+        <v>141</v>
+      </c>
+      <c r="N70">
+        <v>118</v>
+      </c>
+      <c r="O70" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5576000000000001</v>
+      </c>
+      <c r="Q70">
+        <v>141</v>
+      </c>
+      <c r="R70" s="2">
+        <f t="shared" si="12"/>
+        <v>5.5412999999999997</v>
+      </c>
+      <c r="T70">
+        <v>150</v>
+      </c>
+      <c r="U70" s="2">
+        <f t="shared" si="13"/>
+        <v>0.87</v>
+      </c>
+      <c r="W70">
+        <v>8.8149999999999995</v>
+      </c>
+      <c r="X70">
+        <v>335</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="4"/>
+        <v>38.003403289846851</v>
+      </c>
+      <c r="Z70">
+        <v>5.25</v>
+      </c>
+      <c r="AA70">
+        <v>235</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="5"/>
+        <v>44.761904761904759</v>
+      </c>
+      <c r="AC70" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="AD70">
+        <v>28</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="6"/>
+        <v>19.178082191780824</v>
+      </c>
+      <c r="AF70" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="AG70">
+        <v>74</v>
+      </c>
+      <c r="AH70">
         <f t="shared" si="7"/>
-        <v>12.95</v>
-      </c>
-      <c r="G70">
-        <v>84</v>
-      </c>
-      <c r="H70" s="2">
-        <f t="shared" si="8"/>
-        <v>2.1503999999999999</v>
-      </c>
-      <c r="J70">
-        <v>118</v>
-      </c>
-      <c r="K70" s="2">
-        <f t="shared" si="9"/>
-        <v>1.5576000000000001</v>
-      </c>
-      <c r="M70">
-        <v>141</v>
-      </c>
-      <c r="N70" s="2">
-        <f t="shared" si="10"/>
-        <v>5.5412999999999997</v>
-      </c>
-      <c r="P70">
-        <v>150</v>
-      </c>
-      <c r="Q70" s="2">
-        <f t="shared" si="11"/>
-        <v>0.87</v>
-      </c>
-      <c r="S70">
-        <v>8.8149999999999995</v>
-      </c>
-      <c r="T70">
-        <v>335</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="3"/>
-        <v>38.003403289846851</v>
-      </c>
-      <c r="V70">
-        <v>5.25</v>
-      </c>
-      <c r="W70">
-        <v>235</v>
-      </c>
-      <c r="X70">
-        <f t="shared" si="4"/>
-        <v>44.761904761904759</v>
-      </c>
-      <c r="Y70" s="2">
-        <v>1.46</v>
-      </c>
-      <c r="Z70">
-        <v>28</v>
-      </c>
-      <c r="AA70">
-        <f t="shared" si="5"/>
-        <v>19.178082191780824</v>
-      </c>
-      <c r="AB70" s="2">
-        <v>1.32</v>
-      </c>
-      <c r="AC70">
-        <v>74</v>
-      </c>
-      <c r="AD70">
-        <f t="shared" si="6"/>
         <v>56.060606060606055</v>
       </c>
     </row>
-    <row r="71" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C71" s="16">
         <v>0.21</v>
       </c>
@@ -10883,79 +11885,85 @@
         <v>196</v>
       </c>
       <c r="E71">
+        <f t="shared" si="10"/>
+        <v>13.72</v>
+      </c>
+      <c r="F71" s="30">
+        <v>32</v>
+      </c>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30">
+        <v>462</v>
+      </c>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30">
+        <v>146</v>
+      </c>
+      <c r="N71">
+        <v>129</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7028000000000001</v>
+      </c>
+      <c r="Q71">
+        <v>136</v>
+      </c>
+      <c r="R71" s="2">
+        <f t="shared" si="12"/>
+        <v>5.3448000000000002</v>
+      </c>
+      <c r="T71">
+        <v>144</v>
+      </c>
+      <c r="U71" s="2">
+        <f t="shared" si="13"/>
+        <v>0.83519999999999994</v>
+      </c>
+      <c r="W71">
+        <v>9.51</v>
+      </c>
+      <c r="X71">
+        <v>329</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="4"/>
+        <v>34.59516298633018</v>
+      </c>
+      <c r="Z71">
+        <v>5.74</v>
+      </c>
+      <c r="AA71">
+        <v>232</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="5"/>
+        <v>40.418118466898953</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="AD71">
+        <v>28</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="6"/>
+        <v>18.543046357615893</v>
+      </c>
+      <c r="AF71" s="2">
+        <v>1.3068</v>
+      </c>
+      <c r="AG71">
+        <v>73</v>
+      </c>
+      <c r="AH71">
         <f t="shared" si="7"/>
-        <v>13.72</v>
-      </c>
-      <c r="G71">
-        <v>102</v>
-      </c>
-      <c r="H71" s="2">
-        <f t="shared" si="8"/>
-        <v>2.6112000000000002</v>
-      </c>
-      <c r="J71">
-        <v>129</v>
-      </c>
-      <c r="K71" s="2">
-        <f t="shared" si="9"/>
-        <v>1.7028000000000001</v>
-      </c>
-      <c r="M71">
-        <v>136</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" si="10"/>
-        <v>5.3448000000000002</v>
-      </c>
-      <c r="P71">
-        <v>144</v>
-      </c>
-      <c r="Q71" s="2">
-        <f t="shared" si="11"/>
-        <v>0.83519999999999994</v>
-      </c>
-      <c r="S71">
-        <v>9.51</v>
-      </c>
-      <c r="T71">
-        <v>329</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="3"/>
-        <v>34.59516298633018</v>
-      </c>
-      <c r="V71">
-        <v>5.74</v>
-      </c>
-      <c r="W71">
-        <v>232</v>
-      </c>
-      <c r="X71">
-        <f t="shared" si="4"/>
-        <v>40.418118466898953</v>
-      </c>
-      <c r="Y71" s="2">
-        <v>1.51</v>
-      </c>
-      <c r="Z71">
-        <v>28</v>
-      </c>
-      <c r="AA71">
-        <f t="shared" si="5"/>
-        <v>18.543046357615893</v>
-      </c>
-      <c r="AB71" s="2">
-        <v>1.3068</v>
-      </c>
-      <c r="AC71">
-        <v>73</v>
-      </c>
-      <c r="AD71">
-        <f t="shared" si="6"/>
         <v>55.861646770737678</v>
       </c>
     </row>
-    <row r="72" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C72" s="16">
         <v>0.3</v>
       </c>
@@ -10963,79 +11971,85 @@
         <v>312</v>
       </c>
       <c r="E72">
+        <f t="shared" si="10"/>
+        <v>21.84</v>
+      </c>
+      <c r="F72" s="30">
+        <v>31</v>
+      </c>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30">
+        <v>480</v>
+      </c>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30">
+        <v>152</v>
+      </c>
+      <c r="N72">
+        <v>133</v>
+      </c>
+      <c r="O72" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7556</v>
+      </c>
+      <c r="Q72">
+        <v>133</v>
+      </c>
+      <c r="R72" s="2">
+        <f t="shared" si="12"/>
+        <v>5.2269000000000005</v>
+      </c>
+      <c r="T72">
+        <v>150</v>
+      </c>
+      <c r="U72" s="2">
+        <f t="shared" si="13"/>
+        <v>0.87</v>
+      </c>
+      <c r="W72">
+        <v>10.433</v>
+      </c>
+      <c r="X72">
+        <v>328</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="4"/>
+        <v>31.438704111952458</v>
+      </c>
+      <c r="Z72">
+        <v>9.73</v>
+      </c>
+      <c r="AA72">
+        <v>222</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="5"/>
+        <v>22.816032887975332</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="AD72">
+        <v>24</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="6"/>
+        <v>14.457831325301205</v>
+      </c>
+      <c r="AF72" s="2">
+        <v>1.4783999999999999</v>
+      </c>
+      <c r="AG72">
+        <v>71</v>
+      </c>
+      <c r="AH72">
         <f t="shared" si="7"/>
-        <v>21.84</v>
-      </c>
-      <c r="G72">
-        <v>103</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" si="8"/>
-        <v>2.6368</v>
-      </c>
-      <c r="J72">
-        <v>133</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="9"/>
-        <v>1.7556</v>
-      </c>
-      <c r="M72">
-        <v>133</v>
-      </c>
-      <c r="N72" s="2">
-        <f t="shared" si="10"/>
-        <v>5.2269000000000005</v>
-      </c>
-      <c r="P72">
-        <v>150</v>
-      </c>
-      <c r="Q72" s="2">
-        <f t="shared" si="11"/>
-        <v>0.87</v>
-      </c>
-      <c r="S72">
-        <v>10.433</v>
-      </c>
-      <c r="T72">
-        <v>328</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="3"/>
-        <v>31.438704111952458</v>
-      </c>
-      <c r="V72">
-        <v>9.73</v>
-      </c>
-      <c r="W72">
-        <v>222</v>
-      </c>
-      <c r="X72">
-        <f t="shared" si="4"/>
-        <v>22.816032887975332</v>
-      </c>
-      <c r="Y72" s="2">
-        <v>1.66</v>
-      </c>
-      <c r="Z72">
-        <v>24</v>
-      </c>
-      <c r="AA72">
-        <f t="shared" si="5"/>
-        <v>14.457831325301205</v>
-      </c>
-      <c r="AB72" s="2">
-        <v>1.4783999999999999</v>
-      </c>
-      <c r="AC72">
-        <v>71</v>
-      </c>
-      <c r="AD72">
-        <f t="shared" si="6"/>
         <v>48.024891774891778</v>
       </c>
     </row>
-    <row r="73" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C73" s="16">
         <v>0.4</v>
       </c>
@@ -11043,79 +12057,85 @@
         <v>223</v>
       </c>
       <c r="E73">
+        <f t="shared" si="10"/>
+        <v>15.61</v>
+      </c>
+      <c r="F73" s="30">
+        <v>31</v>
+      </c>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30">
+        <v>498</v>
+      </c>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30">
+        <v>157</v>
+      </c>
+      <c r="N73">
+        <v>80</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="11"/>
+        <v>1.056</v>
+      </c>
+      <c r="Q73">
+        <v>147</v>
+      </c>
+      <c r="R73" s="2">
+        <f t="shared" si="12"/>
+        <v>5.7771000000000008</v>
+      </c>
+      <c r="T73">
+        <v>161</v>
+      </c>
+      <c r="U73" s="2">
+        <f t="shared" si="13"/>
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="W73">
+        <v>10.433</v>
+      </c>
+      <c r="X73">
+        <v>330</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="4"/>
+        <v>31.630403527269241</v>
+      </c>
+      <c r="Z73">
+        <v>11.9</v>
+      </c>
+      <c r="AA73">
+        <v>218</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="5"/>
+        <v>18.319327731092436</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="AD73">
+        <v>22</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="6"/>
+        <v>14.569536423841059</v>
+      </c>
+      <c r="AF73" s="2">
+        <v>1.4124000000000001</v>
+      </c>
+      <c r="AG73">
+        <v>70</v>
+      </c>
+      <c r="AH73">
         <f t="shared" si="7"/>
-        <v>15.61</v>
-      </c>
-      <c r="G73">
-        <v>98</v>
-      </c>
-      <c r="H73" s="2">
-        <f t="shared" si="8"/>
-        <v>2.5087999999999999</v>
-      </c>
-      <c r="J73">
-        <v>80</v>
-      </c>
-      <c r="K73" s="2">
-        <f t="shared" si="9"/>
-        <v>1.056</v>
-      </c>
-      <c r="M73">
-        <v>147</v>
-      </c>
-      <c r="N73" s="2">
-        <f t="shared" si="10"/>
-        <v>5.7771000000000008</v>
-      </c>
-      <c r="P73">
-        <v>161</v>
-      </c>
-      <c r="Q73" s="2">
-        <f t="shared" si="11"/>
-        <v>0.93379999999999996</v>
-      </c>
-      <c r="S73">
-        <v>10.433</v>
-      </c>
-      <c r="T73">
-        <v>330</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="3"/>
-        <v>31.630403527269241</v>
-      </c>
-      <c r="V73">
-        <v>11.9</v>
-      </c>
-      <c r="W73">
-        <v>218</v>
-      </c>
-      <c r="X73">
-        <f t="shared" si="4"/>
-        <v>18.319327731092436</v>
-      </c>
-      <c r="Y73" s="2">
-        <v>1.51</v>
-      </c>
-      <c r="Z73">
-        <v>22</v>
-      </c>
-      <c r="AA73">
-        <f t="shared" si="5"/>
-        <v>14.569536423841059</v>
-      </c>
-      <c r="AB73" s="2">
-        <v>1.4124000000000001</v>
-      </c>
-      <c r="AC73">
-        <v>70</v>
-      </c>
-      <c r="AD73">
-        <f t="shared" si="6"/>
         <v>49.561030869442078</v>
       </c>
     </row>
-    <row r="74" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C74" s="16">
         <v>0.35</v>
       </c>
@@ -11123,79 +12143,85 @@
         <v>142</v>
       </c>
       <c r="E74">
+        <f t="shared" si="10"/>
+        <v>9.94</v>
+      </c>
+      <c r="F74" s="30">
+        <v>30</v>
+      </c>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30">
+        <v>515</v>
+      </c>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30">
+        <v>162</v>
+      </c>
+      <c r="N74">
+        <v>132</v>
+      </c>
+      <c r="O74" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7424000000000002</v>
+      </c>
+      <c r="Q74">
+        <v>153</v>
+      </c>
+      <c r="R74" s="2">
+        <f t="shared" si="12"/>
+        <v>6.012900000000001</v>
+      </c>
+      <c r="T74">
+        <v>178</v>
+      </c>
+      <c r="U74" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0324</v>
+      </c>
+      <c r="W74">
+        <v>10.16</v>
+      </c>
+      <c r="X74">
+        <v>336</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="4"/>
+        <v>33.070866141732282</v>
+      </c>
+      <c r="Z74">
+        <v>10.43</v>
+      </c>
+      <c r="AA74">
+        <v>212</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="5"/>
+        <v>20.325982742090126</v>
+      </c>
+      <c r="AC74" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="AD74">
+        <v>16</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="6"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="AF74" s="2">
+        <v>1.3596000000000001</v>
+      </c>
+      <c r="AG74">
+        <v>67</v>
+      </c>
+      <c r="AH74">
         <f t="shared" si="7"/>
-        <v>9.94</v>
-      </c>
-      <c r="G74">
-        <v>76</v>
-      </c>
-      <c r="H74" s="2">
-        <f t="shared" si="8"/>
-        <v>1.9456</v>
-      </c>
-      <c r="J74">
-        <v>132</v>
-      </c>
-      <c r="K74" s="2">
-        <f t="shared" si="9"/>
-        <v>1.7424000000000002</v>
-      </c>
-      <c r="M74">
-        <v>153</v>
-      </c>
-      <c r="N74" s="2">
-        <f t="shared" si="10"/>
-        <v>6.012900000000001</v>
-      </c>
-      <c r="P74">
-        <v>178</v>
-      </c>
-      <c r="Q74" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0324</v>
-      </c>
-      <c r="S74">
-        <v>10.16</v>
-      </c>
-      <c r="T74">
-        <v>336</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="3"/>
-        <v>33.070866141732282</v>
-      </c>
-      <c r="V74">
-        <v>10.43</v>
-      </c>
-      <c r="W74">
-        <v>212</v>
-      </c>
-      <c r="X74">
-        <f t="shared" si="4"/>
-        <v>20.325982742090126</v>
-      </c>
-      <c r="Y74" s="2">
-        <v>1.36</v>
-      </c>
-      <c r="Z74">
-        <v>16</v>
-      </c>
-      <c r="AA74">
-        <f t="shared" si="5"/>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="AB74" s="2">
-        <v>1.3596000000000001</v>
-      </c>
-      <c r="AC74">
-        <v>67</v>
-      </c>
-      <c r="AD74">
-        <f t="shared" si="6"/>
         <v>49.279199764636651</v>
       </c>
     </row>
-    <row r="75" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C75" s="16">
         <v>0.25</v>
       </c>
@@ -11203,79 +12229,85 @@
         <v>162</v>
       </c>
       <c r="E75">
+        <f t="shared" si="10"/>
+        <v>11.34</v>
+      </c>
+      <c r="F75" s="30">
+        <v>29</v>
+      </c>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30">
+        <v>533</v>
+      </c>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30">
+        <v>167</v>
+      </c>
+      <c r="N75">
+        <v>126</v>
+      </c>
+      <c r="O75" s="2">
+        <f t="shared" si="11"/>
+        <v>1.6632000000000002</v>
+      </c>
+      <c r="Q75">
+        <v>150</v>
+      </c>
+      <c r="R75" s="2">
+        <f t="shared" si="12"/>
+        <v>5.8949999999999996</v>
+      </c>
+      <c r="T75">
+        <v>181</v>
+      </c>
+      <c r="U75" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0497999999999998</v>
+      </c>
+      <c r="W75">
+        <v>8.9359999999999999</v>
+      </c>
+      <c r="X75">
+        <v>340</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="4"/>
+        <v>38.048343777976726</v>
+      </c>
+      <c r="Z75">
+        <v>8.61</v>
+      </c>
+      <c r="AA75">
+        <v>211</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="5"/>
+        <v>24.506387921022068</v>
+      </c>
+      <c r="AC75" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="AD75">
+        <v>14</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" si="6"/>
+        <v>10.9375</v>
+      </c>
+      <c r="AF75" s="2">
+        <v>1.4124000000000001</v>
+      </c>
+      <c r="AG75">
+        <v>66</v>
+      </c>
+      <c r="AH75">
         <f t="shared" si="7"/>
-        <v>11.34</v>
-      </c>
-      <c r="G75">
-        <v>77</v>
-      </c>
-      <c r="H75" s="2">
-        <f t="shared" si="8"/>
-        <v>1.9712000000000001</v>
-      </c>
-      <c r="J75">
-        <v>126</v>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" si="9"/>
-        <v>1.6632000000000002</v>
-      </c>
-      <c r="M75">
-        <v>150</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" si="10"/>
-        <v>5.8949999999999996</v>
-      </c>
-      <c r="P75">
-        <v>181</v>
-      </c>
-      <c r="Q75" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0497999999999998</v>
-      </c>
-      <c r="S75">
-        <v>8.9359999999999999</v>
-      </c>
-      <c r="T75">
-        <v>340</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="3"/>
-        <v>38.048343777976726</v>
-      </c>
-      <c r="V75">
-        <v>8.61</v>
-      </c>
-      <c r="W75">
-        <v>211</v>
-      </c>
-      <c r="X75">
-        <f t="shared" si="4"/>
-        <v>24.506387921022068</v>
-      </c>
-      <c r="Y75" s="2">
-        <v>1.28</v>
-      </c>
-      <c r="Z75">
-        <v>14</v>
-      </c>
-      <c r="AA75">
-        <f t="shared" si="5"/>
-        <v>10.9375</v>
-      </c>
-      <c r="AB75" s="2">
-        <v>1.4124000000000001</v>
-      </c>
-      <c r="AC75">
-        <v>66</v>
-      </c>
-      <c r="AD75">
-        <f t="shared" si="6"/>
         <v>46.728971962616818</v>
       </c>
     </row>
-    <row r="76" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C76" s="16">
         <v>0.2</v>
       </c>
@@ -11283,79 +12315,85 @@
         <v>163</v>
       </c>
       <c r="E76">
+        <f t="shared" si="10"/>
+        <v>11.41</v>
+      </c>
+      <c r="F76" s="30">
+        <v>28</v>
+      </c>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30">
+        <v>550</v>
+      </c>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30">
+        <v>172</v>
+      </c>
+      <c r="N76">
+        <v>122</v>
+      </c>
+      <c r="O76" s="2">
+        <f t="shared" si="11"/>
+        <v>1.6104000000000003</v>
+      </c>
+      <c r="Q76">
+        <v>155</v>
+      </c>
+      <c r="R76" s="2">
+        <f t="shared" si="12"/>
+        <v>6.0914999999999999</v>
+      </c>
+      <c r="T76">
+        <v>193</v>
+      </c>
+      <c r="U76" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1194</v>
+      </c>
+      <c r="W76">
+        <v>7.4989999999999997</v>
+      </c>
+      <c r="X76">
+        <v>329</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="4"/>
+        <v>43.872516335511406</v>
+      </c>
+      <c r="Z76">
+        <v>7.14</v>
+      </c>
+      <c r="AA76">
+        <v>208</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="5"/>
+        <v>29.131652661064425</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" si="6"/>
+        <v>7.8125</v>
+      </c>
+      <c r="AF76" s="2">
+        <v>1.3596000000000001</v>
+      </c>
+      <c r="AG76">
+        <v>69</v>
+      </c>
+      <c r="AH76">
         <f t="shared" si="7"/>
-        <v>11.41</v>
-      </c>
-      <c r="G76">
-        <v>79</v>
-      </c>
-      <c r="H76" s="2">
-        <f t="shared" si="8"/>
-        <v>2.0224000000000002</v>
-      </c>
-      <c r="J76">
-        <v>122</v>
-      </c>
-      <c r="K76" s="2">
-        <f t="shared" si="9"/>
-        <v>1.6104000000000003</v>
-      </c>
-      <c r="M76">
-        <v>155</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" si="10"/>
-        <v>6.0914999999999999</v>
-      </c>
-      <c r="P76">
-        <v>193</v>
-      </c>
-      <c r="Q76" s="2">
-        <f t="shared" si="11"/>
-        <v>1.1194</v>
-      </c>
-      <c r="S76">
-        <v>7.4989999999999997</v>
-      </c>
-      <c r="T76">
-        <v>329</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="3"/>
-        <v>43.872516335511406</v>
-      </c>
-      <c r="V76">
-        <v>7.14</v>
-      </c>
-      <c r="W76">
-        <v>208</v>
-      </c>
-      <c r="X76">
-        <f t="shared" si="4"/>
-        <v>29.131652661064425</v>
-      </c>
-      <c r="Y76" s="2">
-        <v>1.28</v>
-      </c>
-      <c r="Z76">
-        <v>10</v>
-      </c>
-      <c r="AA76">
-        <f t="shared" si="5"/>
-        <v>7.8125</v>
-      </c>
-      <c r="AB76" s="2">
-        <v>1.3596000000000001</v>
-      </c>
-      <c r="AC76">
-        <v>69</v>
-      </c>
-      <c r="AD76">
-        <f t="shared" si="6"/>
         <v>50.750220653133269</v>
       </c>
     </row>
-    <row r="77" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C77" s="16">
         <v>0.22</v>
       </c>
@@ -11363,79 +12401,85 @@
         <v>277</v>
       </c>
       <c r="E77">
+        <f t="shared" si="10"/>
+        <v>19.39</v>
+      </c>
+      <c r="F77" s="30">
+        <v>27</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30">
+        <v>568</v>
+      </c>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30">
+        <v>177</v>
+      </c>
+      <c r="N77">
+        <v>131</v>
+      </c>
+      <c r="O77" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7292000000000001</v>
+      </c>
+      <c r="Q77">
+        <v>126</v>
+      </c>
+      <c r="R77" s="2">
+        <f t="shared" si="12"/>
+        <v>4.9518000000000004</v>
+      </c>
+      <c r="T77">
+        <v>148</v>
+      </c>
+      <c r="U77" s="2">
+        <f t="shared" si="13"/>
+        <v>0.85839999999999994</v>
+      </c>
+      <c r="W77" s="3">
+        <v>7.8070000000000004</v>
+      </c>
+      <c r="X77">
+        <v>318</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="4"/>
+        <v>40.732675803765851</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>7.63</v>
+      </c>
+      <c r="AA77">
+        <v>206</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="5"/>
+        <v>26.998689384010486</v>
+      </c>
+      <c r="AC77" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="AD77">
+        <v>11</v>
+      </c>
+      <c r="AE77">
+        <f t="shared" si="6"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="AF77" s="6">
+        <v>1.2804</v>
+      </c>
+      <c r="AG77">
+        <v>69</v>
+      </c>
+      <c r="AH77">
         <f t="shared" si="7"/>
-        <v>19.39</v>
-      </c>
-      <c r="G77">
-        <v>89</v>
-      </c>
-      <c r="H77" s="2">
-        <f t="shared" si="8"/>
-        <v>2.2784</v>
-      </c>
-      <c r="J77">
-        <v>131</v>
-      </c>
-      <c r="K77" s="2">
-        <f t="shared" si="9"/>
-        <v>1.7292000000000001</v>
-      </c>
-      <c r="M77">
-        <v>126</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" si="10"/>
-        <v>4.9518000000000004</v>
-      </c>
-      <c r="P77">
-        <v>148</v>
-      </c>
-      <c r="Q77" s="2">
-        <f t="shared" si="11"/>
-        <v>0.85839999999999994</v>
-      </c>
-      <c r="S77" s="3">
-        <v>7.8070000000000004</v>
-      </c>
-      <c r="T77">
-        <v>318</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="3"/>
-        <v>40.732675803765851</v>
-      </c>
-      <c r="V77" s="3">
-        <v>7.63</v>
-      </c>
-      <c r="W77">
-        <v>206</v>
-      </c>
-      <c r="X77">
-        <f t="shared" si="4"/>
-        <v>26.998689384010486</v>
-      </c>
-      <c r="Y77" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="Z77">
-        <v>11</v>
-      </c>
-      <c r="AA77">
-        <f t="shared" si="5"/>
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="AB77" s="6">
-        <v>1.2804</v>
-      </c>
-      <c r="AC77">
-        <v>69</v>
-      </c>
-      <c r="AD77">
-        <f t="shared" si="6"/>
         <v>53.88940955951265</v>
       </c>
     </row>
-    <row r="78" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C78" s="16">
         <v>0.19</v>
       </c>
@@ -11443,79 +12487,85 @@
         <v>208</v>
       </c>
       <c r="E78">
+        <f t="shared" si="10"/>
+        <v>14.56</v>
+      </c>
+      <c r="F78" s="30">
+        <v>26</v>
+      </c>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30">
+        <v>586</v>
+      </c>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30">
+        <v>182</v>
+      </c>
+      <c r="N78">
+        <v>122</v>
+      </c>
+      <c r="O78" s="2">
+        <f t="shared" si="11"/>
+        <v>1.6104000000000003</v>
+      </c>
+      <c r="Q78">
+        <v>121</v>
+      </c>
+      <c r="R78" s="2">
+        <f t="shared" si="12"/>
+        <v>4.7553000000000001</v>
+      </c>
+      <c r="T78">
+        <v>164</v>
+      </c>
+      <c r="U78" s="2">
+        <f t="shared" si="13"/>
+        <v>0.95119999999999993</v>
+      </c>
+      <c r="W78">
+        <v>8.1630000000000003</v>
+      </c>
+      <c r="X78">
+        <v>313</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="4"/>
+        <v>38.343746171750581</v>
+      </c>
+      <c r="Z78">
+        <v>7.77</v>
+      </c>
+      <c r="AA78">
+        <v>199</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="5"/>
+        <v>25.611325611325611</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="AD78">
+        <v>13</v>
+      </c>
+      <c r="AE78">
+        <f t="shared" si="6"/>
+        <v>7.9268292682926838</v>
+      </c>
+      <c r="AF78" s="2">
+        <v>1.2936000000000001</v>
+      </c>
+      <c r="AG78">
+        <v>68</v>
+      </c>
+      <c r="AH78">
         <f t="shared" si="7"/>
-        <v>14.56</v>
-      </c>
-      <c r="G78">
-        <v>72</v>
-      </c>
-      <c r="H78" s="2">
-        <f t="shared" si="8"/>
-        <v>1.8431999999999999</v>
-      </c>
-      <c r="J78">
-        <v>122</v>
-      </c>
-      <c r="K78" s="2">
-        <f t="shared" si="9"/>
-        <v>1.6104000000000003</v>
-      </c>
-      <c r="M78">
-        <v>121</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" si="10"/>
-        <v>4.7553000000000001</v>
-      </c>
-      <c r="P78">
-        <v>164</v>
-      </c>
-      <c r="Q78" s="2">
-        <f t="shared" si="11"/>
-        <v>0.95119999999999993</v>
-      </c>
-      <c r="S78">
-        <v>8.1630000000000003</v>
-      </c>
-      <c r="T78">
-        <v>313</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="3"/>
-        <v>38.343746171750581</v>
-      </c>
-      <c r="V78">
-        <v>7.77</v>
-      </c>
-      <c r="W78">
-        <v>199</v>
-      </c>
-      <c r="X78">
-        <f t="shared" si="4"/>
-        <v>25.611325611325611</v>
-      </c>
-      <c r="Y78" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="Z78">
-        <v>13</v>
-      </c>
-      <c r="AA78">
-        <f t="shared" si="5"/>
-        <v>7.9268292682926838</v>
-      </c>
-      <c r="AB78" s="2">
-        <v>1.2936000000000001</v>
-      </c>
-      <c r="AC78">
-        <v>68</v>
-      </c>
-      <c r="AD78">
-        <f t="shared" si="6"/>
         <v>52.566481137909705</v>
       </c>
     </row>
-    <row r="79" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C79" s="16">
         <v>0.16</v>
       </c>
@@ -11523,79 +12573,85 @@
         <v>285</v>
       </c>
       <c r="E79">
+        <f t="shared" si="10"/>
+        <v>19.95</v>
+      </c>
+      <c r="F79" s="30">
+        <v>25</v>
+      </c>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30">
+        <v>603</v>
+      </c>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30">
+        <v>187</v>
+      </c>
+      <c r="N79">
+        <v>118</v>
+      </c>
+      <c r="O79" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5576000000000001</v>
+      </c>
+      <c r="Q79">
+        <v>113</v>
+      </c>
+      <c r="R79" s="2">
+        <f t="shared" si="12"/>
+        <v>4.4409000000000001</v>
+      </c>
+      <c r="T79">
+        <v>183</v>
+      </c>
+      <c r="U79" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0613999999999999</v>
+      </c>
+      <c r="W79">
+        <v>8.0850000000000009</v>
+      </c>
+      <c r="X79">
+        <v>313</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="4"/>
+        <v>38.713667285095852</v>
+      </c>
+      <c r="Z79">
+        <v>6.37</v>
+      </c>
+      <c r="AA79">
+        <v>195</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="5"/>
+        <v>30.612244897959183</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="AD79">
+        <v>15</v>
+      </c>
+      <c r="AE79">
+        <f t="shared" si="6"/>
+        <v>10.48951048951049</v>
+      </c>
+      <c r="AF79" s="2">
+        <v>1.4256</v>
+      </c>
+      <c r="AG79">
+        <v>63</v>
+      </c>
+      <c r="AH79">
         <f t="shared" si="7"/>
-        <v>19.95</v>
-      </c>
-      <c r="G79">
-        <v>90</v>
-      </c>
-      <c r="H79" s="2">
-        <f t="shared" si="8"/>
-        <v>2.3040000000000003</v>
-      </c>
-      <c r="J79">
-        <v>118</v>
-      </c>
-      <c r="K79" s="2">
-        <f t="shared" si="9"/>
-        <v>1.5576000000000001</v>
-      </c>
-      <c r="M79">
-        <v>113</v>
-      </c>
-      <c r="N79" s="2">
-        <f t="shared" si="10"/>
-        <v>4.4409000000000001</v>
-      </c>
-      <c r="P79">
-        <v>183</v>
-      </c>
-      <c r="Q79" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0613999999999999</v>
-      </c>
-      <c r="S79">
-        <v>8.0850000000000009</v>
-      </c>
-      <c r="T79">
-        <v>313</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="3"/>
-        <v>38.713667285095852</v>
-      </c>
-      <c r="V79">
-        <v>6.37</v>
-      </c>
-      <c r="W79">
-        <v>195</v>
-      </c>
-      <c r="X79">
-        <f t="shared" si="4"/>
-        <v>30.612244897959183</v>
-      </c>
-      <c r="Y79" s="2">
-        <v>1.43</v>
-      </c>
-      <c r="Z79">
-        <v>15</v>
-      </c>
-      <c r="AA79">
-        <f t="shared" si="5"/>
-        <v>10.48951048951049</v>
-      </c>
-      <c r="AB79" s="2">
-        <v>1.4256</v>
-      </c>
-      <c r="AC79">
-        <v>63</v>
-      </c>
-      <c r="AD79">
-        <f t="shared" si="6"/>
         <v>44.19191919191919</v>
       </c>
     </row>
-    <row r="80" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C80" s="16">
         <v>0.17</v>
       </c>
@@ -11603,79 +12659,85 @@
         <v>142</v>
       </c>
       <c r="E80">
+        <f t="shared" si="10"/>
+        <v>9.94</v>
+      </c>
+      <c r="F80" s="30">
+        <v>24</v>
+      </c>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30">
+        <v>621</v>
+      </c>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30">
+        <v>192</v>
+      </c>
+      <c r="N80">
+        <v>114</v>
+      </c>
+      <c r="O80" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5048000000000001</v>
+      </c>
+      <c r="Q80">
+        <v>129</v>
+      </c>
+      <c r="R80" s="2">
+        <f t="shared" si="12"/>
+        <v>5.0697000000000001</v>
+      </c>
+      <c r="T80">
+        <v>176</v>
+      </c>
+      <c r="U80" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0207999999999999</v>
+      </c>
+      <c r="W80">
+        <v>8.0850000000000009</v>
+      </c>
+      <c r="X80">
+        <v>301</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="4"/>
+        <v>37.229437229437224</v>
+      </c>
+      <c r="Z80">
+        <v>6.86</v>
+      </c>
+      <c r="AA80">
+        <v>194</v>
+      </c>
+      <c r="AB80">
+        <f t="shared" si="5"/>
+        <v>28.279883381924197</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="AD80">
+        <v>15</v>
+      </c>
+      <c r="AE80">
+        <f t="shared" si="6"/>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="AF80" s="2">
+        <v>1.3331999999999999</v>
+      </c>
+      <c r="AG80">
+        <v>67</v>
+      </c>
+      <c r="AH80">
         <f t="shared" si="7"/>
-        <v>9.94</v>
-      </c>
-      <c r="G80">
-        <v>76</v>
-      </c>
-      <c r="H80" s="2">
-        <f t="shared" si="8"/>
-        <v>1.9456</v>
-      </c>
-      <c r="J80">
-        <v>114</v>
-      </c>
-      <c r="K80" s="2">
-        <f t="shared" si="9"/>
-        <v>1.5048000000000001</v>
-      </c>
-      <c r="M80">
-        <v>129</v>
-      </c>
-      <c r="N80" s="2">
-        <f t="shared" si="10"/>
-        <v>5.0697000000000001</v>
-      </c>
-      <c r="P80">
-        <v>176</v>
-      </c>
-      <c r="Q80" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0207999999999999</v>
-      </c>
-      <c r="S80">
-        <v>8.0850000000000009</v>
-      </c>
-      <c r="T80">
-        <v>301</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="3"/>
-        <v>37.229437229437224</v>
-      </c>
-      <c r="V80">
-        <v>6.86</v>
-      </c>
-      <c r="W80">
-        <v>194</v>
-      </c>
-      <c r="X80">
-        <f t="shared" si="4"/>
-        <v>28.279883381924197</v>
-      </c>
-      <c r="Y80" s="2">
-        <v>1.38</v>
-      </c>
-      <c r="Z80">
-        <v>15</v>
-      </c>
-      <c r="AA80">
-        <f t="shared" si="5"/>
-        <v>10.869565217391305</v>
-      </c>
-      <c r="AB80" s="2">
-        <v>1.3331999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>67</v>
-      </c>
-      <c r="AD80">
-        <f t="shared" si="6"/>
         <v>50.255025502550261</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C81" s="16">
         <v>0.23</v>
       </c>
@@ -11683,798 +12745,671 @@
         <v>108</v>
       </c>
       <c r="E81">
+        <f t="shared" si="10"/>
+        <v>7.56</v>
+      </c>
+      <c r="F81" s="30">
+        <v>24</v>
+      </c>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30">
+        <v>639</v>
+      </c>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30">
+        <v>197</v>
+      </c>
+      <c r="N81">
+        <v>113</v>
+      </c>
+      <c r="O81" s="2">
+        <f t="shared" si="11"/>
+        <v>1.4916</v>
+      </c>
+      <c r="Q81">
+        <v>114</v>
+      </c>
+      <c r="R81" s="2">
+        <f t="shared" si="12"/>
+        <v>4.4802</v>
+      </c>
+      <c r="T81">
+        <v>217</v>
+      </c>
+      <c r="U81" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2585999999999999</v>
+      </c>
+      <c r="W81">
+        <v>8.3629999999999995</v>
+      </c>
+      <c r="X81">
+        <v>293</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="4"/>
+        <v>35.035274423053927</v>
+      </c>
+      <c r="Z81">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="AA81">
+        <v>191</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" si="5"/>
+        <v>21.151716500553711</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="AD81">
+        <v>15</v>
+      </c>
+      <c r="AE81">
+        <f t="shared" si="6"/>
+        <v>10.48951048951049</v>
+      </c>
+      <c r="AF81" s="2">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="AG81">
+        <v>69</v>
+      </c>
+      <c r="AH81">
         <f t="shared" si="7"/>
-        <v>7.56</v>
-      </c>
-      <c r="G81">
-        <v>83</v>
-      </c>
-      <c r="H81" s="2">
-        <f t="shared" si="8"/>
-        <v>2.1248</v>
-      </c>
-      <c r="J81">
-        <v>113</v>
-      </c>
-      <c r="K81" s="2">
-        <f t="shared" si="9"/>
-        <v>1.4916</v>
-      </c>
-      <c r="M81">
-        <v>114</v>
-      </c>
-      <c r="N81" s="2">
-        <f t="shared" si="10"/>
-        <v>4.4802</v>
-      </c>
-      <c r="P81">
-        <v>217</v>
-      </c>
-      <c r="Q81" s="2">
-        <f t="shared" si="11"/>
-        <v>1.2585999999999999</v>
-      </c>
-      <c r="S81">
-        <v>8.3629999999999995</v>
-      </c>
-      <c r="T81">
-        <v>293</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="3"/>
-        <v>35.035274423053927</v>
-      </c>
-      <c r="V81">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="W81">
-        <v>191</v>
-      </c>
-      <c r="X81">
-        <f t="shared" si="4"/>
-        <v>21.151716500553711</v>
-      </c>
-      <c r="Y81" s="2">
-        <v>1.43</v>
-      </c>
-      <c r="Z81">
-        <v>15</v>
-      </c>
-      <c r="AA81">
-        <f t="shared" si="5"/>
-        <v>10.48951048951049</v>
-      </c>
-      <c r="AB81" s="2">
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="AC81">
-        <v>69</v>
-      </c>
-      <c r="AD81">
-        <f t="shared" si="6"/>
         <v>49.783549783549788</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D82">
         <v>108</v>
       </c>
       <c r="E82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.56</v>
       </c>
-      <c r="G82">
-        <v>76</v>
-      </c>
-      <c r="H82" s="2">
-        <f t="shared" si="8"/>
-        <v>1.9456</v>
-      </c>
-      <c r="J82">
+      <c r="N82">
         <v>115</v>
       </c>
-      <c r="K82" s="2">
-        <f t="shared" si="9"/>
+      <c r="O82" s="2">
+        <f t="shared" si="11"/>
         <v>1.518</v>
       </c>
-      <c r="M82">
+      <c r="Q82">
         <v>114</v>
       </c>
-      <c r="N82" s="2">
-        <f t="shared" si="10"/>
+      <c r="R82" s="2">
+        <f t="shared" si="12"/>
         <v>4.4802</v>
       </c>
-      <c r="P82">
+      <c r="T82">
         <v>215</v>
       </c>
-      <c r="Q82" s="2">
-        <f t="shared" si="11"/>
+      <c r="U82" s="2">
+        <f t="shared" si="13"/>
         <v>1.2469999999999999</v>
       </c>
-      <c r="U82">
-        <f>AVERAGE(U28:U81)</f>
+      <c r="Y82">
+        <f>AVERAGE(Y28:Y81)</f>
         <v>50.572457793911262</v>
       </c>
-      <c r="X82">
-        <f>AVERAGE(X29:X46)</f>
+      <c r="AB82">
+        <f>AVERAGE(AB29:AB46)</f>
         <v>23.735172003618775</v>
       </c>
-      <c r="AA82">
-        <f>AVERAGE(AA33:AA48)</f>
+      <c r="AE82">
+        <f>AVERAGE(AE33:AE48)</f>
         <v>56.666509791921257</v>
       </c>
-      <c r="AD82">
-        <f>AVERAGE(AD33:AD48)</f>
+      <c r="AH82">
+        <f>AVERAGE(AH33:AH48)</f>
         <v>48.933276742663004</v>
       </c>
     </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D83">
         <v>108</v>
       </c>
       <c r="E83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.56</v>
       </c>
-      <c r="G83">
-        <v>70</v>
-      </c>
-      <c r="H83" s="2">
-        <f t="shared" si="8"/>
-        <v>1.7920000000000003</v>
-      </c>
-      <c r="J83">
+      <c r="N83">
         <v>111</v>
       </c>
-      <c r="K83" s="2">
-        <f t="shared" si="9"/>
+      <c r="O83" s="2">
+        <f t="shared" si="11"/>
         <v>1.4652000000000001</v>
       </c>
-      <c r="M83">
+      <c r="Q83">
         <v>110</v>
       </c>
-      <c r="N83" s="2">
-        <f t="shared" si="10"/>
+      <c r="R83" s="2">
+        <f t="shared" si="12"/>
         <v>4.3230000000000004</v>
       </c>
-      <c r="P83">
+      <c r="T83">
         <v>215</v>
       </c>
-      <c r="Q83" s="2">
-        <f t="shared" si="11"/>
+      <c r="U83" s="2">
+        <f t="shared" si="13"/>
         <v>1.2469999999999999</v>
       </c>
-      <c r="U83">
-        <f>AVERAGE(U29:U53)</f>
+      <c r="Y83">
+        <f>AVERAGE(Y29:Y53)</f>
         <v>64.262267447157114</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D84">
         <v>117</v>
       </c>
       <c r="E84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.19</v>
       </c>
-      <c r="G84">
-        <v>62</v>
-      </c>
-      <c r="H84" s="2">
-        <f t="shared" si="8"/>
-        <v>1.5871999999999999</v>
-      </c>
-      <c r="J84">
+      <c r="N84">
         <v>106</v>
       </c>
-      <c r="K84" s="2">
-        <f t="shared" si="9"/>
+      <c r="O84" s="2">
+        <f t="shared" si="11"/>
         <v>1.3992000000000002</v>
       </c>
-      <c r="M84">
+      <c r="Q84">
         <v>105</v>
       </c>
-      <c r="N84" s="2">
-        <f t="shared" si="10"/>
+      <c r="R84" s="2">
+        <f t="shared" si="12"/>
         <v>4.1265000000000001</v>
       </c>
-      <c r="P84">
+      <c r="T84">
         <v>211</v>
       </c>
-      <c r="Q84" s="2">
-        <f t="shared" si="11"/>
+      <c r="U84" s="2">
+        <f t="shared" si="13"/>
         <v>1.2238</v>
       </c>
     </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D85">
         <v>100</v>
       </c>
       <c r="E85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="G85">
-        <v>58</v>
-      </c>
-      <c r="H85" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4847999999999999</v>
-      </c>
-      <c r="J85">
+      <c r="N85">
         <v>100</v>
       </c>
-      <c r="K85" s="2">
-        <f t="shared" si="9"/>
+      <c r="O85" s="2">
+        <f t="shared" si="11"/>
         <v>1.32</v>
       </c>
-      <c r="M85">
+      <c r="Q85">
         <v>91</v>
       </c>
-      <c r="N85" s="2">
-        <f t="shared" si="10"/>
+      <c r="R85" s="2">
+        <f t="shared" si="12"/>
         <v>3.5762999999999998</v>
       </c>
-      <c r="P85">
+      <c r="T85">
         <v>203</v>
       </c>
-      <c r="Q85" s="2">
-        <f t="shared" si="11"/>
+      <c r="U85" s="2">
+        <f t="shared" si="13"/>
         <v>1.1774</v>
       </c>
     </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D86">
         <v>81</v>
       </c>
       <c r="E86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.67</v>
       </c>
-      <c r="G86">
-        <v>53</v>
-      </c>
-      <c r="H86" s="2">
-        <f t="shared" si="8"/>
-        <v>1.3568</v>
-      </c>
-      <c r="J86">
+      <c r="N86">
         <v>82</v>
       </c>
-      <c r="K86" s="2">
-        <f t="shared" si="9"/>
+      <c r="O86" s="2">
+        <f t="shared" si="11"/>
         <v>1.0824</v>
       </c>
-      <c r="M86">
+      <c r="Q86">
         <v>88</v>
       </c>
-      <c r="N86" s="2">
-        <f t="shared" si="10"/>
+      <c r="R86" s="2">
+        <f t="shared" si="12"/>
         <v>3.4584000000000001</v>
       </c>
-      <c r="P86">
+      <c r="T86">
         <v>193</v>
       </c>
-      <c r="Q86" s="2">
-        <f t="shared" si="11"/>
+      <c r="U86" s="2">
+        <f t="shared" si="13"/>
         <v>1.1194</v>
       </c>
     </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D87">
         <v>105</v>
       </c>
       <c r="E87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.35</v>
       </c>
-      <c r="G87">
-        <v>55</v>
-      </c>
-      <c r="H87" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4080000000000001</v>
-      </c>
-      <c r="J87">
+      <c r="N87">
         <v>91</v>
       </c>
-      <c r="K87" s="2">
-        <f t="shared" si="9"/>
+      <c r="O87" s="2">
+        <f t="shared" si="11"/>
         <v>1.2012</v>
       </c>
-      <c r="M87">
+      <c r="Q87">
         <v>96</v>
       </c>
-      <c r="N87" s="2">
-        <f t="shared" si="10"/>
+      <c r="R87" s="2">
+        <f t="shared" si="12"/>
         <v>3.7728000000000002</v>
       </c>
-      <c r="P87">
+      <c r="T87">
         <v>193</v>
       </c>
-      <c r="Q87" s="2">
-        <f t="shared" si="11"/>
+      <c r="U87" s="2">
+        <f t="shared" si="13"/>
         <v>1.1194</v>
       </c>
     </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D88">
         <v>85</v>
       </c>
       <c r="E88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.95</v>
       </c>
-      <c r="G88">
-        <v>61</v>
-      </c>
-      <c r="H88" s="2">
-        <f t="shared" si="8"/>
-        <v>1.5615999999999999</v>
-      </c>
-      <c r="J88">
+      <c r="N88">
         <v>100</v>
       </c>
-      <c r="K88" s="2">
-        <f t="shared" si="9"/>
+      <c r="O88" s="2">
+        <f t="shared" si="11"/>
         <v>1.32</v>
       </c>
-      <c r="M88">
+      <c r="Q88">
         <v>95</v>
       </c>
-      <c r="N88" s="2">
-        <f t="shared" si="10"/>
+      <c r="R88" s="2">
+        <f t="shared" si="12"/>
         <v>3.7335000000000003</v>
       </c>
-      <c r="P88">
+      <c r="T88">
         <v>193</v>
       </c>
-      <c r="Q88" s="2">
-        <f t="shared" si="11"/>
+      <c r="U88" s="2">
+        <f t="shared" si="13"/>
         <v>1.1194</v>
       </c>
     </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D89">
         <v>75</v>
       </c>
       <c r="E89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.25</v>
       </c>
-      <c r="G89">
-        <v>57</v>
-      </c>
-      <c r="H89" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4592000000000001</v>
-      </c>
-      <c r="J89">
+      <c r="N89">
         <v>100</v>
       </c>
-      <c r="K89" s="2">
-        <f t="shared" si="9"/>
+      <c r="O89" s="2">
+        <f t="shared" si="11"/>
         <v>1.32</v>
       </c>
-      <c r="M89">
+      <c r="Q89">
         <v>101</v>
       </c>
-      <c r="N89" s="2">
-        <f t="shared" si="10"/>
+      <c r="R89" s="2">
+        <f t="shared" si="12"/>
         <v>3.9693000000000001</v>
       </c>
-      <c r="P89">
+      <c r="T89">
         <v>193</v>
       </c>
-      <c r="Q89" s="2">
-        <f t="shared" si="11"/>
+      <c r="U89" s="2">
+        <f t="shared" si="13"/>
         <v>1.1194</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D90">
         <v>82</v>
       </c>
       <c r="E90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.74</v>
       </c>
-      <c r="G90">
-        <v>59</v>
-      </c>
-      <c r="H90" s="2">
-        <f t="shared" si="8"/>
-        <v>1.5104</v>
-      </c>
-      <c r="J90">
+      <c r="N90">
         <v>99</v>
       </c>
-      <c r="K90" s="2">
-        <f t="shared" si="9"/>
+      <c r="O90" s="2">
+        <f t="shared" si="11"/>
         <v>1.3068</v>
       </c>
-      <c r="M90">
+      <c r="Q90">
         <v>91</v>
       </c>
-      <c r="N90" s="2">
-        <f t="shared" si="10"/>
+      <c r="R90" s="2">
+        <f t="shared" si="12"/>
         <v>3.5762999999999998</v>
       </c>
-      <c r="P90">
+      <c r="T90">
         <v>229</v>
       </c>
-      <c r="Q90" s="2">
-        <f t="shared" si="11"/>
+      <c r="U90" s="2">
+        <f t="shared" si="13"/>
         <v>1.3281999999999998</v>
       </c>
     </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D91">
         <v>139</v>
       </c>
       <c r="E91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.73</v>
       </c>
-      <c r="G91">
-        <v>65</v>
-      </c>
-      <c r="H91" s="2">
-        <f t="shared" si="8"/>
-        <v>1.6640000000000001</v>
-      </c>
-      <c r="J91">
+      <c r="N91">
         <v>112</v>
       </c>
-      <c r="K91" s="2">
-        <f t="shared" si="9"/>
+      <c r="O91" s="2">
+        <f t="shared" si="11"/>
         <v>1.4783999999999999</v>
       </c>
-      <c r="M91">
+      <c r="Q91">
         <v>109</v>
       </c>
-      <c r="N91" s="2">
-        <f t="shared" si="10"/>
+      <c r="R91" s="2">
+        <f t="shared" si="12"/>
         <v>4.2836999999999996</v>
       </c>
-      <c r="P91">
+      <c r="T91">
         <v>229</v>
       </c>
-      <c r="Q91" s="2">
-        <f t="shared" si="11"/>
+      <c r="U91" s="2">
+        <f t="shared" si="13"/>
         <v>1.3281999999999998</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D92">
         <v>170</v>
       </c>
       <c r="E92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11.9</v>
       </c>
-      <c r="G92">
-        <v>59</v>
-      </c>
-      <c r="H92" s="2">
-        <f t="shared" si="8"/>
-        <v>1.5104</v>
-      </c>
-      <c r="J92">
+      <c r="N92">
         <v>107</v>
       </c>
-      <c r="K92" s="2">
-        <f t="shared" si="9"/>
+      <c r="O92" s="2">
+        <f t="shared" si="11"/>
         <v>1.4124000000000001</v>
       </c>
-      <c r="M92">
+      <c r="Q92">
         <v>113</v>
       </c>
-      <c r="N92" s="2">
-        <f t="shared" si="10"/>
+      <c r="R92" s="2">
+        <f t="shared" si="12"/>
         <v>4.4409000000000001</v>
       </c>
-      <c r="P92">
+      <c r="T92">
         <v>229</v>
       </c>
-      <c r="Q92" s="2">
-        <f t="shared" si="11"/>
+      <c r="U92" s="2">
+        <f t="shared" si="13"/>
         <v>1.3281999999999998</v>
       </c>
     </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D93">
         <v>149</v>
       </c>
       <c r="E93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10.43</v>
       </c>
-      <c r="G93">
-        <v>53</v>
-      </c>
-      <c r="H93" s="2">
-        <f t="shared" si="8"/>
-        <v>1.3568</v>
-      </c>
-      <c r="J93">
+      <c r="N93">
         <v>103</v>
       </c>
-      <c r="K93" s="2">
-        <f t="shared" si="9"/>
+      <c r="O93" s="2">
+        <f t="shared" si="11"/>
         <v>1.3596000000000001</v>
       </c>
-      <c r="M93">
+      <c r="Q93">
         <v>102</v>
       </c>
-      <c r="N93" s="2">
-        <f t="shared" si="10"/>
+      <c r="R93" s="2">
+        <f t="shared" si="12"/>
         <v>4.0086000000000004</v>
       </c>
-      <c r="P93">
+      <c r="T93">
         <v>229</v>
       </c>
-      <c r="Q93" s="2">
-        <f t="shared" si="11"/>
+      <c r="U93" s="2">
+        <f t="shared" si="13"/>
         <v>1.3281999999999998</v>
       </c>
     </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D94">
         <v>123</v>
       </c>
       <c r="E94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.61</v>
       </c>
-      <c r="G94">
-        <v>50</v>
-      </c>
-      <c r="H94" s="2">
-        <f t="shared" si="8"/>
-        <v>1.28</v>
-      </c>
-      <c r="J94">
+      <c r="N94">
         <v>107</v>
       </c>
-      <c r="K94" s="2">
-        <f t="shared" si="9"/>
+      <c r="O94" s="2">
+        <f t="shared" si="11"/>
         <v>1.4124000000000001</v>
       </c>
-      <c r="M94">
+      <c r="Q94">
         <v>93</v>
       </c>
-      <c r="N94" s="2">
-        <f t="shared" si="10"/>
+      <c r="R94" s="2">
+        <f t="shared" si="12"/>
         <v>3.6549</v>
       </c>
-      <c r="P94">
+      <c r="T94">
         <v>195</v>
       </c>
-      <c r="Q94" s="2">
-        <f t="shared" si="11"/>
+      <c r="U94" s="2">
+        <f t="shared" si="13"/>
         <v>1.131</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D95">
         <v>102</v>
       </c>
       <c r="E95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.14</v>
       </c>
-      <c r="G95">
-        <v>50</v>
-      </c>
-      <c r="H95" s="2">
-        <f t="shared" si="8"/>
-        <v>1.28</v>
-      </c>
-      <c r="J95">
+      <c r="N95">
         <v>103</v>
       </c>
-      <c r="K95" s="2">
-        <f t="shared" si="9"/>
+      <c r="O95" s="2">
+        <f t="shared" si="11"/>
         <v>1.3596000000000001</v>
       </c>
-      <c r="M95">
+      <c r="Q95">
         <v>92</v>
       </c>
-      <c r="N95" s="2">
-        <f t="shared" si="10"/>
+      <c r="R95" s="2">
+        <f t="shared" si="12"/>
         <v>3.6156000000000001</v>
       </c>
-      <c r="P95">
+      <c r="T95">
         <v>209</v>
       </c>
-      <c r="Q95" s="2">
-        <f t="shared" si="11"/>
+      <c r="U95" s="2">
+        <f t="shared" si="13"/>
         <v>1.2121999999999999</v>
       </c>
     </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D96">
         <v>109</v>
       </c>
       <c r="E96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.63</v>
       </c>
-      <c r="G96">
-        <v>56</v>
-      </c>
-      <c r="H96" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4336000000000002</v>
-      </c>
-      <c r="J96">
+      <c r="N96">
         <v>97</v>
       </c>
-      <c r="K96" s="2">
-        <f t="shared" si="9"/>
+      <c r="O96" s="2">
+        <f t="shared" si="11"/>
         <v>1.2804</v>
       </c>
-      <c r="M96">
+      <c r="Q96">
         <v>95</v>
       </c>
-      <c r="N96" s="2">
-        <f t="shared" si="10"/>
+      <c r="R96" s="2">
+        <f t="shared" si="12"/>
         <v>3.7335000000000003</v>
       </c>
-      <c r="P96">
+      <c r="T96">
         <v>193</v>
       </c>
-      <c r="Q96" s="2">
-        <f t="shared" si="11"/>
+      <c r="U96" s="2">
+        <f t="shared" si="13"/>
         <v>1.1194</v>
       </c>
     </row>
-    <row r="97" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D97">
         <v>111</v>
       </c>
       <c r="E97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.77</v>
       </c>
-      <c r="G97">
-        <v>64</v>
-      </c>
-      <c r="H97" s="2">
-        <f t="shared" si="8"/>
-        <v>1.6384000000000001</v>
-      </c>
-      <c r="J97">
+      <c r="N97">
         <v>98</v>
       </c>
-      <c r="K97" s="2">
-        <f t="shared" si="9"/>
+      <c r="O97" s="2">
+        <f t="shared" si="11"/>
         <v>1.2936000000000001</v>
       </c>
-      <c r="M97">
+      <c r="Q97">
         <v>93</v>
       </c>
-      <c r="N97" s="2">
-        <f t="shared" si="10"/>
+      <c r="R97" s="2">
+        <f t="shared" si="12"/>
         <v>3.6549</v>
       </c>
-      <c r="P97">
+      <c r="T97">
         <v>183</v>
       </c>
-      <c r="Q97" s="2">
-        <f t="shared" si="11"/>
+      <c r="U97" s="2">
+        <f t="shared" si="13"/>
         <v>1.0613999999999999</v>
       </c>
     </row>
-    <row r="98" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D98">
         <v>91</v>
       </c>
       <c r="E98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.37</v>
       </c>
-      <c r="G98">
-        <v>56</v>
-      </c>
-      <c r="H98" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4336000000000002</v>
-      </c>
-      <c r="J98">
+      <c r="N98">
         <v>108</v>
       </c>
-      <c r="K98" s="2">
-        <f t="shared" si="9"/>
+      <c r="O98" s="2">
+        <f t="shared" si="11"/>
         <v>1.4256</v>
       </c>
-      <c r="M98">
+      <c r="Q98">
         <v>93</v>
       </c>
-      <c r="N98" s="2">
-        <f t="shared" si="10"/>
+      <c r="R98" s="2">
+        <f t="shared" si="12"/>
         <v>3.6549</v>
       </c>
-      <c r="P98">
+      <c r="T98">
         <v>193</v>
       </c>
-      <c r="Q98" s="2">
-        <f t="shared" si="11"/>
+      <c r="U98" s="2">
+        <f t="shared" si="13"/>
         <v>1.1194</v>
       </c>
     </row>
-    <row r="99" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D99">
         <v>98</v>
       </c>
       <c r="E99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.86</v>
       </c>
-      <c r="G99">
-        <v>54</v>
-      </c>
-      <c r="H99" s="2">
-        <f t="shared" si="8"/>
-        <v>1.3824000000000001</v>
-      </c>
-      <c r="J99">
+      <c r="N99">
         <v>101</v>
       </c>
-      <c r="K99" s="2">
-        <f t="shared" si="9"/>
+      <c r="O99" s="2">
+        <f t="shared" si="11"/>
         <v>1.3331999999999999</v>
       </c>
-      <c r="M99">
+      <c r="Q99">
         <v>101</v>
       </c>
-      <c r="N99" s="2">
-        <f t="shared" si="10"/>
+      <c r="R99" s="2">
+        <f t="shared" si="12"/>
         <v>3.9693000000000001</v>
       </c>
-      <c r="P99">
+      <c r="T99">
         <v>199</v>
       </c>
-      <c r="Q99" s="2">
-        <f t="shared" si="11"/>
+      <c r="U99" s="2">
+        <f t="shared" si="13"/>
         <v>1.1541999999999999</v>
       </c>
     </row>
-    <row r="100" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D100">
         <v>129</v>
       </c>
       <c r="E100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.0299999999999994</v>
       </c>
-      <c r="G100">
-        <v>56</v>
-      </c>
-      <c r="H100" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4336000000000002</v>
-      </c>
-      <c r="J100">
+      <c r="N100">
         <v>105</v>
       </c>
-      <c r="K100" s="2">
-        <f t="shared" si="9"/>
+      <c r="O100" s="2">
+        <f t="shared" si="11"/>
         <v>1.3859999999999999</v>
       </c>
-      <c r="M100">
+      <c r="Q100">
         <v>101</v>
       </c>
-      <c r="N100" s="2">
-        <f t="shared" si="10"/>
+      <c r="R100" s="2">
+        <f t="shared" si="12"/>
         <v>3.9693000000000001</v>
       </c>
-      <c r="P100">
+      <c r="T100">
         <v>199</v>
       </c>
-      <c r="Q100" s="2">
-        <f t="shared" si="11"/>
+      <c r="U100" s="2">
+        <f t="shared" si="13"/>
         <v>1.1541999999999999</v>
       </c>
     </row>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6048D3-166A-C84E-8A1B-0E7628024FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68642D4D-43B0-8B4C-968E-BB9A20E44133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16360" yWindow="500" windowWidth="18720" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
@@ -136,12 +136,6 @@
     <t>barley_acre</t>
   </si>
   <si>
-    <t>nominal_share</t>
-  </si>
-  <si>
-    <t>potato_prod</t>
-  </si>
-  <si>
     <t>potato_acre</t>
   </si>
   <si>
@@ -155,9 +149,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -262,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -288,11 +281,6 @@
     <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -610,11 +598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AG81"/>
+  <dimension ref="A1:AE81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE2" sqref="AE2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,24 +618,23 @@
     <col min="9" max="10" width="12.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="20" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="25" customWidth="1"/>
-    <col min="18" max="19" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" customWidth="1"/>
-    <col min="21" max="21" width="10.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" customWidth="1"/>
-    <col min="24" max="24" width="9" customWidth="1"/>
-    <col min="25" max="25" width="12" customWidth="1"/>
-    <col min="26" max="26" width="11" customWidth="1"/>
-    <col min="27" max="27" width="13.83203125" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" customWidth="1"/>
-    <col min="29" max="29" width="12.83203125" customWidth="1"/>
-    <col min="30" max="30" width="12.5" customWidth="1"/>
+    <col min="13" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="20" customWidth="1"/>
+    <col min="16" max="17" width="11.5" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" customWidth="1"/>
+    <col min="28" max="28" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -688,67 +675,61 @@
         <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>32</v>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
       </c>
       <c r="R1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Z1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AA1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AB1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AD1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -793,20 +774,16 @@
       <c r="N2" s="11">
         <v>296.87219999999996</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="25">
-        <v>0.37769999999999998</v>
-      </c>
-      <c r="R2" s="17"/>
-      <c r="AD2">
+      <c r="O2" s="21"/>
+      <c r="P2" s="17"/>
+      <c r="AB2">
         <v>249</v>
       </c>
-      <c r="AG2">
+      <c r="AE2">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -850,20 +827,16 @@
       <c r="N3" s="11">
         <v>255.52860000000001</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="25">
-        <v>0.3251</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="AD3">
+      <c r="O3" s="21"/>
+      <c r="P3" s="17"/>
+      <c r="AB3">
         <v>146</v>
       </c>
-      <c r="AG3">
+      <c r="AE3">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -907,20 +880,16 @@
       <c r="N4" s="11">
         <v>272.50619999999998</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="25">
-        <v>0.34670000000000001</v>
-      </c>
-      <c r="R4" s="17"/>
-      <c r="AD4">
+      <c r="O4" s="21"/>
+      <c r="P4" s="17"/>
+      <c r="AB4">
         <v>218</v>
       </c>
-      <c r="AG4">
+      <c r="AE4">
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -964,20 +933,16 @@
       <c r="N5" s="11">
         <v>275.09999999999997</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="25">
-        <v>0.35</v>
-      </c>
-      <c r="R5" s="17"/>
-      <c r="AD5">
+      <c r="O5" s="21"/>
+      <c r="P5" s="17"/>
+      <c r="AB5">
         <v>222</v>
       </c>
-      <c r="AG5">
+      <c r="AE5">
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -1021,20 +986,16 @@
       <c r="N6" s="11">
         <v>247.59</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="25">
-        <v>0.315</v>
-      </c>
-      <c r="R6" s="17"/>
-      <c r="AD6">
+      <c r="O6" s="21"/>
+      <c r="P6" s="17"/>
+      <c r="AB6">
         <v>301</v>
       </c>
-      <c r="AG6">
+      <c r="AE6">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -1078,19 +1039,15 @@
       <c r="N7" s="8">
         <v>310.94159999999999</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="Q7" s="25">
-        <v>0.39560000000000001</v>
-      </c>
-      <c r="R7" s="17"/>
-      <c r="AD7">
+      <c r="P7" s="17"/>
+      <c r="AB7">
         <v>230</v>
       </c>
-      <c r="AG7">
+      <c r="AE7">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -1134,19 +1091,15 @@
       <c r="N8" s="8">
         <v>306.22559999999999</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="Q8" s="25">
-        <v>0.3896</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="AD8">
+      <c r="P8" s="17"/>
+      <c r="AB8">
         <v>251</v>
       </c>
-      <c r="AG8">
+      <c r="AE8">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1190,19 +1143,15 @@
       <c r="N9" s="8">
         <v>229.11899999999997</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="Q9" s="25">
-        <v>0.29149999999999998</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="AD9">
+      <c r="P9" s="17"/>
+      <c r="AB9">
         <v>355</v>
       </c>
-      <c r="AG9">
+      <c r="AE9">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1246,25 +1195,21 @@
       <c r="N10" s="8">
         <v>230.84820000000002</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="Q10" s="25">
-        <v>0.29370000000000002</v>
-      </c>
-      <c r="R10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="AB10">
+        <v>314</v>
+      </c>
+      <c r="AC10">
+        <v>125</v>
+      </c>
       <c r="AD10">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="AE10">
-        <v>125</v>
-      </c>
-      <c r="AF10">
-        <v>18</v>
-      </c>
-      <c r="AG10">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1308,25 +1253,21 @@
       <c r="N11" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="Q11" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="R11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="AB11">
+        <v>305</v>
+      </c>
+      <c r="AC11">
+        <v>126</v>
+      </c>
       <c r="AD11">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="AE11">
-        <v>126</v>
-      </c>
-      <c r="AF11">
-        <v>19</v>
-      </c>
-      <c r="AG11">
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1367,25 +1308,21 @@
       <c r="N12" s="8">
         <v>232.42020000000002</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="Q12" s="25">
-        <v>0.29570000000000002</v>
-      </c>
-      <c r="R12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="AB12">
+        <v>314</v>
+      </c>
+      <c r="AC12">
+        <v>146</v>
+      </c>
       <c r="AD12">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="AE12">
-        <v>146</v>
-      </c>
-      <c r="AF12">
-        <v>20</v>
-      </c>
-      <c r="AG12">
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1426,25 +1363,21 @@
       <c r="N13" s="8">
         <v>220.08</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="Q13" s="25">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="R13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="AB13">
+        <v>275</v>
+      </c>
+      <c r="AC13">
+        <v>127</v>
+      </c>
       <c r="AD13">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="AE13">
-        <v>127</v>
-      </c>
-      <c r="AF13">
-        <v>16</v>
-      </c>
-      <c r="AG13">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1485,25 +1418,21 @@
       <c r="N14" s="8">
         <v>290.03399999999999</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="Q14" s="25">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="R14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="AB14">
+        <v>247</v>
+      </c>
+      <c r="AC14">
+        <v>106</v>
+      </c>
       <c r="AD14">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="AE14">
-        <v>106</v>
-      </c>
-      <c r="AF14">
-        <v>14</v>
-      </c>
-      <c r="AG14">
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1544,25 +1473,21 @@
       <c r="N15" s="8">
         <v>290.82</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="Q15" s="25">
-        <v>0.37</v>
-      </c>
-      <c r="R15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="AB15">
+        <v>219</v>
+      </c>
+      <c r="AC15">
+        <v>111</v>
+      </c>
       <c r="AD15">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="AE15">
-        <v>111</v>
-      </c>
-      <c r="AF15">
-        <v>16</v>
-      </c>
-      <c r="AG15">
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1606,25 +1531,21 @@
       <c r="N16" s="8">
         <v>243.66</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="Q16" s="25">
-        <v>0.31</v>
-      </c>
-      <c r="R16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="AB16">
+        <v>187</v>
+      </c>
+      <c r="AC16">
+        <v>112</v>
+      </c>
       <c r="AD16">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="AE16">
-        <v>112</v>
-      </c>
-      <c r="AF16">
-        <v>17</v>
-      </c>
-      <c r="AG16">
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1665,25 +1586,21 @@
       <c r="N17" s="8">
         <v>251.91300000000001</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="Q17" s="25">
-        <v>0.32050000000000001</v>
-      </c>
-      <c r="R17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="AB17">
+        <v>230</v>
+      </c>
+      <c r="AC17">
+        <v>123</v>
+      </c>
       <c r="AD17">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="AE17">
-        <v>123</v>
-      </c>
-      <c r="AF17">
-        <v>18</v>
-      </c>
-      <c r="AG17">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1724,25 +1641,21 @@
       <c r="N18" s="8">
         <v>252.14879999999997</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="Q18" s="25">
-        <v>0.32079999999999997</v>
-      </c>
-      <c r="R18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="AB18">
+        <v>261</v>
+      </c>
+      <c r="AC18">
+        <v>117</v>
+      </c>
       <c r="AD18">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="AE18">
-        <v>117</v>
-      </c>
-      <c r="AF18">
-        <v>18</v>
-      </c>
-      <c r="AG18">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -1783,25 +1696,21 @@
       <c r="N19" s="8">
         <v>252.69900000000001</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="Q19" s="25">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="R19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="AB19">
+        <v>315</v>
+      </c>
+      <c r="AC19">
+        <v>122</v>
+      </c>
       <c r="AD19">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="AE19">
-        <v>122</v>
-      </c>
-      <c r="AF19">
-        <v>18</v>
-      </c>
-      <c r="AG19">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -1842,34 +1751,30 @@
       <c r="N20" s="8">
         <v>247.983</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="Q20" s="26">
-        <v>0.3155</v>
-      </c>
-      <c r="R20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Y20">
+        <v>516</v>
+      </c>
+      <c r="Z20">
+        <v>197</v>
+      </c>
       <c r="AA20">
-        <v>516</v>
+        <v>55</v>
       </c>
       <c r="AB20">
-        <v>197</v>
+        <v>471</v>
       </c>
       <c r="AC20">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AD20">
-        <v>471</v>
+        <v>38</v>
       </c>
       <c r="AE20">
-        <v>95</v>
-      </c>
-      <c r="AF20">
-        <v>38</v>
-      </c>
-      <c r="AG20">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -1913,34 +1818,30 @@
       <c r="N21" s="8">
         <v>220.08</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="Q21" s="25">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="R21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Y21">
+        <v>722</v>
+      </c>
+      <c r="Z21">
+        <v>80</v>
+      </c>
       <c r="AA21">
-        <v>722</v>
+        <v>38</v>
       </c>
       <c r="AB21">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AC21">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AD21">
-        <v>318</v>
+        <v>21</v>
       </c>
       <c r="AE21">
-        <v>51</v>
-      </c>
-      <c r="AF21">
-        <v>21</v>
-      </c>
-      <c r="AG21">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -1981,40 +1882,36 @@
       <c r="N22" s="8">
         <v>212.22000000000003</v>
       </c>
-      <c r="O22" s="8"/>
-      <c r="Q22" s="25">
-        <v>0.27</v>
-      </c>
-      <c r="R22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="R22">
+        <v>2250</v>
+      </c>
       <c r="T22">
-        <v>2250</v>
-      </c>
-      <c r="V22">
         <v>2106</v>
       </c>
+      <c r="Y22">
+        <v>651</v>
+      </c>
+      <c r="Z22">
+        <v>88</v>
+      </c>
       <c r="AA22">
-        <v>651</v>
+        <v>8</v>
       </c>
       <c r="AB22">
-        <v>88</v>
+        <v>399</v>
       </c>
       <c r="AC22">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="AD22">
-        <v>399</v>
+        <v>6</v>
       </c>
       <c r="AE22">
-        <v>74</v>
-      </c>
-      <c r="AF22">
-        <v>6</v>
-      </c>
-      <c r="AG22">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -2055,34 +1952,30 @@
       <c r="N23" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="O23" s="8"/>
-      <c r="Q23" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="R23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Y23">
+        <v>799</v>
+      </c>
+      <c r="Z23">
+        <v>131</v>
+      </c>
       <c r="AA23">
-        <v>799</v>
+        <v>54</v>
       </c>
       <c r="AB23">
-        <v>131</v>
+        <v>368</v>
       </c>
       <c r="AC23">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="AD23">
-        <v>368</v>
+        <v>46</v>
       </c>
       <c r="AE23">
-        <v>112</v>
-      </c>
-      <c r="AF23">
-        <v>46</v>
-      </c>
-      <c r="AG23">
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -2123,34 +2016,30 @@
       <c r="N24" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="O24" s="8"/>
-      <c r="Q24" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="R24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Y24">
+        <v>268</v>
+      </c>
+      <c r="Z24">
+        <v>9</v>
+      </c>
       <c r="AA24">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="AB24">
+        <v>754</v>
+      </c>
+      <c r="AC24">
         <v>9</v>
       </c>
-      <c r="AC24">
-        <v>10</v>
-      </c>
       <c r="AD24">
-        <v>754</v>
+        <v>6</v>
       </c>
       <c r="AE24">
-        <v>9</v>
-      </c>
-      <c r="AF24">
-        <v>6</v>
-      </c>
-      <c r="AG24">
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -2191,33 +2080,31 @@
       <c r="N25" s="11">
         <v>331</v>
       </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="17"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="17"/>
+      <c r="Y25">
+        <v>435</v>
+      </c>
+      <c r="Z25">
+        <v>102</v>
+      </c>
       <c r="AA25">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="AB25">
-        <v>102</v>
+        <v>802</v>
       </c>
       <c r="AC25">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AD25">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="AE25">
-        <v>39</v>
-      </c>
-      <c r="AF25">
-        <v>13</v>
-      </c>
-      <c r="AG25">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -2258,33 +2145,31 @@
       <c r="N26" s="19">
         <v>400</v>
       </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="17"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="17"/>
+      <c r="Y26">
+        <v>228</v>
+      </c>
+      <c r="Z26">
+        <v>141</v>
+      </c>
       <c r="AA26">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="AB26">
-        <v>141</v>
+        <v>1420</v>
       </c>
       <c r="AC26">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="AD26">
-        <v>1420</v>
+        <v>18</v>
       </c>
       <c r="AE26">
-        <v>47</v>
-      </c>
-      <c r="AF26">
-        <v>18</v>
-      </c>
-      <c r="AG26">
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -2325,33 +2210,31 @@
       <c r="N27" s="19">
         <v>129</v>
       </c>
-      <c r="O27" s="19"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="17"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="17"/>
+      <c r="Y27">
+        <v>1175</v>
+      </c>
+      <c r="Z27">
+        <v>143</v>
+      </c>
       <c r="AA27">
-        <v>1175</v>
+        <v>74</v>
       </c>
       <c r="AB27">
-        <v>143</v>
+        <v>717</v>
       </c>
       <c r="AC27">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AD27">
-        <v>717</v>
+        <v>43</v>
       </c>
       <c r="AE27">
-        <v>85</v>
-      </c>
-      <c r="AF27">
-        <v>43</v>
-      </c>
-      <c r="AG27">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
@@ -2392,56 +2275,55 @@
       <c r="N28" s="12">
         <v>89</v>
       </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="17"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="12">
+        <v>231</v>
+      </c>
+      <c r="R28" s="12">
+        <v>2591</v>
+      </c>
       <c r="S28" s="12">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="T28" s="12">
-        <v>2591</v>
+        <v>2186</v>
       </c>
       <c r="U28" s="12">
         <v>0</v>
       </c>
       <c r="V28" s="12">
-        <v>2186</v>
+        <v>622</v>
       </c>
       <c r="W28" s="12">
-        <v>0</v>
+        <v>5691</v>
       </c>
       <c r="X28" s="12">
-        <v>622</v>
+        <v>164</v>
       </c>
       <c r="Y28" s="12">
-        <v>5691</v>
+        <v>3701</v>
       </c>
       <c r="Z28" s="12">
-        <v>164</v>
+        <v>497</v>
       </c>
       <c r="AA28" s="12">
-        <v>3701</v>
+        <v>240</v>
       </c>
       <c r="AB28" s="12">
-        <v>497</v>
+        <v>355</v>
       </c>
       <c r="AC28" s="12">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AD28" s="12">
-        <v>355</v>
+        <v>125</v>
       </c>
       <c r="AE28" s="12">
-        <v>234</v>
-      </c>
-      <c r="AF28" s="12">
-        <v>125</v>
-      </c>
-      <c r="AG28" s="12">
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2482,57 +2364,54 @@
       <c r="N29">
         <v>258</v>
       </c>
-      <c r="Q29" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29">
+        <v>365</v>
+      </c>
+      <c r="R29">
+        <v>2736</v>
+      </c>
       <c r="S29">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>2736</v>
+        <v>1971</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
-        <v>1971</v>
+        <v>639</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>6510</v>
       </c>
       <c r="X29">
-        <v>639</v>
+        <v>175</v>
       </c>
       <c r="Y29">
-        <v>6510</v>
+        <v>2207</v>
       </c>
       <c r="Z29">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="AA29">
-        <v>2207</v>
+        <v>12</v>
       </c>
       <c r="AB29">
-        <v>148</v>
+        <v>556</v>
       </c>
       <c r="AC29">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AD29">
-        <v>556</v>
+        <v>9</v>
       </c>
       <c r="AE29">
-        <v>49</v>
-      </c>
-      <c r="AF29">
-        <v>9</v>
-      </c>
-      <c r="AG29">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2573,57 +2452,54 @@
       <c r="N30">
         <v>219</v>
       </c>
-      <c r="Q30" s="25">
-        <v>0.33</v>
-      </c>
-      <c r="R30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30">
+        <v>362</v>
+      </c>
+      <c r="R30">
+        <v>2771</v>
+      </c>
       <c r="S30">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>2771</v>
+        <v>1777</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>1777</v>
+        <v>795</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>6328</v>
       </c>
       <c r="X30">
-        <v>795</v>
+        <v>183</v>
       </c>
       <c r="Y30">
-        <v>6328</v>
+        <v>2845</v>
       </c>
       <c r="Z30">
-        <v>183</v>
+        <v>311</v>
       </c>
       <c r="AA30">
-        <v>2845</v>
+        <v>70</v>
       </c>
       <c r="AB30">
-        <v>311</v>
+        <v>428</v>
       </c>
       <c r="AC30">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD30">
-        <v>428</v>
+        <v>42</v>
       </c>
       <c r="AE30">
-        <v>65</v>
-      </c>
-      <c r="AF30">
-        <v>42</v>
-      </c>
-      <c r="AG30">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -2667,60 +2543,57 @@
       <c r="N31">
         <v>275</v>
       </c>
-      <c r="P31" s="20">
+      <c r="O31" s="20">
         <v>57.3</v>
       </c>
-      <c r="Q31" s="25">
-        <v>0.35</v>
-      </c>
-      <c r="R31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31">
+        <v>414</v>
+      </c>
+      <c r="R31">
+        <v>2918</v>
+      </c>
       <c r="S31">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>2918</v>
+        <v>1876</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>1876</v>
+        <v>928</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>6945</v>
       </c>
       <c r="X31">
-        <v>928</v>
+        <v>201</v>
       </c>
       <c r="Y31">
-        <v>6945</v>
+        <v>3942</v>
       </c>
       <c r="Z31">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AA31">
-        <v>3942</v>
+        <v>72</v>
       </c>
       <c r="AB31">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="AC31">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="AD31">
-        <v>322</v>
+        <v>31</v>
       </c>
       <c r="AE31">
-        <v>150</v>
-      </c>
-      <c r="AF31">
-        <v>31</v>
-      </c>
-      <c r="AG31">
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -2764,57 +2637,57 @@
       <c r="N32">
         <v>270</v>
       </c>
-      <c r="P32" s="20">
+      <c r="O32" s="20">
         <v>56</v>
       </c>
-      <c r="R32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32">
+        <v>434</v>
+      </c>
+      <c r="R32">
+        <v>2967</v>
+      </c>
       <c r="S32">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>2967</v>
+        <v>2122</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32">
-        <v>2122</v>
+        <v>1085</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>7471</v>
       </c>
       <c r="X32">
-        <v>1085</v>
+        <v>235</v>
       </c>
       <c r="Y32">
-        <v>7471</v>
+        <v>5385</v>
       </c>
       <c r="Z32">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AA32">
-        <v>5385</v>
+        <v>13</v>
       </c>
       <c r="AB32">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c r="AC32">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="AD32">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="AE32">
-        <v>145</v>
-      </c>
-      <c r="AF32">
-        <v>12</v>
-      </c>
-      <c r="AG32">
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -2858,57 +2731,57 @@
       <c r="N33">
         <v>275</v>
       </c>
-      <c r="P33" s="20">
+      <c r="O33" s="20">
         <v>55</v>
       </c>
-      <c r="R33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33">
+        <v>429</v>
+      </c>
+      <c r="R33">
+        <v>3095</v>
+      </c>
       <c r="S33">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>3095</v>
+        <v>2614</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33">
-        <v>2614</v>
+        <v>1073</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>8176</v>
       </c>
       <c r="X33">
-        <v>1073</v>
+        <v>278</v>
       </c>
       <c r="Y33">
-        <v>8176</v>
+        <v>4833</v>
       </c>
       <c r="Z33">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c r="AA33">
-        <v>4833</v>
+        <v>21</v>
       </c>
       <c r="AB33">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="AC33">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="AD33">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="AE33">
-        <v>62</v>
-      </c>
-      <c r="AF33">
-        <v>14</v>
-      </c>
-      <c r="AG33">
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -2952,57 +2825,57 @@
       <c r="N34">
         <v>279</v>
       </c>
-      <c r="P34" s="20">
+      <c r="O34" s="20">
         <v>56.9</v>
       </c>
-      <c r="R34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34">
+        <v>447</v>
+      </c>
+      <c r="R34">
+        <v>3383</v>
+      </c>
       <c r="S34">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>3383</v>
+        <v>3143</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34">
-        <v>3143</v>
+        <v>1145</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>8661</v>
       </c>
       <c r="X34">
-        <v>1145</v>
+        <v>296</v>
       </c>
       <c r="Y34">
-        <v>8661</v>
+        <v>4728</v>
       </c>
       <c r="Z34">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c r="AA34">
-        <v>4728</v>
+        <v>29</v>
       </c>
       <c r="AB34">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="AC34">
+        <v>50</v>
+      </c>
+      <c r="AD34">
         <v>29</v>
       </c>
-      <c r="AD34">
-        <v>135</v>
-      </c>
       <c r="AE34">
-        <v>50</v>
-      </c>
-      <c r="AF34">
-        <v>29</v>
-      </c>
-      <c r="AG34">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -3046,57 +2919,57 @@
       <c r="N35">
         <v>308</v>
       </c>
-      <c r="P35" s="20">
+      <c r="O35" s="20">
         <v>59.7</v>
       </c>
-      <c r="R35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35">
+        <v>449</v>
+      </c>
+      <c r="R35">
+        <v>3498</v>
+      </c>
       <c r="S35">
-        <v>449</v>
+        <v>1518</v>
       </c>
       <c r="T35">
-        <v>3498</v>
+        <v>3722</v>
       </c>
       <c r="U35">
-        <v>1518</v>
+        <v>1777</v>
       </c>
       <c r="V35">
-        <v>3722</v>
+        <v>1343</v>
       </c>
       <c r="W35">
-        <v>1777</v>
+        <v>8630</v>
       </c>
       <c r="X35">
-        <v>1343</v>
+        <v>311</v>
       </c>
       <c r="Y35">
-        <v>8630</v>
+        <v>2939</v>
       </c>
       <c r="Z35">
-        <v>311</v>
+        <v>171</v>
       </c>
       <c r="AA35">
-        <v>2939</v>
+        <v>26</v>
       </c>
       <c r="AB35">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="AC35">
+        <v>75</v>
+      </c>
+      <c r="AD35">
         <v>26</v>
       </c>
-      <c r="AD35">
-        <v>252</v>
-      </c>
       <c r="AE35">
-        <v>75</v>
-      </c>
-      <c r="AF35">
-        <v>26</v>
-      </c>
-      <c r="AG35">
         <v>541</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -3140,57 +3013,57 @@
       <c r="N36">
         <v>309</v>
       </c>
-      <c r="P36" s="20">
+      <c r="O36" s="20">
         <v>61.9</v>
       </c>
-      <c r="R36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36">
+        <v>459</v>
+      </c>
+      <c r="R36">
+        <v>3564</v>
+      </c>
       <c r="S36">
-        <v>459</v>
+        <v>1561</v>
       </c>
       <c r="T36">
-        <v>3564</v>
+        <v>3602</v>
       </c>
       <c r="U36">
-        <v>1561</v>
+        <v>1734</v>
       </c>
       <c r="V36">
-        <v>3602</v>
+        <v>1178</v>
       </c>
       <c r="W36">
-        <v>1734</v>
+        <v>8367</v>
       </c>
       <c r="X36">
-        <v>1178</v>
+        <v>284</v>
       </c>
       <c r="Y36">
-        <v>8367</v>
+        <v>2990</v>
       </c>
       <c r="Z36">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="AA36">
-        <v>2990</v>
+        <v>15</v>
       </c>
       <c r="AB36">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="AC36">
+        <v>289</v>
+      </c>
+      <c r="AD36">
         <v>15</v>
       </c>
-      <c r="AD36">
-        <v>312</v>
-      </c>
       <c r="AE36">
-        <v>289</v>
-      </c>
-      <c r="AF36">
-        <v>15</v>
-      </c>
-      <c r="AG36">
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -3234,57 +3107,57 @@
       <c r="N37">
         <v>345</v>
       </c>
-      <c r="P37" s="20">
+      <c r="O37" s="20">
         <v>59</v>
       </c>
-      <c r="R37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37">
+        <v>496</v>
+      </c>
+      <c r="R37">
+        <v>3588</v>
+      </c>
       <c r="S37">
-        <v>496</v>
+        <v>1580</v>
       </c>
       <c r="T37">
-        <v>3588</v>
+        <v>3694</v>
       </c>
       <c r="U37">
-        <v>1580</v>
+        <v>1655</v>
       </c>
       <c r="V37">
-        <v>3694</v>
+        <v>919</v>
       </c>
       <c r="W37">
-        <v>1655</v>
+        <v>8908</v>
       </c>
       <c r="X37">
-        <v>919</v>
+        <v>270</v>
       </c>
       <c r="Y37">
-        <v>8908</v>
+        <v>3491</v>
       </c>
       <c r="Z37">
-        <v>270</v>
+        <v>359</v>
       </c>
       <c r="AA37">
-        <v>3491</v>
+        <v>9</v>
       </c>
       <c r="AB37">
         <v>359</v>
       </c>
       <c r="AC37">
+        <v>246</v>
+      </c>
+      <c r="AD37">
         <v>9</v>
       </c>
-      <c r="AD37">
-        <v>359</v>
-      </c>
       <c r="AE37">
-        <v>246</v>
-      </c>
-      <c r="AF37">
-        <v>9</v>
-      </c>
-      <c r="AG37">
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -3328,57 +3201,57 @@
       <c r="N38">
         <v>359</v>
       </c>
-      <c r="P38" s="20">
+      <c r="O38" s="20">
         <v>55.4</v>
       </c>
-      <c r="R38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38">
+        <v>511</v>
+      </c>
+      <c r="R38">
+        <v>3621</v>
+      </c>
       <c r="S38">
-        <v>511</v>
+        <v>1605</v>
       </c>
       <c r="T38">
-        <v>3621</v>
+        <v>3452</v>
       </c>
       <c r="U38">
-        <v>1605</v>
+        <v>1538</v>
       </c>
       <c r="V38">
-        <v>3452</v>
+        <v>1255</v>
       </c>
       <c r="W38">
-        <v>1538</v>
+        <v>9491</v>
       </c>
       <c r="X38">
-        <v>1255</v>
+        <v>243</v>
       </c>
       <c r="Y38">
-        <v>9491</v>
+        <v>2843</v>
       </c>
       <c r="Z38">
-        <v>243</v>
+        <v>518</v>
       </c>
       <c r="AA38">
-        <v>2843</v>
+        <v>27</v>
       </c>
       <c r="AB38">
-        <v>518</v>
+        <v>334</v>
       </c>
       <c r="AC38">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="AD38">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="AE38">
-        <v>178</v>
-      </c>
-      <c r="AF38">
-        <v>14</v>
-      </c>
-      <c r="AG38">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -3422,57 +3295,57 @@
       <c r="N39">
         <v>360</v>
       </c>
-      <c r="P39" s="20">
+      <c r="O39" s="20">
         <v>60.4</v>
       </c>
-      <c r="R39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39">
+        <v>512</v>
+      </c>
+      <c r="R39">
+        <v>3667</v>
+      </c>
       <c r="S39">
-        <v>512</v>
+        <v>1635</v>
       </c>
       <c r="T39">
-        <v>3667</v>
+        <v>3495</v>
       </c>
       <c r="U39">
-        <v>1635</v>
+        <v>1522</v>
       </c>
       <c r="V39">
-        <v>3495</v>
+        <v>1410</v>
       </c>
       <c r="W39">
-        <v>1522</v>
+        <v>9563</v>
       </c>
       <c r="X39">
-        <v>1410</v>
+        <v>228</v>
       </c>
       <c r="Y39">
-        <v>9563</v>
+        <v>4159</v>
       </c>
       <c r="Z39">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="AA39">
-        <v>4159</v>
+        <v>17</v>
       </c>
       <c r="AB39">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="AC39">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="AD39">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="AE39">
-        <v>110</v>
-      </c>
-      <c r="AF39">
-        <v>19</v>
-      </c>
-      <c r="AG39">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3516,57 +3389,57 @@
       <c r="N40">
         <v>374</v>
       </c>
-      <c r="P40" s="20">
+      <c r="O40" s="20">
         <v>62.6</v>
       </c>
-      <c r="R40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40">
+        <v>520</v>
+      </c>
+      <c r="R40">
+        <v>3816</v>
+      </c>
       <c r="S40">
-        <v>520</v>
+        <v>1690</v>
       </c>
       <c r="T40">
-        <v>3816</v>
+        <v>3593</v>
       </c>
       <c r="U40">
-        <v>1690</v>
+        <v>1564</v>
       </c>
       <c r="V40">
-        <v>3593</v>
+        <v>1266</v>
       </c>
       <c r="W40">
-        <v>1564</v>
+        <v>10252</v>
       </c>
       <c r="X40">
-        <v>1266</v>
+        <v>219</v>
       </c>
       <c r="Y40">
-        <v>10252</v>
+        <v>4775</v>
       </c>
       <c r="Z40">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="AA40">
-        <v>4775</v>
+        <v>25</v>
       </c>
       <c r="AB40">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="AC40">
+        <v>42</v>
+      </c>
+      <c r="AD40">
         <v>25</v>
       </c>
-      <c r="AD40">
-        <v>320</v>
-      </c>
       <c r="AE40">
-        <v>42</v>
-      </c>
-      <c r="AF40">
-        <v>25</v>
-      </c>
-      <c r="AG40">
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3610,57 +3483,57 @@
       <c r="N41">
         <v>361</v>
       </c>
-      <c r="P41" s="20">
+      <c r="O41" s="20">
         <v>63.5</v>
       </c>
-      <c r="R41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41">
+        <v>507</v>
+      </c>
+      <c r="R41">
+        <v>3606</v>
+      </c>
       <c r="S41">
-        <v>507</v>
+        <v>1626</v>
       </c>
       <c r="T41">
-        <v>3606</v>
+        <v>3542</v>
       </c>
       <c r="U41">
-        <v>1626</v>
+        <v>1567</v>
       </c>
       <c r="V41">
-        <v>3542</v>
+        <v>1271</v>
       </c>
       <c r="W41">
-        <v>1567</v>
+        <v>10061</v>
       </c>
       <c r="X41">
-        <v>1271</v>
+        <v>194</v>
       </c>
       <c r="Y41">
-        <v>10061</v>
+        <v>5072</v>
       </c>
       <c r="Z41">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="AA41">
-        <v>5072</v>
+        <v>25</v>
       </c>
       <c r="AB41">
-        <v>362</v>
+        <v>161</v>
       </c>
       <c r="AC41">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="AD41">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="AE41">
-        <v>61</v>
-      </c>
-      <c r="AF41">
-        <v>8</v>
-      </c>
-      <c r="AG41">
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -3704,57 +3577,57 @@
       <c r="N42">
         <v>349</v>
       </c>
-      <c r="P42" s="20">
+      <c r="O42" s="20">
         <v>64.099999999999994</v>
       </c>
-      <c r="R42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42">
+        <v>496</v>
+      </c>
+      <c r="R42">
+        <v>3472</v>
+      </c>
       <c r="S42">
-        <v>496</v>
+        <v>1545</v>
       </c>
       <c r="T42">
-        <v>3472</v>
+        <v>3556</v>
       </c>
       <c r="U42">
-        <v>1545</v>
+        <v>1528</v>
       </c>
       <c r="V42">
-        <v>3556</v>
+        <v>1102</v>
       </c>
       <c r="W42">
-        <v>1528</v>
+        <v>10371</v>
       </c>
       <c r="X42">
-        <v>1102</v>
+        <v>190</v>
       </c>
       <c r="Y42">
-        <v>10371</v>
+        <v>5365</v>
       </c>
       <c r="Z42">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="AA42">
-        <v>5365</v>
+        <v>10</v>
       </c>
       <c r="AB42">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="AC42">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="AD42">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="AE42">
-        <v>128</v>
-      </c>
-      <c r="AF42">
-        <v>6</v>
-      </c>
-      <c r="AG42">
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -3798,57 +3671,57 @@
       <c r="N43">
         <v>311</v>
       </c>
-      <c r="P43" s="20">
+      <c r="O43" s="20">
         <v>60.3</v>
       </c>
-      <c r="R43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43">
+        <v>469</v>
+      </c>
+      <c r="R43">
+        <v>3255</v>
+      </c>
       <c r="S43">
-        <v>469</v>
+        <v>1487</v>
       </c>
       <c r="T43">
-        <v>3255</v>
+        <v>3456</v>
       </c>
       <c r="U43">
-        <v>1487</v>
+        <v>1495</v>
       </c>
       <c r="V43">
-        <v>3456</v>
+        <v>1154</v>
       </c>
       <c r="W43">
-        <v>1495</v>
+        <v>9917</v>
       </c>
       <c r="X43">
-        <v>1154</v>
+        <v>175</v>
       </c>
       <c r="Y43">
-        <v>9917</v>
+        <v>8340</v>
       </c>
       <c r="Z43">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="AA43">
-        <v>8340</v>
+        <v>232</v>
       </c>
       <c r="AB43">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="AC43">
+        <v>181</v>
+      </c>
+      <c r="AD43">
         <v>232</v>
       </c>
-      <c r="AD43">
-        <v>150</v>
-      </c>
       <c r="AE43">
-        <v>181</v>
-      </c>
-      <c r="AF43">
-        <v>232</v>
-      </c>
-      <c r="AG43">
         <v>626</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -3892,56 +3765,56 @@
       <c r="N44">
         <v>315</v>
       </c>
-      <c r="P44" s="20">
+      <c r="O44" s="20">
         <v>55.1</v>
       </c>
+      <c r="Q44">
+        <v>466</v>
+      </c>
+      <c r="R44">
+        <v>3144</v>
+      </c>
       <c r="S44">
-        <v>466</v>
+        <v>1397</v>
       </c>
       <c r="T44">
-        <v>3144</v>
+        <v>3308</v>
       </c>
       <c r="U44">
-        <v>1397</v>
+        <v>1420</v>
       </c>
       <c r="V44">
-        <v>3308</v>
+        <v>1067</v>
       </c>
       <c r="W44">
-        <v>1420</v>
+        <v>9649</v>
       </c>
       <c r="X44">
-        <v>1067</v>
+        <v>166</v>
       </c>
       <c r="Y44">
-        <v>9649</v>
+        <v>6490</v>
       </c>
       <c r="Z44">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="AA44">
-        <v>6490</v>
+        <v>71</v>
       </c>
       <c r="AB44">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="AC44">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AD44">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="AE44">
-        <v>62</v>
-      </c>
-      <c r="AF44">
-        <v>39</v>
-      </c>
-      <c r="AG44">
         <v>716</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -3985,56 +3858,56 @@
       <c r="N45">
         <v>322</v>
       </c>
-      <c r="P45" s="20">
+      <c r="O45" s="20">
         <v>56.9</v>
       </c>
+      <c r="Q45">
+        <v>466</v>
+      </c>
+      <c r="R45">
+        <v>3262</v>
+      </c>
       <c r="S45">
-        <v>466</v>
+        <v>1349</v>
       </c>
       <c r="T45">
-        <v>3262</v>
+        <v>3367</v>
       </c>
       <c r="U45">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="V45">
-        <v>3367</v>
+        <v>1058</v>
       </c>
       <c r="W45">
-        <v>1435</v>
+        <v>10424</v>
       </c>
       <c r="X45">
-        <v>1058</v>
+        <v>171</v>
       </c>
       <c r="Y45">
-        <v>10424</v>
+        <v>6044</v>
       </c>
       <c r="Z45">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="AA45">
-        <v>6044</v>
+        <v>12</v>
       </c>
       <c r="AB45">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="AC45">
+        <v>66</v>
+      </c>
+      <c r="AD45">
         <v>12</v>
       </c>
-      <c r="AD45">
-        <v>63</v>
-      </c>
       <c r="AE45">
-        <v>66</v>
-      </c>
-      <c r="AF45">
-        <v>12</v>
-      </c>
-      <c r="AG45">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -4078,56 +3951,56 @@
       <c r="N46">
         <v>330</v>
       </c>
-      <c r="P46" s="20">
+      <c r="O46" s="20">
         <v>67.2</v>
       </c>
+      <c r="Q46">
+        <v>474</v>
+      </c>
+      <c r="R46">
+        <v>3498</v>
+      </c>
       <c r="S46">
-        <v>474</v>
+        <v>1387</v>
       </c>
       <c r="T46">
-        <v>3498</v>
+        <v>3694</v>
       </c>
       <c r="U46">
-        <v>1387</v>
+        <v>1579</v>
       </c>
       <c r="V46">
-        <v>3694</v>
+        <v>1306</v>
       </c>
       <c r="W46">
-        <v>1579</v>
+        <v>10682</v>
       </c>
       <c r="X46">
-        <v>1306</v>
+        <v>171</v>
       </c>
       <c r="Y46">
-        <v>10682</v>
+        <v>6002</v>
       </c>
       <c r="Z46">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="AA46">
-        <v>6002</v>
+        <v>50</v>
       </c>
       <c r="AB46">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="AC46">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AD46">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="AE46">
-        <v>76</v>
-      </c>
-      <c r="AF46">
-        <v>25</v>
-      </c>
-      <c r="AG46">
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -4171,56 +4044,56 @@
       <c r="N47">
         <v>323</v>
       </c>
-      <c r="P47" s="20">
+      <c r="O47" s="20">
         <v>66.8</v>
       </c>
+      <c r="Q47">
+        <v>466</v>
+      </c>
+      <c r="R47">
+        <v>3746</v>
+      </c>
       <c r="S47">
-        <v>466</v>
+        <v>1483</v>
       </c>
       <c r="T47">
-        <v>3746</v>
+        <v>4274</v>
       </c>
       <c r="U47">
-        <v>1483</v>
+        <v>1799</v>
       </c>
       <c r="V47">
-        <v>4274</v>
+        <v>1497</v>
       </c>
       <c r="W47">
-        <v>1799</v>
+        <v>10890</v>
       </c>
       <c r="X47">
-        <v>1497</v>
+        <v>187</v>
       </c>
       <c r="Y47">
-        <v>10890</v>
+        <v>6575</v>
       </c>
       <c r="Z47">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="AA47">
-        <v>6575</v>
+        <v>38</v>
       </c>
       <c r="AB47">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="AC47">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AD47">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AE47">
-        <v>31</v>
-      </c>
-      <c r="AF47">
-        <v>36</v>
-      </c>
-      <c r="AG47">
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -4264,56 +4137,56 @@
       <c r="N48">
         <v>308</v>
       </c>
-      <c r="P48" s="20">
+      <c r="O48" s="20">
         <v>57.1</v>
       </c>
+      <c r="Q48">
+        <v>449</v>
+      </c>
+      <c r="R48">
+        <v>3708</v>
+      </c>
       <c r="S48">
-        <v>449</v>
+        <v>1521</v>
       </c>
       <c r="T48">
-        <v>3708</v>
+        <v>4836</v>
       </c>
       <c r="U48">
-        <v>1521</v>
+        <v>2034</v>
       </c>
       <c r="V48">
-        <v>4836</v>
+        <v>1235</v>
       </c>
       <c r="W48">
-        <v>2034</v>
+        <v>10334</v>
       </c>
       <c r="X48">
-        <v>1235</v>
+        <v>190</v>
       </c>
       <c r="Y48">
-        <v>10334</v>
+        <v>7022</v>
       </c>
       <c r="Z48">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="AA48">
-        <v>7022</v>
+        <v>71</v>
       </c>
       <c r="AB48">
-        <v>360</v>
+        <v>52</v>
       </c>
       <c r="AC48">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="AD48">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="AE48">
-        <v>57</v>
-      </c>
-      <c r="AF48">
-        <v>30</v>
-      </c>
-      <c r="AG48">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -4357,56 +4230,56 @@
       <c r="N49">
         <v>320</v>
       </c>
-      <c r="P49" s="20">
+      <c r="O49" s="20">
         <v>68.3</v>
       </c>
+      <c r="Q49">
+        <v>459</v>
+      </c>
+      <c r="R49">
+        <v>3647</v>
+      </c>
       <c r="S49">
-        <v>459</v>
+        <v>1476</v>
       </c>
       <c r="T49">
-        <v>3647</v>
+        <v>4901</v>
       </c>
       <c r="U49">
-        <v>1476</v>
+        <v>2052</v>
       </c>
       <c r="V49">
-        <v>4901</v>
+        <v>870</v>
       </c>
       <c r="W49">
-        <v>2052</v>
+        <v>10603</v>
       </c>
       <c r="X49">
-        <v>870</v>
+        <v>199</v>
       </c>
       <c r="Y49">
-        <v>10603</v>
+        <v>7103</v>
       </c>
       <c r="Z49">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AA49">
-        <v>7103</v>
+        <v>36</v>
       </c>
       <c r="AB49">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="AC49">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AD49">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="AE49">
-        <v>75</v>
-      </c>
-      <c r="AF49">
-        <v>35</v>
-      </c>
-      <c r="AG49">
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -4450,56 +4323,56 @@
       <c r="N50">
         <v>320</v>
       </c>
-      <c r="P50" s="20">
+      <c r="O50" s="20">
         <v>66.400000000000006</v>
       </c>
+      <c r="Q50">
+        <v>463</v>
+      </c>
+      <c r="R50">
+        <v>3734</v>
+      </c>
       <c r="S50">
-        <v>463</v>
+        <v>1506</v>
       </c>
       <c r="T50">
-        <v>3734</v>
+        <v>4651</v>
       </c>
       <c r="U50">
-        <v>1506</v>
+        <v>1938</v>
       </c>
       <c r="V50">
-        <v>4651</v>
+        <v>1082</v>
       </c>
       <c r="W50">
-        <v>1938</v>
+        <v>10802</v>
       </c>
       <c r="X50">
-        <v>1082</v>
+        <v>206</v>
       </c>
       <c r="Y50">
-        <v>10802</v>
+        <v>8003</v>
       </c>
       <c r="Z50">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AA50">
-        <v>8003</v>
+        <v>41</v>
       </c>
       <c r="AB50">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="AC50">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="AD50">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AE50">
-        <v>93</v>
-      </c>
-      <c r="AF50">
-        <v>40</v>
-      </c>
-      <c r="AG50">
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -4543,56 +4416,56 @@
       <c r="N51">
         <v>319</v>
       </c>
-      <c r="P51" s="20">
+      <c r="O51" s="20">
         <v>67.599999999999994</v>
       </c>
+      <c r="Q51">
+        <v>470</v>
+      </c>
+      <c r="R51">
+        <v>3800</v>
+      </c>
       <c r="S51">
-        <v>470</v>
+        <v>1529</v>
       </c>
       <c r="T51">
-        <v>3800</v>
+        <v>4337</v>
       </c>
       <c r="U51">
-        <v>1529</v>
+        <v>1807</v>
       </c>
       <c r="V51">
-        <v>4337</v>
+        <v>1461</v>
       </c>
       <c r="W51">
-        <v>1807</v>
+        <v>11159</v>
       </c>
       <c r="X51">
-        <v>1461</v>
+        <v>212</v>
       </c>
       <c r="Y51">
-        <v>11159</v>
+        <v>7704</v>
       </c>
       <c r="Z51">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="AA51">
-        <v>7704</v>
+        <v>55</v>
       </c>
       <c r="AB51">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="AC51">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AD51">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE51">
-        <v>110</v>
-      </c>
-      <c r="AF51">
-        <v>45</v>
-      </c>
-      <c r="AG51">
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -4636,56 +4509,56 @@
       <c r="N52">
         <v>322</v>
       </c>
-      <c r="P52" s="20">
+      <c r="O52" s="20">
         <v>68.599999999999994</v>
       </c>
+      <c r="Q52">
+        <v>473</v>
+      </c>
+      <c r="R52">
+        <v>3976</v>
+      </c>
       <c r="S52">
-        <v>473</v>
+        <v>1546</v>
       </c>
       <c r="T52">
-        <v>3976</v>
+        <v>4233</v>
       </c>
       <c r="U52">
-        <v>1546</v>
+        <v>1752</v>
       </c>
       <c r="V52">
-        <v>4233</v>
+        <v>1621</v>
       </c>
       <c r="W52">
-        <v>1752</v>
+        <v>11717</v>
       </c>
       <c r="X52">
-        <v>1621</v>
+        <v>231</v>
       </c>
       <c r="Y52">
-        <v>11717</v>
+        <v>8848</v>
       </c>
       <c r="Z52">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="AA52">
-        <v>8848</v>
+        <v>75</v>
       </c>
       <c r="AB52">
-        <v>401</v>
+        <v>49</v>
       </c>
       <c r="AC52">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AD52">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE52">
-        <v>128</v>
-      </c>
-      <c r="AF52">
-        <v>50</v>
-      </c>
-      <c r="AG52">
         <v>725</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -4729,56 +4602,56 @@
       <c r="N53">
         <v>301</v>
       </c>
-      <c r="P53" s="20">
+      <c r="O53" s="20">
         <v>69.599999999999994</v>
       </c>
+      <c r="Q53">
+        <v>458</v>
+      </c>
+      <c r="R53">
+        <v>4059</v>
+      </c>
       <c r="S53">
-        <v>458</v>
+        <v>1552</v>
       </c>
       <c r="T53">
-        <v>4059</v>
+        <v>4263</v>
       </c>
       <c r="U53">
-        <v>1552</v>
+        <v>1742</v>
       </c>
       <c r="V53">
-        <v>4263</v>
+        <v>1389</v>
       </c>
       <c r="W53">
-        <v>1742</v>
+        <v>11738</v>
       </c>
       <c r="X53">
-        <v>1389</v>
+        <v>239</v>
       </c>
       <c r="Y53">
-        <v>11738</v>
+        <v>9584</v>
       </c>
       <c r="Z53">
-        <v>239</v>
+        <v>784</v>
       </c>
       <c r="AA53">
-        <v>9584</v>
+        <v>95</v>
       </c>
       <c r="AB53">
-        <v>784</v>
+        <v>48</v>
       </c>
       <c r="AC53">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="AD53">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AE53">
-        <v>145</v>
-      </c>
-      <c r="AF53">
-        <v>55</v>
-      </c>
-      <c r="AG53">
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -4822,56 +4695,56 @@
       <c r="N54">
         <v>272</v>
       </c>
-      <c r="P54" s="20">
+      <c r="O54" s="20">
         <v>68.900000000000006</v>
       </c>
+      <c r="Q54">
+        <v>424</v>
+      </c>
+      <c r="R54">
+        <v>4147</v>
+      </c>
       <c r="S54">
-        <v>424</v>
+        <v>1528</v>
       </c>
       <c r="T54">
-        <v>4147</v>
+        <v>4485</v>
       </c>
       <c r="U54">
-        <v>1528</v>
+        <v>1822</v>
       </c>
       <c r="V54">
-        <v>4485</v>
+        <v>1044</v>
       </c>
       <c r="W54">
-        <v>1822</v>
+        <v>11863</v>
       </c>
       <c r="X54">
-        <v>1044</v>
+        <v>243</v>
       </c>
       <c r="Y54">
-        <v>11863</v>
+        <v>8746</v>
       </c>
       <c r="Z54">
-        <v>243</v>
+        <v>603</v>
       </c>
       <c r="AA54">
-        <v>8746</v>
+        <v>139</v>
       </c>
       <c r="AB54">
-        <v>603</v>
+        <v>47</v>
       </c>
       <c r="AC54">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="AD54">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="AE54">
-        <v>163</v>
-      </c>
-      <c r="AF54">
-        <v>60</v>
-      </c>
-      <c r="AG54">
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -4915,56 +4788,56 @@
       <c r="N55">
         <v>270</v>
       </c>
-      <c r="P55" s="20">
+      <c r="O55" s="20">
         <v>75.5</v>
       </c>
+      <c r="Q55">
+        <v>418</v>
+      </c>
+      <c r="R55">
+        <v>4125</v>
+      </c>
       <c r="S55">
-        <v>418</v>
+        <v>1491</v>
       </c>
       <c r="T55">
-        <v>4125</v>
+        <v>4442</v>
       </c>
       <c r="U55">
-        <v>1491</v>
+        <v>1818</v>
       </c>
       <c r="V55">
-        <v>4442</v>
+        <v>1099</v>
       </c>
       <c r="W55">
-        <v>1818</v>
+        <v>12068</v>
       </c>
       <c r="X55">
-        <v>1099</v>
+        <v>257</v>
       </c>
       <c r="Y55">
-        <v>12068</v>
+        <v>9113</v>
       </c>
       <c r="Z55">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="AA55">
-        <v>9113</v>
+        <v>114</v>
       </c>
       <c r="AB55">
-        <v>350</v>
+        <v>46</v>
       </c>
       <c r="AC55">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="AD55">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AE55">
-        <v>181</v>
-      </c>
-      <c r="AF55">
-        <v>65</v>
-      </c>
-      <c r="AG55">
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -5008,56 +4881,56 @@
       <c r="N56">
         <v>272</v>
       </c>
-      <c r="P56" s="20">
+      <c r="O56" s="20">
         <v>79.2</v>
       </c>
+      <c r="Q56">
+        <v>423</v>
+      </c>
+      <c r="R56">
+        <v>4115</v>
+      </c>
       <c r="S56">
-        <v>423</v>
+        <v>1530</v>
       </c>
       <c r="T56">
-        <v>4115</v>
+        <v>4254</v>
       </c>
       <c r="U56">
-        <v>1530</v>
+        <v>1750</v>
       </c>
       <c r="V56">
-        <v>4254</v>
+        <v>1252</v>
       </c>
       <c r="W56">
-        <v>1750</v>
+        <v>12139</v>
       </c>
       <c r="X56">
-        <v>1252</v>
+        <v>271</v>
       </c>
       <c r="Y56">
-        <v>12139</v>
+        <v>11251</v>
       </c>
       <c r="Z56">
-        <v>271</v>
+        <v>543</v>
       </c>
       <c r="AA56">
-        <v>11251</v>
+        <v>122</v>
       </c>
       <c r="AB56">
-        <v>543</v>
+        <v>45</v>
       </c>
       <c r="AC56">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="AD56">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AE56">
-        <v>198</v>
-      </c>
-      <c r="AF56">
-        <v>70</v>
-      </c>
-      <c r="AG56">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -5101,56 +4974,56 @@
       <c r="N57">
         <v>266</v>
       </c>
-      <c r="P57" s="20">
+      <c r="O57" s="20">
         <v>81.400000000000006</v>
       </c>
+      <c r="Q57">
+        <v>420</v>
+      </c>
+      <c r="R57">
+        <v>4117</v>
+      </c>
       <c r="S57">
-        <v>420</v>
+        <v>1533</v>
       </c>
       <c r="T57">
-        <v>4117</v>
+        <v>4009</v>
       </c>
       <c r="U57">
-        <v>1533</v>
+        <v>1639</v>
       </c>
       <c r="V57">
-        <v>4009</v>
+        <v>1425</v>
       </c>
       <c r="W57">
-        <v>1639</v>
+        <v>13619</v>
       </c>
       <c r="X57">
-        <v>1425</v>
+        <v>264</v>
       </c>
       <c r="Y57">
-        <v>13619</v>
+        <v>10575</v>
       </c>
       <c r="Z57">
-        <v>264</v>
+        <v>670</v>
       </c>
       <c r="AA57">
-        <v>10575</v>
+        <v>81</v>
       </c>
       <c r="AB57">
-        <v>670</v>
+        <v>45</v>
       </c>
       <c r="AC57">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="AD57">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AE57">
-        <v>216</v>
-      </c>
-      <c r="AF57">
-        <v>75</v>
-      </c>
-      <c r="AG57">
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
@@ -5194,57 +5067,56 @@
       <c r="N58" s="14">
         <v>262</v>
       </c>
-      <c r="P58" s="24">
+      <c r="O58" s="24">
         <v>79.7</v>
       </c>
-      <c r="Q58" s="29"/>
+      <c r="Q58" s="14">
+        <v>415</v>
+      </c>
+      <c r="R58" s="14">
+        <v>3998</v>
+      </c>
       <c r="S58" s="14">
-        <v>415</v>
+        <v>1523</v>
       </c>
       <c r="T58" s="14">
-        <v>3998</v>
+        <v>3988</v>
       </c>
       <c r="U58" s="14">
-        <v>1523</v>
+        <v>1629</v>
       </c>
       <c r="V58" s="14">
-        <v>3988</v>
+        <v>1469</v>
       </c>
       <c r="W58" s="14">
-        <v>1629</v>
+        <v>13566</v>
       </c>
       <c r="X58" s="14">
-        <v>1469</v>
+        <v>267</v>
       </c>
       <c r="Y58" s="14">
-        <v>13566</v>
+        <v>9836</v>
       </c>
       <c r="Z58" s="14">
-        <v>267</v>
+        <v>778</v>
       </c>
       <c r="AA58" s="14">
-        <v>9836</v>
+        <v>208</v>
       </c>
       <c r="AB58" s="14">
-        <v>778</v>
+        <v>44</v>
       </c>
       <c r="AC58" s="14">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="AD58" s="14">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE58" s="14">
-        <v>233</v>
-      </c>
-      <c r="AF58" s="14">
-        <v>80</v>
-      </c>
-      <c r="AG58" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
@@ -5288,57 +5160,56 @@
       <c r="N59" s="14">
         <v>254</v>
       </c>
-      <c r="P59" s="24">
+      <c r="O59" s="24">
         <v>85.9</v>
       </c>
-      <c r="Q59" s="29"/>
+      <c r="Q59" s="14">
+        <v>404</v>
+      </c>
+      <c r="R59" s="14">
+        <v>3985</v>
+      </c>
       <c r="S59" s="14">
-        <v>404</v>
+        <v>1484</v>
       </c>
       <c r="T59" s="14">
-        <v>3985</v>
+        <v>4095</v>
       </c>
       <c r="U59" s="14">
-        <v>1484</v>
+        <v>1654</v>
       </c>
       <c r="V59" s="14">
-        <v>4095</v>
+        <v>1269</v>
       </c>
       <c r="W59" s="14">
-        <v>1654</v>
+        <v>13711</v>
       </c>
       <c r="X59" s="14">
-        <v>1269</v>
+        <v>279</v>
       </c>
       <c r="Y59" s="14">
-        <v>13711</v>
+        <v>10545</v>
       </c>
       <c r="Z59" s="14">
-        <v>279</v>
+        <v>858</v>
       </c>
       <c r="AA59" s="14">
-        <v>10545</v>
+        <v>179</v>
       </c>
       <c r="AB59" s="14">
-        <v>858</v>
+        <v>43</v>
       </c>
       <c r="AC59" s="14">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="AD59" s="14">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="AE59" s="14">
-        <v>251</v>
-      </c>
-      <c r="AF59" s="14">
-        <v>85</v>
-      </c>
-      <c r="AG59" s="14">
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
@@ -5382,57 +5253,56 @@
       <c r="N60" s="14">
         <v>252</v>
       </c>
-      <c r="P60" s="24">
+      <c r="O60" s="24">
         <v>88.6</v>
       </c>
-      <c r="Q60" s="29"/>
+      <c r="Q60" s="14">
+        <v>396</v>
+      </c>
+      <c r="R60" s="14">
+        <v>4068</v>
+      </c>
       <c r="S60" s="14">
-        <v>396</v>
+        <v>1465</v>
       </c>
       <c r="T60" s="14">
-        <v>4068</v>
+        <v>4018</v>
       </c>
       <c r="U60" s="14">
-        <v>1465</v>
+        <v>1625</v>
       </c>
       <c r="V60" s="14">
-        <v>4018</v>
+        <v>1072</v>
       </c>
       <c r="W60" s="14">
-        <v>1625</v>
+        <v>13783</v>
       </c>
       <c r="X60" s="14">
-        <v>1072</v>
+        <v>279</v>
       </c>
       <c r="Y60" s="14">
-        <v>13783</v>
+        <v>10008</v>
       </c>
       <c r="Z60" s="14">
-        <v>279</v>
+        <v>650</v>
       </c>
       <c r="AA60" s="14">
-        <v>10008</v>
+        <v>166</v>
       </c>
       <c r="AB60" s="14">
-        <v>650</v>
+        <v>42</v>
       </c>
       <c r="AC60" s="14">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="AD60" s="14">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="AE60" s="14">
-        <v>269</v>
-      </c>
-      <c r="AF60" s="14">
-        <v>91</v>
-      </c>
-      <c r="AG60" s="14">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -5476,56 +5346,56 @@
       <c r="N61">
         <v>247</v>
       </c>
-      <c r="P61" s="20">
+      <c r="O61" s="20">
         <v>86.6</v>
       </c>
+      <c r="Q61">
+        <v>385</v>
+      </c>
+      <c r="R61">
+        <v>3922</v>
+      </c>
       <c r="S61">
-        <v>385</v>
+        <v>1398</v>
       </c>
       <c r="T61">
-        <v>3922</v>
+        <v>3562</v>
       </c>
       <c r="U61">
-        <v>1398</v>
+        <v>1440</v>
       </c>
       <c r="V61">
-        <v>3562</v>
+        <v>850</v>
       </c>
       <c r="W61">
-        <v>1440</v>
+        <v>13430</v>
       </c>
       <c r="X61">
-        <v>850</v>
+        <v>266</v>
       </c>
       <c r="Y61">
-        <v>13430</v>
+        <v>9242</v>
       </c>
       <c r="Z61">
-        <v>266</v>
+        <v>632</v>
       </c>
       <c r="AA61">
-        <v>9242</v>
+        <v>140</v>
       </c>
       <c r="AB61">
-        <v>632</v>
+        <v>41</v>
       </c>
       <c r="AC61">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="AD61">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="AE61">
-        <v>286</v>
-      </c>
-      <c r="AF61">
-        <v>96</v>
-      </c>
-      <c r="AG61">
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -5569,56 +5439,56 @@
       <c r="N62">
         <v>257</v>
       </c>
-      <c r="P62" s="20">
+      <c r="O62" s="20">
         <v>82.9</v>
       </c>
+      <c r="Q62">
+        <v>391</v>
+      </c>
+      <c r="R62">
+        <v>3957</v>
+      </c>
       <c r="S62">
-        <v>391</v>
+        <v>1392</v>
       </c>
       <c r="T62">
-        <v>3957</v>
+        <v>3256</v>
       </c>
       <c r="U62">
-        <v>1392</v>
+        <v>1338</v>
       </c>
       <c r="V62">
-        <v>3256</v>
+        <v>1096</v>
       </c>
       <c r="W62">
-        <v>1338</v>
+        <v>13972</v>
       </c>
       <c r="X62">
-        <v>1096</v>
+        <v>266</v>
       </c>
       <c r="Y62">
-        <v>13972</v>
+        <v>7715</v>
       </c>
       <c r="Z62">
-        <v>266</v>
+        <v>637</v>
       </c>
       <c r="AA62">
-        <v>7715</v>
+        <v>101</v>
       </c>
       <c r="AB62">
-        <v>637</v>
+        <v>40</v>
       </c>
       <c r="AC62">
+        <v>304</v>
+      </c>
+      <c r="AD62">
         <v>101</v>
       </c>
-      <c r="AD62">
-        <v>40</v>
-      </c>
       <c r="AE62">
-        <v>304</v>
-      </c>
-      <c r="AF62">
-        <v>101</v>
-      </c>
-      <c r="AG62">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -5662,56 +5532,56 @@
       <c r="N63">
         <v>252</v>
       </c>
-      <c r="P63" s="20">
+      <c r="O63" s="20">
         <v>87.8</v>
       </c>
+      <c r="Q63">
+        <v>385</v>
+      </c>
+      <c r="R63">
+        <v>3987</v>
+      </c>
       <c r="S63">
-        <v>385</v>
+        <v>1399</v>
       </c>
       <c r="T63">
-        <v>3987</v>
+        <v>3072</v>
       </c>
       <c r="U63">
-        <v>1399</v>
+        <v>1261</v>
       </c>
       <c r="V63">
-        <v>3072</v>
+        <v>1430</v>
       </c>
       <c r="W63">
-        <v>1261</v>
+        <v>13999</v>
       </c>
       <c r="X63">
-        <v>1430</v>
+        <v>263</v>
       </c>
       <c r="Y63">
-        <v>13999</v>
+        <v>9899</v>
       </c>
       <c r="Z63">
-        <v>263</v>
+        <v>926</v>
       </c>
       <c r="AA63">
-        <v>9899</v>
+        <v>106</v>
       </c>
       <c r="AB63">
-        <v>926</v>
+        <v>39</v>
       </c>
       <c r="AC63">
+        <v>322</v>
+      </c>
+      <c r="AD63">
         <v>106</v>
       </c>
-      <c r="AD63">
-        <v>39</v>
-      </c>
       <c r="AE63">
-        <v>322</v>
-      </c>
-      <c r="AF63">
-        <v>106</v>
-      </c>
-      <c r="AG63">
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -5755,56 +5625,56 @@
       <c r="N64">
         <v>242</v>
       </c>
-      <c r="P64" s="20">
+      <c r="O64" s="20">
         <v>88.1</v>
       </c>
+      <c r="Q64">
+        <v>379</v>
+      </c>
+      <c r="R64">
+        <v>4097</v>
+      </c>
       <c r="S64">
-        <v>379</v>
+        <v>1402</v>
       </c>
       <c r="T64">
-        <v>4097</v>
+        <v>3219</v>
       </c>
       <c r="U64">
-        <v>1402</v>
+        <v>1330</v>
       </c>
       <c r="V64">
-        <v>3219</v>
+        <v>1348</v>
       </c>
       <c r="W64">
-        <v>1330</v>
+        <v>13382</v>
       </c>
       <c r="X64">
-        <v>1348</v>
+        <v>263</v>
       </c>
       <c r="Y64">
-        <v>13382</v>
+        <v>8985</v>
       </c>
       <c r="Z64">
-        <v>263</v>
+        <v>819</v>
       </c>
       <c r="AA64">
-        <v>8985</v>
+        <v>299</v>
       </c>
       <c r="AB64">
-        <v>819</v>
+        <v>38</v>
       </c>
       <c r="AC64">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="AD64">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="AE64">
-        <v>339</v>
-      </c>
-      <c r="AF64">
-        <v>111</v>
-      </c>
-      <c r="AG64">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -5848,56 +5718,56 @@
       <c r="N65">
         <v>240</v>
       </c>
-      <c r="P65" s="20">
+      <c r="O65" s="20">
         <v>90</v>
       </c>
+      <c r="Q65">
+        <v>375</v>
+      </c>
+      <c r="R65">
+        <v>4113</v>
+      </c>
       <c r="S65">
-        <v>375</v>
+        <v>1357</v>
       </c>
       <c r="T65">
-        <v>4113</v>
+        <v>3245</v>
       </c>
       <c r="U65">
-        <v>1357</v>
+        <v>1333</v>
       </c>
       <c r="V65">
-        <v>3245</v>
+        <v>1307</v>
       </c>
       <c r="W65">
-        <v>1333</v>
+        <v>12747</v>
       </c>
       <c r="X65">
-        <v>1307</v>
+        <v>254</v>
       </c>
       <c r="Y65">
-        <v>12747</v>
+        <v>7689</v>
       </c>
       <c r="Z65">
-        <v>254</v>
+        <v>737</v>
       </c>
       <c r="AA65">
-        <v>7689</v>
+        <v>145</v>
       </c>
       <c r="AB65">
-        <v>737</v>
+        <v>38</v>
       </c>
       <c r="AC65">
-        <v>145</v>
+        <v>357</v>
       </c>
       <c r="AD65">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AE65">
-        <v>357</v>
-      </c>
-      <c r="AF65">
-        <v>116</v>
-      </c>
-      <c r="AG65">
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -5941,56 +5811,56 @@
       <c r="N66">
         <v>239</v>
       </c>
-      <c r="P66" s="20">
+      <c r="O66" s="20">
         <v>84.4</v>
       </c>
+      <c r="Q66">
+        <v>374</v>
+      </c>
+      <c r="R66">
+        <v>4229</v>
+      </c>
       <c r="S66">
+        <v>1417</v>
+      </c>
+      <c r="T66">
+        <v>3478</v>
+      </c>
+      <c r="U66">
+        <v>1421</v>
+      </c>
+      <c r="V66">
+        <v>1269</v>
+      </c>
+      <c r="W66">
+        <v>13851</v>
+      </c>
+      <c r="X66">
+        <v>264</v>
+      </c>
+      <c r="Y66">
+        <v>9771</v>
+      </c>
+      <c r="Z66">
+        <v>901</v>
+      </c>
+      <c r="AA66">
+        <v>121</v>
+      </c>
+      <c r="AB66">
+        <v>37</v>
+      </c>
+      <c r="AC66">
         <v>374</v>
       </c>
-      <c r="T66">
-        <v>4229</v>
-      </c>
-      <c r="U66">
-        <v>1417</v>
-      </c>
-      <c r="V66">
-        <v>3478</v>
-      </c>
-      <c r="W66">
-        <v>1421</v>
-      </c>
-      <c r="X66">
-        <v>1269</v>
-      </c>
-      <c r="Y66">
-        <v>13851</v>
-      </c>
-      <c r="Z66">
-        <v>264</v>
-      </c>
-      <c r="AA66">
-        <v>9771</v>
-      </c>
-      <c r="AB66">
-        <v>901</v>
-      </c>
-      <c r="AC66">
+      <c r="AD66">
         <v>121</v>
       </c>
-      <c r="AD66">
-        <v>37</v>
-      </c>
       <c r="AE66">
-        <v>374</v>
-      </c>
-      <c r="AF66">
-        <v>121</v>
-      </c>
-      <c r="AG66">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -6031,56 +5901,56 @@
       <c r="N67">
         <v>239</v>
       </c>
-      <c r="P67" s="20">
+      <c r="O67" s="20">
         <v>84.1</v>
       </c>
+      <c r="Q67">
+        <v>375</v>
+      </c>
+      <c r="R67">
+        <v>4184</v>
+      </c>
       <c r="S67">
-        <v>375</v>
+        <v>1419</v>
       </c>
       <c r="T67">
-        <v>4184</v>
+        <v>3366</v>
       </c>
       <c r="U67">
-        <v>1419</v>
+        <v>1386</v>
       </c>
       <c r="V67">
-        <v>3366</v>
+        <v>1263</v>
       </c>
       <c r="W67">
-        <v>1386</v>
+        <v>13910</v>
       </c>
       <c r="X67">
-        <v>1263</v>
+        <v>266</v>
       </c>
       <c r="Y67">
-        <v>13910</v>
+        <v>6580</v>
       </c>
       <c r="Z67">
-        <v>266</v>
+        <v>871</v>
       </c>
       <c r="AA67">
-        <v>6580</v>
+        <v>126</v>
       </c>
       <c r="AB67">
-        <v>871</v>
+        <v>36</v>
       </c>
       <c r="AC67">
+        <v>392</v>
+      </c>
+      <c r="AD67">
         <v>126</v>
       </c>
-      <c r="AD67">
-        <v>36</v>
-      </c>
       <c r="AE67">
-        <v>392</v>
-      </c>
-      <c r="AF67">
-        <v>126</v>
-      </c>
-      <c r="AG67">
         <v>616</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -6121,56 +5991,56 @@
       <c r="N68">
         <v>238</v>
       </c>
-      <c r="P68" s="20">
+      <c r="O68" s="20">
         <v>97.2</v>
       </c>
+      <c r="Q68">
+        <v>377</v>
+      </c>
+      <c r="R68">
+        <v>4157</v>
+      </c>
       <c r="S68">
-        <v>377</v>
+        <v>1394</v>
       </c>
       <c r="T68">
-        <v>4157</v>
+        <v>3378</v>
       </c>
       <c r="U68">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="V68">
-        <v>3378</v>
+        <v>1408</v>
       </c>
       <c r="W68">
-        <v>1382</v>
+        <v>14461</v>
       </c>
       <c r="X68">
-        <v>1408</v>
+        <v>272</v>
       </c>
       <c r="Y68">
-        <v>14461</v>
+        <v>7611</v>
       </c>
       <c r="Z68">
-        <v>272</v>
+        <v>952</v>
       </c>
       <c r="AA68">
-        <v>7611</v>
+        <v>281</v>
       </c>
       <c r="AB68">
-        <v>952</v>
+        <v>35</v>
       </c>
       <c r="AC68">
-        <v>281</v>
+        <v>410</v>
       </c>
       <c r="AD68">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="AE68">
-        <v>410</v>
-      </c>
-      <c r="AF68">
-        <v>131</v>
-      </c>
-      <c r="AG68">
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -6211,56 +6081,56 @@
       <c r="N69">
         <v>239</v>
       </c>
-      <c r="P69" s="20">
+      <c r="O69" s="20">
         <v>97.5</v>
       </c>
+      <c r="Q69">
+        <v>378</v>
+      </c>
+      <c r="R69">
+        <v>4099</v>
+      </c>
       <c r="S69">
-        <v>378</v>
+        <v>1385</v>
       </c>
       <c r="T69">
-        <v>4099</v>
+        <v>3627</v>
       </c>
       <c r="U69">
-        <v>1385</v>
+        <v>1485</v>
       </c>
       <c r="V69">
-        <v>3627</v>
+        <v>1398</v>
       </c>
       <c r="W69">
-        <v>1485</v>
+        <v>14486</v>
       </c>
       <c r="X69">
-        <v>1398</v>
+        <v>296</v>
       </c>
       <c r="Y69">
-        <v>14486</v>
+        <v>6898</v>
       </c>
       <c r="Z69">
-        <v>296</v>
+        <v>1049</v>
       </c>
       <c r="AA69">
-        <v>6898</v>
+        <v>401</v>
       </c>
       <c r="AB69">
-        <v>1049</v>
+        <v>34</v>
       </c>
       <c r="AC69">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="AD69">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="AE69">
-        <v>427</v>
-      </c>
-      <c r="AF69">
-        <v>136</v>
-      </c>
-      <c r="AG69">
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -6301,56 +6171,56 @@
       <c r="N70">
         <v>235</v>
       </c>
-      <c r="P70" s="20">
+      <c r="O70" s="20">
         <v>100.8</v>
       </c>
+      <c r="Q70">
+        <v>373</v>
+      </c>
+      <c r="R70">
+        <v>4094</v>
+      </c>
       <c r="S70">
-        <v>373</v>
+        <v>1364</v>
       </c>
       <c r="T70">
-        <v>4094</v>
+        <v>3789</v>
       </c>
       <c r="U70">
-        <v>1364</v>
+        <v>1542</v>
       </c>
       <c r="V70">
-        <v>3789</v>
+        <v>1381</v>
       </c>
       <c r="W70">
-        <v>1542</v>
+        <v>14857</v>
       </c>
       <c r="X70">
-        <v>1381</v>
+        <v>304</v>
       </c>
       <c r="Y70">
-        <v>14857</v>
+        <v>7990</v>
       </c>
       <c r="Z70">
-        <v>304</v>
+        <v>1011</v>
       </c>
       <c r="AA70">
-        <v>7990</v>
+        <v>302</v>
       </c>
       <c r="AB70">
-        <v>1011</v>
+        <v>33</v>
       </c>
       <c r="AC70">
-        <v>302</v>
+        <v>445</v>
       </c>
       <c r="AD70">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="AE70">
-        <v>445</v>
-      </c>
-      <c r="AF70">
-        <v>141</v>
-      </c>
-      <c r="AG70">
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -6391,56 +6261,56 @@
       <c r="N71">
         <v>232</v>
       </c>
-      <c r="P71" s="20">
+      <c r="O71" s="20">
         <v>99.1</v>
       </c>
+      <c r="Q71">
+        <v>372</v>
+      </c>
+      <c r="R71">
+        <v>4240</v>
+      </c>
       <c r="S71">
-        <v>372</v>
+        <v>1401</v>
       </c>
       <c r="T71">
-        <v>4240</v>
+        <v>4323</v>
       </c>
       <c r="U71">
-        <v>1401</v>
+        <v>1752</v>
       </c>
       <c r="V71">
-        <v>4323</v>
+        <v>1570</v>
       </c>
       <c r="W71">
-        <v>1752</v>
+        <v>15408</v>
       </c>
       <c r="X71">
-        <v>1570</v>
+        <v>327</v>
       </c>
       <c r="Y71">
-        <v>15408</v>
+        <v>7812</v>
       </c>
       <c r="Z71">
-        <v>327</v>
+        <v>776</v>
       </c>
       <c r="AA71">
-        <v>7812</v>
+        <v>188</v>
       </c>
       <c r="AB71">
-        <v>776</v>
+        <v>32</v>
       </c>
       <c r="AC71">
-        <v>188</v>
+        <v>462</v>
       </c>
       <c r="AD71">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="AE71">
-        <v>462</v>
-      </c>
-      <c r="AF71">
-        <v>146</v>
-      </c>
-      <c r="AG71">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -6481,56 +6351,56 @@
       <c r="N72">
         <v>222</v>
       </c>
-      <c r="P72" s="20">
+      <c r="O72" s="20">
         <v>94.2</v>
       </c>
+      <c r="Q72">
+        <v>364</v>
+      </c>
+      <c r="R72">
+        <v>4449</v>
+      </c>
       <c r="S72">
-        <v>364</v>
+        <v>1442</v>
       </c>
       <c r="T72">
-        <v>4449</v>
+        <v>4723</v>
       </c>
       <c r="U72">
-        <v>1442</v>
+        <v>1922</v>
       </c>
       <c r="V72">
-        <v>4723</v>
+        <v>1368</v>
       </c>
       <c r="W72">
-        <v>1922</v>
+        <v>15276</v>
       </c>
       <c r="X72">
-        <v>1368</v>
+        <v>336</v>
       </c>
       <c r="Y72">
-        <v>15276</v>
+        <v>7450</v>
       </c>
       <c r="Z72">
-        <v>336</v>
+        <v>860</v>
       </c>
       <c r="AA72">
-        <v>7450</v>
+        <v>176</v>
       </c>
       <c r="AB72">
-        <v>860</v>
+        <v>31</v>
       </c>
       <c r="AC72">
-        <v>176</v>
+        <v>480</v>
       </c>
       <c r="AD72">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="AE72">
-        <v>480</v>
-      </c>
-      <c r="AF72">
-        <v>152</v>
-      </c>
-      <c r="AG72">
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -6571,56 +6441,56 @@
       <c r="N73">
         <v>218</v>
       </c>
-      <c r="P73" s="20">
+      <c r="O73" s="20">
         <v>98.6</v>
       </c>
+      <c r="Q73">
+        <v>357</v>
+      </c>
+      <c r="R73">
+        <v>4531</v>
+      </c>
       <c r="S73">
-        <v>357</v>
+        <v>1451</v>
       </c>
       <c r="T73">
-        <v>4531</v>
+        <v>4828</v>
       </c>
       <c r="U73">
-        <v>1451</v>
+        <v>1970</v>
       </c>
       <c r="V73">
-        <v>4828</v>
+        <v>1113</v>
       </c>
       <c r="W73">
-        <v>1970</v>
+        <v>15336</v>
       </c>
       <c r="X73">
-        <v>1113</v>
+        <v>333</v>
       </c>
       <c r="Y73">
-        <v>15336</v>
+        <v>6704</v>
       </c>
       <c r="Z73">
-        <v>333</v>
+        <v>1292</v>
       </c>
       <c r="AA73">
-        <v>6704</v>
+        <v>172</v>
       </c>
       <c r="AB73">
-        <v>1292</v>
+        <v>31</v>
       </c>
       <c r="AC73">
-        <v>172</v>
+        <v>498</v>
       </c>
       <c r="AD73">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="AE73">
-        <v>498</v>
-      </c>
-      <c r="AF73">
-        <v>157</v>
-      </c>
-      <c r="AG73">
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -6661,56 +6531,56 @@
       <c r="N74">
         <v>212</v>
       </c>
-      <c r="P74" s="20">
+      <c r="O74" s="20">
         <v>97.5</v>
       </c>
+      <c r="Q74">
+        <v>350</v>
+      </c>
+      <c r="R74">
+        <v>4464</v>
+      </c>
       <c r="S74">
-        <v>350</v>
+        <v>1441</v>
       </c>
       <c r="T74">
-        <v>4464</v>
+        <v>4421</v>
       </c>
       <c r="U74">
-        <v>1441</v>
+        <v>1822</v>
       </c>
       <c r="V74">
-        <v>4421</v>
+        <v>1152</v>
       </c>
       <c r="W74">
-        <v>1822</v>
+        <v>16097</v>
       </c>
       <c r="X74">
-        <v>1152</v>
+        <v>323</v>
       </c>
       <c r="Y74">
-        <v>16097</v>
+        <v>6350</v>
       </c>
       <c r="Z74">
-        <v>323</v>
+        <v>1210</v>
       </c>
       <c r="AA74">
-        <v>6350</v>
+        <v>169</v>
       </c>
       <c r="AB74">
-        <v>1210</v>
+        <v>30</v>
       </c>
       <c r="AC74">
-        <v>169</v>
+        <v>515</v>
       </c>
       <c r="AD74">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="AE74">
-        <v>515</v>
-      </c>
-      <c r="AF74">
-        <v>162</v>
-      </c>
-      <c r="AG74">
         <v>628</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -6751,56 +6621,56 @@
       <c r="N75">
         <v>211</v>
       </c>
-      <c r="P75" s="20">
+      <c r="O75" s="20">
         <v>102</v>
       </c>
+      <c r="Q75">
+        <v>355</v>
+      </c>
+      <c r="R75">
+        <v>4392</v>
+      </c>
       <c r="S75">
-        <v>355</v>
+        <v>1447</v>
       </c>
       <c r="T75">
-        <v>4392</v>
+        <v>4105</v>
       </c>
       <c r="U75">
-        <v>1447</v>
+        <v>1686</v>
       </c>
       <c r="V75">
-        <v>4105</v>
+        <v>1389</v>
       </c>
       <c r="W75">
-        <v>1686</v>
+        <v>16181</v>
       </c>
       <c r="X75">
-        <v>1389</v>
+        <v>319</v>
       </c>
       <c r="Y75">
-        <v>16181</v>
+        <v>5988</v>
       </c>
       <c r="Z75">
-        <v>319</v>
+        <v>1867</v>
       </c>
       <c r="AA75">
-        <v>5988</v>
+        <v>190</v>
       </c>
       <c r="AB75">
-        <v>1867</v>
+        <v>29</v>
       </c>
       <c r="AC75">
-        <v>190</v>
+        <v>533</v>
       </c>
       <c r="AD75">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="AE75">
-        <v>533</v>
-      </c>
-      <c r="AF75">
-        <v>167</v>
-      </c>
-      <c r="AG75">
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -6841,56 +6711,56 @@
       <c r="N76">
         <v>208</v>
       </c>
-      <c r="P76" s="20">
+      <c r="O76" s="20">
         <v>105.7</v>
       </c>
+      <c r="Q76">
+        <v>351</v>
+      </c>
+      <c r="R76">
+        <v>4358</v>
+      </c>
       <c r="S76">
-        <v>351</v>
+        <v>1434</v>
       </c>
       <c r="T76">
-        <v>4358</v>
+        <v>3913</v>
       </c>
       <c r="U76">
-        <v>1434</v>
+        <v>1603</v>
       </c>
       <c r="V76">
-        <v>3913</v>
+        <v>1338</v>
       </c>
       <c r="W76">
-        <v>1603</v>
+        <v>16370</v>
       </c>
       <c r="X76">
-        <v>1338</v>
+        <v>305</v>
       </c>
       <c r="Y76">
-        <v>16370</v>
+        <v>6899</v>
       </c>
       <c r="Z76">
-        <v>305</v>
+        <v>1345</v>
       </c>
       <c r="AA76">
-        <v>6899</v>
+        <v>247</v>
       </c>
       <c r="AB76">
-        <v>1345</v>
+        <v>28</v>
       </c>
       <c r="AC76">
-        <v>247</v>
+        <v>550</v>
       </c>
       <c r="AD76">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="AE76">
-        <v>550</v>
-      </c>
-      <c r="AF76">
-        <v>172</v>
-      </c>
-      <c r="AG76">
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -6931,56 +6801,56 @@
       <c r="N77">
         <v>206</v>
       </c>
-      <c r="P77" s="20">
+      <c r="O77" s="20">
         <v>105.2</v>
       </c>
+      <c r="Q77">
+        <v>349</v>
+      </c>
+      <c r="R77">
+        <v>4408</v>
+      </c>
       <c r="S77">
-        <v>349</v>
+        <v>1430</v>
       </c>
       <c r="T77">
-        <v>4408</v>
+        <v>4081</v>
       </c>
       <c r="U77">
-        <v>1430</v>
+        <v>1656</v>
       </c>
       <c r="V77">
-        <v>4081</v>
+        <v>1405</v>
       </c>
       <c r="W77">
-        <v>1656</v>
+        <v>17538</v>
       </c>
       <c r="X77">
-        <v>1405</v>
+        <v>306</v>
       </c>
       <c r="Y77">
-        <v>17538</v>
+        <v>5530</v>
       </c>
       <c r="Z77">
-        <v>306</v>
+        <v>1128</v>
       </c>
       <c r="AA77">
-        <v>5530</v>
+        <v>246</v>
       </c>
       <c r="AB77">
-        <v>1128</v>
+        <v>27</v>
       </c>
       <c r="AC77">
-        <v>246</v>
+        <v>568</v>
       </c>
       <c r="AD77">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="AE77">
-        <v>568</v>
-      </c>
-      <c r="AF77">
-        <v>177</v>
-      </c>
-      <c r="AG77">
         <v>638</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -7021,56 +6891,56 @@
       <c r="N78">
         <v>199</v>
       </c>
-      <c r="P78" s="20">
+      <c r="O78" s="20">
         <v>111.7</v>
       </c>
+      <c r="Q78">
+        <v>340</v>
+      </c>
+      <c r="R78">
+        <v>4465</v>
+      </c>
       <c r="S78">
-        <v>340</v>
+        <v>1435</v>
       </c>
       <c r="T78">
-        <v>4465</v>
+        <v>4158</v>
       </c>
       <c r="U78">
-        <v>1435</v>
+        <v>1703</v>
       </c>
       <c r="V78">
-        <v>4158</v>
+        <v>1327</v>
       </c>
       <c r="W78">
-        <v>1703</v>
+        <v>17777</v>
       </c>
       <c r="X78">
-        <v>1327</v>
+        <v>299</v>
       </c>
       <c r="Y78">
-        <v>17777</v>
+        <v>5274</v>
       </c>
       <c r="Z78">
-        <v>299</v>
+        <v>1209</v>
       </c>
       <c r="AA78">
-        <v>5274</v>
+        <v>233</v>
       </c>
       <c r="AB78">
-        <v>1209</v>
+        <v>26</v>
       </c>
       <c r="AC78">
-        <v>233</v>
+        <v>586</v>
       </c>
       <c r="AD78">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="AE78">
-        <v>586</v>
-      </c>
-      <c r="AF78">
-        <v>182</v>
-      </c>
-      <c r="AG78">
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -7111,56 +6981,56 @@
       <c r="N79">
         <v>195</v>
       </c>
-      <c r="P79" s="20">
+      <c r="O79" s="20">
         <v>105.9</v>
       </c>
+      <c r="Q79">
+        <v>337</v>
+      </c>
+      <c r="R79">
+        <v>4487</v>
+      </c>
       <c r="S79">
-        <v>337</v>
+        <v>1431</v>
       </c>
       <c r="T79">
-        <v>4487</v>
+        <v>4288</v>
       </c>
       <c r="U79">
-        <v>1431</v>
+        <v>1746</v>
       </c>
       <c r="V79">
-        <v>4288</v>
+        <v>1254</v>
       </c>
       <c r="W79">
-        <v>1746</v>
+        <v>17687</v>
       </c>
       <c r="X79">
-        <v>1254</v>
+        <v>296</v>
       </c>
       <c r="Y79">
-        <v>17687</v>
+        <v>4968</v>
       </c>
       <c r="Z79">
-        <v>296</v>
+        <v>1180</v>
       </c>
       <c r="AA79">
-        <v>4968</v>
+        <v>275</v>
       </c>
       <c r="AB79">
-        <v>1180</v>
+        <v>25</v>
       </c>
       <c r="AC79">
-        <v>275</v>
+        <v>603</v>
       </c>
       <c r="AD79">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="AE79">
-        <v>603</v>
-      </c>
-      <c r="AF79">
-        <v>187</v>
-      </c>
-      <c r="AG79">
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -7201,56 +7071,56 @@
       <c r="N80">
         <v>194</v>
       </c>
-      <c r="P80" s="20">
+      <c r="O80" s="20">
         <v>102.2</v>
       </c>
+      <c r="Q80">
+        <v>335</v>
+      </c>
+      <c r="R80">
+        <v>4507</v>
+      </c>
       <c r="S80">
-        <v>335</v>
+        <v>1444</v>
       </c>
       <c r="T80">
-        <v>4507</v>
+        <v>4365</v>
       </c>
       <c r="U80">
-        <v>1444</v>
+        <v>1785</v>
       </c>
       <c r="V80">
-        <v>4365</v>
+        <v>1363</v>
       </c>
       <c r="W80">
-        <v>1785</v>
+        <v>18234</v>
       </c>
       <c r="X80">
-        <v>1363</v>
+        <v>304</v>
       </c>
       <c r="Y80">
-        <v>18234</v>
+        <v>5516</v>
       </c>
       <c r="Z80">
-        <v>304</v>
+        <v>999</v>
       </c>
       <c r="AA80">
-        <v>5516</v>
+        <v>197</v>
       </c>
       <c r="AB80">
-        <v>999</v>
+        <v>24</v>
       </c>
       <c r="AC80">
-        <v>197</v>
+        <v>621</v>
       </c>
       <c r="AD80">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="AE80">
-        <v>621</v>
-      </c>
-      <c r="AF80">
-        <v>192</v>
-      </c>
-      <c r="AG80">
         <v>645</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -7291,52 +7161,52 @@
       <c r="N81">
         <v>191</v>
       </c>
-      <c r="P81" s="20">
+      <c r="O81" s="20">
         <v>100</v>
       </c>
+      <c r="Q81">
+        <v>334</v>
+      </c>
+      <c r="R81">
+        <v>4609</v>
+      </c>
       <c r="S81">
-        <v>334</v>
+        <v>1458</v>
       </c>
       <c r="T81">
-        <v>4609</v>
+        <v>4387</v>
       </c>
       <c r="U81">
-        <v>1458</v>
+        <v>1798</v>
       </c>
       <c r="V81">
-        <v>4387</v>
+        <v>1269</v>
       </c>
       <c r="W81">
-        <v>1798</v>
+        <v>18547</v>
       </c>
       <c r="X81">
-        <v>1269</v>
+        <v>306</v>
       </c>
       <c r="Y81">
-        <v>18547</v>
+        <v>5325</v>
       </c>
       <c r="Z81">
-        <v>306</v>
+        <v>1327</v>
       </c>
       <c r="AA81">
-        <v>5325</v>
+        <v>284</v>
       </c>
       <c r="AB81">
-        <v>1327</v>
+        <v>24</v>
       </c>
       <c r="AC81">
-        <v>284</v>
+        <v>639</v>
       </c>
       <c r="AD81">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="AE81">
-        <v>639</v>
-      </c>
-      <c r="AF81">
-        <v>197</v>
-      </c>
-      <c r="AG81">
         <v>683</v>
       </c>
     </row>
@@ -7389,19 +7259,19 @@
       <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="G1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
@@ -7421,13 +7291,13 @@
       <c r="C2" s="16">
         <v>0.27</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
       <c r="W2">
         <v>6.2489999999999997</v>
       </c>
@@ -7459,13 +7329,13 @@
       <c r="C3" s="16">
         <v>0.34</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
       <c r="W3">
         <v>5.8449999999999998</v>
       </c>
@@ -7496,13 +7366,13 @@
       <c r="C4" s="16">
         <v>0.21</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
       <c r="W4">
         <v>6.47</v>
       </c>
@@ -7533,13 +7403,13 @@
       <c r="C5" s="16">
         <v>0.48</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="W5">
         <v>7.8369999999999997</v>
       </c>
@@ -7570,13 +7440,13 @@
       <c r="C6" s="16">
         <v>0.33</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="W6">
         <v>7.7759999999999998</v>
       </c>
@@ -7607,13 +7477,13 @@
       <c r="C7" s="16">
         <v>0.48</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="W7">
         <v>7.9740000000000002</v>
       </c>
@@ -7644,13 +7514,13 @@
       <c r="C8" s="16">
         <v>0.53</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="W8">
         <v>8.0009999999999994</v>
       </c>
@@ -7681,13 +7551,13 @@
       <c r="C9" s="16">
         <v>0.25</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="W9">
         <v>6.4669999999999996</v>
       </c>
@@ -7718,13 +7588,13 @@
       <c r="C10" s="16">
         <v>0.31</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="W10">
         <v>6.7380000000000004</v>
       </c>
@@ -7755,13 +7625,13 @@
       <c r="C11" s="16">
         <v>0.43</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="W11">
         <v>7.702</v>
       </c>
@@ -7792,13 +7662,13 @@
       <c r="C12" s="16">
         <v>0.44</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="W12">
         <v>7.3120000000000003</v>
       </c>
@@ -7829,13 +7699,13 @@
       <c r="C13" s="16">
         <v>0.24</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="W13">
         <v>5.4210000000000003</v>
       </c>
@@ -7866,13 +7736,13 @@
       <c r="C14" s="16">
         <v>0.2</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="W14">
         <v>5.1130000000000004</v>
       </c>
@@ -7903,13 +7773,13 @@
       <c r="C15" s="16">
         <v>0.4</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
       <c r="W15">
         <v>5.7619999999999996</v>
       </c>
@@ -7940,13 +7810,13 @@
       <c r="C16" s="16">
         <v>0.22</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="W16">
         <v>6.4349999999999996</v>
       </c>
@@ -7977,13 +7847,13 @@
       <c r="C17" s="16">
         <v>0.34</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
       <c r="W17">
         <v>7.1760000000000002</v>
       </c>
@@ -8014,13 +7884,13 @@
       <c r="C18" s="16">
         <v>0.49</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
       <c r="W18">
         <v>6.8049999999999997</v>
       </c>
@@ -8051,13 +7921,13 @@
       <c r="C19" s="16">
         <v>0.37</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="W19">
         <v>6.7510000000000003</v>
       </c>
@@ -8088,22 +7958,22 @@
       <c r="C20" s="16">
         <v>0.46</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="25">
         <v>471</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="25">
         <v>70.8</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="25">
         <f>F20/G20</f>
         <v>6.6525423728813564</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="25">
         <v>95</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30">
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25">
         <v>38</v>
       </c>
       <c r="W20">
@@ -8136,22 +8006,22 @@
       <c r="C21" s="16">
         <v>0.44</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="25">
         <v>318</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="25">
         <v>66.400000000000006</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="25">
         <f t="shared" ref="H21:H40" si="3">F21/G21</f>
         <v>4.7891566265060233</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="25">
         <v>51</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30">
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25">
         <v>21</v>
       </c>
       <c r="W21">
@@ -8184,22 +8054,22 @@
       <c r="C22" s="16">
         <v>0.4</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="25">
         <v>399</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="25">
         <v>64.400000000000006</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="25">
         <f t="shared" si="3"/>
         <v>6.195652173913043</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="25">
         <v>74</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25">
         <v>6</v>
       </c>
       <c r="W22">
@@ -8232,22 +8102,22 @@
       <c r="C23" s="16">
         <v>0.5</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="25">
         <v>368</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="25">
         <v>57.4</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="25">
         <f t="shared" si="3"/>
         <v>6.4111498257839719</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="25">
         <v>112</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30">
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25">
         <v>46</v>
       </c>
       <c r="W23">
@@ -8280,22 +8150,22 @@
       <c r="C24" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="25">
         <v>754</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="25">
         <v>50.2</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="25">
         <f t="shared" si="3"/>
         <v>15.019920318725099</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="25">
         <v>9</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30">
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25">
         <v>6</v>
       </c>
       <c r="W24">
@@ -8328,22 +8198,22 @@
       <c r="C25" s="16">
         <v>0.35</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="25">
         <v>802</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="25">
         <v>51.4</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="25">
         <f t="shared" si="3"/>
         <v>15.603112840466926</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="25">
         <v>39</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30">
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25">
         <v>13</v>
       </c>
       <c r="W25">
@@ -8376,22 +8246,22 @@
       <c r="C26" s="16">
         <v>0.39</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="25">
         <v>1420</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="25">
         <v>50.11</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="25">
         <f t="shared" si="3"/>
         <v>28.337657154260626</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="25">
         <v>47</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30">
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25">
         <v>18</v>
       </c>
       <c r="W26">
@@ -8423,22 +8293,22 @@
       <c r="C27" s="16">
         <v>1.41</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="25">
         <v>717</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="25">
         <v>54.8</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="25">
         <f t="shared" si="3"/>
         <v>13.083941605839417</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="25">
         <v>85</v>
       </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30">
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25">
         <v>43</v>
       </c>
       <c r="W27">
@@ -8470,22 +8340,22 @@
       <c r="C28" s="16">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="26">
         <v>355</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="26">
         <v>69.900000000000006</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="26">
         <f t="shared" si="3"/>
         <v>5.0786838340486407</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="26">
         <v>234</v>
       </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31">
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26">
         <v>125</v>
       </c>
       <c r="W28" s="1">
@@ -8533,22 +8403,22 @@
       <c r="C29" s="16">
         <v>1.28</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="25">
         <v>556</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="25">
         <v>50.7</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="25">
         <f t="shared" si="3"/>
         <v>10.966469428007889</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="25">
         <v>49</v>
       </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30">
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25">
         <v>9</v>
       </c>
       <c r="W29">
@@ -8596,22 +8466,22 @@
       <c r="C30" s="16">
         <v>0.94</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="25">
         <v>428</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="25">
         <v>44.2</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="25">
         <f t="shared" si="3"/>
         <v>9.6832579185520355</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="25">
         <v>65</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30">
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25">
         <v>42</v>
       </c>
       <c r="W30">
@@ -8659,22 +8529,22 @@
       <c r="C31" s="16">
         <v>0.96</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="25">
         <v>322</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="25">
         <v>40.299999999999997</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="25">
         <f t="shared" si="3"/>
         <v>7.9900744416873453</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="25">
         <v>150</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30">
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25">
         <v>31</v>
       </c>
       <c r="W31" s="3">
@@ -8722,30 +8592,30 @@
       <c r="C32" s="16">
         <v>0.77</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="25">
         <v>173</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="25">
         <v>38.700000000000003</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="25">
         <f t="shared" si="3"/>
         <v>4.4702842377260978</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="25">
         <v>145</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="25">
         <v>24.9</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="25">
         <f>I32/J32</f>
         <v>5.8232931726907635</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="25">
         <v>12</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="25">
         <v>18.7</v>
       </c>
       <c r="N32">
@@ -8797,30 +8667,30 @@
       <c r="C33" s="16">
         <v>0.87</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="25">
         <v>102</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="25">
         <v>40.1</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="25">
         <f t="shared" si="3"/>
         <v>2.5436408977556111</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="25">
         <v>62</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="25">
         <v>28.7</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="25">
         <f t="shared" ref="K33:K40" si="8">I33/J33</f>
         <v>2.1602787456445993</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="25">
         <v>14</v>
       </c>
-      <c r="M33" s="30">
+      <c r="M33" s="25">
         <v>19.100000000000001</v>
       </c>
       <c r="N33">
@@ -8872,30 +8742,30 @@
       <c r="C34" s="16">
         <v>0.87</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="25">
         <v>135</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="25">
         <v>53.3</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="25">
         <f t="shared" si="3"/>
         <v>2.5328330206378986</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="25">
         <v>50</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="25">
         <v>33.299999999999997</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="25">
         <f t="shared" si="8"/>
         <v>1.5015015015015016</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="25">
         <v>29</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34" s="25">
         <v>21</v>
       </c>
       <c r="N34">
@@ -8947,30 +8817,30 @@
       <c r="C35" s="16">
         <v>1.17</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="25">
         <v>252</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="25">
         <v>72.5</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="25">
         <f t="shared" si="3"/>
         <v>3.4758620689655171</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="25">
         <v>75</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="25">
         <v>36</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="25">
         <f t="shared" si="8"/>
         <v>2.0833333333333335</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="25">
         <v>26</v>
       </c>
-      <c r="M35" s="30">
+      <c r="M35" s="25">
         <v>27.11</v>
       </c>
       <c r="N35">
@@ -9022,30 +8892,30 @@
       <c r="C36" s="16">
         <v>0.84</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="25">
         <v>312</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="25">
         <v>74.900000000000006</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="25">
         <f t="shared" si="3"/>
         <v>4.1655540720961275</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="25">
         <v>289</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="25">
         <v>34.9</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="25">
         <f t="shared" si="8"/>
         <v>8.2808022922636102</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="25">
         <v>15</v>
       </c>
-      <c r="M36" s="30">
+      <c r="M36" s="25">
         <v>27.6</v>
       </c>
       <c r="N36">
@@ -9097,30 +8967,30 @@
       <c r="C37" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="25">
         <v>359</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="25">
         <v>69.2</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="25">
         <f t="shared" si="3"/>
         <v>5.1878612716763</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="25">
         <v>246</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="25">
         <v>41.2</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="25">
         <f t="shared" si="8"/>
         <v>5.9708737864077666</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="25">
         <v>9</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="25">
         <v>25.3</v>
       </c>
       <c r="N37">
@@ -9172,30 +9042,30 @@
       <c r="C38" s="16">
         <v>0.99</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="25">
         <v>334</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="25">
         <v>56.5</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="25">
         <f t="shared" si="3"/>
         <v>5.9115044247787614</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="25">
         <v>178</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="25">
         <v>42.2</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="25">
         <f t="shared" si="8"/>
         <v>4.2180094786729851</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="25">
         <v>14</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="25">
         <v>25</v>
       </c>
       <c r="N38">
@@ -9247,30 +9117,30 @@
       <c r="C39" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="25">
         <v>298</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="25">
         <v>44.3</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="25">
         <f t="shared" si="3"/>
         <v>6.7268623024830703</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="25">
         <v>110</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="25">
         <v>34.9</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="25">
         <f t="shared" si="8"/>
         <v>3.151862464183381</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="25">
         <v>19</v>
       </c>
-      <c r="M39" s="30">
+      <c r="M39" s="25">
         <v>24.7</v>
       </c>
       <c r="N39">
@@ -9322,30 +9192,30 @@
       <c r="C40" s="16">
         <v>0.69</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="25">
         <v>320</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="25">
         <v>43.1</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="25">
         <f t="shared" si="3"/>
         <v>7.4245939675174011</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="25">
         <v>42</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="25">
         <v>33.6</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="25">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="25">
         <v>25</v>
       </c>
-      <c r="M40" s="30">
+      <c r="M40" s="25">
         <v>23.3</v>
       </c>
       <c r="N40">
@@ -9397,23 +9267,23 @@
       <c r="C41" s="16">
         <v>1.03</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="25">
         <v>161</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30">
+      <c r="G41" s="25"/>
+      <c r="H41" s="25">
         <f>AVERAGE(H33:H40)</f>
         <v>4.7460890032388363</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="25">
         <v>61</v>
       </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30">
+      <c r="J41" s="25"/>
+      <c r="K41" s="25">
         <f>AVERAGE(K32:K40)</f>
         <v>3.8266616416331041</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="25">
         <v>8</v>
       </c>
       <c r="N41">
@@ -9465,17 +9335,17 @@
       <c r="C42" s="16">
         <v>0.88</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="25">
         <v>236</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30">
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25">
         <v>128</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30">
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25">
         <v>6</v>
       </c>
       <c r="W42">
@@ -9523,17 +9393,17 @@
       <c r="C43" s="16">
         <v>0.7</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="25">
         <v>150</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30">
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25">
         <v>181</v>
       </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30">
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25">
         <v>232</v>
       </c>
       <c r="W43">
@@ -9581,17 +9451,17 @@
       <c r="C44" s="16">
         <v>0.49</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="25">
         <v>161</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30">
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25">
         <v>62</v>
       </c>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30">
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25">
         <v>39</v>
       </c>
       <c r="Q44" t="s">
@@ -9652,17 +9522,17 @@
         <f>7*D45/100</f>
         <v>6.16</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="25">
         <v>63</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30">
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25">
         <v>66</v>
       </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30">
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25">
         <v>12</v>
       </c>
       <c r="N45">
@@ -9738,17 +9608,17 @@
         <f t="shared" ref="E46:E100" si="10">7*D46/100</f>
         <v>22.61</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="25">
         <v>62</v>
       </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30">
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25">
         <v>76</v>
       </c>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30">
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25">
         <v>25</v>
       </c>
       <c r="N46">
@@ -9824,17 +9694,17 @@
         <f t="shared" si="10"/>
         <v>17.78</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="25">
         <v>59</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30">
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25">
         <v>31</v>
       </c>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30">
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25">
         <v>36</v>
       </c>
       <c r="N47">
@@ -9910,17 +9780,17 @@
         <f t="shared" si="10"/>
         <v>20.440000000000001</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="25">
         <v>52</v>
       </c>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30">
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25">
         <v>57</v>
       </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30">
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25">
         <v>30</v>
       </c>
       <c r="N48">
@@ -9996,17 +9866,17 @@
         <f t="shared" si="10"/>
         <v>15.05</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="25">
         <v>52</v>
       </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30">
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25">
         <v>75</v>
       </c>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30">
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25">
         <v>35</v>
       </c>
       <c r="N49">
@@ -10082,17 +9952,17 @@
         <f t="shared" si="10"/>
         <v>15.33</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="25">
         <v>51</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30">
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25">
         <v>93</v>
       </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30">
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25">
         <v>40</v>
       </c>
       <c r="N50">
@@ -10168,17 +10038,17 @@
         <f t="shared" si="10"/>
         <v>12.25</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="25">
         <v>50</v>
       </c>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30">
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25">
         <v>110</v>
       </c>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30">
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25">
         <v>45</v>
       </c>
       <c r="N51">
@@ -10254,17 +10124,17 @@
         <f t="shared" si="10"/>
         <v>13.93</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="25">
         <v>49</v>
       </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30">
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25">
         <v>128</v>
       </c>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30">
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25">
         <v>50</v>
       </c>
       <c r="N52">
@@ -10340,17 +10210,17 @@
         <f t="shared" si="10"/>
         <v>15.61</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="25">
         <v>48</v>
       </c>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30">
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25">
         <v>145</v>
       </c>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30">
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25">
         <v>55</v>
       </c>
       <c r="N53">
@@ -10426,17 +10296,17 @@
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="25">
         <v>47</v>
       </c>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30">
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25">
         <v>163</v>
       </c>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30">
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25">
         <v>60</v>
       </c>
       <c r="N54">
@@ -10512,17 +10382,17 @@
         <f t="shared" si="10"/>
         <v>15.05</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F55" s="25">
         <v>46</v>
       </c>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30">
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25">
         <v>181</v>
       </c>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30">
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25">
         <v>65</v>
       </c>
       <c r="N55">
@@ -10598,17 +10468,17 @@
         <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="25">
         <v>45</v>
       </c>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30">
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25">
         <v>198</v>
       </c>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30">
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25">
         <v>70</v>
       </c>
       <c r="N56">
@@ -10684,17 +10554,17 @@
         <f t="shared" si="10"/>
         <v>17.78</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="25">
         <v>45</v>
       </c>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30">
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25">
         <v>216</v>
       </c>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30">
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25">
         <v>75</v>
       </c>
       <c r="N57">
@@ -10770,17 +10640,17 @@
         <f t="shared" si="10"/>
         <v>10.220000000000001</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="27">
         <v>44</v>
       </c>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32">
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27">
         <v>233</v>
       </c>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32">
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27">
         <v>80</v>
       </c>
       <c r="N58">
@@ -10856,17 +10726,17 @@
         <f t="shared" si="10"/>
         <v>12.39</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="27">
         <v>43</v>
       </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32">
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27">
         <v>251</v>
       </c>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32">
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27">
         <v>85</v>
       </c>
       <c r="N59">
@@ -10942,17 +10812,17 @@
         <f t="shared" si="10"/>
         <v>18.55</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F60" s="27">
         <v>42</v>
       </c>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32">
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27">
         <v>269</v>
       </c>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32">
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27">
         <v>91</v>
       </c>
       <c r="N60">
@@ -11028,17 +10898,17 @@
         <f t="shared" si="10"/>
         <v>15.89</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="25">
         <v>41</v>
       </c>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30">
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25">
         <v>286</v>
       </c>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30">
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25">
         <v>96</v>
       </c>
       <c r="N61">
@@ -11114,17 +10984,17 @@
         <f t="shared" si="10"/>
         <v>12.67</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="25">
         <v>40</v>
       </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30">
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25">
         <v>304</v>
       </c>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30">
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25">
         <v>101</v>
       </c>
       <c r="N62">
@@ -11200,17 +11070,17 @@
         <f t="shared" si="10"/>
         <v>8.89</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="25">
         <v>39</v>
       </c>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30">
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25">
         <v>322</v>
       </c>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30">
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25">
         <v>106</v>
       </c>
       <c r="N63">
@@ -11286,17 +11156,17 @@
         <f t="shared" si="10"/>
         <v>9.17</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="25">
         <v>38</v>
       </c>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30">
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25">
         <v>339</v>
       </c>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30">
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25">
         <v>111</v>
       </c>
       <c r="N64">
@@ -11372,17 +11242,17 @@
         <f t="shared" si="10"/>
         <v>10.220000000000001</v>
       </c>
-      <c r="F65" s="30">
+      <c r="F65" s="25">
         <v>38</v>
       </c>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30">
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25">
         <v>357</v>
       </c>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30">
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25">
         <v>116</v>
       </c>
       <c r="N65">
@@ -11458,17 +11328,17 @@
         <f t="shared" si="10"/>
         <v>12.11</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F66" s="25">
         <v>37</v>
       </c>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30">
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25">
         <v>374</v>
       </c>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30">
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25">
         <v>121</v>
       </c>
       <c r="N66">
@@ -11544,17 +11414,17 @@
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="F67" s="30">
+      <c r="F67" s="25">
         <v>36</v>
       </c>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30">
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25">
         <v>392</v>
       </c>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30">
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25">
         <v>126</v>
       </c>
       <c r="N67">
@@ -11630,17 +11500,17 @@
         <f t="shared" si="10"/>
         <v>12.39</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="25">
         <v>35</v>
       </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30">
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25">
         <v>410</v>
       </c>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30">
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25">
         <v>131</v>
       </c>
       <c r="N68">
@@ -11716,17 +11586,17 @@
         <f t="shared" si="10"/>
         <v>10.78</v>
       </c>
-      <c r="F69" s="30">
+      <c r="F69" s="25">
         <v>34</v>
       </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30">
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25">
         <v>427</v>
       </c>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30">
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25">
         <v>136</v>
       </c>
       <c r="N69">
@@ -11802,17 +11672,17 @@
         <f t="shared" si="10"/>
         <v>12.95</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="25">
         <v>33</v>
       </c>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30">
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25">
         <v>445</v>
       </c>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30">
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25">
         <v>141</v>
       </c>
       <c r="N70">
@@ -11888,17 +11758,17 @@
         <f t="shared" si="10"/>
         <v>13.72</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="25">
         <v>32</v>
       </c>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30">
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25">
         <v>462</v>
       </c>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30">
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25">
         <v>146</v>
       </c>
       <c r="N71">
@@ -11974,17 +11844,17 @@
         <f t="shared" si="10"/>
         <v>21.84</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F72" s="25">
         <v>31</v>
       </c>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30">
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25">
         <v>480</v>
       </c>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30">
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25">
         <v>152</v>
       </c>
       <c r="N72">
@@ -12060,17 +11930,17 @@
         <f t="shared" si="10"/>
         <v>15.61</v>
       </c>
-      <c r="F73" s="30">
+      <c r="F73" s="25">
         <v>31</v>
       </c>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30">
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25">
         <v>498</v>
       </c>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30">
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25">
         <v>157</v>
       </c>
       <c r="N73">
@@ -12146,17 +12016,17 @@
         <f t="shared" si="10"/>
         <v>9.94</v>
       </c>
-      <c r="F74" s="30">
+      <c r="F74" s="25">
         <v>30</v>
       </c>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30">
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25">
         <v>515</v>
       </c>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30">
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25">
         <v>162</v>
       </c>
       <c r="N74">
@@ -12232,17 +12102,17 @@
         <f t="shared" si="10"/>
         <v>11.34</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="25">
         <v>29</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30">
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25">
         <v>533</v>
       </c>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30">
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25">
         <v>167</v>
       </c>
       <c r="N75">
@@ -12318,17 +12188,17 @@
         <f t="shared" si="10"/>
         <v>11.41</v>
       </c>
-      <c r="F76" s="30">
+      <c r="F76" s="25">
         <v>28</v>
       </c>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30">
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25">
         <v>550</v>
       </c>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30">
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25">
         <v>172</v>
       </c>
       <c r="N76">
@@ -12404,17 +12274,17 @@
         <f t="shared" si="10"/>
         <v>19.39</v>
       </c>
-      <c r="F77" s="30">
+      <c r="F77" s="25">
         <v>27</v>
       </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30">
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25">
         <v>568</v>
       </c>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30">
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25">
         <v>177</v>
       </c>
       <c r="N77">
@@ -12490,17 +12360,17 @@
         <f t="shared" si="10"/>
         <v>14.56</v>
       </c>
-      <c r="F78" s="30">
+      <c r="F78" s="25">
         <v>26</v>
       </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30">
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25">
         <v>586</v>
       </c>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30">
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25">
         <v>182</v>
       </c>
       <c r="N78">
@@ -12576,17 +12446,17 @@
         <f t="shared" si="10"/>
         <v>19.95</v>
       </c>
-      <c r="F79" s="30">
+      <c r="F79" s="25">
         <v>25</v>
       </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30">
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25">
         <v>603</v>
       </c>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30">
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25">
         <v>187</v>
       </c>
       <c r="N79">
@@ -12662,17 +12532,17 @@
         <f t="shared" si="10"/>
         <v>9.94</v>
       </c>
-      <c r="F80" s="30">
+      <c r="F80" s="25">
         <v>24</v>
       </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30">
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25">
         <v>621</v>
       </c>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30">
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25">
         <v>192</v>
       </c>
       <c r="N80">
@@ -12748,17 +12618,17 @@
         <f t="shared" si="10"/>
         <v>7.56</v>
       </c>
-      <c r="F81" s="30">
+      <c r="F81" s="25">
         <v>24</v>
       </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30">
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25">
         <v>639</v>
       </c>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30">
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25">
         <v>197</v>
       </c>
       <c r="N81">

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68642D4D-43B0-8B4C-968E-BB9A20E44133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DBA5E6-E3D9-1F4C-8728-E691A3A3946A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16360" yWindow="500" windowWidth="18720" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="5080" yWindow="500" windowWidth="25320" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Draft" sheetId="3" r:id="rId3"/>
-    <sheet name="Draft2" sheetId="5" r:id="rId4"/>
+    <sheet name="Draft" sheetId="3" r:id="rId2"/>
+    <sheet name="Draft2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
@@ -602,7 +601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <selection pane="topRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7217,34 +7216,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C14ED21-3FE9-2B49-8E33-7D37A4AE820F}">
-  <dimension ref="A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C18A9-4F48-4D4D-9F77-EF08D571A3B2}">
   <dimension ref="C1:AH100"/>
   <sheetViews>
-    <sheetView topLeftCell="I17" zoomScale="125" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView zoomScale="125" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13289,12 +13265,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7E97EE-48EF-AA45-8A22-7F369BB74D6D}">
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A21:C35"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DBA5E6-E3D9-1F4C-8728-E691A3A3946A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DD052D-AE4F-EE4E-9E08-AB42ACDF57FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="500" windowWidth="25320" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
@@ -143,6 +143,9 @@
   <si>
     <t>wheat_price_UK</t>
   </si>
+  <si>
+    <t>if_tithe</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +175,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -254,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -283,6 +292,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,11 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AE81"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M16" sqref="M16"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,30 +620,30 @@
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="20" customWidth="1"/>
-    <col min="16" max="17" width="11.5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="13.83203125" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" customWidth="1"/>
-    <col min="28" max="28" width="12.5" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="20" customWidth="1"/>
+    <col min="17" max="18" width="11.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="12" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="11" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="13.83203125" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" customWidth="1"/>
+    <col min="29" max="29" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -649,86 +659,89 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -745,44 +758,47 @@
         <v>13.39</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>6.2489999999999997</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <f>23.67/4.85</f>
         <v>4.880412371134021</v>
       </c>
-      <c r="H2" s="18">
+      <c r="I2" s="18">
         <v>1.6</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>1.23</v>
       </c>
-      <c r="J2" s="2">
-        <f>G2/D2</f>
+      <c r="K2" s="2">
+        <f>H2/D2</f>
         <v>0.27113402061855674</v>
       </c>
-      <c r="K2" s="11">
+      <c r="L2" s="11">
         <v>156</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M2" s="11">
         <v>402</v>
       </c>
-      <c r="M2" s="11">
+      <c r="N2" s="11">
         <v>60</v>
       </c>
-      <c r="N2" s="11">
+      <c r="O2" s="11">
         <v>296.87219999999996</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="17"/>
-      <c r="AB2">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="17"/>
+      <c r="AC2">
         <v>249</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -799,43 +815,46 @@
         <v>13.28</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>5.8449999999999998</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>6.8</v>
       </c>
-      <c r="H3" s="18">
+      <c r="I3" s="18">
         <v>1.25</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>1.29</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J66" si="0">G3/D3</f>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K66" si="0">H3/D3</f>
         <v>0.33999999999999997</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="11">
         <v>165</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>376</v>
       </c>
-      <c r="M3" s="11">
+      <c r="N3" s="11">
         <v>63</v>
       </c>
-      <c r="N3" s="11">
+      <c r="O3" s="11">
         <v>255.52860000000001</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="17"/>
-      <c r="AB3">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="17"/>
+      <c r="AC3">
         <v>146</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -852,43 +871,46 @@
         <v>13.63</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>6.47</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3.85</v>
       </c>
-      <c r="H4" s="18">
+      <c r="I4" s="18">
         <v>1.57</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <v>1.38</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>0.21388888888888891</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <v>149</v>
       </c>
-      <c r="L4" s="11">
+      <c r="M4" s="11">
         <v>416</v>
       </c>
-      <c r="M4" s="11">
+      <c r="N4" s="11">
         <v>68</v>
       </c>
-      <c r="N4" s="11">
+      <c r="O4" s="11">
         <v>272.50619999999998</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="17"/>
-      <c r="AB4">
+      <c r="P4" s="21"/>
+      <c r="Q4" s="17"/>
+      <c r="AC4">
         <v>218</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -905,43 +927,46 @@
         <v>13.87</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>7.8369999999999997</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>7.7</v>
       </c>
-      <c r="H5" s="18">
+      <c r="I5" s="18">
         <v>1.62</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>1.24</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>0.48125000000000001</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>171</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <v>504</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11">
         <v>61</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O5" s="11">
         <v>275.09999999999997</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="17"/>
-      <c r="AB5">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="17"/>
+      <c r="AC5">
         <v>222</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -958,43 +983,46 @@
         <v>12.32</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>7.7759999999999998</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.3</v>
       </c>
-      <c r="H6" s="18">
+      <c r="I6" s="18">
         <v>1.69</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>1.21</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <f t="shared" si="0"/>
         <v>0.33124999999999999</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <v>154</v>
       </c>
-      <c r="L6" s="11">
+      <c r="M6" s="11">
         <v>500</v>
       </c>
-      <c r="M6" s="11">
+      <c r="N6" s="11">
         <v>59</v>
       </c>
-      <c r="N6" s="11">
+      <c r="O6" s="11">
         <v>247.59</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="17"/>
-      <c r="AB6">
+      <c r="P6" s="21"/>
+      <c r="Q6" s="17"/>
+      <c r="AC6">
         <v>301</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -1011,42 +1039,45 @@
         <v>15.02</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>7.9740000000000002</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7.7</v>
       </c>
-      <c r="H7" s="18">
+      <c r="I7" s="18">
         <v>1.82</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>1.34</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>0.48125000000000001</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>160</v>
       </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
         <v>512</v>
       </c>
-      <c r="M7" s="11">
+      <c r="N7" s="11">
         <v>66</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>310.94159999999999</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="AB7">
+      <c r="Q7" s="17"/>
+      <c r="AC7">
         <v>230</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -1063,42 +1094,45 @@
         <v>14.89</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>8.0009999999999994</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8.48</v>
       </c>
-      <c r="H8" s="18">
+      <c r="I8" s="18">
         <v>1.62</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <v>1.42</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
         <v>153</v>
       </c>
-      <c r="L8" s="11">
+      <c r="M8" s="11">
         <v>514</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="11">
         <v>69</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>306.22559999999999</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="AB8">
+      <c r="Q8" s="17"/>
+      <c r="AC8">
         <v>251</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1115,42 +1149,45 @@
         <v>15.13</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>6.4669999999999996</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H9" s="18">
+      <c r="I9" s="18">
         <v>1.38</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <v>1.33</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
         <v>0.25374999999999998</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>152</v>
       </c>
-      <c r="L9" s="11">
+      <c r="M9" s="11">
         <v>416</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="11">
         <v>65</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>229.11899999999997</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="AB9">
+      <c r="Q9" s="17"/>
+      <c r="AC9">
         <v>355</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1167,48 +1204,51 @@
         <v>15.29</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>6.7380000000000004</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4.92</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>3.21</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>1.31</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <f t="shared" si="0"/>
         <v>0.3075</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <v>182</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M10" s="11">
         <v>433</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="11">
         <v>64</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
         <v>230.84820000000002</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="AB10">
+      <c r="Q10" s="17"/>
+      <c r="AC10">
         <v>314</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>125</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>18</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1225,48 +1265,51 @@
         <v>16</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>7.702</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>6.93</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>3.2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>1.33</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
         <v>0.43312499999999998</v>
       </c>
-      <c r="K11" s="11">
+      <c r="L11" s="11">
         <v>181</v>
       </c>
-      <c r="L11" s="11">
+      <c r="M11" s="11">
         <v>495</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="11">
         <v>65</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="AB11">
+      <c r="Q11" s="17"/>
+      <c r="AC11">
         <v>305</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>126</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>19</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1280,48 +1323,51 @@
         <v>16</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>7.3120000000000003</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>7.08</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>3.3</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>1.6</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="0"/>
         <v>0.4425</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <v>187</v>
       </c>
-      <c r="L12" s="11">
+      <c r="M12" s="11">
         <v>470</v>
       </c>
-      <c r="M12" s="11">
+      <c r="N12" s="11">
         <v>78</v>
       </c>
-      <c r="N12" s="8">
+      <c r="O12" s="8">
         <v>232.42020000000002</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="AB12">
+      <c r="Q12" s="17"/>
+      <c r="AC12">
         <v>314</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>146</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>20</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1335,48 +1381,51 @@
         <v>16</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>5.4210000000000003</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.84</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>2.94</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>1.29</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <v>167</v>
       </c>
-      <c r="L13" s="11">
+      <c r="M13" s="11">
         <v>348</v>
       </c>
-      <c r="M13" s="11">
+      <c r="N13" s="11">
         <v>63</v>
       </c>
-      <c r="N13" s="8">
+      <c r="O13" s="8">
         <v>220.08</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="AB13">
+      <c r="Q13" s="17"/>
+      <c r="AC13">
         <v>275</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>127</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>16</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1390,48 +1439,51 @@
         <v>16</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>5.1130000000000004</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>2.61</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11">
         <v>148</v>
       </c>
-      <c r="L14" s="11">
+      <c r="M14" s="11">
         <v>329</v>
       </c>
-      <c r="M14" s="11">
+      <c r="N14" s="11">
         <v>55</v>
       </c>
-      <c r="N14" s="8">
+      <c r="O14" s="8">
         <v>290.03399999999999</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="AB14">
+      <c r="Q14" s="17"/>
+      <c r="AC14">
         <v>247</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>106</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>14</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1445,48 +1497,51 @@
         <v>16</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>5.7619999999999996</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6.44</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>1.17</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <f t="shared" si="0"/>
         <v>0.40250000000000002</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>128</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>370</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <v>57</v>
       </c>
-      <c r="N15" s="8">
+      <c r="O15" s="8">
         <v>290.82</v>
       </c>
-      <c r="P15" s="17"/>
-      <c r="AB15">
+      <c r="Q15" s="17"/>
+      <c r="AC15">
         <v>219</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>111</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>16</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1503,48 +1558,51 @@
         <v>15.58</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>6.4349999999999996</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.58</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>1.97</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>1.21</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <f t="shared" si="0"/>
         <v>0.22375</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L16" s="11">
         <v>112</v>
       </c>
-      <c r="L16" s="11">
+      <c r="M16" s="11">
         <v>414</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N16" s="11">
         <v>59</v>
       </c>
-      <c r="N16" s="8">
+      <c r="O16" s="8">
         <v>243.66</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="AB16">
+      <c r="Q16" s="17"/>
+      <c r="AC16">
         <v>187</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>112</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>17</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1558,48 +1616,51 @@
         <v>16</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>7.1760000000000002</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5.44</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>2.41</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>1.32</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <v>137</v>
       </c>
-      <c r="L17" s="11">
+      <c r="M17" s="11">
         <v>461</v>
       </c>
-      <c r="M17" s="11">
+      <c r="N17" s="11">
         <v>65</v>
       </c>
-      <c r="N17" s="8">
+      <c r="O17" s="8">
         <v>251.91300000000001</v>
       </c>
-      <c r="P17" s="17"/>
-      <c r="AB17">
+      <c r="Q17" s="17"/>
+      <c r="AC17">
         <v>230</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>123</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>18</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1613,48 +1674,51 @@
         <v>16</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>6.8049999999999997</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>7.9</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>2.76</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>1.28</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <f t="shared" si="0"/>
         <v>0.49375000000000002</v>
       </c>
-      <c r="K18" s="11">
+      <c r="L18" s="11">
         <v>156</v>
       </c>
-      <c r="L18" s="11">
+      <c r="M18" s="11">
         <v>437</v>
       </c>
-      <c r="M18" s="11">
+      <c r="N18" s="11">
         <v>63</v>
       </c>
-      <c r="N18" s="8">
+      <c r="O18" s="8">
         <v>252.14879999999997</v>
       </c>
-      <c r="P18" s="17"/>
-      <c r="AB18">
+      <c r="Q18" s="17"/>
+      <c r="AC18">
         <v>261</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>117</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>18</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -1667,49 +1731,49 @@
       <c r="D19">
         <v>16</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>6.7510000000000003</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5.89</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>3.25</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>1.26</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <f t="shared" si="0"/>
         <v>0.36812499999999998</v>
       </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11">
         <v>184</v>
       </c>
-      <c r="L19" s="11">
+      <c r="M19" s="11">
         <v>434</v>
       </c>
-      <c r="M19" s="11">
+      <c r="N19" s="11">
         <v>62</v>
       </c>
-      <c r="N19" s="8">
+      <c r="O19" s="8">
         <v>252.69900000000001</v>
       </c>
-      <c r="P19" s="17"/>
-      <c r="AB19">
+      <c r="Q19" s="17"/>
+      <c r="AC19">
         <v>315</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>122</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>18</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -1722,58 +1786,58 @@
       <c r="D20">
         <v>16</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>8.4269999999999996</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>7.3</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>3.53</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>1.61</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <f t="shared" si="0"/>
         <v>0.45624999999999999</v>
       </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11">
         <v>200</v>
       </c>
-      <c r="L20" s="11">
+      <c r="M20" s="11">
         <v>542</v>
       </c>
-      <c r="M20" s="11">
+      <c r="N20" s="11">
         <v>79</v>
       </c>
-      <c r="N20" s="8">
+      <c r="O20" s="8">
         <v>247.983</v>
       </c>
-      <c r="P20" s="17"/>
-      <c r="Y20">
+      <c r="Q20" s="17"/>
+      <c r="Z20">
         <v>516</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>197</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>55</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>471</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>95</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>38</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -1789,58 +1853,58 @@
       <c r="E21">
         <v>14</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7.7290000000000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>7</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>3.34</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>1.45</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="K21" s="11">
+      <c r="L21" s="11">
         <v>189</v>
       </c>
-      <c r="L21" s="11">
+      <c r="M21" s="11">
         <v>497</v>
       </c>
-      <c r="M21" s="11">
+      <c r="N21" s="11">
         <v>71</v>
       </c>
-      <c r="N21" s="8">
+      <c r="O21" s="8">
         <v>220.08</v>
       </c>
-      <c r="P21" s="17"/>
-      <c r="Y21">
+      <c r="Q21" s="17"/>
+      <c r="Z21">
         <v>722</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>80</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>38</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>318</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>51</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>21</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -1853,64 +1917,64 @@
       <c r="D22">
         <v>16</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6.6970000000000001</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>6.33</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>3.25</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>1.29</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <f t="shared" si="0"/>
         <v>0.395625</v>
       </c>
-      <c r="K22" s="11">
+      <c r="L22" s="11">
         <v>184</v>
       </c>
-      <c r="L22" s="11">
+      <c r="M22" s="11">
         <v>430</v>
       </c>
-      <c r="M22" s="11">
+      <c r="N22" s="11">
         <v>63</v>
       </c>
-      <c r="N22" s="8">
+      <c r="O22" s="8">
         <v>212.22000000000003</v>
       </c>
-      <c r="P22" s="17"/>
-      <c r="R22">
+      <c r="Q22" s="17"/>
+      <c r="S22">
         <v>2250</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2106</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>651</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>88</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>8</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>399</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>74</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>6</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -1923,58 +1987,58 @@
       <c r="D23">
         <v>16</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6.0229999999999997</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>7.97</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>2.84</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <f t="shared" si="0"/>
         <v>0.49812499999999998</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>161</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>387</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>55</v>
       </c>
-      <c r="N23" s="8">
+      <c r="O23" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="P23" s="17"/>
-      <c r="Y23">
+      <c r="Q23" s="17"/>
+      <c r="Z23">
         <v>799</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>131</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>54</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>368</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>112</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>46</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -1987,58 +2051,58 @@
       <c r="D24">
         <v>16</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>5.2119999999999997</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>4.51</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>2.52</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>1.18</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <f t="shared" si="0"/>
         <v>0.28187499999999999</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>143</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
         <v>335</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="11">
         <v>58</v>
       </c>
-      <c r="N24" s="8">
+      <c r="O24" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="P24" s="17"/>
-      <c r="Y24">
+      <c r="Q24" s="17"/>
+      <c r="Z24">
         <v>268</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>9</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>10</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>754</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>9</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>6</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -2051,59 +2115,59 @@
       <c r="D25">
         <v>16</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>6.3</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5.54</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>1.32</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <f t="shared" si="0"/>
         <v>0.34625</v>
       </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11">
         <v>142</v>
       </c>
-      <c r="L25" s="11">
+      <c r="M25" s="11">
         <v>405</v>
       </c>
-      <c r="M25" s="11">
+      <c r="N25" s="11">
         <v>65</v>
       </c>
-      <c r="N25" s="11">
+      <c r="O25" s="11">
         <v>331</v>
       </c>
-      <c r="O25" s="21"/>
-      <c r="P25" s="17"/>
-      <c r="Y25">
+      <c r="P25" s="21"/>
+      <c r="Q25" s="17"/>
+      <c r="Z25">
         <v>435</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>102</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>20</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>802</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>39</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>13</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -2116,59 +2180,59 @@
       <c r="D26">
         <v>16</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>7.1369999999999996</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>6.16</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <f t="shared" si="0"/>
         <v>0.38500000000000001</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>142</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>459</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>76</v>
       </c>
-      <c r="N26" s="19">
+      <c r="O26" s="19">
         <v>400</v>
       </c>
-      <c r="O26" s="22"/>
-      <c r="P26" s="17"/>
-      <c r="Y26">
+      <c r="P26" s="22"/>
+      <c r="Q26" s="17"/>
+      <c r="Z26">
         <v>228</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>141</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>28</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1420</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>47</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>18</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -2181,59 +2245,59 @@
       <c r="D27">
         <v>16</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>8.6210000000000004</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>22.61</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>3.35</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>2.31</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <f t="shared" si="0"/>
         <v>1.413125</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>190</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="11">
         <v>554</v>
       </c>
-      <c r="M27" s="11">
+      <c r="N27" s="11">
         <v>113</v>
       </c>
-      <c r="N27" s="19">
+      <c r="O27" s="19">
         <v>129</v>
       </c>
-      <c r="O27" s="22"/>
-      <c r="P27" s="17"/>
-      <c r="Y27">
+      <c r="P27" s="22"/>
+      <c r="Q27" s="17"/>
+      <c r="Z27">
         <v>1175</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>143</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>74</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>717</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>85</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>43</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
@@ -2246,83 +2310,83 @@
       <c r="D28" s="12">
         <v>16</v>
       </c>
-      <c r="F28" s="12">
+      <c r="G28" s="12">
         <v>9.9860000000000007</v>
       </c>
-      <c r="G28" s="12">
+      <c r="H28" s="12">
         <v>17.78</v>
       </c>
-      <c r="H28" s="13">
+      <c r="I28" s="13">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I28" s="13">
+      <c r="J28" s="13">
         <v>1.5312000000000001</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <f t="shared" si="0"/>
         <v>1.1112500000000001</v>
       </c>
-      <c r="K28" s="12">
+      <c r="L28" s="12">
         <v>272</v>
       </c>
-      <c r="L28" s="12">
+      <c r="M28" s="12">
         <v>625</v>
       </c>
-      <c r="M28" s="12">
+      <c r="N28" s="12">
         <v>120</v>
       </c>
-      <c r="N28" s="12">
+      <c r="O28" s="12">
         <v>89</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="12">
+      <c r="P28" s="23"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="12">
         <v>231</v>
       </c>
-      <c r="R28" s="12">
+      <c r="S28" s="12">
         <v>2591</v>
       </c>
-      <c r="S28" s="12">
+      <c r="T28" s="12">
         <v>0</v>
       </c>
-      <c r="T28" s="12">
+      <c r="U28" s="12">
         <v>2186</v>
       </c>
-      <c r="U28" s="12">
+      <c r="V28" s="12">
         <v>0</v>
       </c>
-      <c r="V28" s="12">
+      <c r="W28" s="12">
         <v>622</v>
       </c>
-      <c r="W28" s="12">
+      <c r="X28" s="12">
         <v>5691</v>
       </c>
-      <c r="X28" s="12">
+      <c r="Y28" s="12">
         <v>164</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Z28" s="12">
         <v>3701</v>
       </c>
-      <c r="Z28" s="12">
+      <c r="AA28" s="12">
         <v>497</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AB28" s="12">
         <v>240</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AC28" s="12">
         <v>355</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AD28" s="12">
         <v>234</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AE28" s="12">
         <v>125</v>
       </c>
-      <c r="AE28" s="12">
+      <c r="AF28" s="12">
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2335,82 +2399,82 @@
       <c r="D29">
         <v>16</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6.4370000000000003</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>20.440000000000001</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>2.23</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>1.32</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <f t="shared" si="0"/>
         <v>1.2775000000000001</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>245</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>566</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>117</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>258</v>
       </c>
-      <c r="P29" s="17"/>
-      <c r="Q29">
+      <c r="Q29" s="17"/>
+      <c r="R29">
         <v>365</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2736</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1971</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>639</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>6510</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>175</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>2207</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>148</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>12</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>556</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>49</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>9</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2423,82 +2487,82 @@
       <c r="D30">
         <v>16</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>5.8890000000000002</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>15.05</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>1.69</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <f t="shared" si="0"/>
         <v>0.94062500000000004</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>243</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>584</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>127</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>219</v>
       </c>
-      <c r="P30" s="17"/>
-      <c r="Q30">
+      <c r="Q30" s="17"/>
+      <c r="R30">
         <v>362</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2771</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1777</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>795</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>6328</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>183</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>2845</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>311</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>70</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>428</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>65</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>42</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -2514,85 +2578,85 @@
       <c r="E31">
         <v>10.199999999999999</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>7.0869999999999997</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>15.33</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <v>1.87</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <v>1.1484000000000001</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <f t="shared" si="0"/>
         <v>0.958125</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>213</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>619</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>118</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>275</v>
       </c>
-      <c r="O31" s="20">
+      <c r="P31" s="20">
         <v>57.3</v>
       </c>
-      <c r="P31" s="17"/>
-      <c r="Q31">
+      <c r="Q31" s="17"/>
+      <c r="R31">
         <v>414</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2918</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1876</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>928</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>6945</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>201</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>3942</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>351</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>72</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>322</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>150</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>31</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -2608,85 +2672,85 @@
       <c r="E32">
         <v>10.199999999999999</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>6.8890000000000002</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>12.25</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>1.69</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <f t="shared" si="0"/>
         <v>0.765625</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>173</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>641</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>126</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>270</v>
       </c>
-      <c r="O32" s="20">
+      <c r="P32" s="20">
         <v>56</v>
       </c>
-      <c r="P32" s="17"/>
-      <c r="Q32">
+      <c r="Q32" s="17"/>
+      <c r="R32">
         <v>434</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2967</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>2122</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1085</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>7471</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>235</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>5385</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>292</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>13</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>173</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>145</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>12</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -2702,85 +2766,85 @@
       <c r="E33">
         <v>10.1</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>7.4989999999999997</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>13.93</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>1.95</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <v>1.2804</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <f t="shared" si="0"/>
         <v>0.87062499999999998</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>125</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>672</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>109</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>275</v>
       </c>
-      <c r="O33" s="20">
+      <c r="P33" s="20">
         <v>55</v>
       </c>
-      <c r="P33" s="17"/>
-      <c r="Q33">
+      <c r="Q33" s="17"/>
+      <c r="R33">
         <v>429</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>3095</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>2614</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>1073</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>8176</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>278</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>4833</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>146</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>21</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>102</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>62</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>14</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -2796,85 +2860,85 @@
       <c r="E34">
         <v>10.1</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>9.3539999999999992</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>15.61</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>3.17</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <f t="shared" si="0"/>
         <v>0.86722222222222223</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>113</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>639</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>113</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>279</v>
       </c>
-      <c r="O34" s="20">
+      <c r="P34" s="20">
         <v>56.9</v>
       </c>
-      <c r="P34" s="17"/>
-      <c r="Q34">
+      <c r="Q34" s="17"/>
+      <c r="R34">
         <v>447</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>3383</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>3143</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1145</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>8661</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>296</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>4728</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>184</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>29</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>135</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>50</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>29</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -2890,85 +2954,85 @@
       <c r="E35">
         <v>10</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>11.162000000000001</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>21</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>3.12</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>143</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>596</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>95</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>308</v>
       </c>
-      <c r="O35" s="20">
+      <c r="P35" s="20">
         <v>59.7</v>
       </c>
-      <c r="P35" s="17"/>
-      <c r="Q35">
+      <c r="Q35" s="17"/>
+      <c r="R35">
         <v>449</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>3498</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>1518</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>3722</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1777</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1343</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>8630</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>311</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>2939</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>171</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>26</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>252</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>75</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>26</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>541</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -2984,85 +3048,85 @@
       <c r="E36">
         <v>10.199999999999999</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>12.781000000000001</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>15.05</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>3.84</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <v>2.3628</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <f t="shared" si="0"/>
         <v>0.83611111111111114</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>155</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>612</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>89</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>309</v>
       </c>
-      <c r="O36" s="20">
+      <c r="P36" s="20">
         <v>61.9</v>
       </c>
-      <c r="P36" s="17"/>
-      <c r="Q36">
+      <c r="Q36" s="17"/>
+      <c r="R36">
         <v>459</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>3564</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>1561</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>3602</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>1734</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>1178</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>8367</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>284</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>2990</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>401</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>15</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>312</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>289</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>15</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -3078,85 +3142,85 @@
       <c r="E37">
         <v>10.3</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>8.6880000000000006</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>10.5</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <v>2.61</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <v>1.9668000000000001</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>181</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>588</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>71</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>345</v>
       </c>
-      <c r="O37" s="20">
+      <c r="P37" s="20">
         <v>59</v>
       </c>
-      <c r="P37" s="17"/>
-      <c r="Q37">
+      <c r="Q37" s="17"/>
+      <c r="R37">
         <v>496</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>3588</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>1580</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>3694</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>1655</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>919</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>8908</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>270</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>3491</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>359</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>9</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>359</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>246</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>9</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -3172,85 +3236,85 @@
       <c r="E38">
         <v>10.4</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>8.3629999999999995</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>17.78</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>1.6764000000000001</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <f t="shared" si="0"/>
         <v>0.98777777777777787</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>192</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>565</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>81</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>359</v>
       </c>
-      <c r="O38" s="20">
+      <c r="P38" s="20">
         <v>55.4</v>
       </c>
-      <c r="P38" s="17"/>
-      <c r="Q38">
+      <c r="Q38" s="17"/>
+      <c r="R38">
         <v>511</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>3621</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>1605</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>3452</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>1538</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>1255</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>9491</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>243</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>2843</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>518</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>27</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>334</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>178</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>14</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -3266,85 +3330,85 @@
       <c r="E39">
         <v>10.5</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>7.7290000000000001</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>10.220000000000001</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>1.77</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>1.3464</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <f t="shared" si="0"/>
         <v>0.56777777777777783</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>185</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>561</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>74</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>360</v>
       </c>
-      <c r="O39" s="20">
+      <c r="P39" s="20">
         <v>60.4</v>
       </c>
-      <c r="P39" s="17"/>
-      <c r="Q39">
+      <c r="Q39" s="17"/>
+      <c r="R39">
         <v>512</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>3667</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>1635</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>3495</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>1522</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>1410</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>9563</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>228</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>4159</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>339</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>17</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>298</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>110</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>19</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3360,85 +3424,85 @@
       <c r="E40">
         <v>10.7</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>8.9870000000000001</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>12.39</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>1.5840000000000001</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <f t="shared" si="0"/>
         <v>0.68833333333333335</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>157</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>568</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>69</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>374</v>
       </c>
-      <c r="O40" s="20">
+      <c r="P40" s="20">
         <v>62.6</v>
       </c>
-      <c r="P40" s="17"/>
-      <c r="Q40">
+      <c r="Q40" s="17"/>
+      <c r="R40">
         <v>520</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>3816</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>1690</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>3593</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>1564</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>1266</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>10252</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>219</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>4775</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>238</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>25</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>320</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>42</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>25</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3454,85 +3518,85 @@
       <c r="E41">
         <v>11</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>10.718999999999999</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>18.55</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <f t="shared" si="0"/>
         <v>1.0305555555555557</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>157</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>560</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>71</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>361</v>
       </c>
-      <c r="O41" s="20">
+      <c r="P41" s="20">
         <v>63.5</v>
       </c>
-      <c r="P41" s="17"/>
-      <c r="Q41">
+      <c r="Q41" s="17"/>
+      <c r="R41">
         <v>507</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>3606</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>1626</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>3542</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>1567</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>1271</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>10061</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>194</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>5072</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>362</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>25</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>161</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>61</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>8</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -3548,85 +3612,85 @@
       <c r="E42">
         <v>11</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>8.6880000000000006</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>15.89</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>1.5312000000000001</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <f t="shared" si="0"/>
         <v>0.88277777777777777</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>133</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>574</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>78</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>349</v>
       </c>
-      <c r="O42" s="20">
+      <c r="P42" s="20">
         <v>64.099999999999994</v>
       </c>
-      <c r="P42" s="17"/>
-      <c r="Q42">
+      <c r="Q42" s="17"/>
+      <c r="R42">
         <v>496</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>3472</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>1545</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>3556</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>1528</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>1102</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>10371</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>190</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>5365</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>252</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>10</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>236</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>128</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>6</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -3642,85 +3706,85 @@
       <c r="E43">
         <v>11</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>7.7290000000000001</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>12.67</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>1.87</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <v>1.4387999999999999</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <f t="shared" si="0"/>
         <v>0.7038888888888889</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>118</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>565</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>76</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>311</v>
       </c>
-      <c r="O43" s="20">
+      <c r="P43" s="20">
         <v>60.3</v>
       </c>
-      <c r="P43" s="17"/>
-      <c r="Q43">
+      <c r="Q43" s="17"/>
+      <c r="R43">
         <v>469</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>3255</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>1487</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>3456</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>1495</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>1154</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>9917</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>175</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>8340</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>230</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>232</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>150</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>181</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>232</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>626</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -3736,84 +3800,84 @@
       <c r="E44">
         <v>11</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>7.7290000000000001</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>8.89</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>1.77</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <v>1.3728</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <f t="shared" si="0"/>
         <v>0.49388888888888893</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>87</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>566</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>69</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>315</v>
       </c>
-      <c r="O44" s="20">
+      <c r="P44" s="20">
         <v>55.1</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>466</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>3144</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>1397</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>3308</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>1420</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>1067</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>9649</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>166</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>6490</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>136</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>71</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>161</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>62</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>39</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>716</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -3829,84 +3893,84 @@
       <c r="E45">
         <v>11.1</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>7.1150000000000002</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>9.17</v>
       </c>
-      <c r="H45" s="2">
+      <c r="I45" s="2">
         <v>1.64</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <v>1.3464</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <f t="shared" si="0"/>
         <v>0.50944444444444448</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>96</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>526</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>70</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>322</v>
       </c>
-      <c r="O45" s="20">
+      <c r="P45" s="20">
         <v>56.9</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>466</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>3262</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>1349</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>3367</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>1435</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>1058</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>10424</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>171</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>6044</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>214</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>12</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>63</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>66</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>12</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -3922,84 +3986,84 @@
       <c r="E46">
         <v>11.2</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>9.2829999999999995</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>10.220000000000001</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>2.59</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <v>1.518</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <f t="shared" si="0"/>
         <v>0.56777777777777783</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>93</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>496</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>72</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>330</v>
       </c>
-      <c r="O46" s="20">
+      <c r="P46" s="20">
         <v>67.2</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>474</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>3498</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>1387</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>3694</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>1579</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>1306</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>10682</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>171</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>6002</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>269</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>50</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>62</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>76</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>25</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -4015,84 +4079,84 @@
       <c r="E47">
         <v>11.4</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10.127000000000001</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12.11</v>
       </c>
-      <c r="H47" s="6">
+      <c r="I47" s="6">
         <v>2.74</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <v>2.0592000000000001</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <f t="shared" si="0"/>
         <v>0.57666666666666666</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>102</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>488</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>61</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>323</v>
       </c>
-      <c r="O47" s="20">
+      <c r="P47" s="20">
         <v>66.8</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>466</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>3746</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>1483</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>4274</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>1799</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>1497</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>10890</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>187</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>6575</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>329</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>38</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>59</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>31</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>36</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -4108,84 +4172,84 @@
       <c r="E48">
         <v>11.4</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>12.676</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>14</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="2">
         <v>3.2</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <v>1.9668000000000001</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>88</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>475</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>69</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>308</v>
       </c>
-      <c r="O48" s="20">
+      <c r="P48" s="20">
         <v>57.1</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>449</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>3708</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>1521</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>4836</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>2034</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>1235</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>10334</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>190</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>7022</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>360</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>71</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>52</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>57</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>30</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -4201,84 +4265,84 @@
       <c r="E49">
         <v>11.4</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>10.718999999999999</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>12.39</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="2">
         <v>3</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <v>2.0460000000000003</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <f t="shared" si="0"/>
         <v>0.51624999999999999</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>93</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>486</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>75</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>320</v>
       </c>
-      <c r="O49" s="20">
+      <c r="P49" s="20">
         <v>68.3</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>459</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>3647</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>1476</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>4901</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>2052</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>870</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>10603</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>199</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>7103</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>159</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>36</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>52</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>75</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>35</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -4294,84 +4358,84 @@
       <c r="E50">
         <v>11.7</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>10.512</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>10.78</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <v>1.9536000000000002</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <f t="shared" si="0"/>
         <v>0.44916666666666666</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>87</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>481</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>90</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>320</v>
       </c>
-      <c r="O50" s="20">
+      <c r="P50" s="20">
         <v>66.400000000000006</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>463</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>3734</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>1506</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>4651</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>1938</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>1082</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>10802</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>206</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>8003</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>213</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>41</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>51</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>93</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>40</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -4387,84 +4451,84 @@
       <c r="E51">
         <v>12</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>9.8309999999999995</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>12.95</v>
       </c>
-      <c r="H51" s="2">
+      <c r="I51" s="2">
         <v>2.15</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <f t="shared" si="0"/>
         <v>0.5395833333333333</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>80</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>461</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>97</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>319</v>
       </c>
-      <c r="O51" s="20">
+      <c r="P51" s="20">
         <v>67.599999999999994</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>470</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>3800</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>1529</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>4337</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>1807</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>1461</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>11159</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>212</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>7704</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>259</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>55</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>50</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>110</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>45</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -4480,84 +4544,84 @@
       <c r="E52">
         <v>12</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>10.007999999999999</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>13.72</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>2.61</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <f t="shared" si="0"/>
         <v>0.57166666666666666</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>74</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>458</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>89</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>322</v>
       </c>
-      <c r="O52" s="20">
+      <c r="P52" s="20">
         <v>68.599999999999994</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>473</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>3976</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>1546</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>4233</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>1752</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>1621</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>11717</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>231</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>8848</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>401</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>75</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>49</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>128</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>50</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>725</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -4573,84 +4637,84 @@
       <c r="E53">
         <v>12</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>9.51</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>21.84</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>2.64</v>
       </c>
-      <c r="I53" s="2">
+      <c r="J53" s="2">
         <v>1.7556</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>66</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>451</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>88</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>301</v>
       </c>
-      <c r="O53" s="20">
+      <c r="P53" s="20">
         <v>69.599999999999994</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>458</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>4059</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>1552</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>4263</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>1742</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>1389</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>11738</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>239</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>9584</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>784</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>95</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>48</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>145</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>55</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -4666,84 +4730,84 @@
       <c r="E54">
         <v>12</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>8.41</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>15.61</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I54" s="2">
+      <c r="J54" s="2">
         <v>1.056</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <f t="shared" si="0"/>
         <v>0.60038461538461541</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>50</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>415</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>92</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>272</v>
       </c>
-      <c r="O54" s="20">
+      <c r="P54" s="20">
         <v>68.900000000000006</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>424</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>4147</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>1528</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>4485</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>1822</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>1044</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>11863</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>243</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>8746</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>603</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>139</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>47</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>163</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>60</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -4759,84 +4823,84 @@
       <c r="E55">
         <v>12</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>11.162000000000001</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>9.94</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <v>1.95</v>
       </c>
-      <c r="I55" s="2">
+      <c r="J55" s="2">
         <v>1.7424000000000002</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <f t="shared" si="0"/>
         <v>0.38230769230769229</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>57</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>403</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>85</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>270</v>
       </c>
-      <c r="O55" s="20">
+      <c r="P55" s="20">
         <v>75.5</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>418</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>4125</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>1491</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>4442</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>1818</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>1099</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>12068</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>257</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>9113</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>350</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>114</v>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>46</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>181</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>65</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -4852,84 +4916,84 @@
       <c r="E56">
         <v>12</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>10.16</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>11.34</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>1.97</v>
       </c>
-      <c r="I56" s="2">
+      <c r="J56" s="2">
         <v>1.6632000000000002</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <f t="shared" si="0"/>
         <v>0.43615384615384617</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>47</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>408</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>93</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>272</v>
       </c>
-      <c r="O56" s="20">
+      <c r="P56" s="20">
         <v>79.2</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>423</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>4115</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>1530</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>4254</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>1750</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>1252</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>12139</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>271</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>11251</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>543</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>122</v>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>45</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>198</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>70</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -4945,84 +5009,84 @@
       <c r="E57">
         <v>12.1</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9.1850000000000005</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11.41</v>
       </c>
-      <c r="H57" s="6">
+      <c r="I57" s="6">
         <v>2.02</v>
       </c>
-      <c r="I57" s="6">
+      <c r="J57" s="6">
         <v>1.6104000000000003</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <f t="shared" si="0"/>
         <v>0.42259259259259258</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>35</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>407</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>88</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>266</v>
       </c>
-      <c r="O57" s="20">
+      <c r="P57" s="20">
         <v>81.400000000000006</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>420</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>4117</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>1533</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>4009</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>1639</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>1425</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>13619</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>264</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>10575</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>670</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>81</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>45</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>216</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>75</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
@@ -5038,84 +5102,84 @@
       <c r="E58" s="14">
         <v>12.1</v>
       </c>
-      <c r="F58" s="14">
+      <c r="G58" s="14">
         <v>10.007999999999999</v>
       </c>
-      <c r="G58" s="14">
+      <c r="H58" s="14">
         <v>19.39</v>
       </c>
-      <c r="H58" s="15">
+      <c r="I58" s="15">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I58" s="15">
+      <c r="J58" s="15">
         <v>1.7292000000000001</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <f t="shared" si="0"/>
         <v>0.6925</v>
       </c>
-      <c r="K58" s="14">
+      <c r="L58" s="14">
         <v>42</v>
       </c>
-      <c r="L58" s="14">
+      <c r="M58" s="14">
         <v>403</v>
       </c>
-      <c r="M58" s="14">
+      <c r="N58" s="14">
         <v>90</v>
       </c>
-      <c r="N58" s="14">
+      <c r="O58" s="14">
         <v>262</v>
       </c>
-      <c r="O58" s="24">
+      <c r="P58" s="24">
         <v>79.7</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="R58" s="14">
         <v>415</v>
       </c>
-      <c r="R58" s="14">
+      <c r="S58" s="14">
         <v>3998</v>
       </c>
-      <c r="S58" s="14">
+      <c r="T58" s="14">
         <v>1523</v>
       </c>
-      <c r="T58" s="14">
+      <c r="U58" s="14">
         <v>3988</v>
       </c>
-      <c r="U58" s="14">
+      <c r="V58" s="14">
         <v>1629</v>
       </c>
-      <c r="V58" s="14">
+      <c r="W58" s="14">
         <v>1469</v>
       </c>
-      <c r="W58" s="14">
+      <c r="X58" s="14">
         <v>13566</v>
       </c>
-      <c r="X58" s="14">
+      <c r="Y58" s="14">
         <v>267</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="Z58" s="14">
         <v>9836</v>
       </c>
-      <c r="Z58" s="14">
+      <c r="AA58" s="14">
         <v>778</v>
       </c>
-      <c r="AA58" s="14">
+      <c r="AB58" s="14">
         <v>208</v>
       </c>
-      <c r="AB58" s="14">
+      <c r="AC58" s="14">
         <v>44</v>
       </c>
-      <c r="AC58" s="14">
+      <c r="AD58" s="14">
         <v>233</v>
       </c>
-      <c r="AD58" s="14">
+      <c r="AE58" s="14">
         <v>80</v>
       </c>
-      <c r="AE58" s="14">
+      <c r="AF58" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
@@ -5131,84 +5195,84 @@
       <c r="E59" s="14">
         <v>12.1</v>
       </c>
-      <c r="F59" s="14">
+      <c r="G59" s="14">
         <v>10.512</v>
       </c>
-      <c r="G59" s="14">
+      <c r="H59" s="14">
         <v>14.56</v>
       </c>
-      <c r="H59" s="15">
+      <c r="I59" s="15">
         <v>1.84</v>
       </c>
-      <c r="I59" s="15">
+      <c r="J59" s="15">
         <v>1.6104000000000003</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
-      <c r="K59" s="14">
+      <c r="L59" s="14">
         <v>48</v>
       </c>
-      <c r="L59" s="14">
+      <c r="M59" s="14">
         <v>380</v>
       </c>
-      <c r="M59" s="14">
+      <c r="N59" s="14">
         <v>97</v>
       </c>
-      <c r="N59" s="14">
+      <c r="O59" s="14">
         <v>254</v>
       </c>
-      <c r="O59" s="24">
+      <c r="P59" s="24">
         <v>85.9</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="R59" s="14">
         <v>404</v>
       </c>
-      <c r="R59" s="14">
+      <c r="S59" s="14">
         <v>3985</v>
       </c>
-      <c r="S59" s="14">
+      <c r="T59" s="14">
         <v>1484</v>
       </c>
-      <c r="T59" s="14">
+      <c r="U59" s="14">
         <v>4095</v>
       </c>
-      <c r="U59" s="14">
+      <c r="V59" s="14">
         <v>1654</v>
       </c>
-      <c r="V59" s="14">
+      <c r="W59" s="14">
         <v>1269</v>
       </c>
-      <c r="W59" s="14">
+      <c r="X59" s="14">
         <v>13711</v>
       </c>
-      <c r="X59" s="14">
+      <c r="Y59" s="14">
         <v>279</v>
       </c>
-      <c r="Y59" s="14">
+      <c r="Z59" s="14">
         <v>10545</v>
       </c>
-      <c r="Z59" s="14">
+      <c r="AA59" s="14">
         <v>858</v>
       </c>
-      <c r="AA59" s="14">
+      <c r="AB59" s="14">
         <v>179</v>
       </c>
-      <c r="AB59" s="14">
+      <c r="AC59" s="14">
         <v>43</v>
       </c>
-      <c r="AC59" s="14">
+      <c r="AD59" s="14">
         <v>251</v>
       </c>
-      <c r="AD59" s="14">
+      <c r="AE59" s="14">
         <v>85</v>
       </c>
-      <c r="AE59" s="14">
+      <c r="AF59" s="14">
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
@@ -5224,84 +5288,84 @@
       <c r="E60" s="14">
         <v>12</v>
       </c>
-      <c r="F60" s="14">
+      <c r="G60" s="14">
         <v>10.59</v>
       </c>
-      <c r="G60" s="14">
+      <c r="H60" s="14">
         <v>19.95</v>
       </c>
-      <c r="H60" s="15">
+      <c r="I60" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I60" s="15">
+      <c r="J60" s="15">
         <v>1.5576000000000001</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <f t="shared" si="0"/>
         <v>0.71250000000000002</v>
       </c>
-      <c r="K60" s="14">
+      <c r="L60" s="14">
         <v>48</v>
       </c>
-      <c r="L60" s="14">
+      <c r="M60" s="14">
         <v>356</v>
       </c>
-      <c r="M60" s="14">
+      <c r="N60" s="14">
         <v>101</v>
       </c>
-      <c r="N60" s="14">
+      <c r="O60" s="14">
         <v>252</v>
       </c>
-      <c r="O60" s="24">
+      <c r="P60" s="24">
         <v>88.6</v>
       </c>
-      <c r="Q60" s="14">
+      <c r="R60" s="14">
         <v>396</v>
       </c>
-      <c r="R60" s="14">
+      <c r="S60" s="14">
         <v>4068</v>
       </c>
-      <c r="S60" s="14">
+      <c r="T60" s="14">
         <v>1465</v>
       </c>
-      <c r="T60" s="14">
+      <c r="U60" s="14">
         <v>4018</v>
       </c>
-      <c r="U60" s="14">
+      <c r="V60" s="14">
         <v>1625</v>
       </c>
-      <c r="V60" s="14">
+      <c r="W60" s="14">
         <v>1072</v>
       </c>
-      <c r="W60" s="14">
+      <c r="X60" s="14">
         <v>13783</v>
       </c>
-      <c r="X60" s="14">
+      <c r="Y60" s="14">
         <v>279</v>
       </c>
-      <c r="Y60" s="14">
+      <c r="Z60" s="14">
         <v>10008</v>
       </c>
-      <c r="Z60" s="14">
+      <c r="AA60" s="14">
         <v>650</v>
       </c>
-      <c r="AA60" s="14">
+      <c r="AB60" s="14">
         <v>166</v>
       </c>
-      <c r="AB60" s="14">
+      <c r="AC60" s="14">
         <v>42</v>
       </c>
-      <c r="AC60" s="14">
+      <c r="AD60" s="14">
         <v>269</v>
       </c>
-      <c r="AD60" s="14">
+      <c r="AE60" s="14">
         <v>91</v>
       </c>
-      <c r="AE60" s="14">
+      <c r="AF60" s="14">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -5317,84 +5381,84 @@
       <c r="E61">
         <v>12</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>9.2829999999999995</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>9.94</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="2">
         <v>1.95</v>
       </c>
-      <c r="I61" s="2">
+      <c r="J61" s="2">
         <v>1.5048000000000001</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <f t="shared" si="0"/>
         <v>0.35499999999999998</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>45</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>378</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>87</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>247</v>
       </c>
-      <c r="O61" s="20">
+      <c r="P61" s="20">
         <v>86.6</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>385</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>3922</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>1398</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>3562</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>1440</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>850</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>13430</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>266</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>9242</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>632</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>140</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>41</v>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>286</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>96</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -5410,84 +5474,84 @@
       <c r="E62">
         <v>12</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>9.8309999999999995</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>7.56</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="2">
         <v>2.12</v>
       </c>
-      <c r="I62" s="2">
+      <c r="J62" s="2">
         <v>1.4916</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>47</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>383</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>83</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>257</v>
       </c>
-      <c r="O62" s="20">
+      <c r="P62" s="20">
         <v>82.9</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>391</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>3957</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>1392</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>3256</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>1338</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>1096</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>13972</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>266</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>7715</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>637</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>101</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>40</v>
       </c>
-      <c r="AC62">
+      <c r="AD62">
         <v>304</v>
       </c>
-      <c r="AD62">
+      <c r="AE62">
         <v>101</v>
       </c>
-      <c r="AE62">
+      <c r="AF62">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -5503,84 +5567,84 @@
       <c r="E63">
         <v>12</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>9.6349999999999998</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>7.56</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I63" s="2">
         <v>1.95</v>
       </c>
-      <c r="I63" s="2">
+      <c r="J63" s="2">
         <v>1.518</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>46</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>385</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>74</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>252</v>
       </c>
-      <c r="O63" s="20">
+      <c r="P63" s="20">
         <v>87.8</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>385</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>3987</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>1399</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>3072</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>1261</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>1430</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>13999</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>263</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>9899</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>926</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>106</v>
       </c>
-      <c r="AB63">
+      <c r="AC63">
         <v>39</v>
       </c>
-      <c r="AC63">
+      <c r="AD63">
         <v>322</v>
       </c>
-      <c r="AD63">
+      <c r="AE63">
         <v>106</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -5596,84 +5660,84 @@
       <c r="E64">
         <v>12</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>9.7119999999999997</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>7.56</v>
       </c>
-      <c r="H64" s="2">
+      <c r="I64" s="2">
         <v>1.79</v>
       </c>
-      <c r="I64" s="2">
+      <c r="J64" s="2">
         <v>1.4652000000000001</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>27</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>381</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>73</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>242</v>
       </c>
-      <c r="O64" s="20">
+      <c r="P64" s="20">
         <v>88.1</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>379</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>4097</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>1402</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>3219</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>1330</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>1348</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>13382</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>263</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>8985</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>819</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>299</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>38</v>
       </c>
-      <c r="AC64">
+      <c r="AD64">
         <v>339</v>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <v>111</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -5689,84 +5753,84 @@
       <c r="E65">
         <v>11.9</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>8.9870000000000001</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>8.19</v>
       </c>
-      <c r="H65" s="2">
+      <c r="I65" s="2">
         <v>1.59</v>
       </c>
-      <c r="I65" s="2">
+      <c r="J65" s="2">
         <v>1.3992000000000002</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <f t="shared" si="0"/>
         <v>0.29249999999999998</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>19</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>371</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>67</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>240</v>
       </c>
-      <c r="O65" s="20">
+      <c r="P65" s="20">
         <v>90</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>375</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>4113</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>1357</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>3245</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>1333</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>1307</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>12747</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>254</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>7689</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>737</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>145</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>38</v>
       </c>
-      <c r="AC65">
+      <c r="AD65">
         <v>357</v>
       </c>
-      <c r="AD65">
+      <c r="AE65">
         <v>116</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -5782,84 +5846,84 @@
       <c r="E66">
         <v>11.9</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>11.3</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>7</v>
       </c>
-      <c r="H66" s="2">
+      <c r="I66" s="2">
         <v>1.48</v>
       </c>
-      <c r="I66" s="2">
+      <c r="J66" s="2">
         <v>1.32</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>20</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>363</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>71</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>239</v>
       </c>
-      <c r="O66" s="20">
+      <c r="P66" s="20">
         <v>84.4</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>374</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>4229</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>1417</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>3478</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>1421</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>1269</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>13851</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>264</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>9771</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>901</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>121</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <v>37</v>
       </c>
-      <c r="AC66">
+      <c r="AD66">
         <v>374</v>
       </c>
-      <c r="AD66">
+      <c r="AE66">
         <v>121</v>
       </c>
-      <c r="AE66">
+      <c r="AF66">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -5872,84 +5936,84 @@
       <c r="D67">
         <v>28</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <v>7.6509999999999998</v>
       </c>
-      <c r="G67" s="3">
+      <c r="H67" s="3">
         <v>5.67</v>
       </c>
-      <c r="H67" s="6">
+      <c r="I67" s="6">
         <v>1.36</v>
       </c>
-      <c r="I67" s="6">
+      <c r="J67" s="6">
         <v>1.0824</v>
       </c>
-      <c r="J67" s="2">
-        <f t="shared" ref="J67:J81" si="1">G67/D67</f>
+      <c r="K67" s="2">
+        <f t="shared" ref="K67:K81" si="1">H67/D67</f>
         <v>0.20249999999999999</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>19</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>365</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>72</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>239</v>
       </c>
-      <c r="O67" s="20">
+      <c r="P67" s="20">
         <v>84.1</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>375</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>4184</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>1419</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>3366</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>1386</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>1263</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>13910</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>266</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>6580</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>871</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <v>126</v>
       </c>
-      <c r="AB67">
+      <c r="AC67">
         <v>36</v>
       </c>
-      <c r="AC67">
+      <c r="AD67">
         <v>392</v>
       </c>
-      <c r="AD67">
+      <c r="AE67">
         <v>126</v>
       </c>
-      <c r="AE67">
+      <c r="AF67">
         <v>616</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -5962,84 +6026,84 @@
       <c r="D68">
         <v>28</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>7.5730000000000004</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>7.35</v>
       </c>
-      <c r="H68" s="2">
+      <c r="I68" s="2">
         <v>1.41</v>
       </c>
-      <c r="I68" s="2">
+      <c r="J68" s="2">
         <v>1.2012</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <f t="shared" si="1"/>
         <v>0.26250000000000001</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>18</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>362</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>65</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>238</v>
       </c>
-      <c r="O68" s="20">
+      <c r="P68" s="20">
         <v>97.2</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>377</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>4157</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>1394</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>3378</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>1382</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>1408</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>14461</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>272</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>7611</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <v>952</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <v>281</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <v>35</v>
       </c>
-      <c r="AC68">
+      <c r="AD68">
         <v>410</v>
       </c>
-      <c r="AD68">
+      <c r="AE68">
         <v>131</v>
       </c>
-      <c r="AE68">
+      <c r="AF68">
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -6052,84 +6116,84 @@
       <c r="D69">
         <v>28</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>8.24</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>5.95</v>
       </c>
-      <c r="H69" s="2">
+      <c r="I69" s="2">
         <v>1.56</v>
       </c>
-      <c r="I69" s="2">
+      <c r="J69" s="2">
         <v>1.32</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <f t="shared" si="1"/>
         <v>0.21249999999999999</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>29</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>348</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>68</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>239</v>
       </c>
-      <c r="O69" s="20">
+      <c r="P69" s="20">
         <v>97.5</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>378</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>4099</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>1385</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>3627</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>1485</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>1398</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>14486</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>296</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>6898</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>1049</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>401</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <v>34</v>
       </c>
-      <c r="AC69">
+      <c r="AD69">
         <v>427</v>
       </c>
-      <c r="AD69">
+      <c r="AE69">
         <v>136</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -6142,84 +6206,84 @@
       <c r="D70">
         <v>28</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>8.8149999999999995</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>5.25</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="2">
         <v>1.46</v>
       </c>
-      <c r="I70" s="2">
+      <c r="J70" s="2">
         <v>1.32</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>28</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>335</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>74</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>235</v>
       </c>
-      <c r="O70" s="20">
+      <c r="P70" s="20">
         <v>100.8</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>373</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>4094</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>1364</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>3789</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>1542</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>1381</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>14857</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>304</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>7990</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <v>1011</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <v>302</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <v>33</v>
       </c>
-      <c r="AC70">
+      <c r="AD70">
         <v>445</v>
       </c>
-      <c r="AD70">
+      <c r="AE70">
         <v>141</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -6232,84 +6296,84 @@
       <c r="D71">
         <v>28</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>9.51</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>5.74</v>
       </c>
-      <c r="H71" s="2">
+      <c r="I71" s="2">
         <v>1.51</v>
       </c>
-      <c r="I71" s="2">
+      <c r="J71" s="2">
         <v>1.3068</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <f t="shared" si="1"/>
         <v>0.20500000000000002</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>28</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>329</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>73</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>232</v>
       </c>
-      <c r="O71" s="20">
+      <c r="P71" s="20">
         <v>99.1</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>372</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>4240</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>1401</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>4323</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>1752</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>1570</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>15408</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>327</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>7812</v>
       </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>776</v>
       </c>
-      <c r="AA71">
+      <c r="AB71">
         <v>188</v>
       </c>
-      <c r="AB71">
+      <c r="AC71">
         <v>32</v>
       </c>
-      <c r="AC71">
+      <c r="AD71">
         <v>462</v>
       </c>
-      <c r="AD71">
+      <c r="AE71">
         <v>146</v>
       </c>
-      <c r="AE71">
+      <c r="AF71">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -6322,84 +6386,84 @@
       <c r="D72">
         <v>32</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>10.433</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>9.73</v>
       </c>
-      <c r="H72" s="2">
+      <c r="I72" s="2">
         <v>1.66</v>
       </c>
-      <c r="I72" s="2">
+      <c r="J72" s="2">
         <v>1.4783999999999999</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <f t="shared" si="1"/>
         <v>0.30406250000000001</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>24</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>328</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>71</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>222</v>
       </c>
-      <c r="O72" s="20">
+      <c r="P72" s="20">
         <v>94.2</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>364</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>4449</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>1442</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>4723</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>1922</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>1368</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>15276</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>336</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>7450</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <v>860</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <v>176</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <v>31</v>
       </c>
-      <c r="AC72">
+      <c r="AD72">
         <v>480</v>
       </c>
-      <c r="AD72">
+      <c r="AE72">
         <v>152</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -6412,84 +6476,84 @@
       <c r="D73">
         <v>30</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>10.433</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>11.9</v>
       </c>
-      <c r="H73" s="2">
+      <c r="I73" s="2">
         <v>1.51</v>
       </c>
-      <c r="I73" s="2">
+      <c r="J73" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="J73" s="2">
+      <c r="K73" s="2">
         <f t="shared" si="1"/>
         <v>0.39666666666666667</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>22</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>330</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>70</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>218</v>
       </c>
-      <c r="O73" s="20">
+      <c r="P73" s="20">
         <v>98.6</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>357</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>4531</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>1451</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>4828</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>1970</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>1113</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>15336</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>333</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>6704</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>1292</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>172</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <v>31</v>
       </c>
-      <c r="AC73">
+      <c r="AD73">
         <v>498</v>
       </c>
-      <c r="AD73">
+      <c r="AE73">
         <v>157</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -6502,84 +6566,84 @@
       <c r="D74">
         <v>30</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>10.16</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>10.43</v>
       </c>
-      <c r="H74" s="2">
+      <c r="I74" s="2">
         <v>1.36</v>
       </c>
-      <c r="I74" s="2">
+      <c r="J74" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="J74" s="2">
+      <c r="K74" s="2">
         <f t="shared" si="1"/>
         <v>0.34766666666666668</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>16</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>336</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>67</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>212</v>
       </c>
-      <c r="O74" s="20">
+      <c r="P74" s="20">
         <v>97.5</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>350</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>4464</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>1441</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>4421</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>1822</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>1152</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>16097</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>323</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>6350</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>1210</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <v>169</v>
       </c>
-      <c r="AB74">
+      <c r="AC74">
         <v>30</v>
       </c>
-      <c r="AC74">
+      <c r="AD74">
         <v>515</v>
       </c>
-      <c r="AD74">
+      <c r="AE74">
         <v>162</v>
       </c>
-      <c r="AE74">
+      <c r="AF74">
         <v>628</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -6592,84 +6656,84 @@
       <c r="D75">
         <v>34</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>8.9359999999999999</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>8.61</v>
       </c>
-      <c r="H75" s="2">
+      <c r="I75" s="2">
         <v>1.28</v>
       </c>
-      <c r="I75" s="2">
+      <c r="J75" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="J75" s="2">
+      <c r="K75" s="2">
         <f t="shared" si="1"/>
         <v>0.25323529411764706</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>14</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>340</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>66</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>211</v>
       </c>
-      <c r="O75" s="20">
+      <c r="P75" s="20">
         <v>102</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>355</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>4392</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>1447</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>4105</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>1686</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>1389</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>16181</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>319</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>5988</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>1867</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>190</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>29</v>
       </c>
-      <c r="AC75">
+      <c r="AD75">
         <v>533</v>
       </c>
-      <c r="AD75">
+      <c r="AE75">
         <v>167</v>
       </c>
-      <c r="AE75">
+      <c r="AF75">
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -6682,84 +6746,84 @@
       <c r="D76">
         <v>36</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>7.4989999999999997</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>7.14</v>
       </c>
-      <c r="H76" s="2">
+      <c r="I76" s="2">
         <v>1.28</v>
       </c>
-      <c r="I76" s="2">
+      <c r="J76" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="J76" s="2">
+      <c r="K76" s="2">
         <f t="shared" si="1"/>
         <v>0.19833333333333333</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>10</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>329</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>69</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>208</v>
       </c>
-      <c r="O76" s="20">
+      <c r="P76" s="20">
         <v>105.7</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>351</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>4358</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>1434</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>3913</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>1603</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>1338</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>16370</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>305</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>6899</v>
       </c>
-      <c r="Z76">
+      <c r="AA76">
         <v>1345</v>
       </c>
-      <c r="AA76">
+      <c r="AB76">
         <v>247</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <v>28</v>
       </c>
-      <c r="AC76">
+      <c r="AD76">
         <v>550</v>
       </c>
-      <c r="AD76">
+      <c r="AE76">
         <v>172</v>
       </c>
-      <c r="AE76">
+      <c r="AF76">
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -6772,84 +6836,84 @@
       <c r="D77">
         <v>34</v>
       </c>
-      <c r="F77" s="3">
+      <c r="G77" s="3">
         <v>7.8070000000000004</v>
       </c>
-      <c r="G77" s="3">
+      <c r="H77" s="3">
         <v>7.63</v>
       </c>
-      <c r="H77" s="6">
+      <c r="I77" s="6">
         <v>1.43</v>
       </c>
-      <c r="I77" s="6">
+      <c r="J77" s="6">
         <v>1.2804</v>
       </c>
-      <c r="J77" s="2">
+      <c r="K77" s="2">
         <f t="shared" si="1"/>
         <v>0.22441176470588234</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>11</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>318</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>69</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>206</v>
       </c>
-      <c r="O77" s="20">
+      <c r="P77" s="20">
         <v>105.2</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>349</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>4408</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>1430</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>4081</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>1656</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>1405</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>17538</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>306</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>5530</v>
       </c>
-      <c r="Z77">
+      <c r="AA77">
         <v>1128</v>
       </c>
-      <c r="AA77">
+      <c r="AB77">
         <v>246</v>
       </c>
-      <c r="AB77">
+      <c r="AC77">
         <v>27</v>
       </c>
-      <c r="AC77">
+      <c r="AD77">
         <v>568</v>
       </c>
-      <c r="AD77">
+      <c r="AE77">
         <v>177</v>
       </c>
-      <c r="AE77">
+      <c r="AF77">
         <v>638</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -6862,84 +6926,84 @@
       <c r="D78">
         <v>40</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>8.1630000000000003</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>7.77</v>
       </c>
-      <c r="H78" s="2">
+      <c r="I78" s="2">
         <v>1.64</v>
       </c>
-      <c r="I78" s="2">
+      <c r="J78" s="2">
         <v>1.2936000000000001</v>
       </c>
-      <c r="J78" s="2">
+      <c r="K78" s="2">
         <f t="shared" si="1"/>
         <v>0.19424999999999998</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>13</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>313</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>68</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>199</v>
       </c>
-      <c r="O78" s="20">
+      <c r="P78" s="20">
         <v>111.7</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>340</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>4465</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>1435</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>4158</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>1703</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>1327</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>17777</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>299</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>5274</v>
       </c>
-      <c r="Z78">
+      <c r="AA78">
         <v>1209</v>
       </c>
-      <c r="AA78">
+      <c r="AB78">
         <v>233</v>
       </c>
-      <c r="AB78">
+      <c r="AC78">
         <v>26</v>
       </c>
-      <c r="AC78">
+      <c r="AD78">
         <v>586</v>
       </c>
-      <c r="AD78">
+      <c r="AE78">
         <v>182</v>
       </c>
-      <c r="AE78">
+      <c r="AF78">
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -6952,84 +7016,84 @@
       <c r="D79">
         <v>40</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>8.0850000000000009</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>6.37</v>
       </c>
-      <c r="H79" s="2">
+      <c r="I79" s="2">
         <v>1.43</v>
       </c>
-      <c r="I79" s="2">
+      <c r="J79" s="2">
         <v>1.4256</v>
       </c>
-      <c r="J79" s="2">
+      <c r="K79" s="2">
         <f t="shared" si="1"/>
         <v>0.15925</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>15</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>313</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>63</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>195</v>
       </c>
-      <c r="O79" s="20">
+      <c r="P79" s="20">
         <v>105.9</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>337</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>4487</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>1431</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>4288</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>1746</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>1254</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>17687</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>296</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>4968</v>
       </c>
-      <c r="Z79">
+      <c r="AA79">
         <v>1180</v>
       </c>
-      <c r="AA79">
+      <c r="AB79">
         <v>275</v>
       </c>
-      <c r="AB79">
+      <c r="AC79">
         <v>25</v>
       </c>
-      <c r="AC79">
+      <c r="AD79">
         <v>603</v>
       </c>
-      <c r="AD79">
+      <c r="AE79">
         <v>187</v>
       </c>
-      <c r="AE79">
+      <c r="AF79">
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -7042,84 +7106,84 @@
       <c r="D80">
         <v>40</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>8.0850000000000009</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>6.86</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>1.38</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>1.3331999999999999</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <f t="shared" si="1"/>
         <v>0.17150000000000001</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>15</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>301</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>67</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>194</v>
       </c>
-      <c r="O80" s="20">
+      <c r="P80" s="20">
         <v>102.2</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>335</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>4507</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>1444</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>4365</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>1785</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>1363</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>18234</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>304</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>5516</v>
       </c>
-      <c r="Z80">
+      <c r="AA80">
         <v>999</v>
       </c>
-      <c r="AA80">
+      <c r="AB80">
         <v>197</v>
       </c>
-      <c r="AB80">
+      <c r="AC80">
         <v>24</v>
       </c>
-      <c r="AC80">
+      <c r="AD80">
         <v>621</v>
       </c>
-      <c r="AD80">
+      <c r="AE80">
         <v>192</v>
       </c>
-      <c r="AE80">
+      <c r="AF80">
         <v>645</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -7132,80 +7196,80 @@
       <c r="D81">
         <v>40</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>8.3629999999999995</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>9.0299999999999994</v>
       </c>
-      <c r="H81" s="2">
+      <c r="I81" s="2">
         <v>1.43</v>
       </c>
-      <c r="I81" s="2">
+      <c r="J81" s="2">
         <v>1.3859999999999999</v>
       </c>
-      <c r="J81" s="2">
+      <c r="K81" s="2">
         <f t="shared" si="1"/>
         <v>0.22574999999999998</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>15</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>293</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>69</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>191</v>
       </c>
-      <c r="O81" s="20">
+      <c r="P81" s="20">
         <v>100</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>334</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>4609</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>1458</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>4387</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>1798</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>1269</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>18547</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>306</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>5325</v>
       </c>
-      <c r="Z81">
+      <c r="AA81">
         <v>1327</v>
       </c>
-      <c r="AA81">
+      <c r="AB81">
         <v>284</v>
       </c>
-      <c r="AB81">
+      <c r="AC81">
         <v>24</v>
       </c>
-      <c r="AC81">
+      <c r="AD81">
         <v>639</v>
       </c>
-      <c r="AD81">
+      <c r="AE81">
         <v>197</v>
       </c>
-      <c r="AE81">
+      <c r="AF81">
         <v>683</v>
       </c>
     </row>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DD052D-AE4F-EE4E-9E08-AB42ACDF57FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF5CF1-908F-094A-86FB-CE02699DCA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="500" windowWidth="25320" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1731,6 +1731,9 @@
       <c r="D19">
         <v>16</v>
       </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
       <c r="G19">
         <v>6.7510000000000003</v>
       </c>
@@ -1786,6 +1789,9 @@
       <c r="D20">
         <v>16</v>
       </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
       <c r="G20">
         <v>8.4269999999999996</v>
       </c>
@@ -1853,6 +1859,9 @@
       <c r="E21">
         <v>14</v>
       </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
       <c r="G21">
         <v>7.7290000000000001</v>
       </c>
@@ -1917,6 +1926,9 @@
       <c r="D22">
         <v>16</v>
       </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
       <c r="G22">
         <v>6.6970000000000001</v>
       </c>
@@ -1987,6 +1999,9 @@
       <c r="D23">
         <v>16</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="G23">
         <v>6.0229999999999997</v>
       </c>
@@ -2051,6 +2066,9 @@
       <c r="D24">
         <v>16</v>
       </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
       <c r="G24">
         <v>5.2119999999999997</v>
       </c>
@@ -2114,6 +2132,9 @@
       </c>
       <c r="D25">
         <v>16</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
       </c>
       <c r="G25">
         <v>6.3</v>
@@ -2180,6 +2201,9 @@
       <c r="D26">
         <v>16</v>
       </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
       <c r="G26">
         <v>7.1369999999999996</v>
       </c>
@@ -2245,6 +2269,9 @@
       <c r="D27">
         <v>16</v>
       </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="G27">
         <v>8.6210000000000004</v>
       </c>
@@ -2310,6 +2337,9 @@
       <c r="D28" s="12">
         <v>16</v>
       </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
       <c r="G28" s="12">
         <v>9.9860000000000007</v>
       </c>
@@ -2399,6 +2429,9 @@
       <c r="D29">
         <v>16</v>
       </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
       <c r="G29">
         <v>6.4370000000000003</v>
       </c>
@@ -2487,6 +2520,9 @@
       <c r="D30">
         <v>16</v>
       </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="G30">
         <v>5.8890000000000002</v>
       </c>
@@ -2578,6 +2614,9 @@
       <c r="E31">
         <v>10.199999999999999</v>
       </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
       <c r="G31" s="3">
         <v>7.0869999999999997</v>
       </c>
@@ -2672,6 +2711,9 @@
       <c r="E32">
         <v>10.199999999999999</v>
       </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
       <c r="G32">
         <v>6.8890000000000002</v>
       </c>
@@ -2766,6 +2808,9 @@
       <c r="E33">
         <v>10.1</v>
       </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
       <c r="G33">
         <v>7.4989999999999997</v>
       </c>
@@ -2860,6 +2905,9 @@
       <c r="E34">
         <v>10.1</v>
       </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
       <c r="G34">
         <v>9.3539999999999992</v>
       </c>
@@ -2954,6 +3002,9 @@
       <c r="E35">
         <v>10</v>
       </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
       <c r="G35">
         <v>11.162000000000001</v>
       </c>
@@ -3048,6 +3099,9 @@
       <c r="E36">
         <v>10.199999999999999</v>
       </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
       <c r="G36">
         <v>12.781000000000001</v>
       </c>
@@ -3142,6 +3196,9 @@
       <c r="E37">
         <v>10.3</v>
       </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
       <c r="G37" s="3">
         <v>8.6880000000000006</v>
       </c>
@@ -3236,6 +3293,9 @@
       <c r="E38">
         <v>10.4</v>
       </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
       <c r="G38">
         <v>8.3629999999999995</v>
       </c>
@@ -3330,6 +3390,9 @@
       <c r="E39">
         <v>10.5</v>
       </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
       <c r="G39">
         <v>7.7290000000000001</v>
       </c>
@@ -3424,6 +3487,9 @@
       <c r="E40">
         <v>10.7</v>
       </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
       <c r="G40">
         <v>8.9870000000000001</v>
       </c>
@@ -3518,6 +3584,9 @@
       <c r="E41">
         <v>11</v>
       </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
       <c r="G41">
         <v>10.718999999999999</v>
       </c>
@@ -3612,6 +3681,9 @@
       <c r="E42">
         <v>11</v>
       </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
       <c r="G42">
         <v>8.6880000000000006</v>
       </c>
@@ -3706,6 +3778,9 @@
       <c r="E43">
         <v>11</v>
       </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
       <c r="G43">
         <v>7.7290000000000001</v>
       </c>
@@ -3800,6 +3875,9 @@
       <c r="E44">
         <v>11</v>
       </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
       <c r="G44">
         <v>7.7290000000000001</v>
       </c>
@@ -3893,6 +3971,9 @@
       <c r="E45">
         <v>11.1</v>
       </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
       <c r="G45">
         <v>7.1150000000000002</v>
       </c>
@@ -3986,6 +4067,9 @@
       <c r="E46">
         <v>11.2</v>
       </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
       <c r="G46">
         <v>9.2829999999999995</v>
       </c>
@@ -4079,6 +4163,9 @@
       <c r="E47">
         <v>11.4</v>
       </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
       <c r="G47" s="3">
         <v>10.127000000000001</v>
       </c>
@@ -4172,6 +4259,9 @@
       <c r="E48">
         <v>11.4</v>
       </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
       <c r="G48">
         <v>12.676</v>
       </c>
@@ -4265,6 +4355,9 @@
       <c r="E49">
         <v>11.4</v>
       </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
       <c r="G49">
         <v>10.718999999999999</v>
       </c>
@@ -4358,6 +4451,9 @@
       <c r="E50">
         <v>11.7</v>
       </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
       <c r="G50">
         <v>10.512</v>
       </c>
@@ -4451,6 +4547,9 @@
       <c r="E51">
         <v>12</v>
       </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
       <c r="G51">
         <v>9.8309999999999995</v>
       </c>
@@ -4544,6 +4643,9 @@
       <c r="E52">
         <v>12</v>
       </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
       <c r="G52">
         <v>10.007999999999999</v>
       </c>
@@ -4637,6 +4739,9 @@
       <c r="E53">
         <v>12</v>
       </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
       <c r="G53">
         <v>9.51</v>
       </c>
@@ -4730,6 +4835,9 @@
       <c r="E54">
         <v>12</v>
       </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
       <c r="G54">
         <v>8.41</v>
       </c>
@@ -4823,6 +4931,9 @@
       <c r="E55">
         <v>12</v>
       </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
       <c r="G55">
         <v>11.162000000000001</v>
       </c>
@@ -4916,6 +5027,9 @@
       <c r="E56">
         <v>12</v>
       </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
       <c r="G56">
         <v>10.16</v>
       </c>
@@ -5009,6 +5123,9 @@
       <c r="E57">
         <v>12.1</v>
       </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
       <c r="G57" s="3">
         <v>9.1850000000000005</v>
       </c>
@@ -5102,6 +5219,9 @@
       <c r="E58" s="14">
         <v>12.1</v>
       </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
       <c r="G58" s="14">
         <v>10.007999999999999</v>
       </c>
@@ -5195,6 +5315,9 @@
       <c r="E59" s="14">
         <v>12.1</v>
       </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
       <c r="G59" s="14">
         <v>10.512</v>
       </c>
@@ -5288,6 +5411,9 @@
       <c r="E60" s="14">
         <v>12</v>
       </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
       <c r="G60" s="14">
         <v>10.59</v>
       </c>
@@ -5381,6 +5507,9 @@
       <c r="E61">
         <v>12</v>
       </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
       <c r="G61">
         <v>9.2829999999999995</v>
       </c>
@@ -5474,6 +5603,9 @@
       <c r="E62">
         <v>12</v>
       </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
       <c r="G62">
         <v>9.8309999999999995</v>
       </c>
@@ -5567,6 +5699,9 @@
       <c r="E63">
         <v>12</v>
       </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
       <c r="G63">
         <v>9.6349999999999998</v>
       </c>
@@ -5660,6 +5795,9 @@
       <c r="E64">
         <v>12</v>
       </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
       <c r="G64">
         <v>9.7119999999999997</v>
       </c>
@@ -5753,6 +5891,9 @@
       <c r="E65">
         <v>11.9</v>
       </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
       <c r="G65">
         <v>8.9870000000000001</v>
       </c>
@@ -5846,6 +5987,9 @@
       <c r="E66">
         <v>11.9</v>
       </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
       <c r="G66">
         <v>11.3</v>
       </c>
@@ -5936,6 +6080,9 @@
       <c r="D67">
         <v>28</v>
       </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
       <c r="G67" s="3">
         <v>7.6509999999999998</v>
       </c>
@@ -6026,6 +6173,9 @@
       <c r="D68">
         <v>28</v>
       </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
       <c r="G68">
         <v>7.5730000000000004</v>
       </c>
@@ -6116,6 +6266,9 @@
       <c r="D69">
         <v>28</v>
       </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
       <c r="G69">
         <v>8.24</v>
       </c>
@@ -6206,6 +6359,9 @@
       <c r="D70">
         <v>28</v>
       </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
       <c r="G70">
         <v>8.8149999999999995</v>
       </c>
@@ -6296,6 +6452,9 @@
       <c r="D71">
         <v>28</v>
       </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
       <c r="G71">
         <v>9.51</v>
       </c>
@@ -6386,6 +6545,9 @@
       <c r="D72">
         <v>32</v>
       </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
       <c r="G72">
         <v>10.433</v>
       </c>
@@ -6476,6 +6638,9 @@
       <c r="D73">
         <v>30</v>
       </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
       <c r="G73">
         <v>10.433</v>
       </c>
@@ -6566,6 +6731,9 @@
       <c r="D74">
         <v>30</v>
       </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
       <c r="G74">
         <v>10.16</v>
       </c>
@@ -6656,6 +6824,9 @@
       <c r="D75">
         <v>34</v>
       </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
       <c r="G75">
         <v>8.9359999999999999</v>
       </c>
@@ -6746,6 +6917,9 @@
       <c r="D76">
         <v>36</v>
       </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
       <c r="G76">
         <v>7.4989999999999997</v>
       </c>
@@ -6836,6 +7010,9 @@
       <c r="D77">
         <v>34</v>
       </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
       <c r="G77" s="3">
         <v>7.8070000000000004</v>
       </c>
@@ -6926,6 +7103,9 @@
       <c r="D78">
         <v>40</v>
       </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
       <c r="G78">
         <v>8.1630000000000003</v>
       </c>
@@ -7016,6 +7196,9 @@
       <c r="D79">
         <v>40</v>
       </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
       <c r="G79">
         <v>8.0850000000000009</v>
       </c>
@@ -7106,6 +7289,9 @@
       <c r="D80">
         <v>40</v>
       </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
       <c r="G80">
         <v>8.0850000000000009</v>
       </c>
@@ -7195,6 +7381,9 @@
       </c>
       <c r="D81">
         <v>40</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="G81">
         <v>8.3629999999999995</v>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF5CF1-908F-094A-86FB-CE02699DCA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7884DB6C-C37A-F043-8374-4E40B46E5956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="500" windowWidth="25320" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="17080" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Draft" sheetId="3" r:id="rId2"/>
-    <sheet name="Draft2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Draft2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,33 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Root-Prod</t>
-  </si>
-  <si>
-    <t>Cattle-Prod</t>
-  </si>
-  <si>
-    <t>Cows-Prod</t>
-  </si>
-  <si>
-    <t>Sheep-Prod</t>
-  </si>
-  <si>
-    <t>Ewes-Prod</t>
-  </si>
-  <si>
-    <t>Pig-Prod</t>
-  </si>
-  <si>
-    <t>Poultry-Prod</t>
-  </si>
-  <si>
-    <t>Goats-Prod</t>
   </si>
   <si>
     <t>barley_price</t>
@@ -117,12 +94,6 @@
     <t>potato_price_wage_odd</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>wheat_imports(000cwt)</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -138,22 +109,22 @@
     <t>potato_acre</t>
   </si>
   <si>
-    <t>agri_price_index</t>
-  </si>
-  <si>
     <t>wheat_price_UK</t>
   </si>
   <si>
     <t>if_tithe</t>
+  </si>
+  <si>
+    <t>house rent</t>
+  </si>
+  <si>
+    <t>wheat_imports</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -263,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,14 +252,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -607,11 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I71" sqref="I71"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,120 +593,81 @@
     <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="10.1640625" customWidth="1"/>
     <col min="14" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="20" customWidth="1"/>
-    <col min="17" max="18" width="11.5" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="12" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="11" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="13.83203125" customWidth="1"/>
-    <col min="27" max="27" width="13.6640625" customWidth="1"/>
-    <col min="28" max="28" width="12.83203125" customWidth="1"/>
-    <col min="29" max="29" width="12.5" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -754,7 +680,7 @@
       <c r="D2">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="19">
         <v>13.39</v>
       </c>
       <c r="F2">
@@ -767,7 +693,7 @@
         <f>23.67/4.85</f>
         <v>4.880412371134021</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>1.6</v>
       </c>
       <c r="J2" s="10">
@@ -789,16 +715,14 @@
       <c r="O2" s="11">
         <v>296.87219999999996</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="17"/>
-      <c r="AC2">
+      <c r="S2">
         <v>249</v>
       </c>
-      <c r="AF2">
+      <c r="V2">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -811,7 +735,7 @@
       <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="19">
         <v>13.28</v>
       </c>
       <c r="F3">
@@ -823,7 +747,7 @@
       <c r="H3">
         <v>6.8</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>1.25</v>
       </c>
       <c r="J3" s="10">
@@ -845,16 +769,14 @@
       <c r="O3" s="11">
         <v>255.52860000000001</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="17"/>
-      <c r="AC3">
+      <c r="S3">
         <v>146</v>
       </c>
-      <c r="AF3">
+      <c r="V3">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -867,7 +789,7 @@
       <c r="D4">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="19">
         <v>13.63</v>
       </c>
       <c r="F4">
@@ -879,7 +801,7 @@
       <c r="H4">
         <v>3.85</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>1.57</v>
       </c>
       <c r="J4" s="10">
@@ -901,16 +823,14 @@
       <c r="O4" s="11">
         <v>272.50619999999998</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="17"/>
-      <c r="AC4">
+      <c r="S4">
         <v>218</v>
       </c>
-      <c r="AF4">
+      <c r="V4">
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -923,7 +843,7 @@
       <c r="D5">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="19">
         <v>13.87</v>
       </c>
       <c r="F5">
@@ -935,7 +855,7 @@
       <c r="H5">
         <v>7.7</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>1.62</v>
       </c>
       <c r="J5" s="10">
@@ -957,16 +877,14 @@
       <c r="O5" s="11">
         <v>275.09999999999997</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="17"/>
-      <c r="AC5">
+      <c r="S5">
         <v>222</v>
       </c>
-      <c r="AF5">
+      <c r="V5">
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -979,7 +897,7 @@
       <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="19">
         <v>12.32</v>
       </c>
       <c r="F6">
@@ -991,7 +909,7 @@
       <c r="H6">
         <v>5.3</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>1.69</v>
       </c>
       <c r="J6" s="10">
@@ -1013,16 +931,14 @@
       <c r="O6" s="11">
         <v>247.59</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="17"/>
-      <c r="AC6">
+      <c r="S6">
         <v>301</v>
       </c>
-      <c r="AF6">
+      <c r="V6">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -1035,7 +951,7 @@
       <c r="D7">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="19">
         <v>15.02</v>
       </c>
       <c r="F7">
@@ -1047,7 +963,7 @@
       <c r="H7">
         <v>7.7</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>1.82</v>
       </c>
       <c r="J7" s="10">
@@ -1069,15 +985,14 @@
       <c r="O7" s="8">
         <v>310.94159999999999</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="AC7">
+      <c r="S7">
         <v>230</v>
       </c>
-      <c r="AF7">
+      <c r="V7">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -1090,7 +1005,7 @@
       <c r="D8">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="19">
         <v>14.89</v>
       </c>
       <c r="F8">
@@ -1102,7 +1017,7 @@
       <c r="H8">
         <v>8.48</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>1.62</v>
       </c>
       <c r="J8" s="10">
@@ -1124,15 +1039,14 @@
       <c r="O8" s="8">
         <v>306.22559999999999</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="AC8">
+      <c r="S8">
         <v>251</v>
       </c>
-      <c r="AF8">
+      <c r="V8">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1145,7 +1059,7 @@
       <c r="D9">
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="19">
         <v>15.13</v>
       </c>
       <c r="F9">
@@ -1157,7 +1071,7 @@
       <c r="H9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>1.38</v>
       </c>
       <c r="J9" s="10">
@@ -1179,15 +1093,14 @@
       <c r="O9" s="8">
         <v>229.11899999999997</v>
       </c>
-      <c r="Q9" s="17"/>
-      <c r="AC9">
+      <c r="S9">
         <v>355</v>
       </c>
-      <c r="AF9">
+      <c r="V9">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1200,7 +1113,7 @@
       <c r="D10">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="19">
         <v>15.29</v>
       </c>
       <c r="F10">
@@ -1234,21 +1147,20 @@
       <c r="O10" s="8">
         <v>230.84820000000002</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="AC10">
+      <c r="S10">
         <v>314</v>
       </c>
-      <c r="AD10">
+      <c r="T10">
         <v>125</v>
       </c>
-      <c r="AE10">
+      <c r="U10">
         <v>18</v>
       </c>
-      <c r="AF10">
+      <c r="V10">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1261,7 +1173,7 @@
       <c r="D11">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="19">
         <v>16</v>
       </c>
       <c r="F11">
@@ -1295,21 +1207,20 @@
       <c r="O11" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="AC11">
+      <c r="S11">
         <v>305</v>
       </c>
-      <c r="AD11">
+      <c r="T11">
         <v>126</v>
       </c>
-      <c r="AE11">
+      <c r="U11">
         <v>19</v>
       </c>
-      <c r="AF11">
+      <c r="V11">
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1321,6 +1232,9 @@
       </c>
       <c r="D12">
         <v>16</v>
+      </c>
+      <c r="E12" s="19">
+        <v>15.82</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1353,21 +1267,20 @@
       <c r="O12" s="8">
         <v>232.42020000000002</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="AC12">
+      <c r="S12">
         <v>314</v>
       </c>
-      <c r="AD12">
+      <c r="T12">
         <v>146</v>
       </c>
-      <c r="AE12">
+      <c r="U12">
         <v>20</v>
       </c>
-      <c r="AF12">
+      <c r="V12">
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1379,6 +1292,9 @@
       </c>
       <c r="D13">
         <v>16</v>
+      </c>
+      <c r="E13" s="19">
+        <v>15.64</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1411,21 +1327,20 @@
       <c r="O13" s="8">
         <v>220.08</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="AC13">
+      <c r="S13">
         <v>275</v>
       </c>
-      <c r="AD13">
+      <c r="T13">
         <v>127</v>
       </c>
-      <c r="AE13">
+      <c r="U13">
         <v>16</v>
       </c>
-      <c r="AF13">
+      <c r="V13">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1437,6 +1352,9 @@
       </c>
       <c r="D14">
         <v>16</v>
+      </c>
+      <c r="E14" s="19">
+        <v>15.46</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1469,21 +1387,20 @@
       <c r="O14" s="8">
         <v>290.03399999999999</v>
       </c>
-      <c r="Q14" s="17"/>
-      <c r="AC14">
+      <c r="S14">
         <v>247</v>
       </c>
-      <c r="AD14">
+      <c r="T14">
         <v>106</v>
       </c>
-      <c r="AE14">
+      <c r="U14">
         <v>14</v>
       </c>
-      <c r="AF14">
+      <c r="V14">
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1495,6 +1412,9 @@
       </c>
       <c r="D15">
         <v>16</v>
+      </c>
+      <c r="E15" s="19">
+        <v>15.29</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1527,21 +1447,20 @@
       <c r="O15" s="8">
         <v>290.82</v>
       </c>
-      <c r="Q15" s="17"/>
-      <c r="AC15">
+      <c r="S15">
         <v>219</v>
       </c>
-      <c r="AD15">
+      <c r="T15">
         <v>111</v>
       </c>
-      <c r="AE15">
+      <c r="U15">
         <v>16</v>
       </c>
-      <c r="AF15">
+      <c r="V15">
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1554,8 +1473,8 @@
       <c r="D16">
         <v>16</v>
       </c>
-      <c r="E16">
-        <v>15.58</v>
+      <c r="E16" s="19">
+        <v>15.11</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1588,21 +1507,20 @@
       <c r="O16" s="8">
         <v>243.66</v>
       </c>
-      <c r="Q16" s="17"/>
-      <c r="AC16">
+      <c r="S16">
         <v>187</v>
       </c>
-      <c r="AD16">
+      <c r="T16">
         <v>112</v>
       </c>
-      <c r="AE16">
+      <c r="U16">
         <v>17</v>
       </c>
-      <c r="AF16">
+      <c r="V16">
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1614,6 +1532,9 @@
       </c>
       <c r="D17">
         <v>16</v>
+      </c>
+      <c r="E17" s="19">
+        <v>14.93</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1646,21 +1567,20 @@
       <c r="O17" s="8">
         <v>251.91300000000001</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="AC17">
+      <c r="S17">
         <v>230</v>
       </c>
-      <c r="AD17">
+      <c r="T17">
         <v>123</v>
       </c>
-      <c r="AE17">
+      <c r="U17">
         <v>18</v>
       </c>
-      <c r="AF17">
+      <c r="V17">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1672,6 +1592,9 @@
       </c>
       <c r="D18">
         <v>16</v>
+      </c>
+      <c r="E18" s="19">
+        <v>14.75</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1704,21 +1627,20 @@
       <c r="O18" s="8">
         <v>252.14879999999997</v>
       </c>
-      <c r="Q18" s="17"/>
-      <c r="AC18">
+      <c r="S18">
         <v>261</v>
       </c>
-      <c r="AD18">
+      <c r="T18">
         <v>117</v>
       </c>
-      <c r="AE18">
+      <c r="U18">
         <v>18</v>
       </c>
-      <c r="AF18">
+      <c r="V18">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -1730,6 +1652,9 @@
       </c>
       <c r="D19">
         <v>16</v>
+      </c>
+      <c r="E19" s="19">
+        <v>14.57</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1762,21 +1687,20 @@
       <c r="O19" s="8">
         <v>252.69900000000001</v>
       </c>
-      <c r="Q19" s="17"/>
-      <c r="AC19">
+      <c r="S19">
         <v>315</v>
       </c>
-      <c r="AD19">
+      <c r="T19">
         <v>122</v>
       </c>
-      <c r="AE19">
+      <c r="U19">
         <v>18</v>
       </c>
-      <c r="AF19">
+      <c r="V19">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -1788,6 +1712,9 @@
       </c>
       <c r="D20">
         <v>16</v>
+      </c>
+      <c r="E20" s="19">
+        <v>14.39</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1820,30 +1747,29 @@
       <c r="O20" s="8">
         <v>247.983</v>
       </c>
-      <c r="Q20" s="17"/>
-      <c r="Z20">
+      <c r="P20">
         <v>516</v>
       </c>
-      <c r="AA20">
+      <c r="Q20">
         <v>197</v>
       </c>
-      <c r="AB20">
+      <c r="R20">
         <v>55</v>
       </c>
-      <c r="AC20">
+      <c r="S20">
         <v>471</v>
       </c>
-      <c r="AD20">
+      <c r="T20">
         <v>95</v>
       </c>
-      <c r="AE20">
+      <c r="U20">
         <v>38</v>
       </c>
-      <c r="AF20">
+      <c r="V20">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -1856,8 +1782,8 @@
       <c r="D21">
         <v>16</v>
       </c>
-      <c r="E21">
-        <v>14</v>
+      <c r="E21" s="19">
+        <v>14.21</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1890,30 +1816,29 @@
       <c r="O21" s="8">
         <v>220.08</v>
       </c>
-      <c r="Q21" s="17"/>
-      <c r="Z21">
+      <c r="P21">
         <v>722</v>
       </c>
-      <c r="AA21">
+      <c r="Q21">
         <v>80</v>
       </c>
-      <c r="AB21">
+      <c r="R21">
         <v>38</v>
       </c>
-      <c r="AC21">
+      <c r="S21">
         <v>318</v>
       </c>
-      <c r="AD21">
+      <c r="T21">
         <v>51</v>
       </c>
-      <c r="AE21">
+      <c r="U21">
         <v>21</v>
       </c>
-      <c r="AF21">
+      <c r="V21">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -1925,6 +1850,9 @@
       </c>
       <c r="D22">
         <v>16</v>
+      </c>
+      <c r="E22" s="19">
+        <v>14.04</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1957,36 +1885,29 @@
       <c r="O22" s="8">
         <v>212.22000000000003</v>
       </c>
-      <c r="Q22" s="17"/>
+      <c r="P22">
+        <v>651</v>
+      </c>
+      <c r="Q22">
+        <v>88</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
       <c r="S22">
-        <v>2250</v>
+        <v>399</v>
+      </c>
+      <c r="T22">
+        <v>74</v>
       </c>
       <c r="U22">
-        <v>2106</v>
-      </c>
-      <c r="Z22">
-        <v>651</v>
-      </c>
-      <c r="AA22">
-        <v>88</v>
-      </c>
-      <c r="AB22">
-        <v>8</v>
-      </c>
-      <c r="AC22">
-        <v>399</v>
-      </c>
-      <c r="AD22">
-        <v>74</v>
-      </c>
-      <c r="AE22">
         <v>6</v>
       </c>
-      <c r="AF22">
+      <c r="V22">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -1998,6 +1919,9 @@
       </c>
       <c r="D23">
         <v>16</v>
+      </c>
+      <c r="E23" s="19">
+        <v>13.86</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2030,30 +1954,29 @@
       <c r="O23" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="Q23" s="17"/>
-      <c r="Z23">
+      <c r="P23">
         <v>799</v>
       </c>
-      <c r="AA23">
+      <c r="Q23">
         <v>131</v>
       </c>
-      <c r="AB23">
+      <c r="R23">
         <v>54</v>
       </c>
-      <c r="AC23">
+      <c r="S23">
         <v>368</v>
       </c>
-      <c r="AD23">
+      <c r="T23">
         <v>112</v>
       </c>
-      <c r="AE23">
+      <c r="U23">
         <v>46</v>
       </c>
-      <c r="AF23">
+      <c r="V23">
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -2065,6 +1988,9 @@
       </c>
       <c r="D24">
         <v>16</v>
+      </c>
+      <c r="E24" s="19">
+        <v>13.68</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2097,30 +2023,29 @@
       <c r="O24" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="Q24" s="17"/>
-      <c r="Z24">
+      <c r="P24">
         <v>268</v>
       </c>
-      <c r="AA24">
+      <c r="Q24">
         <v>9</v>
       </c>
-      <c r="AB24">
+      <c r="R24">
         <v>10</v>
       </c>
-      <c r="AC24">
+      <c r="S24">
         <v>754</v>
       </c>
-      <c r="AD24">
+      <c r="T24">
         <v>9</v>
       </c>
-      <c r="AE24">
+      <c r="U24">
         <v>6</v>
       </c>
-      <c r="AF24">
+      <c r="V24">
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -2132,6 +2057,9 @@
       </c>
       <c r="D25">
         <v>16</v>
+      </c>
+      <c r="E25" s="19">
+        <v>13.5</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2164,31 +2092,29 @@
       <c r="O25" s="11">
         <v>331</v>
       </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="17"/>
-      <c r="Z25">
+      <c r="P25">
         <v>435</v>
       </c>
-      <c r="AA25">
+      <c r="Q25">
         <v>102</v>
       </c>
-      <c r="AB25">
+      <c r="R25">
         <v>20</v>
       </c>
-      <c r="AC25">
+      <c r="S25">
         <v>802</v>
       </c>
-      <c r="AD25">
+      <c r="T25">
         <v>39</v>
       </c>
-      <c r="AE25">
+      <c r="U25">
         <v>13</v>
       </c>
-      <c r="AF25">
+      <c r="V25">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -2200,6 +2126,9 @@
       </c>
       <c r="D26">
         <v>16</v>
+      </c>
+      <c r="E26" s="19">
+        <v>13.32</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2229,34 +2158,32 @@
       <c r="N26" s="11">
         <v>76</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="18">
         <v>400</v>
       </c>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="17"/>
-      <c r="Z26">
+      <c r="P26">
         <v>228</v>
       </c>
-      <c r="AA26">
+      <c r="Q26">
         <v>141</v>
       </c>
-      <c r="AB26">
+      <c r="R26">
         <v>28</v>
       </c>
-      <c r="AC26">
+      <c r="S26">
         <v>1420</v>
       </c>
-      <c r="AD26">
+      <c r="T26">
         <v>47</v>
       </c>
-      <c r="AE26">
+      <c r="U26">
         <v>18</v>
       </c>
-      <c r="AF26">
+      <c r="V26">
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -2268,6 +2195,9 @@
       </c>
       <c r="D27">
         <v>16</v>
+      </c>
+      <c r="E27" s="19">
+        <v>13.14</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2297,34 +2227,32 @@
       <c r="N27" s="11">
         <v>113</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O27" s="18">
         <v>129</v>
       </c>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="17"/>
-      <c r="Z27">
+      <c r="P27">
         <v>1175</v>
       </c>
-      <c r="AA27">
+      <c r="Q27">
         <v>143</v>
       </c>
-      <c r="AB27">
+      <c r="R27">
         <v>74</v>
       </c>
-      <c r="AC27">
+      <c r="S27">
         <v>717</v>
       </c>
-      <c r="AD27">
+      <c r="T27">
         <v>85</v>
       </c>
-      <c r="AE27">
+      <c r="U27">
         <v>43</v>
       </c>
-      <c r="AF27">
+      <c r="V27">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
@@ -2336,6 +2264,9 @@
       </c>
       <c r="D28" s="12">
         <v>16</v>
+      </c>
+      <c r="E28" s="19">
+        <v>12.96</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2368,55 +2299,29 @@
       <c r="O28" s="12">
         <v>89</v>
       </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="17"/>
+      <c r="P28" s="12">
+        <v>3701</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>497</v>
+      </c>
       <c r="R28" s="12">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="S28" s="12">
-        <v>2591</v>
+        <v>355</v>
       </c>
       <c r="T28" s="12">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="U28" s="12">
-        <v>2186</v>
+        <v>125</v>
       </c>
       <c r="V28" s="12">
-        <v>0</v>
-      </c>
-      <c r="W28" s="12">
-        <v>622</v>
-      </c>
-      <c r="X28" s="12">
-        <v>5691</v>
-      </c>
-      <c r="Y28" s="12">
-        <v>164</v>
-      </c>
-      <c r="Z28" s="12">
-        <v>3701</v>
-      </c>
-      <c r="AA28" s="12">
-        <v>497</v>
-      </c>
-      <c r="AB28" s="12">
-        <v>240</v>
-      </c>
-      <c r="AC28" s="12">
-        <v>355</v>
-      </c>
-      <c r="AD28" s="12">
-        <v>234</v>
-      </c>
-      <c r="AE28" s="12">
-        <v>125</v>
-      </c>
-      <c r="AF28" s="12">
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2428,6 +2333,9 @@
       </c>
       <c r="D29">
         <v>16</v>
+      </c>
+      <c r="E29" s="19">
+        <v>12.79</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2460,54 +2368,29 @@
       <c r="O29">
         <v>258</v>
       </c>
-      <c r="Q29" s="17"/>
+      <c r="P29">
+        <v>2207</v>
+      </c>
+      <c r="Q29">
+        <v>148</v>
+      </c>
       <c r="R29">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="S29">
-        <v>2736</v>
+        <v>556</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="U29">
-        <v>1971</v>
+        <v>9</v>
       </c>
       <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>639</v>
-      </c>
-      <c r="X29">
-        <v>6510</v>
-      </c>
-      <c r="Y29">
-        <v>175</v>
-      </c>
-      <c r="Z29">
-        <v>2207</v>
-      </c>
-      <c r="AA29">
-        <v>148</v>
-      </c>
-      <c r="AB29">
-        <v>12</v>
-      </c>
-      <c r="AC29">
-        <v>556</v>
-      </c>
-      <c r="AD29">
-        <v>49</v>
-      </c>
-      <c r="AE29">
-        <v>9</v>
-      </c>
-      <c r="AF29">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2519,6 +2402,9 @@
       </c>
       <c r="D30">
         <v>16</v>
+      </c>
+      <c r="E30" s="19">
+        <v>12.61</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2551,54 +2437,29 @@
       <c r="O30">
         <v>219</v>
       </c>
-      <c r="Q30" s="17"/>
+      <c r="P30">
+        <v>2845</v>
+      </c>
+      <c r="Q30">
+        <v>311</v>
+      </c>
       <c r="R30">
-        <v>362</v>
+        <v>70</v>
       </c>
       <c r="S30">
-        <v>2771</v>
+        <v>428</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="U30">
-        <v>1777</v>
+        <v>42</v>
       </c>
       <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>795</v>
-      </c>
-      <c r="X30">
-        <v>6328</v>
-      </c>
-      <c r="Y30">
-        <v>183</v>
-      </c>
-      <c r="Z30">
-        <v>2845</v>
-      </c>
-      <c r="AA30">
-        <v>311</v>
-      </c>
-      <c r="AB30">
-        <v>70</v>
-      </c>
-      <c r="AC30">
-        <v>428</v>
-      </c>
-      <c r="AD30">
-        <v>65</v>
-      </c>
-      <c r="AE30">
-        <v>42</v>
-      </c>
-      <c r="AF30">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -2645,57 +2506,29 @@
       <c r="O31">
         <v>275</v>
       </c>
-      <c r="P31" s="20">
-        <v>57.3</v>
-      </c>
-      <c r="Q31" s="17"/>
+      <c r="P31">
+        <v>3942</v>
+      </c>
+      <c r="Q31">
+        <v>351</v>
+      </c>
       <c r="R31">
-        <v>414</v>
+        <v>72</v>
       </c>
       <c r="S31">
-        <v>2918</v>
+        <v>322</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="U31">
-        <v>1876</v>
+        <v>31</v>
       </c>
       <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>928</v>
-      </c>
-      <c r="X31">
-        <v>6945</v>
-      </c>
-      <c r="Y31">
-        <v>201</v>
-      </c>
-      <c r="Z31">
-        <v>3942</v>
-      </c>
-      <c r="AA31">
-        <v>351</v>
-      </c>
-      <c r="AB31">
-        <v>72</v>
-      </c>
-      <c r="AC31">
-        <v>322</v>
-      </c>
-      <c r="AD31">
-        <v>150</v>
-      </c>
-      <c r="AE31">
-        <v>31</v>
-      </c>
-      <c r="AF31">
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -2742,57 +2575,29 @@
       <c r="O32">
         <v>270</v>
       </c>
-      <c r="P32" s="20">
-        <v>56</v>
-      </c>
-      <c r="Q32" s="17"/>
+      <c r="P32">
+        <v>5385</v>
+      </c>
+      <c r="Q32">
+        <v>292</v>
+      </c>
       <c r="R32">
-        <v>434</v>
+        <v>13</v>
       </c>
       <c r="S32">
-        <v>2967</v>
+        <v>173</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="U32">
-        <v>2122</v>
+        <v>12</v>
       </c>
       <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>1085</v>
-      </c>
-      <c r="X32">
-        <v>7471</v>
-      </c>
-      <c r="Y32">
-        <v>235</v>
-      </c>
-      <c r="Z32">
-        <v>5385</v>
-      </c>
-      <c r="AA32">
-        <v>292</v>
-      </c>
-      <c r="AB32">
-        <v>13</v>
-      </c>
-      <c r="AC32">
-        <v>173</v>
-      </c>
-      <c r="AD32">
-        <v>145</v>
-      </c>
-      <c r="AE32">
-        <v>12</v>
-      </c>
-      <c r="AF32">
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -2839,57 +2644,29 @@
       <c r="O33">
         <v>275</v>
       </c>
-      <c r="P33" s="20">
-        <v>55</v>
-      </c>
-      <c r="Q33" s="17"/>
+      <c r="P33">
+        <v>4833</v>
+      </c>
+      <c r="Q33">
+        <v>146</v>
+      </c>
       <c r="R33">
-        <v>429</v>
+        <v>21</v>
       </c>
       <c r="S33">
-        <v>3095</v>
+        <v>102</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="U33">
-        <v>2614</v>
+        <v>14</v>
       </c>
       <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>1073</v>
-      </c>
-      <c r="X33">
-        <v>8176</v>
-      </c>
-      <c r="Y33">
-        <v>278</v>
-      </c>
-      <c r="Z33">
-        <v>4833</v>
-      </c>
-      <c r="AA33">
-        <v>146</v>
-      </c>
-      <c r="AB33">
-        <v>21</v>
-      </c>
-      <c r="AC33">
-        <v>102</v>
-      </c>
-      <c r="AD33">
-        <v>62</v>
-      </c>
-      <c r="AE33">
-        <v>14</v>
-      </c>
-      <c r="AF33">
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -2936,57 +2713,29 @@
       <c r="O34">
         <v>279</v>
       </c>
-      <c r="P34" s="20">
-        <v>56.9</v>
-      </c>
-      <c r="Q34" s="17"/>
+      <c r="P34">
+        <v>4728</v>
+      </c>
+      <c r="Q34">
+        <v>184</v>
+      </c>
       <c r="R34">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="S34">
-        <v>3383</v>
+        <v>135</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U34">
-        <v>3143</v>
+        <v>29</v>
       </c>
       <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>1145</v>
-      </c>
-      <c r="X34">
-        <v>8661</v>
-      </c>
-      <c r="Y34">
-        <v>296</v>
-      </c>
-      <c r="Z34">
-        <v>4728</v>
-      </c>
-      <c r="AA34">
-        <v>184</v>
-      </c>
-      <c r="AB34">
-        <v>29</v>
-      </c>
-      <c r="AC34">
-        <v>135</v>
-      </c>
-      <c r="AD34">
-        <v>50</v>
-      </c>
-      <c r="AE34">
-        <v>29</v>
-      </c>
-      <c r="AF34">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -3033,57 +2782,29 @@
       <c r="O35">
         <v>308</v>
       </c>
-      <c r="P35" s="20">
-        <v>59.7</v>
-      </c>
-      <c r="Q35" s="17"/>
+      <c r="P35">
+        <v>2939</v>
+      </c>
+      <c r="Q35">
+        <v>171</v>
+      </c>
       <c r="R35">
-        <v>449</v>
+        <v>26</v>
       </c>
       <c r="S35">
-        <v>3498</v>
+        <v>252</v>
       </c>
       <c r="T35">
-        <v>1518</v>
+        <v>75</v>
       </c>
       <c r="U35">
-        <v>3722</v>
+        <v>26</v>
       </c>
       <c r="V35">
-        <v>1777</v>
-      </c>
-      <c r="W35">
-        <v>1343</v>
-      </c>
-      <c r="X35">
-        <v>8630</v>
-      </c>
-      <c r="Y35">
-        <v>311</v>
-      </c>
-      <c r="Z35">
-        <v>2939</v>
-      </c>
-      <c r="AA35">
-        <v>171</v>
-      </c>
-      <c r="AB35">
-        <v>26</v>
-      </c>
-      <c r="AC35">
-        <v>252</v>
-      </c>
-      <c r="AD35">
-        <v>75</v>
-      </c>
-      <c r="AE35">
-        <v>26</v>
-      </c>
-      <c r="AF35">
         <v>541</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -3130,57 +2851,29 @@
       <c r="O36">
         <v>309</v>
       </c>
-      <c r="P36" s="20">
-        <v>61.9</v>
-      </c>
-      <c r="Q36" s="17"/>
+      <c r="P36">
+        <v>2990</v>
+      </c>
+      <c r="Q36">
+        <v>401</v>
+      </c>
       <c r="R36">
-        <v>459</v>
+        <v>15</v>
       </c>
       <c r="S36">
-        <v>3564</v>
+        <v>312</v>
       </c>
       <c r="T36">
-        <v>1561</v>
+        <v>289</v>
       </c>
       <c r="U36">
-        <v>3602</v>
+        <v>15</v>
       </c>
       <c r="V36">
-        <v>1734</v>
-      </c>
-      <c r="W36">
-        <v>1178</v>
-      </c>
-      <c r="X36">
-        <v>8367</v>
-      </c>
-      <c r="Y36">
-        <v>284</v>
-      </c>
-      <c r="Z36">
-        <v>2990</v>
-      </c>
-      <c r="AA36">
-        <v>401</v>
-      </c>
-      <c r="AB36">
-        <v>15</v>
-      </c>
-      <c r="AC36">
-        <v>312</v>
-      </c>
-      <c r="AD36">
-        <v>289</v>
-      </c>
-      <c r="AE36">
-        <v>15</v>
-      </c>
-      <c r="AF36">
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -3227,57 +2920,29 @@
       <c r="O37">
         <v>345</v>
       </c>
-      <c r="P37" s="20">
-        <v>59</v>
-      </c>
-      <c r="Q37" s="17"/>
+      <c r="P37">
+        <v>3491</v>
+      </c>
+      <c r="Q37">
+        <v>359</v>
+      </c>
       <c r="R37">
-        <v>496</v>
+        <v>9</v>
       </c>
       <c r="S37">
-        <v>3588</v>
+        <v>359</v>
       </c>
       <c r="T37">
-        <v>1580</v>
+        <v>246</v>
       </c>
       <c r="U37">
-        <v>3694</v>
+        <v>9</v>
       </c>
       <c r="V37">
-        <v>1655</v>
-      </c>
-      <c r="W37">
-        <v>919</v>
-      </c>
-      <c r="X37">
-        <v>8908</v>
-      </c>
-      <c r="Y37">
-        <v>270</v>
-      </c>
-      <c r="Z37">
-        <v>3491</v>
-      </c>
-      <c r="AA37">
-        <v>359</v>
-      </c>
-      <c r="AB37">
-        <v>9</v>
-      </c>
-      <c r="AC37">
-        <v>359</v>
-      </c>
-      <c r="AD37">
-        <v>246</v>
-      </c>
-      <c r="AE37">
-        <v>9</v>
-      </c>
-      <c r="AF37">
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -3324,57 +2989,29 @@
       <c r="O38">
         <v>359</v>
       </c>
-      <c r="P38" s="20">
-        <v>55.4</v>
-      </c>
-      <c r="Q38" s="17"/>
+      <c r="P38">
+        <v>2843</v>
+      </c>
+      <c r="Q38">
+        <v>518</v>
+      </c>
       <c r="R38">
-        <v>511</v>
+        <v>27</v>
       </c>
       <c r="S38">
-        <v>3621</v>
+        <v>334</v>
       </c>
       <c r="T38">
-        <v>1605</v>
+        <v>178</v>
       </c>
       <c r="U38">
-        <v>3452</v>
+        <v>14</v>
       </c>
       <c r="V38">
-        <v>1538</v>
-      </c>
-      <c r="W38">
-        <v>1255</v>
-      </c>
-      <c r="X38">
-        <v>9491</v>
-      </c>
-      <c r="Y38">
-        <v>243</v>
-      </c>
-      <c r="Z38">
-        <v>2843</v>
-      </c>
-      <c r="AA38">
-        <v>518</v>
-      </c>
-      <c r="AB38">
-        <v>27</v>
-      </c>
-      <c r="AC38">
-        <v>334</v>
-      </c>
-      <c r="AD38">
-        <v>178</v>
-      </c>
-      <c r="AE38">
-        <v>14</v>
-      </c>
-      <c r="AF38">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -3421,57 +3058,29 @@
       <c r="O39">
         <v>360</v>
       </c>
-      <c r="P39" s="20">
-        <v>60.4</v>
-      </c>
-      <c r="Q39" s="17"/>
+      <c r="P39">
+        <v>4159</v>
+      </c>
+      <c r="Q39">
+        <v>339</v>
+      </c>
       <c r="R39">
-        <v>512</v>
+        <v>17</v>
       </c>
       <c r="S39">
-        <v>3667</v>
+        <v>298</v>
       </c>
       <c r="T39">
-        <v>1635</v>
+        <v>110</v>
       </c>
       <c r="U39">
-        <v>3495</v>
+        <v>19</v>
       </c>
       <c r="V39">
-        <v>1522</v>
-      </c>
-      <c r="W39">
-        <v>1410</v>
-      </c>
-      <c r="X39">
-        <v>9563</v>
-      </c>
-      <c r="Y39">
-        <v>228</v>
-      </c>
-      <c r="Z39">
-        <v>4159</v>
-      </c>
-      <c r="AA39">
-        <v>339</v>
-      </c>
-      <c r="AB39">
-        <v>17</v>
-      </c>
-      <c r="AC39">
-        <v>298</v>
-      </c>
-      <c r="AD39">
-        <v>110</v>
-      </c>
-      <c r="AE39">
-        <v>19</v>
-      </c>
-      <c r="AF39">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3518,57 +3127,29 @@
       <c r="O40">
         <v>374</v>
       </c>
-      <c r="P40" s="20">
-        <v>62.6</v>
-      </c>
-      <c r="Q40" s="17"/>
+      <c r="P40">
+        <v>4775</v>
+      </c>
+      <c r="Q40">
+        <v>238</v>
+      </c>
       <c r="R40">
-        <v>520</v>
+        <v>25</v>
       </c>
       <c r="S40">
-        <v>3816</v>
+        <v>320</v>
       </c>
       <c r="T40">
-        <v>1690</v>
+        <v>42</v>
       </c>
       <c r="U40">
-        <v>3593</v>
+        <v>25</v>
       </c>
       <c r="V40">
-        <v>1564</v>
-      </c>
-      <c r="W40">
-        <v>1266</v>
-      </c>
-      <c r="X40">
-        <v>10252</v>
-      </c>
-      <c r="Y40">
-        <v>219</v>
-      </c>
-      <c r="Z40">
-        <v>4775</v>
-      </c>
-      <c r="AA40">
-        <v>238</v>
-      </c>
-      <c r="AB40">
-        <v>25</v>
-      </c>
-      <c r="AC40">
-        <v>320</v>
-      </c>
-      <c r="AD40">
-        <v>42</v>
-      </c>
-      <c r="AE40">
-        <v>25</v>
-      </c>
-      <c r="AF40">
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3615,57 +3196,29 @@
       <c r="O41">
         <v>361</v>
       </c>
-      <c r="P41" s="20">
-        <v>63.5</v>
-      </c>
-      <c r="Q41" s="17"/>
+      <c r="P41">
+        <v>5072</v>
+      </c>
+      <c r="Q41">
+        <v>362</v>
+      </c>
       <c r="R41">
-        <v>507</v>
+        <v>25</v>
       </c>
       <c r="S41">
-        <v>3606</v>
+        <v>161</v>
       </c>
       <c r="T41">
-        <v>1626</v>
+        <v>61</v>
       </c>
       <c r="U41">
-        <v>3542</v>
+        <v>8</v>
       </c>
       <c r="V41">
-        <v>1567</v>
-      </c>
-      <c r="W41">
-        <v>1271</v>
-      </c>
-      <c r="X41">
-        <v>10061</v>
-      </c>
-      <c r="Y41">
-        <v>194</v>
-      </c>
-      <c r="Z41">
-        <v>5072</v>
-      </c>
-      <c r="AA41">
-        <v>362</v>
-      </c>
-      <c r="AB41">
-        <v>25</v>
-      </c>
-      <c r="AC41">
-        <v>161</v>
-      </c>
-      <c r="AD41">
-        <v>61</v>
-      </c>
-      <c r="AE41">
-        <v>8</v>
-      </c>
-      <c r="AF41">
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -3712,57 +3265,29 @@
       <c r="O42">
         <v>349</v>
       </c>
-      <c r="P42" s="20">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="Q42" s="17"/>
+      <c r="P42">
+        <v>5365</v>
+      </c>
+      <c r="Q42">
+        <v>252</v>
+      </c>
       <c r="R42">
-        <v>496</v>
+        <v>10</v>
       </c>
       <c r="S42">
-        <v>3472</v>
+        <v>236</v>
       </c>
       <c r="T42">
-        <v>1545</v>
+        <v>128</v>
       </c>
       <c r="U42">
-        <v>3556</v>
+        <v>6</v>
       </c>
       <c r="V42">
-        <v>1528</v>
-      </c>
-      <c r="W42">
-        <v>1102</v>
-      </c>
-      <c r="X42">
-        <v>10371</v>
-      </c>
-      <c r="Y42">
-        <v>190</v>
-      </c>
-      <c r="Z42">
-        <v>5365</v>
-      </c>
-      <c r="AA42">
-        <v>252</v>
-      </c>
-      <c r="AB42">
-        <v>10</v>
-      </c>
-      <c r="AC42">
-        <v>236</v>
-      </c>
-      <c r="AD42">
-        <v>128</v>
-      </c>
-      <c r="AE42">
-        <v>6</v>
-      </c>
-      <c r="AF42">
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -3809,57 +3334,29 @@
       <c r="O43">
         <v>311</v>
       </c>
-      <c r="P43" s="20">
-        <v>60.3</v>
-      </c>
-      <c r="Q43" s="17"/>
+      <c r="P43">
+        <v>8340</v>
+      </c>
+      <c r="Q43">
+        <v>230</v>
+      </c>
       <c r="R43">
-        <v>469</v>
+        <v>232</v>
       </c>
       <c r="S43">
-        <v>3255</v>
+        <v>150</v>
       </c>
       <c r="T43">
-        <v>1487</v>
+        <v>181</v>
       </c>
       <c r="U43">
-        <v>3456</v>
+        <v>232</v>
       </c>
       <c r="V43">
-        <v>1495</v>
-      </c>
-      <c r="W43">
-        <v>1154</v>
-      </c>
-      <c r="X43">
-        <v>9917</v>
-      </c>
-      <c r="Y43">
-        <v>175</v>
-      </c>
-      <c r="Z43">
-        <v>8340</v>
-      </c>
-      <c r="AA43">
-        <v>230</v>
-      </c>
-      <c r="AB43">
-        <v>232</v>
-      </c>
-      <c r="AC43">
-        <v>150</v>
-      </c>
-      <c r="AD43">
-        <v>181</v>
-      </c>
-      <c r="AE43">
-        <v>232</v>
-      </c>
-      <c r="AF43">
         <v>626</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -3906,56 +3403,29 @@
       <c r="O44">
         <v>315</v>
       </c>
-      <c r="P44" s="20">
-        <v>55.1</v>
+      <c r="P44">
+        <v>6490</v>
+      </c>
+      <c r="Q44">
+        <v>136</v>
       </c>
       <c r="R44">
-        <v>466</v>
+        <v>71</v>
       </c>
       <c r="S44">
-        <v>3144</v>
+        <v>161</v>
       </c>
       <c r="T44">
-        <v>1397</v>
+        <v>62</v>
       </c>
       <c r="U44">
-        <v>3308</v>
+        <v>39</v>
       </c>
       <c r="V44">
-        <v>1420</v>
-      </c>
-      <c r="W44">
-        <v>1067</v>
-      </c>
-      <c r="X44">
-        <v>9649</v>
-      </c>
-      <c r="Y44">
-        <v>166</v>
-      </c>
-      <c r="Z44">
-        <v>6490</v>
-      </c>
-      <c r="AA44">
-        <v>136</v>
-      </c>
-      <c r="AB44">
-        <v>71</v>
-      </c>
-      <c r="AC44">
-        <v>161</v>
-      </c>
-      <c r="AD44">
-        <v>62</v>
-      </c>
-      <c r="AE44">
-        <v>39</v>
-      </c>
-      <c r="AF44">
         <v>716</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -4002,56 +3472,29 @@
       <c r="O45">
         <v>322</v>
       </c>
-      <c r="P45" s="20">
-        <v>56.9</v>
+      <c r="P45">
+        <v>6044</v>
+      </c>
+      <c r="Q45">
+        <v>214</v>
       </c>
       <c r="R45">
-        <v>466</v>
+        <v>12</v>
       </c>
       <c r="S45">
-        <v>3262</v>
+        <v>63</v>
       </c>
       <c r="T45">
-        <v>1349</v>
+        <v>66</v>
       </c>
       <c r="U45">
-        <v>3367</v>
+        <v>12</v>
       </c>
       <c r="V45">
-        <v>1435</v>
-      </c>
-      <c r="W45">
-        <v>1058</v>
-      </c>
-      <c r="X45">
-        <v>10424</v>
-      </c>
-      <c r="Y45">
-        <v>171</v>
-      </c>
-      <c r="Z45">
-        <v>6044</v>
-      </c>
-      <c r="AA45">
-        <v>214</v>
-      </c>
-      <c r="AB45">
-        <v>12</v>
-      </c>
-      <c r="AC45">
-        <v>63</v>
-      </c>
-      <c r="AD45">
-        <v>66</v>
-      </c>
-      <c r="AE45">
-        <v>12</v>
-      </c>
-      <c r="AF45">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -4098,56 +3541,29 @@
       <c r="O46">
         <v>330</v>
       </c>
-      <c r="P46" s="20">
-        <v>67.2</v>
+      <c r="P46">
+        <v>6002</v>
+      </c>
+      <c r="Q46">
+        <v>269</v>
       </c>
       <c r="R46">
-        <v>474</v>
+        <v>50</v>
       </c>
       <c r="S46">
-        <v>3498</v>
+        <v>62</v>
       </c>
       <c r="T46">
-        <v>1387</v>
+        <v>76</v>
       </c>
       <c r="U46">
-        <v>3694</v>
+        <v>25</v>
       </c>
       <c r="V46">
-        <v>1579</v>
-      </c>
-      <c r="W46">
-        <v>1306</v>
-      </c>
-      <c r="X46">
-        <v>10682</v>
-      </c>
-      <c r="Y46">
-        <v>171</v>
-      </c>
-      <c r="Z46">
-        <v>6002</v>
-      </c>
-      <c r="AA46">
-        <v>269</v>
-      </c>
-      <c r="AB46">
-        <v>50</v>
-      </c>
-      <c r="AC46">
-        <v>62</v>
-      </c>
-      <c r="AD46">
-        <v>76</v>
-      </c>
-      <c r="AE46">
-        <v>25</v>
-      </c>
-      <c r="AF46">
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -4194,56 +3610,29 @@
       <c r="O47">
         <v>323</v>
       </c>
-      <c r="P47" s="20">
-        <v>66.8</v>
+      <c r="P47">
+        <v>6575</v>
+      </c>
+      <c r="Q47">
+        <v>329</v>
       </c>
       <c r="R47">
-        <v>466</v>
+        <v>38</v>
       </c>
       <c r="S47">
-        <v>3746</v>
+        <v>59</v>
       </c>
       <c r="T47">
-        <v>1483</v>
+        <v>31</v>
       </c>
       <c r="U47">
-        <v>4274</v>
+        <v>36</v>
       </c>
       <c r="V47">
-        <v>1799</v>
-      </c>
-      <c r="W47">
-        <v>1497</v>
-      </c>
-      <c r="X47">
-        <v>10890</v>
-      </c>
-      <c r="Y47">
-        <v>187</v>
-      </c>
-      <c r="Z47">
-        <v>6575</v>
-      </c>
-      <c r="AA47">
-        <v>329</v>
-      </c>
-      <c r="AB47">
-        <v>38</v>
-      </c>
-      <c r="AC47">
-        <v>59</v>
-      </c>
-      <c r="AD47">
-        <v>31</v>
-      </c>
-      <c r="AE47">
-        <v>36</v>
-      </c>
-      <c r="AF47">
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -4290,56 +3679,29 @@
       <c r="O48">
         <v>308</v>
       </c>
-      <c r="P48" s="20">
-        <v>57.1</v>
+      <c r="P48">
+        <v>7022</v>
+      </c>
+      <c r="Q48">
+        <v>360</v>
       </c>
       <c r="R48">
-        <v>449</v>
+        <v>71</v>
       </c>
       <c r="S48">
-        <v>3708</v>
+        <v>52</v>
       </c>
       <c r="T48">
-        <v>1521</v>
+        <v>57</v>
       </c>
       <c r="U48">
-        <v>4836</v>
+        <v>30</v>
       </c>
       <c r="V48">
-        <v>2034</v>
-      </c>
-      <c r="W48">
-        <v>1235</v>
-      </c>
-      <c r="X48">
-        <v>10334</v>
-      </c>
-      <c r="Y48">
-        <v>190</v>
-      </c>
-      <c r="Z48">
-        <v>7022</v>
-      </c>
-      <c r="AA48">
-        <v>360</v>
-      </c>
-      <c r="AB48">
-        <v>71</v>
-      </c>
-      <c r="AC48">
-        <v>52</v>
-      </c>
-      <c r="AD48">
-        <v>57</v>
-      </c>
-      <c r="AE48">
-        <v>30</v>
-      </c>
-      <c r="AF48">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -4386,56 +3748,29 @@
       <c r="O49">
         <v>320</v>
       </c>
-      <c r="P49" s="20">
-        <v>68.3</v>
+      <c r="P49">
+        <v>7103</v>
+      </c>
+      <c r="Q49">
+        <v>159</v>
       </c>
       <c r="R49">
-        <v>459</v>
+        <v>36</v>
       </c>
       <c r="S49">
-        <v>3647</v>
+        <v>52</v>
       </c>
       <c r="T49">
-        <v>1476</v>
+        <v>75</v>
       </c>
       <c r="U49">
-        <v>4901</v>
+        <v>35</v>
       </c>
       <c r="V49">
-        <v>2052</v>
-      </c>
-      <c r="W49">
-        <v>870</v>
-      </c>
-      <c r="X49">
-        <v>10603</v>
-      </c>
-      <c r="Y49">
-        <v>199</v>
-      </c>
-      <c r="Z49">
-        <v>7103</v>
-      </c>
-      <c r="AA49">
-        <v>159</v>
-      </c>
-      <c r="AB49">
-        <v>36</v>
-      </c>
-      <c r="AC49">
-        <v>52</v>
-      </c>
-      <c r="AD49">
-        <v>75</v>
-      </c>
-      <c r="AE49">
-        <v>35</v>
-      </c>
-      <c r="AF49">
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -4482,56 +3817,29 @@
       <c r="O50">
         <v>320</v>
       </c>
-      <c r="P50" s="20">
-        <v>66.400000000000006</v>
+      <c r="P50">
+        <v>8003</v>
+      </c>
+      <c r="Q50">
+        <v>213</v>
       </c>
       <c r="R50">
-        <v>463</v>
+        <v>41</v>
       </c>
       <c r="S50">
-        <v>3734</v>
+        <v>51</v>
       </c>
       <c r="T50">
-        <v>1506</v>
+        <v>93</v>
       </c>
       <c r="U50">
-        <v>4651</v>
+        <v>40</v>
       </c>
       <c r="V50">
-        <v>1938</v>
-      </c>
-      <c r="W50">
-        <v>1082</v>
-      </c>
-      <c r="X50">
-        <v>10802</v>
-      </c>
-      <c r="Y50">
-        <v>206</v>
-      </c>
-      <c r="Z50">
-        <v>8003</v>
-      </c>
-      <c r="AA50">
-        <v>213</v>
-      </c>
-      <c r="AB50">
-        <v>41</v>
-      </c>
-      <c r="AC50">
-        <v>51</v>
-      </c>
-      <c r="AD50">
-        <v>93</v>
-      </c>
-      <c r="AE50">
-        <v>40</v>
-      </c>
-      <c r="AF50">
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -4578,56 +3886,29 @@
       <c r="O51">
         <v>319</v>
       </c>
-      <c r="P51" s="20">
-        <v>67.599999999999994</v>
+      <c r="P51">
+        <v>7704</v>
+      </c>
+      <c r="Q51">
+        <v>259</v>
       </c>
       <c r="R51">
-        <v>470</v>
+        <v>55</v>
       </c>
       <c r="S51">
-        <v>3800</v>
+        <v>50</v>
       </c>
       <c r="T51">
-        <v>1529</v>
+        <v>110</v>
       </c>
       <c r="U51">
-        <v>4337</v>
+        <v>45</v>
       </c>
       <c r="V51">
-        <v>1807</v>
-      </c>
-      <c r="W51">
-        <v>1461</v>
-      </c>
-      <c r="X51">
-        <v>11159</v>
-      </c>
-      <c r="Y51">
-        <v>212</v>
-      </c>
-      <c r="Z51">
-        <v>7704</v>
-      </c>
-      <c r="AA51">
-        <v>259</v>
-      </c>
-      <c r="AB51">
-        <v>55</v>
-      </c>
-      <c r="AC51">
-        <v>50</v>
-      </c>
-      <c r="AD51">
-        <v>110</v>
-      </c>
-      <c r="AE51">
-        <v>45</v>
-      </c>
-      <c r="AF51">
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -4674,56 +3955,29 @@
       <c r="O52">
         <v>322</v>
       </c>
-      <c r="P52" s="20">
-        <v>68.599999999999994</v>
+      <c r="P52">
+        <v>8848</v>
+      </c>
+      <c r="Q52">
+        <v>401</v>
       </c>
       <c r="R52">
-        <v>473</v>
+        <v>75</v>
       </c>
       <c r="S52">
-        <v>3976</v>
+        <v>49</v>
       </c>
       <c r="T52">
-        <v>1546</v>
+        <v>128</v>
       </c>
       <c r="U52">
-        <v>4233</v>
+        <v>50</v>
       </c>
       <c r="V52">
-        <v>1752</v>
-      </c>
-      <c r="W52">
-        <v>1621</v>
-      </c>
-      <c r="X52">
-        <v>11717</v>
-      </c>
-      <c r="Y52">
-        <v>231</v>
-      </c>
-      <c r="Z52">
-        <v>8848</v>
-      </c>
-      <c r="AA52">
-        <v>401</v>
-      </c>
-      <c r="AB52">
-        <v>75</v>
-      </c>
-      <c r="AC52">
-        <v>49</v>
-      </c>
-      <c r="AD52">
-        <v>128</v>
-      </c>
-      <c r="AE52">
-        <v>50</v>
-      </c>
-      <c r="AF52">
         <v>725</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -4770,56 +4024,29 @@
       <c r="O53">
         <v>301</v>
       </c>
-      <c r="P53" s="20">
-        <v>69.599999999999994</v>
+      <c r="P53">
+        <v>9584</v>
+      </c>
+      <c r="Q53">
+        <v>784</v>
       </c>
       <c r="R53">
-        <v>458</v>
+        <v>95</v>
       </c>
       <c r="S53">
-        <v>4059</v>
+        <v>48</v>
       </c>
       <c r="T53">
-        <v>1552</v>
+        <v>145</v>
       </c>
       <c r="U53">
-        <v>4263</v>
+        <v>55</v>
       </c>
       <c r="V53">
-        <v>1742</v>
-      </c>
-      <c r="W53">
-        <v>1389</v>
-      </c>
-      <c r="X53">
-        <v>11738</v>
-      </c>
-      <c r="Y53">
-        <v>239</v>
-      </c>
-      <c r="Z53">
-        <v>9584</v>
-      </c>
-      <c r="AA53">
-        <v>784</v>
-      </c>
-      <c r="AB53">
-        <v>95</v>
-      </c>
-      <c r="AC53">
-        <v>48</v>
-      </c>
-      <c r="AD53">
-        <v>145</v>
-      </c>
-      <c r="AE53">
-        <v>55</v>
-      </c>
-      <c r="AF53">
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -4866,56 +4093,29 @@
       <c r="O54">
         <v>272</v>
       </c>
-      <c r="P54" s="20">
-        <v>68.900000000000006</v>
+      <c r="P54">
+        <v>8746</v>
+      </c>
+      <c r="Q54">
+        <v>603</v>
       </c>
       <c r="R54">
-        <v>424</v>
+        <v>139</v>
       </c>
       <c r="S54">
-        <v>4147</v>
+        <v>47</v>
       </c>
       <c r="T54">
-        <v>1528</v>
+        <v>163</v>
       </c>
       <c r="U54">
-        <v>4485</v>
+        <v>60</v>
       </c>
       <c r="V54">
-        <v>1822</v>
-      </c>
-      <c r="W54">
-        <v>1044</v>
-      </c>
-      <c r="X54">
-        <v>11863</v>
-      </c>
-      <c r="Y54">
-        <v>243</v>
-      </c>
-      <c r="Z54">
-        <v>8746</v>
-      </c>
-      <c r="AA54">
-        <v>603</v>
-      </c>
-      <c r="AB54">
-        <v>139</v>
-      </c>
-      <c r="AC54">
-        <v>47</v>
-      </c>
-      <c r="AD54">
-        <v>163</v>
-      </c>
-      <c r="AE54">
-        <v>60</v>
-      </c>
-      <c r="AF54">
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -4962,56 +4162,29 @@
       <c r="O55">
         <v>270</v>
       </c>
-      <c r="P55" s="20">
-        <v>75.5</v>
+      <c r="P55">
+        <v>9113</v>
+      </c>
+      <c r="Q55">
+        <v>350</v>
       </c>
       <c r="R55">
-        <v>418</v>
+        <v>114</v>
       </c>
       <c r="S55">
-        <v>4125</v>
+        <v>46</v>
       </c>
       <c r="T55">
-        <v>1491</v>
+        <v>181</v>
       </c>
       <c r="U55">
-        <v>4442</v>
+        <v>65</v>
       </c>
       <c r="V55">
-        <v>1818</v>
-      </c>
-      <c r="W55">
-        <v>1099</v>
-      </c>
-      <c r="X55">
-        <v>12068</v>
-      </c>
-      <c r="Y55">
-        <v>257</v>
-      </c>
-      <c r="Z55">
-        <v>9113</v>
-      </c>
-      <c r="AA55">
-        <v>350</v>
-      </c>
-      <c r="AB55">
-        <v>114</v>
-      </c>
-      <c r="AC55">
-        <v>46</v>
-      </c>
-      <c r="AD55">
-        <v>181</v>
-      </c>
-      <c r="AE55">
-        <v>65</v>
-      </c>
-      <c r="AF55">
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -5058,56 +4231,29 @@
       <c r="O56">
         <v>272</v>
       </c>
-      <c r="P56" s="20">
-        <v>79.2</v>
+      <c r="P56">
+        <v>11251</v>
+      </c>
+      <c r="Q56">
+        <v>543</v>
       </c>
       <c r="R56">
-        <v>423</v>
+        <v>122</v>
       </c>
       <c r="S56">
-        <v>4115</v>
+        <v>45</v>
       </c>
       <c r="T56">
-        <v>1530</v>
+        <v>198</v>
       </c>
       <c r="U56">
-        <v>4254</v>
+        <v>70</v>
       </c>
       <c r="V56">
-        <v>1750</v>
-      </c>
-      <c r="W56">
-        <v>1252</v>
-      </c>
-      <c r="X56">
-        <v>12139</v>
-      </c>
-      <c r="Y56">
-        <v>271</v>
-      </c>
-      <c r="Z56">
-        <v>11251</v>
-      </c>
-      <c r="AA56">
-        <v>543</v>
-      </c>
-      <c r="AB56">
-        <v>122</v>
-      </c>
-      <c r="AC56">
-        <v>45</v>
-      </c>
-      <c r="AD56">
-        <v>198</v>
-      </c>
-      <c r="AE56">
-        <v>70</v>
-      </c>
-      <c r="AF56">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -5154,56 +4300,29 @@
       <c r="O57">
         <v>266</v>
       </c>
-      <c r="P57" s="20">
-        <v>81.400000000000006</v>
+      <c r="P57">
+        <v>10575</v>
+      </c>
+      <c r="Q57">
+        <v>670</v>
       </c>
       <c r="R57">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="S57">
-        <v>4117</v>
+        <v>45</v>
       </c>
       <c r="T57">
-        <v>1533</v>
+        <v>216</v>
       </c>
       <c r="U57">
-        <v>4009</v>
+        <v>75</v>
       </c>
       <c r="V57">
-        <v>1639</v>
-      </c>
-      <c r="W57">
-        <v>1425</v>
-      </c>
-      <c r="X57">
-        <v>13619</v>
-      </c>
-      <c r="Y57">
-        <v>264</v>
-      </c>
-      <c r="Z57">
-        <v>10575</v>
-      </c>
-      <c r="AA57">
-        <v>670</v>
-      </c>
-      <c r="AB57">
-        <v>81</v>
-      </c>
-      <c r="AC57">
-        <v>45</v>
-      </c>
-      <c r="AD57">
-        <v>216</v>
-      </c>
-      <c r="AE57">
-        <v>75</v>
-      </c>
-      <c r="AF57">
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
@@ -5250,56 +4369,29 @@
       <c r="O58" s="14">
         <v>262</v>
       </c>
-      <c r="P58" s="24">
-        <v>79.7</v>
+      <c r="P58" s="14">
+        <v>9836</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>778</v>
       </c>
       <c r="R58" s="14">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="S58" s="14">
-        <v>3998</v>
+        <v>44</v>
       </c>
       <c r="T58" s="14">
-        <v>1523</v>
+        <v>233</v>
       </c>
       <c r="U58" s="14">
-        <v>3988</v>
+        <v>80</v>
       </c>
       <c r="V58" s="14">
-        <v>1629</v>
-      </c>
-      <c r="W58" s="14">
-        <v>1469</v>
-      </c>
-      <c r="X58" s="14">
-        <v>13566</v>
-      </c>
-      <c r="Y58" s="14">
-        <v>267</v>
-      </c>
-      <c r="Z58" s="14">
-        <v>9836</v>
-      </c>
-      <c r="AA58" s="14">
-        <v>778</v>
-      </c>
-      <c r="AB58" s="14">
-        <v>208</v>
-      </c>
-      <c r="AC58" s="14">
-        <v>44</v>
-      </c>
-      <c r="AD58" s="14">
-        <v>233</v>
-      </c>
-      <c r="AE58" s="14">
-        <v>80</v>
-      </c>
-      <c r="AF58" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
@@ -5346,56 +4438,29 @@
       <c r="O59" s="14">
         <v>254</v>
       </c>
-      <c r="P59" s="24">
-        <v>85.9</v>
+      <c r="P59" s="14">
+        <v>10545</v>
+      </c>
+      <c r="Q59" s="14">
+        <v>858</v>
       </c>
       <c r="R59" s="14">
-        <v>404</v>
+        <v>179</v>
       </c>
       <c r="S59" s="14">
-        <v>3985</v>
+        <v>43</v>
       </c>
       <c r="T59" s="14">
-        <v>1484</v>
+        <v>251</v>
       </c>
       <c r="U59" s="14">
-        <v>4095</v>
+        <v>85</v>
       </c>
       <c r="V59" s="14">
-        <v>1654</v>
-      </c>
-      <c r="W59" s="14">
-        <v>1269</v>
-      </c>
-      <c r="X59" s="14">
-        <v>13711</v>
-      </c>
-      <c r="Y59" s="14">
-        <v>279</v>
-      </c>
-      <c r="Z59" s="14">
-        <v>10545</v>
-      </c>
-      <c r="AA59" s="14">
-        <v>858</v>
-      </c>
-      <c r="AB59" s="14">
-        <v>179</v>
-      </c>
-      <c r="AC59" s="14">
-        <v>43</v>
-      </c>
-      <c r="AD59" s="14">
-        <v>251</v>
-      </c>
-      <c r="AE59" s="14">
-        <v>85</v>
-      </c>
-      <c r="AF59" s="14">
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
@@ -5442,56 +4507,29 @@
       <c r="O60" s="14">
         <v>252</v>
       </c>
-      <c r="P60" s="24">
-        <v>88.6</v>
+      <c r="P60" s="14">
+        <v>10008</v>
+      </c>
+      <c r="Q60" s="14">
+        <v>650</v>
       </c>
       <c r="R60" s="14">
-        <v>396</v>
+        <v>166</v>
       </c>
       <c r="S60" s="14">
-        <v>4068</v>
+        <v>42</v>
       </c>
       <c r="T60" s="14">
-        <v>1465</v>
+        <v>269</v>
       </c>
       <c r="U60" s="14">
-        <v>4018</v>
+        <v>91</v>
       </c>
       <c r="V60" s="14">
-        <v>1625</v>
-      </c>
-      <c r="W60" s="14">
-        <v>1072</v>
-      </c>
-      <c r="X60" s="14">
-        <v>13783</v>
-      </c>
-      <c r="Y60" s="14">
-        <v>279</v>
-      </c>
-      <c r="Z60" s="14">
-        <v>10008</v>
-      </c>
-      <c r="AA60" s="14">
-        <v>650</v>
-      </c>
-      <c r="AB60" s="14">
-        <v>166</v>
-      </c>
-      <c r="AC60" s="14">
-        <v>42</v>
-      </c>
-      <c r="AD60" s="14">
-        <v>269</v>
-      </c>
-      <c r="AE60" s="14">
-        <v>91</v>
-      </c>
-      <c r="AF60" s="14">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -5538,56 +4576,29 @@
       <c r="O61">
         <v>247</v>
       </c>
-      <c r="P61" s="20">
-        <v>86.6</v>
+      <c r="P61">
+        <v>9242</v>
+      </c>
+      <c r="Q61">
+        <v>632</v>
       </c>
       <c r="R61">
-        <v>385</v>
+        <v>140</v>
       </c>
       <c r="S61">
-        <v>3922</v>
+        <v>41</v>
       </c>
       <c r="T61">
-        <v>1398</v>
+        <v>286</v>
       </c>
       <c r="U61">
-        <v>3562</v>
+        <v>96</v>
       </c>
       <c r="V61">
-        <v>1440</v>
-      </c>
-      <c r="W61">
-        <v>850</v>
-      </c>
-      <c r="X61">
-        <v>13430</v>
-      </c>
-      <c r="Y61">
-        <v>266</v>
-      </c>
-      <c r="Z61">
-        <v>9242</v>
-      </c>
-      <c r="AA61">
-        <v>632</v>
-      </c>
-      <c r="AB61">
-        <v>140</v>
-      </c>
-      <c r="AC61">
-        <v>41</v>
-      </c>
-      <c r="AD61">
-        <v>286</v>
-      </c>
-      <c r="AE61">
-        <v>96</v>
-      </c>
-      <c r="AF61">
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -5634,56 +4645,29 @@
       <c r="O62">
         <v>257</v>
       </c>
-      <c r="P62" s="20">
-        <v>82.9</v>
+      <c r="P62">
+        <v>7715</v>
+      </c>
+      <c r="Q62">
+        <v>637</v>
       </c>
       <c r="R62">
-        <v>391</v>
+        <v>101</v>
       </c>
       <c r="S62">
-        <v>3957</v>
+        <v>40</v>
       </c>
       <c r="T62">
-        <v>1392</v>
+        <v>304</v>
       </c>
       <c r="U62">
-        <v>3256</v>
+        <v>101</v>
       </c>
       <c r="V62">
-        <v>1338</v>
-      </c>
-      <c r="W62">
-        <v>1096</v>
-      </c>
-      <c r="X62">
-        <v>13972</v>
-      </c>
-      <c r="Y62">
-        <v>266</v>
-      </c>
-      <c r="Z62">
-        <v>7715</v>
-      </c>
-      <c r="AA62">
-        <v>637</v>
-      </c>
-      <c r="AB62">
-        <v>101</v>
-      </c>
-      <c r="AC62">
-        <v>40</v>
-      </c>
-      <c r="AD62">
-        <v>304</v>
-      </c>
-      <c r="AE62">
-        <v>101</v>
-      </c>
-      <c r="AF62">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -5730,56 +4714,29 @@
       <c r="O63">
         <v>252</v>
       </c>
-      <c r="P63" s="20">
-        <v>87.8</v>
+      <c r="P63">
+        <v>9899</v>
+      </c>
+      <c r="Q63">
+        <v>926</v>
       </c>
       <c r="R63">
-        <v>385</v>
+        <v>106</v>
       </c>
       <c r="S63">
-        <v>3987</v>
+        <v>39</v>
       </c>
       <c r="T63">
-        <v>1399</v>
+        <v>322</v>
       </c>
       <c r="U63">
-        <v>3072</v>
+        <v>106</v>
       </c>
       <c r="V63">
-        <v>1261</v>
-      </c>
-      <c r="W63">
-        <v>1430</v>
-      </c>
-      <c r="X63">
-        <v>13999</v>
-      </c>
-      <c r="Y63">
-        <v>263</v>
-      </c>
-      <c r="Z63">
-        <v>9899</v>
-      </c>
-      <c r="AA63">
-        <v>926</v>
-      </c>
-      <c r="AB63">
-        <v>106</v>
-      </c>
-      <c r="AC63">
-        <v>39</v>
-      </c>
-      <c r="AD63">
-        <v>322</v>
-      </c>
-      <c r="AE63">
-        <v>106</v>
-      </c>
-      <c r="AF63">
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -5826,56 +4783,29 @@
       <c r="O64">
         <v>242</v>
       </c>
-      <c r="P64" s="20">
-        <v>88.1</v>
+      <c r="P64">
+        <v>8985</v>
+      </c>
+      <c r="Q64">
+        <v>819</v>
       </c>
       <c r="R64">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="S64">
-        <v>4097</v>
+        <v>38</v>
       </c>
       <c r="T64">
-        <v>1402</v>
+        <v>339</v>
       </c>
       <c r="U64">
-        <v>3219</v>
+        <v>111</v>
       </c>
       <c r="V64">
-        <v>1330</v>
-      </c>
-      <c r="W64">
-        <v>1348</v>
-      </c>
-      <c r="X64">
-        <v>13382</v>
-      </c>
-      <c r="Y64">
-        <v>263</v>
-      </c>
-      <c r="Z64">
-        <v>8985</v>
-      </c>
-      <c r="AA64">
-        <v>819</v>
-      </c>
-      <c r="AB64">
-        <v>299</v>
-      </c>
-      <c r="AC64">
-        <v>38</v>
-      </c>
-      <c r="AD64">
-        <v>339</v>
-      </c>
-      <c r="AE64">
-        <v>111</v>
-      </c>
-      <c r="AF64">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -5922,56 +4852,29 @@
       <c r="O65">
         <v>240</v>
       </c>
-      <c r="P65" s="20">
-        <v>90</v>
+      <c r="P65">
+        <v>7689</v>
+      </c>
+      <c r="Q65">
+        <v>737</v>
       </c>
       <c r="R65">
-        <v>375</v>
+        <v>145</v>
       </c>
       <c r="S65">
-        <v>4113</v>
+        <v>38</v>
       </c>
       <c r="T65">
-        <v>1357</v>
+        <v>357</v>
       </c>
       <c r="U65">
-        <v>3245</v>
+        <v>116</v>
       </c>
       <c r="V65">
-        <v>1333</v>
-      </c>
-      <c r="W65">
-        <v>1307</v>
-      </c>
-      <c r="X65">
-        <v>12747</v>
-      </c>
-      <c r="Y65">
-        <v>254</v>
-      </c>
-      <c r="Z65">
-        <v>7689</v>
-      </c>
-      <c r="AA65">
-        <v>737</v>
-      </c>
-      <c r="AB65">
-        <v>145</v>
-      </c>
-      <c r="AC65">
-        <v>38</v>
-      </c>
-      <c r="AD65">
-        <v>357</v>
-      </c>
-      <c r="AE65">
-        <v>116</v>
-      </c>
-      <c r="AF65">
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -6018,56 +4921,29 @@
       <c r="O66">
         <v>239</v>
       </c>
-      <c r="P66" s="20">
-        <v>84.4</v>
+      <c r="P66">
+        <v>9771</v>
+      </c>
+      <c r="Q66">
+        <v>901</v>
       </c>
       <c r="R66">
+        <v>121</v>
+      </c>
+      <c r="S66">
+        <v>37</v>
+      </c>
+      <c r="T66">
         <v>374</v>
       </c>
-      <c r="S66">
-        <v>4229</v>
-      </c>
-      <c r="T66">
-        <v>1417</v>
-      </c>
       <c r="U66">
-        <v>3478</v>
+        <v>121</v>
       </c>
       <c r="V66">
-        <v>1421</v>
-      </c>
-      <c r="W66">
-        <v>1269</v>
-      </c>
-      <c r="X66">
-        <v>13851</v>
-      </c>
-      <c r="Y66">
-        <v>264</v>
-      </c>
-      <c r="Z66">
-        <v>9771</v>
-      </c>
-      <c r="AA66">
-        <v>901</v>
-      </c>
-      <c r="AB66">
-        <v>121</v>
-      </c>
-      <c r="AC66">
-        <v>37</v>
-      </c>
-      <c r="AD66">
-        <v>374</v>
-      </c>
-      <c r="AE66">
-        <v>121</v>
-      </c>
-      <c r="AF66">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -6111,56 +4987,29 @@
       <c r="O67">
         <v>239</v>
       </c>
-      <c r="P67" s="20">
-        <v>84.1</v>
+      <c r="P67">
+        <v>6580</v>
+      </c>
+      <c r="Q67">
+        <v>871</v>
       </c>
       <c r="R67">
-        <v>375</v>
+        <v>126</v>
       </c>
       <c r="S67">
-        <v>4184</v>
+        <v>36</v>
       </c>
       <c r="T67">
-        <v>1419</v>
+        <v>392</v>
       </c>
       <c r="U67">
-        <v>3366</v>
+        <v>126</v>
       </c>
       <c r="V67">
-        <v>1386</v>
-      </c>
-      <c r="W67">
-        <v>1263</v>
-      </c>
-      <c r="X67">
-        <v>13910</v>
-      </c>
-      <c r="Y67">
-        <v>266</v>
-      </c>
-      <c r="Z67">
-        <v>6580</v>
-      </c>
-      <c r="AA67">
-        <v>871</v>
-      </c>
-      <c r="AB67">
-        <v>126</v>
-      </c>
-      <c r="AC67">
-        <v>36</v>
-      </c>
-      <c r="AD67">
-        <v>392</v>
-      </c>
-      <c r="AE67">
-        <v>126</v>
-      </c>
-      <c r="AF67">
         <v>616</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -6204,56 +5053,29 @@
       <c r="O68">
         <v>238</v>
       </c>
-      <c r="P68" s="20">
-        <v>97.2</v>
+      <c r="P68">
+        <v>7611</v>
+      </c>
+      <c r="Q68">
+        <v>952</v>
       </c>
       <c r="R68">
-        <v>377</v>
+        <v>281</v>
       </c>
       <c r="S68">
-        <v>4157</v>
+        <v>35</v>
       </c>
       <c r="T68">
-        <v>1394</v>
+        <v>410</v>
       </c>
       <c r="U68">
-        <v>3378</v>
+        <v>131</v>
       </c>
       <c r="V68">
-        <v>1382</v>
-      </c>
-      <c r="W68">
-        <v>1408</v>
-      </c>
-      <c r="X68">
-        <v>14461</v>
-      </c>
-      <c r="Y68">
-        <v>272</v>
-      </c>
-      <c r="Z68">
-        <v>7611</v>
-      </c>
-      <c r="AA68">
-        <v>952</v>
-      </c>
-      <c r="AB68">
-        <v>281</v>
-      </c>
-      <c r="AC68">
-        <v>35</v>
-      </c>
-      <c r="AD68">
-        <v>410</v>
-      </c>
-      <c r="AE68">
-        <v>131</v>
-      </c>
-      <c r="AF68">
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -6297,56 +5119,29 @@
       <c r="O69">
         <v>239</v>
       </c>
-      <c r="P69" s="20">
-        <v>97.5</v>
+      <c r="P69">
+        <v>6898</v>
+      </c>
+      <c r="Q69">
+        <v>1049</v>
       </c>
       <c r="R69">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="S69">
-        <v>4099</v>
+        <v>34</v>
       </c>
       <c r="T69">
-        <v>1385</v>
+        <v>427</v>
       </c>
       <c r="U69">
-        <v>3627</v>
+        <v>136</v>
       </c>
       <c r="V69">
-        <v>1485</v>
-      </c>
-      <c r="W69">
-        <v>1398</v>
-      </c>
-      <c r="X69">
-        <v>14486</v>
-      </c>
-      <c r="Y69">
-        <v>296</v>
-      </c>
-      <c r="Z69">
-        <v>6898</v>
-      </c>
-      <c r="AA69">
-        <v>1049</v>
-      </c>
-      <c r="AB69">
-        <v>401</v>
-      </c>
-      <c r="AC69">
-        <v>34</v>
-      </c>
-      <c r="AD69">
-        <v>427</v>
-      </c>
-      <c r="AE69">
-        <v>136</v>
-      </c>
-      <c r="AF69">
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -6390,56 +5185,29 @@
       <c r="O70">
         <v>235</v>
       </c>
-      <c r="P70" s="20">
-        <v>100.8</v>
+      <c r="P70">
+        <v>7990</v>
+      </c>
+      <c r="Q70">
+        <v>1011</v>
       </c>
       <c r="R70">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="S70">
-        <v>4094</v>
+        <v>33</v>
       </c>
       <c r="T70">
-        <v>1364</v>
+        <v>445</v>
       </c>
       <c r="U70">
-        <v>3789</v>
+        <v>141</v>
       </c>
       <c r="V70">
-        <v>1542</v>
-      </c>
-      <c r="W70">
-        <v>1381</v>
-      </c>
-      <c r="X70">
-        <v>14857</v>
-      </c>
-      <c r="Y70">
-        <v>304</v>
-      </c>
-      <c r="Z70">
-        <v>7990</v>
-      </c>
-      <c r="AA70">
-        <v>1011</v>
-      </c>
-      <c r="AB70">
-        <v>302</v>
-      </c>
-      <c r="AC70">
-        <v>33</v>
-      </c>
-      <c r="AD70">
-        <v>445</v>
-      </c>
-      <c r="AE70">
-        <v>141</v>
-      </c>
-      <c r="AF70">
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -6483,56 +5251,29 @@
       <c r="O71">
         <v>232</v>
       </c>
-      <c r="P71" s="20">
-        <v>99.1</v>
+      <c r="P71">
+        <v>7812</v>
+      </c>
+      <c r="Q71">
+        <v>776</v>
       </c>
       <c r="R71">
-        <v>372</v>
+        <v>188</v>
       </c>
       <c r="S71">
-        <v>4240</v>
+        <v>32</v>
       </c>
       <c r="T71">
-        <v>1401</v>
+        <v>462</v>
       </c>
       <c r="U71">
-        <v>4323</v>
+        <v>146</v>
       </c>
       <c r="V71">
-        <v>1752</v>
-      </c>
-      <c r="W71">
-        <v>1570</v>
-      </c>
-      <c r="X71">
-        <v>15408</v>
-      </c>
-      <c r="Y71">
-        <v>327</v>
-      </c>
-      <c r="Z71">
-        <v>7812</v>
-      </c>
-      <c r="AA71">
-        <v>776</v>
-      </c>
-      <c r="AB71">
-        <v>188</v>
-      </c>
-      <c r="AC71">
-        <v>32</v>
-      </c>
-      <c r="AD71">
-        <v>462</v>
-      </c>
-      <c r="AE71">
-        <v>146</v>
-      </c>
-      <c r="AF71">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -6576,56 +5317,29 @@
       <c r="O72">
         <v>222</v>
       </c>
-      <c r="P72" s="20">
-        <v>94.2</v>
+      <c r="P72">
+        <v>7450</v>
+      </c>
+      <c r="Q72">
+        <v>860</v>
       </c>
       <c r="R72">
-        <v>364</v>
+        <v>176</v>
       </c>
       <c r="S72">
-        <v>4449</v>
+        <v>31</v>
       </c>
       <c r="T72">
-        <v>1442</v>
+        <v>480</v>
       </c>
       <c r="U72">
-        <v>4723</v>
+        <v>152</v>
       </c>
       <c r="V72">
-        <v>1922</v>
-      </c>
-      <c r="W72">
-        <v>1368</v>
-      </c>
-      <c r="X72">
-        <v>15276</v>
-      </c>
-      <c r="Y72">
-        <v>336</v>
-      </c>
-      <c r="Z72">
-        <v>7450</v>
-      </c>
-      <c r="AA72">
-        <v>860</v>
-      </c>
-      <c r="AB72">
-        <v>176</v>
-      </c>
-      <c r="AC72">
-        <v>31</v>
-      </c>
-      <c r="AD72">
-        <v>480</v>
-      </c>
-      <c r="AE72">
-        <v>152</v>
-      </c>
-      <c r="AF72">
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -6669,56 +5383,29 @@
       <c r="O73">
         <v>218</v>
       </c>
-      <c r="P73" s="20">
-        <v>98.6</v>
+      <c r="P73">
+        <v>6704</v>
+      </c>
+      <c r="Q73">
+        <v>1292</v>
       </c>
       <c r="R73">
-        <v>357</v>
+        <v>172</v>
       </c>
       <c r="S73">
-        <v>4531</v>
+        <v>31</v>
       </c>
       <c r="T73">
-        <v>1451</v>
+        <v>498</v>
       </c>
       <c r="U73">
-        <v>4828</v>
+        <v>157</v>
       </c>
       <c r="V73">
-        <v>1970</v>
-      </c>
-      <c r="W73">
-        <v>1113</v>
-      </c>
-      <c r="X73">
-        <v>15336</v>
-      </c>
-      <c r="Y73">
-        <v>333</v>
-      </c>
-      <c r="Z73">
-        <v>6704</v>
-      </c>
-      <c r="AA73">
-        <v>1292</v>
-      </c>
-      <c r="AB73">
-        <v>172</v>
-      </c>
-      <c r="AC73">
-        <v>31</v>
-      </c>
-      <c r="AD73">
-        <v>498</v>
-      </c>
-      <c r="AE73">
-        <v>157</v>
-      </c>
-      <c r="AF73">
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -6762,56 +5449,29 @@
       <c r="O74">
         <v>212</v>
       </c>
-      <c r="P74" s="20">
-        <v>97.5</v>
+      <c r="P74">
+        <v>6350</v>
+      </c>
+      <c r="Q74">
+        <v>1210</v>
       </c>
       <c r="R74">
-        <v>350</v>
+        <v>169</v>
       </c>
       <c r="S74">
-        <v>4464</v>
+        <v>30</v>
       </c>
       <c r="T74">
-        <v>1441</v>
+        <v>515</v>
       </c>
       <c r="U74">
-        <v>4421</v>
+        <v>162</v>
       </c>
       <c r="V74">
-        <v>1822</v>
-      </c>
-      <c r="W74">
-        <v>1152</v>
-      </c>
-      <c r="X74">
-        <v>16097</v>
-      </c>
-      <c r="Y74">
-        <v>323</v>
-      </c>
-      <c r="Z74">
-        <v>6350</v>
-      </c>
-      <c r="AA74">
-        <v>1210</v>
-      </c>
-      <c r="AB74">
-        <v>169</v>
-      </c>
-      <c r="AC74">
-        <v>30</v>
-      </c>
-      <c r="AD74">
-        <v>515</v>
-      </c>
-      <c r="AE74">
-        <v>162</v>
-      </c>
-      <c r="AF74">
         <v>628</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -6855,56 +5515,29 @@
       <c r="O75">
         <v>211</v>
       </c>
-      <c r="P75" s="20">
-        <v>102</v>
+      <c r="P75">
+        <v>5988</v>
+      </c>
+      <c r="Q75">
+        <v>1867</v>
       </c>
       <c r="R75">
-        <v>355</v>
+        <v>190</v>
       </c>
       <c r="S75">
-        <v>4392</v>
+        <v>29</v>
       </c>
       <c r="T75">
-        <v>1447</v>
+        <v>533</v>
       </c>
       <c r="U75">
-        <v>4105</v>
+        <v>167</v>
       </c>
       <c r="V75">
-        <v>1686</v>
-      </c>
-      <c r="W75">
-        <v>1389</v>
-      </c>
-      <c r="X75">
-        <v>16181</v>
-      </c>
-      <c r="Y75">
-        <v>319</v>
-      </c>
-      <c r="Z75">
-        <v>5988</v>
-      </c>
-      <c r="AA75">
-        <v>1867</v>
-      </c>
-      <c r="AB75">
-        <v>190</v>
-      </c>
-      <c r="AC75">
-        <v>29</v>
-      </c>
-      <c r="AD75">
-        <v>533</v>
-      </c>
-      <c r="AE75">
-        <v>167</v>
-      </c>
-      <c r="AF75">
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -6948,56 +5581,29 @@
       <c r="O76">
         <v>208</v>
       </c>
-      <c r="P76" s="20">
-        <v>105.7</v>
+      <c r="P76">
+        <v>6899</v>
+      </c>
+      <c r="Q76">
+        <v>1345</v>
       </c>
       <c r="R76">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="S76">
-        <v>4358</v>
+        <v>28</v>
       </c>
       <c r="T76">
-        <v>1434</v>
+        <v>550</v>
       </c>
       <c r="U76">
-        <v>3913</v>
+        <v>172</v>
       </c>
       <c r="V76">
-        <v>1603</v>
-      </c>
-      <c r="W76">
-        <v>1338</v>
-      </c>
-      <c r="X76">
-        <v>16370</v>
-      </c>
-      <c r="Y76">
-        <v>305</v>
-      </c>
-      <c r="Z76">
-        <v>6899</v>
-      </c>
-      <c r="AA76">
-        <v>1345</v>
-      </c>
-      <c r="AB76">
-        <v>247</v>
-      </c>
-      <c r="AC76">
-        <v>28</v>
-      </c>
-      <c r="AD76">
-        <v>550</v>
-      </c>
-      <c r="AE76">
-        <v>172</v>
-      </c>
-      <c r="AF76">
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -7041,56 +5647,29 @@
       <c r="O77">
         <v>206</v>
       </c>
-      <c r="P77" s="20">
-        <v>105.2</v>
+      <c r="P77">
+        <v>5530</v>
+      </c>
+      <c r="Q77">
+        <v>1128</v>
       </c>
       <c r="R77">
-        <v>349</v>
+        <v>246</v>
       </c>
       <c r="S77">
-        <v>4408</v>
+        <v>27</v>
       </c>
       <c r="T77">
-        <v>1430</v>
+        <v>568</v>
       </c>
       <c r="U77">
-        <v>4081</v>
+        <v>177</v>
       </c>
       <c r="V77">
-        <v>1656</v>
-      </c>
-      <c r="W77">
-        <v>1405</v>
-      </c>
-      <c r="X77">
-        <v>17538</v>
-      </c>
-      <c r="Y77">
-        <v>306</v>
-      </c>
-      <c r="Z77">
-        <v>5530</v>
-      </c>
-      <c r="AA77">
-        <v>1128</v>
-      </c>
-      <c r="AB77">
-        <v>246</v>
-      </c>
-      <c r="AC77">
-        <v>27</v>
-      </c>
-      <c r="AD77">
-        <v>568</v>
-      </c>
-      <c r="AE77">
-        <v>177</v>
-      </c>
-      <c r="AF77">
         <v>638</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -7134,56 +5713,29 @@
       <c r="O78">
         <v>199</v>
       </c>
-      <c r="P78" s="20">
-        <v>111.7</v>
+      <c r="P78">
+        <v>5274</v>
+      </c>
+      <c r="Q78">
+        <v>1209</v>
       </c>
       <c r="R78">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="S78">
-        <v>4465</v>
+        <v>26</v>
       </c>
       <c r="T78">
-        <v>1435</v>
+        <v>586</v>
       </c>
       <c r="U78">
-        <v>4158</v>
+        <v>182</v>
       </c>
       <c r="V78">
-        <v>1703</v>
-      </c>
-      <c r="W78">
-        <v>1327</v>
-      </c>
-      <c r="X78">
-        <v>17777</v>
-      </c>
-      <c r="Y78">
-        <v>299</v>
-      </c>
-      <c r="Z78">
-        <v>5274</v>
-      </c>
-      <c r="AA78">
-        <v>1209</v>
-      </c>
-      <c r="AB78">
-        <v>233</v>
-      </c>
-      <c r="AC78">
-        <v>26</v>
-      </c>
-      <c r="AD78">
-        <v>586</v>
-      </c>
-      <c r="AE78">
-        <v>182</v>
-      </c>
-      <c r="AF78">
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -7227,56 +5779,29 @@
       <c r="O79">
         <v>195</v>
       </c>
-      <c r="P79" s="20">
-        <v>105.9</v>
+      <c r="P79">
+        <v>4968</v>
+      </c>
+      <c r="Q79">
+        <v>1180</v>
       </c>
       <c r="R79">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="S79">
-        <v>4487</v>
+        <v>25</v>
       </c>
       <c r="T79">
-        <v>1431</v>
+        <v>603</v>
       </c>
       <c r="U79">
-        <v>4288</v>
+        <v>187</v>
       </c>
       <c r="V79">
-        <v>1746</v>
-      </c>
-      <c r="W79">
-        <v>1254</v>
-      </c>
-      <c r="X79">
-        <v>17687</v>
-      </c>
-      <c r="Y79">
-        <v>296</v>
-      </c>
-      <c r="Z79">
-        <v>4968</v>
-      </c>
-      <c r="AA79">
-        <v>1180</v>
-      </c>
-      <c r="AB79">
-        <v>275</v>
-      </c>
-      <c r="AC79">
-        <v>25</v>
-      </c>
-      <c r="AD79">
-        <v>603</v>
-      </c>
-      <c r="AE79">
-        <v>187</v>
-      </c>
-      <c r="AF79">
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -7320,56 +5845,29 @@
       <c r="O80">
         <v>194</v>
       </c>
-      <c r="P80" s="20">
-        <v>102.2</v>
+      <c r="P80">
+        <v>5516</v>
+      </c>
+      <c r="Q80">
+        <v>999</v>
       </c>
       <c r="R80">
-        <v>335</v>
+        <v>197</v>
       </c>
       <c r="S80">
-        <v>4507</v>
+        <v>24</v>
       </c>
       <c r="T80">
-        <v>1444</v>
+        <v>621</v>
       </c>
       <c r="U80">
-        <v>4365</v>
+        <v>192</v>
       </c>
       <c r="V80">
-        <v>1785</v>
-      </c>
-      <c r="W80">
-        <v>1363</v>
-      </c>
-      <c r="X80">
-        <v>18234</v>
-      </c>
-      <c r="Y80">
-        <v>304</v>
-      </c>
-      <c r="Z80">
-        <v>5516</v>
-      </c>
-      <c r="AA80">
-        <v>999</v>
-      </c>
-      <c r="AB80">
-        <v>197</v>
-      </c>
-      <c r="AC80">
-        <v>24</v>
-      </c>
-      <c r="AD80">
-        <v>621</v>
-      </c>
-      <c r="AE80">
-        <v>192</v>
-      </c>
-      <c r="AF80">
         <v>645</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -7413,52 +5911,25 @@
       <c r="O81">
         <v>191</v>
       </c>
-      <c r="P81" s="20">
-        <v>100</v>
+      <c r="P81">
+        <v>5325</v>
+      </c>
+      <c r="Q81">
+        <v>1327</v>
       </c>
       <c r="R81">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="S81">
-        <v>4609</v>
+        <v>24</v>
       </c>
       <c r="T81">
-        <v>1458</v>
+        <v>639</v>
       </c>
       <c r="U81">
-        <v>4387</v>
+        <v>197</v>
       </c>
       <c r="V81">
-        <v>1798</v>
-      </c>
-      <c r="W81">
-        <v>1269</v>
-      </c>
-      <c r="X81">
-        <v>18547</v>
-      </c>
-      <c r="Y81">
-        <v>306</v>
-      </c>
-      <c r="Z81">
-        <v>5325</v>
-      </c>
-      <c r="AA81">
-        <v>1327</v>
-      </c>
-      <c r="AB81">
-        <v>284</v>
-      </c>
-      <c r="AC81">
-        <v>24</v>
-      </c>
-      <c r="AD81">
-        <v>639</v>
-      </c>
-      <c r="AE81">
-        <v>197</v>
-      </c>
-      <c r="AF81">
         <v>683</v>
       </c>
     </row>
@@ -7486,47 +5957,47 @@
   <sheetData>
     <row r="1" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="W1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C2" s="16">
         <v>0.27</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="W2">
         <v>6.2489999999999997</v>
       </c>
@@ -7558,13 +6029,13 @@
       <c r="C3" s="16">
         <v>0.34</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="W3">
         <v>5.8449999999999998</v>
       </c>
@@ -7595,13 +6066,13 @@
       <c r="C4" s="16">
         <v>0.21</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
       <c r="W4">
         <v>6.47</v>
       </c>
@@ -7632,13 +6103,13 @@
       <c r="C5" s="16">
         <v>0.48</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="W5">
         <v>7.8369999999999997</v>
       </c>
@@ -7669,13 +6140,13 @@
       <c r="C6" s="16">
         <v>0.33</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="W6">
         <v>7.7759999999999998</v>
       </c>
@@ -7706,13 +6177,13 @@
       <c r="C7" s="16">
         <v>0.48</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="W7">
         <v>7.9740000000000002</v>
       </c>
@@ -7743,13 +6214,13 @@
       <c r="C8" s="16">
         <v>0.53</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
       <c r="W8">
         <v>8.0009999999999994</v>
       </c>
@@ -7780,13 +6251,13 @@
       <c r="C9" s="16">
         <v>0.25</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="W9">
         <v>6.4669999999999996</v>
       </c>
@@ -7817,13 +6288,13 @@
       <c r="C10" s="16">
         <v>0.31</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="W10">
         <v>6.7380000000000004</v>
       </c>
@@ -7854,13 +6325,13 @@
       <c r="C11" s="16">
         <v>0.43</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="W11">
         <v>7.702</v>
       </c>
@@ -7891,13 +6362,13 @@
       <c r="C12" s="16">
         <v>0.44</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="W12">
         <v>7.3120000000000003</v>
       </c>
@@ -7928,13 +6399,13 @@
       <c r="C13" s="16">
         <v>0.24</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="W13">
         <v>5.4210000000000003</v>
       </c>
@@ -7965,13 +6436,13 @@
       <c r="C14" s="16">
         <v>0.2</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="W14">
         <v>5.1130000000000004</v>
       </c>
@@ -8002,13 +6473,13 @@
       <c r="C15" s="16">
         <v>0.4</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="W15">
         <v>5.7619999999999996</v>
       </c>
@@ -8039,13 +6510,13 @@
       <c r="C16" s="16">
         <v>0.22</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="W16">
         <v>6.4349999999999996</v>
       </c>
@@ -8076,13 +6547,13 @@
       <c r="C17" s="16">
         <v>0.34</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
       <c r="W17">
         <v>7.1760000000000002</v>
       </c>
@@ -8113,13 +6584,13 @@
       <c r="C18" s="16">
         <v>0.49</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="W18">
         <v>6.8049999999999997</v>
       </c>
@@ -8150,13 +6621,13 @@
       <c r="C19" s="16">
         <v>0.37</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="W19">
         <v>6.7510000000000003</v>
       </c>
@@ -8187,22 +6658,22 @@
       <c r="C20" s="16">
         <v>0.46</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="19">
         <v>471</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="19">
         <v>70.8</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="19">
         <f>F20/G20</f>
         <v>6.6525423728813564</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="19">
         <v>95</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19">
         <v>38</v>
       </c>
       <c r="W20">
@@ -8235,22 +6706,22 @@
       <c r="C21" s="16">
         <v>0.44</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="19">
         <v>318</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="19">
         <v>66.400000000000006</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="19">
         <f t="shared" ref="H21:H40" si="3">F21/G21</f>
         <v>4.7891566265060233</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="19">
         <v>51</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19">
         <v>21</v>
       </c>
       <c r="W21">
@@ -8283,22 +6754,22 @@
       <c r="C22" s="16">
         <v>0.4</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="19">
         <v>399</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="19">
         <v>64.400000000000006</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="19">
         <f t="shared" si="3"/>
         <v>6.195652173913043</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="19">
         <v>74</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25">
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19">
         <v>6</v>
       </c>
       <c r="W22">
@@ -8331,22 +6802,22 @@
       <c r="C23" s="16">
         <v>0.5</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="19">
         <v>368</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="19">
         <v>57.4</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="19">
         <f t="shared" si="3"/>
         <v>6.4111498257839719</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="19">
         <v>112</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19">
         <v>46</v>
       </c>
       <c r="W23">
@@ -8379,22 +6850,22 @@
       <c r="C24" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="19">
         <v>754</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="19">
         <v>50.2</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="19">
         <f t="shared" si="3"/>
         <v>15.019920318725099</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="19">
         <v>9</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25">
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19">
         <v>6</v>
       </c>
       <c r="W24">
@@ -8427,22 +6898,22 @@
       <c r="C25" s="16">
         <v>0.35</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="19">
         <v>802</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="19">
         <v>51.4</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="19">
         <f t="shared" si="3"/>
         <v>15.603112840466926</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="19">
         <v>39</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25">
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19">
         <v>13</v>
       </c>
       <c r="W25">
@@ -8475,22 +6946,22 @@
       <c r="C26" s="16">
         <v>0.39</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="19">
         <v>1420</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="19">
         <v>50.11</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="19">
         <f t="shared" si="3"/>
         <v>28.337657154260626</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="19">
         <v>47</v>
       </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25">
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19">
         <v>18</v>
       </c>
       <c r="W26">
@@ -8522,22 +6993,22 @@
       <c r="C27" s="16">
         <v>1.41</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="19">
         <v>717</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="19">
         <v>54.8</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="19">
         <f t="shared" si="3"/>
         <v>13.083941605839417</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="19">
         <v>85</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25">
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19">
         <v>43</v>
       </c>
       <c r="W27">
@@ -8569,22 +7040,22 @@
       <c r="C28" s="16">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="20">
         <v>355</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="20">
         <v>69.900000000000006</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="20">
         <f t="shared" si="3"/>
         <v>5.0786838340486407</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="20">
         <v>234</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26">
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20">
         <v>125</v>
       </c>
       <c r="W28" s="1">
@@ -8632,22 +7103,22 @@
       <c r="C29" s="16">
         <v>1.28</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="19">
         <v>556</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="19">
         <v>50.7</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="19">
         <f t="shared" si="3"/>
         <v>10.966469428007889</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="19">
         <v>49</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25">
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19">
         <v>9</v>
       </c>
       <c r="W29">
@@ -8695,22 +7166,22 @@
       <c r="C30" s="16">
         <v>0.94</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="19">
         <v>428</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="19">
         <v>44.2</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="19">
         <f t="shared" si="3"/>
         <v>9.6832579185520355</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="19">
         <v>65</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25">
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19">
         <v>42</v>
       </c>
       <c r="W30">
@@ -8758,22 +7229,22 @@
       <c r="C31" s="16">
         <v>0.96</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="19">
         <v>322</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="19">
         <v>40.299999999999997</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="19">
         <f t="shared" si="3"/>
         <v>7.9900744416873453</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="19">
         <v>150</v>
       </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25">
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19">
         <v>31</v>
       </c>
       <c r="W31" s="3">
@@ -8821,30 +7292,30 @@
       <c r="C32" s="16">
         <v>0.77</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="19">
         <v>173</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="19">
         <v>38.700000000000003</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="19">
         <f t="shared" si="3"/>
         <v>4.4702842377260978</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="19">
         <v>145</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="19">
         <v>24.9</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="19">
         <f>I32/J32</f>
         <v>5.8232931726907635</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="19">
         <v>12</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M32" s="19">
         <v>18.7</v>
       </c>
       <c r="N32">
@@ -8896,30 +7367,30 @@
       <c r="C33" s="16">
         <v>0.87</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="19">
         <v>102</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="19">
         <v>40.1</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="19">
         <f t="shared" si="3"/>
         <v>2.5436408977556111</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="19">
         <v>62</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="19">
         <v>28.7</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="19">
         <f t="shared" ref="K33:K40" si="8">I33/J33</f>
         <v>2.1602787456445993</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="19">
         <v>14</v>
       </c>
-      <c r="M33" s="25">
+      <c r="M33" s="19">
         <v>19.100000000000001</v>
       </c>
       <c r="N33">
@@ -8971,30 +7442,30 @@
       <c r="C34" s="16">
         <v>0.87</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="19">
         <v>135</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="19">
         <v>53.3</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="19">
         <f t="shared" si="3"/>
         <v>2.5328330206378986</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="19">
         <v>50</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="19">
         <v>33.299999999999997</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="19">
         <f t="shared" si="8"/>
         <v>1.5015015015015016</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="19">
         <v>29</v>
       </c>
-      <c r="M34" s="25">
+      <c r="M34" s="19">
         <v>21</v>
       </c>
       <c r="N34">
@@ -9046,30 +7517,30 @@
       <c r="C35" s="16">
         <v>1.17</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="19">
         <v>252</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="19">
         <v>72.5</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="19">
         <f t="shared" si="3"/>
         <v>3.4758620689655171</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="19">
         <v>75</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="19">
         <v>36</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="19">
         <f t="shared" si="8"/>
         <v>2.0833333333333335</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="19">
         <v>26</v>
       </c>
-      <c r="M35" s="25">
+      <c r="M35" s="19">
         <v>27.11</v>
       </c>
       <c r="N35">
@@ -9121,30 +7592,30 @@
       <c r="C36" s="16">
         <v>0.84</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="19">
         <v>312</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="19">
         <v>74.900000000000006</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="19">
         <f t="shared" si="3"/>
         <v>4.1655540720961275</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="19">
         <v>289</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="19">
         <v>34.9</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="19">
         <f t="shared" si="8"/>
         <v>8.2808022922636102</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="19">
         <v>15</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="19">
         <v>27.6</v>
       </c>
       <c r="N36">
@@ -9196,30 +7667,30 @@
       <c r="C37" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="19">
         <v>359</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="19">
         <v>69.2</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="19">
         <f t="shared" si="3"/>
         <v>5.1878612716763</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="19">
         <v>246</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="19">
         <v>41.2</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K37" s="19">
         <f t="shared" si="8"/>
         <v>5.9708737864077666</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="19">
         <v>9</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="19">
         <v>25.3</v>
       </c>
       <c r="N37">
@@ -9271,30 +7742,30 @@
       <c r="C38" s="16">
         <v>0.99</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="19">
         <v>334</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="19">
         <v>56.5</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="19">
         <f t="shared" si="3"/>
         <v>5.9115044247787614</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="19">
         <v>178</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="19">
         <v>42.2</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="19">
         <f t="shared" si="8"/>
         <v>4.2180094786729851</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="19">
         <v>14</v>
       </c>
-      <c r="M38" s="25">
+      <c r="M38" s="19">
         <v>25</v>
       </c>
       <c r="N38">
@@ -9346,30 +7817,30 @@
       <c r="C39" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="19">
         <v>298</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="19">
         <v>44.3</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="19">
         <f t="shared" si="3"/>
         <v>6.7268623024830703</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="19">
         <v>110</v>
       </c>
-      <c r="J39" s="25">
+      <c r="J39" s="19">
         <v>34.9</v>
       </c>
-      <c r="K39" s="25">
+      <c r="K39" s="19">
         <f t="shared" si="8"/>
         <v>3.151862464183381</v>
       </c>
-      <c r="L39" s="25">
+      <c r="L39" s="19">
         <v>19</v>
       </c>
-      <c r="M39" s="25">
+      <c r="M39" s="19">
         <v>24.7</v>
       </c>
       <c r="N39">
@@ -9421,30 +7892,30 @@
       <c r="C40" s="16">
         <v>0.69</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="19">
         <v>320</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="19">
         <v>43.1</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="19">
         <f t="shared" si="3"/>
         <v>7.4245939675174011</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="19">
         <v>42</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J40" s="19">
         <v>33.6</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="19">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="19">
         <v>25</v>
       </c>
-      <c r="M40" s="25">
+      <c r="M40" s="19">
         <v>23.3</v>
       </c>
       <c r="N40">
@@ -9496,23 +7967,23 @@
       <c r="C41" s="16">
         <v>1.03</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="19">
         <v>161</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25">
+      <c r="G41" s="19"/>
+      <c r="H41" s="19">
         <f>AVERAGE(H33:H40)</f>
         <v>4.7460890032388363</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="19">
         <v>61</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25">
+      <c r="J41" s="19"/>
+      <c r="K41" s="19">
         <f>AVERAGE(K32:K40)</f>
         <v>3.8266616416331041</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L41" s="19">
         <v>8</v>
       </c>
       <c r="N41">
@@ -9564,17 +8035,17 @@
       <c r="C42" s="16">
         <v>0.88</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="19">
         <v>236</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25">
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19">
         <v>128</v>
       </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25">
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19">
         <v>6</v>
       </c>
       <c r="W42">
@@ -9622,17 +8093,17 @@
       <c r="C43" s="16">
         <v>0.7</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="19">
         <v>150</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25">
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19">
         <v>181</v>
       </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25">
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19">
         <v>232</v>
       </c>
       <c r="W43">
@@ -9680,24 +8151,24 @@
       <c r="C44" s="16">
         <v>0.49</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="19">
         <v>161</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25">
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19">
         <v>62</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25">
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19">
         <v>39</v>
       </c>
       <c r="Q44" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="T44" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="W44">
         <v>7.7290000000000001</v>
@@ -9751,17 +8222,17 @@
         <f>7*D45/100</f>
         <v>6.16</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="19">
         <v>63</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25">
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19">
         <v>66</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25">
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19">
         <v>12</v>
       </c>
       <c r="N45">
@@ -9837,17 +8308,17 @@
         <f t="shared" ref="E46:E100" si="10">7*D46/100</f>
         <v>22.61</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="19">
         <v>62</v>
       </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25">
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19">
         <v>76</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25">
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19">
         <v>25</v>
       </c>
       <c r="N46">
@@ -9923,17 +8394,17 @@
         <f t="shared" si="10"/>
         <v>17.78</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="19">
         <v>59</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19">
         <v>31</v>
       </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25">
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19">
         <v>36</v>
       </c>
       <c r="N47">
@@ -10009,17 +8480,17 @@
         <f t="shared" si="10"/>
         <v>20.440000000000001</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="19">
         <v>52</v>
       </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25">
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19">
         <v>57</v>
       </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25">
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19">
         <v>30</v>
       </c>
       <c r="N48">
@@ -10095,17 +8566,17 @@
         <f t="shared" si="10"/>
         <v>15.05</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="19">
         <v>52</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25">
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19">
         <v>75</v>
       </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25">
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19">
         <v>35</v>
       </c>
       <c r="N49">
@@ -10181,17 +8652,17 @@
         <f t="shared" si="10"/>
         <v>15.33</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="19">
         <v>51</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25">
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19">
         <v>93</v>
       </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25">
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19">
         <v>40</v>
       </c>
       <c r="N50">
@@ -10267,17 +8738,17 @@
         <f t="shared" si="10"/>
         <v>12.25</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="19">
         <v>50</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25">
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19">
         <v>110</v>
       </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25">
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19">
         <v>45</v>
       </c>
       <c r="N51">
@@ -10353,17 +8824,17 @@
         <f t="shared" si="10"/>
         <v>13.93</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="19">
         <v>49</v>
       </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25">
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19">
         <v>128</v>
       </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25">
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19">
         <v>50</v>
       </c>
       <c r="N52">
@@ -10439,17 +8910,17 @@
         <f t="shared" si="10"/>
         <v>15.61</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="19">
         <v>48</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25">
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19">
         <v>145</v>
       </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25">
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19">
         <v>55</v>
       </c>
       <c r="N53">
@@ -10525,17 +8996,17 @@
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="19">
         <v>47</v>
       </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25">
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19">
         <v>163</v>
       </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25">
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19">
         <v>60</v>
       </c>
       <c r="N54">
@@ -10611,17 +9082,17 @@
         <f t="shared" si="10"/>
         <v>15.05</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F55" s="19">
         <v>46</v>
       </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25">
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19">
         <v>181</v>
       </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25">
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19">
         <v>65</v>
       </c>
       <c r="N55">
@@ -10697,17 +9168,17 @@
         <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="19">
         <v>45</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25">
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19">
         <v>198</v>
       </c>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25">
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19">
         <v>70</v>
       </c>
       <c r="N56">
@@ -10783,17 +9254,17 @@
         <f t="shared" si="10"/>
         <v>17.78</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F57" s="19">
         <v>45</v>
       </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25">
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19">
         <v>216</v>
       </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25">
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19">
         <v>75</v>
       </c>
       <c r="N57">
@@ -10869,17 +9340,17 @@
         <f t="shared" si="10"/>
         <v>10.220000000000001</v>
       </c>
-      <c r="F58" s="27">
+      <c r="F58" s="21">
         <v>44</v>
       </c>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27">
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21">
         <v>233</v>
       </c>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27">
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21">
         <v>80</v>
       </c>
       <c r="N58">
@@ -10955,17 +9426,17 @@
         <f t="shared" si="10"/>
         <v>12.39</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F59" s="21">
         <v>43</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27">
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21">
         <v>251</v>
       </c>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27">
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21">
         <v>85</v>
       </c>
       <c r="N59">
@@ -11041,17 +9512,17 @@
         <f t="shared" si="10"/>
         <v>18.55</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F60" s="21">
         <v>42</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27">
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21">
         <v>269</v>
       </c>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27">
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21">
         <v>91</v>
       </c>
       <c r="N60">
@@ -11127,17 +9598,17 @@
         <f t="shared" si="10"/>
         <v>15.89</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="19">
         <v>41</v>
       </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25">
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19">
         <v>286</v>
       </c>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25">
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19">
         <v>96</v>
       </c>
       <c r="N61">
@@ -11213,17 +9684,17 @@
         <f t="shared" si="10"/>
         <v>12.67</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="19">
         <v>40</v>
       </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25">
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19">
         <v>304</v>
       </c>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25">
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19">
         <v>101</v>
       </c>
       <c r="N62">
@@ -11299,17 +9770,17 @@
         <f t="shared" si="10"/>
         <v>8.89</v>
       </c>
-      <c r="F63" s="25">
+      <c r="F63" s="19">
         <v>39</v>
       </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25">
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19">
         <v>322</v>
       </c>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25">
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19">
         <v>106</v>
       </c>
       <c r="N63">
@@ -11385,17 +9856,17 @@
         <f t="shared" si="10"/>
         <v>9.17</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F64" s="19">
         <v>38</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25">
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19">
         <v>339</v>
       </c>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25">
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19">
         <v>111</v>
       </c>
       <c r="N64">
@@ -11471,17 +9942,17 @@
         <f t="shared" si="10"/>
         <v>10.220000000000001</v>
       </c>
-      <c r="F65" s="25">
+      <c r="F65" s="19">
         <v>38</v>
       </c>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25">
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19">
         <v>357</v>
       </c>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25">
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19">
         <v>116</v>
       </c>
       <c r="N65">
@@ -11557,17 +10028,17 @@
         <f t="shared" si="10"/>
         <v>12.11</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F66" s="19">
         <v>37</v>
       </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25">
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19">
         <v>374</v>
       </c>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25">
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19">
         <v>121</v>
       </c>
       <c r="N66">
@@ -11643,17 +10114,17 @@
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F67" s="19">
         <v>36</v>
       </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25">
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19">
         <v>392</v>
       </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25">
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19">
         <v>126</v>
       </c>
       <c r="N67">
@@ -11729,17 +10200,17 @@
         <f t="shared" si="10"/>
         <v>12.39</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F68" s="19">
         <v>35</v>
       </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25">
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19">
         <v>410</v>
       </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25">
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19">
         <v>131</v>
       </c>
       <c r="N68">
@@ -11815,17 +10286,17 @@
         <f t="shared" si="10"/>
         <v>10.78</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F69" s="19">
         <v>34</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25">
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19">
         <v>427</v>
       </c>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25">
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19">
         <v>136</v>
       </c>
       <c r="N69">
@@ -11901,17 +10372,17 @@
         <f t="shared" si="10"/>
         <v>12.95</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F70" s="19">
         <v>33</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25">
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19">
         <v>445</v>
       </c>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25">
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19">
         <v>141</v>
       </c>
       <c r="N70">
@@ -11987,17 +10458,17 @@
         <f t="shared" si="10"/>
         <v>13.72</v>
       </c>
-      <c r="F71" s="25">
+      <c r="F71" s="19">
         <v>32</v>
       </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25">
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19">
         <v>462</v>
       </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25">
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19">
         <v>146</v>
       </c>
       <c r="N71">
@@ -12073,17 +10544,17 @@
         <f t="shared" si="10"/>
         <v>21.84</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F72" s="19">
         <v>31</v>
       </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25">
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19">
         <v>480</v>
       </c>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25">
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19">
         <v>152</v>
       </c>
       <c r="N72">
@@ -12159,17 +10630,17 @@
         <f t="shared" si="10"/>
         <v>15.61</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F73" s="19">
         <v>31</v>
       </c>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25">
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19">
         <v>498</v>
       </c>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25">
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19">
         <v>157</v>
       </c>
       <c r="N73">
@@ -12245,17 +10716,17 @@
         <f t="shared" si="10"/>
         <v>9.94</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F74" s="19">
         <v>30</v>
       </c>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25">
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19">
         <v>515</v>
       </c>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25">
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19">
         <v>162</v>
       </c>
       <c r="N74">
@@ -12331,17 +10802,17 @@
         <f t="shared" si="10"/>
         <v>11.34</v>
       </c>
-      <c r="F75" s="25">
+      <c r="F75" s="19">
         <v>29</v>
       </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25">
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19">
         <v>533</v>
       </c>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25">
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19">
         <v>167</v>
       </c>
       <c r="N75">
@@ -12417,17 +10888,17 @@
         <f t="shared" si="10"/>
         <v>11.41</v>
       </c>
-      <c r="F76" s="25">
+      <c r="F76" s="19">
         <v>28</v>
       </c>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25">
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19">
         <v>550</v>
       </c>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25">
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19">
         <v>172</v>
       </c>
       <c r="N76">
@@ -12503,17 +10974,17 @@
         <f t="shared" si="10"/>
         <v>19.39</v>
       </c>
-      <c r="F77" s="25">
+      <c r="F77" s="19">
         <v>27</v>
       </c>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25">
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19">
         <v>568</v>
       </c>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25">
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19">
         <v>177</v>
       </c>
       <c r="N77">
@@ -12589,17 +11060,17 @@
         <f t="shared" si="10"/>
         <v>14.56</v>
       </c>
-      <c r="F78" s="25">
+      <c r="F78" s="19">
         <v>26</v>
       </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25">
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19">
         <v>586</v>
       </c>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25">
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19">
         <v>182</v>
       </c>
       <c r="N78">
@@ -12675,17 +11146,17 @@
         <f t="shared" si="10"/>
         <v>19.95</v>
       </c>
-      <c r="F79" s="25">
+      <c r="F79" s="19">
         <v>25</v>
       </c>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25">
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19">
         <v>603</v>
       </c>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25">
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19">
         <v>187</v>
       </c>
       <c r="N79">
@@ -12761,17 +11232,17 @@
         <f t="shared" si="10"/>
         <v>9.94</v>
       </c>
-      <c r="F80" s="25">
+      <c r="F80" s="19">
         <v>24</v>
       </c>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25">
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19">
         <v>621</v>
       </c>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25">
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19">
         <v>192</v>
       </c>
       <c r="N80">
@@ -12847,17 +11318,17 @@
         <f t="shared" si="10"/>
         <v>7.56</v>
       </c>
-      <c r="F81" s="25">
+      <c r="F81" s="19">
         <v>24</v>
       </c>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25">
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19">
         <v>639</v>
       </c>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25">
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19">
         <v>197</v>
       </c>
       <c r="N81">
@@ -13519,10 +11990,350 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7AA9DE-4E1F-6145-BFE8-2A08B93E9AEC}">
+  <dimension ref="B3:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C4:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="19">
+        <v>1821</v>
+      </c>
+      <c r="C4" s="19">
+        <v>13.39</v>
+      </c>
+      <c r="D4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="19">
+        <v>1822</v>
+      </c>
+      <c r="C5" s="19">
+        <v>13.28</v>
+      </c>
+      <c r="D5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="19">
+        <v>1823</v>
+      </c>
+      <c r="C6" s="19">
+        <v>13.63</v>
+      </c>
+      <c r="D6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="19">
+        <v>1824</v>
+      </c>
+      <c r="C7" s="19">
+        <v>13.87</v>
+      </c>
+      <c r="D7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="19">
+        <v>1825</v>
+      </c>
+      <c r="C8" s="19">
+        <v>12.32</v>
+      </c>
+      <c r="D8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="19">
+        <v>1826</v>
+      </c>
+      <c r="C9" s="19">
+        <v>15.02</v>
+      </c>
+      <c r="D9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="19">
+        <v>1827</v>
+      </c>
+      <c r="C10" s="19">
+        <v>14.89</v>
+      </c>
+      <c r="D10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="19">
+        <v>1828</v>
+      </c>
+      <c r="C11" s="19">
+        <v>15.13</v>
+      </c>
+      <c r="D11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="19">
+        <v>1829</v>
+      </c>
+      <c r="C12" s="19">
+        <v>15.29</v>
+      </c>
+      <c r="D12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="19">
+        <v>1830</v>
+      </c>
+      <c r="C13" s="19">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="19">
+        <v>1831</v>
+      </c>
+      <c r="C14" s="19">
+        <v>15.82</v>
+      </c>
+      <c r="D14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="19">
+        <v>1832</v>
+      </c>
+      <c r="C15" s="19">
+        <v>15.64</v>
+      </c>
+      <c r="D15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="19">
+        <v>1833</v>
+      </c>
+      <c r="C16" s="19">
+        <v>15.46</v>
+      </c>
+      <c r="D16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
+        <v>1834</v>
+      </c>
+      <c r="C17">
+        <v>15.29</v>
+      </c>
+      <c r="D17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="19">
+        <v>1835</v>
+      </c>
+      <c r="C18" s="19">
+        <v>15.11</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="19">
+        <v>1836</v>
+      </c>
+      <c r="C19" s="19">
+        <v>14.93</v>
+      </c>
+      <c r="D19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="19">
+        <v>1837</v>
+      </c>
+      <c r="C20" s="19">
+        <v>14.75</v>
+      </c>
+      <c r="D20">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="19">
+        <v>1838</v>
+      </c>
+      <c r="C21" s="19">
+        <v>14.57</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="19">
+        <v>1839</v>
+      </c>
+      <c r="C22" s="19">
+        <v>14.39</v>
+      </c>
+      <c r="D22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="19">
+        <v>1840</v>
+      </c>
+      <c r="C23" s="19">
+        <v>14.21</v>
+      </c>
+      <c r="D23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="19">
+        <v>1841</v>
+      </c>
+      <c r="C24" s="19">
+        <v>14.04</v>
+      </c>
+      <c r="D24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="19">
+        <v>1842</v>
+      </c>
+      <c r="C25" s="19">
+        <v>13.86</v>
+      </c>
+      <c r="D25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="19">
+        <v>1843</v>
+      </c>
+      <c r="C26" s="19">
+        <v>13.68</v>
+      </c>
+      <c r="D26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="19">
+        <v>1844</v>
+      </c>
+      <c r="C27" s="19">
+        <v>13.5</v>
+      </c>
+      <c r="D27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="19">
+        <v>1845</v>
+      </c>
+      <c r="C28" s="19">
+        <v>13.32</v>
+      </c>
+      <c r="D28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="19">
+        <v>1846</v>
+      </c>
+      <c r="C29" s="19">
+        <v>13.14</v>
+      </c>
+      <c r="D29">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="20">
+        <v>1847</v>
+      </c>
+      <c r="C30" s="19">
+        <v>12.96</v>
+      </c>
+      <c r="D30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="19">
+        <v>1848</v>
+      </c>
+      <c r="C31" s="19">
+        <v>12.79</v>
+      </c>
+      <c r="D31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="19">
+        <v>1849</v>
+      </c>
+      <c r="C32" s="19">
+        <v>12.61</v>
+      </c>
+      <c r="D32">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7E97EE-48EF-AA45-8A22-7F369BB74D6D}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -13538,10 +12349,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7884DB6C-C37A-F043-8374-4E40B46E5956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DFD9C7-5C88-6642-89D4-2E3E8A76431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="17080" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -119,6 +119,24 @@
   </si>
   <si>
     <t>wheat_imports</t>
+  </si>
+  <si>
+    <t>other_grain_price</t>
+  </si>
+  <si>
+    <t>popindex</t>
+  </si>
+  <si>
+    <t>grain_price_total</t>
+  </si>
+  <si>
+    <t>grain_wage</t>
+  </si>
+  <si>
+    <t>popgap</t>
+  </si>
+  <si>
+    <t>total_acre</t>
   </si>
 </sst>
 </file>
@@ -572,34 +590,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="topRight" activeCell="T2" sqref="T2:T81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="12.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" customWidth="1"/>
-    <col min="14" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.5" customWidth="1"/>
+    <col min="2" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="2" customWidth="1"/>
+    <col min="12" max="15" width="12.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" customWidth="1"/>
+    <col min="18" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" customWidth="1"/>
+    <col min="24" max="24" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -607,67 +625,82 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -675,54 +708,72 @@
         <v>6802</v>
       </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1.35</v>
+      </c>
+      <c r="E2">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>18</v>
       </c>
-      <c r="E2" s="19">
+      <c r="G2" s="19">
         <v>13.39</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>6.2489999999999997</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <f>23.67/4.85</f>
         <v>4.880412371134021</v>
       </c>
-      <c r="I2" s="17">
+      <c r="K2" s="17">
         <v>1.6</v>
       </c>
-      <c r="J2" s="10">
+      <c r="L2" s="10">
         <v>1.23</v>
       </c>
-      <c r="K2" s="2">
-        <f>H2/D2</f>
-        <v>0.27113402061855674</v>
-      </c>
-      <c r="L2" s="11">
+      <c r="M2" s="10">
+        <f>I2+J2+K2+L2</f>
+        <v>13.95941237113402</v>
+      </c>
+      <c r="N2" s="10">
+        <f>I2+K2+L2</f>
+        <v>9.0790000000000006</v>
+      </c>
+      <c r="O2" s="10">
+        <f>M2/F2</f>
+        <v>0.77552290950744551</v>
+      </c>
+      <c r="P2" s="11">
         <v>156</v>
       </c>
-      <c r="M2" s="11">
+      <c r="Q2" s="11">
         <v>402</v>
       </c>
-      <c r="N2" s="11">
+      <c r="R2" s="11">
         <v>60</v>
       </c>
-      <c r="O2" s="11">
+      <c r="S2" s="11">
         <v>296.87219999999996</v>
       </c>
-      <c r="S2">
+      <c r="T2" s="11">
+        <f>P2+Q2+R2+S2</f>
+        <v>914.87220000000002</v>
+      </c>
+      <c r="X2">
         <v>249</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -730,53 +781,73 @@
         <v>6893</v>
       </c>
       <c r="C3">
+        <f>B3/68.02</f>
+        <v>101.337841811232</v>
+      </c>
+      <c r="D3">
+        <f>C3-C2</f>
+        <v>1.3378418112319963</v>
+      </c>
+      <c r="E3">
         <v>26</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="E3" s="19">
+      <c r="G3" s="19">
         <v>13.28</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>5.8449999999999998</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>6.8</v>
       </c>
-      <c r="I3" s="17">
+      <c r="K3" s="17">
         <v>1.25</v>
       </c>
-      <c r="J3" s="10">
+      <c r="L3" s="10">
         <v>1.29</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="0">H3/D3</f>
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M66" si="0">I3+J3+K3+L3</f>
+        <v>15.184999999999999</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N66" si="1">I3+K3+L3</f>
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O66" si="2">M3/F3</f>
+        <v>0.75924999999999998</v>
+      </c>
+      <c r="P3" s="11">
         <v>165</v>
       </c>
-      <c r="M3" s="11">
+      <c r="Q3" s="11">
         <v>376</v>
       </c>
-      <c r="N3" s="11">
+      <c r="R3" s="11">
         <v>63</v>
       </c>
-      <c r="O3" s="11">
+      <c r="S3" s="11">
         <v>255.52860000000001</v>
       </c>
-      <c r="S3">
+      <c r="T3" s="11">
+        <f t="shared" ref="T3:T66" si="3">P3+Q3+R3+S3</f>
+        <v>859.52859999999998</v>
+      </c>
+      <c r="X3">
         <v>146</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -784,53 +855,73 @@
         <v>6985</v>
       </c>
       <c r="C4">
+        <f t="shared" ref="C4:C67" si="4">B4/68.02</f>
+        <v>102.69038518082917</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="5">C4-C3</f>
+        <v>1.3525433695971714</v>
+      </c>
+      <c r="E4">
         <v>26</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>18</v>
       </c>
-      <c r="E4" s="19">
+      <c r="G4" s="19">
         <v>13.63</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>6.47</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>3.85</v>
       </c>
-      <c r="I4" s="17">
+      <c r="K4" s="17">
         <v>1.57</v>
       </c>
-      <c r="J4" s="10">
+      <c r="L4" s="10">
         <v>1.38</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="10">
         <f t="shared" si="0"/>
-        <v>0.21388888888888891</v>
-      </c>
-      <c r="L4" s="11">
+        <v>13.27</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="1"/>
+        <v>9.4199999999999982</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="2"/>
+        <v>0.73722222222222222</v>
+      </c>
+      <c r="P4" s="11">
         <v>149</v>
       </c>
-      <c r="M4" s="11">
+      <c r="Q4" s="11">
         <v>416</v>
       </c>
-      <c r="N4" s="11">
+      <c r="R4" s="11">
         <v>68</v>
       </c>
-      <c r="O4" s="11">
+      <c r="S4" s="11">
         <v>272.50619999999998</v>
       </c>
-      <c r="S4">
+      <c r="T4" s="11">
+        <f t="shared" si="3"/>
+        <v>905.50620000000004</v>
+      </c>
+      <c r="X4">
         <v>218</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -838,53 +929,73 @@
         <v>7078</v>
       </c>
       <c r="C5">
+        <f t="shared" si="4"/>
+        <v>104.05763010879154</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="5"/>
+        <v>1.3672449279623748</v>
+      </c>
+      <c r="E5">
         <v>26</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="E5" s="19">
+      <c r="G5" s="19">
         <v>13.87</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>7.8369999999999997</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>7.7</v>
       </c>
-      <c r="I5" s="17">
+      <c r="K5" s="17">
         <v>1.62</v>
       </c>
-      <c r="J5" s="10">
+      <c r="L5" s="10">
         <v>1.24</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>0.48125000000000001</v>
-      </c>
-      <c r="L5" s="11">
+        <v>18.396999999999998</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="1"/>
+        <v>10.697000000000001</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1498124999999999</v>
+      </c>
+      <c r="P5" s="11">
         <v>171</v>
       </c>
-      <c r="M5" s="11">
+      <c r="Q5" s="11">
         <v>504</v>
       </c>
-      <c r="N5" s="11">
+      <c r="R5" s="11">
         <v>61</v>
       </c>
-      <c r="O5" s="11">
+      <c r="S5" s="11">
         <v>275.09999999999997</v>
       </c>
-      <c r="S5">
+      <c r="T5" s="11">
+        <f t="shared" si="3"/>
+        <v>1011.0999999999999</v>
+      </c>
+      <c r="X5">
         <v>222</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -892,53 +1003,73 @@
         <v>7173</v>
       </c>
       <c r="C6">
+        <f t="shared" si="4"/>
+        <v>105.45427815348428</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>1.3966480446927392</v>
+      </c>
+      <c r="E6">
         <v>26</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>16</v>
       </c>
-      <c r="E6" s="19">
+      <c r="G6" s="19">
         <v>12.32</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>7.7759999999999998</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>5.3</v>
       </c>
-      <c r="I6" s="17">
+      <c r="K6" s="17">
         <v>1.69</v>
       </c>
-      <c r="J6" s="10">
+      <c r="L6" s="10">
         <v>1.21</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="10">
         <f t="shared" si="0"/>
-        <v>0.33124999999999999</v>
-      </c>
-      <c r="L6" s="11">
+        <v>15.975999999999999</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="1"/>
+        <v>10.675999999999998</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="2"/>
+        <v>0.99849999999999994</v>
+      </c>
+      <c r="P6" s="11">
         <v>154</v>
       </c>
-      <c r="M6" s="11">
+      <c r="Q6" s="11">
         <v>500</v>
       </c>
-      <c r="N6" s="11">
+      <c r="R6" s="11">
         <v>59</v>
       </c>
-      <c r="O6" s="11">
+      <c r="S6" s="11">
         <v>247.59</v>
       </c>
-      <c r="S6">
+      <c r="T6" s="11">
+        <f t="shared" si="3"/>
+        <v>960.59</v>
+      </c>
+      <c r="X6">
         <v>301</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -946,53 +1077,73 @@
         <v>7269</v>
       </c>
       <c r="C7">
+        <f t="shared" si="4"/>
+        <v>106.8656277565422</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>1.4113496030579142</v>
+      </c>
+      <c r="E7">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="E7" s="19">
+      <c r="G7" s="19">
         <v>15.02</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>7.9740000000000002</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>7.7</v>
       </c>
-      <c r="I7" s="17">
+      <c r="K7" s="17">
         <v>1.82</v>
       </c>
-      <c r="J7" s="10">
+      <c r="L7" s="10">
         <v>1.34</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="10">
         <f t="shared" si="0"/>
-        <v>0.48125000000000001</v>
-      </c>
-      <c r="L7" s="11">
+        <v>18.834</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="1"/>
+        <v>11.134</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="2"/>
+        <v>1.177125</v>
+      </c>
+      <c r="P7" s="11">
         <v>160</v>
       </c>
-      <c r="M7" s="11">
+      <c r="Q7" s="11">
         <v>512</v>
       </c>
-      <c r="N7" s="11">
+      <c r="R7" s="11">
         <v>66</v>
       </c>
-      <c r="O7" s="8">
+      <c r="S7" s="8">
         <v>310.94159999999999</v>
       </c>
-      <c r="S7">
+      <c r="T7" s="11">
+        <f t="shared" si="3"/>
+        <v>1048.9416000000001</v>
+      </c>
+      <c r="X7">
         <v>230</v>
       </c>
-      <c r="V7">
+      <c r="AA7">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -1000,53 +1151,73 @@
         <v>7366</v>
       </c>
       <c r="C8">
+        <f t="shared" si="4"/>
+        <v>108.29167891796531</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="5"/>
+        <v>1.4260511614231177</v>
+      </c>
+      <c r="E8">
         <v>26</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>16</v>
       </c>
-      <c r="E8" s="19">
+      <c r="G8" s="19">
         <v>14.89</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>8.0009999999999994</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>8.48</v>
       </c>
-      <c r="I8" s="17">
+      <c r="K8" s="17">
         <v>1.62</v>
       </c>
-      <c r="J8" s="10">
+      <c r="L8" s="10">
         <v>1.42</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="10">
         <f t="shared" si="0"/>
-        <v>0.53</v>
-      </c>
-      <c r="L8" s="11">
+        <v>19.521000000000001</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="1"/>
+        <v>11.040999999999999</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2200625</v>
+      </c>
+      <c r="P8" s="11">
         <v>153</v>
       </c>
-      <c r="M8" s="11">
+      <c r="Q8" s="11">
         <v>514</v>
       </c>
-      <c r="N8" s="11">
+      <c r="R8" s="11">
         <v>69</v>
       </c>
-      <c r="O8" s="8">
+      <c r="S8" s="8">
         <v>306.22559999999999</v>
       </c>
-      <c r="S8">
+      <c r="T8" s="11">
+        <f t="shared" si="3"/>
+        <v>1042.2256</v>
+      </c>
+      <c r="X8">
         <v>251</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1054,53 +1225,73 @@
         <v>7464</v>
       </c>
       <c r="C9">
+        <f t="shared" si="4"/>
+        <v>109.73243163775361</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>1.4407527197882928</v>
+      </c>
+      <c r="E9">
         <v>26</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>16</v>
       </c>
-      <c r="E9" s="19">
+      <c r="G9" s="19">
         <v>15.13</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>6.4669999999999996</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="I9" s="17">
+      <c r="K9" s="17">
         <v>1.38</v>
       </c>
-      <c r="J9" s="10">
+      <c r="L9" s="10">
         <v>1.33</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="10">
         <f t="shared" si="0"/>
-        <v>0.25374999999999998</v>
-      </c>
-      <c r="L9" s="11">
+        <v>13.237</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="1"/>
+        <v>9.1769999999999996</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.82731250000000001</v>
+      </c>
+      <c r="P9" s="11">
         <v>152</v>
       </c>
-      <c r="M9" s="11">
+      <c r="Q9" s="11">
         <v>416</v>
       </c>
-      <c r="N9" s="11">
+      <c r="R9" s="11">
         <v>65</v>
       </c>
-      <c r="O9" s="8">
+      <c r="S9" s="8">
         <v>229.11899999999997</v>
       </c>
-      <c r="S9">
+      <c r="T9" s="11">
+        <f t="shared" si="3"/>
+        <v>862.11899999999991</v>
+      </c>
+      <c r="X9">
         <v>355</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1108,59 +1299,79 @@
         <v>7564</v>
       </c>
       <c r="C10">
+        <f t="shared" si="4"/>
+        <v>111.20258747427228</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>1.4701558365186713</v>
+      </c>
+      <c r="E10">
         <v>26</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="E10" s="19">
+      <c r="G10" s="19">
         <v>15.29</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>6.7380000000000004</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>4.92</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>3.21</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>1.31</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="10">
         <f t="shared" si="0"/>
-        <v>0.3075</v>
-      </c>
-      <c r="L10" s="11">
+        <v>16.178000000000001</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="1"/>
+        <v>11.258000000000001</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0111250000000001</v>
+      </c>
+      <c r="P10" s="11">
         <v>182</v>
       </c>
-      <c r="M10" s="11">
+      <c r="Q10" s="11">
         <v>433</v>
       </c>
-      <c r="N10" s="11">
+      <c r="R10" s="11">
         <v>64</v>
       </c>
-      <c r="O10" s="8">
+      <c r="S10" s="8">
         <v>230.84820000000002</v>
       </c>
-      <c r="S10">
+      <c r="T10" s="11">
+        <f t="shared" si="3"/>
+        <v>909.84820000000002</v>
+      </c>
+      <c r="X10">
         <v>314</v>
       </c>
-      <c r="T10">
+      <c r="Y10">
         <v>125</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
         <v>18</v>
       </c>
-      <c r="V10">
+      <c r="AA10">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1168,59 +1379,79 @@
         <v>7662</v>
       </c>
       <c r="C11">
+        <f t="shared" si="4"/>
+        <v>112.64334019406057</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>1.4407527197882928</v>
+      </c>
+      <c r="E11">
         <v>26</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="E11" s="19">
+      <c r="G11" s="19">
         <v>16</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>7.702</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>6.93</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K11" s="2">
         <v>3.2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>1.33</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="10">
         <f t="shared" si="0"/>
-        <v>0.43312499999999998</v>
-      </c>
-      <c r="L11" s="11">
+        <v>19.161999999999999</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="1"/>
+        <v>12.232000000000001</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1976249999999999</v>
+      </c>
+      <c r="P11" s="11">
         <v>181</v>
       </c>
-      <c r="M11" s="11">
+      <c r="Q11" s="11">
         <v>495</v>
       </c>
-      <c r="N11" s="11">
+      <c r="R11" s="11">
         <v>65</v>
       </c>
-      <c r="O11" s="8">
+      <c r="S11" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="S11">
+      <c r="T11" s="11">
+        <f t="shared" si="3"/>
+        <v>976.8</v>
+      </c>
+      <c r="X11">
         <v>305</v>
       </c>
-      <c r="T11">
+      <c r="Y11">
         <v>126</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
         <v>19</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1228,59 +1459,79 @@
         <v>7767</v>
       </c>
       <c r="C12">
+        <f t="shared" si="4"/>
+        <v>114.18700382240519</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>1.5436636283446177</v>
+      </c>
+      <c r="E12">
         <v>26</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>16</v>
       </c>
-      <c r="E12" s="19">
+      <c r="G12" s="19">
         <v>15.82</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>7.3120000000000003</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>7.08</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>3.3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <v>1.6</v>
       </c>
-      <c r="K12" s="2">
+      <c r="M12" s="10">
         <f t="shared" si="0"/>
-        <v>0.4425</v>
-      </c>
-      <c r="L12" s="11">
+        <v>19.292000000000002</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="1"/>
+        <v>12.212</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2057500000000001</v>
+      </c>
+      <c r="P12" s="11">
         <v>187</v>
       </c>
-      <c r="M12" s="11">
+      <c r="Q12" s="11">
         <v>470</v>
       </c>
-      <c r="N12" s="11">
+      <c r="R12" s="11">
         <v>78</v>
       </c>
-      <c r="O12" s="8">
+      <c r="S12" s="8">
         <v>232.42020000000002</v>
       </c>
-      <c r="S12">
+      <c r="T12" s="11">
+        <f t="shared" si="3"/>
+        <v>967.42020000000002</v>
+      </c>
+      <c r="X12">
         <v>314</v>
       </c>
-      <c r="T12">
+      <c r="Y12">
         <v>146</v>
       </c>
-      <c r="U12">
+      <c r="Z12">
         <v>20</v>
       </c>
-      <c r="V12">
+      <c r="AA12">
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1288,59 +1539,79 @@
         <v>7810</v>
       </c>
       <c r="C13">
+        <f t="shared" si="4"/>
+        <v>114.81917083210821</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>0.63216700970302497</v>
+      </c>
+      <c r="E13">
         <v>26</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>16</v>
       </c>
-      <c r="E13" s="19">
+      <c r="G13" s="19">
         <v>15.64</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>5.4210000000000003</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>3.84</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>2.94</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <v>1.29</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="10">
         <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="L13" s="11">
+        <v>13.491</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="1"/>
+        <v>9.6509999999999998</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.84318749999999998</v>
+      </c>
+      <c r="P13" s="11">
         <v>167</v>
       </c>
-      <c r="M13" s="11">
+      <c r="Q13" s="11">
         <v>348</v>
       </c>
-      <c r="N13" s="11">
+      <c r="R13" s="11">
         <v>63</v>
       </c>
-      <c r="O13" s="8">
+      <c r="S13" s="8">
         <v>220.08</v>
       </c>
-      <c r="S13">
+      <c r="T13" s="11">
+        <f t="shared" si="3"/>
+        <v>798.08</v>
+      </c>
+      <c r="X13">
         <v>275</v>
       </c>
-      <c r="T13">
+      <c r="Y13">
         <v>127</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
         <v>16</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1348,59 +1619,79 @@
         <v>7852</v>
       </c>
       <c r="C14">
+        <f t="shared" si="4"/>
+        <v>115.43663628344605</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>0.6174654513378357</v>
+      </c>
+      <c r="E14">
         <v>26</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>16</v>
       </c>
-      <c r="E14" s="19">
+      <c r="G14" s="19">
         <v>15.46</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>5.1130000000000004</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>3.2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="K14" s="2">
         <v>2.61</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K14" s="2">
+      <c r="M14" s="10">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="L14" s="11">
+        <v>12.042999999999999</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="1"/>
+        <v>8.843</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="2"/>
+        <v>0.75268749999999995</v>
+      </c>
+      <c r="P14" s="11">
         <v>148</v>
       </c>
-      <c r="M14" s="11">
+      <c r="Q14" s="11">
         <v>329</v>
       </c>
-      <c r="N14" s="11">
+      <c r="R14" s="11">
         <v>55</v>
       </c>
-      <c r="O14" s="8">
+      <c r="S14" s="8">
         <v>290.03399999999999</v>
       </c>
-      <c r="S14">
+      <c r="T14" s="11">
+        <f t="shared" si="3"/>
+        <v>822.03399999999999</v>
+      </c>
+      <c r="X14">
         <v>247</v>
       </c>
-      <c r="T14">
+      <c r="Y14">
         <v>106</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
         <v>14</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1408,59 +1699,79 @@
         <v>7954</v>
       </c>
       <c r="C15">
+        <f t="shared" si="4"/>
+        <v>116.9361952366951</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>1.4995589532490499</v>
+      </c>
+      <c r="E15">
         <v>26</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>16</v>
       </c>
-      <c r="E15" s="19">
+      <c r="G15" s="19">
         <v>15.29</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>5.7619999999999996</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>6.44</v>
       </c>
-      <c r="I15" s="2">
+      <c r="K15" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="2">
         <v>1.17</v>
       </c>
-      <c r="K15" s="2">
+      <c r="M15" s="10">
         <f t="shared" si="0"/>
-        <v>0.40250000000000002</v>
-      </c>
-      <c r="L15" s="11">
+        <v>15.632</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="1"/>
+        <v>9.1919999999999984</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P15" s="11">
         <v>128</v>
       </c>
-      <c r="M15" s="11">
+      <c r="Q15" s="11">
         <v>370</v>
       </c>
-      <c r="N15" s="11">
+      <c r="R15" s="11">
         <v>57</v>
       </c>
-      <c r="O15" s="8">
+      <c r="S15" s="8">
         <v>290.82</v>
       </c>
-      <c r="S15">
+      <c r="T15" s="11">
+        <f t="shared" si="3"/>
+        <v>845.81999999999994</v>
+      </c>
+      <c r="X15">
         <v>219</v>
       </c>
-      <c r="T15">
+      <c r="Y15">
         <v>111</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
         <v>16</v>
       </c>
-      <c r="V15">
+      <c r="AA15">
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1468,59 +1779,79 @@
         <v>7938</v>
       </c>
       <c r="C16">
+        <f t="shared" si="4"/>
+        <v>116.70097030285211</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>-0.23522493384298571</v>
+      </c>
+      <c r="E16">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>16</v>
       </c>
-      <c r="E16" s="19">
+      <c r="G16" s="19">
         <v>15.11</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>6.4349999999999996</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>3.58</v>
       </c>
-      <c r="I16" s="2">
+      <c r="K16" s="2">
         <v>1.97</v>
       </c>
-      <c r="J16" s="2">
+      <c r="L16" s="2">
         <v>1.21</v>
       </c>
-      <c r="K16" s="2">
+      <c r="M16" s="10">
         <f t="shared" si="0"/>
-        <v>0.22375</v>
-      </c>
-      <c r="L16" s="11">
+        <v>13.195</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="1"/>
+        <v>9.6149999999999984</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="2"/>
+        <v>0.82468750000000002</v>
+      </c>
+      <c r="P16" s="11">
         <v>112</v>
       </c>
-      <c r="M16" s="11">
+      <c r="Q16" s="11">
         <v>414</v>
       </c>
-      <c r="N16" s="11">
+      <c r="R16" s="11">
         <v>59</v>
       </c>
-      <c r="O16" s="8">
+      <c r="S16" s="8">
         <v>243.66</v>
       </c>
-      <c r="S16">
+      <c r="T16" s="11">
+        <f t="shared" si="3"/>
+        <v>828.66</v>
+      </c>
+      <c r="X16">
         <v>187</v>
       </c>
-      <c r="T16">
+      <c r="Y16">
         <v>112</v>
       </c>
-      <c r="U16">
+      <c r="Z16">
         <v>17</v>
       </c>
-      <c r="V16">
+      <c r="AA16">
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1528,59 +1859,79 @@
         <v>7981</v>
       </c>
       <c r="C17">
+        <f t="shared" si="4"/>
+        <v>117.33313731255514</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>0.63216700970302497</v>
+      </c>
+      <c r="E17">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="E17" s="19">
+      <c r="G17" s="19">
         <v>14.93</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>7.1760000000000002</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>5.44</v>
       </c>
-      <c r="I17" s="2">
+      <c r="K17" s="2">
         <v>2.41</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="2">
         <v>1.32</v>
       </c>
-      <c r="K17" s="2">
+      <c r="M17" s="10">
         <f t="shared" si="0"/>
-        <v>0.34</v>
-      </c>
-      <c r="L17" s="11">
+        <v>16.346</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="1"/>
+        <v>10.906000000000001</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="2"/>
+        <v>1.021625</v>
+      </c>
+      <c r="P17" s="11">
         <v>137</v>
       </c>
-      <c r="M17" s="11">
+      <c r="Q17" s="11">
         <v>461</v>
       </c>
-      <c r="N17" s="11">
+      <c r="R17" s="11">
         <v>65</v>
       </c>
-      <c r="O17" s="8">
+      <c r="S17" s="8">
         <v>251.91300000000001</v>
       </c>
-      <c r="S17">
+      <c r="T17" s="11">
+        <f t="shared" si="3"/>
+        <v>914.91300000000001</v>
+      </c>
+      <c r="X17">
         <v>230</v>
       </c>
-      <c r="T17">
+      <c r="Y17">
         <v>123</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
         <v>18</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1588,59 +1939,79 @@
         <v>8024</v>
       </c>
       <c r="C18">
+        <f t="shared" si="4"/>
+        <v>117.96530432225816</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>0.63216700970302497</v>
+      </c>
+      <c r="E18">
         <v>24</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>16</v>
       </c>
-      <c r="E18" s="19">
+      <c r="G18" s="19">
         <v>14.75</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>6.8049999999999997</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>7.9</v>
       </c>
-      <c r="I18" s="2">
+      <c r="K18" s="2">
         <v>2.76</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <v>1.28</v>
       </c>
-      <c r="K18" s="2">
+      <c r="M18" s="10">
         <f t="shared" si="0"/>
-        <v>0.49375000000000002</v>
-      </c>
-      <c r="L18" s="11">
+        <v>18.745000000000001</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="1"/>
+        <v>10.844999999999999</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1715625000000001</v>
+      </c>
+      <c r="P18" s="11">
         <v>156</v>
       </c>
-      <c r="M18" s="11">
+      <c r="Q18" s="11">
         <v>437</v>
       </c>
-      <c r="N18" s="11">
+      <c r="R18" s="11">
         <v>63</v>
       </c>
-      <c r="O18" s="8">
+      <c r="S18" s="8">
         <v>252.14879999999997</v>
       </c>
-      <c r="S18">
+      <c r="T18" s="11">
+        <f t="shared" si="3"/>
+        <v>908.14879999999994</v>
+      </c>
+      <c r="X18">
         <v>261</v>
       </c>
-      <c r="T18">
+      <c r="Y18">
         <v>117</v>
       </c>
-      <c r="U18">
+      <c r="Z18">
         <v>18</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -1648,59 +2019,79 @@
         <v>8068</v>
       </c>
       <c r="C19">
+        <f t="shared" si="4"/>
+        <v>118.61217289032638</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>0.64686856806821424</v>
+      </c>
+      <c r="E19">
         <v>24</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>16</v>
       </c>
-      <c r="E19" s="19">
+      <c r="G19" s="19">
         <v>14.57</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>6.7510000000000003</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>5.89</v>
       </c>
-      <c r="I19" s="2">
+      <c r="K19" s="2">
         <v>3.25</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <v>1.26</v>
       </c>
-      <c r="K19" s="2">
+      <c r="M19" s="10">
         <f t="shared" si="0"/>
-        <v>0.36812499999999998</v>
-      </c>
-      <c r="L19" s="11">
+        <v>17.151</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="1"/>
+        <v>11.261000000000001</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0719375</v>
+      </c>
+      <c r="P19" s="11">
         <v>184</v>
       </c>
-      <c r="M19" s="11">
+      <c r="Q19" s="11">
         <v>434</v>
       </c>
-      <c r="N19" s="11">
+      <c r="R19" s="11">
         <v>62</v>
       </c>
-      <c r="O19" s="8">
+      <c r="S19" s="8">
         <v>252.69900000000001</v>
       </c>
-      <c r="S19">
+      <c r="T19" s="11">
+        <f t="shared" si="3"/>
+        <v>932.69900000000007</v>
+      </c>
+      <c r="X19">
         <v>315</v>
       </c>
-      <c r="T19">
+      <c r="Y19">
         <v>122</v>
       </c>
-      <c r="U19">
+      <c r="Z19">
         <v>18</v>
       </c>
-      <c r="V19">
+      <c r="AA19">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -1708,68 +2099,88 @@
         <v>8111</v>
       </c>
       <c r="C20">
+        <f t="shared" si="4"/>
+        <v>119.24433990002942</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>0.63216700970303918</v>
+      </c>
+      <c r="E20">
         <v>24</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>16</v>
       </c>
-      <c r="E20" s="19">
+      <c r="G20" s="19">
         <v>14.39</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>8.4269999999999996</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>7.3</v>
       </c>
-      <c r="I20" s="2">
+      <c r="K20" s="2">
         <v>3.53</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <v>1.61</v>
       </c>
-      <c r="K20" s="2">
+      <c r="M20" s="10">
         <f t="shared" si="0"/>
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="L20" s="11">
+        <v>20.867000000000001</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="1"/>
+        <v>13.566999999999998</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3041875000000001</v>
+      </c>
+      <c r="P20" s="11">
         <v>200</v>
       </c>
-      <c r="M20" s="11">
+      <c r="Q20" s="11">
         <v>542</v>
       </c>
-      <c r="N20" s="11">
+      <c r="R20" s="11">
         <v>79</v>
       </c>
-      <c r="O20" s="8">
+      <c r="S20" s="8">
         <v>247.983</v>
       </c>
-      <c r="P20">
+      <c r="T20" s="11">
+        <f t="shared" si="3"/>
+        <v>1068.9829999999999</v>
+      </c>
+      <c r="U20">
         <v>516</v>
       </c>
-      <c r="Q20">
+      <c r="V20">
         <v>197</v>
       </c>
-      <c r="R20">
+      <c r="W20">
         <v>55</v>
       </c>
-      <c r="S20">
+      <c r="X20">
         <v>471</v>
       </c>
-      <c r="T20">
+      <c r="Y20">
         <v>95</v>
       </c>
-      <c r="U20">
+      <c r="Z20">
         <v>38</v>
       </c>
-      <c r="V20">
+      <c r="AA20">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -1777,68 +2188,88 @@
         <v>8156</v>
       </c>
       <c r="C21">
+        <f t="shared" si="4"/>
+        <v>119.90591002646281</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>0.66157012643338931</v>
+      </c>
+      <c r="E21">
         <v>24</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>16</v>
       </c>
-      <c r="E21" s="19">
+      <c r="G21" s="19">
         <v>14.21</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>7.7290000000000001</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>7</v>
       </c>
-      <c r="I21" s="2">
+      <c r="K21" s="2">
         <v>3.34</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="2">
         <v>1.45</v>
       </c>
-      <c r="K21" s="2">
+      <c r="M21" s="10">
         <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-      <c r="L21" s="11">
+        <v>19.518999999999998</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="1"/>
+        <v>12.518999999999998</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2199374999999999</v>
+      </c>
+      <c r="P21" s="11">
         <v>189</v>
       </c>
-      <c r="M21" s="11">
+      <c r="Q21" s="11">
         <v>497</v>
       </c>
-      <c r="N21" s="11">
+      <c r="R21" s="11">
         <v>71</v>
       </c>
-      <c r="O21" s="8">
+      <c r="S21" s="8">
         <v>220.08</v>
       </c>
-      <c r="P21">
+      <c r="T21" s="11">
+        <f t="shared" si="3"/>
+        <v>977.08</v>
+      </c>
+      <c r="U21">
         <v>722</v>
       </c>
-      <c r="Q21">
+      <c r="V21">
         <v>80</v>
       </c>
-      <c r="R21">
+      <c r="W21">
         <v>38</v>
       </c>
-      <c r="S21">
+      <c r="X21">
         <v>318</v>
       </c>
-      <c r="T21">
+      <c r="Y21">
         <v>51</v>
       </c>
-      <c r="U21">
+      <c r="Z21">
         <v>21</v>
       </c>
-      <c r="V21">
+      <c r="AA21">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -1846,68 +2277,88 @@
         <v>8175</v>
       </c>
       <c r="C22">
+        <f t="shared" si="4"/>
+        <v>120.18523963540136</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>0.27932960893855352</v>
+      </c>
+      <c r="E22">
         <v>24</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>16</v>
       </c>
-      <c r="E22" s="19">
+      <c r="G22" s="19">
         <v>14.04</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>6.6970000000000001</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>6.33</v>
       </c>
-      <c r="I22" s="2">
+      <c r="K22" s="2">
         <v>3.25</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="2">
         <v>1.29</v>
       </c>
-      <c r="K22" s="2">
+      <c r="M22" s="10">
         <f t="shared" si="0"/>
-        <v>0.395625</v>
-      </c>
-      <c r="L22" s="11">
+        <v>17.567</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="1"/>
+        <v>11.236999999999998</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0979375</v>
+      </c>
+      <c r="P22" s="11">
         <v>184</v>
       </c>
-      <c r="M22" s="11">
+      <c r="Q22" s="11">
         <v>430</v>
       </c>
-      <c r="N22" s="11">
+      <c r="R22" s="11">
         <v>63</v>
       </c>
-      <c r="O22" s="8">
+      <c r="S22" s="8">
         <v>212.22000000000003</v>
       </c>
-      <c r="P22">
+      <c r="T22" s="11">
+        <f t="shared" si="3"/>
+        <v>889.22</v>
+      </c>
+      <c r="U22">
         <v>651</v>
       </c>
-      <c r="Q22">
+      <c r="V22">
         <v>88</v>
       </c>
-      <c r="R22">
+      <c r="W22">
         <v>8</v>
       </c>
-      <c r="S22">
+      <c r="X22">
         <v>399</v>
       </c>
-      <c r="T22">
+      <c r="Y22">
         <v>74</v>
       </c>
-      <c r="U22">
+      <c r="Z22">
         <v>6</v>
       </c>
-      <c r="V22">
+      <c r="AA22">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -1915,68 +2366,88 @@
         <v>8221</v>
       </c>
       <c r="C23">
+        <f t="shared" si="4"/>
+        <v>120.86151132019995</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>0.67627168479859279</v>
+      </c>
+      <c r="E23">
         <v>24</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>16</v>
       </c>
-      <c r="E23" s="19">
+      <c r="G23" s="19">
         <v>13.86</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>6.0229999999999997</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>7.97</v>
       </c>
-      <c r="I23" s="2">
+      <c r="K23" s="2">
         <v>2.84</v>
       </c>
-      <c r="J23" s="2">
+      <c r="L23" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K23" s="2">
+      <c r="M23" s="10">
         <f t="shared" si="0"/>
-        <v>0.49812499999999998</v>
-      </c>
-      <c r="L23" s="11">
+        <v>17.952999999999999</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="1"/>
+        <v>9.9830000000000005</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1220625</v>
+      </c>
+      <c r="P23" s="11">
         <v>161</v>
       </c>
-      <c r="M23" s="11">
+      <c r="Q23" s="11">
         <v>387</v>
       </c>
-      <c r="N23" s="11">
+      <c r="R23" s="11">
         <v>55</v>
       </c>
-      <c r="O23" s="8">
+      <c r="S23" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="P23">
+      <c r="T23" s="11">
+        <f t="shared" si="3"/>
+        <v>838.8</v>
+      </c>
+      <c r="U23">
         <v>799</v>
       </c>
-      <c r="Q23">
+      <c r="V23">
         <v>131</v>
       </c>
-      <c r="R23">
+      <c r="W23">
         <v>54</v>
       </c>
-      <c r="S23">
+      <c r="X23">
         <v>368</v>
       </c>
-      <c r="T23">
+      <c r="Y23">
         <v>112</v>
       </c>
-      <c r="U23">
+      <c r="Z23">
         <v>46</v>
       </c>
-      <c r="V23">
+      <c r="AA23">
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -1984,68 +2455,88 @@
         <v>8240</v>
       </c>
       <c r="C24">
+        <f t="shared" si="4"/>
+        <v>121.14084092913849</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>0.27932960893853931</v>
+      </c>
+      <c r="E24">
         <v>24</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>16</v>
       </c>
-      <c r="E24" s="19">
+      <c r="G24" s="19">
         <v>13.68</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>5.2119999999999997</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>4.51</v>
       </c>
-      <c r="I24" s="2">
+      <c r="K24" s="2">
         <v>2.52</v>
       </c>
-      <c r="J24" s="2">
+      <c r="L24" s="2">
         <v>1.18</v>
       </c>
-      <c r="K24" s="2">
+      <c r="M24" s="10">
         <f t="shared" si="0"/>
-        <v>0.28187499999999999</v>
-      </c>
-      <c r="L24" s="11">
+        <v>13.421999999999999</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="1"/>
+        <v>8.911999999999999</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="2"/>
+        <v>0.83887499999999993</v>
+      </c>
+      <c r="P24" s="11">
         <v>143</v>
       </c>
-      <c r="M24" s="11">
+      <c r="Q24" s="11">
         <v>335</v>
       </c>
-      <c r="N24" s="11">
+      <c r="R24" s="11">
         <v>58</v>
       </c>
-      <c r="O24" s="8">
+      <c r="S24" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="P24">
+      <c r="T24" s="11">
+        <f t="shared" si="3"/>
+        <v>771.8</v>
+      </c>
+      <c r="U24">
         <v>268</v>
       </c>
-      <c r="Q24">
+      <c r="V24">
         <v>9</v>
       </c>
-      <c r="R24">
+      <c r="W24">
         <v>10</v>
       </c>
-      <c r="S24">
+      <c r="X24">
         <v>754</v>
       </c>
-      <c r="T24">
+      <c r="Y24">
         <v>9</v>
       </c>
-      <c r="U24">
+      <c r="Z24">
         <v>6</v>
       </c>
-      <c r="V24">
+      <c r="AA24">
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -2053,68 +2544,88 @@
         <v>8277</v>
       </c>
       <c r="C25">
+        <f t="shared" si="4"/>
+        <v>121.68479858865041</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>0.54395765951191777</v>
+      </c>
+      <c r="E25">
         <v>24</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>16</v>
       </c>
-      <c r="E25" s="19">
+      <c r="G25" s="19">
         <v>13.5</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>1</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>6.3</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>5.54</v>
       </c>
-      <c r="I25" s="2">
+      <c r="K25" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J25" s="2">
+      <c r="L25" s="2">
         <v>1.32</v>
       </c>
-      <c r="K25" s="2">
+      <c r="M25" s="10">
         <f t="shared" si="0"/>
-        <v>0.34625</v>
-      </c>
-      <c r="L25" s="11">
+        <v>15.67</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="1"/>
+        <v>10.129999999999999</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="2"/>
+        <v>0.979375</v>
+      </c>
+      <c r="P25" s="11">
         <v>142</v>
       </c>
-      <c r="M25" s="11">
+      <c r="Q25" s="11">
         <v>405</v>
       </c>
-      <c r="N25" s="11">
+      <c r="R25" s="11">
         <v>65</v>
       </c>
-      <c r="O25" s="11">
+      <c r="S25" s="11">
         <v>331</v>
       </c>
-      <c r="P25">
+      <c r="T25" s="11">
+        <f t="shared" si="3"/>
+        <v>943</v>
+      </c>
+      <c r="U25">
         <v>435</v>
       </c>
-      <c r="Q25">
+      <c r="V25">
         <v>102</v>
       </c>
-      <c r="R25">
+      <c r="W25">
         <v>20</v>
       </c>
-      <c r="S25">
+      <c r="X25">
         <v>802</v>
       </c>
-      <c r="T25">
+      <c r="Y25">
         <v>39</v>
       </c>
-      <c r="U25">
+      <c r="Z25">
         <v>13</v>
       </c>
-      <c r="V25">
+      <c r="AA25">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -2122,68 +2633,88 @@
         <v>8295</v>
       </c>
       <c r="C26">
+        <f t="shared" si="4"/>
+        <v>121.94942663922376</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>0.26462805057335004</v>
+      </c>
+      <c r="E26">
         <v>24</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>16</v>
       </c>
-      <c r="E26" s="19">
+      <c r="G26" s="19">
         <v>13.32</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>7.1369999999999996</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>6.16</v>
       </c>
-      <c r="I26" s="2">
+      <c r="K26" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J26" s="2">
+      <c r="L26" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="K26" s="2">
+      <c r="M26" s="10">
         <f t="shared" si="0"/>
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="L26" s="11">
+        <v>17.364599999999999</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>11.204599999999999</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0852875</v>
+      </c>
+      <c r="P26" s="11">
         <v>142</v>
       </c>
-      <c r="M26" s="11">
+      <c r="Q26" s="11">
         <v>459</v>
       </c>
-      <c r="N26" s="11">
+      <c r="R26" s="11">
         <v>76</v>
       </c>
-      <c r="O26" s="18">
+      <c r="S26" s="18">
         <v>400</v>
       </c>
-      <c r="P26">
+      <c r="T26" s="11">
+        <f t="shared" si="3"/>
+        <v>1077</v>
+      </c>
+      <c r="U26">
         <v>228</v>
       </c>
-      <c r="Q26">
+      <c r="V26">
         <v>141</v>
       </c>
-      <c r="R26">
+      <c r="W26">
         <v>28</v>
       </c>
-      <c r="S26">
+      <c r="X26">
         <v>1420</v>
       </c>
-      <c r="T26">
+      <c r="Y26">
         <v>47</v>
       </c>
-      <c r="U26">
+      <c r="Z26">
         <v>18</v>
       </c>
-      <c r="V26">
+      <c r="AA26">
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -2191,137 +2722,177 @@
         <v>8288</v>
       </c>
       <c r="C27">
+        <f t="shared" si="4"/>
+        <v>121.84651573066746</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>-0.10291090855629648</v>
+      </c>
+      <c r="E27">
         <v>24</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>16</v>
       </c>
-      <c r="E27" s="19">
+      <c r="G27" s="19">
         <v>13.14</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>1</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>8.6210000000000004</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>22.61</v>
       </c>
-      <c r="I27" s="2">
+      <c r="K27" s="2">
         <v>3.35</v>
       </c>
-      <c r="J27" s="2">
+      <c r="L27" s="2">
         <v>2.31</v>
       </c>
-      <c r="K27" s="2">
+      <c r="M27" s="10">
         <f t="shared" si="0"/>
-        <v>1.413125</v>
-      </c>
-      <c r="L27" s="11">
+        <v>36.891000000000005</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>14.281000000000001</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3056875000000003</v>
+      </c>
+      <c r="P27" s="11">
         <v>190</v>
       </c>
-      <c r="M27" s="11">
+      <c r="Q27" s="11">
         <v>554</v>
       </c>
-      <c r="N27" s="11">
+      <c r="R27" s="11">
         <v>113</v>
       </c>
-      <c r="O27" s="18">
+      <c r="S27" s="18">
         <v>129</v>
       </c>
-      <c r="P27">
+      <c r="T27" s="11">
+        <f t="shared" si="3"/>
+        <v>986</v>
+      </c>
+      <c r="U27">
         <v>1175</v>
       </c>
-      <c r="Q27">
+      <c r="V27">
         <v>143</v>
       </c>
-      <c r="R27">
+      <c r="W27">
         <v>74</v>
       </c>
-      <c r="S27">
+      <c r="X27">
         <v>717</v>
       </c>
-      <c r="T27">
+      <c r="Y27">
         <v>85</v>
       </c>
-      <c r="U27">
+      <c r="Z27">
         <v>43</v>
       </c>
-      <c r="V27">
+      <c r="AA27">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
       <c r="B28" s="12">
         <v>8025</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>117.98000588062335</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>-3.8665098500441104</v>
+      </c>
+      <c r="E28" s="12">
         <v>24</v>
       </c>
-      <c r="D28" s="12">
+      <c r="F28" s="12">
         <v>16</v>
       </c>
-      <c r="E28" s="19">
+      <c r="G28" s="19">
         <v>12.96</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>1</v>
       </c>
-      <c r="G28" s="12">
+      <c r="I28" s="1">
         <v>9.9860000000000007</v>
       </c>
-      <c r="H28" s="12">
+      <c r="J28" s="12">
         <v>17.78</v>
       </c>
-      <c r="I28" s="13">
+      <c r="K28" s="13">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J28" s="13">
+      <c r="L28" s="13">
         <v>1.5312000000000001</v>
       </c>
-      <c r="K28" s="2">
+      <c r="M28" s="10">
         <f t="shared" si="0"/>
-        <v>1.1112500000000001</v>
-      </c>
-      <c r="L28" s="12">
+        <v>31.807200000000002</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="1"/>
+        <v>14.027200000000001</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9879500000000001</v>
+      </c>
+      <c r="P28" s="12">
         <v>272</v>
       </c>
-      <c r="M28" s="12">
+      <c r="Q28" s="12">
         <v>625</v>
       </c>
-      <c r="N28" s="12">
+      <c r="R28" s="12">
         <v>120</v>
       </c>
-      <c r="O28" s="12">
+      <c r="S28" s="12">
         <v>89</v>
       </c>
-      <c r="P28" s="12">
+      <c r="T28" s="11">
+        <f t="shared" si="3"/>
+        <v>1106</v>
+      </c>
+      <c r="U28" s="12">
         <v>3701</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="V28" s="12">
         <v>497</v>
       </c>
-      <c r="R28" s="12">
+      <c r="W28" s="12">
         <v>240</v>
       </c>
-      <c r="S28" s="12">
+      <c r="X28" s="12">
         <v>355</v>
       </c>
-      <c r="T28" s="12">
+      <c r="Y28" s="12">
         <v>234</v>
       </c>
-      <c r="U28" s="12">
+      <c r="Z28" s="12">
         <v>125</v>
       </c>
-      <c r="V28" s="12">
+      <c r="AA28" s="12">
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2329,68 +2900,88 @@
         <v>7640</v>
       </c>
       <c r="C29">
+        <f t="shared" si="4"/>
+        <v>112.31990591002646</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>-5.6600999705968889</v>
+      </c>
+      <c r="E29">
         <v>25</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>16</v>
       </c>
-      <c r="E29" s="19">
+      <c r="G29" s="19">
         <v>12.79</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>1</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>6.4370000000000003</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>20.440000000000001</v>
       </c>
-      <c r="I29" s="2">
+      <c r="K29" s="2">
         <v>2.23</v>
       </c>
-      <c r="J29" s="2">
+      <c r="L29" s="2">
         <v>1.32</v>
       </c>
-      <c r="K29" s="2">
+      <c r="M29" s="10">
         <f t="shared" si="0"/>
-        <v>1.2775000000000001</v>
-      </c>
-      <c r="L29">
+        <v>30.427000000000003</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="1"/>
+        <v>9.9870000000000001</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9016875000000002</v>
+      </c>
+      <c r="P29">
         <v>245</v>
       </c>
-      <c r="M29">
+      <c r="Q29">
         <v>566</v>
       </c>
-      <c r="N29">
+      <c r="R29">
         <v>117</v>
       </c>
-      <c r="O29">
+      <c r="S29">
         <v>258</v>
       </c>
-      <c r="P29">
+      <c r="T29" s="11">
+        <f t="shared" si="3"/>
+        <v>1186</v>
+      </c>
+      <c r="U29">
         <v>2207</v>
       </c>
-      <c r="Q29">
+      <c r="V29">
         <v>148</v>
       </c>
-      <c r="R29">
+      <c r="W29">
         <v>12</v>
       </c>
-      <c r="S29">
+      <c r="X29">
         <v>556</v>
       </c>
-      <c r="T29">
+      <c r="Y29">
         <v>49</v>
       </c>
-      <c r="U29">
+      <c r="Z29">
         <v>9</v>
       </c>
-      <c r="V29">
+      <c r="AA29">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2398,68 +2989,88 @@
         <v>7256</v>
       </c>
       <c r="C30">
+        <f t="shared" si="4"/>
+        <v>106.67450749779478</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>-5.6453984122316854</v>
+      </c>
+      <c r="E30">
         <v>25</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>16</v>
       </c>
-      <c r="E30" s="19">
+      <c r="G30" s="19">
         <v>12.61</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>5.8890000000000002</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>15.05</v>
       </c>
-      <c r="I30" s="2">
+      <c r="K30" s="2">
         <v>1.69</v>
       </c>
-      <c r="J30" s="2">
+      <c r="L30" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="K30" s="2">
+      <c r="M30" s="10">
         <f t="shared" si="0"/>
-        <v>0.94062500000000004</v>
-      </c>
-      <c r="L30">
+        <v>23.751000000000001</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="1"/>
+        <v>8.7010000000000005</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4844375000000001</v>
+      </c>
+      <c r="P30">
         <v>243</v>
       </c>
-      <c r="M30">
+      <c r="Q30">
         <v>584</v>
       </c>
-      <c r="N30">
+      <c r="R30">
         <v>127</v>
       </c>
-      <c r="O30">
+      <c r="S30">
         <v>219</v>
       </c>
-      <c r="P30">
+      <c r="T30" s="11">
+        <f t="shared" si="3"/>
+        <v>1173</v>
+      </c>
+      <c r="U30">
         <v>2845</v>
       </c>
-      <c r="Q30">
+      <c r="V30">
         <v>311</v>
       </c>
-      <c r="R30">
+      <c r="W30">
         <v>70</v>
       </c>
-      <c r="S30">
+      <c r="X30">
         <v>428</v>
       </c>
-      <c r="T30">
+      <c r="Y30">
         <v>65</v>
       </c>
-      <c r="U30">
+      <c r="Z30">
         <v>42</v>
       </c>
-      <c r="V30">
+      <c r="AA30">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -2467,68 +3078,88 @@
         <v>6878</v>
       </c>
       <c r="C31">
+        <f t="shared" si="4"/>
+        <v>101.1173184357542</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>-5.5571890620405782</v>
+      </c>
+      <c r="E31">
         <v>25</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>16</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>10.199999999999999</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>1</v>
       </c>
-      <c r="G31" s="3">
+      <c r="I31" s="3">
         <v>7.0869999999999997</v>
       </c>
-      <c r="H31" s="3">
+      <c r="J31" s="3">
         <v>15.33</v>
       </c>
-      <c r="I31" s="6">
+      <c r="K31" s="6">
         <v>1.87</v>
       </c>
-      <c r="J31" s="6">
+      <c r="L31" s="6">
         <v>1.1484000000000001</v>
       </c>
-      <c r="K31" s="2">
+      <c r="M31" s="10">
         <f t="shared" si="0"/>
-        <v>0.958125</v>
-      </c>
-      <c r="L31">
+        <v>25.435400000000001</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="1"/>
+        <v>10.105400000000001</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5897125000000001</v>
+      </c>
+      <c r="P31">
         <v>213</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
         <v>619</v>
       </c>
-      <c r="N31">
+      <c r="R31">
         <v>118</v>
       </c>
-      <c r="O31">
+      <c r="S31">
         <v>275</v>
       </c>
-      <c r="P31">
+      <c r="T31" s="11">
+        <f t="shared" si="3"/>
+        <v>1225</v>
+      </c>
+      <c r="U31">
         <v>3942</v>
       </c>
-      <c r="Q31">
+      <c r="V31">
         <v>351</v>
       </c>
-      <c r="R31">
+      <c r="W31">
         <v>72</v>
       </c>
-      <c r="S31">
+      <c r="X31">
         <v>322</v>
       </c>
-      <c r="T31">
+      <c r="Y31">
         <v>150</v>
       </c>
-      <c r="U31">
+      <c r="Z31">
         <v>31</v>
       </c>
-      <c r="V31">
+      <c r="AA31">
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -2536,68 +3167,88 @@
         <v>6552</v>
       </c>
       <c r="C32">
+        <f t="shared" si="4"/>
+        <v>96.324610408703322</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>-4.7927080270508782</v>
+      </c>
+      <c r="E32">
         <v>25</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>16</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>10.199999999999999</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>6.8890000000000002</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>12.25</v>
       </c>
-      <c r="I32" s="2">
+      <c r="K32" s="2">
         <v>1.69</v>
       </c>
-      <c r="J32" s="2">
+      <c r="L32" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="K32" s="2">
+      <c r="M32" s="10">
         <f t="shared" si="0"/>
-        <v>0.765625</v>
-      </c>
-      <c r="L32">
+        <v>21.951000000000001</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="1"/>
+        <v>9.7010000000000005</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3719375</v>
+      </c>
+      <c r="P32">
         <v>173</v>
       </c>
-      <c r="M32">
+      <c r="Q32">
         <v>641</v>
       </c>
-      <c r="N32">
+      <c r="R32">
         <v>126</v>
       </c>
-      <c r="O32">
+      <c r="S32">
         <v>270</v>
       </c>
-      <c r="P32">
+      <c r="T32" s="11">
+        <f t="shared" si="3"/>
+        <v>1210</v>
+      </c>
+      <c r="U32">
         <v>5385</v>
       </c>
-      <c r="Q32">
+      <c r="V32">
         <v>292</v>
       </c>
-      <c r="R32">
+      <c r="W32">
         <v>13</v>
       </c>
-      <c r="S32">
+      <c r="X32">
         <v>173</v>
       </c>
-      <c r="T32">
+      <c r="Y32">
         <v>145</v>
       </c>
-      <c r="U32">
+      <c r="Z32">
         <v>12</v>
       </c>
-      <c r="V32">
+      <c r="AA32">
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -2605,68 +3256,88 @@
         <v>6337</v>
       </c>
       <c r="C33">
+        <f t="shared" si="4"/>
+        <v>93.163775360188183</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>-3.1608350485151391</v>
+      </c>
+      <c r="E33">
         <v>25</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>16</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>10.1</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>7.4989999999999997</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>13.93</v>
       </c>
-      <c r="I33" s="2">
+      <c r="K33" s="2">
         <v>1.95</v>
       </c>
-      <c r="J33" s="2">
+      <c r="L33" s="2">
         <v>1.2804</v>
       </c>
-      <c r="K33" s="2">
+      <c r="M33" s="10">
         <f t="shared" si="0"/>
-        <v>0.87062499999999998</v>
-      </c>
-      <c r="L33">
+        <v>24.659399999999998</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="1"/>
+        <v>10.7294</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5412124999999999</v>
+      </c>
+      <c r="P33">
         <v>125</v>
       </c>
-      <c r="M33">
+      <c r="Q33">
         <v>672</v>
       </c>
-      <c r="N33">
+      <c r="R33">
         <v>109</v>
       </c>
-      <c r="O33">
+      <c r="S33">
         <v>275</v>
       </c>
-      <c r="P33">
+      <c r="T33" s="11">
+        <f t="shared" si="3"/>
+        <v>1181</v>
+      </c>
+      <c r="U33">
         <v>4833</v>
       </c>
-      <c r="Q33">
+      <c r="V33">
         <v>146</v>
       </c>
-      <c r="R33">
+      <c r="W33">
         <v>21</v>
       </c>
-      <c r="S33">
+      <c r="X33">
         <v>102</v>
       </c>
-      <c r="T33">
+      <c r="Y33">
         <v>62</v>
       </c>
-      <c r="U33">
+      <c r="Z33">
         <v>14</v>
       </c>
-      <c r="V33">
+      <c r="AA33">
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -2674,68 +3345,88 @@
         <v>6199</v>
       </c>
       <c r="C34">
+        <f t="shared" si="4"/>
+        <v>91.134960305792418</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>-2.0288150543957642</v>
+      </c>
+      <c r="E34">
         <v>25</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>18</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>10.1</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>1</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>9.3539999999999992</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>15.61</v>
       </c>
-      <c r="I34" s="2">
+      <c r="K34" s="2">
         <v>3.17</v>
       </c>
-      <c r="J34" s="2">
+      <c r="L34" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="K34" s="2">
+      <c r="M34" s="10">
         <f t="shared" si="0"/>
-        <v>0.86722222222222223</v>
-      </c>
-      <c r="L34">
+        <v>29.916</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="1"/>
+        <v>14.305999999999999</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="P34">
         <v>113</v>
       </c>
-      <c r="M34">
+      <c r="Q34">
         <v>639</v>
       </c>
-      <c r="N34">
+      <c r="R34">
         <v>113</v>
       </c>
-      <c r="O34">
+      <c r="S34">
         <v>279</v>
       </c>
-      <c r="P34">
+      <c r="T34" s="11">
+        <f t="shared" si="3"/>
+        <v>1144</v>
+      </c>
+      <c r="U34">
         <v>4728</v>
       </c>
-      <c r="Q34">
+      <c r="V34">
         <v>184</v>
       </c>
-      <c r="R34">
+      <c r="W34">
         <v>29</v>
       </c>
-      <c r="S34">
+      <c r="X34">
         <v>135</v>
       </c>
-      <c r="T34">
+      <c r="Y34">
         <v>50</v>
       </c>
-      <c r="U34">
+      <c r="Z34">
         <v>29</v>
       </c>
-      <c r="V34">
+      <c r="AA34">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -2743,68 +3434,88 @@
         <v>6083</v>
       </c>
       <c r="C35">
+        <f t="shared" si="4"/>
+        <v>89.429579535430761</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>-1.705380770361657</v>
+      </c>
+      <c r="E35">
         <v>25</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>18</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>10</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>1</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>11.162000000000001</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>21</v>
       </c>
-      <c r="I35" s="2">
+      <c r="K35" s="2">
         <v>3.12</v>
       </c>
-      <c r="J35" s="2">
+      <c r="L35" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="K35" s="2">
+      <c r="M35" s="10">
         <f t="shared" si="0"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="L35">
+        <v>36.9848</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="1"/>
+        <v>15.9848</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0547111111111112</v>
+      </c>
+      <c r="P35">
         <v>143</v>
       </c>
-      <c r="M35">
+      <c r="Q35">
         <v>596</v>
       </c>
-      <c r="N35">
+      <c r="R35">
         <v>95</v>
       </c>
-      <c r="O35">
+      <c r="S35">
         <v>308</v>
       </c>
-      <c r="P35">
+      <c r="T35" s="11">
+        <f t="shared" si="3"/>
+        <v>1142</v>
+      </c>
+      <c r="U35">
         <v>2939</v>
       </c>
-      <c r="Q35">
+      <c r="V35">
         <v>171</v>
       </c>
-      <c r="R35">
+      <c r="W35">
         <v>26</v>
       </c>
-      <c r="S35">
+      <c r="X35">
         <v>252</v>
       </c>
-      <c r="T35">
+      <c r="Y35">
         <v>75</v>
       </c>
-      <c r="U35">
+      <c r="Z35">
         <v>26</v>
       </c>
-      <c r="V35">
+      <c r="AA35">
         <v>541</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -2812,68 +3523,88 @@
         <v>6015</v>
       </c>
       <c r="C36">
+        <f t="shared" si="4"/>
+        <v>88.429873566598062</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>-0.99970596883269991</v>
+      </c>
+      <c r="E36">
         <v>25</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>18</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>10.199999999999999</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>12.781000000000001</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>15.05</v>
       </c>
-      <c r="I36" s="2">
+      <c r="K36" s="2">
         <v>3.84</v>
       </c>
-      <c r="J36" s="2">
+      <c r="L36" s="2">
         <v>2.3628</v>
       </c>
-      <c r="K36" s="2">
+      <c r="M36" s="10">
         <f t="shared" si="0"/>
-        <v>0.83611111111111114</v>
-      </c>
-      <c r="L36">
+        <v>34.033799999999999</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="1"/>
+        <v>18.983800000000002</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8907666666666667</v>
+      </c>
+      <c r="P36">
         <v>155</v>
       </c>
-      <c r="M36">
+      <c r="Q36">
         <v>612</v>
       </c>
-      <c r="N36">
+      <c r="R36">
         <v>89</v>
       </c>
-      <c r="O36">
+      <c r="S36">
         <v>309</v>
       </c>
-      <c r="P36">
+      <c r="T36" s="11">
+        <f t="shared" si="3"/>
+        <v>1165</v>
+      </c>
+      <c r="U36">
         <v>2990</v>
       </c>
-      <c r="Q36">
+      <c r="V36">
         <v>401</v>
       </c>
-      <c r="R36">
+      <c r="W36">
         <v>15</v>
       </c>
-      <c r="S36">
+      <c r="X36">
         <v>312</v>
       </c>
-      <c r="T36">
+      <c r="Y36">
         <v>289</v>
       </c>
-      <c r="U36">
+      <c r="Z36">
         <v>15</v>
       </c>
-      <c r="V36">
+      <c r="AA36">
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -2881,68 +3612,88 @@
         <v>5973</v>
       </c>
       <c r="C37">
+        <f t="shared" si="4"/>
+        <v>87.812408115260226</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>-0.6174654513378357</v>
+      </c>
+      <c r="E37">
         <v>20</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>18</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>10.3</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>1</v>
       </c>
-      <c r="G37" s="3">
+      <c r="I37" s="3">
         <v>8.6880000000000006</v>
       </c>
-      <c r="H37" s="3">
+      <c r="J37" s="3">
         <v>10.5</v>
       </c>
-      <c r="I37" s="6">
+      <c r="K37" s="6">
         <v>2.61</v>
       </c>
-      <c r="J37" s="6">
+      <c r="L37" s="6">
         <v>1.9668000000000001</v>
       </c>
-      <c r="K37" s="2">
+      <c r="M37" s="10">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="L37">
+        <v>23.764800000000001</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" si="1"/>
+        <v>13.264800000000001</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3202666666666667</v>
+      </c>
+      <c r="P37">
         <v>181</v>
       </c>
-      <c r="M37">
+      <c r="Q37">
         <v>588</v>
       </c>
-      <c r="N37">
+      <c r="R37">
         <v>71</v>
       </c>
-      <c r="O37">
+      <c r="S37">
         <v>345</v>
       </c>
-      <c r="P37">
+      <c r="T37" s="11">
+        <f t="shared" si="3"/>
+        <v>1185</v>
+      </c>
+      <c r="U37">
         <v>3491</v>
       </c>
-      <c r="Q37">
+      <c r="V37">
         <v>359</v>
       </c>
-      <c r="R37">
+      <c r="W37">
         <v>9</v>
       </c>
-      <c r="S37">
+      <c r="X37">
         <v>359</v>
       </c>
-      <c r="T37">
+      <c r="Y37">
         <v>246</v>
       </c>
-      <c r="U37">
+      <c r="Z37">
         <v>9</v>
       </c>
-      <c r="V37">
+      <c r="AA37">
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -2950,68 +3701,88 @@
         <v>5919</v>
       </c>
       <c r="C38">
+        <f t="shared" si="4"/>
+        <v>87.018523963540147</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>-0.79388415172007853</v>
+      </c>
+      <c r="E38">
         <v>20</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>18</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>10.4</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>1</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>8.3629999999999995</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>17.78</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>1.6764000000000001</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="10">
         <f t="shared" si="0"/>
-        <v>0.98777777777777787</v>
-      </c>
-      <c r="L38">
+        <v>30.019400000000001</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="1"/>
+        <v>12.2394</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6677444444444445</v>
+      </c>
+      <c r="P38">
         <v>192</v>
       </c>
-      <c r="M38">
+      <c r="Q38">
         <v>565</v>
       </c>
-      <c r="N38">
+      <c r="R38">
         <v>81</v>
       </c>
-      <c r="O38">
+      <c r="S38">
         <v>359</v>
       </c>
-      <c r="P38">
+      <c r="T38" s="11">
+        <f t="shared" si="3"/>
+        <v>1197</v>
+      </c>
+      <c r="U38">
         <v>2843</v>
       </c>
-      <c r="Q38">
+      <c r="V38">
         <v>518</v>
       </c>
-      <c r="R38">
+      <c r="W38">
         <v>27</v>
       </c>
-      <c r="S38">
+      <c r="X38">
         <v>334</v>
       </c>
-      <c r="T38">
+      <c r="Y38">
         <v>178</v>
       </c>
-      <c r="U38">
+      <c r="Z38">
         <v>14</v>
       </c>
-      <c r="V38">
+      <c r="AA38">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -3019,68 +3790,88 @@
         <v>5891</v>
       </c>
       <c r="C39">
+        <f t="shared" si="4"/>
+        <v>86.606880329314919</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>-0.41164363422522854</v>
+      </c>
+      <c r="E39">
         <v>20</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>18</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>10.5</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>1</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>7.7290000000000001</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>10.220000000000001</v>
       </c>
-      <c r="I39" s="2">
+      <c r="K39" s="2">
         <v>1.77</v>
       </c>
-      <c r="J39" s="2">
+      <c r="L39" s="2">
         <v>1.3464</v>
       </c>
-      <c r="K39" s="2">
+      <c r="M39" s="10">
         <f t="shared" si="0"/>
-        <v>0.56777777777777783</v>
-      </c>
-      <c r="L39">
+        <v>21.0654</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="1"/>
+        <v>10.845400000000001</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1703000000000001</v>
+      </c>
+      <c r="P39">
         <v>185</v>
       </c>
-      <c r="M39">
+      <c r="Q39">
         <v>561</v>
       </c>
-      <c r="N39">
+      <c r="R39">
         <v>74</v>
       </c>
-      <c r="O39">
+      <c r="S39">
         <v>360</v>
       </c>
-      <c r="P39">
+      <c r="T39" s="11">
+        <f t="shared" si="3"/>
+        <v>1180</v>
+      </c>
+      <c r="U39">
         <v>4159</v>
       </c>
-      <c r="Q39">
+      <c r="V39">
         <v>339</v>
       </c>
-      <c r="R39">
+      <c r="W39">
         <v>17</v>
       </c>
-      <c r="S39">
+      <c r="X39">
         <v>298</v>
       </c>
-      <c r="T39">
+      <c r="Y39">
         <v>110</v>
       </c>
-      <c r="U39">
+      <c r="Z39">
         <v>19</v>
       </c>
-      <c r="V39">
+      <c r="AA39">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3088,68 +3879,88 @@
         <v>5862</v>
       </c>
       <c r="C40">
+        <f t="shared" si="4"/>
+        <v>86.180535136724501</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>-0.42634519259041781</v>
+      </c>
+      <c r="E40">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>10.7</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>1</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>8.9870000000000001</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>12.39</v>
       </c>
-      <c r="I40" s="2">
+      <c r="K40" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J40" s="2">
+      <c r="L40" s="2">
         <v>1.5840000000000001</v>
       </c>
-      <c r="K40" s="2">
+      <c r="M40" s="10">
         <f t="shared" si="0"/>
-        <v>0.68833333333333335</v>
-      </c>
-      <c r="L40">
+        <v>25.161000000000001</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="1"/>
+        <v>12.771000000000001</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3978333333333335</v>
+      </c>
+      <c r="P40">
         <v>157</v>
       </c>
-      <c r="M40">
+      <c r="Q40">
         <v>568</v>
       </c>
-      <c r="N40">
+      <c r="R40">
         <v>69</v>
       </c>
-      <c r="O40">
+      <c r="S40">
         <v>374</v>
       </c>
-      <c r="P40">
+      <c r="T40" s="11">
+        <f t="shared" si="3"/>
+        <v>1168</v>
+      </c>
+      <c r="U40">
         <v>4775</v>
       </c>
-      <c r="Q40">
+      <c r="V40">
         <v>238</v>
       </c>
-      <c r="R40">
+      <c r="W40">
         <v>25</v>
       </c>
-      <c r="S40">
+      <c r="X40">
         <v>320</v>
       </c>
-      <c r="T40">
+      <c r="Y40">
         <v>42</v>
       </c>
-      <c r="U40">
+      <c r="Z40">
         <v>25</v>
       </c>
-      <c r="V40">
+      <c r="AA40">
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3157,68 +3968,88 @@
         <v>5821</v>
       </c>
       <c r="C41">
+        <f t="shared" si="4"/>
+        <v>85.57777124375184</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>-0.60276389297266064</v>
+      </c>
+      <c r="E41">
         <v>20</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>18</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>11</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>1</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>10.718999999999999</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>18.55</v>
       </c>
-      <c r="I41" s="2">
+      <c r="K41" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="J41" s="2">
+      <c r="L41" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="K41" s="2">
+      <c r="M41" s="10">
         <f t="shared" si="0"/>
-        <v>1.0305555555555557</v>
-      </c>
-      <c r="L41">
+        <v>33.581000000000003</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="1"/>
+        <v>15.030999999999999</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8656111111111113</v>
+      </c>
+      <c r="P41">
         <v>157</v>
       </c>
-      <c r="M41">
+      <c r="Q41">
         <v>560</v>
       </c>
-      <c r="N41">
+      <c r="R41">
         <v>71</v>
       </c>
-      <c r="O41">
+      <c r="S41">
         <v>361</v>
       </c>
-      <c r="P41">
+      <c r="T41" s="11">
+        <f t="shared" si="3"/>
+        <v>1149</v>
+      </c>
+      <c r="U41">
         <v>5072</v>
       </c>
-      <c r="Q41">
+      <c r="V41">
         <v>362</v>
       </c>
-      <c r="R41">
+      <c r="W41">
         <v>25</v>
       </c>
-      <c r="S41">
+      <c r="X41">
         <v>161</v>
       </c>
-      <c r="T41">
+      <c r="Y41">
         <v>61</v>
       </c>
-      <c r="U41">
+      <c r="Z41">
         <v>8</v>
       </c>
-      <c r="V41">
+      <c r="AA41">
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -3226,68 +4057,88 @@
         <v>5788</v>
       </c>
       <c r="C42">
+        <f t="shared" si="4"/>
+        <v>85.09261981770068</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>-0.48515142605116068</v>
+      </c>
+      <c r="E42">
         <v>20</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>18</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>11</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>1</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>8.6880000000000006</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>15.89</v>
       </c>
-      <c r="I42" s="2">
+      <c r="K42" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="J42" s="2">
+      <c r="L42" s="2">
         <v>1.5312000000000001</v>
       </c>
-      <c r="K42" s="2">
+      <c r="M42" s="10">
         <f t="shared" si="0"/>
-        <v>0.88277777777777777</v>
-      </c>
-      <c r="L42">
+        <v>28.539200000000001</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="1"/>
+        <v>12.6492</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5855111111111111</v>
+      </c>
+      <c r="P42">
         <v>133</v>
       </c>
-      <c r="M42">
+      <c r="Q42">
         <v>574</v>
       </c>
-      <c r="N42">
+      <c r="R42">
         <v>78</v>
       </c>
-      <c r="O42">
+      <c r="S42">
         <v>349</v>
       </c>
-      <c r="P42">
+      <c r="T42" s="11">
+        <f t="shared" si="3"/>
+        <v>1134</v>
+      </c>
+      <c r="U42">
         <v>5365</v>
       </c>
-      <c r="Q42">
+      <c r="V42">
         <v>252</v>
       </c>
-      <c r="R42">
+      <c r="W42">
         <v>10</v>
       </c>
-      <c r="S42">
+      <c r="X42">
         <v>236</v>
       </c>
-      <c r="T42">
+      <c r="Y42">
         <v>128</v>
       </c>
-      <c r="U42">
+      <c r="Z42">
         <v>6</v>
       </c>
-      <c r="V42">
+      <c r="AA42">
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -3295,68 +4146,88 @@
         <v>5776</v>
       </c>
       <c r="C43">
+        <f t="shared" si="4"/>
+        <v>84.916201117318437</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>-0.17641870038224283</v>
+      </c>
+      <c r="E43">
         <v>20</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>11</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>1</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>7.7290000000000001</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>12.67</v>
       </c>
-      <c r="I43" s="2">
+      <c r="K43" s="2">
         <v>1.87</v>
       </c>
-      <c r="J43" s="2">
+      <c r="L43" s="2">
         <v>1.4387999999999999</v>
       </c>
-      <c r="K43" s="2">
+      <c r="M43" s="10">
         <f t="shared" si="0"/>
-        <v>0.7038888888888889</v>
-      </c>
-      <c r="L43">
+        <v>23.707800000000002</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="1"/>
+        <v>11.037800000000001</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3171000000000002</v>
+      </c>
+      <c r="P43">
         <v>118</v>
       </c>
-      <c r="M43">
+      <c r="Q43">
         <v>565</v>
       </c>
-      <c r="N43">
+      <c r="R43">
         <v>76</v>
       </c>
-      <c r="O43">
+      <c r="S43">
         <v>311</v>
       </c>
-      <c r="P43">
+      <c r="T43" s="11">
+        <f t="shared" si="3"/>
+        <v>1070</v>
+      </c>
+      <c r="U43">
         <v>8340</v>
       </c>
-      <c r="Q43">
+      <c r="V43">
         <v>230</v>
       </c>
-      <c r="R43">
+      <c r="W43">
         <v>232</v>
       </c>
-      <c r="S43">
+      <c r="X43">
         <v>150</v>
       </c>
-      <c r="T43">
+      <c r="Y43">
         <v>181</v>
       </c>
-      <c r="U43">
+      <c r="Z43">
         <v>232</v>
       </c>
-      <c r="V43">
+      <c r="AA43">
         <v>626</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -3364,68 +4235,88 @@
         <v>5718</v>
       </c>
       <c r="C44">
+        <f t="shared" si="4"/>
+        <v>84.063510732137615</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>-0.85269038518082141</v>
+      </c>
+      <c r="E44">
         <v>20</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>18</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>11</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>1</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>7.7290000000000001</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>8.89</v>
       </c>
-      <c r="I44" s="2">
+      <c r="K44" s="2">
         <v>1.77</v>
       </c>
-      <c r="J44" s="2">
+      <c r="L44" s="2">
         <v>1.3728</v>
       </c>
-      <c r="K44" s="2">
+      <c r="M44" s="10">
         <f t="shared" si="0"/>
-        <v>0.49388888888888893</v>
-      </c>
-      <c r="L44">
+        <v>19.761800000000001</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="1"/>
+        <v>10.8718</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0978777777777777</v>
+      </c>
+      <c r="P44">
         <v>87</v>
       </c>
-      <c r="M44">
+      <c r="Q44">
         <v>566</v>
       </c>
-      <c r="N44">
+      <c r="R44">
         <v>69</v>
       </c>
-      <c r="O44">
+      <c r="S44">
         <v>315</v>
       </c>
-      <c r="P44">
+      <c r="T44" s="11">
+        <f t="shared" si="3"/>
+        <v>1037</v>
+      </c>
+      <c r="U44">
         <v>6490</v>
       </c>
-      <c r="Q44">
+      <c r="V44">
         <v>136</v>
       </c>
-      <c r="R44">
+      <c r="W44">
         <v>71</v>
       </c>
-      <c r="S44">
+      <c r="X44">
         <v>161</v>
       </c>
-      <c r="T44">
+      <c r="Y44">
         <v>62</v>
       </c>
-      <c r="U44">
+      <c r="Z44">
         <v>39</v>
       </c>
-      <c r="V44">
+      <c r="AA44">
         <v>716</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -3433,68 +4324,88 @@
         <v>5641</v>
       </c>
       <c r="C45">
+        <f t="shared" si="4"/>
+        <v>82.93149073801824</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>-1.1320199941193749</v>
+      </c>
+      <c r="E45">
         <v>20</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>18</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>11.1</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>1</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>7.1150000000000002</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>9.17</v>
       </c>
-      <c r="I45" s="2">
+      <c r="K45" s="2">
         <v>1.64</v>
       </c>
-      <c r="J45" s="2">
+      <c r="L45" s="2">
         <v>1.3464</v>
       </c>
-      <c r="K45" s="2">
+      <c r="M45" s="10">
         <f t="shared" si="0"/>
-        <v>0.50944444444444448</v>
-      </c>
-      <c r="L45">
+        <v>19.2714</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="1"/>
+        <v>10.101400000000002</v>
+      </c>
+      <c r="O45" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0706333333333333</v>
+      </c>
+      <c r="P45">
         <v>96</v>
       </c>
-      <c r="M45">
+      <c r="Q45">
         <v>526</v>
       </c>
-      <c r="N45">
+      <c r="R45">
         <v>70</v>
       </c>
-      <c r="O45">
+      <c r="S45">
         <v>322</v>
       </c>
-      <c r="P45">
+      <c r="T45" s="11">
+        <f t="shared" si="3"/>
+        <v>1014</v>
+      </c>
+      <c r="U45">
         <v>6044</v>
       </c>
-      <c r="Q45">
+      <c r="V45">
         <v>214</v>
       </c>
-      <c r="R45">
+      <c r="W45">
         <v>12</v>
       </c>
-      <c r="S45">
+      <c r="X45">
         <v>63</v>
       </c>
-      <c r="T45">
+      <c r="Y45">
         <v>66</v>
       </c>
-      <c r="U45">
+      <c r="Z45">
         <v>12</v>
       </c>
-      <c r="V45">
+      <c r="AA45">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -3502,68 +4413,88 @@
         <v>5595</v>
       </c>
       <c r="C46">
+        <f t="shared" si="4"/>
+        <v>82.255219053219648</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>-0.67627168479859279</v>
+      </c>
+      <c r="E46">
         <v>20</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>18</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>11.2</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>1</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>9.2829999999999995</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>10.220000000000001</v>
       </c>
-      <c r="I46" s="2">
+      <c r="K46" s="2">
         <v>2.59</v>
       </c>
-      <c r="J46" s="2">
+      <c r="L46" s="2">
         <v>1.518</v>
       </c>
-      <c r="K46" s="2">
+      <c r="M46" s="10">
         <f t="shared" si="0"/>
-        <v>0.56777777777777783</v>
-      </c>
-      <c r="L46">
+        <v>23.611000000000001</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" si="1"/>
+        <v>13.391</v>
+      </c>
+      <c r="O46" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3117222222222222</v>
+      </c>
+      <c r="P46">
         <v>93</v>
       </c>
-      <c r="M46">
+      <c r="Q46">
         <v>496</v>
       </c>
-      <c r="N46">
+      <c r="R46">
         <v>72</v>
       </c>
-      <c r="O46">
+      <c r="S46">
         <v>330</v>
       </c>
-      <c r="P46">
+      <c r="T46" s="11">
+        <f t="shared" si="3"/>
+        <v>991</v>
+      </c>
+      <c r="U46">
         <v>6002</v>
       </c>
-      <c r="Q46">
+      <c r="V46">
         <v>269</v>
       </c>
-      <c r="R46">
+      <c r="W46">
         <v>50</v>
       </c>
-      <c r="S46">
+      <c r="X46">
         <v>62</v>
       </c>
-      <c r="T46">
+      <c r="Y46">
         <v>76</v>
       </c>
-      <c r="U46">
+      <c r="Z46">
         <v>25</v>
       </c>
-      <c r="V46">
+      <c r="AA46">
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -3571,68 +4502,88 @@
         <v>5523</v>
       </c>
       <c r="C47">
+        <f t="shared" si="4"/>
+        <v>81.196706850926205</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>-1.0585122022934428</v>
+      </c>
+      <c r="E47">
         <v>20</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>21</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>11.4</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>1</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>10.127000000000001</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>12.11</v>
       </c>
-      <c r="I47" s="6">
+      <c r="K47" s="6">
         <v>2.74</v>
       </c>
-      <c r="J47" s="6">
+      <c r="L47" s="6">
         <v>2.0592000000000001</v>
       </c>
-      <c r="K47" s="2">
+      <c r="M47" s="10">
         <f t="shared" si="0"/>
-        <v>0.57666666666666666</v>
-      </c>
-      <c r="L47">
+        <v>27.036200000000004</v>
+      </c>
+      <c r="N47" s="10">
+        <f t="shared" si="1"/>
+        <v>14.926200000000001</v>
+      </c>
+      <c r="O47" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2874380952380955</v>
+      </c>
+      <c r="P47">
         <v>102</v>
       </c>
-      <c r="M47">
+      <c r="Q47">
         <v>488</v>
       </c>
-      <c r="N47">
+      <c r="R47">
         <v>61</v>
       </c>
-      <c r="O47">
+      <c r="S47">
         <v>323</v>
       </c>
-      <c r="P47">
+      <c r="T47" s="11">
+        <f t="shared" si="3"/>
+        <v>974</v>
+      </c>
+      <c r="U47">
         <v>6575</v>
       </c>
-      <c r="Q47">
+      <c r="V47">
         <v>329</v>
       </c>
-      <c r="R47">
+      <c r="W47">
         <v>38</v>
       </c>
-      <c r="S47">
+      <c r="X47">
         <v>59</v>
       </c>
-      <c r="T47">
+      <c r="Y47">
         <v>31</v>
       </c>
-      <c r="U47">
+      <c r="Z47">
         <v>36</v>
       </c>
-      <c r="V47">
+      <c r="AA47">
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -3640,68 +4591,88 @@
         <v>5487</v>
       </c>
       <c r="C48">
+        <f t="shared" si="4"/>
+        <v>80.667450749779476</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>-0.5292561011467285</v>
+      </c>
+      <c r="E48">
         <v>20</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>24</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>11.4</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>1</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>12.676</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>14</v>
       </c>
-      <c r="I48" s="2">
+      <c r="K48" s="2">
         <v>3.2</v>
       </c>
-      <c r="J48" s="2">
+      <c r="L48" s="2">
         <v>1.9668000000000001</v>
       </c>
-      <c r="K48" s="2">
+      <c r="M48" s="10">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="L48">
+        <v>31.8428</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" si="1"/>
+        <v>17.8428</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3267833333333334</v>
+      </c>
+      <c r="P48">
         <v>88</v>
       </c>
-      <c r="M48">
+      <c r="Q48">
         <v>475</v>
       </c>
-      <c r="N48">
+      <c r="R48">
         <v>69</v>
       </c>
-      <c r="O48">
+      <c r="S48">
         <v>308</v>
       </c>
-      <c r="P48">
+      <c r="T48" s="11">
+        <f t="shared" si="3"/>
+        <v>940</v>
+      </c>
+      <c r="U48">
         <v>7022</v>
       </c>
-      <c r="Q48">
+      <c r="V48">
         <v>360</v>
       </c>
-      <c r="R48">
+      <c r="W48">
         <v>71</v>
       </c>
-      <c r="S48">
+      <c r="X48">
         <v>52</v>
       </c>
-      <c r="T48">
+      <c r="Y48">
         <v>57</v>
       </c>
-      <c r="U48">
+      <c r="Z48">
         <v>30</v>
       </c>
-      <c r="V48">
+      <c r="AA48">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -3709,68 +4680,88 @@
         <v>5466</v>
       </c>
       <c r="C49">
+        <f t="shared" si="4"/>
+        <v>80.358718024110559</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="5"/>
+        <v>-0.30873272566891785</v>
+      </c>
+      <c r="E49">
         <v>20</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>24</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>11.4</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>1</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>10.718999999999999</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>12.39</v>
       </c>
-      <c r="I49" s="2">
+      <c r="K49" s="2">
         <v>3</v>
       </c>
-      <c r="J49" s="2">
+      <c r="L49" s="2">
         <v>2.0460000000000003</v>
       </c>
-      <c r="K49" s="2">
+      <c r="M49" s="10">
         <f t="shared" si="0"/>
-        <v>0.51624999999999999</v>
-      </c>
-      <c r="L49">
+        <v>28.155000000000001</v>
+      </c>
+      <c r="N49" s="10">
+        <f t="shared" si="1"/>
+        <v>15.765000000000001</v>
+      </c>
+      <c r="O49" s="10">
+        <f t="shared" si="2"/>
+        <v>1.173125</v>
+      </c>
+      <c r="P49">
         <v>93</v>
       </c>
-      <c r="M49">
+      <c r="Q49">
         <v>486</v>
       </c>
-      <c r="N49">
+      <c r="R49">
         <v>75</v>
       </c>
-      <c r="O49">
+      <c r="S49">
         <v>320</v>
       </c>
-      <c r="P49">
+      <c r="T49" s="11">
+        <f t="shared" si="3"/>
+        <v>974</v>
+      </c>
+      <c r="U49">
         <v>7103</v>
       </c>
-      <c r="Q49">
+      <c r="V49">
         <v>159</v>
       </c>
-      <c r="R49">
+      <c r="W49">
         <v>36</v>
       </c>
-      <c r="S49">
+      <c r="X49">
         <v>52</v>
       </c>
-      <c r="T49">
+      <c r="Y49">
         <v>75</v>
       </c>
-      <c r="U49">
+      <c r="Z49">
         <v>35</v>
       </c>
-      <c r="V49">
+      <c r="AA49">
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -3778,68 +4769,88 @@
         <v>5449</v>
       </c>
       <c r="C50">
+        <f t="shared" si="4"/>
+        <v>80.108791531902384</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>-0.24992649220817498</v>
+      </c>
+      <c r="E50">
         <v>20</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>24</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>11.7</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>1</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>10.512</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>10.78</v>
       </c>
-      <c r="I50" s="2">
+      <c r="K50" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J50" s="2">
+      <c r="L50" s="2">
         <v>1.9536000000000002</v>
       </c>
-      <c r="K50" s="2">
+      <c r="M50" s="10">
         <f t="shared" si="0"/>
-        <v>0.44916666666666666</v>
-      </c>
-      <c r="L50">
+        <v>25.755600000000001</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" si="1"/>
+        <v>14.9756</v>
+      </c>
+      <c r="O50" s="10">
+        <f t="shared" si="2"/>
+        <v>1.07315</v>
+      </c>
+      <c r="P50">
         <v>87</v>
       </c>
-      <c r="M50">
+      <c r="Q50">
         <v>481</v>
       </c>
-      <c r="N50">
+      <c r="R50">
         <v>90</v>
       </c>
-      <c r="O50">
+      <c r="S50">
         <v>320</v>
       </c>
-      <c r="P50">
+      <c r="T50" s="11">
+        <f t="shared" si="3"/>
+        <v>978</v>
+      </c>
+      <c r="U50">
         <v>8003</v>
       </c>
-      <c r="Q50">
+      <c r="V50">
         <v>213</v>
       </c>
-      <c r="R50">
+      <c r="W50">
         <v>41</v>
       </c>
-      <c r="S50">
+      <c r="X50">
         <v>51</v>
       </c>
-      <c r="T50">
+      <c r="Y50">
         <v>93</v>
       </c>
-      <c r="U50">
+      <c r="Z50">
         <v>40</v>
       </c>
-      <c r="V50">
+      <c r="AA50">
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -3847,68 +4858,88 @@
         <v>5419</v>
       </c>
       <c r="C51">
+        <f t="shared" si="4"/>
+        <v>79.667744780946791</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>-0.44104675095559287</v>
+      </c>
+      <c r="E51">
         <v>24</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>24</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>12</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>0</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>9.8309999999999995</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>12.95</v>
       </c>
-      <c r="I51" s="2">
+      <c r="K51" s="2">
         <v>2.15</v>
       </c>
-      <c r="J51" s="2">
+      <c r="L51" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="K51" s="2">
+      <c r="M51" s="10">
         <f t="shared" si="0"/>
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="L51">
+        <v>26.488599999999998</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" si="1"/>
+        <v>13.538600000000001</v>
+      </c>
+      <c r="O51" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1036916666666665</v>
+      </c>
+      <c r="P51">
         <v>80</v>
       </c>
-      <c r="M51">
+      <c r="Q51">
         <v>461</v>
       </c>
-      <c r="N51">
+      <c r="R51">
         <v>97</v>
       </c>
-      <c r="O51">
+      <c r="S51">
         <v>319</v>
       </c>
-      <c r="P51">
+      <c r="T51" s="11">
+        <f t="shared" si="3"/>
+        <v>957</v>
+      </c>
+      <c r="U51">
         <v>7704</v>
       </c>
-      <c r="Q51">
+      <c r="V51">
         <v>259</v>
       </c>
-      <c r="R51">
+      <c r="W51">
         <v>55</v>
       </c>
-      <c r="S51">
+      <c r="X51">
         <v>50</v>
       </c>
-      <c r="T51">
+      <c r="Y51">
         <v>110</v>
       </c>
-      <c r="U51">
+      <c r="Z51">
         <v>45</v>
       </c>
-      <c r="V51">
+      <c r="AA51">
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -3916,68 +4947,88 @@
         <v>5398</v>
       </c>
       <c r="C52">
+        <f t="shared" si="4"/>
+        <v>79.359012055277859</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>-0.30873272566893206</v>
+      </c>
+      <c r="E52">
         <v>24</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>24</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>12</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>10.007999999999999</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>13.72</v>
       </c>
-      <c r="I52" s="2">
+      <c r="K52" s="2">
         <v>2.61</v>
       </c>
-      <c r="J52" s="2">
+      <c r="L52" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="K52" s="2">
+      <c r="M52" s="10">
         <f t="shared" si="0"/>
-        <v>0.57166666666666666</v>
-      </c>
-      <c r="L52">
+        <v>28.040800000000001</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" si="1"/>
+        <v>14.320799999999998</v>
+      </c>
+      <c r="O52" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1683666666666668</v>
+      </c>
+      <c r="P52">
         <v>74</v>
       </c>
-      <c r="M52">
+      <c r="Q52">
         <v>458</v>
       </c>
-      <c r="N52">
+      <c r="R52">
         <v>89</v>
       </c>
-      <c r="O52">
+      <c r="S52">
         <v>322</v>
       </c>
-      <c r="P52">
+      <c r="T52" s="11">
+        <f t="shared" si="3"/>
+        <v>943</v>
+      </c>
+      <c r="U52">
         <v>8848</v>
       </c>
-      <c r="Q52">
+      <c r="V52">
         <v>401</v>
       </c>
-      <c r="R52">
+      <c r="W52">
         <v>75</v>
       </c>
-      <c r="S52">
+      <c r="X52">
         <v>49</v>
       </c>
-      <c r="T52">
+      <c r="Y52">
         <v>128</v>
       </c>
-      <c r="U52">
+      <c r="Z52">
         <v>50</v>
       </c>
-      <c r="V52">
+      <c r="AA52">
         <v>725</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -3985,68 +5036,88 @@
         <v>5373</v>
       </c>
       <c r="C53">
+        <f t="shared" si="4"/>
+        <v>78.991473096148198</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>-0.36753895912966073</v>
+      </c>
+      <c r="E53">
         <v>24</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>26</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>12</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>9.51</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>21.84</v>
       </c>
-      <c r="I53" s="2">
+      <c r="K53" s="2">
         <v>2.64</v>
       </c>
-      <c r="J53" s="2">
+      <c r="L53" s="2">
         <v>1.7556</v>
       </c>
-      <c r="K53" s="2">
+      <c r="M53" s="10">
         <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-      <c r="L53">
+        <v>35.745600000000003</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" si="1"/>
+        <v>13.9056</v>
+      </c>
+      <c r="O53" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3748307692307693</v>
+      </c>
+      <c r="P53">
         <v>66</v>
       </c>
-      <c r="M53">
+      <c r="Q53">
         <v>451</v>
       </c>
-      <c r="N53">
+      <c r="R53">
         <v>88</v>
       </c>
-      <c r="O53">
+      <c r="S53">
         <v>301</v>
       </c>
-      <c r="P53">
+      <c r="T53" s="11">
+        <f t="shared" si="3"/>
+        <v>906</v>
+      </c>
+      <c r="U53">
         <v>9584</v>
       </c>
-      <c r="Q53">
+      <c r="V53">
         <v>784</v>
       </c>
-      <c r="R53">
+      <c r="W53">
         <v>95</v>
       </c>
-      <c r="S53">
+      <c r="X53">
         <v>48</v>
       </c>
-      <c r="T53">
+      <c r="Y53">
         <v>145</v>
       </c>
-      <c r="U53">
+      <c r="Z53">
         <v>55</v>
       </c>
-      <c r="V53">
+      <c r="AA53">
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -4054,68 +5125,88 @@
         <v>5328</v>
       </c>
       <c r="C54">
+        <f t="shared" si="4"/>
+        <v>78.329902969714794</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>-0.66157012643340352</v>
+      </c>
+      <c r="E54">
         <v>24</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>26</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>12</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>8.41</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>15.61</v>
       </c>
-      <c r="I54" s="2">
+      <c r="K54" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J54" s="2">
+      <c r="L54" s="2">
         <v>1.056</v>
       </c>
-      <c r="K54" s="2">
+      <c r="M54" s="10">
         <f t="shared" si="0"/>
-        <v>0.60038461538461541</v>
-      </c>
-      <c r="L54">
+        <v>27.586000000000002</v>
+      </c>
+      <c r="N54" s="10">
+        <f t="shared" si="1"/>
+        <v>11.975999999999999</v>
+      </c>
+      <c r="O54" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0610000000000002</v>
+      </c>
+      <c r="P54">
         <v>50</v>
       </c>
-      <c r="M54">
+      <c r="Q54">
         <v>415</v>
       </c>
-      <c r="N54">
+      <c r="R54">
         <v>92</v>
       </c>
-      <c r="O54">
+      <c r="S54">
         <v>272</v>
       </c>
-      <c r="P54">
+      <c r="T54" s="11">
+        <f t="shared" si="3"/>
+        <v>829</v>
+      </c>
+      <c r="U54">
         <v>8746</v>
       </c>
-      <c r="Q54">
+      <c r="V54">
         <v>603</v>
       </c>
-      <c r="R54">
+      <c r="W54">
         <v>139</v>
       </c>
-      <c r="S54">
+      <c r="X54">
         <v>47</v>
       </c>
-      <c r="T54">
+      <c r="Y54">
         <v>163</v>
       </c>
-      <c r="U54">
+      <c r="Z54">
         <v>60</v>
       </c>
-      <c r="V54">
+      <c r="AA54">
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -4123,68 +5214,88 @@
         <v>5299</v>
       </c>
       <c r="C55">
+        <f t="shared" si="4"/>
+        <v>77.903557777124377</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>-0.42634519259041781</v>
+      </c>
+      <c r="E55">
         <v>26</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>26</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>12</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>11.162000000000001</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>9.94</v>
       </c>
-      <c r="I55" s="2">
+      <c r="K55" s="2">
         <v>1.95</v>
       </c>
-      <c r="J55" s="2">
+      <c r="L55" s="2">
         <v>1.7424000000000002</v>
       </c>
-      <c r="K55" s="2">
+      <c r="M55" s="10">
         <f t="shared" si="0"/>
-        <v>0.38230769230769229</v>
-      </c>
-      <c r="L55">
+        <v>24.7944</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" si="1"/>
+        <v>14.8544</v>
+      </c>
+      <c r="O55" s="10">
+        <f t="shared" si="2"/>
+        <v>0.95363076923076917</v>
+      </c>
+      <c r="P55">
         <v>57</v>
       </c>
-      <c r="M55">
+      <c r="Q55">
         <v>403</v>
       </c>
-      <c r="N55">
+      <c r="R55">
         <v>85</v>
       </c>
-      <c r="O55">
+      <c r="S55">
         <v>270</v>
       </c>
-      <c r="P55">
+      <c r="T55" s="11">
+        <f t="shared" si="3"/>
+        <v>815</v>
+      </c>
+      <c r="U55">
         <v>9113</v>
       </c>
-      <c r="Q55">
+      <c r="V55">
         <v>350</v>
       </c>
-      <c r="R55">
+      <c r="W55">
         <v>114</v>
       </c>
-      <c r="S55">
+      <c r="X55">
         <v>46</v>
       </c>
-      <c r="T55">
+      <c r="Y55">
         <v>181</v>
       </c>
-      <c r="U55">
+      <c r="Z55">
         <v>65</v>
       </c>
-      <c r="V55">
+      <c r="AA55">
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -4192,68 +5303,88 @@
         <v>5279</v>
       </c>
       <c r="C56">
+        <f t="shared" si="4"/>
+        <v>77.609526609820648</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>-0.29403116730372858</v>
+      </c>
+      <c r="E56">
         <v>26</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>26</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>12</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>0</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>10.16</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>11.34</v>
       </c>
-      <c r="I56" s="2">
+      <c r="K56" s="2">
         <v>1.97</v>
       </c>
-      <c r="J56" s="2">
+      <c r="L56" s="2">
         <v>1.6632000000000002</v>
       </c>
-      <c r="K56" s="2">
+      <c r="M56" s="10">
         <f t="shared" si="0"/>
-        <v>0.43615384615384617</v>
-      </c>
-      <c r="L56">
+        <v>25.133199999999999</v>
+      </c>
+      <c r="N56" s="10">
+        <f t="shared" si="1"/>
+        <v>13.793200000000001</v>
+      </c>
+      <c r="O56" s="10">
+        <f t="shared" si="2"/>
+        <v>0.96666153846153846</v>
+      </c>
+      <c r="P56">
         <v>47</v>
       </c>
-      <c r="M56">
+      <c r="Q56">
         <v>408</v>
       </c>
-      <c r="N56">
+      <c r="R56">
         <v>93</v>
       </c>
-      <c r="O56">
+      <c r="S56">
         <v>272</v>
       </c>
-      <c r="P56">
+      <c r="T56" s="11">
+        <f t="shared" si="3"/>
+        <v>820</v>
+      </c>
+      <c r="U56">
         <v>11251</v>
       </c>
-      <c r="Q56">
+      <c r="V56">
         <v>543</v>
       </c>
-      <c r="R56">
+      <c r="W56">
         <v>122</v>
       </c>
-      <c r="S56">
+      <c r="X56">
         <v>45</v>
       </c>
-      <c r="T56">
+      <c r="Y56">
         <v>198</v>
       </c>
-      <c r="U56">
+      <c r="Z56">
         <v>70</v>
       </c>
-      <c r="V56">
+      <c r="AA56">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -4261,275 +5392,355 @@
         <v>5278</v>
       </c>
       <c r="C57">
+        <f t="shared" si="4"/>
+        <v>77.594825051455459</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>-1.4701558365189271E-2</v>
+      </c>
+      <c r="E57">
         <v>26</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>27</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>12.1</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>0</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9.1850000000000005</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11.41</v>
       </c>
-      <c r="I57" s="6">
+      <c r="K57" s="6">
         <v>2.02</v>
       </c>
-      <c r="J57" s="6">
+      <c r="L57" s="6">
         <v>1.6104000000000003</v>
       </c>
-      <c r="K57" s="2">
+      <c r="M57" s="10">
         <f t="shared" si="0"/>
-        <v>0.42259259259259258</v>
-      </c>
-      <c r="L57">
+        <v>24.2254</v>
+      </c>
+      <c r="N57" s="10">
+        <f t="shared" si="1"/>
+        <v>12.8154</v>
+      </c>
+      <c r="O57" s="10">
+        <f t="shared" si="2"/>
+        <v>0.89723703703703706</v>
+      </c>
+      <c r="P57">
         <v>35</v>
       </c>
-      <c r="M57">
+      <c r="Q57">
         <v>407</v>
       </c>
-      <c r="N57">
+      <c r="R57">
         <v>88</v>
       </c>
-      <c r="O57">
+      <c r="S57">
         <v>266</v>
       </c>
-      <c r="P57">
+      <c r="T57" s="11">
+        <f t="shared" si="3"/>
+        <v>796</v>
+      </c>
+      <c r="U57">
         <v>10575</v>
       </c>
-      <c r="Q57">
+      <c r="V57">
         <v>670</v>
       </c>
-      <c r="R57">
+      <c r="W57">
         <v>81</v>
       </c>
-      <c r="S57">
+      <c r="X57">
         <v>45</v>
       </c>
-      <c r="T57">
+      <c r="Y57">
         <v>216</v>
       </c>
-      <c r="U57">
+      <c r="Z57">
         <v>75</v>
       </c>
-      <c r="V57">
+      <c r="AA57">
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
       <c r="B58" s="14">
         <v>5286</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>77.712437518376959</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>0.11761246692149996</v>
+      </c>
+      <c r="E58" s="14">
         <v>26</v>
       </c>
-      <c r="D58" s="14">
+      <c r="F58" s="14">
         <v>28</v>
       </c>
-      <c r="E58" s="14">
+      <c r="G58" s="14">
         <v>12.1</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>0</v>
       </c>
-      <c r="G58" s="14">
+      <c r="I58" s="4">
         <v>10.007999999999999</v>
       </c>
-      <c r="H58" s="14">
+      <c r="J58" s="14">
         <v>19.39</v>
       </c>
-      <c r="I58" s="15">
+      <c r="K58" s="15">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J58" s="15">
+      <c r="L58" s="15">
         <v>1.7292000000000001</v>
       </c>
-      <c r="K58" s="2">
+      <c r="M58" s="10">
         <f t="shared" si="0"/>
-        <v>0.6925</v>
-      </c>
-      <c r="L58" s="14">
+        <v>33.407200000000003</v>
+      </c>
+      <c r="N58" s="10">
+        <f t="shared" si="1"/>
+        <v>14.017199999999999</v>
+      </c>
+      <c r="O58" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1931142857142858</v>
+      </c>
+      <c r="P58" s="14">
         <v>42</v>
       </c>
-      <c r="M58" s="14">
+      <c r="Q58" s="14">
         <v>403</v>
       </c>
-      <c r="N58" s="14">
+      <c r="R58" s="14">
         <v>90</v>
       </c>
-      <c r="O58" s="14">
+      <c r="S58" s="14">
         <v>262</v>
       </c>
-      <c r="P58" s="14">
+      <c r="T58" s="11">
+        <f t="shared" si="3"/>
+        <v>797</v>
+      </c>
+      <c r="U58" s="14">
         <v>9836</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="V58" s="14">
         <v>778</v>
       </c>
-      <c r="R58" s="14">
+      <c r="W58" s="14">
         <v>208</v>
       </c>
-      <c r="S58" s="14">
+      <c r="X58" s="14">
         <v>44</v>
       </c>
-      <c r="T58" s="14">
+      <c r="Y58" s="14">
         <v>233</v>
       </c>
-      <c r="U58" s="14">
+      <c r="Z58" s="14">
         <v>80</v>
       </c>
-      <c r="V58" s="14">
+      <c r="AA58" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
       <c r="B59" s="14">
         <v>5282</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>77.653631284916202</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>-5.8806233460757085E-2</v>
+      </c>
+      <c r="E59" s="14">
         <v>28</v>
       </c>
-      <c r="D59" s="14">
+      <c r="F59" s="14">
         <v>28</v>
       </c>
-      <c r="E59" s="14">
+      <c r="G59" s="14">
         <v>12.1</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>0</v>
       </c>
-      <c r="G59" s="14">
+      <c r="I59" s="4">
         <v>10.512</v>
       </c>
-      <c r="H59" s="14">
+      <c r="J59" s="14">
         <v>14.56</v>
       </c>
-      <c r="I59" s="15">
+      <c r="K59" s="15">
         <v>1.84</v>
       </c>
-      <c r="J59" s="15">
+      <c r="L59" s="15">
         <v>1.6104000000000003</v>
       </c>
-      <c r="K59" s="2">
+      <c r="M59" s="10">
         <f t="shared" si="0"/>
-        <v>0.52</v>
-      </c>
-      <c r="L59" s="14">
+        <v>28.522400000000005</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" si="1"/>
+        <v>13.962400000000001</v>
+      </c>
+      <c r="O59" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0186571428571429</v>
+      </c>
+      <c r="P59" s="14">
         <v>48</v>
       </c>
-      <c r="M59" s="14">
+      <c r="Q59" s="14">
         <v>380</v>
       </c>
-      <c r="N59" s="14">
+      <c r="R59" s="14">
         <v>97</v>
       </c>
-      <c r="O59" s="14">
+      <c r="S59" s="14">
         <v>254</v>
       </c>
-      <c r="P59" s="14">
+      <c r="T59" s="11">
+        <f t="shared" si="3"/>
+        <v>779</v>
+      </c>
+      <c r="U59" s="14">
         <v>10545</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="V59" s="14">
         <v>858</v>
       </c>
-      <c r="R59" s="14">
+      <c r="W59" s="14">
         <v>179</v>
       </c>
-      <c r="S59" s="14">
+      <c r="X59" s="14">
         <v>43</v>
       </c>
-      <c r="T59" s="14">
+      <c r="Y59" s="14">
         <v>251</v>
       </c>
-      <c r="U59" s="14">
+      <c r="Z59" s="14">
         <v>85</v>
       </c>
-      <c r="V59" s="14">
+      <c r="AA59" s="14">
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
       <c r="B60" s="14">
         <v>5266</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>77.418406351073216</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>-0.23522493384298571</v>
+      </c>
+      <c r="E60" s="14">
         <v>28</v>
       </c>
-      <c r="D60" s="14">
+      <c r="F60" s="14">
         <v>28</v>
       </c>
-      <c r="E60" s="14">
+      <c r="G60" s="14">
         <v>12</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>0</v>
       </c>
-      <c r="G60" s="14">
+      <c r="I60" s="4">
         <v>10.59</v>
       </c>
-      <c r="H60" s="14">
+      <c r="J60" s="14">
         <v>19.95</v>
       </c>
-      <c r="I60" s="15">
+      <c r="K60" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J60" s="15">
+      <c r="L60" s="15">
         <v>1.5576000000000001</v>
       </c>
-      <c r="K60" s="2">
+      <c r="M60" s="10">
         <f t="shared" si="0"/>
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="L60" s="14">
+        <v>34.397599999999997</v>
+      </c>
+      <c r="N60" s="10">
+        <f t="shared" si="1"/>
+        <v>14.447600000000001</v>
+      </c>
+      <c r="O60" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2284857142857142</v>
+      </c>
+      <c r="P60" s="14">
         <v>48</v>
       </c>
-      <c r="M60" s="14">
+      <c r="Q60" s="14">
         <v>356</v>
       </c>
-      <c r="N60" s="14">
+      <c r="R60" s="14">
         <v>101</v>
       </c>
-      <c r="O60" s="14">
+      <c r="S60" s="14">
         <v>252</v>
       </c>
-      <c r="P60" s="14">
+      <c r="T60" s="11">
+        <f t="shared" si="3"/>
+        <v>757</v>
+      </c>
+      <c r="U60" s="14">
         <v>10008</v>
       </c>
-      <c r="Q60" s="14">
+      <c r="V60" s="14">
         <v>650</v>
       </c>
-      <c r="R60" s="14">
+      <c r="W60" s="14">
         <v>166</v>
       </c>
-      <c r="S60" s="14">
+      <c r="X60" s="14">
         <v>42</v>
       </c>
-      <c r="T60" s="14">
+      <c r="Y60" s="14">
         <v>269</v>
       </c>
-      <c r="U60" s="14">
+      <c r="Z60" s="14">
         <v>91</v>
       </c>
-      <c r="V60" s="14">
+      <c r="AA60" s="14">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -4537,68 +5748,88 @@
         <v>5203</v>
       </c>
       <c r="C61">
+        <f t="shared" si="4"/>
+        <v>76.492208174066462</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>-0.92619817700675355</v>
+      </c>
+      <c r="E61">
         <v>36</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>28</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>12</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>0</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>9.2829999999999995</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>9.94</v>
       </c>
-      <c r="I61" s="2">
+      <c r="K61" s="2">
         <v>1.95</v>
       </c>
-      <c r="J61" s="2">
+      <c r="L61" s="2">
         <v>1.5048000000000001</v>
       </c>
-      <c r="K61" s="2">
+      <c r="M61" s="10">
         <f t="shared" si="0"/>
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="L61">
+        <v>22.677799999999998</v>
+      </c>
+      <c r="N61" s="10">
+        <f t="shared" si="1"/>
+        <v>12.737799999999998</v>
+      </c>
+      <c r="O61" s="10">
+        <f t="shared" si="2"/>
+        <v>0.80992142857142846</v>
+      </c>
+      <c r="P61">
         <v>45</v>
       </c>
-      <c r="M61">
+      <c r="Q61">
         <v>378</v>
       </c>
-      <c r="N61">
+      <c r="R61">
         <v>87</v>
       </c>
-      <c r="O61">
+      <c r="S61">
         <v>247</v>
       </c>
-      <c r="P61">
+      <c r="T61" s="11">
+        <f t="shared" si="3"/>
+        <v>757</v>
+      </c>
+      <c r="U61">
         <v>9242</v>
       </c>
-      <c r="Q61">
+      <c r="V61">
         <v>632</v>
       </c>
-      <c r="R61">
+      <c r="W61">
         <v>140</v>
       </c>
-      <c r="S61">
+      <c r="X61">
         <v>41</v>
       </c>
-      <c r="T61">
+      <c r="Y61">
         <v>286</v>
       </c>
-      <c r="U61">
+      <c r="Z61">
         <v>96</v>
       </c>
-      <c r="V61">
+      <c r="AA61">
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -4606,68 +5837,88 @@
         <v>5146</v>
       </c>
       <c r="C62">
+        <f t="shared" si="4"/>
+        <v>75.654219347250816</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>-0.83798882681564635</v>
+      </c>
+      <c r="E62">
         <v>36</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>28</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>12</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>0</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>9.8309999999999995</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>7.56</v>
       </c>
-      <c r="I62" s="2">
+      <c r="K62" s="2">
         <v>2.12</v>
       </c>
-      <c r="J62" s="2">
+      <c r="L62" s="2">
         <v>1.4916</v>
       </c>
-      <c r="K62" s="2">
+      <c r="M62" s="10">
         <f t="shared" si="0"/>
-        <v>0.26999999999999996</v>
-      </c>
-      <c r="L62">
+        <v>21.002600000000001</v>
+      </c>
+      <c r="N62" s="10">
+        <f t="shared" si="1"/>
+        <v>13.442600000000001</v>
+      </c>
+      <c r="O62" s="10">
+        <f t="shared" si="2"/>
+        <v>0.75009285714285723</v>
+      </c>
+      <c r="P62">
         <v>47</v>
       </c>
-      <c r="M62">
+      <c r="Q62">
         <v>383</v>
       </c>
-      <c r="N62">
+      <c r="R62">
         <v>83</v>
       </c>
-      <c r="O62">
+      <c r="S62">
         <v>257</v>
       </c>
-      <c r="P62">
+      <c r="T62" s="11">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="U62">
         <v>7715</v>
       </c>
-      <c r="Q62">
+      <c r="V62">
         <v>637</v>
       </c>
-      <c r="R62">
+      <c r="W62">
         <v>101</v>
       </c>
-      <c r="S62">
+      <c r="X62">
         <v>40</v>
       </c>
-      <c r="T62">
+      <c r="Y62">
         <v>304</v>
       </c>
-      <c r="U62">
+      <c r="Z62">
         <v>101</v>
       </c>
-      <c r="V62">
+      <c r="AA62">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -4675,68 +5926,88 @@
         <v>5101</v>
       </c>
       <c r="C63">
+        <f t="shared" si="4"/>
+        <v>74.992649220817412</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>-0.66157012643340352</v>
+      </c>
+      <c r="E63">
         <v>36</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>28</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>12</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>9.6349999999999998</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>7.56</v>
       </c>
-      <c r="I63" s="2">
+      <c r="K63" s="2">
         <v>1.95</v>
       </c>
-      <c r="J63" s="2">
+      <c r="L63" s="2">
         <v>1.518</v>
       </c>
-      <c r="K63" s="2">
+      <c r="M63" s="10">
         <f t="shared" si="0"/>
-        <v>0.26999999999999996</v>
-      </c>
-      <c r="L63">
+        <v>20.663</v>
+      </c>
+      <c r="N63" s="10">
+        <f t="shared" si="1"/>
+        <v>13.103</v>
+      </c>
+      <c r="O63" s="10">
+        <f t="shared" si="2"/>
+        <v>0.73796428571428574</v>
+      </c>
+      <c r="P63">
         <v>46</v>
       </c>
-      <c r="M63">
+      <c r="Q63">
         <v>385</v>
       </c>
-      <c r="N63">
+      <c r="R63">
         <v>74</v>
       </c>
-      <c r="O63">
+      <c r="S63">
         <v>252</v>
       </c>
-      <c r="P63">
+      <c r="T63" s="11">
+        <f t="shared" si="3"/>
+        <v>757</v>
+      </c>
+      <c r="U63">
         <v>9899</v>
       </c>
-      <c r="Q63">
+      <c r="V63">
         <v>926</v>
       </c>
-      <c r="R63">
+      <c r="W63">
         <v>106</v>
       </c>
-      <c r="S63">
+      <c r="X63">
         <v>39</v>
       </c>
-      <c r="T63">
+      <c r="Y63">
         <v>322</v>
       </c>
-      <c r="U63">
+      <c r="Z63">
         <v>106</v>
       </c>
-      <c r="V63">
+      <c r="AA63">
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -4744,68 +6015,88 @@
         <v>5024</v>
       </c>
       <c r="C64">
+        <f t="shared" si="4"/>
+        <v>73.860629226698038</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>-1.1320199941193749</v>
+      </c>
+      <c r="E64">
         <v>36</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>28</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>12</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>9.7119999999999997</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>7.56</v>
       </c>
-      <c r="I64" s="2">
+      <c r="K64" s="2">
         <v>1.79</v>
       </c>
-      <c r="J64" s="2">
+      <c r="L64" s="2">
         <v>1.4652000000000001</v>
       </c>
-      <c r="K64" s="2">
+      <c r="M64" s="10">
         <f t="shared" si="0"/>
-        <v>0.26999999999999996</v>
-      </c>
-      <c r="L64">
+        <v>20.527199999999997</v>
+      </c>
+      <c r="N64" s="10">
+        <f t="shared" si="1"/>
+        <v>12.967199999999998</v>
+      </c>
+      <c r="O64" s="10">
+        <f t="shared" si="2"/>
+        <v>0.73311428571428561</v>
+      </c>
+      <c r="P64">
         <v>27</v>
       </c>
-      <c r="M64">
+      <c r="Q64">
         <v>381</v>
       </c>
-      <c r="N64">
+      <c r="R64">
         <v>73</v>
       </c>
-      <c r="O64">
+      <c r="S64">
         <v>242</v>
       </c>
-      <c r="P64">
+      <c r="T64" s="11">
+        <f t="shared" si="3"/>
+        <v>723</v>
+      </c>
+      <c r="U64">
         <v>8985</v>
       </c>
-      <c r="Q64">
+      <c r="V64">
         <v>819</v>
       </c>
-      <c r="R64">
+      <c r="W64">
         <v>299</v>
       </c>
-      <c r="S64">
+      <c r="X64">
         <v>38</v>
       </c>
-      <c r="T64">
+      <c r="Y64">
         <v>339</v>
       </c>
-      <c r="U64">
+      <c r="Z64">
         <v>111</v>
       </c>
-      <c r="V64">
+      <c r="AA64">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -4813,68 +6104,88 @@
         <v>4975</v>
       </c>
       <c r="C65">
+        <f t="shared" si="4"/>
+        <v>73.140252866803891</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="5"/>
+        <v>-0.72037635989414639</v>
+      </c>
+      <c r="E65">
         <v>36</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>28</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>11.9</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>8.9870000000000001</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>8.19</v>
       </c>
-      <c r="I65" s="2">
+      <c r="K65" s="2">
         <v>1.59</v>
       </c>
-      <c r="J65" s="2">
+      <c r="L65" s="2">
         <v>1.3992000000000002</v>
       </c>
-      <c r="K65" s="2">
+      <c r="M65" s="10">
         <f t="shared" si="0"/>
-        <v>0.29249999999999998</v>
-      </c>
-      <c r="L65">
+        <v>20.1662</v>
+      </c>
+      <c r="N65" s="10">
+        <f t="shared" si="1"/>
+        <v>11.9762</v>
+      </c>
+      <c r="O65" s="10">
+        <f t="shared" si="2"/>
+        <v>0.72022142857142857</v>
+      </c>
+      <c r="P65">
         <v>19</v>
       </c>
-      <c r="M65">
+      <c r="Q65">
         <v>371</v>
       </c>
-      <c r="N65">
+      <c r="R65">
         <v>67</v>
       </c>
-      <c r="O65">
+      <c r="S65">
         <v>240</v>
       </c>
-      <c r="P65">
+      <c r="T65" s="11">
+        <f t="shared" si="3"/>
+        <v>697</v>
+      </c>
+      <c r="U65">
         <v>7689</v>
       </c>
-      <c r="Q65">
+      <c r="V65">
         <v>737</v>
       </c>
-      <c r="R65">
+      <c r="W65">
         <v>145</v>
       </c>
-      <c r="S65">
+      <c r="X65">
         <v>38</v>
       </c>
-      <c r="T65">
+      <c r="Y65">
         <v>357</v>
       </c>
-      <c r="U65">
+      <c r="Z65">
         <v>116</v>
       </c>
-      <c r="V65">
+      <c r="AA65">
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -4882,68 +6193,88 @@
         <v>4939</v>
       </c>
       <c r="C66">
+        <f t="shared" si="4"/>
+        <v>72.610996765657163</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="5"/>
+        <v>-0.5292561011467285</v>
+      </c>
+      <c r="E66">
         <v>36</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>28</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>11.9</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>0</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>11.3</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>7</v>
       </c>
-      <c r="I66" s="2">
+      <c r="K66" s="2">
         <v>1.48</v>
       </c>
-      <c r="J66" s="2">
+      <c r="L66" s="2">
         <v>1.32</v>
       </c>
-      <c r="K66" s="2">
+      <c r="M66" s="10">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="L66">
+        <v>21.1</v>
+      </c>
+      <c r="N66" s="10">
+        <f t="shared" si="1"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="O66" s="10">
+        <f t="shared" si="2"/>
+        <v>0.75357142857142867</v>
+      </c>
+      <c r="P66">
         <v>20</v>
       </c>
-      <c r="M66">
+      <c r="Q66">
         <v>363</v>
       </c>
-      <c r="N66">
+      <c r="R66">
         <v>71</v>
       </c>
-      <c r="O66">
+      <c r="S66">
         <v>239</v>
       </c>
-      <c r="P66">
+      <c r="T66" s="11">
+        <f t="shared" si="3"/>
+        <v>693</v>
+      </c>
+      <c r="U66">
         <v>9771</v>
       </c>
-      <c r="Q66">
+      <c r="V66">
         <v>901</v>
       </c>
-      <c r="R66">
+      <c r="W66">
         <v>121</v>
       </c>
-      <c r="S66">
+      <c r="X66">
         <v>37</v>
       </c>
-      <c r="T66">
+      <c r="Y66">
         <v>374</v>
       </c>
-      <c r="U66">
+      <c r="Z66">
         <v>121</v>
       </c>
-      <c r="V66">
+      <c r="AA66">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -4951,65 +6282,85 @@
         <v>4906</v>
       </c>
       <c r="C67">
+        <f t="shared" si="4"/>
+        <v>72.125845339606002</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="5"/>
+        <v>-0.48515142605116068</v>
+      </c>
+      <c r="E67">
         <v>36</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <v>28</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>0</v>
       </c>
-      <c r="G67" s="3">
+      <c r="I67" s="3">
         <v>7.6509999999999998</v>
       </c>
-      <c r="H67" s="3">
+      <c r="J67" s="3">
         <v>5.67</v>
       </c>
-      <c r="I67" s="6">
+      <c r="K67" s="6">
         <v>1.36</v>
       </c>
-      <c r="J67" s="6">
+      <c r="L67" s="6">
         <v>1.0824</v>
       </c>
-      <c r="K67" s="2">
-        <f t="shared" ref="K67:K81" si="1">H67/D67</f>
-        <v>0.20249999999999999</v>
-      </c>
-      <c r="L67">
+      <c r="M67" s="10">
+        <f t="shared" ref="M67:M81" si="6">I67+J67+K67+L67</f>
+        <v>15.763399999999999</v>
+      </c>
+      <c r="N67" s="10">
+        <f t="shared" ref="N67:N81" si="7">I67+K67+L67</f>
+        <v>10.093399999999999</v>
+      </c>
+      <c r="O67" s="10">
+        <f t="shared" ref="O67:O81" si="8">M67/F67</f>
+        <v>0.56297857142857144</v>
+      </c>
+      <c r="P67">
         <v>19</v>
       </c>
-      <c r="M67">
+      <c r="Q67">
         <v>365</v>
       </c>
-      <c r="N67">
+      <c r="R67">
         <v>72</v>
       </c>
-      <c r="O67">
+      <c r="S67">
         <v>239</v>
       </c>
-      <c r="P67">
+      <c r="T67" s="11">
+        <f t="shared" ref="T67:T81" si="9">P67+Q67+R67+S67</f>
+        <v>695</v>
+      </c>
+      <c r="U67">
         <v>6580</v>
       </c>
-      <c r="Q67">
+      <c r="V67">
         <v>871</v>
       </c>
-      <c r="R67">
+      <c r="W67">
         <v>126</v>
       </c>
-      <c r="S67">
+      <c r="X67">
         <v>36</v>
       </c>
-      <c r="T67">
+      <c r="Y67">
         <v>392</v>
       </c>
-      <c r="U67">
+      <c r="Z67">
         <v>126</v>
       </c>
-      <c r="V67">
+      <c r="AA67">
         <v>616</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -5017,65 +6368,85 @@
         <v>4857</v>
       </c>
       <c r="C68">
+        <f t="shared" ref="C68:C81" si="10">B68/68.02</f>
+        <v>71.405468979711856</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D81" si="11">C68-C67</f>
+        <v>-0.72037635989414639</v>
+      </c>
+      <c r="E68">
         <v>36</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>28</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>0</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>7.5730000000000004</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>7.35</v>
       </c>
-      <c r="I68" s="2">
+      <c r="K68" s="2">
         <v>1.41</v>
       </c>
-      <c r="J68" s="2">
+      <c r="L68" s="2">
         <v>1.2012</v>
       </c>
-      <c r="K68" s="2">
-        <f t="shared" si="1"/>
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="L68">
+      <c r="M68" s="10">
+        <f t="shared" si="6"/>
+        <v>17.534199999999998</v>
+      </c>
+      <c r="N68" s="10">
+        <f t="shared" si="7"/>
+        <v>10.184200000000001</v>
+      </c>
+      <c r="O68" s="10">
+        <f t="shared" si="8"/>
+        <v>0.62622142857142848</v>
+      </c>
+      <c r="P68">
         <v>18</v>
       </c>
-      <c r="M68">
+      <c r="Q68">
         <v>362</v>
       </c>
-      <c r="N68">
+      <c r="R68">
         <v>65</v>
       </c>
-      <c r="O68">
+      <c r="S68">
         <v>238</v>
       </c>
-      <c r="P68">
+      <c r="T68" s="11">
+        <f t="shared" si="9"/>
+        <v>683</v>
+      </c>
+      <c r="U68">
         <v>7611</v>
       </c>
-      <c r="Q68">
+      <c r="V68">
         <v>952</v>
       </c>
-      <c r="R68">
+      <c r="W68">
         <v>281</v>
       </c>
-      <c r="S68">
+      <c r="X68">
         <v>35</v>
       </c>
-      <c r="T68">
+      <c r="Y68">
         <v>410</v>
       </c>
-      <c r="U68">
+      <c r="Z68">
         <v>131</v>
       </c>
-      <c r="V68">
+      <c r="AA68">
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -5083,65 +6454,85 @@
         <v>4801</v>
       </c>
       <c r="C69">
+        <f t="shared" si="10"/>
+        <v>70.582181711261399</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="11"/>
+        <v>-0.82328726845045708</v>
+      </c>
+      <c r="E69">
         <v>36</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>28</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>0</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>8.24</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>5.95</v>
       </c>
-      <c r="I69" s="2">
+      <c r="K69" s="2">
         <v>1.56</v>
       </c>
-      <c r="J69" s="2">
+      <c r="L69" s="2">
         <v>1.32</v>
       </c>
-      <c r="K69" s="2">
-        <f t="shared" si="1"/>
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="L69">
+      <c r="M69" s="10">
+        <f t="shared" si="6"/>
+        <v>17.07</v>
+      </c>
+      <c r="N69" s="10">
+        <f t="shared" si="7"/>
+        <v>11.120000000000001</v>
+      </c>
+      <c r="O69" s="10">
+        <f t="shared" si="8"/>
+        <v>0.60964285714285715</v>
+      </c>
+      <c r="P69">
         <v>29</v>
       </c>
-      <c r="M69">
+      <c r="Q69">
         <v>348</v>
       </c>
-      <c r="N69">
+      <c r="R69">
         <v>68</v>
       </c>
-      <c r="O69">
+      <c r="S69">
         <v>239</v>
       </c>
-      <c r="P69">
+      <c r="T69" s="11">
+        <f t="shared" si="9"/>
+        <v>684</v>
+      </c>
+      <c r="U69">
         <v>6898</v>
       </c>
-      <c r="Q69">
+      <c r="V69">
         <v>1049</v>
       </c>
-      <c r="R69">
+      <c r="W69">
         <v>401</v>
       </c>
-      <c r="S69">
+      <c r="X69">
         <v>34</v>
       </c>
-      <c r="T69">
+      <c r="Y69">
         <v>427</v>
       </c>
-      <c r="U69">
+      <c r="Z69">
         <v>136</v>
       </c>
-      <c r="V69">
+      <c r="AA69">
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -5149,65 +6540,85 @@
         <v>4757</v>
       </c>
       <c r="C70">
+        <f t="shared" si="10"/>
+        <v>69.935313143193184</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="11"/>
+        <v>-0.64686856806821424</v>
+      </c>
+      <c r="E70">
         <v>36</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>28</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>0</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>8.8149999999999995</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>5.25</v>
       </c>
-      <c r="I70" s="2">
+      <c r="K70" s="2">
         <v>1.46</v>
       </c>
-      <c r="J70" s="2">
+      <c r="L70" s="2">
         <v>1.32</v>
       </c>
-      <c r="K70" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1875</v>
-      </c>
-      <c r="L70">
+      <c r="M70" s="10">
+        <f t="shared" si="6"/>
+        <v>16.844999999999999</v>
+      </c>
+      <c r="N70" s="10">
+        <f t="shared" si="7"/>
+        <v>11.594999999999999</v>
+      </c>
+      <c r="O70" s="10">
+        <f t="shared" si="8"/>
+        <v>0.60160714285714278</v>
+      </c>
+      <c r="P70">
         <v>28</v>
       </c>
-      <c r="M70">
+      <c r="Q70">
         <v>335</v>
       </c>
-      <c r="N70">
+      <c r="R70">
         <v>74</v>
       </c>
-      <c r="O70">
+      <c r="S70">
         <v>235</v>
       </c>
-      <c r="P70">
+      <c r="T70" s="11">
+        <f t="shared" si="9"/>
+        <v>672</v>
+      </c>
+      <c r="U70">
         <v>7990</v>
       </c>
-      <c r="Q70">
+      <c r="V70">
         <v>1011</v>
       </c>
-      <c r="R70">
+      <c r="W70">
         <v>302</v>
       </c>
-      <c r="S70">
+      <c r="X70">
         <v>33</v>
       </c>
-      <c r="T70">
+      <c r="Y70">
         <v>445</v>
       </c>
-      <c r="U70">
+      <c r="Z70">
         <v>141</v>
       </c>
-      <c r="V70">
+      <c r="AA70">
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -5215,65 +6626,85 @@
         <v>4718</v>
       </c>
       <c r="C71">
+        <f t="shared" si="10"/>
+        <v>69.361952366950902</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="11"/>
+        <v>-0.5733607762422821</v>
+      </c>
+      <c r="E71">
         <v>42</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>28</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>0</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>9.51</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>5.74</v>
       </c>
-      <c r="I71" s="2">
+      <c r="K71" s="2">
         <v>1.51</v>
       </c>
-      <c r="J71" s="2">
+      <c r="L71" s="2">
         <v>1.3068</v>
       </c>
-      <c r="K71" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20500000000000002</v>
-      </c>
-      <c r="L71">
+      <c r="M71" s="10">
+        <f t="shared" si="6"/>
+        <v>18.066800000000001</v>
+      </c>
+      <c r="N71" s="10">
+        <f t="shared" si="7"/>
+        <v>12.326799999999999</v>
+      </c>
+      <c r="O71" s="10">
+        <f t="shared" si="8"/>
+        <v>0.64524285714285712</v>
+      </c>
+      <c r="P71">
         <v>28</v>
       </c>
-      <c r="M71">
+      <c r="Q71">
         <v>329</v>
       </c>
-      <c r="N71">
+      <c r="R71">
         <v>73</v>
       </c>
-      <c r="O71">
+      <c r="S71">
         <v>232</v>
       </c>
-      <c r="P71">
+      <c r="T71" s="11">
+        <f t="shared" si="9"/>
+        <v>662</v>
+      </c>
+      <c r="U71">
         <v>7812</v>
       </c>
-      <c r="Q71">
+      <c r="V71">
         <v>776</v>
       </c>
-      <c r="R71">
+      <c r="W71">
         <v>188</v>
       </c>
-      <c r="S71">
+      <c r="X71">
         <v>32</v>
       </c>
-      <c r="T71">
+      <c r="Y71">
         <v>462</v>
       </c>
-      <c r="U71">
+      <c r="Z71">
         <v>146</v>
       </c>
-      <c r="V71">
+      <c r="AA71">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -5281,65 +6712,85 @@
         <v>4681</v>
       </c>
       <c r="C72">
+        <f t="shared" si="10"/>
+        <v>68.817994707438999</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="11"/>
+        <v>-0.54395765951190356</v>
+      </c>
+      <c r="E72">
         <v>42</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>32</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>0</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>10.433</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>9.73</v>
       </c>
-      <c r="I72" s="2">
+      <c r="K72" s="2">
         <v>1.66</v>
       </c>
-      <c r="J72" s="2">
+      <c r="L72" s="2">
         <v>1.4783999999999999</v>
       </c>
-      <c r="K72" s="2">
-        <f t="shared" si="1"/>
-        <v>0.30406250000000001</v>
-      </c>
-      <c r="L72">
+      <c r="M72" s="10">
+        <f t="shared" si="6"/>
+        <v>23.301400000000001</v>
+      </c>
+      <c r="N72" s="10">
+        <f t="shared" si="7"/>
+        <v>13.571400000000001</v>
+      </c>
+      <c r="O72" s="10">
+        <f t="shared" si="8"/>
+        <v>0.72816875000000003</v>
+      </c>
+      <c r="P72">
         <v>24</v>
       </c>
-      <c r="M72">
+      <c r="Q72">
         <v>328</v>
       </c>
-      <c r="N72">
+      <c r="R72">
         <v>71</v>
       </c>
-      <c r="O72">
+      <c r="S72">
         <v>222</v>
       </c>
-      <c r="P72">
+      <c r="T72" s="11">
+        <f t="shared" si="9"/>
+        <v>645</v>
+      </c>
+      <c r="U72">
         <v>7450</v>
       </c>
-      <c r="Q72">
+      <c r="V72">
         <v>860</v>
       </c>
-      <c r="R72">
+      <c r="W72">
         <v>176</v>
       </c>
-      <c r="S72">
+      <c r="X72">
         <v>31</v>
       </c>
-      <c r="T72">
+      <c r="Y72">
         <v>480</v>
       </c>
-      <c r="U72">
+      <c r="Z72">
         <v>152</v>
       </c>
-      <c r="V72">
+      <c r="AA72">
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -5347,65 +6798,85 @@
         <v>4634</v>
       </c>
       <c r="C73">
+        <f t="shared" si="10"/>
+        <v>68.127021464275217</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="11"/>
+        <v>-0.69097324316378206</v>
+      </c>
+      <c r="E73">
         <v>42</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>30</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>0</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>10.433</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>11.9</v>
       </c>
-      <c r="I73" s="2">
+      <c r="K73" s="2">
         <v>1.51</v>
       </c>
-      <c r="J73" s="2">
+      <c r="L73" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="K73" s="2">
-        <f t="shared" si="1"/>
-        <v>0.39666666666666667</v>
-      </c>
-      <c r="L73">
+      <c r="M73" s="10">
+        <f t="shared" si="6"/>
+        <v>25.255400000000002</v>
+      </c>
+      <c r="N73" s="10">
+        <f t="shared" si="7"/>
+        <v>13.355399999999999</v>
+      </c>
+      <c r="O73" s="10">
+        <f t="shared" si="8"/>
+        <v>0.84184666666666674</v>
+      </c>
+      <c r="P73">
         <v>22</v>
       </c>
-      <c r="M73">
+      <c r="Q73">
         <v>330</v>
       </c>
-      <c r="N73">
+      <c r="R73">
         <v>70</v>
       </c>
-      <c r="O73">
+      <c r="S73">
         <v>218</v>
       </c>
-      <c r="P73">
+      <c r="T73" s="11">
+        <f t="shared" si="9"/>
+        <v>640</v>
+      </c>
+      <c r="U73">
         <v>6704</v>
       </c>
-      <c r="Q73">
+      <c r="V73">
         <v>1292</v>
       </c>
-      <c r="R73">
+      <c r="W73">
         <v>172</v>
       </c>
-      <c r="S73">
+      <c r="X73">
         <v>31</v>
       </c>
-      <c r="T73">
+      <c r="Y73">
         <v>498</v>
       </c>
-      <c r="U73">
+      <c r="Z73">
         <v>157</v>
       </c>
-      <c r="V73">
+      <c r="AA73">
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -5413,65 +6884,85 @@
         <v>4607</v>
       </c>
       <c r="C74">
+        <f t="shared" si="10"/>
+        <v>67.730079388415177</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="11"/>
+        <v>-0.39694207586003927</v>
+      </c>
+      <c r="E74">
         <v>42</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>30</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>0</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>10.16</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>10.43</v>
       </c>
-      <c r="I74" s="2">
+      <c r="K74" s="2">
         <v>1.36</v>
       </c>
-      <c r="J74" s="2">
+      <c r="L74" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="K74" s="2">
-        <f t="shared" si="1"/>
-        <v>0.34766666666666668</v>
-      </c>
-      <c r="L74">
+      <c r="M74" s="10">
+        <f t="shared" si="6"/>
+        <v>23.3096</v>
+      </c>
+      <c r="N74" s="10">
+        <f t="shared" si="7"/>
+        <v>12.8796</v>
+      </c>
+      <c r="O74" s="10">
+        <f t="shared" si="8"/>
+        <v>0.7769866666666666</v>
+      </c>
+      <c r="P74">
         <v>16</v>
       </c>
-      <c r="M74">
+      <c r="Q74">
         <v>336</v>
       </c>
-      <c r="N74">
+      <c r="R74">
         <v>67</v>
       </c>
-      <c r="O74">
+      <c r="S74">
         <v>212</v>
       </c>
-      <c r="P74">
+      <c r="T74" s="11">
+        <f t="shared" si="9"/>
+        <v>631</v>
+      </c>
+      <c r="U74">
         <v>6350</v>
       </c>
-      <c r="Q74">
+      <c r="V74">
         <v>1210</v>
       </c>
-      <c r="R74">
+      <c r="W74">
         <v>169</v>
       </c>
-      <c r="S74">
+      <c r="X74">
         <v>30</v>
       </c>
-      <c r="T74">
+      <c r="Y74">
         <v>515</v>
       </c>
-      <c r="U74">
+      <c r="Z74">
         <v>162</v>
       </c>
-      <c r="V74">
+      <c r="AA74">
         <v>628</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -5479,65 +6970,85 @@
         <v>4589</v>
       </c>
       <c r="C75">
+        <f t="shared" si="10"/>
+        <v>67.465451337841813</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="11"/>
+        <v>-0.26462805057336425</v>
+      </c>
+      <c r="E75">
         <v>42</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <v>34</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>0</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>8.9359999999999999</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>8.61</v>
       </c>
-      <c r="I75" s="2">
+      <c r="K75" s="2">
         <v>1.28</v>
       </c>
-      <c r="J75" s="2">
+      <c r="L75" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="K75" s="2">
-        <f t="shared" si="1"/>
-        <v>0.25323529411764706</v>
-      </c>
-      <c r="L75">
+      <c r="M75" s="10">
+        <f t="shared" si="6"/>
+        <v>20.238400000000002</v>
+      </c>
+      <c r="N75" s="10">
+        <f t="shared" si="7"/>
+        <v>11.628399999999999</v>
+      </c>
+      <c r="O75" s="10">
+        <f t="shared" si="8"/>
+        <v>0.59524705882352946</v>
+      </c>
+      <c r="P75">
         <v>14</v>
       </c>
-      <c r="M75">
+      <c r="Q75">
         <v>340</v>
       </c>
-      <c r="N75">
+      <c r="R75">
         <v>66</v>
       </c>
-      <c r="O75">
+      <c r="S75">
         <v>211</v>
       </c>
-      <c r="P75">
+      <c r="T75" s="11">
+        <f t="shared" si="9"/>
+        <v>631</v>
+      </c>
+      <c r="U75">
         <v>5988</v>
       </c>
-      <c r="Q75">
+      <c r="V75">
         <v>1867</v>
       </c>
-      <c r="R75">
+      <c r="W75">
         <v>190</v>
       </c>
-      <c r="S75">
+      <c r="X75">
         <v>29</v>
       </c>
-      <c r="T75">
+      <c r="Y75">
         <v>533</v>
       </c>
-      <c r="U75">
+      <c r="Z75">
         <v>167</v>
       </c>
-      <c r="V75">
+      <c r="AA75">
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -5545,65 +7056,85 @@
         <v>4560</v>
       </c>
       <c r="C76">
+        <f t="shared" si="10"/>
+        <v>67.039106145251395</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="11"/>
+        <v>-0.42634519259041781</v>
+      </c>
+      <c r="E76">
         <v>42</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <v>36</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>0</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>7.4989999999999997</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>7.14</v>
       </c>
-      <c r="I76" s="2">
+      <c r="K76" s="2">
         <v>1.28</v>
       </c>
-      <c r="J76" s="2">
+      <c r="L76" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="K76" s="2">
-        <f t="shared" si="1"/>
-        <v>0.19833333333333333</v>
-      </c>
-      <c r="L76">
+      <c r="M76" s="10">
+        <f t="shared" si="6"/>
+        <v>17.278599999999997</v>
+      </c>
+      <c r="N76" s="10">
+        <f t="shared" si="7"/>
+        <v>10.1386</v>
+      </c>
+      <c r="O76" s="10">
+        <f t="shared" si="8"/>
+        <v>0.47996111111111106</v>
+      </c>
+      <c r="P76">
         <v>10</v>
       </c>
-      <c r="M76">
+      <c r="Q76">
         <v>329</v>
       </c>
-      <c r="N76">
+      <c r="R76">
         <v>69</v>
       </c>
-      <c r="O76">
+      <c r="S76">
         <v>208</v>
       </c>
-      <c r="P76">
+      <c r="T76" s="11">
+        <f t="shared" si="9"/>
+        <v>616</v>
+      </c>
+      <c r="U76">
         <v>6899</v>
       </c>
-      <c r="Q76">
+      <c r="V76">
         <v>1345</v>
       </c>
-      <c r="R76">
+      <c r="W76">
         <v>247</v>
       </c>
-      <c r="S76">
+      <c r="X76">
         <v>28</v>
       </c>
-      <c r="T76">
+      <c r="Y76">
         <v>550</v>
       </c>
-      <c r="U76">
+      <c r="Z76">
         <v>172</v>
       </c>
-      <c r="V76">
+      <c r="AA76">
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -5611,65 +7142,85 @@
         <v>4542</v>
       </c>
       <c r="C77">
+        <f t="shared" si="10"/>
+        <v>66.774478094678045</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="11"/>
+        <v>-0.26462805057335004</v>
+      </c>
+      <c r="E77">
         <v>36</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <v>34</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>0</v>
       </c>
-      <c r="G77" s="3">
+      <c r="I77" s="3">
         <v>7.8070000000000004</v>
       </c>
-      <c r="H77" s="3">
+      <c r="J77" s="3">
         <v>7.63</v>
       </c>
-      <c r="I77" s="6">
+      <c r="K77" s="6">
         <v>1.43</v>
       </c>
-      <c r="J77" s="6">
+      <c r="L77" s="6">
         <v>1.2804</v>
       </c>
-      <c r="K77" s="2">
-        <f t="shared" si="1"/>
-        <v>0.22441176470588234</v>
-      </c>
-      <c r="L77">
+      <c r="M77" s="10">
+        <f t="shared" si="6"/>
+        <v>18.147400000000001</v>
+      </c>
+      <c r="N77" s="10">
+        <f t="shared" si="7"/>
+        <v>10.5174</v>
+      </c>
+      <c r="O77" s="10">
+        <f t="shared" si="8"/>
+        <v>0.53374705882352946</v>
+      </c>
+      <c r="P77">
         <v>11</v>
       </c>
-      <c r="M77">
+      <c r="Q77">
         <v>318</v>
       </c>
-      <c r="N77">
+      <c r="R77">
         <v>69</v>
       </c>
-      <c r="O77">
+      <c r="S77">
         <v>206</v>
       </c>
-      <c r="P77">
+      <c r="T77" s="11">
+        <f t="shared" si="9"/>
+        <v>604</v>
+      </c>
+      <c r="U77">
         <v>5530</v>
       </c>
-      <c r="Q77">
+      <c r="V77">
         <v>1128</v>
       </c>
-      <c r="R77">
+      <c r="W77">
         <v>246</v>
       </c>
-      <c r="S77">
+      <c r="X77">
         <v>27</v>
       </c>
-      <c r="T77">
+      <c r="Y77">
         <v>568</v>
       </c>
-      <c r="U77">
+      <c r="Z77">
         <v>177</v>
       </c>
-      <c r="V77">
+      <c r="AA77">
         <v>638</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -5677,65 +7228,85 @@
         <v>4530</v>
       </c>
       <c r="C78">
+        <f t="shared" si="10"/>
+        <v>66.598059394295802</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="11"/>
+        <v>-0.17641870038224283</v>
+      </c>
+      <c r="E78">
         <v>36</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <v>40</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>8.1630000000000003</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>7.77</v>
       </c>
-      <c r="I78" s="2">
+      <c r="K78" s="2">
         <v>1.64</v>
       </c>
-      <c r="J78" s="2">
+      <c r="L78" s="2">
         <v>1.2936000000000001</v>
       </c>
-      <c r="K78" s="2">
-        <f t="shared" si="1"/>
-        <v>0.19424999999999998</v>
-      </c>
-      <c r="L78">
+      <c r="M78" s="10">
+        <f t="shared" si="6"/>
+        <v>18.866600000000002</v>
+      </c>
+      <c r="N78" s="10">
+        <f t="shared" si="7"/>
+        <v>11.0966</v>
+      </c>
+      <c r="O78" s="10">
+        <f t="shared" si="8"/>
+        <v>0.47166500000000006</v>
+      </c>
+      <c r="P78">
         <v>13</v>
       </c>
-      <c r="M78">
+      <c r="Q78">
         <v>313</v>
       </c>
-      <c r="N78">
+      <c r="R78">
         <v>68</v>
       </c>
-      <c r="O78">
+      <c r="S78">
         <v>199</v>
       </c>
-      <c r="P78">
+      <c r="T78" s="11">
+        <f t="shared" si="9"/>
+        <v>593</v>
+      </c>
+      <c r="U78">
         <v>5274</v>
       </c>
-      <c r="Q78">
+      <c r="V78">
         <v>1209</v>
       </c>
-      <c r="R78">
+      <c r="W78">
         <v>233</v>
       </c>
-      <c r="S78">
+      <c r="X78">
         <v>26</v>
       </c>
-      <c r="T78">
+      <c r="Y78">
         <v>586</v>
       </c>
-      <c r="U78">
+      <c r="Z78">
         <v>182</v>
       </c>
-      <c r="V78">
+      <c r="AA78">
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -5743,65 +7314,85 @@
         <v>4518</v>
       </c>
       <c r="C79">
+        <f t="shared" si="10"/>
+        <v>66.42164069391356</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="11"/>
+        <v>-0.17641870038224283</v>
+      </c>
+      <c r="E79">
         <v>36</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <v>40</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>0</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>8.0850000000000009</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>6.37</v>
       </c>
-      <c r="I79" s="2">
+      <c r="K79" s="2">
         <v>1.43</v>
       </c>
-      <c r="J79" s="2">
+      <c r="L79" s="2">
         <v>1.4256</v>
       </c>
-      <c r="K79" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15925</v>
-      </c>
-      <c r="L79">
+      <c r="M79" s="10">
+        <f t="shared" si="6"/>
+        <v>17.310600000000001</v>
+      </c>
+      <c r="N79" s="10">
+        <f t="shared" si="7"/>
+        <v>10.9406</v>
+      </c>
+      <c r="O79" s="10">
+        <f t="shared" si="8"/>
+        <v>0.43276500000000001</v>
+      </c>
+      <c r="P79">
         <v>15</v>
       </c>
-      <c r="M79">
+      <c r="Q79">
         <v>313</v>
       </c>
-      <c r="N79">
+      <c r="R79">
         <v>63</v>
       </c>
-      <c r="O79">
+      <c r="S79">
         <v>195</v>
       </c>
-      <c r="P79">
+      <c r="T79" s="11">
+        <f t="shared" si="9"/>
+        <v>586</v>
+      </c>
+      <c r="U79">
         <v>4968</v>
       </c>
-      <c r="Q79">
+      <c r="V79">
         <v>1180</v>
       </c>
-      <c r="R79">
+      <c r="W79">
         <v>275</v>
       </c>
-      <c r="S79">
+      <c r="X79">
         <v>25</v>
       </c>
-      <c r="T79">
+      <c r="Y79">
         <v>603</v>
       </c>
-      <c r="U79">
+      <c r="Z79">
         <v>187</v>
       </c>
-      <c r="V79">
+      <c r="AA79">
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -5809,65 +7400,85 @@
         <v>4502</v>
       </c>
       <c r="C80">
+        <f t="shared" si="10"/>
+        <v>66.186415760070574</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="11"/>
+        <v>-0.23522493384298571</v>
+      </c>
+      <c r="E80">
         <v>36</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>40</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>0</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>8.0850000000000009</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>6.86</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>1.38</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>1.3331999999999999</v>
       </c>
-      <c r="K80" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17150000000000001</v>
-      </c>
-      <c r="L80">
+      <c r="M80" s="10">
+        <f t="shared" si="6"/>
+        <v>17.658200000000001</v>
+      </c>
+      <c r="N80" s="10">
+        <f t="shared" si="7"/>
+        <v>10.7982</v>
+      </c>
+      <c r="O80" s="10">
+        <f t="shared" si="8"/>
+        <v>0.44145500000000004</v>
+      </c>
+      <c r="P80">
         <v>15</v>
       </c>
-      <c r="M80">
+      <c r="Q80">
         <v>301</v>
       </c>
-      <c r="N80">
+      <c r="R80">
         <v>67</v>
       </c>
-      <c r="O80">
+      <c r="S80">
         <v>194</v>
       </c>
-      <c r="P80">
+      <c r="T80" s="11">
+        <f t="shared" si="9"/>
+        <v>577</v>
+      </c>
+      <c r="U80">
         <v>5516</v>
       </c>
-      <c r="Q80">
+      <c r="V80">
         <v>999</v>
       </c>
-      <c r="R80">
+      <c r="W80">
         <v>197</v>
       </c>
-      <c r="S80">
+      <c r="X80">
         <v>24</v>
       </c>
-      <c r="T80">
+      <c r="Y80">
         <v>621</v>
       </c>
-      <c r="U80">
+      <c r="Z80">
         <v>192</v>
       </c>
-      <c r="V80">
+      <c r="AA80">
         <v>645</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -5875,61 +7486,81 @@
         <v>4469</v>
       </c>
       <c r="C81">
+        <f t="shared" si="10"/>
+        <v>65.701264334019413</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="11"/>
+        <v>-0.48515142605116068</v>
+      </c>
+      <c r="E81">
         <v>36</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>40</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>8.3629999999999995</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>9.0299999999999994</v>
       </c>
-      <c r="I81" s="2">
+      <c r="K81" s="2">
         <v>1.43</v>
       </c>
-      <c r="J81" s="2">
+      <c r="L81" s="2">
         <v>1.3859999999999999</v>
       </c>
-      <c r="K81" s="2">
-        <f t="shared" si="1"/>
-        <v>0.22574999999999998</v>
-      </c>
-      <c r="L81">
+      <c r="M81" s="10">
+        <f t="shared" si="6"/>
+        <v>20.209</v>
+      </c>
+      <c r="N81" s="10">
+        <f t="shared" si="7"/>
+        <v>11.178999999999998</v>
+      </c>
+      <c r="O81" s="10">
+        <f t="shared" si="8"/>
+        <v>0.50522500000000004</v>
+      </c>
+      <c r="P81">
         <v>15</v>
       </c>
-      <c r="M81">
+      <c r="Q81">
         <v>293</v>
       </c>
-      <c r="N81">
+      <c r="R81">
         <v>69</v>
       </c>
-      <c r="O81">
+      <c r="S81">
         <v>191</v>
       </c>
-      <c r="P81">
+      <c r="T81" s="11">
+        <f t="shared" si="9"/>
+        <v>568</v>
+      </c>
+      <c r="U81">
         <v>5325</v>
       </c>
-      <c r="Q81">
+      <c r="V81">
         <v>1327</v>
       </c>
-      <c r="R81">
+      <c r="W81">
         <v>284</v>
       </c>
-      <c r="S81">
+      <c r="X81">
         <v>24</v>
       </c>
-      <c r="T81">
+      <c r="Y81">
         <v>639</v>
       </c>
-      <c r="U81">
+      <c r="Z81">
         <v>197</v>
       </c>
-      <c r="V81">
+      <c r="AA81">
         <v>683</v>
       </c>
     </row>
@@ -5943,8 +7574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C18A9-4F48-4D4D-9F77-EF08D571A3B2}">
   <dimension ref="C1:AH100"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="R1" zoomScale="125" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DFD9C7-5C88-6642-89D4-2E3E8A76431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69BECAC-6FAC-3A48-9549-B6DDD353A8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="17080" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Year</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>pop_thou</t>
-  </si>
-  <si>
-    <t>craftman_wage</t>
   </si>
   <si>
     <t>general_wage</t>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>oats_exports</t>
-  </si>
-  <si>
-    <t>butter_exports</t>
   </si>
   <si>
     <t>butter</t>
@@ -121,22 +115,10 @@
     <t>wheat_imports</t>
   </si>
   <si>
-    <t>other_grain_price</t>
-  </si>
-  <si>
     <t>popindex</t>
   </si>
   <si>
-    <t>grain_price_total</t>
-  </si>
-  <si>
-    <t>grain_wage</t>
-  </si>
-  <si>
     <t>popgap</t>
-  </si>
-  <si>
-    <t>total_acre</t>
   </si>
 </sst>
 </file>
@@ -590,45 +572,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T2" sqref="T2:T81"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="2" customWidth="1"/>
-    <col min="12" max="15" width="12.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" customWidth="1"/>
-    <col min="18" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" customWidth="1"/>
-    <col min="24" max="24" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -636,71 +617,53 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
       <c r="R1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="S1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="T1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="U1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -714,66 +677,44 @@
         <v>1.35</v>
       </c>
       <c r="E2">
-        <v>26</v>
-      </c>
-      <c r="F2">
         <v>18</v>
       </c>
-      <c r="G2" s="19">
+      <c r="F2" s="19">
         <v>13.39</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
         <v>6.2489999999999997</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I2" s="2">
         <f>23.67/4.85</f>
         <v>4.880412371134021</v>
       </c>
-      <c r="K2" s="17">
+      <c r="J2" s="17">
         <v>1.6</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="10">
         <v>1.23</v>
       </c>
-      <c r="M2" s="10">
-        <f>I2+J2+K2+L2</f>
-        <v>13.95941237113402</v>
-      </c>
-      <c r="N2" s="10">
-        <f>I2+K2+L2</f>
-        <v>9.0790000000000006</v>
-      </c>
-      <c r="O2" s="10">
-        <f>M2/F2</f>
-        <v>0.77552290950744551</v>
-      </c>
-      <c r="P2" s="11">
+      <c r="L2" s="11">
         <v>156</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="M2" s="11">
         <v>402</v>
       </c>
-      <c r="R2" s="11">
+      <c r="N2" s="11">
         <v>60</v>
       </c>
-      <c r="S2" s="11">
+      <c r="O2" s="11">
         <v>296.87219999999996</v>
       </c>
-      <c r="T2" s="11">
-        <f>P2+Q2+R2+S2</f>
-        <v>914.87220000000002</v>
-      </c>
-      <c r="X2">
+      <c r="S2">
         <v>249</v>
       </c>
-      <c r="AA2">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -789,65 +730,43 @@
         <v>1.3378418112319963</v>
       </c>
       <c r="E3">
-        <v>26</v>
-      </c>
-      <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" s="19">
+      <c r="F3" s="19">
         <v>13.28</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.8449999999999998</v>
       </c>
       <c r="I3">
-        <v>5.8449999999999998</v>
-      </c>
-      <c r="J3">
         <v>6.8</v>
       </c>
-      <c r="K3" s="17">
+      <c r="J3" s="17">
         <v>1.25</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="10">
         <v>1.29</v>
       </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M66" si="0">I3+J3+K3+L3</f>
-        <v>15.184999999999999</v>
-      </c>
-      <c r="N3" s="10">
-        <f t="shared" ref="N3:N66" si="1">I3+K3+L3</f>
-        <v>8.3849999999999998</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O66" si="2">M3/F3</f>
-        <v>0.75924999999999998</v>
-      </c>
-      <c r="P3" s="11">
+      <c r="L3" s="11">
         <v>165</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="M3" s="11">
         <v>376</v>
       </c>
-      <c r="R3" s="11">
+      <c r="N3" s="11">
         <v>63</v>
       </c>
-      <c r="S3" s="11">
+      <c r="O3" s="11">
         <v>255.52860000000001</v>
       </c>
-      <c r="T3" s="11">
-        <f t="shared" ref="T3:T66" si="3">P3+Q3+R3+S3</f>
-        <v>859.52859999999998</v>
-      </c>
-      <c r="X3">
+      <c r="S3">
         <v>146</v>
       </c>
-      <c r="AA3">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -855,73 +774,51 @@
         <v>6985</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="4">B4/68.02</f>
+        <f t="shared" ref="C4:C67" si="0">B4/68.02</f>
         <v>102.69038518082917</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="5">C4-C3</f>
+        <f t="shared" ref="D4:D67" si="1">C4-C3</f>
         <v>1.3525433695971714</v>
       </c>
       <c r="E4">
-        <v>26</v>
-      </c>
-      <c r="F4">
         <v>18</v>
       </c>
-      <c r="G4" s="19">
+      <c r="F4" s="19">
         <v>13.63</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="H4">
-        <v>1</v>
+        <v>6.47</v>
       </c>
       <c r="I4">
-        <v>6.47</v>
-      </c>
-      <c r="J4">
         <v>3.85</v>
       </c>
-      <c r="K4" s="17">
+      <c r="J4" s="17">
         <v>1.57</v>
       </c>
-      <c r="L4" s="10">
+      <c r="K4" s="10">
         <v>1.38</v>
       </c>
-      <c r="M4" s="10">
-        <f t="shared" si="0"/>
-        <v>13.27</v>
-      </c>
-      <c r="N4" s="10">
-        <f t="shared" si="1"/>
-        <v>9.4199999999999982</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="2"/>
-        <v>0.73722222222222222</v>
-      </c>
-      <c r="P4" s="11">
+      <c r="L4" s="11">
         <v>149</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="M4" s="11">
         <v>416</v>
       </c>
-      <c r="R4" s="11">
+      <c r="N4" s="11">
         <v>68</v>
       </c>
-      <c r="S4" s="11">
+      <c r="O4" s="11">
         <v>272.50619999999998</v>
       </c>
-      <c r="T4" s="11">
-        <f t="shared" si="3"/>
-        <v>905.50620000000004</v>
-      </c>
-      <c r="X4">
+      <c r="S4">
         <v>218</v>
       </c>
-      <c r="AA4">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -929,73 +826,51 @@
         <v>7078</v>
       </c>
       <c r="C5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>104.05763010879154</v>
       </c>
       <c r="D5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.3672449279623748</v>
       </c>
       <c r="E5">
-        <v>26</v>
-      </c>
-      <c r="F5">
         <v>16</v>
       </c>
-      <c r="G5" s="19">
+      <c r="F5" s="19">
         <v>13.87</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
       <c r="H5">
-        <v>1</v>
+        <v>7.8369999999999997</v>
       </c>
       <c r="I5">
-        <v>7.8369999999999997</v>
-      </c>
-      <c r="J5">
         <v>7.7</v>
       </c>
-      <c r="K5" s="17">
+      <c r="J5" s="17">
         <v>1.62</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="10">
         <v>1.24</v>
       </c>
-      <c r="M5" s="10">
-        <f t="shared" si="0"/>
-        <v>18.396999999999998</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" si="1"/>
-        <v>10.697000000000001</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="2"/>
-        <v>1.1498124999999999</v>
-      </c>
-      <c r="P5" s="11">
+      <c r="L5" s="11">
         <v>171</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="M5" s="11">
         <v>504</v>
       </c>
-      <c r="R5" s="11">
+      <c r="N5" s="11">
         <v>61</v>
       </c>
-      <c r="S5" s="11">
+      <c r="O5" s="11">
         <v>275.09999999999997</v>
       </c>
-      <c r="T5" s="11">
-        <f t="shared" si="3"/>
-        <v>1011.0999999999999</v>
-      </c>
-      <c r="X5">
+      <c r="S5">
         <v>222</v>
       </c>
-      <c r="AA5">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -1003,73 +878,51 @@
         <v>7173</v>
       </c>
       <c r="C6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>105.45427815348428</v>
       </c>
       <c r="D6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.3966480446927392</v>
       </c>
       <c r="E6">
-        <v>26</v>
-      </c>
-      <c r="F6">
         <v>16</v>
       </c>
-      <c r="G6" s="19">
+      <c r="F6" s="19">
         <v>12.32</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
       <c r="H6">
-        <v>1</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="I6">
-        <v>7.7759999999999998</v>
-      </c>
-      <c r="J6">
         <v>5.3</v>
       </c>
-      <c r="K6" s="17">
+      <c r="J6" s="17">
         <v>1.69</v>
       </c>
-      <c r="L6" s="10">
+      <c r="K6" s="10">
         <v>1.21</v>
       </c>
-      <c r="M6" s="10">
-        <f t="shared" si="0"/>
-        <v>15.975999999999999</v>
-      </c>
-      <c r="N6" s="10">
-        <f t="shared" si="1"/>
-        <v>10.675999999999998</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="2"/>
-        <v>0.99849999999999994</v>
-      </c>
-      <c r="P6" s="11">
+      <c r="L6" s="11">
         <v>154</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="M6" s="11">
         <v>500</v>
       </c>
-      <c r="R6" s="11">
+      <c r="N6" s="11">
         <v>59</v>
       </c>
-      <c r="S6" s="11">
+      <c r="O6" s="11">
         <v>247.59</v>
       </c>
-      <c r="T6" s="11">
-        <f t="shared" si="3"/>
-        <v>960.59</v>
-      </c>
-      <c r="X6">
+      <c r="S6">
         <v>301</v>
       </c>
-      <c r="AA6">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -1077,73 +930,51 @@
         <v>7269</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>106.8656277565422</v>
       </c>
       <c r="D7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.4113496030579142</v>
       </c>
       <c r="E7">
-        <v>24</v>
-      </c>
-      <c r="F7">
         <v>16</v>
       </c>
-      <c r="G7" s="19">
+      <c r="F7" s="19">
         <v>15.02</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
       <c r="H7">
-        <v>1</v>
+        <v>7.9740000000000002</v>
       </c>
       <c r="I7">
-        <v>7.9740000000000002</v>
-      </c>
-      <c r="J7">
         <v>7.7</v>
       </c>
-      <c r="K7" s="17">
+      <c r="J7" s="17">
         <v>1.82</v>
       </c>
-      <c r="L7" s="10">
+      <c r="K7" s="10">
         <v>1.34</v>
       </c>
-      <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>18.834</v>
-      </c>
-      <c r="N7" s="10">
-        <f t="shared" si="1"/>
-        <v>11.134</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="2"/>
-        <v>1.177125</v>
-      </c>
-      <c r="P7" s="11">
+      <c r="L7" s="11">
         <v>160</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="M7" s="11">
         <v>512</v>
       </c>
-      <c r="R7" s="11">
+      <c r="N7" s="11">
         <v>66</v>
       </c>
-      <c r="S7" s="8">
+      <c r="O7" s="8">
         <v>310.94159999999999</v>
       </c>
-      <c r="T7" s="11">
-        <f t="shared" si="3"/>
-        <v>1048.9416000000001</v>
-      </c>
-      <c r="X7">
+      <c r="S7">
         <v>230</v>
       </c>
-      <c r="AA7">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -1151,73 +982,51 @@
         <v>7366</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>108.29167891796531</v>
       </c>
       <c r="D8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.4260511614231177</v>
       </c>
       <c r="E8">
-        <v>26</v>
-      </c>
-      <c r="F8">
         <v>16</v>
       </c>
-      <c r="G8" s="19">
+      <c r="F8" s="19">
         <v>14.89</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
       <c r="H8">
-        <v>1</v>
+        <v>8.0009999999999994</v>
       </c>
       <c r="I8">
-        <v>8.0009999999999994</v>
-      </c>
-      <c r="J8">
         <v>8.48</v>
       </c>
-      <c r="K8" s="17">
+      <c r="J8" s="17">
         <v>1.62</v>
       </c>
-      <c r="L8" s="10">
+      <c r="K8" s="10">
         <v>1.42</v>
       </c>
-      <c r="M8" s="10">
-        <f t="shared" si="0"/>
-        <v>19.521000000000001</v>
-      </c>
-      <c r="N8" s="10">
-        <f t="shared" si="1"/>
-        <v>11.040999999999999</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="2"/>
-        <v>1.2200625</v>
-      </c>
-      <c r="P8" s="11">
+      <c r="L8" s="11">
         <v>153</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="M8" s="11">
         <v>514</v>
       </c>
-      <c r="R8" s="11">
+      <c r="N8" s="11">
         <v>69</v>
       </c>
-      <c r="S8" s="8">
+      <c r="O8" s="8">
         <v>306.22559999999999</v>
       </c>
-      <c r="T8" s="11">
-        <f t="shared" si="3"/>
-        <v>1042.2256</v>
-      </c>
-      <c r="X8">
+      <c r="S8">
         <v>251</v>
       </c>
-      <c r="AA8">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1225,73 +1034,51 @@
         <v>7464</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>109.73243163775361</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.4407527197882928</v>
       </c>
       <c r="E9">
-        <v>26</v>
-      </c>
-      <c r="F9">
         <v>16</v>
       </c>
-      <c r="G9" s="19">
+      <c r="F9" s="19">
         <v>15.13</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="H9">
-        <v>1</v>
+        <v>6.4669999999999996</v>
       </c>
       <c r="I9">
-        <v>6.4669999999999996</v>
-      </c>
-      <c r="J9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="K9" s="17">
+      <c r="J9" s="17">
         <v>1.38</v>
       </c>
-      <c r="L9" s="10">
+      <c r="K9" s="10">
         <v>1.33</v>
       </c>
-      <c r="M9" s="10">
-        <f t="shared" si="0"/>
-        <v>13.237</v>
-      </c>
-      <c r="N9" s="10">
-        <f t="shared" si="1"/>
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="O9" s="10">
-        <f t="shared" si="2"/>
-        <v>0.82731250000000001</v>
-      </c>
-      <c r="P9" s="11">
+      <c r="L9" s="11">
         <v>152</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="M9" s="11">
         <v>416</v>
       </c>
-      <c r="R9" s="11">
+      <c r="N9" s="11">
         <v>65</v>
       </c>
-      <c r="S9" s="8">
+      <c r="O9" s="8">
         <v>229.11899999999997</v>
       </c>
-      <c r="T9" s="11">
-        <f t="shared" si="3"/>
-        <v>862.11899999999991</v>
-      </c>
-      <c r="X9">
+      <c r="S9">
         <v>355</v>
       </c>
-      <c r="AA9">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1299,79 +1086,57 @@
         <v>7564</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>111.20258747427228</v>
       </c>
       <c r="D10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.4701558365186713</v>
       </c>
       <c r="E10">
-        <v>26</v>
-      </c>
-      <c r="F10">
         <v>16</v>
       </c>
-      <c r="G10" s="19">
+      <c r="F10" s="19">
         <v>15.29</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="H10">
-        <v>1</v>
+        <v>6.7380000000000004</v>
       </c>
       <c r="I10">
-        <v>6.7380000000000004</v>
-      </c>
-      <c r="J10">
         <v>4.92</v>
       </c>
+      <c r="J10" s="2">
+        <v>3.21</v>
+      </c>
       <c r="K10" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="L10" s="2">
         <v>1.31</v>
       </c>
-      <c r="M10" s="10">
-        <f t="shared" si="0"/>
-        <v>16.178000000000001</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="1"/>
-        <v>11.258000000000001</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0111250000000001</v>
-      </c>
-      <c r="P10" s="11">
+      <c r="L10" s="11">
         <v>182</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="M10" s="11">
         <v>433</v>
       </c>
-      <c r="R10" s="11">
+      <c r="N10" s="11">
         <v>64</v>
       </c>
-      <c r="S10" s="8">
+      <c r="O10" s="8">
         <v>230.84820000000002</v>
       </c>
-      <c r="T10" s="11">
-        <f t="shared" si="3"/>
-        <v>909.84820000000002</v>
-      </c>
-      <c r="X10">
+      <c r="S10">
         <v>314</v>
       </c>
-      <c r="Y10">
+      <c r="T10">
         <v>125</v>
       </c>
-      <c r="Z10">
+      <c r="U10">
         <v>18</v>
       </c>
-      <c r="AA10">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1379,79 +1144,57 @@
         <v>7662</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>112.64334019406057</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.4407527197882928</v>
       </c>
       <c r="E11">
-        <v>26</v>
-      </c>
-      <c r="F11">
         <v>16</v>
       </c>
-      <c r="G11" s="19">
+      <c r="F11" s="19">
         <v>16</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
       <c r="H11">
-        <v>1</v>
+        <v>7.702</v>
       </c>
       <c r="I11">
-        <v>7.702</v>
-      </c>
-      <c r="J11">
         <v>6.93</v>
       </c>
+      <c r="J11" s="2">
+        <v>3.2</v>
+      </c>
       <c r="K11" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="L11" s="2">
         <v>1.33</v>
       </c>
-      <c r="M11" s="10">
-        <f t="shared" si="0"/>
-        <v>19.161999999999999</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="1"/>
-        <v>12.232000000000001</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="2"/>
-        <v>1.1976249999999999</v>
-      </c>
-      <c r="P11" s="11">
+      <c r="L11" s="11">
         <v>181</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="M11" s="11">
         <v>495</v>
       </c>
-      <c r="R11" s="11">
+      <c r="N11" s="11">
         <v>65</v>
       </c>
-      <c r="S11" s="8">
+      <c r="O11" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="T11" s="11">
-        <f t="shared" si="3"/>
-        <v>976.8</v>
-      </c>
-      <c r="X11">
+      <c r="S11">
         <v>305</v>
       </c>
-      <c r="Y11">
+      <c r="T11">
         <v>126</v>
       </c>
-      <c r="Z11">
+      <c r="U11">
         <v>19</v>
       </c>
-      <c r="AA11">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1459,79 +1202,57 @@
         <v>7767</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>114.18700382240519</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.5436636283446177</v>
       </c>
       <c r="E12">
-        <v>26</v>
-      </c>
-      <c r="F12">
         <v>16</v>
       </c>
-      <c r="G12" s="19">
+      <c r="F12" s="19">
         <v>15.82</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
       <c r="H12">
-        <v>1</v>
+        <v>7.3120000000000003</v>
       </c>
       <c r="I12">
-        <v>7.3120000000000003</v>
-      </c>
-      <c r="J12">
         <v>7.08</v>
       </c>
+      <c r="J12" s="2">
+        <v>3.3</v>
+      </c>
       <c r="K12" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="L12" s="2">
         <v>1.6</v>
       </c>
-      <c r="M12" s="10">
-        <f t="shared" si="0"/>
-        <v>19.292000000000002</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="1"/>
-        <v>12.212</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="2"/>
-        <v>1.2057500000000001</v>
-      </c>
-      <c r="P12" s="11">
+      <c r="L12" s="11">
         <v>187</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="M12" s="11">
         <v>470</v>
       </c>
-      <c r="R12" s="11">
+      <c r="N12" s="11">
         <v>78</v>
       </c>
-      <c r="S12" s="8">
+      <c r="O12" s="8">
         <v>232.42020000000002</v>
       </c>
-      <c r="T12" s="11">
-        <f t="shared" si="3"/>
-        <v>967.42020000000002</v>
-      </c>
-      <c r="X12">
+      <c r="S12">
         <v>314</v>
       </c>
-      <c r="Y12">
+      <c r="T12">
         <v>146</v>
       </c>
-      <c r="Z12">
+      <c r="U12">
         <v>20</v>
       </c>
-      <c r="AA12">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1539,79 +1260,57 @@
         <v>7810</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>114.81917083210821</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.63216700970302497</v>
       </c>
       <c r="E13">
-        <v>26</v>
-      </c>
-      <c r="F13">
         <v>16</v>
       </c>
-      <c r="G13" s="19">
+      <c r="F13" s="19">
         <v>15.64</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
       <c r="H13">
-        <v>1</v>
+        <v>5.4210000000000003</v>
       </c>
       <c r="I13">
-        <v>5.4210000000000003</v>
-      </c>
-      <c r="J13">
         <v>3.84</v>
       </c>
+      <c r="J13" s="2">
+        <v>2.94</v>
+      </c>
       <c r="K13" s="2">
-        <v>2.94</v>
-      </c>
-      <c r="L13" s="2">
         <v>1.29</v>
       </c>
-      <c r="M13" s="10">
-        <f t="shared" si="0"/>
-        <v>13.491</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="1"/>
-        <v>9.6509999999999998</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="2"/>
-        <v>0.84318749999999998</v>
-      </c>
-      <c r="P13" s="11">
+      <c r="L13" s="11">
         <v>167</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="M13" s="11">
         <v>348</v>
       </c>
-      <c r="R13" s="11">
+      <c r="N13" s="11">
         <v>63</v>
       </c>
-      <c r="S13" s="8">
+      <c r="O13" s="8">
         <v>220.08</v>
       </c>
-      <c r="T13" s="11">
-        <f t="shared" si="3"/>
-        <v>798.08</v>
-      </c>
-      <c r="X13">
+      <c r="S13">
         <v>275</v>
       </c>
-      <c r="Y13">
+      <c r="T13">
         <v>127</v>
       </c>
-      <c r="Z13">
+      <c r="U13">
         <v>16</v>
       </c>
-      <c r="AA13">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1619,79 +1318,57 @@
         <v>7852</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>115.43663628344605</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.6174654513378357</v>
       </c>
       <c r="E14">
-        <v>26</v>
-      </c>
-      <c r="F14">
         <v>16</v>
       </c>
-      <c r="G14" s="19">
+      <c r="F14" s="19">
         <v>15.46</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
       <c r="H14">
-        <v>1</v>
+        <v>5.1130000000000004</v>
       </c>
       <c r="I14">
-        <v>5.1130000000000004</v>
-      </c>
-      <c r="J14">
         <v>3.2</v>
       </c>
+      <c r="J14" s="2">
+        <v>2.61</v>
+      </c>
       <c r="K14" s="2">
-        <v>2.61</v>
-      </c>
-      <c r="L14" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M14" s="10">
-        <f t="shared" si="0"/>
-        <v>12.042999999999999</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="1"/>
-        <v>8.843</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="2"/>
-        <v>0.75268749999999995</v>
-      </c>
-      <c r="P14" s="11">
+      <c r="L14" s="11">
         <v>148</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="M14" s="11">
         <v>329</v>
       </c>
-      <c r="R14" s="11">
+      <c r="N14" s="11">
         <v>55</v>
       </c>
-      <c r="S14" s="8">
+      <c r="O14" s="8">
         <v>290.03399999999999</v>
       </c>
-      <c r="T14" s="11">
-        <f t="shared" si="3"/>
-        <v>822.03399999999999</v>
-      </c>
-      <c r="X14">
+      <c r="S14">
         <v>247</v>
       </c>
-      <c r="Y14">
+      <c r="T14">
         <v>106</v>
       </c>
-      <c r="Z14">
+      <c r="U14">
         <v>14</v>
       </c>
-      <c r="AA14">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1699,79 +1376,57 @@
         <v>7954</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>116.9361952366951</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.4995589532490499</v>
       </c>
       <c r="E15">
-        <v>26</v>
-      </c>
-      <c r="F15">
         <v>16</v>
       </c>
-      <c r="G15" s="19">
+      <c r="F15" s="19">
         <v>15.29</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
       <c r="H15">
-        <v>1</v>
+        <v>5.7619999999999996</v>
       </c>
       <c r="I15">
-        <v>5.7619999999999996</v>
-      </c>
-      <c r="J15">
         <v>6.44</v>
       </c>
+      <c r="J15" s="2">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="K15" s="2">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="L15" s="2">
         <v>1.17</v>
       </c>
-      <c r="M15" s="10">
-        <f t="shared" si="0"/>
-        <v>15.632</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" si="1"/>
-        <v>9.1919999999999984</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="2"/>
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="P15" s="11">
+      <c r="L15" s="11">
         <v>128</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="M15" s="11">
         <v>370</v>
       </c>
-      <c r="R15" s="11">
+      <c r="N15" s="11">
         <v>57</v>
       </c>
-      <c r="S15" s="8">
+      <c r="O15" s="8">
         <v>290.82</v>
       </c>
-      <c r="T15" s="11">
-        <f t="shared" si="3"/>
-        <v>845.81999999999994</v>
-      </c>
-      <c r="X15">
+      <c r="S15">
         <v>219</v>
       </c>
-      <c r="Y15">
+      <c r="T15">
         <v>111</v>
       </c>
-      <c r="Z15">
+      <c r="U15">
         <v>16</v>
       </c>
-      <c r="AA15">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1779,79 +1434,57 @@
         <v>7938</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>116.70097030285211</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.23522493384298571</v>
       </c>
       <c r="E16">
-        <v>26</v>
-      </c>
-      <c r="F16">
         <v>16</v>
       </c>
-      <c r="G16" s="19">
+      <c r="F16" s="19">
         <v>15.11</v>
       </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
       <c r="H16">
-        <v>1</v>
+        <v>6.4349999999999996</v>
       </c>
       <c r="I16">
-        <v>6.4349999999999996</v>
-      </c>
-      <c r="J16">
         <v>3.58</v>
       </c>
+      <c r="J16" s="2">
+        <v>1.97</v>
+      </c>
       <c r="K16" s="2">
-        <v>1.97</v>
-      </c>
-      <c r="L16" s="2">
         <v>1.21</v>
       </c>
-      <c r="M16" s="10">
-        <f t="shared" si="0"/>
-        <v>13.195</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" si="1"/>
-        <v>9.6149999999999984</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="2"/>
-        <v>0.82468750000000002</v>
-      </c>
-      <c r="P16" s="11">
+      <c r="L16" s="11">
         <v>112</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="M16" s="11">
         <v>414</v>
       </c>
-      <c r="R16" s="11">
+      <c r="N16" s="11">
         <v>59</v>
       </c>
-      <c r="S16" s="8">
+      <c r="O16" s="8">
         <v>243.66</v>
       </c>
-      <c r="T16" s="11">
-        <f t="shared" si="3"/>
-        <v>828.66</v>
-      </c>
-      <c r="X16">
+      <c r="S16">
         <v>187</v>
       </c>
-      <c r="Y16">
+      <c r="T16">
         <v>112</v>
       </c>
-      <c r="Z16">
+      <c r="U16">
         <v>17</v>
       </c>
-      <c r="AA16">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1859,79 +1492,57 @@
         <v>7981</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>117.33313731255514</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.63216700970302497</v>
       </c>
       <c r="E17">
-        <v>24</v>
-      </c>
-      <c r="F17">
         <v>16</v>
       </c>
-      <c r="G17" s="19">
+      <c r="F17" s="19">
         <v>14.93</v>
       </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
       <c r="H17">
-        <v>1</v>
+        <v>7.1760000000000002</v>
       </c>
       <c r="I17">
-        <v>7.1760000000000002</v>
-      </c>
-      <c r="J17">
         <v>5.44</v>
       </c>
+      <c r="J17" s="2">
+        <v>2.41</v>
+      </c>
       <c r="K17" s="2">
-        <v>2.41</v>
-      </c>
-      <c r="L17" s="2">
         <v>1.32</v>
       </c>
-      <c r="M17" s="10">
-        <f t="shared" si="0"/>
-        <v>16.346</v>
-      </c>
-      <c r="N17" s="10">
-        <f t="shared" si="1"/>
-        <v>10.906000000000001</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="2"/>
-        <v>1.021625</v>
-      </c>
-      <c r="P17" s="11">
+      <c r="L17" s="11">
         <v>137</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="M17" s="11">
         <v>461</v>
       </c>
-      <c r="R17" s="11">
+      <c r="N17" s="11">
         <v>65</v>
       </c>
-      <c r="S17" s="8">
+      <c r="O17" s="8">
         <v>251.91300000000001</v>
       </c>
-      <c r="T17" s="11">
-        <f t="shared" si="3"/>
-        <v>914.91300000000001</v>
-      </c>
-      <c r="X17">
+      <c r="S17">
         <v>230</v>
       </c>
-      <c r="Y17">
+      <c r="T17">
         <v>123</v>
       </c>
-      <c r="Z17">
+      <c r="U17">
         <v>18</v>
       </c>
-      <c r="AA17">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1939,79 +1550,57 @@
         <v>8024</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>117.96530432225816</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.63216700970302497</v>
       </c>
       <c r="E18">
-        <v>24</v>
-      </c>
-      <c r="F18">
         <v>16</v>
       </c>
-      <c r="G18" s="19">
+      <c r="F18" s="19">
         <v>14.75</v>
       </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
       <c r="H18">
-        <v>1</v>
+        <v>6.8049999999999997</v>
       </c>
       <c r="I18">
-        <v>6.8049999999999997</v>
-      </c>
-      <c r="J18">
         <v>7.9</v>
       </c>
+      <c r="J18" s="2">
+        <v>2.76</v>
+      </c>
       <c r="K18" s="2">
-        <v>2.76</v>
-      </c>
-      <c r="L18" s="2">
         <v>1.28</v>
       </c>
-      <c r="M18" s="10">
-        <f t="shared" si="0"/>
-        <v>18.745000000000001</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="1"/>
-        <v>10.844999999999999</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="2"/>
-        <v>1.1715625000000001</v>
-      </c>
-      <c r="P18" s="11">
+      <c r="L18" s="11">
         <v>156</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="M18" s="11">
         <v>437</v>
       </c>
-      <c r="R18" s="11">
+      <c r="N18" s="11">
         <v>63</v>
       </c>
-      <c r="S18" s="8">
+      <c r="O18" s="8">
         <v>252.14879999999997</v>
       </c>
-      <c r="T18" s="11">
-        <f t="shared" si="3"/>
-        <v>908.14879999999994</v>
-      </c>
-      <c r="X18">
+      <c r="S18">
         <v>261</v>
       </c>
-      <c r="Y18">
+      <c r="T18">
         <v>117</v>
       </c>
-      <c r="Z18">
+      <c r="U18">
         <v>18</v>
       </c>
-      <c r="AA18">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -2019,79 +1608,57 @@
         <v>8068</v>
       </c>
       <c r="C19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>118.61217289032638</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.64686856806821424</v>
       </c>
       <c r="E19">
-        <v>24</v>
-      </c>
-      <c r="F19">
         <v>16</v>
       </c>
-      <c r="G19" s="19">
+      <c r="F19" s="19">
         <v>14.57</v>
       </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
       <c r="H19">
-        <v>1</v>
+        <v>6.7510000000000003</v>
       </c>
       <c r="I19">
-        <v>6.7510000000000003</v>
-      </c>
-      <c r="J19">
         <v>5.89</v>
       </c>
+      <c r="J19" s="2">
+        <v>3.25</v>
+      </c>
       <c r="K19" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="L19" s="2">
         <v>1.26</v>
       </c>
-      <c r="M19" s="10">
-        <f t="shared" si="0"/>
-        <v>17.151</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="1"/>
-        <v>11.261000000000001</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0719375</v>
-      </c>
-      <c r="P19" s="11">
+      <c r="L19" s="11">
         <v>184</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="M19" s="11">
         <v>434</v>
       </c>
-      <c r="R19" s="11">
+      <c r="N19" s="11">
         <v>62</v>
       </c>
-      <c r="S19" s="8">
+      <c r="O19" s="8">
         <v>252.69900000000001</v>
       </c>
-      <c r="T19" s="11">
-        <f t="shared" si="3"/>
-        <v>932.69900000000007</v>
-      </c>
-      <c r="X19">
+      <c r="S19">
         <v>315</v>
       </c>
-      <c r="Y19">
+      <c r="T19">
         <v>122</v>
       </c>
-      <c r="Z19">
+      <c r="U19">
         <v>18</v>
       </c>
-      <c r="AA19">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -2099,88 +1666,66 @@
         <v>8111</v>
       </c>
       <c r="C20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>119.24433990002942</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.63216700970303918</v>
       </c>
       <c r="E20">
-        <v>24</v>
-      </c>
-      <c r="F20">
         <v>16</v>
       </c>
-      <c r="G20" s="19">
+      <c r="F20" s="19">
         <v>14.39</v>
       </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
       <c r="H20">
-        <v>1</v>
+        <v>8.4269999999999996</v>
       </c>
       <c r="I20">
-        <v>8.4269999999999996</v>
-      </c>
-      <c r="J20">
         <v>7.3</v>
       </c>
+      <c r="J20" s="2">
+        <v>3.53</v>
+      </c>
       <c r="K20" s="2">
-        <v>3.53</v>
-      </c>
-      <c r="L20" s="2">
         <v>1.61</v>
       </c>
-      <c r="M20" s="10">
-        <f t="shared" si="0"/>
-        <v>20.867000000000001</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="1"/>
-        <v>13.566999999999998</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="2"/>
-        <v>1.3041875000000001</v>
-      </c>
-      <c r="P20" s="11">
+      <c r="L20" s="11">
         <v>200</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="M20" s="11">
         <v>542</v>
       </c>
-      <c r="R20" s="11">
+      <c r="N20" s="11">
         <v>79</v>
       </c>
-      <c r="S20" s="8">
+      <c r="O20" s="8">
         <v>247.983</v>
       </c>
-      <c r="T20" s="11">
-        <f t="shared" si="3"/>
-        <v>1068.9829999999999</v>
+      <c r="P20">
+        <v>516</v>
+      </c>
+      <c r="Q20">
+        <v>197</v>
+      </c>
+      <c r="R20">
+        <v>55</v>
+      </c>
+      <c r="S20">
+        <v>471</v>
+      </c>
+      <c r="T20">
+        <v>95</v>
       </c>
       <c r="U20">
-        <v>516</v>
-      </c>
-      <c r="V20">
-        <v>197</v>
-      </c>
-      <c r="W20">
-        <v>55</v>
-      </c>
-      <c r="X20">
-        <v>471</v>
-      </c>
-      <c r="Y20">
-        <v>95</v>
-      </c>
-      <c r="Z20">
         <v>38</v>
       </c>
-      <c r="AA20">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -2188,88 +1733,66 @@
         <v>8156</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>119.90591002646281</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.66157012643338931</v>
       </c>
       <c r="E21">
-        <v>24</v>
-      </c>
-      <c r="F21">
         <v>16</v>
       </c>
-      <c r="G21" s="19">
+      <c r="F21" s="19">
         <v>14.21</v>
       </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
       <c r="H21">
-        <v>1</v>
+        <v>7.7290000000000001</v>
       </c>
       <c r="I21">
-        <v>7.7290000000000001</v>
-      </c>
-      <c r="J21">
         <v>7</v>
       </c>
+      <c r="J21" s="2">
+        <v>3.34</v>
+      </c>
       <c r="K21" s="2">
-        <v>3.34</v>
-      </c>
-      <c r="L21" s="2">
         <v>1.45</v>
       </c>
-      <c r="M21" s="10">
-        <f t="shared" si="0"/>
-        <v>19.518999999999998</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="1"/>
-        <v>12.518999999999998</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="2"/>
-        <v>1.2199374999999999</v>
-      </c>
-      <c r="P21" s="11">
+      <c r="L21" s="11">
         <v>189</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="M21" s="11">
         <v>497</v>
       </c>
-      <c r="R21" s="11">
+      <c r="N21" s="11">
         <v>71</v>
       </c>
-      <c r="S21" s="8">
+      <c r="O21" s="8">
         <v>220.08</v>
       </c>
-      <c r="T21" s="11">
-        <f t="shared" si="3"/>
-        <v>977.08</v>
+      <c r="P21">
+        <v>722</v>
+      </c>
+      <c r="Q21">
+        <v>80</v>
+      </c>
+      <c r="R21">
+        <v>38</v>
+      </c>
+      <c r="S21">
+        <v>318</v>
+      </c>
+      <c r="T21">
+        <v>51</v>
       </c>
       <c r="U21">
-        <v>722</v>
-      </c>
-      <c r="V21">
-        <v>80</v>
-      </c>
-      <c r="W21">
-        <v>38</v>
-      </c>
-      <c r="X21">
-        <v>318</v>
-      </c>
-      <c r="Y21">
-        <v>51</v>
-      </c>
-      <c r="Z21">
         <v>21</v>
       </c>
-      <c r="AA21">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -2277,88 +1800,66 @@
         <v>8175</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>120.18523963540136</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.27932960893855352</v>
       </c>
       <c r="E22">
-        <v>24</v>
-      </c>
-      <c r="F22">
         <v>16</v>
       </c>
-      <c r="G22" s="19">
+      <c r="F22" s="19">
         <v>14.04</v>
       </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
       <c r="H22">
-        <v>1</v>
+        <v>6.6970000000000001</v>
       </c>
       <c r="I22">
-        <v>6.6970000000000001</v>
-      </c>
-      <c r="J22">
         <v>6.33</v>
       </c>
+      <c r="J22" s="2">
+        <v>3.25</v>
+      </c>
       <c r="K22" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="L22" s="2">
         <v>1.29</v>
       </c>
-      <c r="M22" s="10">
-        <f t="shared" si="0"/>
-        <v>17.567</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="1"/>
-        <v>11.236999999999998</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0979375</v>
-      </c>
-      <c r="P22" s="11">
+      <c r="L22" s="11">
         <v>184</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="M22" s="11">
         <v>430</v>
       </c>
-      <c r="R22" s="11">
+      <c r="N22" s="11">
         <v>63</v>
       </c>
-      <c r="S22" s="8">
+      <c r="O22" s="8">
         <v>212.22000000000003</v>
       </c>
-      <c r="T22" s="11">
-        <f t="shared" si="3"/>
-        <v>889.22</v>
+      <c r="P22">
+        <v>651</v>
+      </c>
+      <c r="Q22">
+        <v>88</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <v>399</v>
+      </c>
+      <c r="T22">
+        <v>74</v>
       </c>
       <c r="U22">
-        <v>651</v>
-      </c>
-      <c r="V22">
-        <v>88</v>
-      </c>
-      <c r="W22">
-        <v>8</v>
-      </c>
-      <c r="X22">
-        <v>399</v>
-      </c>
-      <c r="Y22">
-        <v>74</v>
-      </c>
-      <c r="Z22">
         <v>6</v>
       </c>
-      <c r="AA22">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -2366,88 +1867,66 @@
         <v>8221</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>120.86151132019995</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.67627168479859279</v>
       </c>
       <c r="E23">
-        <v>24</v>
-      </c>
-      <c r="F23">
         <v>16</v>
       </c>
-      <c r="G23" s="19">
+      <c r="F23" s="19">
         <v>13.86</v>
       </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
       <c r="H23">
-        <v>1</v>
+        <v>6.0229999999999997</v>
       </c>
       <c r="I23">
-        <v>6.0229999999999997</v>
-      </c>
-      <c r="J23">
         <v>7.97</v>
       </c>
+      <c r="J23" s="2">
+        <v>2.84</v>
+      </c>
       <c r="K23" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="L23" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M23" s="10">
-        <f t="shared" si="0"/>
-        <v>17.952999999999999</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="1"/>
-        <v>9.9830000000000005</v>
-      </c>
-      <c r="O23" s="10">
-        <f t="shared" si="2"/>
-        <v>1.1220625</v>
-      </c>
-      <c r="P23" s="11">
+      <c r="L23" s="11">
         <v>161</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="M23" s="11">
         <v>387</v>
       </c>
-      <c r="R23" s="11">
+      <c r="N23" s="11">
         <v>55</v>
       </c>
-      <c r="S23" s="8">
+      <c r="O23" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="T23" s="11">
-        <f t="shared" si="3"/>
-        <v>838.8</v>
+      <c r="P23">
+        <v>799</v>
+      </c>
+      <c r="Q23">
+        <v>131</v>
+      </c>
+      <c r="R23">
+        <v>54</v>
+      </c>
+      <c r="S23">
+        <v>368</v>
+      </c>
+      <c r="T23">
+        <v>112</v>
       </c>
       <c r="U23">
-        <v>799</v>
-      </c>
-      <c r="V23">
-        <v>131</v>
-      </c>
-      <c r="W23">
-        <v>54</v>
-      </c>
-      <c r="X23">
-        <v>368</v>
-      </c>
-      <c r="Y23">
-        <v>112</v>
-      </c>
-      <c r="Z23">
         <v>46</v>
       </c>
-      <c r="AA23">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -2455,88 +1934,66 @@
         <v>8240</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>121.14084092913849</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.27932960893853931</v>
       </c>
       <c r="E24">
-        <v>24</v>
-      </c>
-      <c r="F24">
         <v>16</v>
       </c>
-      <c r="G24" s="19">
+      <c r="F24" s="19">
         <v>13.68</v>
       </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
       <c r="H24">
-        <v>1</v>
+        <v>5.2119999999999997</v>
       </c>
       <c r="I24">
-        <v>5.2119999999999997</v>
-      </c>
-      <c r="J24">
         <v>4.51</v>
       </c>
+      <c r="J24" s="2">
+        <v>2.52</v>
+      </c>
       <c r="K24" s="2">
-        <v>2.52</v>
-      </c>
-      <c r="L24" s="2">
         <v>1.18</v>
       </c>
-      <c r="M24" s="10">
-        <f t="shared" si="0"/>
-        <v>13.421999999999999</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="1"/>
-        <v>8.911999999999999</v>
-      </c>
-      <c r="O24" s="10">
-        <f t="shared" si="2"/>
-        <v>0.83887499999999993</v>
-      </c>
-      <c r="P24" s="11">
+      <c r="L24" s="11">
         <v>143</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="M24" s="11">
         <v>335</v>
       </c>
-      <c r="R24" s="11">
+      <c r="N24" s="11">
         <v>58</v>
       </c>
-      <c r="S24" s="8">
+      <c r="O24" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="T24" s="11">
-        <f t="shared" si="3"/>
-        <v>771.8</v>
+      <c r="P24">
+        <v>268</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>754</v>
+      </c>
+      <c r="T24">
+        <v>9</v>
       </c>
       <c r="U24">
-        <v>268</v>
-      </c>
-      <c r="V24">
-        <v>9</v>
-      </c>
-      <c r="W24">
-        <v>10</v>
-      </c>
-      <c r="X24">
-        <v>754</v>
-      </c>
-      <c r="Y24">
-        <v>9</v>
-      </c>
-      <c r="Z24">
         <v>6</v>
       </c>
-      <c r="AA24">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -2544,88 +2001,66 @@
         <v>8277</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>121.68479858865041</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.54395765951191777</v>
       </c>
       <c r="E25">
-        <v>24</v>
-      </c>
-      <c r="F25">
         <v>16</v>
       </c>
-      <c r="G25" s="19">
+      <c r="F25" s="19">
         <v>13.5</v>
       </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
       <c r="H25">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="I25">
-        <v>6.3</v>
-      </c>
-      <c r="J25">
         <v>5.54</v>
       </c>
+      <c r="J25" s="2">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="K25" s="2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="L25" s="2">
         <v>1.32</v>
       </c>
-      <c r="M25" s="10">
-        <f t="shared" si="0"/>
-        <v>15.67</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="1"/>
-        <v>10.129999999999999</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="2"/>
-        <v>0.979375</v>
-      </c>
-      <c r="P25" s="11">
+      <c r="L25" s="11">
         <v>142</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="M25" s="11">
         <v>405</v>
       </c>
-      <c r="R25" s="11">
+      <c r="N25" s="11">
         <v>65</v>
       </c>
-      <c r="S25" s="11">
+      <c r="O25" s="11">
         <v>331</v>
       </c>
-      <c r="T25" s="11">
-        <f t="shared" si="3"/>
-        <v>943</v>
+      <c r="P25">
+        <v>435</v>
+      </c>
+      <c r="Q25">
+        <v>102</v>
+      </c>
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25">
+        <v>802</v>
+      </c>
+      <c r="T25">
+        <v>39</v>
       </c>
       <c r="U25">
-        <v>435</v>
-      </c>
-      <c r="V25">
-        <v>102</v>
-      </c>
-      <c r="W25">
-        <v>20</v>
-      </c>
-      <c r="X25">
-        <v>802</v>
-      </c>
-      <c r="Y25">
-        <v>39</v>
-      </c>
-      <c r="Z25">
         <v>13</v>
       </c>
-      <c r="AA25">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -2633,88 +2068,66 @@
         <v>8295</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>121.94942663922376</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.26462805057335004</v>
       </c>
       <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="F26">
         <v>16</v>
       </c>
-      <c r="G26" s="19">
+      <c r="F26" s="19">
         <v>13.32</v>
       </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
       <c r="H26">
-        <v>1</v>
+        <v>7.1369999999999996</v>
       </c>
       <c r="I26">
-        <v>7.1369999999999996</v>
-      </c>
-      <c r="J26">
         <v>6.16</v>
       </c>
+      <c r="J26" s="2">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="K26" s="2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="L26" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="M26" s="10">
-        <f t="shared" si="0"/>
-        <v>17.364599999999999</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>11.204599999999999</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0852875</v>
-      </c>
-      <c r="P26" s="11">
+      <c r="L26" s="11">
         <v>142</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="M26" s="11">
         <v>459</v>
       </c>
-      <c r="R26" s="11">
+      <c r="N26" s="11">
         <v>76</v>
       </c>
-      <c r="S26" s="18">
+      <c r="O26" s="18">
         <v>400</v>
       </c>
-      <c r="T26" s="11">
-        <f t="shared" si="3"/>
-        <v>1077</v>
+      <c r="P26">
+        <v>228</v>
+      </c>
+      <c r="Q26">
+        <v>141</v>
+      </c>
+      <c r="R26">
+        <v>28</v>
+      </c>
+      <c r="S26">
+        <v>1420</v>
+      </c>
+      <c r="T26">
+        <v>47</v>
       </c>
       <c r="U26">
-        <v>228</v>
-      </c>
-      <c r="V26">
-        <v>141</v>
-      </c>
-      <c r="W26">
-        <v>28</v>
-      </c>
-      <c r="X26">
-        <v>1420</v>
-      </c>
-      <c r="Y26">
-        <v>47</v>
-      </c>
-      <c r="Z26">
         <v>18</v>
       </c>
-      <c r="AA26">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -2722,88 +2135,66 @@
         <v>8288</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>121.84651573066746</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.10291090855629648</v>
       </c>
       <c r="E27">
-        <v>24</v>
-      </c>
-      <c r="F27">
         <v>16</v>
       </c>
-      <c r="G27" s="19">
+      <c r="F27" s="19">
         <v>13.14</v>
       </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
       <c r="H27">
-        <v>1</v>
+        <v>8.6210000000000004</v>
       </c>
       <c r="I27">
-        <v>8.6210000000000004</v>
-      </c>
-      <c r="J27">
         <v>22.61</v>
       </c>
+      <c r="J27" s="2">
+        <v>3.35</v>
+      </c>
       <c r="K27" s="2">
-        <v>3.35</v>
-      </c>
-      <c r="L27" s="2">
         <v>2.31</v>
       </c>
-      <c r="M27" s="10">
-        <f t="shared" si="0"/>
-        <v>36.891000000000005</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>14.281000000000001</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="2"/>
-        <v>2.3056875000000003</v>
-      </c>
-      <c r="P27" s="11">
+      <c r="L27" s="11">
         <v>190</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="M27" s="11">
         <v>554</v>
       </c>
-      <c r="R27" s="11">
+      <c r="N27" s="11">
         <v>113</v>
       </c>
-      <c r="S27" s="18">
+      <c r="O27" s="18">
         <v>129</v>
       </c>
-      <c r="T27" s="11">
-        <f t="shared" si="3"/>
-        <v>986</v>
+      <c r="P27">
+        <v>1175</v>
+      </c>
+      <c r="Q27">
+        <v>143</v>
+      </c>
+      <c r="R27">
+        <v>74</v>
+      </c>
+      <c r="S27">
+        <v>717</v>
+      </c>
+      <c r="T27">
+        <v>85</v>
       </c>
       <c r="U27">
-        <v>1175</v>
-      </c>
-      <c r="V27">
-        <v>143</v>
-      </c>
-      <c r="W27">
-        <v>74</v>
-      </c>
-      <c r="X27">
-        <v>717</v>
-      </c>
-      <c r="Y27">
-        <v>85</v>
-      </c>
-      <c r="Z27">
         <v>43</v>
       </c>
-      <c r="AA27">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
@@ -2811,88 +2202,66 @@
         <v>8025</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>117.98000588062335</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-3.8665098500441104</v>
       </c>
       <c r="E28" s="12">
-        <v>24</v>
-      </c>
-      <c r="F28" s="12">
         <v>16</v>
       </c>
-      <c r="G28" s="19">
+      <c r="F28" s="19">
         <v>12.96</v>
       </c>
-      <c r="H28">
+      <c r="G28">
         <v>1</v>
       </c>
-      <c r="I28" s="1">
+      <c r="H28" s="1">
         <v>9.9860000000000007</v>
       </c>
-      <c r="J28" s="12">
+      <c r="I28" s="12">
         <v>17.78</v>
       </c>
+      <c r="J28" s="13">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="K28" s="13">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="L28" s="13">
         <v>1.5312000000000001</v>
       </c>
-      <c r="M28" s="10">
-        <f t="shared" si="0"/>
-        <v>31.807200000000002</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="1"/>
-        <v>14.027200000000001</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="2"/>
-        <v>1.9879500000000001</v>
+      <c r="L28" s="12">
+        <v>272</v>
+      </c>
+      <c r="M28" s="12">
+        <v>625</v>
+      </c>
+      <c r="N28" s="12">
+        <v>120</v>
+      </c>
+      <c r="O28" s="12">
+        <v>89</v>
       </c>
       <c r="P28" s="12">
-        <v>272</v>
+        <v>3701</v>
       </c>
       <c r="Q28" s="12">
-        <v>625</v>
+        <v>497</v>
       </c>
       <c r="R28" s="12">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S28" s="12">
-        <v>89</v>
-      </c>
-      <c r="T28" s="11">
-        <f t="shared" si="3"/>
-        <v>1106</v>
+        <v>355</v>
+      </c>
+      <c r="T28" s="12">
+        <v>234</v>
       </c>
       <c r="U28" s="12">
-        <v>3701</v>
-      </c>
-      <c r="V28" s="12">
-        <v>497</v>
-      </c>
-      <c r="W28" s="12">
-        <v>240</v>
-      </c>
-      <c r="X28" s="12">
-        <v>355</v>
-      </c>
-      <c r="Y28" s="12">
-        <v>234</v>
-      </c>
-      <c r="Z28" s="12">
         <v>125</v>
       </c>
-      <c r="AA28" s="12">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2900,88 +2269,66 @@
         <v>7640</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>112.31990591002646</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-5.6600999705968889</v>
       </c>
       <c r="E29">
-        <v>25</v>
-      </c>
-      <c r="F29">
         <v>16</v>
       </c>
-      <c r="G29" s="19">
+      <c r="F29" s="19">
         <v>12.79</v>
       </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
       <c r="H29">
-        <v>1</v>
+        <v>6.4370000000000003</v>
       </c>
       <c r="I29">
-        <v>6.4370000000000003</v>
-      </c>
-      <c r="J29">
         <v>20.440000000000001</v>
       </c>
+      <c r="J29" s="2">
+        <v>2.23</v>
+      </c>
       <c r="K29" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="L29" s="2">
         <v>1.32</v>
       </c>
-      <c r="M29" s="10">
-        <f t="shared" si="0"/>
-        <v>30.427000000000003</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="1"/>
-        <v>9.9870000000000001</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="2"/>
-        <v>1.9016875000000002</v>
+      <c r="L29">
+        <v>245</v>
+      </c>
+      <c r="M29">
+        <v>566</v>
+      </c>
+      <c r="N29">
+        <v>117</v>
+      </c>
+      <c r="O29">
+        <v>258</v>
       </c>
       <c r="P29">
-        <v>245</v>
+        <v>2207</v>
       </c>
       <c r="Q29">
-        <v>566</v>
+        <v>148</v>
       </c>
       <c r="R29">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="S29">
-        <v>258</v>
-      </c>
-      <c r="T29" s="11">
-        <f t="shared" si="3"/>
-        <v>1186</v>
+        <v>556</v>
+      </c>
+      <c r="T29">
+        <v>49</v>
       </c>
       <c r="U29">
-        <v>2207</v>
-      </c>
-      <c r="V29">
-        <v>148</v>
-      </c>
-      <c r="W29">
-        <v>12</v>
-      </c>
-      <c r="X29">
-        <v>556</v>
-      </c>
-      <c r="Y29">
-        <v>49</v>
-      </c>
-      <c r="Z29">
         <v>9</v>
       </c>
-      <c r="AA29">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2989,88 +2336,66 @@
         <v>7256</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>106.67450749779478</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-5.6453984122316854</v>
       </c>
       <c r="E30">
-        <v>25</v>
-      </c>
-      <c r="F30">
         <v>16</v>
       </c>
-      <c r="G30" s="19">
+      <c r="F30" s="19">
         <v>12.61</v>
       </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
       <c r="H30">
-        <v>1</v>
+        <v>5.8890000000000002</v>
       </c>
       <c r="I30">
-        <v>5.8890000000000002</v>
-      </c>
-      <c r="J30">
         <v>15.05</v>
       </c>
+      <c r="J30" s="2">
+        <v>1.69</v>
+      </c>
       <c r="K30" s="2">
-        <v>1.69</v>
-      </c>
-      <c r="L30" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="M30" s="10">
-        <f t="shared" si="0"/>
-        <v>23.751000000000001</v>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" si="1"/>
-        <v>8.7010000000000005</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" si="2"/>
-        <v>1.4844375000000001</v>
+      <c r="L30">
+        <v>243</v>
+      </c>
+      <c r="M30">
+        <v>584</v>
+      </c>
+      <c r="N30">
+        <v>127</v>
+      </c>
+      <c r="O30">
+        <v>219</v>
       </c>
       <c r="P30">
-        <v>243</v>
+        <v>2845</v>
       </c>
       <c r="Q30">
-        <v>584</v>
+        <v>311</v>
       </c>
       <c r="R30">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="S30">
-        <v>219</v>
-      </c>
-      <c r="T30" s="11">
-        <f t="shared" si="3"/>
-        <v>1173</v>
+        <v>428</v>
+      </c>
+      <c r="T30">
+        <v>65</v>
       </c>
       <c r="U30">
-        <v>2845</v>
-      </c>
-      <c r="V30">
-        <v>311</v>
-      </c>
-      <c r="W30">
-        <v>70</v>
-      </c>
-      <c r="X30">
-        <v>428</v>
-      </c>
-      <c r="Y30">
-        <v>65</v>
-      </c>
-      <c r="Z30">
         <v>42</v>
       </c>
-      <c r="AA30">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -3078,88 +2403,66 @@
         <v>6878</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>101.1173184357542</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-5.5571890620405782</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G31">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H31">
         <v>1</v>
       </c>
+      <c r="H31" s="3">
+        <v>7.0869999999999997</v>
+      </c>
       <c r="I31" s="3">
-        <v>7.0869999999999997</v>
-      </c>
-      <c r="J31" s="3">
         <v>15.33</v>
       </c>
+      <c r="J31" s="6">
+        <v>1.87</v>
+      </c>
       <c r="K31" s="6">
-        <v>1.87</v>
-      </c>
-      <c r="L31" s="6">
         <v>1.1484000000000001</v>
       </c>
-      <c r="M31" s="10">
-        <f t="shared" si="0"/>
-        <v>25.435400000000001</v>
-      </c>
-      <c r="N31" s="10">
-        <f t="shared" si="1"/>
-        <v>10.105400000000001</v>
-      </c>
-      <c r="O31" s="10">
-        <f t="shared" si="2"/>
-        <v>1.5897125000000001</v>
+      <c r="L31">
+        <v>213</v>
+      </c>
+      <c r="M31">
+        <v>619</v>
+      </c>
+      <c r="N31">
+        <v>118</v>
+      </c>
+      <c r="O31">
+        <v>275</v>
       </c>
       <c r="P31">
-        <v>213</v>
+        <v>3942</v>
       </c>
       <c r="Q31">
-        <v>619</v>
+        <v>351</v>
       </c>
       <c r="R31">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="S31">
-        <v>275</v>
-      </c>
-      <c r="T31" s="11">
-        <f t="shared" si="3"/>
-        <v>1225</v>
+        <v>322</v>
+      </c>
+      <c r="T31">
+        <v>150</v>
       </c>
       <c r="U31">
-        <v>3942</v>
-      </c>
-      <c r="V31">
-        <v>351</v>
-      </c>
-      <c r="W31">
-        <v>72</v>
-      </c>
-      <c r="X31">
-        <v>322</v>
-      </c>
-      <c r="Y31">
-        <v>150</v>
-      </c>
-      <c r="Z31">
         <v>31</v>
       </c>
-      <c r="AA31">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -3167,88 +2470,66 @@
         <v>6552</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>96.324610408703322</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-4.7927080270508782</v>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>16</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G32">
-        <v>10.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>6.8890000000000002</v>
       </c>
       <c r="I32">
-        <v>6.8890000000000002</v>
-      </c>
-      <c r="J32">
         <v>12.25</v>
       </c>
+      <c r="J32" s="2">
+        <v>1.69</v>
+      </c>
       <c r="K32" s="2">
-        <v>1.69</v>
-      </c>
-      <c r="L32" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="M32" s="10">
-        <f t="shared" si="0"/>
-        <v>21.951000000000001</v>
-      </c>
-      <c r="N32" s="10">
-        <f t="shared" si="1"/>
-        <v>9.7010000000000005</v>
-      </c>
-      <c r="O32" s="10">
-        <f t="shared" si="2"/>
-        <v>1.3719375</v>
+      <c r="L32">
+        <v>173</v>
+      </c>
+      <c r="M32">
+        <v>641</v>
+      </c>
+      <c r="N32">
+        <v>126</v>
+      </c>
+      <c r="O32">
+        <v>270</v>
       </c>
       <c r="P32">
+        <v>5385</v>
+      </c>
+      <c r="Q32">
+        <v>292</v>
+      </c>
+      <c r="R32">
+        <v>13</v>
+      </c>
+      <c r="S32">
         <v>173</v>
       </c>
-      <c r="Q32">
-        <v>641</v>
-      </c>
-      <c r="R32">
-        <v>126</v>
-      </c>
-      <c r="S32">
-        <v>270</v>
-      </c>
-      <c r="T32" s="11">
-        <f t="shared" si="3"/>
-        <v>1210</v>
+      <c r="T32">
+        <v>145</v>
       </c>
       <c r="U32">
-        <v>5385</v>
-      </c>
-      <c r="V32">
-        <v>292</v>
-      </c>
-      <c r="W32">
-        <v>13</v>
-      </c>
-      <c r="X32">
-        <v>173</v>
-      </c>
-      <c r="Y32">
-        <v>145</v>
-      </c>
-      <c r="Z32">
         <v>12</v>
       </c>
-      <c r="AA32">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -3256,88 +2537,66 @@
         <v>6337</v>
       </c>
       <c r="C33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>93.163775360188183</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-3.1608350485151391</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>10.1</v>
       </c>
       <c r="G33">
-        <v>10.1</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>7.4989999999999997</v>
       </c>
       <c r="I33">
-        <v>7.4989999999999997</v>
-      </c>
-      <c r="J33">
         <v>13.93</v>
       </c>
+      <c r="J33" s="2">
+        <v>1.95</v>
+      </c>
       <c r="K33" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="L33" s="2">
         <v>1.2804</v>
       </c>
-      <c r="M33" s="10">
-        <f t="shared" si="0"/>
-        <v>24.659399999999998</v>
-      </c>
-      <c r="N33" s="10">
-        <f t="shared" si="1"/>
-        <v>10.7294</v>
-      </c>
-      <c r="O33" s="10">
-        <f t="shared" si="2"/>
-        <v>1.5412124999999999</v>
+      <c r="L33">
+        <v>125</v>
+      </c>
+      <c r="M33">
+        <v>672</v>
+      </c>
+      <c r="N33">
+        <v>109</v>
+      </c>
+      <c r="O33">
+        <v>275</v>
       </c>
       <c r="P33">
-        <v>125</v>
+        <v>4833</v>
       </c>
       <c r="Q33">
-        <v>672</v>
+        <v>146</v>
       </c>
       <c r="R33">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="S33">
-        <v>275</v>
-      </c>
-      <c r="T33" s="11">
-        <f t="shared" si="3"/>
-        <v>1181</v>
+        <v>102</v>
+      </c>
+      <c r="T33">
+        <v>62</v>
       </c>
       <c r="U33">
-        <v>4833</v>
-      </c>
-      <c r="V33">
-        <v>146</v>
-      </c>
-      <c r="W33">
-        <v>21</v>
-      </c>
-      <c r="X33">
-        <v>102</v>
-      </c>
-      <c r="Y33">
-        <v>62</v>
-      </c>
-      <c r="Z33">
         <v>14</v>
       </c>
-      <c r="AA33">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -3345,88 +2604,66 @@
         <v>6199</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>91.134960305792418</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-2.0288150543957642</v>
       </c>
       <c r="E34">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F34">
-        <v>18</v>
+        <v>10.1</v>
       </c>
       <c r="G34">
-        <v>10.1</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>9.3539999999999992</v>
       </c>
       <c r="I34">
-        <v>9.3539999999999992</v>
-      </c>
-      <c r="J34">
         <v>15.61</v>
       </c>
+      <c r="J34" s="2">
+        <v>3.17</v>
+      </c>
       <c r="K34" s="2">
-        <v>3.17</v>
-      </c>
-      <c r="L34" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="M34" s="10">
-        <f t="shared" si="0"/>
-        <v>29.916</v>
-      </c>
-      <c r="N34" s="10">
-        <f t="shared" si="1"/>
-        <v>14.305999999999999</v>
-      </c>
-      <c r="O34" s="10">
-        <f t="shared" si="2"/>
-        <v>1.6619999999999999</v>
+      <c r="L34">
+        <v>113</v>
+      </c>
+      <c r="M34">
+        <v>639</v>
+      </c>
+      <c r="N34">
+        <v>113</v>
+      </c>
+      <c r="O34">
+        <v>279</v>
       </c>
       <c r="P34">
-        <v>113</v>
+        <v>4728</v>
       </c>
       <c r="Q34">
-        <v>639</v>
+        <v>184</v>
       </c>
       <c r="R34">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="S34">
-        <v>279</v>
-      </c>
-      <c r="T34" s="11">
-        <f t="shared" si="3"/>
-        <v>1144</v>
+        <v>135</v>
+      </c>
+      <c r="T34">
+        <v>50</v>
       </c>
       <c r="U34">
-        <v>4728</v>
-      </c>
-      <c r="V34">
-        <v>184</v>
-      </c>
-      <c r="W34">
         <v>29</v>
       </c>
-      <c r="X34">
-        <v>135</v>
-      </c>
-      <c r="Y34">
-        <v>50</v>
-      </c>
-      <c r="Z34">
-        <v>29</v>
-      </c>
-      <c r="AA34">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -3434,88 +2671,66 @@
         <v>6083</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>89.429579535430761</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.705380770361657</v>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>11.162000000000001</v>
       </c>
       <c r="I35">
-        <v>11.162000000000001</v>
-      </c>
-      <c r="J35">
         <v>21</v>
       </c>
+      <c r="J35" s="2">
+        <v>3.12</v>
+      </c>
       <c r="K35" s="2">
-        <v>3.12</v>
-      </c>
-      <c r="L35" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="M35" s="10">
-        <f t="shared" si="0"/>
-        <v>36.9848</v>
-      </c>
-      <c r="N35" s="10">
-        <f t="shared" si="1"/>
-        <v>15.9848</v>
-      </c>
-      <c r="O35" s="10">
-        <f t="shared" si="2"/>
-        <v>2.0547111111111112</v>
+      <c r="L35">
+        <v>143</v>
+      </c>
+      <c r="M35">
+        <v>596</v>
+      </c>
+      <c r="N35">
+        <v>95</v>
+      </c>
+      <c r="O35">
+        <v>308</v>
       </c>
       <c r="P35">
-        <v>143</v>
+        <v>2939</v>
       </c>
       <c r="Q35">
-        <v>596</v>
+        <v>171</v>
       </c>
       <c r="R35">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="S35">
-        <v>308</v>
-      </c>
-      <c r="T35" s="11">
-        <f t="shared" si="3"/>
-        <v>1142</v>
+        <v>252</v>
+      </c>
+      <c r="T35">
+        <v>75</v>
       </c>
       <c r="U35">
-        <v>2939</v>
-      </c>
-      <c r="V35">
-        <v>171</v>
-      </c>
-      <c r="W35">
         <v>26</v>
       </c>
-      <c r="X35">
-        <v>252</v>
-      </c>
-      <c r="Y35">
-        <v>75</v>
-      </c>
-      <c r="Z35">
-        <v>26</v>
-      </c>
-      <c r="AA35">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -3523,88 +2738,66 @@
         <v>6015</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>88.429873566598062</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.99970596883269991</v>
       </c>
       <c r="E36">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <v>18</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G36">
-        <v>10.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>12.781000000000001</v>
       </c>
       <c r="I36">
-        <v>12.781000000000001</v>
-      </c>
-      <c r="J36">
         <v>15.05</v>
       </c>
+      <c r="J36" s="2">
+        <v>3.84</v>
+      </c>
       <c r="K36" s="2">
-        <v>3.84</v>
-      </c>
-      <c r="L36" s="2">
         <v>2.3628</v>
       </c>
-      <c r="M36" s="10">
-        <f t="shared" si="0"/>
-        <v>34.033799999999999</v>
-      </c>
-      <c r="N36" s="10">
-        <f t="shared" si="1"/>
-        <v>18.983800000000002</v>
-      </c>
-      <c r="O36" s="10">
-        <f t="shared" si="2"/>
-        <v>1.8907666666666667</v>
+      <c r="L36">
+        <v>155</v>
+      </c>
+      <c r="M36">
+        <v>612</v>
+      </c>
+      <c r="N36">
+        <v>89</v>
+      </c>
+      <c r="O36">
+        <v>309</v>
       </c>
       <c r="P36">
-        <v>155</v>
+        <v>2990</v>
       </c>
       <c r="Q36">
-        <v>612</v>
+        <v>401</v>
       </c>
       <c r="R36">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="S36">
-        <v>309</v>
-      </c>
-      <c r="T36" s="11">
-        <f t="shared" si="3"/>
-        <v>1165</v>
+        <v>312</v>
+      </c>
+      <c r="T36">
+        <v>289</v>
       </c>
       <c r="U36">
-        <v>2990</v>
-      </c>
-      <c r="V36">
-        <v>401</v>
-      </c>
-      <c r="W36">
         <v>15</v>
       </c>
-      <c r="X36">
-        <v>312</v>
-      </c>
-      <c r="Y36">
-        <v>289</v>
-      </c>
-      <c r="Z36">
-        <v>15</v>
-      </c>
-      <c r="AA36">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -3612,88 +2805,66 @@
         <v>5973</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>87.812408115260226</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.6174654513378357</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F37">
-        <v>18</v>
+        <v>10.3</v>
       </c>
       <c r="G37">
-        <v>10.3</v>
-      </c>
-      <c r="H37">
         <v>1</v>
       </c>
+      <c r="H37" s="3">
+        <v>8.6880000000000006</v>
+      </c>
       <c r="I37" s="3">
-        <v>8.6880000000000006</v>
-      </c>
-      <c r="J37" s="3">
         <v>10.5</v>
       </c>
+      <c r="J37" s="6">
+        <v>2.61</v>
+      </c>
       <c r="K37" s="6">
-        <v>2.61</v>
-      </c>
-      <c r="L37" s="6">
         <v>1.9668000000000001</v>
       </c>
-      <c r="M37" s="10">
-        <f t="shared" si="0"/>
-        <v>23.764800000000001</v>
-      </c>
-      <c r="N37" s="10">
-        <f t="shared" si="1"/>
-        <v>13.264800000000001</v>
-      </c>
-      <c r="O37" s="10">
-        <f t="shared" si="2"/>
-        <v>1.3202666666666667</v>
+      <c r="L37">
+        <v>181</v>
+      </c>
+      <c r="M37">
+        <v>588</v>
+      </c>
+      <c r="N37">
+        <v>71</v>
+      </c>
+      <c r="O37">
+        <v>345</v>
       </c>
       <c r="P37">
-        <v>181</v>
+        <v>3491</v>
       </c>
       <c r="Q37">
-        <v>588</v>
+        <v>359</v>
       </c>
       <c r="R37">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="S37">
-        <v>345</v>
-      </c>
-      <c r="T37" s="11">
-        <f t="shared" si="3"/>
-        <v>1185</v>
+        <v>359</v>
+      </c>
+      <c r="T37">
+        <v>246</v>
       </c>
       <c r="U37">
-        <v>3491</v>
-      </c>
-      <c r="V37">
-        <v>359</v>
-      </c>
-      <c r="W37">
         <v>9</v>
       </c>
-      <c r="X37">
-        <v>359</v>
-      </c>
-      <c r="Y37">
-        <v>246</v>
-      </c>
-      <c r="Z37">
-        <v>9</v>
-      </c>
-      <c r="AA37">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -3701,88 +2872,66 @@
         <v>5919</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>87.018523963540147</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.79388415172007853</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>10.4</v>
       </c>
       <c r="G38">
-        <v>10.4</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>8.3629999999999995</v>
       </c>
       <c r="I38">
-        <v>8.3629999999999995</v>
-      </c>
-      <c r="J38">
         <v>17.78</v>
       </c>
+      <c r="J38" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="K38" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L38" s="2">
         <v>1.6764000000000001</v>
       </c>
-      <c r="M38" s="10">
-        <f t="shared" si="0"/>
-        <v>30.019400000000001</v>
-      </c>
-      <c r="N38" s="10">
-        <f t="shared" si="1"/>
-        <v>12.2394</v>
-      </c>
-      <c r="O38" s="10">
-        <f t="shared" si="2"/>
-        <v>1.6677444444444445</v>
+      <c r="L38">
+        <v>192</v>
+      </c>
+      <c r="M38">
+        <v>565</v>
+      </c>
+      <c r="N38">
+        <v>81</v>
+      </c>
+      <c r="O38">
+        <v>359</v>
       </c>
       <c r="P38">
-        <v>192</v>
+        <v>2843</v>
       </c>
       <c r="Q38">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="R38">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="S38">
-        <v>359</v>
-      </c>
-      <c r="T38" s="11">
-        <f t="shared" si="3"/>
-        <v>1197</v>
+        <v>334</v>
+      </c>
+      <c r="T38">
+        <v>178</v>
       </c>
       <c r="U38">
-        <v>2843</v>
-      </c>
-      <c r="V38">
-        <v>518</v>
-      </c>
-      <c r="W38">
-        <v>27</v>
-      </c>
-      <c r="X38">
-        <v>334</v>
-      </c>
-      <c r="Y38">
-        <v>178</v>
-      </c>
-      <c r="Z38">
         <v>14</v>
       </c>
-      <c r="AA38">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -3790,88 +2939,66 @@
         <v>5891</v>
       </c>
       <c r="C39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>86.606880329314919</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.41164363422522854</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F39">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="G39">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>7.7290000000000001</v>
       </c>
       <c r="I39">
-        <v>7.7290000000000001</v>
-      </c>
-      <c r="J39">
         <v>10.220000000000001</v>
       </c>
+      <c r="J39" s="2">
+        <v>1.77</v>
+      </c>
       <c r="K39" s="2">
-        <v>1.77</v>
-      </c>
-      <c r="L39" s="2">
         <v>1.3464</v>
       </c>
-      <c r="M39" s="10">
-        <f t="shared" si="0"/>
-        <v>21.0654</v>
-      </c>
-      <c r="N39" s="10">
-        <f t="shared" si="1"/>
-        <v>10.845400000000001</v>
-      </c>
-      <c r="O39" s="10">
-        <f t="shared" si="2"/>
-        <v>1.1703000000000001</v>
+      <c r="L39">
+        <v>185</v>
+      </c>
+      <c r="M39">
+        <v>561</v>
+      </c>
+      <c r="N39">
+        <v>74</v>
+      </c>
+      <c r="O39">
+        <v>360</v>
       </c>
       <c r="P39">
-        <v>185</v>
+        <v>4159</v>
       </c>
       <c r="Q39">
-        <v>561</v>
+        <v>339</v>
       </c>
       <c r="R39">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="S39">
-        <v>360</v>
-      </c>
-      <c r="T39" s="11">
-        <f t="shared" si="3"/>
-        <v>1180</v>
+        <v>298</v>
+      </c>
+      <c r="T39">
+        <v>110</v>
       </c>
       <c r="U39">
-        <v>4159</v>
-      </c>
-      <c r="V39">
-        <v>339</v>
-      </c>
-      <c r="W39">
-        <v>17</v>
-      </c>
-      <c r="X39">
-        <v>298</v>
-      </c>
-      <c r="Y39">
-        <v>110</v>
-      </c>
-      <c r="Z39">
         <v>19</v>
       </c>
-      <c r="AA39">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3879,88 +3006,66 @@
         <v>5862</v>
       </c>
       <c r="C40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>86.180535136724501</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.42634519259041781</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F40">
-        <v>18</v>
+        <v>10.7</v>
       </c>
       <c r="G40">
-        <v>10.7</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>8.9870000000000001</v>
       </c>
       <c r="I40">
-        <v>8.9870000000000001</v>
-      </c>
-      <c r="J40">
         <v>12.39</v>
       </c>
+      <c r="J40" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="K40" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L40" s="2">
         <v>1.5840000000000001</v>
       </c>
-      <c r="M40" s="10">
-        <f t="shared" si="0"/>
-        <v>25.161000000000001</v>
-      </c>
-      <c r="N40" s="10">
-        <f t="shared" si="1"/>
-        <v>12.771000000000001</v>
-      </c>
-      <c r="O40" s="10">
-        <f t="shared" si="2"/>
-        <v>1.3978333333333335</v>
+      <c r="L40">
+        <v>157</v>
+      </c>
+      <c r="M40">
+        <v>568</v>
+      </c>
+      <c r="N40">
+        <v>69</v>
+      </c>
+      <c r="O40">
+        <v>374</v>
       </c>
       <c r="P40">
-        <v>157</v>
+        <v>4775</v>
       </c>
       <c r="Q40">
-        <v>568</v>
+        <v>238</v>
       </c>
       <c r="R40">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="S40">
-        <v>374</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" si="3"/>
-        <v>1168</v>
+        <v>320</v>
+      </c>
+      <c r="T40">
+        <v>42</v>
       </c>
       <c r="U40">
-        <v>4775</v>
-      </c>
-      <c r="V40">
-        <v>238</v>
-      </c>
-      <c r="W40">
         <v>25</v>
       </c>
-      <c r="X40">
-        <v>320</v>
-      </c>
-      <c r="Y40">
-        <v>42</v>
-      </c>
-      <c r="Z40">
-        <v>25</v>
-      </c>
-      <c r="AA40">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3968,88 +3073,66 @@
         <v>5821</v>
       </c>
       <c r="C41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>85.57777124375184</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.60276389297266064</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>10.718999999999999</v>
       </c>
       <c r="I41">
-        <v>10.718999999999999</v>
-      </c>
-      <c r="J41">
         <v>18.55</v>
       </c>
+      <c r="J41" s="2">
+        <v>2.5299999999999998</v>
+      </c>
       <c r="K41" s="2">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="L41" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="M41" s="10">
-        <f t="shared" si="0"/>
-        <v>33.581000000000003</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="1"/>
-        <v>15.030999999999999</v>
-      </c>
-      <c r="O41" s="10">
-        <f t="shared" si="2"/>
-        <v>1.8656111111111113</v>
+      <c r="L41">
+        <v>157</v>
+      </c>
+      <c r="M41">
+        <v>560</v>
+      </c>
+      <c r="N41">
+        <v>71</v>
+      </c>
+      <c r="O41">
+        <v>361</v>
       </c>
       <c r="P41">
-        <v>157</v>
+        <v>5072</v>
       </c>
       <c r="Q41">
-        <v>560</v>
+        <v>362</v>
       </c>
       <c r="R41">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="S41">
-        <v>361</v>
-      </c>
-      <c r="T41" s="11">
-        <f t="shared" si="3"/>
-        <v>1149</v>
+        <v>161</v>
+      </c>
+      <c r="T41">
+        <v>61</v>
       </c>
       <c r="U41">
-        <v>5072</v>
-      </c>
-      <c r="V41">
-        <v>362</v>
-      </c>
-      <c r="W41">
-        <v>25</v>
-      </c>
-      <c r="X41">
-        <v>161</v>
-      </c>
-      <c r="Y41">
-        <v>61</v>
-      </c>
-      <c r="Z41">
         <v>8</v>
       </c>
-      <c r="AA41">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -4057,88 +3140,66 @@
         <v>5788</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>85.09261981770068</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.48515142605116068</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F42">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>8.6880000000000006</v>
       </c>
       <c r="I42">
-        <v>8.6880000000000006</v>
-      </c>
-      <c r="J42">
         <v>15.89</v>
       </c>
+      <c r="J42" s="2">
+        <v>2.4300000000000002</v>
+      </c>
       <c r="K42" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="L42" s="2">
         <v>1.5312000000000001</v>
       </c>
-      <c r="M42" s="10">
-        <f t="shared" si="0"/>
-        <v>28.539200000000001</v>
-      </c>
-      <c r="N42" s="10">
-        <f t="shared" si="1"/>
-        <v>12.6492</v>
-      </c>
-      <c r="O42" s="10">
-        <f t="shared" si="2"/>
-        <v>1.5855111111111111</v>
+      <c r="L42">
+        <v>133</v>
+      </c>
+      <c r="M42">
+        <v>574</v>
+      </c>
+      <c r="N42">
+        <v>78</v>
+      </c>
+      <c r="O42">
+        <v>349</v>
       </c>
       <c r="P42">
-        <v>133</v>
+        <v>5365</v>
       </c>
       <c r="Q42">
-        <v>574</v>
+        <v>252</v>
       </c>
       <c r="R42">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="S42">
-        <v>349</v>
-      </c>
-      <c r="T42" s="11">
-        <f t="shared" si="3"/>
-        <v>1134</v>
+        <v>236</v>
+      </c>
+      <c r="T42">
+        <v>128</v>
       </c>
       <c r="U42">
-        <v>5365</v>
-      </c>
-      <c r="V42">
-        <v>252</v>
-      </c>
-      <c r="W42">
-        <v>10</v>
-      </c>
-      <c r="X42">
-        <v>236</v>
-      </c>
-      <c r="Y42">
-        <v>128</v>
-      </c>
-      <c r="Z42">
         <v>6</v>
       </c>
-      <c r="AA42">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -4146,88 +3207,66 @@
         <v>5776</v>
       </c>
       <c r="C43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>84.916201117318437</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.17641870038224283</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>7.7290000000000001</v>
       </c>
       <c r="I43">
-        <v>7.7290000000000001</v>
-      </c>
-      <c r="J43">
         <v>12.67</v>
       </c>
+      <c r="J43" s="2">
+        <v>1.87</v>
+      </c>
       <c r="K43" s="2">
-        <v>1.87</v>
-      </c>
-      <c r="L43" s="2">
         <v>1.4387999999999999</v>
       </c>
-      <c r="M43" s="10">
-        <f t="shared" si="0"/>
-        <v>23.707800000000002</v>
-      </c>
-      <c r="N43" s="10">
-        <f t="shared" si="1"/>
-        <v>11.037800000000001</v>
-      </c>
-      <c r="O43" s="10">
-        <f t="shared" si="2"/>
-        <v>1.3171000000000002</v>
+      <c r="L43">
+        <v>118</v>
+      </c>
+      <c r="M43">
+        <v>565</v>
+      </c>
+      <c r="N43">
+        <v>76</v>
+      </c>
+      <c r="O43">
+        <v>311</v>
       </c>
       <c r="P43">
-        <v>118</v>
+        <v>8340</v>
       </c>
       <c r="Q43">
-        <v>565</v>
+        <v>230</v>
       </c>
       <c r="R43">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="S43">
-        <v>311</v>
-      </c>
-      <c r="T43" s="11">
-        <f t="shared" si="3"/>
-        <v>1070</v>
+        <v>150</v>
+      </c>
+      <c r="T43">
+        <v>181</v>
       </c>
       <c r="U43">
-        <v>8340</v>
-      </c>
-      <c r="V43">
-        <v>230</v>
-      </c>
-      <c r="W43">
         <v>232</v>
       </c>
-      <c r="X43">
-        <v>150</v>
-      </c>
-      <c r="Y43">
-        <v>181</v>
-      </c>
-      <c r="Z43">
-        <v>232</v>
-      </c>
-      <c r="AA43">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -4235,88 +3274,66 @@
         <v>5718</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>84.063510732137615</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.85269038518082141</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F44">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G44">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>7.7290000000000001</v>
       </c>
       <c r="I44">
-        <v>7.7290000000000001</v>
-      </c>
-      <c r="J44">
         <v>8.89</v>
       </c>
+      <c r="J44" s="2">
+        <v>1.77</v>
+      </c>
       <c r="K44" s="2">
-        <v>1.77</v>
-      </c>
-      <c r="L44" s="2">
         <v>1.3728</v>
       </c>
-      <c r="M44" s="10">
-        <f t="shared" si="0"/>
-        <v>19.761800000000001</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="1"/>
-        <v>10.8718</v>
-      </c>
-      <c r="O44" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0978777777777777</v>
+      <c r="L44">
+        <v>87</v>
+      </c>
+      <c r="M44">
+        <v>566</v>
+      </c>
+      <c r="N44">
+        <v>69</v>
+      </c>
+      <c r="O44">
+        <v>315</v>
       </c>
       <c r="P44">
-        <v>87</v>
+        <v>6490</v>
       </c>
       <c r="Q44">
-        <v>566</v>
+        <v>136</v>
       </c>
       <c r="R44">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S44">
-        <v>315</v>
-      </c>
-      <c r="T44" s="11">
-        <f t="shared" si="3"/>
-        <v>1037</v>
+        <v>161</v>
+      </c>
+      <c r="T44">
+        <v>62</v>
       </c>
       <c r="U44">
-        <v>6490</v>
-      </c>
-      <c r="V44">
-        <v>136</v>
-      </c>
-      <c r="W44">
-        <v>71</v>
-      </c>
-      <c r="X44">
-        <v>161</v>
-      </c>
-      <c r="Y44">
-        <v>62</v>
-      </c>
-      <c r="Z44">
         <v>39</v>
       </c>
-      <c r="AA44">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -4324,88 +3341,66 @@
         <v>5641</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>82.93149073801824</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.1320199941193749</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F45">
-        <v>18</v>
+        <v>11.1</v>
       </c>
       <c r="G45">
-        <v>11.1</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>7.1150000000000002</v>
       </c>
       <c r="I45">
-        <v>7.1150000000000002</v>
-      </c>
-      <c r="J45">
         <v>9.17</v>
       </c>
+      <c r="J45" s="2">
+        <v>1.64</v>
+      </c>
       <c r="K45" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="L45" s="2">
         <v>1.3464</v>
       </c>
-      <c r="M45" s="10">
-        <f t="shared" si="0"/>
-        <v>19.2714</v>
-      </c>
-      <c r="N45" s="10">
-        <f t="shared" si="1"/>
-        <v>10.101400000000002</v>
-      </c>
-      <c r="O45" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0706333333333333</v>
+      <c r="L45">
+        <v>96</v>
+      </c>
+      <c r="M45">
+        <v>526</v>
+      </c>
+      <c r="N45">
+        <v>70</v>
+      </c>
+      <c r="O45">
+        <v>322</v>
       </c>
       <c r="P45">
-        <v>96</v>
+        <v>6044</v>
       </c>
       <c r="Q45">
-        <v>526</v>
+        <v>214</v>
       </c>
       <c r="R45">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="S45">
-        <v>322</v>
-      </c>
-      <c r="T45" s="11">
-        <f t="shared" si="3"/>
-        <v>1014</v>
+        <v>63</v>
+      </c>
+      <c r="T45">
+        <v>66</v>
       </c>
       <c r="U45">
-        <v>6044</v>
-      </c>
-      <c r="V45">
-        <v>214</v>
-      </c>
-      <c r="W45">
         <v>12</v>
       </c>
-      <c r="X45">
-        <v>63</v>
-      </c>
-      <c r="Y45">
-        <v>66</v>
-      </c>
-      <c r="Z45">
-        <v>12</v>
-      </c>
-      <c r="AA45">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -4413,88 +3408,66 @@
         <v>5595</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>82.255219053219648</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.67627168479859279</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F46">
-        <v>18</v>
+        <v>11.2</v>
       </c>
       <c r="G46">
-        <v>11.2</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>9.2829999999999995</v>
       </c>
       <c r="I46">
-        <v>9.2829999999999995</v>
-      </c>
-      <c r="J46">
         <v>10.220000000000001</v>
       </c>
+      <c r="J46" s="2">
+        <v>2.59</v>
+      </c>
       <c r="K46" s="2">
-        <v>2.59</v>
-      </c>
-      <c r="L46" s="2">
         <v>1.518</v>
       </c>
-      <c r="M46" s="10">
-        <f t="shared" si="0"/>
-        <v>23.611000000000001</v>
-      </c>
-      <c r="N46" s="10">
-        <f t="shared" si="1"/>
-        <v>13.391</v>
-      </c>
-      <c r="O46" s="10">
-        <f t="shared" si="2"/>
-        <v>1.3117222222222222</v>
+      <c r="L46">
+        <v>93</v>
+      </c>
+      <c r="M46">
+        <v>496</v>
+      </c>
+      <c r="N46">
+        <v>72</v>
+      </c>
+      <c r="O46">
+        <v>330</v>
       </c>
       <c r="P46">
-        <v>93</v>
+        <v>6002</v>
       </c>
       <c r="Q46">
-        <v>496</v>
+        <v>269</v>
       </c>
       <c r="R46">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="S46">
-        <v>330</v>
-      </c>
-      <c r="T46" s="11">
-        <f t="shared" si="3"/>
-        <v>991</v>
+        <v>62</v>
+      </c>
+      <c r="T46">
+        <v>76</v>
       </c>
       <c r="U46">
-        <v>6002</v>
-      </c>
-      <c r="V46">
-        <v>269</v>
-      </c>
-      <c r="W46">
-        <v>50</v>
-      </c>
-      <c r="X46">
-        <v>62</v>
-      </c>
-      <c r="Y46">
-        <v>76</v>
-      </c>
-      <c r="Z46">
         <v>25</v>
       </c>
-      <c r="AA46">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -4502,88 +3475,66 @@
         <v>5523</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>81.196706850926205</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.0585122022934428</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F47">
-        <v>21</v>
+        <v>11.4</v>
       </c>
       <c r="G47">
-        <v>11.4</v>
-      </c>
-      <c r="H47">
         <v>1</v>
       </c>
+      <c r="H47" s="3">
+        <v>10.127000000000001</v>
+      </c>
       <c r="I47" s="3">
-        <v>10.127000000000001</v>
-      </c>
-      <c r="J47" s="3">
         <v>12.11</v>
       </c>
+      <c r="J47" s="6">
+        <v>2.74</v>
+      </c>
       <c r="K47" s="6">
-        <v>2.74</v>
-      </c>
-      <c r="L47" s="6">
         <v>2.0592000000000001</v>
       </c>
-      <c r="M47" s="10">
-        <f t="shared" si="0"/>
-        <v>27.036200000000004</v>
-      </c>
-      <c r="N47" s="10">
-        <f t="shared" si="1"/>
-        <v>14.926200000000001</v>
-      </c>
-      <c r="O47" s="10">
-        <f t="shared" si="2"/>
-        <v>1.2874380952380955</v>
+      <c r="L47">
+        <v>102</v>
+      </c>
+      <c r="M47">
+        <v>488</v>
+      </c>
+      <c r="N47">
+        <v>61</v>
+      </c>
+      <c r="O47">
+        <v>323</v>
       </c>
       <c r="P47">
-        <v>102</v>
+        <v>6575</v>
       </c>
       <c r="Q47">
-        <v>488</v>
+        <v>329</v>
       </c>
       <c r="R47">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="S47">
-        <v>323</v>
-      </c>
-      <c r="T47" s="11">
-        <f t="shared" si="3"/>
-        <v>974</v>
+        <v>59</v>
+      </c>
+      <c r="T47">
+        <v>31</v>
       </c>
       <c r="U47">
-        <v>6575</v>
-      </c>
-      <c r="V47">
-        <v>329</v>
-      </c>
-      <c r="W47">
-        <v>38</v>
-      </c>
-      <c r="X47">
-        <v>59</v>
-      </c>
-      <c r="Y47">
-        <v>31</v>
-      </c>
-      <c r="Z47">
         <v>36</v>
       </c>
-      <c r="AA47">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -4591,88 +3542,66 @@
         <v>5487</v>
       </c>
       <c r="C48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>80.667450749779476</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.5292561011467285</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F48">
-        <v>24</v>
+        <v>11.4</v>
       </c>
       <c r="G48">
-        <v>11.4</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>12.676</v>
       </c>
       <c r="I48">
-        <v>12.676</v>
-      </c>
-      <c r="J48">
         <v>14</v>
       </c>
+      <c r="J48" s="2">
+        <v>3.2</v>
+      </c>
       <c r="K48" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="L48" s="2">
         <v>1.9668000000000001</v>
       </c>
-      <c r="M48" s="10">
-        <f t="shared" si="0"/>
-        <v>31.8428</v>
-      </c>
-      <c r="N48" s="10">
-        <f t="shared" si="1"/>
-        <v>17.8428</v>
-      </c>
-      <c r="O48" s="10">
-        <f t="shared" si="2"/>
-        <v>1.3267833333333334</v>
+      <c r="L48">
+        <v>88</v>
+      </c>
+      <c r="M48">
+        <v>475</v>
+      </c>
+      <c r="N48">
+        <v>69</v>
+      </c>
+      <c r="O48">
+        <v>308</v>
       </c>
       <c r="P48">
-        <v>88</v>
+        <v>7022</v>
       </c>
       <c r="Q48">
-        <v>475</v>
+        <v>360</v>
       </c>
       <c r="R48">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S48">
-        <v>308</v>
-      </c>
-      <c r="T48" s="11">
-        <f t="shared" si="3"/>
-        <v>940</v>
+        <v>52</v>
+      </c>
+      <c r="T48">
+        <v>57</v>
       </c>
       <c r="U48">
-        <v>7022</v>
-      </c>
-      <c r="V48">
-        <v>360</v>
-      </c>
-      <c r="W48">
-        <v>71</v>
-      </c>
-      <c r="X48">
-        <v>52</v>
-      </c>
-      <c r="Y48">
-        <v>57</v>
-      </c>
-      <c r="Z48">
         <v>30</v>
       </c>
-      <c r="AA48">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -4680,88 +3609,66 @@
         <v>5466</v>
       </c>
       <c r="C49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>80.358718024110559</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.30873272566891785</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F49">
-        <v>24</v>
+        <v>11.4</v>
       </c>
       <c r="G49">
-        <v>11.4</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>10.718999999999999</v>
       </c>
       <c r="I49">
-        <v>10.718999999999999</v>
-      </c>
-      <c r="J49">
         <v>12.39</v>
       </c>
+      <c r="J49" s="2">
+        <v>3</v>
+      </c>
       <c r="K49" s="2">
-        <v>3</v>
-      </c>
-      <c r="L49" s="2">
         <v>2.0460000000000003</v>
       </c>
-      <c r="M49" s="10">
-        <f t="shared" si="0"/>
-        <v>28.155000000000001</v>
-      </c>
-      <c r="N49" s="10">
-        <f t="shared" si="1"/>
-        <v>15.765000000000001</v>
-      </c>
-      <c r="O49" s="10">
-        <f t="shared" si="2"/>
-        <v>1.173125</v>
+      <c r="L49">
+        <v>93</v>
+      </c>
+      <c r="M49">
+        <v>486</v>
+      </c>
+      <c r="N49">
+        <v>75</v>
+      </c>
+      <c r="O49">
+        <v>320</v>
       </c>
       <c r="P49">
-        <v>93</v>
+        <v>7103</v>
       </c>
       <c r="Q49">
-        <v>486</v>
+        <v>159</v>
       </c>
       <c r="R49">
+        <v>36</v>
+      </c>
+      <c r="S49">
+        <v>52</v>
+      </c>
+      <c r="T49">
         <v>75</v>
       </c>
-      <c r="S49">
-        <v>320</v>
-      </c>
-      <c r="T49" s="11">
-        <f t="shared" si="3"/>
-        <v>974</v>
-      </c>
       <c r="U49">
-        <v>7103</v>
-      </c>
-      <c r="V49">
-        <v>159</v>
-      </c>
-      <c r="W49">
-        <v>36</v>
-      </c>
-      <c r="X49">
-        <v>52</v>
-      </c>
-      <c r="Y49">
-        <v>75</v>
-      </c>
-      <c r="Z49">
         <v>35</v>
       </c>
-      <c r="AA49">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -4769,88 +3676,66 @@
         <v>5449</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>80.108791531902384</v>
       </c>
       <c r="D50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.24992649220817498</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F50">
-        <v>24</v>
+        <v>11.7</v>
       </c>
       <c r="G50">
-        <v>11.7</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>10.512</v>
       </c>
       <c r="I50">
-        <v>10.512</v>
-      </c>
-      <c r="J50">
         <v>10.78</v>
       </c>
+      <c r="J50" s="2">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="K50" s="2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="L50" s="2">
         <v>1.9536000000000002</v>
       </c>
-      <c r="M50" s="10">
-        <f t="shared" si="0"/>
-        <v>25.755600000000001</v>
-      </c>
-      <c r="N50" s="10">
-        <f t="shared" si="1"/>
-        <v>14.9756</v>
-      </c>
-      <c r="O50" s="10">
-        <f t="shared" si="2"/>
-        <v>1.07315</v>
+      <c r="L50">
+        <v>87</v>
+      </c>
+      <c r="M50">
+        <v>481</v>
+      </c>
+      <c r="N50">
+        <v>90</v>
+      </c>
+      <c r="O50">
+        <v>320</v>
       </c>
       <c r="P50">
-        <v>87</v>
+        <v>8003</v>
       </c>
       <c r="Q50">
-        <v>481</v>
+        <v>213</v>
       </c>
       <c r="R50">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="S50">
-        <v>320</v>
-      </c>
-      <c r="T50" s="11">
-        <f t="shared" si="3"/>
-        <v>978</v>
+        <v>51</v>
+      </c>
+      <c r="T50">
+        <v>93</v>
       </c>
       <c r="U50">
-        <v>8003</v>
-      </c>
-      <c r="V50">
-        <v>213</v>
-      </c>
-      <c r="W50">
-        <v>41</v>
-      </c>
-      <c r="X50">
-        <v>51</v>
-      </c>
-      <c r="Y50">
-        <v>93</v>
-      </c>
-      <c r="Z50">
         <v>40</v>
       </c>
-      <c r="AA50">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -4858,88 +3743,66 @@
         <v>5419</v>
       </c>
       <c r="C51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>79.667744780946791</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.44104675095559287</v>
       </c>
       <c r="E51">
         <v>24</v>
       </c>
       <c r="F51">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G51">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>9.8309999999999995</v>
       </c>
       <c r="I51">
-        <v>9.8309999999999995</v>
-      </c>
-      <c r="J51">
         <v>12.95</v>
       </c>
+      <c r="J51" s="2">
+        <v>2.15</v>
+      </c>
       <c r="K51" s="2">
-        <v>2.15</v>
-      </c>
-      <c r="L51" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="M51" s="10">
-        <f t="shared" si="0"/>
-        <v>26.488599999999998</v>
-      </c>
-      <c r="N51" s="10">
-        <f t="shared" si="1"/>
-        <v>13.538600000000001</v>
-      </c>
-      <c r="O51" s="10">
-        <f t="shared" si="2"/>
-        <v>1.1036916666666665</v>
+      <c r="L51">
+        <v>80</v>
+      </c>
+      <c r="M51">
+        <v>461</v>
+      </c>
+      <c r="N51">
+        <v>97</v>
+      </c>
+      <c r="O51">
+        <v>319</v>
       </c>
       <c r="P51">
-        <v>80</v>
+        <v>7704</v>
       </c>
       <c r="Q51">
-        <v>461</v>
+        <v>259</v>
       </c>
       <c r="R51">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="S51">
-        <v>319</v>
-      </c>
-      <c r="T51" s="11">
-        <f t="shared" si="3"/>
-        <v>957</v>
+        <v>50</v>
+      </c>
+      <c r="T51">
+        <v>110</v>
       </c>
       <c r="U51">
-        <v>7704</v>
-      </c>
-      <c r="V51">
-        <v>259</v>
-      </c>
-      <c r="W51">
-        <v>55</v>
-      </c>
-      <c r="X51">
-        <v>50</v>
-      </c>
-      <c r="Y51">
-        <v>110</v>
-      </c>
-      <c r="Z51">
         <v>45</v>
       </c>
-      <c r="AA51">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -4947,88 +3810,66 @@
         <v>5398</v>
       </c>
       <c r="C52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>79.359012055277859</v>
       </c>
       <c r="D52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.30873272566893206</v>
       </c>
       <c r="E52">
         <v>24</v>
       </c>
       <c r="F52">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G52">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>10.007999999999999</v>
       </c>
       <c r="I52">
-        <v>10.007999999999999</v>
-      </c>
-      <c r="J52">
         <v>13.72</v>
       </c>
+      <c r="J52" s="2">
+        <v>2.61</v>
+      </c>
       <c r="K52" s="2">
-        <v>2.61</v>
-      </c>
-      <c r="L52" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="M52" s="10">
-        <f t="shared" si="0"/>
-        <v>28.040800000000001</v>
-      </c>
-      <c r="N52" s="10">
-        <f t="shared" si="1"/>
-        <v>14.320799999999998</v>
-      </c>
-      <c r="O52" s="10">
-        <f t="shared" si="2"/>
-        <v>1.1683666666666668</v>
+      <c r="L52">
+        <v>74</v>
+      </c>
+      <c r="M52">
+        <v>458</v>
+      </c>
+      <c r="N52">
+        <v>89</v>
+      </c>
+      <c r="O52">
+        <v>322</v>
       </c>
       <c r="P52">
-        <v>74</v>
+        <v>8848</v>
       </c>
       <c r="Q52">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="R52">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="S52">
-        <v>322</v>
-      </c>
-      <c r="T52" s="11">
-        <f t="shared" si="3"/>
-        <v>943</v>
+        <v>49</v>
+      </c>
+      <c r="T52">
+        <v>128</v>
       </c>
       <c r="U52">
-        <v>8848</v>
-      </c>
-      <c r="V52">
-        <v>401</v>
-      </c>
-      <c r="W52">
-        <v>75</v>
-      </c>
-      <c r="X52">
-        <v>49</v>
-      </c>
-      <c r="Y52">
-        <v>128</v>
-      </c>
-      <c r="Z52">
         <v>50</v>
       </c>
-      <c r="AA52">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -5036,88 +3877,66 @@
         <v>5373</v>
       </c>
       <c r="C53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>78.991473096148198</v>
       </c>
       <c r="D53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.36753895912966073</v>
       </c>
       <c r="E53">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F53">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G53">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>9.51</v>
       </c>
       <c r="I53">
-        <v>9.51</v>
-      </c>
-      <c r="J53">
         <v>21.84</v>
       </c>
+      <c r="J53" s="2">
+        <v>2.64</v>
+      </c>
       <c r="K53" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="L53" s="2">
         <v>1.7556</v>
       </c>
-      <c r="M53" s="10">
-        <f t="shared" si="0"/>
-        <v>35.745600000000003</v>
-      </c>
-      <c r="N53" s="10">
-        <f t="shared" si="1"/>
-        <v>13.9056</v>
-      </c>
-      <c r="O53" s="10">
-        <f t="shared" si="2"/>
-        <v>1.3748307692307693</v>
+      <c r="L53">
+        <v>66</v>
+      </c>
+      <c r="M53">
+        <v>451</v>
+      </c>
+      <c r="N53">
+        <v>88</v>
+      </c>
+      <c r="O53">
+        <v>301</v>
       </c>
       <c r="P53">
-        <v>66</v>
+        <v>9584</v>
       </c>
       <c r="Q53">
-        <v>451</v>
+        <v>784</v>
       </c>
       <c r="R53">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="S53">
-        <v>301</v>
-      </c>
-      <c r="T53" s="11">
-        <f t="shared" si="3"/>
-        <v>906</v>
+        <v>48</v>
+      </c>
+      <c r="T53">
+        <v>145</v>
       </c>
       <c r="U53">
-        <v>9584</v>
-      </c>
-      <c r="V53">
-        <v>784</v>
-      </c>
-      <c r="W53">
-        <v>95</v>
-      </c>
-      <c r="X53">
-        <v>48</v>
-      </c>
-      <c r="Y53">
-        <v>145</v>
-      </c>
-      <c r="Z53">
         <v>55</v>
       </c>
-      <c r="AA53">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -5125,88 +3944,66 @@
         <v>5328</v>
       </c>
       <c r="C54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>78.329902969714794</v>
       </c>
       <c r="D54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.66157012643340352</v>
       </c>
       <c r="E54">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F54">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G54">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="I54">
-        <v>8.41</v>
-      </c>
-      <c r="J54">
         <v>15.61</v>
       </c>
+      <c r="J54" s="2">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="K54" s="2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="L54" s="2">
         <v>1.056</v>
       </c>
-      <c r="M54" s="10">
-        <f t="shared" si="0"/>
-        <v>27.586000000000002</v>
-      </c>
-      <c r="N54" s="10">
-        <f t="shared" si="1"/>
-        <v>11.975999999999999</v>
-      </c>
-      <c r="O54" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0610000000000002</v>
+      <c r="L54">
+        <v>50</v>
+      </c>
+      <c r="M54">
+        <v>415</v>
+      </c>
+      <c r="N54">
+        <v>92</v>
+      </c>
+      <c r="O54">
+        <v>272</v>
       </c>
       <c r="P54">
-        <v>50</v>
+        <v>8746</v>
       </c>
       <c r="Q54">
-        <v>415</v>
+        <v>603</v>
       </c>
       <c r="R54">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="S54">
-        <v>272</v>
-      </c>
-      <c r="T54" s="11">
-        <f t="shared" si="3"/>
-        <v>829</v>
+        <v>47</v>
+      </c>
+      <c r="T54">
+        <v>163</v>
       </c>
       <c r="U54">
-        <v>8746</v>
-      </c>
-      <c r="V54">
-        <v>603</v>
-      </c>
-      <c r="W54">
-        <v>139</v>
-      </c>
-      <c r="X54">
-        <v>47</v>
-      </c>
-      <c r="Y54">
-        <v>163</v>
-      </c>
-      <c r="Z54">
         <v>60</v>
       </c>
-      <c r="AA54">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -5214,88 +4011,66 @@
         <v>5299</v>
       </c>
       <c r="C55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>77.903557777124377</v>
       </c>
       <c r="D55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.42634519259041781</v>
       </c>
       <c r="E55">
         <v>26</v>
       </c>
       <c r="F55">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G55">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>11.162000000000001</v>
       </c>
       <c r="I55">
-        <v>11.162000000000001</v>
-      </c>
-      <c r="J55">
         <v>9.94</v>
       </c>
+      <c r="J55" s="2">
+        <v>1.95</v>
+      </c>
       <c r="K55" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="L55" s="2">
         <v>1.7424000000000002</v>
       </c>
-      <c r="M55" s="10">
-        <f t="shared" si="0"/>
-        <v>24.7944</v>
-      </c>
-      <c r="N55" s="10">
-        <f t="shared" si="1"/>
-        <v>14.8544</v>
-      </c>
-      <c r="O55" s="10">
-        <f t="shared" si="2"/>
-        <v>0.95363076923076917</v>
+      <c r="L55">
+        <v>57</v>
+      </c>
+      <c r="M55">
+        <v>403</v>
+      </c>
+      <c r="N55">
+        <v>85</v>
+      </c>
+      <c r="O55">
+        <v>270</v>
       </c>
       <c r="P55">
-        <v>57</v>
+        <v>9113</v>
       </c>
       <c r="Q55">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="R55">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="S55">
-        <v>270</v>
-      </c>
-      <c r="T55" s="11">
-        <f t="shared" si="3"/>
-        <v>815</v>
+        <v>46</v>
+      </c>
+      <c r="T55">
+        <v>181</v>
       </c>
       <c r="U55">
-        <v>9113</v>
-      </c>
-      <c r="V55">
-        <v>350</v>
-      </c>
-      <c r="W55">
-        <v>114</v>
-      </c>
-      <c r="X55">
-        <v>46</v>
-      </c>
-      <c r="Y55">
-        <v>181</v>
-      </c>
-      <c r="Z55">
         <v>65</v>
       </c>
-      <c r="AA55">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -5303,88 +4078,66 @@
         <v>5279</v>
       </c>
       <c r="C56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>77.609526609820648</v>
       </c>
       <c r="D56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.29403116730372858</v>
       </c>
       <c r="E56">
         <v>26</v>
       </c>
       <c r="F56">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G56">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>10.16</v>
       </c>
       <c r="I56">
-        <v>10.16</v>
-      </c>
-      <c r="J56">
         <v>11.34</v>
       </c>
+      <c r="J56" s="2">
+        <v>1.97</v>
+      </c>
       <c r="K56" s="2">
-        <v>1.97</v>
-      </c>
-      <c r="L56" s="2">
         <v>1.6632000000000002</v>
       </c>
-      <c r="M56" s="10">
-        <f t="shared" si="0"/>
-        <v>25.133199999999999</v>
-      </c>
-      <c r="N56" s="10">
-        <f t="shared" si="1"/>
-        <v>13.793200000000001</v>
-      </c>
-      <c r="O56" s="10">
-        <f t="shared" si="2"/>
-        <v>0.96666153846153846</v>
+      <c r="L56">
+        <v>47</v>
+      </c>
+      <c r="M56">
+        <v>408</v>
+      </c>
+      <c r="N56">
+        <v>93</v>
+      </c>
+      <c r="O56">
+        <v>272</v>
       </c>
       <c r="P56">
-        <v>47</v>
+        <v>11251</v>
       </c>
       <c r="Q56">
-        <v>408</v>
+        <v>543</v>
       </c>
       <c r="R56">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="S56">
-        <v>272</v>
-      </c>
-      <c r="T56" s="11">
-        <f t="shared" si="3"/>
-        <v>820</v>
+        <v>45</v>
+      </c>
+      <c r="T56">
+        <v>198</v>
       </c>
       <c r="U56">
-        <v>11251</v>
-      </c>
-      <c r="V56">
-        <v>543</v>
-      </c>
-      <c r="W56">
-        <v>122</v>
-      </c>
-      <c r="X56">
-        <v>45</v>
-      </c>
-      <c r="Y56">
-        <v>198</v>
-      </c>
-      <c r="Z56">
         <v>70</v>
       </c>
-      <c r="AA56">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -5392,88 +4145,66 @@
         <v>5278</v>
       </c>
       <c r="C57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>77.594825051455459</v>
       </c>
       <c r="D57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.4701558365189271E-2</v>
       </c>
       <c r="E57">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F57">
-        <v>27</v>
+        <v>12.1</v>
       </c>
       <c r="G57">
-        <v>12.1</v>
-      </c>
-      <c r="H57">
         <v>0</v>
       </c>
+      <c r="H57" s="3">
+        <v>9.1850000000000005</v>
+      </c>
       <c r="I57" s="3">
-        <v>9.1850000000000005</v>
-      </c>
-      <c r="J57" s="3">
         <v>11.41</v>
       </c>
+      <c r="J57" s="6">
+        <v>2.02</v>
+      </c>
       <c r="K57" s="6">
-        <v>2.02</v>
-      </c>
-      <c r="L57" s="6">
         <v>1.6104000000000003</v>
       </c>
-      <c r="M57" s="10">
-        <f t="shared" si="0"/>
-        <v>24.2254</v>
-      </c>
-      <c r="N57" s="10">
-        <f t="shared" si="1"/>
-        <v>12.8154</v>
-      </c>
-      <c r="O57" s="10">
-        <f t="shared" si="2"/>
-        <v>0.89723703703703706</v>
+      <c r="L57">
+        <v>35</v>
+      </c>
+      <c r="M57">
+        <v>407</v>
+      </c>
+      <c r="N57">
+        <v>88</v>
+      </c>
+      <c r="O57">
+        <v>266</v>
       </c>
       <c r="P57">
-        <v>35</v>
+        <v>10575</v>
       </c>
       <c r="Q57">
-        <v>407</v>
+        <v>670</v>
       </c>
       <c r="R57">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="S57">
-        <v>266</v>
-      </c>
-      <c r="T57" s="11">
-        <f t="shared" si="3"/>
-        <v>796</v>
+        <v>45</v>
+      </c>
+      <c r="T57">
+        <v>216</v>
       </c>
       <c r="U57">
-        <v>10575</v>
-      </c>
-      <c r="V57">
-        <v>670</v>
-      </c>
-      <c r="W57">
-        <v>81</v>
-      </c>
-      <c r="X57">
-        <v>45</v>
-      </c>
-      <c r="Y57">
-        <v>216</v>
-      </c>
-      <c r="Z57">
         <v>75</v>
       </c>
-      <c r="AA57">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
@@ -5481,88 +4212,66 @@
         <v>5286</v>
       </c>
       <c r="C58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>77.712437518376959</v>
       </c>
       <c r="D58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.11761246692149996</v>
       </c>
       <c r="E58" s="14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F58" s="14">
-        <v>28</v>
-      </c>
-      <c r="G58" s="14">
         <v>12.1</v>
       </c>
-      <c r="H58">
+      <c r="G58">
         <v>0</v>
       </c>
-      <c r="I58" s="4">
+      <c r="H58" s="4">
         <v>10.007999999999999</v>
       </c>
-      <c r="J58" s="14">
+      <c r="I58" s="14">
         <v>19.39</v>
       </c>
+      <c r="J58" s="15">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="K58" s="15">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="L58" s="15">
         <v>1.7292000000000001</v>
       </c>
-      <c r="M58" s="10">
-        <f t="shared" si="0"/>
-        <v>33.407200000000003</v>
-      </c>
-      <c r="N58" s="10">
-        <f t="shared" si="1"/>
-        <v>14.017199999999999</v>
-      </c>
-      <c r="O58" s="10">
-        <f t="shared" si="2"/>
-        <v>1.1931142857142858</v>
+      <c r="L58" s="14">
+        <v>42</v>
+      </c>
+      <c r="M58" s="14">
+        <v>403</v>
+      </c>
+      <c r="N58" s="14">
+        <v>90</v>
+      </c>
+      <c r="O58" s="14">
+        <v>262</v>
       </c>
       <c r="P58" s="14">
-        <v>42</v>
+        <v>9836</v>
       </c>
       <c r="Q58" s="14">
-        <v>403</v>
+        <v>778</v>
       </c>
       <c r="R58" s="14">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="S58" s="14">
-        <v>262</v>
-      </c>
-      <c r="T58" s="11">
-        <f t="shared" si="3"/>
-        <v>797</v>
+        <v>44</v>
+      </c>
+      <c r="T58" s="14">
+        <v>233</v>
       </c>
       <c r="U58" s="14">
-        <v>9836</v>
-      </c>
-      <c r="V58" s="14">
-        <v>778</v>
-      </c>
-      <c r="W58" s="14">
-        <v>208</v>
-      </c>
-      <c r="X58" s="14">
-        <v>44</v>
-      </c>
-      <c r="Y58" s="14">
-        <v>233</v>
-      </c>
-      <c r="Z58" s="14">
         <v>80</v>
       </c>
-      <c r="AA58" s="14">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
@@ -5570,88 +4279,66 @@
         <v>5282</v>
       </c>
       <c r="C59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>77.653631284916202</v>
       </c>
       <c r="D59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-5.8806233460757085E-2</v>
       </c>
       <c r="E59" s="14">
         <v>28</v>
       </c>
       <c r="F59" s="14">
-        <v>28</v>
-      </c>
-      <c r="G59" s="14">
         <v>12.1</v>
       </c>
-      <c r="H59">
+      <c r="G59">
         <v>0</v>
       </c>
-      <c r="I59" s="4">
+      <c r="H59" s="4">
         <v>10.512</v>
       </c>
-      <c r="J59" s="14">
+      <c r="I59" s="14">
         <v>14.56</v>
       </c>
+      <c r="J59" s="15">
+        <v>1.84</v>
+      </c>
       <c r="K59" s="15">
-        <v>1.84</v>
-      </c>
-      <c r="L59" s="15">
         <v>1.6104000000000003</v>
       </c>
-      <c r="M59" s="10">
-        <f t="shared" si="0"/>
-        <v>28.522400000000005</v>
-      </c>
-      <c r="N59" s="10">
-        <f t="shared" si="1"/>
-        <v>13.962400000000001</v>
-      </c>
-      <c r="O59" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0186571428571429</v>
+      <c r="L59" s="14">
+        <v>48</v>
+      </c>
+      <c r="M59" s="14">
+        <v>380</v>
+      </c>
+      <c r="N59" s="14">
+        <v>97</v>
+      </c>
+      <c r="O59" s="14">
+        <v>254</v>
       </c>
       <c r="P59" s="14">
-        <v>48</v>
+        <v>10545</v>
       </c>
       <c r="Q59" s="14">
-        <v>380</v>
+        <v>858</v>
       </c>
       <c r="R59" s="14">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="S59" s="14">
-        <v>254</v>
-      </c>
-      <c r="T59" s="11">
-        <f t="shared" si="3"/>
-        <v>779</v>
+        <v>43</v>
+      </c>
+      <c r="T59" s="14">
+        <v>251</v>
       </c>
       <c r="U59" s="14">
-        <v>10545</v>
-      </c>
-      <c r="V59" s="14">
-        <v>858</v>
-      </c>
-      <c r="W59" s="14">
-        <v>179</v>
-      </c>
-      <c r="X59" s="14">
-        <v>43</v>
-      </c>
-      <c r="Y59" s="14">
-        <v>251</v>
-      </c>
-      <c r="Z59" s="14">
         <v>85</v>
       </c>
-      <c r="AA59" s="14">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
@@ -5659,88 +4346,66 @@
         <v>5266</v>
       </c>
       <c r="C60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>77.418406351073216</v>
       </c>
       <c r="D60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.23522493384298571</v>
       </c>
       <c r="E60" s="14">
         <v>28</v>
       </c>
       <c r="F60" s="14">
-        <v>28</v>
-      </c>
-      <c r="G60" s="14">
         <v>12</v>
       </c>
-      <c r="H60">
+      <c r="G60">
         <v>0</v>
       </c>
-      <c r="I60" s="4">
+      <c r="H60" s="4">
         <v>10.59</v>
       </c>
-      <c r="J60" s="14">
+      <c r="I60" s="14">
         <v>19.95</v>
       </c>
+      <c r="J60" s="15">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="K60" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L60" s="15">
         <v>1.5576000000000001</v>
       </c>
-      <c r="M60" s="10">
-        <f t="shared" si="0"/>
-        <v>34.397599999999997</v>
-      </c>
-      <c r="N60" s="10">
-        <f t="shared" si="1"/>
-        <v>14.447600000000001</v>
-      </c>
-      <c r="O60" s="10">
-        <f t="shared" si="2"/>
-        <v>1.2284857142857142</v>
+      <c r="L60" s="14">
+        <v>48</v>
+      </c>
+      <c r="M60" s="14">
+        <v>356</v>
+      </c>
+      <c r="N60" s="14">
+        <v>101</v>
+      </c>
+      <c r="O60" s="14">
+        <v>252</v>
       </c>
       <c r="P60" s="14">
-        <v>48</v>
+        <v>10008</v>
       </c>
       <c r="Q60" s="14">
-        <v>356</v>
+        <v>650</v>
       </c>
       <c r="R60" s="14">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="S60" s="14">
-        <v>252</v>
-      </c>
-      <c r="T60" s="11">
-        <f t="shared" si="3"/>
-        <v>757</v>
+        <v>42</v>
+      </c>
+      <c r="T60" s="14">
+        <v>269</v>
       </c>
       <c r="U60" s="14">
-        <v>10008</v>
-      </c>
-      <c r="V60" s="14">
-        <v>650</v>
-      </c>
-      <c r="W60" s="14">
-        <v>166</v>
-      </c>
-      <c r="X60" s="14">
-        <v>42</v>
-      </c>
-      <c r="Y60" s="14">
-        <v>269</v>
-      </c>
-      <c r="Z60" s="14">
         <v>91</v>
       </c>
-      <c r="AA60" s="14">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -5748,88 +4413,66 @@
         <v>5203</v>
       </c>
       <c r="C61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>76.492208174066462</v>
       </c>
       <c r="D61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.92619817700675355</v>
       </c>
       <c r="E61">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F61">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G61">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>9.2829999999999995</v>
       </c>
       <c r="I61">
-        <v>9.2829999999999995</v>
-      </c>
-      <c r="J61">
         <v>9.94</v>
       </c>
+      <c r="J61" s="2">
+        <v>1.95</v>
+      </c>
       <c r="K61" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="L61" s="2">
         <v>1.5048000000000001</v>
       </c>
-      <c r="M61" s="10">
-        <f t="shared" si="0"/>
-        <v>22.677799999999998</v>
-      </c>
-      <c r="N61" s="10">
-        <f t="shared" si="1"/>
-        <v>12.737799999999998</v>
-      </c>
-      <c r="O61" s="10">
-        <f t="shared" si="2"/>
-        <v>0.80992142857142846</v>
+      <c r="L61">
+        <v>45</v>
+      </c>
+      <c r="M61">
+        <v>378</v>
+      </c>
+      <c r="N61">
+        <v>87</v>
+      </c>
+      <c r="O61">
+        <v>247</v>
       </c>
       <c r="P61">
-        <v>45</v>
+        <v>9242</v>
       </c>
       <c r="Q61">
-        <v>378</v>
+        <v>632</v>
       </c>
       <c r="R61">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="S61">
-        <v>247</v>
-      </c>
-      <c r="T61" s="11">
-        <f t="shared" si="3"/>
-        <v>757</v>
+        <v>41</v>
+      </c>
+      <c r="T61">
+        <v>286</v>
       </c>
       <c r="U61">
-        <v>9242</v>
-      </c>
-      <c r="V61">
-        <v>632</v>
-      </c>
-      <c r="W61">
-        <v>140</v>
-      </c>
-      <c r="X61">
-        <v>41</v>
-      </c>
-      <c r="Y61">
-        <v>286</v>
-      </c>
-      <c r="Z61">
         <v>96</v>
       </c>
-      <c r="AA61">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -5837,88 +4480,66 @@
         <v>5146</v>
       </c>
       <c r="C62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>75.654219347250816</v>
       </c>
       <c r="D62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.83798882681564635</v>
       </c>
       <c r="E62">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F62">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>9.8309999999999995</v>
       </c>
       <c r="I62">
-        <v>9.8309999999999995</v>
-      </c>
-      <c r="J62">
         <v>7.56</v>
       </c>
+      <c r="J62" s="2">
+        <v>2.12</v>
+      </c>
       <c r="K62" s="2">
-        <v>2.12</v>
-      </c>
-      <c r="L62" s="2">
         <v>1.4916</v>
       </c>
-      <c r="M62" s="10">
-        <f t="shared" si="0"/>
-        <v>21.002600000000001</v>
-      </c>
-      <c r="N62" s="10">
-        <f t="shared" si="1"/>
-        <v>13.442600000000001</v>
-      </c>
-      <c r="O62" s="10">
-        <f t="shared" si="2"/>
-        <v>0.75009285714285723</v>
+      <c r="L62">
+        <v>47</v>
+      </c>
+      <c r="M62">
+        <v>383</v>
+      </c>
+      <c r="N62">
+        <v>83</v>
+      </c>
+      <c r="O62">
+        <v>257</v>
       </c>
       <c r="P62">
-        <v>47</v>
+        <v>7715</v>
       </c>
       <c r="Q62">
-        <v>383</v>
+        <v>637</v>
       </c>
       <c r="R62">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="S62">
-        <v>257</v>
-      </c>
-      <c r="T62" s="11">
-        <f t="shared" si="3"/>
-        <v>770</v>
+        <v>40</v>
+      </c>
+      <c r="T62">
+        <v>304</v>
       </c>
       <c r="U62">
-        <v>7715</v>
-      </c>
-      <c r="V62">
-        <v>637</v>
-      </c>
-      <c r="W62">
         <v>101</v>
       </c>
-      <c r="X62">
-        <v>40</v>
-      </c>
-      <c r="Y62">
-        <v>304</v>
-      </c>
-      <c r="Z62">
-        <v>101</v>
-      </c>
-      <c r="AA62">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -5926,88 +4547,66 @@
         <v>5101</v>
       </c>
       <c r="C63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>74.992649220817412</v>
       </c>
       <c r="D63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.66157012643340352</v>
       </c>
       <c r="E63">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F63">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G63">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>9.6349999999999998</v>
       </c>
       <c r="I63">
-        <v>9.6349999999999998</v>
-      </c>
-      <c r="J63">
         <v>7.56</v>
       </c>
+      <c r="J63" s="2">
+        <v>1.95</v>
+      </c>
       <c r="K63" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="L63" s="2">
         <v>1.518</v>
       </c>
-      <c r="M63" s="10">
-        <f t="shared" si="0"/>
-        <v>20.663</v>
-      </c>
-      <c r="N63" s="10">
-        <f t="shared" si="1"/>
-        <v>13.103</v>
-      </c>
-      <c r="O63" s="10">
-        <f t="shared" si="2"/>
-        <v>0.73796428571428574</v>
+      <c r="L63">
+        <v>46</v>
+      </c>
+      <c r="M63">
+        <v>385</v>
+      </c>
+      <c r="N63">
+        <v>74</v>
+      </c>
+      <c r="O63">
+        <v>252</v>
       </c>
       <c r="P63">
-        <v>46</v>
+        <v>9899</v>
       </c>
       <c r="Q63">
-        <v>385</v>
+        <v>926</v>
       </c>
       <c r="R63">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="S63">
-        <v>252</v>
-      </c>
-      <c r="T63" s="11">
-        <f t="shared" si="3"/>
-        <v>757</v>
+        <v>39</v>
+      </c>
+      <c r="T63">
+        <v>322</v>
       </c>
       <c r="U63">
-        <v>9899</v>
-      </c>
-      <c r="V63">
-        <v>926</v>
-      </c>
-      <c r="W63">
         <v>106</v>
       </c>
-      <c r="X63">
-        <v>39</v>
-      </c>
-      <c r="Y63">
-        <v>322</v>
-      </c>
-      <c r="Z63">
-        <v>106</v>
-      </c>
-      <c r="AA63">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -6015,88 +4614,66 @@
         <v>5024</v>
       </c>
       <c r="C64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>73.860629226698038</v>
       </c>
       <c r="D64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.1320199941193749</v>
       </c>
       <c r="E64">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F64">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>9.7119999999999997</v>
       </c>
       <c r="I64">
-        <v>9.7119999999999997</v>
-      </c>
-      <c r="J64">
         <v>7.56</v>
       </c>
+      <c r="J64" s="2">
+        <v>1.79</v>
+      </c>
       <c r="K64" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="L64" s="2">
         <v>1.4652000000000001</v>
       </c>
-      <c r="M64" s="10">
-        <f t="shared" si="0"/>
-        <v>20.527199999999997</v>
-      </c>
-      <c r="N64" s="10">
-        <f t="shared" si="1"/>
-        <v>12.967199999999998</v>
-      </c>
-      <c r="O64" s="10">
-        <f t="shared" si="2"/>
-        <v>0.73311428571428561</v>
+      <c r="L64">
+        <v>27</v>
+      </c>
+      <c r="M64">
+        <v>381</v>
+      </c>
+      <c r="N64">
+        <v>73</v>
+      </c>
+      <c r="O64">
+        <v>242</v>
       </c>
       <c r="P64">
-        <v>27</v>
+        <v>8985</v>
       </c>
       <c r="Q64">
-        <v>381</v>
+        <v>819</v>
       </c>
       <c r="R64">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="S64">
-        <v>242</v>
-      </c>
-      <c r="T64" s="11">
-        <f t="shared" si="3"/>
-        <v>723</v>
+        <v>38</v>
+      </c>
+      <c r="T64">
+        <v>339</v>
       </c>
       <c r="U64">
-        <v>8985</v>
-      </c>
-      <c r="V64">
-        <v>819</v>
-      </c>
-      <c r="W64">
-        <v>299</v>
-      </c>
-      <c r="X64">
-        <v>38</v>
-      </c>
-      <c r="Y64">
-        <v>339</v>
-      </c>
-      <c r="Z64">
         <v>111</v>
       </c>
-      <c r="AA64">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -6104,88 +4681,66 @@
         <v>4975</v>
       </c>
       <c r="C65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>73.140252866803891</v>
       </c>
       <c r="D65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.72037635989414639</v>
       </c>
       <c r="E65">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F65">
-        <v>28</v>
+        <v>11.9</v>
       </c>
       <c r="G65">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>8.9870000000000001</v>
       </c>
       <c r="I65">
-        <v>8.9870000000000001</v>
-      </c>
-      <c r="J65">
         <v>8.19</v>
       </c>
+      <c r="J65" s="2">
+        <v>1.59</v>
+      </c>
       <c r="K65" s="2">
-        <v>1.59</v>
-      </c>
-      <c r="L65" s="2">
         <v>1.3992000000000002</v>
       </c>
-      <c r="M65" s="10">
-        <f t="shared" si="0"/>
-        <v>20.1662</v>
-      </c>
-      <c r="N65" s="10">
-        <f t="shared" si="1"/>
-        <v>11.9762</v>
-      </c>
-      <c r="O65" s="10">
-        <f t="shared" si="2"/>
-        <v>0.72022142857142857</v>
+      <c r="L65">
+        <v>19</v>
+      </c>
+      <c r="M65">
+        <v>371</v>
+      </c>
+      <c r="N65">
+        <v>67</v>
+      </c>
+      <c r="O65">
+        <v>240</v>
       </c>
       <c r="P65">
-        <v>19</v>
+        <v>7689</v>
       </c>
       <c r="Q65">
-        <v>371</v>
+        <v>737</v>
       </c>
       <c r="R65">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="S65">
-        <v>240</v>
-      </c>
-      <c r="T65" s="11">
-        <f t="shared" si="3"/>
-        <v>697</v>
+        <v>38</v>
+      </c>
+      <c r="T65">
+        <v>357</v>
       </c>
       <c r="U65">
-        <v>7689</v>
-      </c>
-      <c r="V65">
-        <v>737</v>
-      </c>
-      <c r="W65">
-        <v>145</v>
-      </c>
-      <c r="X65">
-        <v>38</v>
-      </c>
-      <c r="Y65">
-        <v>357</v>
-      </c>
-      <c r="Z65">
         <v>116</v>
       </c>
-      <c r="AA65">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -6193,88 +4748,66 @@
         <v>4939</v>
       </c>
       <c r="C66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>72.610996765657163</v>
       </c>
       <c r="D66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.5292561011467285</v>
       </c>
       <c r="E66">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F66">
-        <v>28</v>
+        <v>11.9</v>
       </c>
       <c r="G66">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I66">
-        <v>11.3</v>
-      </c>
-      <c r="J66">
         <v>7</v>
       </c>
+      <c r="J66" s="2">
+        <v>1.48</v>
+      </c>
       <c r="K66" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="L66" s="2">
         <v>1.32</v>
       </c>
-      <c r="M66" s="10">
-        <f t="shared" si="0"/>
-        <v>21.1</v>
-      </c>
-      <c r="N66" s="10">
-        <f t="shared" si="1"/>
-        <v>14.100000000000001</v>
-      </c>
-      <c r="O66" s="10">
-        <f t="shared" si="2"/>
-        <v>0.75357142857142867</v>
+      <c r="L66">
+        <v>20</v>
+      </c>
+      <c r="M66">
+        <v>363</v>
+      </c>
+      <c r="N66">
+        <v>71</v>
+      </c>
+      <c r="O66">
+        <v>239</v>
       </c>
       <c r="P66">
-        <v>20</v>
+        <v>9771</v>
       </c>
       <c r="Q66">
-        <v>363</v>
+        <v>901</v>
       </c>
       <c r="R66">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="S66">
-        <v>239</v>
-      </c>
-      <c r="T66" s="11">
-        <f t="shared" si="3"/>
-        <v>693</v>
+        <v>37</v>
+      </c>
+      <c r="T66">
+        <v>374</v>
       </c>
       <c r="U66">
-        <v>9771</v>
-      </c>
-      <c r="V66">
-        <v>901</v>
-      </c>
-      <c r="W66">
         <v>121</v>
       </c>
-      <c r="X66">
-        <v>37</v>
-      </c>
-      <c r="Y66">
-        <v>374</v>
-      </c>
-      <c r="Z66">
-        <v>121</v>
-      </c>
-      <c r="AA66">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -6282,85 +4815,63 @@
         <v>4906</v>
       </c>
       <c r="C67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>72.125845339606002</v>
       </c>
       <c r="D67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.48515142605116068</v>
       </c>
       <c r="E67">
+        <v>28</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>7.6509999999999998</v>
+      </c>
+      <c r="I67" s="3">
+        <v>5.67</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1.36</v>
+      </c>
+      <c r="K67" s="6">
+        <v>1.0824</v>
+      </c>
+      <c r="L67">
+        <v>19</v>
+      </c>
+      <c r="M67">
+        <v>365</v>
+      </c>
+      <c r="N67">
+        <v>72</v>
+      </c>
+      <c r="O67">
+        <v>239</v>
+      </c>
+      <c r="P67">
+        <v>6580</v>
+      </c>
+      <c r="Q67">
+        <v>871</v>
+      </c>
+      <c r="R67">
+        <v>126</v>
+      </c>
+      <c r="S67">
         <v>36</v>
       </c>
-      <c r="F67">
-        <v>28</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" s="3">
-        <v>7.6509999999999998</v>
-      </c>
-      <c r="J67" s="3">
-        <v>5.67</v>
-      </c>
-      <c r="K67" s="6">
-        <v>1.36</v>
-      </c>
-      <c r="L67" s="6">
-        <v>1.0824</v>
-      </c>
-      <c r="M67" s="10">
-        <f t="shared" ref="M67:M81" si="6">I67+J67+K67+L67</f>
-        <v>15.763399999999999</v>
-      </c>
-      <c r="N67" s="10">
-        <f t="shared" ref="N67:N81" si="7">I67+K67+L67</f>
-        <v>10.093399999999999</v>
-      </c>
-      <c r="O67" s="10">
-        <f t="shared" ref="O67:O81" si="8">M67/F67</f>
-        <v>0.56297857142857144</v>
-      </c>
-      <c r="P67">
-        <v>19</v>
-      </c>
-      <c r="Q67">
-        <v>365</v>
-      </c>
-      <c r="R67">
-        <v>72</v>
-      </c>
-      <c r="S67">
-        <v>239</v>
-      </c>
-      <c r="T67" s="11">
-        <f t="shared" ref="T67:T81" si="9">P67+Q67+R67+S67</f>
-        <v>695</v>
+      <c r="T67">
+        <v>392</v>
       </c>
       <c r="U67">
-        <v>6580</v>
-      </c>
-      <c r="V67">
-        <v>871</v>
-      </c>
-      <c r="W67">
         <v>126</v>
       </c>
-      <c r="X67">
-        <v>36</v>
-      </c>
-      <c r="Y67">
-        <v>392</v>
-      </c>
-      <c r="Z67">
-        <v>126</v>
-      </c>
-      <c r="AA67">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -6368,85 +4879,63 @@
         <v>4857</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C81" si="10">B68/68.02</f>
+        <f t="shared" ref="C68:C81" si="2">B68/68.02</f>
         <v>71.405468979711856</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D81" si="11">C68-C67</f>
+        <f t="shared" ref="D68:D81" si="3">C68-C67</f>
         <v>-0.72037635989414639</v>
       </c>
       <c r="E68">
-        <v>36</v>
-      </c>
-      <c r="F68">
         <v>28</v>
       </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
       <c r="H68">
-        <v>0</v>
+        <v>7.5730000000000004</v>
       </c>
       <c r="I68">
-        <v>7.5730000000000004</v>
-      </c>
-      <c r="J68">
         <v>7.35</v>
       </c>
+      <c r="J68" s="2">
+        <v>1.41</v>
+      </c>
       <c r="K68" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="L68" s="2">
         <v>1.2012</v>
       </c>
-      <c r="M68" s="10">
-        <f t="shared" si="6"/>
-        <v>17.534199999999998</v>
-      </c>
-      <c r="N68" s="10">
-        <f t="shared" si="7"/>
-        <v>10.184200000000001</v>
-      </c>
-      <c r="O68" s="10">
-        <f t="shared" si="8"/>
-        <v>0.62622142857142848</v>
+      <c r="L68">
+        <v>18</v>
+      </c>
+      <c r="M68">
+        <v>362</v>
+      </c>
+      <c r="N68">
+        <v>65</v>
+      </c>
+      <c r="O68">
+        <v>238</v>
       </c>
       <c r="P68">
-        <v>18</v>
+        <v>7611</v>
       </c>
       <c r="Q68">
-        <v>362</v>
+        <v>952</v>
       </c>
       <c r="R68">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="S68">
-        <v>238</v>
-      </c>
-      <c r="T68" s="11">
-        <f t="shared" si="9"/>
-        <v>683</v>
+        <v>35</v>
+      </c>
+      <c r="T68">
+        <v>410</v>
       </c>
       <c r="U68">
-        <v>7611</v>
-      </c>
-      <c r="V68">
-        <v>952</v>
-      </c>
-      <c r="W68">
-        <v>281</v>
-      </c>
-      <c r="X68">
-        <v>35</v>
-      </c>
-      <c r="Y68">
-        <v>410</v>
-      </c>
-      <c r="Z68">
         <v>131</v>
       </c>
-      <c r="AA68">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -6454,85 +4943,63 @@
         <v>4801</v>
       </c>
       <c r="C69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>70.582181711261399</v>
       </c>
       <c r="D69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.82328726845045708</v>
       </c>
       <c r="E69">
-        <v>36</v>
-      </c>
-      <c r="F69">
         <v>28</v>
       </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
       <c r="H69">
-        <v>0</v>
+        <v>8.24</v>
       </c>
       <c r="I69">
-        <v>8.24</v>
-      </c>
-      <c r="J69">
         <v>5.95</v>
       </c>
+      <c r="J69" s="2">
+        <v>1.56</v>
+      </c>
       <c r="K69" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="L69" s="2">
         <v>1.32</v>
       </c>
-      <c r="M69" s="10">
-        <f t="shared" si="6"/>
-        <v>17.07</v>
-      </c>
-      <c r="N69" s="10">
-        <f t="shared" si="7"/>
-        <v>11.120000000000001</v>
-      </c>
-      <c r="O69" s="10">
-        <f t="shared" si="8"/>
-        <v>0.60964285714285715</v>
+      <c r="L69">
+        <v>29</v>
+      </c>
+      <c r="M69">
+        <v>348</v>
+      </c>
+      <c r="N69">
+        <v>68</v>
+      </c>
+      <c r="O69">
+        <v>239</v>
       </c>
       <c r="P69">
-        <v>29</v>
+        <v>6898</v>
       </c>
       <c r="Q69">
-        <v>348</v>
+        <v>1049</v>
       </c>
       <c r="R69">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="S69">
-        <v>239</v>
-      </c>
-      <c r="T69" s="11">
-        <f t="shared" si="9"/>
-        <v>684</v>
+        <v>34</v>
+      </c>
+      <c r="T69">
+        <v>427</v>
       </c>
       <c r="U69">
-        <v>6898</v>
-      </c>
-      <c r="V69">
-        <v>1049</v>
-      </c>
-      <c r="W69">
-        <v>401</v>
-      </c>
-      <c r="X69">
-        <v>34</v>
-      </c>
-      <c r="Y69">
-        <v>427</v>
-      </c>
-      <c r="Z69">
         <v>136</v>
       </c>
-      <c r="AA69">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -6540,85 +5007,63 @@
         <v>4757</v>
       </c>
       <c r="C70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>69.935313143193184</v>
       </c>
       <c r="D70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.64686856806821424</v>
       </c>
       <c r="E70">
-        <v>36</v>
-      </c>
-      <c r="F70">
         <v>28</v>
       </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
       <c r="H70">
-        <v>0</v>
+        <v>8.8149999999999995</v>
       </c>
       <c r="I70">
-        <v>8.8149999999999995</v>
-      </c>
-      <c r="J70">
         <v>5.25</v>
       </c>
+      <c r="J70" s="2">
+        <v>1.46</v>
+      </c>
       <c r="K70" s="2">
-        <v>1.46</v>
-      </c>
-      <c r="L70" s="2">
         <v>1.32</v>
       </c>
-      <c r="M70" s="10">
-        <f t="shared" si="6"/>
-        <v>16.844999999999999</v>
-      </c>
-      <c r="N70" s="10">
-        <f t="shared" si="7"/>
-        <v>11.594999999999999</v>
-      </c>
-      <c r="O70" s="10">
-        <f t="shared" si="8"/>
-        <v>0.60160714285714278</v>
+      <c r="L70">
+        <v>28</v>
+      </c>
+      <c r="M70">
+        <v>335</v>
+      </c>
+      <c r="N70">
+        <v>74</v>
+      </c>
+      <c r="O70">
+        <v>235</v>
       </c>
       <c r="P70">
-        <v>28</v>
+        <v>7990</v>
       </c>
       <c r="Q70">
-        <v>335</v>
+        <v>1011</v>
       </c>
       <c r="R70">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="S70">
-        <v>235</v>
-      </c>
-      <c r="T70" s="11">
-        <f t="shared" si="9"/>
-        <v>672</v>
+        <v>33</v>
+      </c>
+      <c r="T70">
+        <v>445</v>
       </c>
       <c r="U70">
-        <v>7990</v>
-      </c>
-      <c r="V70">
-        <v>1011</v>
-      </c>
-      <c r="W70">
-        <v>302</v>
-      </c>
-      <c r="X70">
-        <v>33</v>
-      </c>
-      <c r="Y70">
-        <v>445</v>
-      </c>
-      <c r="Z70">
         <v>141</v>
       </c>
-      <c r="AA70">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -6626,85 +5071,63 @@
         <v>4718</v>
       </c>
       <c r="C71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>69.361952366950902</v>
       </c>
       <c r="D71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.5733607762422821</v>
       </c>
       <c r="E71">
-        <v>42</v>
-      </c>
-      <c r="F71">
         <v>28</v>
       </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
       <c r="H71">
-        <v>0</v>
+        <v>9.51</v>
       </c>
       <c r="I71">
-        <v>9.51</v>
-      </c>
-      <c r="J71">
         <v>5.74</v>
       </c>
+      <c r="J71" s="2">
+        <v>1.51</v>
+      </c>
       <c r="K71" s="2">
-        <v>1.51</v>
-      </c>
-      <c r="L71" s="2">
         <v>1.3068</v>
       </c>
-      <c r="M71" s="10">
-        <f t="shared" si="6"/>
-        <v>18.066800000000001</v>
-      </c>
-      <c r="N71" s="10">
-        <f t="shared" si="7"/>
-        <v>12.326799999999999</v>
-      </c>
-      <c r="O71" s="10">
-        <f t="shared" si="8"/>
-        <v>0.64524285714285712</v>
+      <c r="L71">
+        <v>28</v>
+      </c>
+      <c r="M71">
+        <v>329</v>
+      </c>
+      <c r="N71">
+        <v>73</v>
+      </c>
+      <c r="O71">
+        <v>232</v>
       </c>
       <c r="P71">
-        <v>28</v>
+        <v>7812</v>
       </c>
       <c r="Q71">
-        <v>329</v>
+        <v>776</v>
       </c>
       <c r="R71">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="S71">
-        <v>232</v>
-      </c>
-      <c r="T71" s="11">
-        <f t="shared" si="9"/>
-        <v>662</v>
+        <v>32</v>
+      </c>
+      <c r="T71">
+        <v>462</v>
       </c>
       <c r="U71">
-        <v>7812</v>
-      </c>
-      <c r="V71">
-        <v>776</v>
-      </c>
-      <c r="W71">
-        <v>188</v>
-      </c>
-      <c r="X71">
-        <v>32</v>
-      </c>
-      <c r="Y71">
-        <v>462</v>
-      </c>
-      <c r="Z71">
         <v>146</v>
       </c>
-      <c r="AA71">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -6712,85 +5135,63 @@
         <v>4681</v>
       </c>
       <c r="C72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>68.817994707438999</v>
       </c>
       <c r="D72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.54395765951190356</v>
       </c>
       <c r="E72">
-        <v>42</v>
-      </c>
-      <c r="F72">
         <v>32</v>
       </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
       <c r="H72">
-        <v>0</v>
+        <v>10.433</v>
       </c>
       <c r="I72">
-        <v>10.433</v>
-      </c>
-      <c r="J72">
         <v>9.73</v>
       </c>
+      <c r="J72" s="2">
+        <v>1.66</v>
+      </c>
       <c r="K72" s="2">
-        <v>1.66</v>
-      </c>
-      <c r="L72" s="2">
         <v>1.4783999999999999</v>
       </c>
-      <c r="M72" s="10">
-        <f t="shared" si="6"/>
-        <v>23.301400000000001</v>
-      </c>
-      <c r="N72" s="10">
-        <f t="shared" si="7"/>
-        <v>13.571400000000001</v>
-      </c>
-      <c r="O72" s="10">
-        <f t="shared" si="8"/>
-        <v>0.72816875000000003</v>
+      <c r="L72">
+        <v>24</v>
+      </c>
+      <c r="M72">
+        <v>328</v>
+      </c>
+      <c r="N72">
+        <v>71</v>
+      </c>
+      <c r="O72">
+        <v>222</v>
       </c>
       <c r="P72">
-        <v>24</v>
+        <v>7450</v>
       </c>
       <c r="Q72">
-        <v>328</v>
+        <v>860</v>
       </c>
       <c r="R72">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="S72">
-        <v>222</v>
-      </c>
-      <c r="T72" s="11">
-        <f t="shared" si="9"/>
-        <v>645</v>
+        <v>31</v>
+      </c>
+      <c r="T72">
+        <v>480</v>
       </c>
       <c r="U72">
-        <v>7450</v>
-      </c>
-      <c r="V72">
-        <v>860</v>
-      </c>
-      <c r="W72">
-        <v>176</v>
-      </c>
-      <c r="X72">
-        <v>31</v>
-      </c>
-      <c r="Y72">
-        <v>480</v>
-      </c>
-      <c r="Z72">
         <v>152</v>
       </c>
-      <c r="AA72">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -6798,85 +5199,63 @@
         <v>4634</v>
       </c>
       <c r="C73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>68.127021464275217</v>
       </c>
       <c r="D73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.69097324316378206</v>
       </c>
       <c r="E73">
-        <v>42</v>
-      </c>
-      <c r="F73">
         <v>30</v>
       </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
       <c r="H73">
-        <v>0</v>
+        <v>10.433</v>
       </c>
       <c r="I73">
-        <v>10.433</v>
-      </c>
-      <c r="J73">
         <v>11.9</v>
       </c>
+      <c r="J73" s="2">
+        <v>1.51</v>
+      </c>
       <c r="K73" s="2">
-        <v>1.51</v>
-      </c>
-      <c r="L73" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="M73" s="10">
-        <f t="shared" si="6"/>
-        <v>25.255400000000002</v>
-      </c>
-      <c r="N73" s="10">
-        <f t="shared" si="7"/>
-        <v>13.355399999999999</v>
-      </c>
-      <c r="O73" s="10">
-        <f t="shared" si="8"/>
-        <v>0.84184666666666674</v>
+      <c r="L73">
+        <v>22</v>
+      </c>
+      <c r="M73">
+        <v>330</v>
+      </c>
+      <c r="N73">
+        <v>70</v>
+      </c>
+      <c r="O73">
+        <v>218</v>
       </c>
       <c r="P73">
-        <v>22</v>
+        <v>6704</v>
       </c>
       <c r="Q73">
-        <v>330</v>
+        <v>1292</v>
       </c>
       <c r="R73">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="S73">
-        <v>218</v>
-      </c>
-      <c r="T73" s="11">
-        <f t="shared" si="9"/>
-        <v>640</v>
+        <v>31</v>
+      </c>
+      <c r="T73">
+        <v>498</v>
       </c>
       <c r="U73">
-        <v>6704</v>
-      </c>
-      <c r="V73">
-        <v>1292</v>
-      </c>
-      <c r="W73">
-        <v>172</v>
-      </c>
-      <c r="X73">
-        <v>31</v>
-      </c>
-      <c r="Y73">
-        <v>498</v>
-      </c>
-      <c r="Z73">
         <v>157</v>
       </c>
-      <c r="AA73">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -6884,85 +5263,63 @@
         <v>4607</v>
       </c>
       <c r="C74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>67.730079388415177</v>
       </c>
       <c r="D74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.39694207586003927</v>
       </c>
       <c r="E74">
-        <v>42</v>
-      </c>
-      <c r="F74">
         <v>30</v>
       </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
       <c r="H74">
-        <v>0</v>
+        <v>10.16</v>
       </c>
       <c r="I74">
-        <v>10.16</v>
-      </c>
-      <c r="J74">
         <v>10.43</v>
       </c>
+      <c r="J74" s="2">
+        <v>1.36</v>
+      </c>
       <c r="K74" s="2">
-        <v>1.36</v>
-      </c>
-      <c r="L74" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="M74" s="10">
-        <f t="shared" si="6"/>
-        <v>23.3096</v>
-      </c>
-      <c r="N74" s="10">
-        <f t="shared" si="7"/>
-        <v>12.8796</v>
-      </c>
-      <c r="O74" s="10">
-        <f t="shared" si="8"/>
-        <v>0.7769866666666666</v>
+      <c r="L74">
+        <v>16</v>
+      </c>
+      <c r="M74">
+        <v>336</v>
+      </c>
+      <c r="N74">
+        <v>67</v>
+      </c>
+      <c r="O74">
+        <v>212</v>
       </c>
       <c r="P74">
-        <v>16</v>
+        <v>6350</v>
       </c>
       <c r="Q74">
-        <v>336</v>
+        <v>1210</v>
       </c>
       <c r="R74">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="S74">
-        <v>212</v>
-      </c>
-      <c r="T74" s="11">
-        <f t="shared" si="9"/>
-        <v>631</v>
+        <v>30</v>
+      </c>
+      <c r="T74">
+        <v>515</v>
       </c>
       <c r="U74">
-        <v>6350</v>
-      </c>
-      <c r="V74">
-        <v>1210</v>
-      </c>
-      <c r="W74">
-        <v>169</v>
-      </c>
-      <c r="X74">
-        <v>30</v>
-      </c>
-      <c r="Y74">
-        <v>515</v>
-      </c>
-      <c r="Z74">
         <v>162</v>
       </c>
-      <c r="AA74">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -6970,85 +5327,63 @@
         <v>4589</v>
       </c>
       <c r="C75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>67.465451337841813</v>
       </c>
       <c r="D75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.26462805057336425</v>
       </c>
       <c r="E75">
-        <v>42</v>
-      </c>
-      <c r="F75">
         <v>34</v>
       </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
       <c r="H75">
-        <v>0</v>
+        <v>8.9359999999999999</v>
       </c>
       <c r="I75">
-        <v>8.9359999999999999</v>
-      </c>
-      <c r="J75">
         <v>8.61</v>
       </c>
+      <c r="J75" s="2">
+        <v>1.28</v>
+      </c>
       <c r="K75" s="2">
-        <v>1.28</v>
-      </c>
-      <c r="L75" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="M75" s="10">
-        <f t="shared" si="6"/>
-        <v>20.238400000000002</v>
-      </c>
-      <c r="N75" s="10">
-        <f t="shared" si="7"/>
-        <v>11.628399999999999</v>
-      </c>
-      <c r="O75" s="10">
-        <f t="shared" si="8"/>
-        <v>0.59524705882352946</v>
+      <c r="L75">
+        <v>14</v>
+      </c>
+      <c r="M75">
+        <v>340</v>
+      </c>
+      <c r="N75">
+        <v>66</v>
+      </c>
+      <c r="O75">
+        <v>211</v>
       </c>
       <c r="P75">
-        <v>14</v>
+        <v>5988</v>
       </c>
       <c r="Q75">
-        <v>340</v>
+        <v>1867</v>
       </c>
       <c r="R75">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="S75">
-        <v>211</v>
-      </c>
-      <c r="T75" s="11">
-        <f t="shared" si="9"/>
-        <v>631</v>
+        <v>29</v>
+      </c>
+      <c r="T75">
+        <v>533</v>
       </c>
       <c r="U75">
-        <v>5988</v>
-      </c>
-      <c r="V75">
-        <v>1867</v>
-      </c>
-      <c r="W75">
-        <v>190</v>
-      </c>
-      <c r="X75">
-        <v>29</v>
-      </c>
-      <c r="Y75">
-        <v>533</v>
-      </c>
-      <c r="Z75">
         <v>167</v>
       </c>
-      <c r="AA75">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -7056,85 +5391,63 @@
         <v>4560</v>
       </c>
       <c r="C76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>67.039106145251395</v>
       </c>
       <c r="D76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.42634519259041781</v>
       </c>
       <c r="E76">
-        <v>42</v>
-      </c>
-      <c r="F76">
         <v>36</v>
       </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
       <c r="H76">
-        <v>0</v>
+        <v>7.4989999999999997</v>
       </c>
       <c r="I76">
-        <v>7.4989999999999997</v>
-      </c>
-      <c r="J76">
         <v>7.14</v>
       </c>
+      <c r="J76" s="2">
+        <v>1.28</v>
+      </c>
       <c r="K76" s="2">
-        <v>1.28</v>
-      </c>
-      <c r="L76" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="M76" s="10">
-        <f t="shared" si="6"/>
-        <v>17.278599999999997</v>
-      </c>
-      <c r="N76" s="10">
-        <f t="shared" si="7"/>
-        <v>10.1386</v>
-      </c>
-      <c r="O76" s="10">
-        <f t="shared" si="8"/>
-        <v>0.47996111111111106</v>
+      <c r="L76">
+        <v>10</v>
+      </c>
+      <c r="M76">
+        <v>329</v>
+      </c>
+      <c r="N76">
+        <v>69</v>
+      </c>
+      <c r="O76">
+        <v>208</v>
       </c>
       <c r="P76">
-        <v>10</v>
+        <v>6899</v>
       </c>
       <c r="Q76">
-        <v>329</v>
+        <v>1345</v>
       </c>
       <c r="R76">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="S76">
-        <v>208</v>
-      </c>
-      <c r="T76" s="11">
-        <f t="shared" si="9"/>
-        <v>616</v>
+        <v>28</v>
+      </c>
+      <c r="T76">
+        <v>550</v>
       </c>
       <c r="U76">
-        <v>6899</v>
-      </c>
-      <c r="V76">
-        <v>1345</v>
-      </c>
-      <c r="W76">
-        <v>247</v>
-      </c>
-      <c r="X76">
-        <v>28</v>
-      </c>
-      <c r="Y76">
-        <v>550</v>
-      </c>
-      <c r="Z76">
         <v>172</v>
       </c>
-      <c r="AA76">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -7142,85 +5455,63 @@
         <v>4542</v>
       </c>
       <c r="C77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>66.774478094678045</v>
       </c>
       <c r="D77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.26462805057335004</v>
       </c>
       <c r="E77">
-        <v>36</v>
-      </c>
-      <c r="F77">
         <v>34</v>
       </c>
-      <c r="H77">
+      <c r="G77">
         <v>0</v>
       </c>
+      <c r="H77" s="3">
+        <v>7.8070000000000004</v>
+      </c>
       <c r="I77" s="3">
-        <v>7.8070000000000004</v>
-      </c>
-      <c r="J77" s="3">
         <v>7.63</v>
       </c>
+      <c r="J77" s="6">
+        <v>1.43</v>
+      </c>
       <c r="K77" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="L77" s="6">
         <v>1.2804</v>
       </c>
-      <c r="M77" s="10">
-        <f t="shared" si="6"/>
-        <v>18.147400000000001</v>
-      </c>
-      <c r="N77" s="10">
-        <f t="shared" si="7"/>
-        <v>10.5174</v>
-      </c>
-      <c r="O77" s="10">
-        <f t="shared" si="8"/>
-        <v>0.53374705882352946</v>
+      <c r="L77">
+        <v>11</v>
+      </c>
+      <c r="M77">
+        <v>318</v>
+      </c>
+      <c r="N77">
+        <v>69</v>
+      </c>
+      <c r="O77">
+        <v>206</v>
       </c>
       <c r="P77">
-        <v>11</v>
+        <v>5530</v>
       </c>
       <c r="Q77">
-        <v>318</v>
+        <v>1128</v>
       </c>
       <c r="R77">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="S77">
-        <v>206</v>
-      </c>
-      <c r="T77" s="11">
-        <f t="shared" si="9"/>
-        <v>604</v>
+        <v>27</v>
+      </c>
+      <c r="T77">
+        <v>568</v>
       </c>
       <c r="U77">
-        <v>5530</v>
-      </c>
-      <c r="V77">
-        <v>1128</v>
-      </c>
-      <c r="W77">
-        <v>246</v>
-      </c>
-      <c r="X77">
-        <v>27</v>
-      </c>
-      <c r="Y77">
-        <v>568</v>
-      </c>
-      <c r="Z77">
         <v>177</v>
       </c>
-      <c r="AA77">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -7228,85 +5519,63 @@
         <v>4530</v>
       </c>
       <c r="C78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>66.598059394295802</v>
       </c>
       <c r="D78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.17641870038224283</v>
       </c>
       <c r="E78">
-        <v>36</v>
-      </c>
-      <c r="F78">
         <v>40</v>
       </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
       <c r="H78">
-        <v>0</v>
+        <v>8.1630000000000003</v>
       </c>
       <c r="I78">
-        <v>8.1630000000000003</v>
-      </c>
-      <c r="J78">
         <v>7.77</v>
       </c>
+      <c r="J78" s="2">
+        <v>1.64</v>
+      </c>
       <c r="K78" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="L78" s="2">
         <v>1.2936000000000001</v>
       </c>
-      <c r="M78" s="10">
-        <f t="shared" si="6"/>
-        <v>18.866600000000002</v>
-      </c>
-      <c r="N78" s="10">
-        <f t="shared" si="7"/>
-        <v>11.0966</v>
-      </c>
-      <c r="O78" s="10">
-        <f t="shared" si="8"/>
-        <v>0.47166500000000006</v>
+      <c r="L78">
+        <v>13</v>
+      </c>
+      <c r="M78">
+        <v>313</v>
+      </c>
+      <c r="N78">
+        <v>68</v>
+      </c>
+      <c r="O78">
+        <v>199</v>
       </c>
       <c r="P78">
-        <v>13</v>
+        <v>5274</v>
       </c>
       <c r="Q78">
-        <v>313</v>
+        <v>1209</v>
       </c>
       <c r="R78">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="S78">
-        <v>199</v>
-      </c>
-      <c r="T78" s="11">
-        <f t="shared" si="9"/>
-        <v>593</v>
+        <v>26</v>
+      </c>
+      <c r="T78">
+        <v>586</v>
       </c>
       <c r="U78">
-        <v>5274</v>
-      </c>
-      <c r="V78">
-        <v>1209</v>
-      </c>
-      <c r="W78">
-        <v>233</v>
-      </c>
-      <c r="X78">
-        <v>26</v>
-      </c>
-      <c r="Y78">
-        <v>586</v>
-      </c>
-      <c r="Z78">
         <v>182</v>
       </c>
-      <c r="AA78">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -7314,85 +5583,63 @@
         <v>4518</v>
       </c>
       <c r="C79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>66.42164069391356</v>
       </c>
       <c r="D79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.17641870038224283</v>
       </c>
       <c r="E79">
-        <v>36</v>
-      </c>
-      <c r="F79">
         <v>40</v>
       </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
       <c r="H79">
-        <v>0</v>
+        <v>8.0850000000000009</v>
       </c>
       <c r="I79">
-        <v>8.0850000000000009</v>
-      </c>
-      <c r="J79">
         <v>6.37</v>
       </c>
+      <c r="J79" s="2">
+        <v>1.43</v>
+      </c>
       <c r="K79" s="2">
-        <v>1.43</v>
-      </c>
-      <c r="L79" s="2">
         <v>1.4256</v>
       </c>
-      <c r="M79" s="10">
-        <f t="shared" si="6"/>
-        <v>17.310600000000001</v>
-      </c>
-      <c r="N79" s="10">
-        <f t="shared" si="7"/>
-        <v>10.9406</v>
-      </c>
-      <c r="O79" s="10">
-        <f t="shared" si="8"/>
-        <v>0.43276500000000001</v>
+      <c r="L79">
+        <v>15</v>
+      </c>
+      <c r="M79">
+        <v>313</v>
+      </c>
+      <c r="N79">
+        <v>63</v>
+      </c>
+      <c r="O79">
+        <v>195</v>
       </c>
       <c r="P79">
-        <v>15</v>
+        <v>4968</v>
       </c>
       <c r="Q79">
-        <v>313</v>
+        <v>1180</v>
       </c>
       <c r="R79">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="S79">
-        <v>195</v>
-      </c>
-      <c r="T79" s="11">
-        <f t="shared" si="9"/>
-        <v>586</v>
+        <v>25</v>
+      </c>
+      <c r="T79">
+        <v>603</v>
       </c>
       <c r="U79">
-        <v>4968</v>
-      </c>
-      <c r="V79">
-        <v>1180</v>
-      </c>
-      <c r="W79">
-        <v>275</v>
-      </c>
-      <c r="X79">
-        <v>25</v>
-      </c>
-      <c r="Y79">
-        <v>603</v>
-      </c>
-      <c r="Z79">
         <v>187</v>
       </c>
-      <c r="AA79">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -7400,85 +5647,63 @@
         <v>4502</v>
       </c>
       <c r="C80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>66.186415760070574</v>
       </c>
       <c r="D80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.23522493384298571</v>
       </c>
       <c r="E80">
-        <v>36</v>
-      </c>
-      <c r="F80">
         <v>40</v>
       </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
       <c r="H80">
-        <v>0</v>
+        <v>8.0850000000000009</v>
       </c>
       <c r="I80">
-        <v>8.0850000000000009</v>
-      </c>
-      <c r="J80">
         <v>6.86</v>
       </c>
+      <c r="J80" s="2">
+        <v>1.38</v>
+      </c>
       <c r="K80" s="2">
-        <v>1.38</v>
-      </c>
-      <c r="L80" s="2">
         <v>1.3331999999999999</v>
       </c>
-      <c r="M80" s="10">
-        <f t="shared" si="6"/>
-        <v>17.658200000000001</v>
-      </c>
-      <c r="N80" s="10">
-        <f t="shared" si="7"/>
-        <v>10.7982</v>
-      </c>
-      <c r="O80" s="10">
-        <f t="shared" si="8"/>
-        <v>0.44145500000000004</v>
+      <c r="L80">
+        <v>15</v>
+      </c>
+      <c r="M80">
+        <v>301</v>
+      </c>
+      <c r="N80">
+        <v>67</v>
+      </c>
+      <c r="O80">
+        <v>194</v>
       </c>
       <c r="P80">
-        <v>15</v>
+        <v>5516</v>
       </c>
       <c r="Q80">
-        <v>301</v>
+        <v>999</v>
       </c>
       <c r="R80">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="S80">
-        <v>194</v>
-      </c>
-      <c r="T80" s="11">
-        <f t="shared" si="9"/>
-        <v>577</v>
+        <v>24</v>
+      </c>
+      <c r="T80">
+        <v>621</v>
       </c>
       <c r="U80">
-        <v>5516</v>
-      </c>
-      <c r="V80">
-        <v>999</v>
-      </c>
-      <c r="W80">
-        <v>197</v>
-      </c>
-      <c r="X80">
-        <v>24</v>
-      </c>
-      <c r="Y80">
-        <v>621</v>
-      </c>
-      <c r="Z80">
         <v>192</v>
       </c>
-      <c r="AA80">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -7486,82 +5711,60 @@
         <v>4469</v>
       </c>
       <c r="C81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>65.701264334019413</v>
       </c>
       <c r="D81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.48515142605116068</v>
       </c>
       <c r="E81">
-        <v>36</v>
-      </c>
-      <c r="F81">
         <v>40</v>
       </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
       <c r="H81">
-        <v>0</v>
+        <v>8.3629999999999995</v>
       </c>
       <c r="I81">
-        <v>8.3629999999999995</v>
-      </c>
-      <c r="J81">
         <v>9.0299999999999994</v>
       </c>
+      <c r="J81" s="2">
+        <v>1.43</v>
+      </c>
       <c r="K81" s="2">
-        <v>1.43</v>
-      </c>
-      <c r="L81" s="2">
         <v>1.3859999999999999</v>
       </c>
-      <c r="M81" s="10">
-        <f t="shared" si="6"/>
-        <v>20.209</v>
-      </c>
-      <c r="N81" s="10">
-        <f t="shared" si="7"/>
-        <v>11.178999999999998</v>
-      </c>
-      <c r="O81" s="10">
-        <f t="shared" si="8"/>
-        <v>0.50522500000000004</v>
+      <c r="L81">
+        <v>15</v>
+      </c>
+      <c r="M81">
+        <v>293</v>
+      </c>
+      <c r="N81">
+        <v>69</v>
+      </c>
+      <c r="O81">
+        <v>191</v>
       </c>
       <c r="P81">
-        <v>15</v>
+        <v>5325</v>
       </c>
       <c r="Q81">
-        <v>293</v>
+        <v>1327</v>
       </c>
       <c r="R81">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="S81">
-        <v>191</v>
-      </c>
-      <c r="T81" s="11">
-        <f t="shared" si="9"/>
-        <v>568</v>
+        <v>24</v>
+      </c>
+      <c r="T81">
+        <v>639</v>
       </c>
       <c r="U81">
-        <v>5325</v>
-      </c>
-      <c r="V81">
-        <v>1327</v>
-      </c>
-      <c r="W81">
-        <v>284</v>
-      </c>
-      <c r="X81">
-        <v>24</v>
-      </c>
-      <c r="Y81">
-        <v>639</v>
-      </c>
-      <c r="Z81">
         <v>197</v>
-      </c>
-      <c r="AA81">
-        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -7588,22 +5791,22 @@
   <sheetData>
     <row r="1" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W1" t="s">
         <v>2</v>
@@ -7612,7 +5815,7 @@
         <v>3</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>1</v>
@@ -9796,10 +7999,10 @@
         <v>39</v>
       </c>
       <c r="Q44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W44">
         <v>7.7290000000000001</v>
@@ -13632,7 +11835,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -13980,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69BECAC-6FAC-3A48-9549-B6DDD353A8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0AF209-B96A-7148-9F45-4CF76AE573A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="17080" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>popgap</t>
+  </si>
+  <si>
+    <t>poorlaw</t>
   </si>
 </sst>
 </file>
@@ -572,11 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AG81"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,21 +587,21 @@
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="4" width="10.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" customWidth="1"/>
-    <col min="14" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.5" customWidth="1"/>
+    <col min="6" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" customWidth="1"/>
+    <col min="15" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" customWidth="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -620,50 +623,53 @@
       <c r="G1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -686,35 +692,38 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>6.2489999999999997</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <f>23.67/4.85</f>
         <v>4.880412371134021</v>
       </c>
-      <c r="J2" s="17">
+      <c r="K2" s="17">
         <v>1.6</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="10">
         <v>1.23</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M2" s="11">
         <v>156</v>
       </c>
-      <c r="M2" s="11">
+      <c r="N2" s="11">
         <v>402</v>
       </c>
-      <c r="N2" s="11">
+      <c r="O2" s="11">
         <v>60</v>
       </c>
-      <c r="O2" s="11">
+      <c r="P2" s="11">
         <v>296.87219999999996</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -739,34 +748,37 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>5.8449999999999998</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6.8</v>
       </c>
-      <c r="J3" s="17">
+      <c r="K3" s="17">
         <v>1.25</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>1.29</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>165</v>
       </c>
-      <c r="M3" s="11">
+      <c r="N3" s="11">
         <v>376</v>
       </c>
-      <c r="N3" s="11">
+      <c r="O3" s="11">
         <v>63</v>
       </c>
-      <c r="O3" s="11">
+      <c r="P3" s="11">
         <v>255.52860000000001</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -791,34 +803,37 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>6.47</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.85</v>
       </c>
-      <c r="J4" s="17">
+      <c r="K4" s="17">
         <v>1.57</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>1.38</v>
       </c>
-      <c r="L4" s="11">
+      <c r="M4" s="11">
         <v>149</v>
       </c>
-      <c r="M4" s="11">
+      <c r="N4" s="11">
         <v>416</v>
       </c>
-      <c r="N4" s="11">
+      <c r="O4" s="11">
         <v>68</v>
       </c>
-      <c r="O4" s="11">
+      <c r="P4" s="11">
         <v>272.50619999999998</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -843,34 +858,37 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>7.8369999999999997</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>7.7</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K5" s="17">
         <v>1.62</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>1.24</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <v>171</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11">
         <v>504</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O5" s="11">
         <v>61</v>
       </c>
-      <c r="O5" s="11">
+      <c r="P5" s="11">
         <v>275.09999999999997</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -895,34 +913,37 @@
         <v>1</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>7.7759999999999998</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5.3</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K6" s="17">
         <v>1.69</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>1.21</v>
       </c>
-      <c r="L6" s="11">
+      <c r="M6" s="11">
         <v>154</v>
       </c>
-      <c r="M6" s="11">
+      <c r="N6" s="11">
         <v>500</v>
       </c>
-      <c r="N6" s="11">
+      <c r="O6" s="11">
         <v>59</v>
       </c>
-      <c r="O6" s="11">
+      <c r="P6" s="11">
         <v>247.59</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -947,34 +968,37 @@
         <v>1</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>7.9740000000000002</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>7.7</v>
       </c>
-      <c r="J7" s="17">
+      <c r="K7" s="17">
         <v>1.82</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>1.34</v>
       </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
         <v>160</v>
       </c>
-      <c r="M7" s="11">
+      <c r="N7" s="11">
         <v>512</v>
       </c>
-      <c r="N7" s="11">
+      <c r="O7" s="11">
         <v>66</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>310.94159999999999</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -999,34 +1023,37 @@
         <v>1</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>8.0009999999999994</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>8.48</v>
       </c>
-      <c r="J8" s="17">
+      <c r="K8" s="17">
         <v>1.62</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <v>1.42</v>
       </c>
-      <c r="L8" s="11">
+      <c r="M8" s="11">
         <v>153</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="11">
         <v>514</v>
       </c>
-      <c r="N8" s="11">
+      <c r="O8" s="11">
         <v>69</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>306.22559999999999</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1051,34 +1078,37 @@
         <v>1</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>6.4669999999999996</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K9" s="17">
         <v>1.38</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <v>1.33</v>
       </c>
-      <c r="L9" s="11">
+      <c r="M9" s="11">
         <v>152</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="11">
         <v>416</v>
       </c>
-      <c r="N9" s="11">
+      <c r="O9" s="11">
         <v>65</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>229.11899999999997</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1103,40 +1133,43 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>6.7380000000000004</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4.92</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>3.21</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1.31</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M10" s="11">
         <v>182</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="11">
         <v>433</v>
       </c>
-      <c r="N10" s="11">
+      <c r="O10" s="11">
         <v>64</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <v>230.84820000000002</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>314</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>125</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1161,40 +1194,43 @@
         <v>1</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>7.702</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6.93</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>3.2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>1.33</v>
       </c>
-      <c r="L11" s="11">
+      <c r="M11" s="11">
         <v>181</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="11">
         <v>495</v>
       </c>
-      <c r="N11" s="11">
+      <c r="O11" s="11">
         <v>65</v>
       </c>
-      <c r="O11" s="8">
+      <c r="P11" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>305</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>126</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1219,40 +1255,43 @@
         <v>1</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>7.3120000000000003</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>7.08</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>3.3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>1.6</v>
       </c>
-      <c r="L12" s="11">
+      <c r="M12" s="11">
         <v>187</v>
       </c>
-      <c r="M12" s="11">
+      <c r="N12" s="11">
         <v>470</v>
       </c>
-      <c r="N12" s="11">
+      <c r="O12" s="11">
         <v>78</v>
       </c>
-      <c r="O12" s="8">
+      <c r="P12" s="8">
         <v>232.42020000000002</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>314</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>146</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1277,40 +1316,43 @@
         <v>1</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>5.4210000000000003</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3.84</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>2.94</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>1.29</v>
       </c>
-      <c r="L13" s="11">
+      <c r="M13" s="11">
         <v>167</v>
       </c>
-      <c r="M13" s="11">
+      <c r="N13" s="11">
         <v>348</v>
       </c>
-      <c r="N13" s="11">
+      <c r="O13" s="11">
         <v>63</v>
       </c>
-      <c r="O13" s="8">
+      <c r="P13" s="8">
         <v>220.08</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>275</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>127</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1335,40 +1377,43 @@
         <v>1</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>5.1130000000000004</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>2.61</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L14" s="11">
+      <c r="M14" s="11">
         <v>148</v>
       </c>
-      <c r="M14" s="11">
+      <c r="N14" s="11">
         <v>329</v>
       </c>
-      <c r="N14" s="11">
+      <c r="O14" s="11">
         <v>55</v>
       </c>
-      <c r="O14" s="8">
+      <c r="P14" s="8">
         <v>290.03399999999999</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>247</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>106</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1393,40 +1438,43 @@
         <v>1</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>5.7619999999999996</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>6.44</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>1.17</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>128</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <v>370</v>
       </c>
-      <c r="N15" s="11">
+      <c r="O15" s="11">
         <v>57</v>
       </c>
-      <c r="O15" s="8">
+      <c r="P15" s="8">
         <v>290.82</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>219</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>111</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1451,40 +1499,43 @@
         <v>1</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>6.4349999999999996</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3.58</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>1.97</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>1.21</v>
       </c>
-      <c r="L16" s="11">
+      <c r="M16" s="11">
         <v>112</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N16" s="11">
         <v>414</v>
       </c>
-      <c r="N16" s="11">
+      <c r="O16" s="11">
         <v>59</v>
       </c>
-      <c r="O16" s="8">
+      <c r="P16" s="8">
         <v>243.66</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>187</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>112</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1509,40 +1560,43 @@
         <v>1</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>7.1760000000000002</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>5.44</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>2.41</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>1.32</v>
       </c>
-      <c r="L17" s="11">
+      <c r="M17" s="11">
         <v>137</v>
       </c>
-      <c r="M17" s="11">
+      <c r="N17" s="11">
         <v>461</v>
       </c>
-      <c r="N17" s="11">
+      <c r="O17" s="11">
         <v>65</v>
       </c>
-      <c r="O17" s="8">
+      <c r="P17" s="8">
         <v>251.91300000000001</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>230</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>123</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1567,40 +1621,43 @@
         <v>1</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>6.8049999999999997</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7.9</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>2.76</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>1.28</v>
       </c>
-      <c r="L18" s="11">
+      <c r="M18" s="11">
         <v>156</v>
       </c>
-      <c r="M18" s="11">
+      <c r="N18" s="11">
         <v>437</v>
       </c>
-      <c r="N18" s="11">
+      <c r="O18" s="11">
         <v>63</v>
       </c>
-      <c r="O18" s="8">
+      <c r="P18" s="8">
         <v>252.14879999999997</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>261</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>117</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -1625,40 +1682,43 @@
         <v>1</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>6.7510000000000003</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5.89</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>3.25</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>1.26</v>
       </c>
-      <c r="L19" s="11">
+      <c r="M19" s="11">
         <v>184</v>
       </c>
-      <c r="M19" s="11">
+      <c r="N19" s="11">
         <v>434</v>
       </c>
-      <c r="N19" s="11">
+      <c r="O19" s="11">
         <v>62</v>
       </c>
-      <c r="O19" s="8">
+      <c r="P19" s="8">
         <v>252.69900000000001</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>315</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>122</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -1683,49 +1743,52 @@
         <v>1</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>8.4269999999999996</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>7.3</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>3.53</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>1.61</v>
       </c>
-      <c r="L20" s="11">
+      <c r="M20" s="11">
         <v>200</v>
       </c>
-      <c r="M20" s="11">
+      <c r="N20" s="11">
         <v>542</v>
       </c>
-      <c r="N20" s="11">
+      <c r="O20" s="11">
         <v>79</v>
       </c>
-      <c r="O20" s="8">
+      <c r="P20" s="8">
         <v>247.983</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>516</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>197</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>55</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>471</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>95</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -1750,49 +1813,52 @@
         <v>1</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>7.7290000000000001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>7</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>3.34</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>1.45</v>
       </c>
-      <c r="L21" s="11">
+      <c r="M21" s="11">
         <v>189</v>
       </c>
-      <c r="M21" s="11">
+      <c r="N21" s="11">
         <v>497</v>
       </c>
-      <c r="N21" s="11">
+      <c r="O21" s="11">
         <v>71</v>
       </c>
-      <c r="O21" s="8">
+      <c r="P21" s="8">
         <v>220.08</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>722</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>80</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>38</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>318</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>51</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -1817,49 +1883,52 @@
         <v>1</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>6.6970000000000001</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>6.33</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>3.25</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>1.29</v>
       </c>
-      <c r="L22" s="11">
+      <c r="M22" s="11">
         <v>184</v>
       </c>
-      <c r="M22" s="11">
+      <c r="N22" s="11">
         <v>430</v>
       </c>
-      <c r="N22" s="11">
+      <c r="O22" s="11">
         <v>63</v>
       </c>
-      <c r="O22" s="8">
+      <c r="P22" s="8">
         <v>212.22000000000003</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>651</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>88</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>8</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>399</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>74</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -1884,49 +1953,52 @@
         <v>1</v>
       </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>6.0229999999999997</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>7.97</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>2.84</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>161</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>387</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>55</v>
       </c>
-      <c r="O23" s="8">
+      <c r="P23" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>799</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>131</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>54</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>368</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>112</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -1951,49 +2023,52 @@
         <v>1</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>5.2119999999999997</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>4.51</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>2.52</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>1.18</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
         <v>143</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="11">
         <v>335</v>
       </c>
-      <c r="N24" s="11">
+      <c r="O24" s="11">
         <v>58</v>
       </c>
-      <c r="O24" s="8">
+      <c r="P24" s="8">
         <v>235.79999999999998</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>268</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>9</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>10</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>754</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>9</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -2018,49 +2093,52 @@
         <v>1</v>
       </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>6.3</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5.54</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>1.32</v>
       </c>
-      <c r="L25" s="11">
+      <c r="M25" s="11">
         <v>142</v>
       </c>
-      <c r="M25" s="11">
+      <c r="N25" s="11">
         <v>405</v>
       </c>
-      <c r="N25" s="11">
+      <c r="O25" s="11">
         <v>65</v>
       </c>
-      <c r="O25" s="11">
+      <c r="P25" s="11">
         <v>331</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>435</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>102</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>20</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>802</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>39</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -2085,49 +2163,52 @@
         <v>1</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>7.1369999999999996</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>6.16</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>142</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>459</v>
       </c>
-      <c r="N26" s="11">
+      <c r="O26" s="11">
         <v>76</v>
       </c>
-      <c r="O26" s="18">
+      <c r="P26" s="18">
         <v>400</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>228</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>141</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>28</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1420</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>47</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -2152,49 +2233,52 @@
         <v>1</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>8.6210000000000004</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>22.61</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>3.35</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>2.31</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="11">
         <v>190</v>
       </c>
-      <c r="M27" s="11">
+      <c r="N27" s="11">
         <v>554</v>
       </c>
-      <c r="N27" s="11">
+      <c r="O27" s="11">
         <v>113</v>
       </c>
-      <c r="O27" s="18">
+      <c r="P27" s="18">
         <v>129</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1175</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>143</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>74</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>717</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>85</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
@@ -2218,50 +2302,53 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
         <v>9.9860000000000007</v>
       </c>
-      <c r="I28" s="12">
+      <c r="J28" s="12">
         <v>17.78</v>
       </c>
-      <c r="J28" s="13">
+      <c r="K28" s="13">
         <v>2.5099999999999998</v>
       </c>
-      <c r="K28" s="13">
+      <c r="L28" s="13">
         <v>1.5312000000000001</v>
       </c>
-      <c r="L28" s="12">
+      <c r="M28" s="12">
         <v>272</v>
       </c>
-      <c r="M28" s="12">
+      <c r="N28" s="12">
         <v>625</v>
       </c>
-      <c r="N28" s="12">
+      <c r="O28" s="12">
         <v>120</v>
       </c>
-      <c r="O28" s="12">
+      <c r="P28" s="12">
         <v>89</v>
       </c>
-      <c r="P28" s="12">
+      <c r="Q28" s="12">
         <v>3701</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="R28" s="12">
         <v>497</v>
       </c>
-      <c r="R28" s="12">
+      <c r="S28" s="12">
         <v>240</v>
       </c>
-      <c r="S28" s="12">
+      <c r="T28" s="12">
         <v>355</v>
       </c>
-      <c r="T28" s="12">
+      <c r="U28" s="12">
         <v>234</v>
       </c>
-      <c r="U28" s="12">
+      <c r="V28" s="12">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2286,49 +2373,52 @@
         <v>1</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>6.4370000000000003</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>20.440000000000001</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>2.23</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>1.32</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>245</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>566</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>117</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>258</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2207</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>148</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>12</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>556</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>49</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2353,49 +2443,52 @@
         <v>1</v>
       </c>
       <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>5.8890000000000002</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>15.05</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>1.69</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>243</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>584</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>127</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>219</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2845</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>311</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>70</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>428</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>65</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -2419,50 +2512,53 @@
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
         <v>7.0869999999999997</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>15.33</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <v>1.87</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="6">
         <v>1.1484000000000001</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>213</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>619</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>118</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>275</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>3942</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>351</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>72</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>322</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>150</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -2487,49 +2583,52 @@
         <v>1</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>6.8890000000000002</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>12.25</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>1.69</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>173</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>641</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>126</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>270</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>5385</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>292</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>13</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>173</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>145</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -2554,49 +2653,52 @@
         <v>1</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>7.4989999999999997</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>13.93</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>1.95</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>1.2804</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>125</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>672</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>109</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>275</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>4833</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>146</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>21</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>102</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>62</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -2621,49 +2723,52 @@
         <v>1</v>
       </c>
       <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
         <v>9.3539999999999992</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>15.61</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>3.17</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>113</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>639</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>113</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>279</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>4728</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>184</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>29</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>135</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>50</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -2688,49 +2793,52 @@
         <v>1</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>11.162000000000001</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>21</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>3.12</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>143</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>596</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>95</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>308</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>2939</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>171</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>26</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>252</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>75</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -2755,49 +2863,52 @@
         <v>1</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>12.781000000000001</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>15.05</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>3.84</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <v>2.3628</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>155</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>612</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>89</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>309</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>2990</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>401</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>15</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>312</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>289</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -2821,50 +2932,53 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3">
         <v>8.6880000000000006</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>10.5</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <v>2.61</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <v>1.9668000000000001</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>181</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>588</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>71</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>345</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>3491</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>359</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>9</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>359</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>246</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -2889,49 +3003,52 @@
         <v>1</v>
       </c>
       <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
         <v>8.3629999999999995</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>17.78</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>1.6764000000000001</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>192</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>565</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>81</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>359</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>2843</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>518</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>27</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>334</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>178</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -2956,49 +3073,52 @@
         <v>1</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
         <v>7.7290000000000001</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>10.220000000000001</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>1.77</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="2">
         <v>1.3464</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>185</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>561</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>74</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>360</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>4159</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>339</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>17</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>298</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>110</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3023,49 +3143,52 @@
         <v>1</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
         <v>8.9870000000000001</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>12.39</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
         <v>1.5840000000000001</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>157</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>568</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>69</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>374</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>4775</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>238</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>25</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>320</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>42</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3090,49 +3213,52 @@
         <v>1</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
         <v>10.718999999999999</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>18.55</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>157</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>560</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>71</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>361</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>5072</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>362</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>25</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>161</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>61</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -3157,49 +3283,52 @@
         <v>1</v>
       </c>
       <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
         <v>8.6880000000000006</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>15.89</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="2">
         <v>1.5312000000000001</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>133</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>574</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>78</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>349</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>5365</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>252</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>10</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>236</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>128</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -3224,49 +3353,52 @@
         <v>1</v>
       </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>7.7290000000000001</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>12.67</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>1.87</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L43" s="2">
         <v>1.4387999999999999</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>118</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>565</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>76</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>311</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>8340</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>230</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>232</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>150</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>181</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -3291,49 +3423,52 @@
         <v>1</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>7.7290000000000001</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>8.89</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>1.77</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L44" s="2">
         <v>1.3728</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>87</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>566</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>69</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>315</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>6490</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>136</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>71</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>161</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>62</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -3358,49 +3493,52 @@
         <v>1</v>
       </c>
       <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
         <v>7.1150000000000002</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>9.17</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>1.64</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="2">
         <v>1.3464</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>96</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>526</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>70</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>322</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>6044</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>214</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>12</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>63</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>66</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -3425,49 +3563,52 @@
         <v>1</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>9.2829999999999995</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>10.220000000000001</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>2.59</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="2">
         <v>1.518</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>93</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>496</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>72</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>330</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>6002</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>269</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>50</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>62</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>76</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -3491,50 +3632,53 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" s="3">
         <v>10.127000000000001</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12.11</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <v>2.74</v>
       </c>
-      <c r="K47" s="6">
+      <c r="L47" s="6">
         <v>2.0592000000000001</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>102</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>488</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>61</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>323</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>6575</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>329</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>38</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>59</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>31</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -3559,49 +3703,52 @@
         <v>1</v>
       </c>
       <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
         <v>12.676</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>14</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>3.2</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="2">
         <v>1.9668000000000001</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>88</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>475</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>69</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>308</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>7022</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>360</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>71</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>52</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>57</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -3626,49 +3773,52 @@
         <v>1</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
         <v>10.718999999999999</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>12.39</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>3</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="2">
         <v>2.0460000000000003</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>93</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>486</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>75</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>320</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>7103</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>159</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>36</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>52</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>75</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -3693,49 +3843,52 @@
         <v>1</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
         <v>10.512</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>10.78</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="2">
         <v>1.9536000000000002</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>87</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>481</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>90</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>320</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>8003</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>213</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>41</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>51</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>93</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -3760,49 +3913,52 @@
         <v>0</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>9.8309999999999995</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>12.95</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>2.15</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>80</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>461</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>97</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>319</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>7704</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>259</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>55</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>50</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>110</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -3827,49 +3983,52 @@
         <v>0</v>
       </c>
       <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
         <v>10.007999999999999</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>13.72</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>2.61</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>74</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>458</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>89</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>322</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>8848</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>401</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>75</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>49</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>128</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -3894,49 +4053,52 @@
         <v>0</v>
       </c>
       <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
         <v>9.51</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>21.84</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>2.64</v>
       </c>
-      <c r="K53" s="2">
+      <c r="L53" s="2">
         <v>1.7556</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>66</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>451</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>88</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>301</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>9584</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>784</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>95</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>48</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>145</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -3961,49 +4123,52 @@
         <v>0</v>
       </c>
       <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
         <v>8.41</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>15.61</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="K54" s="2">
+      <c r="L54" s="2">
         <v>1.056</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>50</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>415</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>92</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>272</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>8746</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>603</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>139</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>47</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>163</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -4028,49 +4193,52 @@
         <v>0</v>
       </c>
       <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
         <v>11.162000000000001</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>9.94</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <v>1.95</v>
       </c>
-      <c r="K55" s="2">
+      <c r="L55" s="2">
         <v>1.7424000000000002</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>57</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>403</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>85</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>270</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>9113</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>350</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>114</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>46</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>181</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -4095,49 +4263,52 @@
         <v>0</v>
       </c>
       <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
         <v>10.16</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>11.34</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <v>1.97</v>
       </c>
-      <c r="K56" s="2">
+      <c r="L56" s="2">
         <v>1.6632000000000002</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>47</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>408</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>93</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>272</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>11251</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>543</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>122</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>45</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>198</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -4161,50 +4332,53 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" s="3">
         <v>9.1850000000000005</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11.41</v>
       </c>
-      <c r="J57" s="6">
+      <c r="K57" s="6">
         <v>2.02</v>
       </c>
-      <c r="K57" s="6">
+      <c r="L57" s="6">
         <v>1.6104000000000003</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>35</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>407</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>88</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>266</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>10575</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>670</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>81</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>45</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>216</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
@@ -4228,50 +4402,53 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" s="4">
         <v>10.007999999999999</v>
       </c>
-      <c r="I58" s="14">
+      <c r="J58" s="14">
         <v>19.39</v>
       </c>
-      <c r="J58" s="15">
+      <c r="K58" s="15">
         <v>2.2799999999999998</v>
       </c>
-      <c r="K58" s="15">
+      <c r="L58" s="15">
         <v>1.7292000000000001</v>
       </c>
-      <c r="L58" s="14">
+      <c r="M58" s="14">
         <v>42</v>
       </c>
-      <c r="M58" s="14">
+      <c r="N58" s="14">
         <v>403</v>
       </c>
-      <c r="N58" s="14">
+      <c r="O58" s="14">
         <v>90</v>
       </c>
-      <c r="O58" s="14">
+      <c r="P58" s="14">
         <v>262</v>
       </c>
-      <c r="P58" s="14">
+      <c r="Q58" s="14">
         <v>9836</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="R58" s="14">
         <v>778</v>
       </c>
-      <c r="R58" s="14">
+      <c r="S58" s="14">
         <v>208</v>
       </c>
-      <c r="S58" s="14">
+      <c r="T58" s="14">
         <v>44</v>
       </c>
-      <c r="T58" s="14">
+      <c r="U58" s="14">
         <v>233</v>
       </c>
-      <c r="U58" s="14">
+      <c r="V58" s="14">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
@@ -4295,50 +4472,53 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59" s="4">
         <v>10.512</v>
       </c>
-      <c r="I59" s="14">
+      <c r="J59" s="14">
         <v>14.56</v>
       </c>
-      <c r="J59" s="15">
+      <c r="K59" s="15">
         <v>1.84</v>
       </c>
-      <c r="K59" s="15">
+      <c r="L59" s="15">
         <v>1.6104000000000003</v>
       </c>
-      <c r="L59" s="14">
+      <c r="M59" s="14">
         <v>48</v>
       </c>
-      <c r="M59" s="14">
+      <c r="N59" s="14">
         <v>380</v>
       </c>
-      <c r="N59" s="14">
+      <c r="O59" s="14">
         <v>97</v>
       </c>
-      <c r="O59" s="14">
+      <c r="P59" s="14">
         <v>254</v>
       </c>
-      <c r="P59" s="14">
+      <c r="Q59" s="14">
         <v>10545</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="R59" s="14">
         <v>858</v>
       </c>
-      <c r="R59" s="14">
+      <c r="S59" s="14">
         <v>179</v>
       </c>
-      <c r="S59" s="14">
+      <c r="T59" s="14">
         <v>43</v>
       </c>
-      <c r="T59" s="14">
+      <c r="U59" s="14">
         <v>251</v>
       </c>
-      <c r="U59" s="14">
+      <c r="V59" s="14">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
@@ -4362,50 +4542,53 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" s="4">
         <v>10.59</v>
       </c>
-      <c r="I60" s="14">
+      <c r="J60" s="14">
         <v>19.95</v>
       </c>
-      <c r="J60" s="15">
+      <c r="K60" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K60" s="15">
+      <c r="L60" s="15">
         <v>1.5576000000000001</v>
       </c>
-      <c r="L60" s="14">
+      <c r="M60" s="14">
         <v>48</v>
       </c>
-      <c r="M60" s="14">
+      <c r="N60" s="14">
         <v>356</v>
       </c>
-      <c r="N60" s="14">
+      <c r="O60" s="14">
         <v>101</v>
       </c>
-      <c r="O60" s="14">
+      <c r="P60" s="14">
         <v>252</v>
       </c>
-      <c r="P60" s="14">
+      <c r="Q60" s="14">
         <v>10008</v>
       </c>
-      <c r="Q60" s="14">
+      <c r="R60" s="14">
         <v>650</v>
       </c>
-      <c r="R60" s="14">
+      <c r="S60" s="14">
         <v>166</v>
       </c>
-      <c r="S60" s="14">
+      <c r="T60" s="14">
         <v>42</v>
       </c>
-      <c r="T60" s="14">
+      <c r="U60" s="14">
         <v>269</v>
       </c>
-      <c r="U60" s="14">
+      <c r="V60" s="14">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -4430,49 +4613,52 @@
         <v>0</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>9.2829999999999995</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>9.94</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <v>1.95</v>
       </c>
-      <c r="K61" s="2">
+      <c r="L61" s="2">
         <v>1.5048000000000001</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>45</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>378</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>87</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>247</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>9242</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>632</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>140</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>41</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>286</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -4497,49 +4683,52 @@
         <v>0</v>
       </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>9.8309999999999995</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>7.56</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <v>2.12</v>
       </c>
-      <c r="K62" s="2">
+      <c r="L62" s="2">
         <v>1.4916</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>47</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>383</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>83</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>257</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>7715</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>637</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>101</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>40</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>304</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -4564,49 +4753,52 @@
         <v>0</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
         <v>9.6349999999999998</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>7.56</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <v>1.95</v>
       </c>
-      <c r="K63" s="2">
+      <c r="L63" s="2">
         <v>1.518</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>46</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>385</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>74</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>252</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>9899</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>926</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>106</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>39</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>322</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -4631,49 +4823,52 @@
         <v>0</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>9.7119999999999997</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>7.56</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <v>1.79</v>
       </c>
-      <c r="K64" s="2">
+      <c r="L64" s="2">
         <v>1.4652000000000001</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>27</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>381</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>73</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>242</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>8985</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>819</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>299</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>38</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>339</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -4698,49 +4893,52 @@
         <v>0</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>8.9870000000000001</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>8.19</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <v>1.59</v>
       </c>
-      <c r="K65" s="2">
+      <c r="L65" s="2">
         <v>1.3992000000000002</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>19</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>371</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>67</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>240</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>7689</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>737</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>145</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>38</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>357</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -4765,49 +4963,52 @@
         <v>0</v>
       </c>
       <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
         <v>11.3</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>7</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <v>1.48</v>
       </c>
-      <c r="K66" s="2">
+      <c r="L66" s="2">
         <v>1.32</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>20</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>363</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>71</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>239</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>9771</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>901</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>121</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>37</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>374</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -4828,50 +5029,53 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" s="3">
         <v>7.6509999999999998</v>
       </c>
-      <c r="I67" s="3">
+      <c r="J67" s="3">
         <v>5.67</v>
       </c>
-      <c r="J67" s="6">
+      <c r="K67" s="6">
         <v>1.36</v>
       </c>
-      <c r="K67" s="6">
+      <c r="L67" s="6">
         <v>1.0824</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>19</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>365</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>72</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>239</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>6580</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>871</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>126</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>36</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>392</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -4893,49 +5097,52 @@
         <v>0</v>
       </c>
       <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
         <v>7.5730000000000004</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>7.35</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <v>1.41</v>
       </c>
-      <c r="K68" s="2">
+      <c r="L68" s="2">
         <v>1.2012</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>18</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>362</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>65</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>238</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>7611</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>952</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>281</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>35</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>410</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -4957,49 +5164,52 @@
         <v>0</v>
       </c>
       <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
         <v>8.24</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>5.95</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <v>1.56</v>
       </c>
-      <c r="K69" s="2">
+      <c r="L69" s="2">
         <v>1.32</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>29</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>348</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>68</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>239</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>6898</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>1049</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>401</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>34</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>427</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -5021,49 +5231,52 @@
         <v>0</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>8.8149999999999995</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>5.25</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <v>1.46</v>
       </c>
-      <c r="K70" s="2">
+      <c r="L70" s="2">
         <v>1.32</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>28</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>335</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>74</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>235</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>7990</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>1011</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>302</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>33</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>445</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -5085,49 +5298,52 @@
         <v>0</v>
       </c>
       <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
         <v>9.51</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>5.74</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <v>1.51</v>
       </c>
-      <c r="K71" s="2">
+      <c r="L71" s="2">
         <v>1.3068</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>28</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>329</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>73</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>232</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>7812</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>776</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>188</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>32</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>462</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -5149,49 +5365,52 @@
         <v>0</v>
       </c>
       <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
         <v>10.433</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>9.73</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <v>1.66</v>
       </c>
-      <c r="K72" s="2">
+      <c r="L72" s="2">
         <v>1.4783999999999999</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>24</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>328</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>71</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>222</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>7450</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>860</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>176</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>31</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>480</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -5213,49 +5432,52 @@
         <v>0</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>10.433</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>11.9</v>
       </c>
-      <c r="J73" s="2">
+      <c r="K73" s="2">
         <v>1.51</v>
       </c>
-      <c r="K73" s="2">
+      <c r="L73" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>22</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>330</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>70</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>218</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>6704</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>1292</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>172</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>31</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>498</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -5277,49 +5499,52 @@
         <v>0</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>10.16</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>10.43</v>
       </c>
-      <c r="J74" s="2">
+      <c r="K74" s="2">
         <v>1.36</v>
       </c>
-      <c r="K74" s="2">
+      <c r="L74" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>16</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>336</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>67</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>212</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>6350</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>1210</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>169</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>30</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>515</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -5341,49 +5566,52 @@
         <v>0</v>
       </c>
       <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>8.9359999999999999</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>8.61</v>
       </c>
-      <c r="J75" s="2">
+      <c r="K75" s="2">
         <v>1.28</v>
       </c>
-      <c r="K75" s="2">
+      <c r="L75" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>14</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>340</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>66</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>211</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>5988</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>1867</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>190</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>29</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>533</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -5405,49 +5633,52 @@
         <v>0</v>
       </c>
       <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
         <v>7.4989999999999997</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>7.14</v>
       </c>
-      <c r="J76" s="2">
+      <c r="K76" s="2">
         <v>1.28</v>
       </c>
-      <c r="K76" s="2">
+      <c r="L76" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>10</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>329</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>69</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>208</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>6899</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>1345</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>247</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>28</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>550</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -5468,50 +5699,53 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77" s="3">
         <v>7.8070000000000004</v>
       </c>
-      <c r="I77" s="3">
+      <c r="J77" s="3">
         <v>7.63</v>
       </c>
-      <c r="J77" s="6">
+      <c r="K77" s="6">
         <v>1.43</v>
       </c>
-      <c r="K77" s="6">
+      <c r="L77" s="6">
         <v>1.2804</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>11</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>318</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>69</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>206</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>5530</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>1128</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>246</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>27</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>568</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -5533,49 +5767,52 @@
         <v>0</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>8.1630000000000003</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>7.77</v>
       </c>
-      <c r="J78" s="2">
+      <c r="K78" s="2">
         <v>1.64</v>
       </c>
-      <c r="K78" s="2">
+      <c r="L78" s="2">
         <v>1.2936000000000001</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>13</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>313</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>68</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>199</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>5274</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>1209</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>233</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>26</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>586</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -5597,49 +5834,52 @@
         <v>0</v>
       </c>
       <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
         <v>8.0850000000000009</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>6.37</v>
       </c>
-      <c r="J79" s="2">
+      <c r="K79" s="2">
         <v>1.43</v>
       </c>
-      <c r="K79" s="2">
+      <c r="L79" s="2">
         <v>1.4256</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>15</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>313</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>63</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>195</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>4968</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>1180</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>275</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>25</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>603</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -5661,49 +5901,52 @@
         <v>0</v>
       </c>
       <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
         <v>8.0850000000000009</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>6.86</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>1.38</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>1.3331999999999999</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>15</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>301</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>67</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>194</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>5516</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>999</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>197</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>24</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>621</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -5725,45 +5968,48 @@
         <v>0</v>
       </c>
       <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
         <v>8.3629999999999995</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>9.0299999999999994</v>
       </c>
-      <c r="J81" s="2">
+      <c r="K81" s="2">
         <v>1.43</v>
       </c>
-      <c r="K81" s="2">
+      <c r="L81" s="2">
         <v>1.3859999999999999</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>15</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>293</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>69</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>191</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>5325</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>1327</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>284</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>24</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>639</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>197</v>
       </c>
     </row>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0AF209-B96A-7148-9F45-4CF76AE573A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73639964-E6A3-5649-97F6-197645EA465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="17080" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="25480" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>poorlaw</t>
+  </si>
+  <si>
+    <t>oat_exports</t>
   </si>
 </sst>
 </file>
@@ -575,11 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K12" sqref="K12"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="V1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -685,7 +688,7 @@
       <c r="E2">
         <v>18</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="16">
         <v>13.39</v>
       </c>
       <c r="G2">
@@ -741,7 +744,7 @@
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="16">
         <v>13.28</v>
       </c>
       <c r="G3">
@@ -796,7 +799,7 @@
       <c r="E4">
         <v>18</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="16">
         <v>13.63</v>
       </c>
       <c r="G4">
@@ -851,7 +854,7 @@
       <c r="E5">
         <v>16</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <v>13.87</v>
       </c>
       <c r="G5">
@@ -906,7 +909,7 @@
       <c r="E6">
         <v>16</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>12.32</v>
       </c>
       <c r="G6">
@@ -961,7 +964,7 @@
       <c r="E7">
         <v>16</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>15.02</v>
       </c>
       <c r="G7">
@@ -1016,7 +1019,7 @@
       <c r="E8">
         <v>16</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <v>14.89</v>
       </c>
       <c r="G8">
@@ -1071,7 +1074,7 @@
       <c r="E9">
         <v>16</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="16">
         <v>15.13</v>
       </c>
       <c r="G9">
@@ -1126,7 +1129,7 @@
       <c r="E10">
         <v>16</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="16">
         <v>15.29</v>
       </c>
       <c r="G10">
@@ -1187,7 +1190,7 @@
       <c r="E11">
         <v>16</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="16">
         <v>16</v>
       </c>
       <c r="G11">
@@ -1248,7 +1251,7 @@
       <c r="E12">
         <v>16</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="16">
         <v>15.82</v>
       </c>
       <c r="G12">
@@ -1309,7 +1312,7 @@
       <c r="E13">
         <v>16</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="16">
         <v>15.64</v>
       </c>
       <c r="G13">
@@ -1370,7 +1373,7 @@
       <c r="E14">
         <v>16</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="16">
         <v>15.46</v>
       </c>
       <c r="G14">
@@ -1431,7 +1434,7 @@
       <c r="E15">
         <v>16</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="16">
         <v>15.29</v>
       </c>
       <c r="G15">
@@ -1492,7 +1495,7 @@
       <c r="E16">
         <v>16</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="16">
         <v>15.11</v>
       </c>
       <c r="G16">
@@ -1553,7 +1556,7 @@
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="16">
         <v>14.93</v>
       </c>
       <c r="G17">
@@ -1614,7 +1617,7 @@
       <c r="E18">
         <v>16</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="16">
         <v>14.75</v>
       </c>
       <c r="G18">
@@ -1675,7 +1678,7 @@
       <c r="E19">
         <v>16</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="16">
         <v>14.57</v>
       </c>
       <c r="G19">
@@ -1736,7 +1739,7 @@
       <c r="E20">
         <v>16</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="16">
         <v>14.39</v>
       </c>
       <c r="G20">
@@ -1806,7 +1809,7 @@
       <c r="E21">
         <v>16</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="16">
         <v>14.21</v>
       </c>
       <c r="G21">
@@ -1876,7 +1879,7 @@
       <c r="E22">
         <v>16</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="16">
         <v>14.04</v>
       </c>
       <c r="G22">
@@ -1946,7 +1949,7 @@
       <c r="E23">
         <v>16</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="16">
         <v>13.86</v>
       </c>
       <c r="G23">
@@ -2016,7 +2019,7 @@
       <c r="E24">
         <v>16</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="16">
         <v>13.68</v>
       </c>
       <c r="G24">
@@ -2086,7 +2089,7 @@
       <c r="E25">
         <v>16</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="16">
         <v>13.5</v>
       </c>
       <c r="G25">
@@ -2156,7 +2159,7 @@
       <c r="E26">
         <v>16</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="16">
         <v>13.32</v>
       </c>
       <c r="G26">
@@ -2226,7 +2229,7 @@
       <c r="E27">
         <v>16</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="16">
         <v>13.14</v>
       </c>
       <c r="G27">
@@ -2296,7 +2299,7 @@
       <c r="E28" s="12">
         <v>16</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="16">
         <v>12.96</v>
       </c>
       <c r="G28">
@@ -2366,14 +2369,14 @@
       <c r="E29">
         <v>16</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="16">
         <v>12.79</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>6.4370000000000003</v>
@@ -2436,14 +2439,14 @@
       <c r="E30">
         <v>16</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="16">
         <v>12.61</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>5.8890000000000002</v>
@@ -2506,14 +2509,14 @@
       <c r="E31">
         <v>16</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>10.199999999999999</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3">
         <v>7.0869999999999997</v>
@@ -2576,14 +2579,14 @@
       <c r="E32">
         <v>16</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>10.199999999999999</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>6.8890000000000002</v>
@@ -2646,14 +2649,14 @@
       <c r="E33">
         <v>16</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>10.1</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>7.4989999999999997</v>
@@ -2716,14 +2719,14 @@
       <c r="E34">
         <v>18</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>10.1</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>9.3539999999999992</v>
@@ -2786,14 +2789,14 @@
       <c r="E35">
         <v>18</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>10</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>11.162000000000001</v>
@@ -2856,14 +2859,14 @@
       <c r="E36">
         <v>18</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>10.199999999999999</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>12.781000000000001</v>
@@ -2926,14 +2929,14 @@
       <c r="E37">
         <v>18</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>10.3</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="3">
         <v>8.6880000000000006</v>
@@ -2996,14 +2999,14 @@
       <c r="E38">
         <v>18</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>10.4</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>8.3629999999999995</v>
@@ -3066,14 +3069,14 @@
       <c r="E39">
         <v>18</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>10.5</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>7.7290000000000001</v>
@@ -3136,14 +3139,14 @@
       <c r="E40">
         <v>18</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>10.7</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>8.9870000000000001</v>
@@ -3206,14 +3209,14 @@
       <c r="E41">
         <v>18</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>11</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>10.718999999999999</v>
@@ -3276,14 +3279,14 @@
       <c r="E42">
         <v>18</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>11</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>8.6880000000000006</v>
@@ -3346,14 +3349,14 @@
       <c r="E43">
         <v>18</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>11</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>7.7290000000000001</v>
@@ -3416,14 +3419,14 @@
       <c r="E44">
         <v>18</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>11</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>7.7290000000000001</v>
@@ -3486,14 +3489,14 @@
       <c r="E45">
         <v>18</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>11.1</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>7.1150000000000002</v>
@@ -3556,14 +3559,14 @@
       <c r="E46">
         <v>18</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>11.2</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>9.2829999999999995</v>
@@ -3626,14 +3629,14 @@
       <c r="E47">
         <v>21</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>11.4</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="3">
         <v>10.127000000000001</v>
@@ -3696,14 +3699,14 @@
       <c r="E48">
         <v>24</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>11.4</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>12.676</v>
@@ -3766,14 +3769,14 @@
       <c r="E49">
         <v>24</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>11.4</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>10.718999999999999</v>
@@ -3836,14 +3839,14 @@
       <c r="E50">
         <v>24</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>11.7</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>10.512</v>
@@ -3906,14 +3909,14 @@
       <c r="E51">
         <v>24</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>12</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>9.8309999999999995</v>
@@ -3976,14 +3979,14 @@
       <c r="E52">
         <v>24</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>12</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>10.007999999999999</v>
@@ -4046,14 +4049,14 @@
       <c r="E53">
         <v>26</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>12</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>9.51</v>
@@ -4116,14 +4119,14 @@
       <c r="E54">
         <v>26</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>12</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>8.41</v>
@@ -4186,14 +4189,14 @@
       <c r="E55">
         <v>26</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>12</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>11.162000000000001</v>
@@ -4256,14 +4259,14 @@
       <c r="E56">
         <v>26</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>12</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>10.16</v>
@@ -4326,14 +4329,14 @@
       <c r="E57">
         <v>27</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>12.1</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="3">
         <v>9.1850000000000005</v>
@@ -4396,14 +4399,14 @@
       <c r="E58" s="14">
         <v>28</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="15">
         <v>12.1</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="4">
         <v>10.007999999999999</v>
@@ -4466,14 +4469,14 @@
       <c r="E59" s="14">
         <v>28</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="15">
         <v>12.1</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" s="4">
         <v>10.512</v>
@@ -4536,14 +4539,14 @@
       <c r="E60" s="14">
         <v>28</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="15">
         <v>12</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" s="4">
         <v>10.59</v>
@@ -4606,14 +4609,14 @@
       <c r="E61">
         <v>28</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>12</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>9.2829999999999995</v>
@@ -4676,14 +4679,14 @@
       <c r="E62">
         <v>28</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>12</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>9.8309999999999995</v>
@@ -4746,14 +4749,14 @@
       <c r="E63">
         <v>28</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>12</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>9.6349999999999998</v>
@@ -4816,14 +4819,14 @@
       <c r="E64">
         <v>28</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <v>12</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>9.7119999999999997</v>
@@ -4886,14 +4889,14 @@
       <c r="E65">
         <v>28</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>11.9</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>8.9870000000000001</v>
@@ -4956,14 +4959,14 @@
       <c r="E66">
         <v>28</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <v>11.9</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>11.3</v>
@@ -5030,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="3">
         <v>7.6509999999999998</v>
@@ -5097,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>7.5730000000000004</v>
@@ -5164,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>8.24</v>
@@ -5231,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>8.8149999999999995</v>
@@ -5298,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>9.51</v>
@@ -5365,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>10.433</v>
@@ -5432,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>10.433</v>
@@ -5499,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>10.16</v>
@@ -5566,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>8.9359999999999999</v>
@@ -5633,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>7.4989999999999997</v>
@@ -5700,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="3">
         <v>7.8070000000000004</v>
@@ -5767,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>8.1630000000000003</v>
@@ -5834,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>8.0850000000000009</v>
@@ -5901,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>8.0850000000000009</v>
@@ -5968,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>8.3629999999999995</v>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73639964-E6A3-5649-97F6-197645EA465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DDFEBB-CB1E-B04E-975E-6AE2FEA34B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="25480" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Year</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>oat_exports</t>
+  </si>
+  <si>
+    <t>if_famine</t>
   </si>
 </sst>
 </file>
@@ -578,11 +581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,7 +607,7 @@
     <col min="20" max="20" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -671,8 +674,11 @@
       <c r="V1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -725,8 +731,11 @@
       <c r="T2">
         <v>249</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -780,8 +789,11 @@
       <c r="T3">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -835,8 +847,11 @@
       <c r="T4">
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -890,8 +905,11 @@
       <c r="T5">
         <v>222</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -945,8 +963,11 @@
       <c r="T6">
         <v>301</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -1000,8 +1021,11 @@
       <c r="T7">
         <v>230</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -1055,8 +1079,11 @@
       <c r="T8">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1110,8 +1137,11 @@
       <c r="T9">
         <v>355</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1171,8 +1201,11 @@
       <c r="V10">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1232,8 +1265,11 @@
       <c r="V11">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1293,8 +1329,11 @@
       <c r="V12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1354,8 +1393,11 @@
       <c r="V13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1415,8 +1457,11 @@
       <c r="V14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1476,8 +1521,11 @@
       <c r="V15">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1537,8 +1585,11 @@
       <c r="V16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1598,8 +1649,11 @@
       <c r="V17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1659,8 +1713,11 @@
       <c r="V18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -1720,8 +1777,11 @@
       <c r="V19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -1790,8 +1850,11 @@
       <c r="V20">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="V21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -1930,8 +1996,11 @@
       <c r="V22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -2000,8 +2069,11 @@
       <c r="V23">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -2070,8 +2142,11 @@
       <c r="V24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -2140,8 +2215,11 @@
       <c r="V25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -2210,8 +2288,11 @@
       <c r="V26">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -2280,8 +2361,11 @@
       <c r="V27">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
@@ -2306,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
         <v>9.9860000000000007</v>
@@ -2350,8 +2434,11 @@
       <c r="V28" s="12">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2376,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>6.4370000000000003</v>
@@ -2420,8 +2507,11 @@
       <c r="V29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2446,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>5.8890000000000002</v>
@@ -2490,8 +2580,11 @@
       <c r="V30">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -2516,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
         <v>7.0869999999999997</v>
@@ -2560,8 +2653,11 @@
       <c r="V31">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -2586,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>6.8890000000000002</v>
@@ -2630,8 +2726,11 @@
       <c r="V32">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -2656,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>7.4989999999999997</v>
@@ -2700,8 +2799,11 @@
       <c r="V33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -2726,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>9.3539999999999992</v>
@@ -2770,8 +2872,11 @@
       <c r="V34">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -2796,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>11.162000000000001</v>
@@ -2840,8 +2945,11 @@
       <c r="V35">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -2866,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>12.781000000000001</v>
@@ -2910,8 +3018,11 @@
       <c r="V36">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -2936,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3">
         <v>8.6880000000000006</v>
@@ -2980,8 +3091,11 @@
       <c r="V37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -3006,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>8.3629999999999995</v>
@@ -3050,8 +3164,11 @@
       <c r="V38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -3076,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>7.7290000000000001</v>
@@ -3120,8 +3237,11 @@
       <c r="V39">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3146,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>8.9870000000000001</v>
@@ -3190,8 +3310,11 @@
       <c r="V40">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3216,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>10.718999999999999</v>
@@ -3260,8 +3383,11 @@
       <c r="V41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -3286,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>8.6880000000000006</v>
@@ -3330,8 +3456,11 @@
       <c r="V42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -3356,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>7.7290000000000001</v>
@@ -3400,8 +3529,11 @@
       <c r="V43">
         <v>232</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -3426,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>7.7290000000000001</v>
@@ -3470,8 +3602,11 @@
       <c r="V44">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -3496,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>7.1150000000000002</v>
@@ -3540,8 +3675,11 @@
       <c r="V45">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -3566,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>9.2829999999999995</v>
@@ -3610,8 +3748,11 @@
       <c r="V46">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -3636,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>10.127000000000001</v>
@@ -3680,8 +3821,11 @@
       <c r="V47">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -3706,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>12.676</v>
@@ -3750,8 +3894,11 @@
       <c r="V48">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -3776,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>10.718999999999999</v>
@@ -3820,8 +3967,11 @@
       <c r="V49">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -3846,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>10.512</v>
@@ -3890,8 +4040,11 @@
       <c r="V50">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -3916,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>9.8309999999999995</v>
@@ -3960,8 +4113,11 @@
       <c r="V51">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -3986,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>10.007999999999999</v>
@@ -4030,8 +4186,11 @@
       <c r="V52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -4056,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>9.51</v>
@@ -4100,8 +4259,11 @@
       <c r="V53">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -4126,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>8.41</v>
@@ -4170,8 +4332,11 @@
       <c r="V54">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -4196,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>11.162000000000001</v>
@@ -4240,8 +4405,11 @@
       <c r="V55">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -4266,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>10.16</v>
@@ -4310,8 +4478,11 @@
       <c r="V56">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -4336,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>9.1850000000000005</v>
@@ -4380,8 +4551,11 @@
       <c r="V57">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
@@ -4406,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="4">
         <v>10.007999999999999</v>
@@ -4450,8 +4624,11 @@
       <c r="V58" s="14">
         <v>80</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
@@ -4476,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="4">
         <v>10.512</v>
@@ -4520,8 +4697,11 @@
       <c r="V59" s="14">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
@@ -4546,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="4">
         <v>10.59</v>
@@ -4590,8 +4770,11 @@
       <c r="V60" s="14">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -4616,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>9.2829999999999995</v>
@@ -4660,8 +4843,11 @@
       <c r="V61">
         <v>96</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -4686,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>9.8309999999999995</v>
@@ -4730,8 +4916,11 @@
       <c r="V62">
         <v>101</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -4756,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>9.6349999999999998</v>
@@ -4800,8 +4989,11 @@
       <c r="V63">
         <v>106</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -4826,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>9.7119999999999997</v>
@@ -4870,8 +5062,11 @@
       <c r="V64">
         <v>111</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -4896,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>8.9870000000000001</v>
@@ -4940,8 +5135,11 @@
       <c r="V65">
         <v>116</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -4966,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>11.3</v>
@@ -5010,8 +5208,11 @@
       <c r="V66">
         <v>121</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -5033,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="3">
         <v>7.6509999999999998</v>
@@ -5077,8 +5278,11 @@
       <c r="V67">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -5100,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>7.5730000000000004</v>
@@ -5144,8 +5348,11 @@
       <c r="V68">
         <v>131</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -5167,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>8.24</v>
@@ -5211,8 +5418,11 @@
       <c r="V69">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -5234,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>8.8149999999999995</v>
@@ -5278,8 +5488,11 @@
       <c r="V70">
         <v>141</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -5301,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>9.51</v>
@@ -5345,8 +5558,11 @@
       <c r="V71">
         <v>146</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -5368,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>10.433</v>
@@ -5412,8 +5628,11 @@
       <c r="V72">
         <v>152</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -5435,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>10.433</v>
@@ -5479,8 +5698,11 @@
       <c r="V73">
         <v>157</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -5502,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>10.16</v>
@@ -5546,8 +5768,11 @@
       <c r="V74">
         <v>162</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -5569,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>8.9359999999999999</v>
@@ -5613,8 +5838,11 @@
       <c r="V75">
         <v>167</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -5636,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>7.4989999999999997</v>
@@ -5680,8 +5908,11 @@
       <c r="V76">
         <v>172</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -5703,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="3">
         <v>7.8070000000000004</v>
@@ -5747,8 +5978,11 @@
       <c r="V77">
         <v>177</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -5770,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>8.1630000000000003</v>
@@ -5814,8 +6048,11 @@
       <c r="V78">
         <v>182</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -5837,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>8.0850000000000009</v>
@@ -5881,8 +6118,11 @@
       <c r="V79">
         <v>187</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -5904,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>8.0850000000000009</v>
@@ -5948,8 +6188,11 @@
       <c r="V80">
         <v>192</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -5971,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>8.3629999999999995</v>
@@ -6014,6 +6257,9 @@
       </c>
       <c r="V81">
         <v>197</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6026,8 +6272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C18A9-4F48-4D4D-9F77-EF08D571A3B2}">
   <dimension ref="C1:AH100"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="125" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W81"/>
+    <sheetView topLeftCell="C1" zoomScale="125" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_data/Irish_19th_century_data.xlsx
+++ b/01_data/Irish_19th_century_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DDFEBB-CB1E-B04E-975E-6AE2FEA34B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78593A3-B114-1444-A6C7-F48B895268D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="25480" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -584,8 +584,8 @@
   <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X11" sqref="X11"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
